--- a/20220426_algo_v2_10/algo_results/rec_result/generalized_cf_recommendation_map.xlsx
+++ b/20220426_algo_v2_10/algo_results/rec_result/generalized_cf_recommendation_map.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>动态:20389,动态:21249,动态:20152,动态:20300,动态:10107,动态:22661,动态:11938,动态:14134,动态:20067,动态:6626,动态:20439,动态:9488,动态:20645,动态:17542,动态:22242,动态:22698,动态:22430,动态:20490,动态:21084,动态:20330,动态:11736,动态:21310,动态:3096,动态:3178,动态:20103,动态:15061,动态:3150,动态:3522,动态:4302,动态:4027,动态:3793,动态:3168,动态:19854,动态:3138,动态:3099,动态:17625,动态:15473,动态:3795,动态:3110,动态:144,动态:3119,动态:3081,动态:3153,动态:3072,动态:3133,动态:21737,动态:22692,动态:21780,动态:21436,动态:21741</t>
+          <t>动态:13911,动态:16942,动态:20389,动态:9769,动态:19018,动态:17867,动态:13495,动态:20333,动态:20486,动态:20319,动态:15977,动态:20312,动态:21166,动态:3119,动态:20362,动态:6821,动态:3178,动态:13782,动态:3099,动态:16617,动态:3138,动态:3096,动态:18740,动态:3795,动态:3168,动态:3153,动态:3081,动态:4302,动态:4027,动态:16074,动态:3150,动态:3793,动态:3133,动态:3110,动态:3072,动态:144,动态:3522,动态:21757,动态:22019,动态:22684,动态:21556,动态:22680,动态:22323,动态:21737,动态:21975,动态:22710,动态:20440,动态:22699,动态:20720,动态:21745</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>动态:12865,动态:8160,动态:10932,动态:18792,动态:22234,动态:17976,动态:17582,动态:12381,动态:17471,动态:19544,动态:13146,动态:19821,动态:13883,动态:9552,动态:20772,动态:16111,动态:8259,动态:22346,动态:20653,动态:18168,动态:15533,动态:11767,动态:7739,动态:18829,动态:20200,动态:20558,动态:18654,动态:17817,动态:16347,动态:12567,动态:20319,动态:16223,动态:18085,动态:17375,动态:13142,动态:19810,动态:20312,动态:14342,动态:21959,动态:13384,动态:9410,动态:21597,动态:17333,动态:11645,动态:21939,动态:20399,动态:21737,动态:22512,动态:22685,动态:22323</t>
+          <t>动态:21267,动态:12313,动态:13621,动态:12322,动态:14794,动态:20663,动态:20803,动态:11870,动态:22291,动态:15044,动态:20419,动态:2760,动态:12902,动态:13548,动态:18683,动态:18054,动态:19625,动态:12047,动态:19899,动态:6729,动态:11269,动态:4890,动态:18629,动态:13875,动态:22074,动态:22296,动态:11695,动态:13116,动态:20319,动态:9479,动态:6549,动态:18655,动态:19821,动态:17966,动态:22634,动态:22346,动态:13187,动态:22502,动态:17471,动态:10478,动态:21743,动态:7349,动态:9860,动态:20440,动态:14463,动态:13128,动态:22710,动态:22697,动态:22696,动态:22699</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>动态:21960,动态:11793,动态:12362,动态:20521,动态:17174,动态:17177,动态:9156,动态:12326,动态:11191,动态:22609,动态:7011,动态:6666,动态:16280,动态:16199,动态:6767,动态:15354,动态:4036,动态:17337,动态:22659,动态:22702,动态:22688,动态:22697,动态:22698,动态:22323,动态:20720,动态:20440,动态:22706,动态:20439,动态:21776,动态:21763,动态:22507,动态:21972,动态:21756,动态:21745,动态:22699,动态:22685,动态:21737,动态:20364,动态:21757,动态:21975,动态:21727,动态:22019,动态:22146,动态:21556,动态:21436,动态:21857,动态:22512,动态:21780,动态:22710</t>
+          <t>动态:13833,动态:15814,动态:21752,动态:9307,动态:12362,动态:13814,动态:11135,动态:16191,动态:7145,动态:17228,动态:8892,动态:17165,动态:22667,动态:22684,动态:22702,动态:22680,动态:22685,动态:21737,动态:21556,动态:21753,动态:4036,动态:22512,动态:22019,动态:20440,动态:21740,动态:21436,动态:21975,动态:22659,动态:21756,动态:17337,动态:21763,动态:22706,动态:22507,动态:22688,动态:7746,动态:20720,动态:21776,动态:22692,动态:21972,动态:22146,动态:22696,动态:22698,动态:22699,动态:22697,动态:20364,动态:21727,动态:21780,动态:21857,动态:21745,动态:20439</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>动态:6252,动态:621,动态:22699,动态:3073,动态:3174,动态:3076,动态:6447,动态:6916,动态:6858,动态:3107,动态:7464,动态:15667,动态:3897,动态:19939,动态:6865,动态:15498,动态:21970,动态:6906,动态:3796,动态:3104,动态:6909,动态:3162,动态:3979,动态:3166,动态:7789,动态:20525,动态:12111,动态:7383,动态:7186,动态:4031,动态:21470,动态:6325,动态:16721,动态:10239,动态:6638,动态:4683,动态:22696,动态:21780,动态:17742,动态:6901,动态:20516,动态:21972,动态:22667,动态:20440,动态:21741,动态:22692,动态:20439,动态:21737</t>
+          <t>动态:18615,动态:13961,动态:16721,动态:3174,动态:10926,动态:6906,动态:6447,动态:3073,动态:6901,动态:22099,动态:6916,动态:3166,动态:4031,动态:3897,动态:11110,动态:6865,动态:7789,动态:6858,动态:22699,动态:621,动态:7007,动态:7383,动态:12411,动态:3796,动态:11077,动态:20516,动态:21780,动态:7186,动态:15659,动态:6252,动态:3076,动态:21970,动态:3162,动态:22696,动态:3524,动态:16692,动态:6909,动态:3979,动态:3107,动态:18906,动态:18647,动态:21470,动态:5653,动态:7464,动态:7405,动态:20720,动态:21745,动态:22659,动态:22685,动态:22702</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>动态:11863,动态:20022,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:19836,动态:17145,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>动态:10979,动态:10237,动态:11440,动态:10122,动态:15367,动态:20112,动态:19189,动态:14305,动态:22188,动态:17381,动态:13605,动态:18595,动态:19181,动态:18407,动态:15521,动态:3126,动态:11274,动态:11037,动态:21737,动态:22697,动态:22692,动态:21763,动态:22659,动态:22323,动态:7746,动态:22507,动态:20720,动态:22680,动态:22699,动态:21756,动态:21757,动态:22710,动态:22019,动态:20399,动态:21975,动态:20439,动态:20364,动态:21556,动态:22512,动态:21741,动态:22696,动态:21776,动态:22146,动态:22698,动态:21857,动态:21727,动态:22684,动态:17337,动态:21740,动态:22685</t>
+          <t>动态:9480,动态:5270,动态:20517,动态:11497,动态:13637,动态:20444,动态:12085,动态:19230,动态:17976,动态:7589,动态:15885,动态:13425,动态:22381,动态:17720,动态:21858,动态:14043,动态:16492,动态:18841,动态:8704,动态:7751,动态:8169,动态:22710,动态:21975,动态:22323,动态:21740,动态:7746,动态:21753,动态:21780,动态:22146,动态:22684,动态:20439,动态:21763,动态:22699,动态:22697,动态:22507,动态:22667,动态:21776,动态:22688,动态:22680,动态:17337,动态:21857,动态:20399,动态:22019,动态:22706,动态:22692,动态:21972,动态:21737,动态:22696,动态:21741,动态:21436</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>动态:16960,动态:12901,动态:19716,动态:19706,动态:17976,动态:20356,动态:21857,动态:18868,动态:20401,动态:17304,动态:6782,动态:7746,动态:22707,动态:7145,动态:12592,动态:13674,动态:22659,动态:22696,动态:21745,动态:4036,动态:22684,动态:22512,动态:17337,动态:21737,动态:21763,动态:22710,动态:21727,动态:20399,动态:22507,动态:21741,动态:22146,动态:22688,动态:21776,动态:21753,动态:20439,动态:20364,动态:22706,动态:22699,动态:22697,动态:21757,动态:20440,动态:21975,动态:21556,动态:21972,动态:22692,动态:22698,动态:22702,动态:22323</t>
+          <t>动态:6620,动态:20310,动态:21417,动态:20389,动态:15623,动态:20200,动态:18871,动态:20401,动态:22710,动态:11607,动态:15498,动态:7203,动态:17341,动态:12592,动态:7150,动态:17443,动态:6637,动态:9097,动态:19251,动态:15354,动态:7226,动态:6816,动态:21763,动态:22146,动态:21776,动态:22702,动态:22697,动态:22692,动态:21741,动态:22684,动态:21857,动态:22659,动态:21727,动态:21745,动态:20439,动态:21556,动态:22698,动态:21972,动态:22323,动态:20364,动态:22507,动态:21740,动态:22019,动态:22699,动态:22512,动态:22680,动态:4036,动态:22706,动态:20440,动态:21756</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>动态:7133,动态:18608,动态:14377,动态:13666,动态:11168,动态:1310,动态:16296,动态:13672,动态:18583,动态:21743,动态:20527,动态:17375,动态:10527,动态:15769,动态:11837,动态:7586,动态:7528,动态:3249,动态:3178,动态:3522,动态:8550,动态:11267,动态:4302,动态:3096,动态:3150,动态:22706,动态:3081,动态:3119,动态:144,动态:3110,动态:3795,动态:3072,动态:3099,动态:3138,动态:13377,动态:3168,动态:3793,动态:6845,动态:4027,动态:3153,动态:3133,动态:20440,动态:22698,动态:21745,动态:21556,动态:22146,动态:17337,动态:21857,动态:22685</t>
+          <t>动态:21105,动态:12084,动态:3120,动态:8176,动态:15280,动态:6548,动态:14791,动态:20966,动态:3096,动态:3178,动态:3119,动态:4031,动态:3099,动态:3138,动态:144,动态:3795,动态:3153,动态:3168,动态:3081,动态:19658,动态:17107,动态:4302,动态:4027,动态:3150,动态:18236,动态:3793,动态:3133,动态:3110,动态:3072,动态:5653,动态:3522,动态:21753,动态:20440,动态:20720,动态:22702,动态:21556,动态:22659,动态:21727,动态:22323,动态:21740,动态:22507,动态:22019,动态:22685,动态:22698,动态:20439,动态:20399,动态:21857,动态:20364,动态:21757,动态:22706</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>动态:13605,动态:8969,动态:7386,动态:16754,动态:6666,动态:16263,动态:9415,动态:6777,动态:6789,动态:13793,动态:857,动态:17509,动态:22699,动态:22680,动态:21975,动态:20720,动态:21757,动态:22688,动态:21756,动态:22685,动态:21737,动态:4036,动态:21972,动态:22684,动态:21780,动态:22710,动态:22512,动态:22659,动态:22667,动态:22696,动态:20440,动态:22019,动态:21776,动态:22697,动态:20399,动态:21436,动态:22507,动态:21741,动态:20364,动态:22698,动态:22702,动态:21556,动态:21753,动态:21763,动态:17337,动态:22692,动态:22323,动态:7746,动态:22706,动态:20439</t>
+          <t>动态:7735,动态:19821,动态:22545,动态:19723,动态:20389,动态:13690,动态:16257,动态:9488,动态:3249,动态:8137,动态:10592,动态:10298,动态:6789,动态:16620,动态:6819,动态:4036,动态:22512,动态:20364,动态:21727,动态:21740,动态:22659,动态:22146,动态:22692,动态:21780,动态:21757,动态:22688,动态:20439,动态:21753,动态:22507,动态:22684,动态:22685,动态:21745,动态:22699,动态:21776,动态:22698,动态:22680,动态:22702,动态:21857,动态:21972,动态:22019,动态:22696,动态:21737,动态:20399,动态:20720,动态:21763,动态:22667,动态:22323,动态:21556,动态:21975</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>动态:13407,动态:16848,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:16232,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>动态:16263,动态:6187,动态:6462,动态:17625,动态:15617,动态:6689,动态:8618,动态:20319,动态:20387,动态:20419,动态:6784,动态:11281,动态:20440,动态:22310,动态:21741,动态:20399,动态:22659,动态:21972,动态:21436,动态:21763,动态:21727,动态:20720,动态:4036,动态:21857,动态:22680,动态:21756,动态:22323,动态:22710,动态:21556,动态:22512,动态:20439,动态:21757,动态:21975,动态:22667,动态:22507,动态:22706,动态:20364,动态:22684,动态:22692,动态:21776,动态:22702,动态:21753,动态:22697,动态:22019,动态:21745,动态:22696,动态:21737,动态:17337,动态:22698</t>
+          <t>动态:20399,动态:6462,动态:7099,动态:6637,动态:17954,动态:7604,动态:20337,动态:6680,动态:20356,动态:19230,动态:22507,动态:19417,动态:17304,动态:20351,动态:22310,动态:21727,动态:21757,动态:22680,动态:22667,动态:21780,动态:22323,动态:22702,动态:21776,动态:21745,动态:21763,动态:21857,动态:22019,动态:22685,动态:22688,动态:20440,动态:22659,动态:22684,动态:22697,动态:22692,动态:22146,动态:21975,动态:20720,动态:20439,动态:7746,动态:21737,动态:21972,动态:4036,动态:22706,动态:21740,动态:21741,动态:22696,动态:17337,动态:22699</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>动态:17964,动态:5149,动态:17728,动态:9130,动态:14963,动态:12012,动态:6293,动态:10360,动态:7310,动态:21235,动态:12047,动态:21540,动态:11125,动态:20005,动态:17710,动态:22696,动态:22507,动态:21556,动态:21727,动态:22667,动态:21753,动态:22699,动态:22692,动态:22702,动态:22019,动态:21857,动态:21741,动态:22710,动态:22680,动态:20364,动态:21780,动态:21757,动态:21763,动态:22697,动态:22706,动态:21975,动态:20720,动态:21756,动态:21740,动态:22684,动态:21745,动态:22512,动态:20399,动态:22146,动态:20439,动态:17337,动态:22685,动态:4036,动态:21776,动态:22688</t>
+          <t>动态:11782,动态:7310,动态:15415,动态:14829,动态:19646,动态:14735,动态:20113,动态:14649,动态:20523,动态:13276,动态:14214,动态:3156,动态:4296,动态:7586,动态:15855,动态:17072,动态:14768,动态:22512,动态:22710,动态:21763,动态:22696,动态:21741,动态:22692,动态:22697,动态:21727,动态:20440,动态:22698,动态:20364,动态:17337,动态:22323,动态:22685,动态:20439,动态:21776,动态:21780,动态:21753,动态:7746,动态:21745,动态:22699,动态:22019,动态:21757,动态:21737,动态:22706,动态:22688,动态:21975,动态:20399,动态:22680,动态:21556,动态:20720,动态:22667,动态:22507</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>动态:8976,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:16792,动态:21301,动态:22503,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>动态:17106,动态:18619,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:21845,动态:17966,动态:17974,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>动态:6784,动态:22076,动态:6782,动态:6686,动态:6689,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:17543,动态:13888,动态:11432,动态:9981,动态:6784,动态:6686,动态:6782,动态:6689,动态:21776,动态:22512,动态:20439,动态:21756,动态:22667,动态:20720,动态:22323,动态:22684,动态:22696,动态:22685,动态:22507,动态:22692,动态:21857,动态:22698,动态:22146,动态:22680,动态:21753,动态:21556,动态:22699,动态:22702,动态:21741,动态:7746,动态:21975,动态:4036,动态:21727,动态:22710,动态:20399,动态:21436,动态:21757,动态:22659,动态:17337,动态:20364,动态:21737,动态:21745,动态:21780,动态:21740,动态:22697,动态:22688,动态:22019,动态:21763,动态:22706,动态:20440</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>动态:8701,动态:8133,动态:20348,动态:7983,动态:12275,动态:11758,动态:10514,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:7022,动态:14875,动态:13210,动态:22624,动态:20809,动态:12845,动态:8259,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>动态:19182,动态:12003,动态:15711,动态:6601,动态:12829,动态:15558,动态:15280,动态:20481,动态:7710,动态:15485,动态:18314,动态:12353,动态:14502,动态:6777,动态:16457,动态:21776,动态:22680,动态:22710,动态:17337,动态:20439,动态:22706,动态:22667,动态:21745,动态:21763,动态:22512,动态:22696,动态:22688,动态:21753,动态:20720,动态:21737,动态:22146,动态:22699,动态:21857,动态:20364,动态:22684,动态:21756,动态:22692,动态:22685,动态:20440,动态:7746,动态:21740,动态:22019,动态:21741,动态:22507,动态:21556,动态:21436,动态:22323,动态:21780,动态:4036,动态:22697</t>
+          <t>动态:21267,动态:20759,动态:15861,动态:13481,动态:11584,动态:19702,动态:12903,动态:19481,动态:9584,动态:21990,动态:10070,动态:13534,动态:10069,动态:10772,动态:11497,动态:6808,动态:19380,动态:11861,动态:15000,动态:20738,动态:18830,动态:13727,动态:18376,动态:11075,动态:13818,动态:18164,动态:16052,动态:19350,动态:16457,动态:21975,动态:20440,动态:20720,动态:21776,动态:21737,动态:22684,动态:21753,动态:22697,动态:22696,动态:22146,动态:21757,动态:21756,动态:22702,动态:21780,动态:22692,动态:21741,动态:22680,动态:21972,动态:21436,动态:21727,动态:21740</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>动态:13376,动态:18740,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:11897,动态:19281,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>动态:14410,动态:12845,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:20067,动态:9160,动态:12845,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>动态:12422,动态:14683,动态:14305,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:14830,动态:19494,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>动态:22195,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:20459,动态:13837,动态:10539,动态:21737,动态:22702,动态:22710,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>动态:20837,动态:17304,动态:20394,动态:16914,动态:20439,动态:15948,动态:244,动态:21118,动态:14134,动态:9478,动态:12592,动态:16401,动态:12589,动态:22707,动态:20337,动态:8568,动态:13063,动态:9097,动态:22699,动态:3174,动态:6447,动态:6916,动态:3107,动态:7464,动态:3897,动态:21970,动态:3076,动态:3073,动态:6252,动态:3796,动态:3979,动态:3166,动态:7789,动态:20525,动态:7383,动态:7186,动态:4036,动态:621,动态:4031,动态:20516,动态:16721,动态:22696,动态:21780,动态:6901,动态:3162,动态:21763,动态:22698,动态:22680,动态:6325,动态:21776</t>
+          <t>动态:12829,动态:7678,动态:6622,动态:11985,动态:12322,动态:12690,动态:12893,动态:20376,动态:20356,动态:10107,动态:18989,动态:20374,动态:13067,动态:20152,动态:6808,动态:9163,动态:6789,动态:16395,动态:6637,动态:3979,动态:3073,动态:6901,动态:4036,动态:6916,动态:4031,动态:3166,动态:3897,动态:7789,动态:21780,动态:22699,动态:621,动态:7186,动态:6447,动态:16721,动态:6252,动态:3076,动态:6325,动态:20516,动态:3104,动态:7383,动态:20525,动态:7464,动态:21470,动态:3175,动态:21970,动态:20720,动态:22697,动态:22684,动态:22146,动态:22692</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>动态:8468,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:11096,动态:1299,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>动态:21530,动态:19420,动态:14964,动态:18932,动态:15793,动态:20376,动态:7577,动态:22512,动态:8123,动态:19511,动态:9499,动态:12283,动态:12829,动态:11590,动态:10687,动态:20356,动态:8142,动态:21103,动态:13445,动态:19749,动态:18305,动态:21301,动态:6615,动态:10254,动态:15491,动态:20658,动态:3806,动态:15300,动态:4210,动态:20488,动态:21589,动态:22667,动态:19417,动态:22323,动态:19939,动态:13043,动态:11564,动态:7530,动态:13694,动态:13082,动态:15541,动态:20374,动态:11004,动态:20092,动态:14821,动态:17817,动态:15752,动态:14014,动态:22699,动态:21975</t>
+          <t>动态:18855,动态:10601,动态:15145,动态:779,动态:11863,动态:15916,动态:11806,动态:13661,动态:7119,动态:16110,动态:17529,动态:20947,动态:16646,动态:12777,动态:6553,动态:18409,动态:8940,动态:9552,动态:16609,动态:12078,动态:20611,动态:11002,动态:692,动态:19004,动态:21785,动态:18088,动态:11478,动态:16111,动态:10416,动态:13416,动态:17498,动态:21481,动态:13756,动态:19835,动态:9118,动态:14217,动态:14247,动态:15600,动态:3113,动态:14609,动态:240,动态:13193,动态:16740,动态:18173,动态:21723,动态:22710,动态:20440,动态:22698,动态:12293,动态:19200</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>动态:19269,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:9132,动态:16211,动态:4968,动态:13249,动态:18932,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>动态:21259,动态:20419,动态:20089,动态:19007,动态:20310,动态:20092,动态:6647,动态:20356,动态:19995,动态:6620,动态:12690,动态:20401,动态:22708,动态:7062,动态:19783,动态:22684,动态:20399,动态:21776,动态:7746,动态:22706,动态:22685,动态:22696,动态:22507,动态:21753,动态:21975,动态:21556,动态:21745,动态:22667,动态:22698,动态:22710,动态:22680,动态:22323,动态:22692,动态:21741,动态:21737,动态:22702,动态:21727,动态:21756,动态:22512,动态:22659,动态:22697,动态:20364,动态:21857,动态:21740,动态:22699,动态:20720,动态:21972,动态:22146,动态:21436,动态:21757</t>
+          <t>动态:19208,动态:11434,动态:16602,动态:20069,动态:20356,动态:20332,动态:6691,动态:19935,动态:18467,动态:12711,动态:22667,动态:6622,动态:16385,动态:20399,动态:12595,动态:22707,动态:20398,动态:16395,动态:12593,动态:20364,动态:22684,动态:22323,动态:22696,动态:22688,动态:22692,动态:21756,动态:21972,动态:22680,动态:21740,动态:21780,动态:22697,动态:22507,动态:22706,动态:21436,动态:22019,动态:22698,动态:21745,动态:7746,动态:22710,动态:22659,动态:22512,动态:22702,动态:21737,动态:21776,动态:21556,动态:17337,动态:21757</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>动态:3142,动态:3153,动态:19278,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:13327,动态:14421,动态:3142,动态:3153,动态:21854,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>动态:8109,动态:10457,动态:14805,动态:19144,动态:13426,动态:12311,动态:13039,动态:13056,动态:22092,动态:14995,动态:13249,动态:16071,动态:16222,动态:21364,动态:16382,动态:20864,动态:12919,动态:19401,动态:22506,动态:16713,动态:11009,动态:13962,动态:16837,动态:17151,动态:19625,动态:13523,动态:7517,动态:12269,动态:14730,动态:11567,动态:12379,动态:13868,动态:11539,动态:16848,动态:10342,动态:8621,动态:20177,动态:11106,动态:20265,动态:15066,动态:22085,动态:12552,动态:21484,动态:11942,动态:20618,动态:22710,动态:11909,动态:21753,动态:13672,动态:22499</t>
+          <t>动态:21267,动态:6905,动态:20851,动态:20810,动态:21497,动态:13249,动态:20881,动态:20714,动态:12881,动态:15277,动态:13135,动态:20481,动态:21538,动态:6766,动态:11302,动态:12399,动态:20268,动态:20022,动态:12027,动态:9276,动态:12623,动态:15181,动态:22042,动态:18088,动态:17060,动态:5574,动态:9461,动态:17216,动态:12284,动态:18742,动态:10870,动态:9768,动态:20771,动态:17963,动态:8296,动态:7354,动态:16222,动态:15946,动态:3117,动态:13255,动态:13201,动态:11734,动态:15340,动态:22673,动态:22103,动态:21776,动态:22685,动态:22688,动态:22019,动态:22684</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>动态:18618,动态:17341,动态:16914,动态:20419,动态:13289,动态:7735,动态:6479,动态:20401,动态:17304,动态:17481,动态:17443,动态:17501,动态:20399,动态:6637,动态:17625,动态:20398,动态:20364,动态:21741,动态:22688,动态:22710,动态:21740,动态:22684,动态:21757,动态:22659,动态:7746,动态:20439,动态:21776,动态:22698,动态:20720,动态:20440,动态:21780,动态:22685,动态:22696,动态:22697,动态:22323,动态:21763,动态:21727,动态:21753,动态:21857,动态:22706,动态:21975,动态:22507,动态:21556,动态:22146,动态:21972,动态:21756,动态:21737,动态:21745,动态:22512,动态:22699</t>
+          <t>动态:9163,动态:17481,动态:19810,动态:17304,动态:20398,动态:3153,动态:4036,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>动态:10690,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:11635,动态:11521,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>动态:20399,动态:20364,动态:20439,动态:21975,动态:21741,动态:22692,动态:17337,动态:21972,动态:22323,动态:22706,动态:21763,动态:21753,动态:22507,动态:21745,动态:22680,动态:22667,动态:7746,动态:22710,动态:21780,动态:22696,动态:22512,动态:21756,动态:22659,动态:22688,动态:22685,动态:21737,动态:21757,动态:21776,动态:4036,动态:21857,动态:22697,动态:21727,动态:22019,动态:22684,动态:22699,动态:22146,动态:21740,动态:21436,动态:21556,动态:20720,动态:22698,动态:22702</t>
+          <t>动态:11972,动态:16039,动态:21194,动态:17949,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>动态:12920,动态:8873,动态:19658,动态:14463,动态:18451,动态:6648,动态:9376,动态:13862,动态:14498,动态:22624,动态:17543,动态:7310,动态:14707,动态:1340,动态:3418,动态:12917,动态:16518,动态:22699,动态:21745,动态:22698,动态:21737,动态:22710,动态:20364,动态:21972,动态:21740,动态:21436,动态:20399,动态:22680,动态:21556,动态:20440,动态:22659,动态:21756,动态:22667,动态:17337,动态:21857,动态:22512,动态:4036,动态:22706,动态:22685,动态:7746,动态:21741,动态:22702,动态:22019,动态:22146,动态:22696,动态:22688,动态:21780,动态:22692,动态:21776,动态:22684</t>
+          <t>动态:9097,动态:13793,动态:16273,动态:11374,动态:9093,动态:13818,动态:17237,动态:2926,动态:8129,动态:10535,动态:20764,动态:10071,动态:12917,动态:12919,动态:8940,动态:17619,动态:18906,动态:15963,动态:20854,动态:15935,动态:7310,动态:10106,动态:22697,动态:22323,动态:21436,动态:21740,动态:21763,动态:4036,动态:20439,动态:21776,动态:21737,动态:21756,动态:21753,动态:22696,动态:20399,动态:22699,动态:22706,动态:17337,动态:22688,动态:22146,动态:22702,动态:22684,动态:22512,动态:22692,动态:20440,动态:21857,动态:22685,动态:22659,动态:22698,动态:21556</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>动态:17102,动态:12374,动态:14733,动态:13971,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:18309,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>动态:12276,动态:3584,动态:11281,动态:16563,动态:12645,动态:20864,动态:15285,动态:22291,动态:21743,动态:21540,动态:19296,动态:15877,动态:7532,动态:16958,动态:19882,动态:4042,动态:21589,动态:12384,动态:11466,动态:18867,动态:16166,动态:6461,动态:20853,动态:20738,动态:21129,动态:12046,动态:11610,动态:11972,动态:11285,动态:17541,动态:11280,动态:14695,动态:11861,动态:11396,动态:11863,动态:19097,动态:17460,动态:17747,动态:21664,动态:15302,动态:4968,动态:11328,动态:19642,动态:9282,动态:22316,动态:4036,动态:621,动态:22696,动态:22684,动态:22698</t>
+          <t>动态:15078,动态:9503,动态:14409,动态:11328,动态:19620,动态:11993,动态:9499,动态:12384,动态:11014,动态:6479,动态:12636,动态:7002,动态:12380,动态:15145,动态:13814,动态:20759,动态:7824,动态:11168,动态:19792,动态:11285,动态:12836,动态:11015,动态:19219,动态:11863,动态:10375,动态:12015,动态:21675,动态:19422,动态:11466,动态:19706,动态:4296,动态:10959,动态:11697,动态:16618,动态:8465,动态:12891,动态:840,动态:14008,动态:8752,动态:20390,动态:22654,动态:13971,动态:15352,动态:11281,动态:10971,动态:21756,动态:22680,动态:20399,动态:22323,动态:7746</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>动态:15669,动态:11291,动态:6838,动态:12372,动态:6895,动态:6773,动态:8129,动态:10452,动态:18322,动态:7608,动态:14446,动态:14241,动态:16656,动态:11154,动态:10271,动态:13131,动态:20093,动态:13200,动态:8742,动态:5896,动态:18158,动态:19435,动态:14019,动态:6517,动态:18668,动态:18313,动态:20130,动态:8769,动态:8775,动态:5662,动态:6534,动态:20103,动态:11043,动态:5216,动态:10262,动态:18462,动态:17108,动态:14271,动态:17237,动态:16478,动态:10079,动态:17691,动态:10553,动态:13089,动态:14684,动态:22685,动态:21972,动态:7045,动态:20082,动态:19886</t>
+          <t>动态:14875,动态:10429,动态:6887,动态:11063,动态:11444,动态:20008,动态:12053,动态:13086,动态:18490,动态:18167,动态:9039,动态:7360,动态:20997,动态:12595,动态:6546,动态:6456,动态:11268,动态:8631,动态:4880,动态:13095,动态:15984,动态:16300,动态:16263,动态:4512,动态:10954,动态:9286,动态:2926,动态:19127,动态:13803,动态:11408,动态:15332,动态:16162,动态:20337,动态:19847,动态:13775,动态:15947,动态:16833,动态:4345,动态:5151,动态:14431,动态:12329,动态:8618,动态:14208,动态:20052,动态:12654,动态:18372,动态:10944,动态:20439,动态:21737,动态:5415</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>动态:13557,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:20440,动态:22688,动态:22512,动态:21556,动态:21780,动态:21776,动态:22702,动态:21753,动态:22659,动态:22507,动态:22706,动态:22146,动态:20399,动态:20439,动态:21857,动态:22696,动态:22698,动态:22667,动态:22680,动态:22697,动态:22710,动态:20364,动态:22685,动态:22019,动态:21740,动态:22699,动态:22684,动态:21756,动态:7746,动态:21737,动态:22692,动态:17337,动态:21727,动态:21972,动态:21975,动态:21741,动态:21757,动态:4036,动态:21436,动态:21745,动态:21763,动态:22323,动态:20720</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>动态:13789,动态:20145,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:18313,动态:12126,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>动态:20623,动态:20720,动态:21797,动态:11861,动态:13067,动态:22019,动态:20755,动态:10069,动态:15322,动态:19018,动态:21115,动态:20362,动态:19231,动态:3174,动态:22699,动态:3979,动态:6916,动态:3107,动态:3897,动态:3076,动态:621,动态:3104,动态:3796,动态:3162,动态:21780,动态:22696,动态:20516,动态:6325,动态:4031,动态:4036,动态:7383,动态:20525,动态:7789,动态:3166,动态:3073,动态:21470,动态:22323,动态:21556,动态:21753,动态:21757,动态:22706,动态:22507,动态:21975,动态:22684,动态:21857,动态:21727,动态:21741</t>
+          <t>动态:12967,动态:15318,动态:20720,动态:6888,动态:20358,动态:21737,动态:14187,动态:10070,动态:13067,动态:20390,动态:20598,动态:21201,动态:20333,动态:20355,动态:16617,动态:20071,动态:21470,动态:7383,动态:21780,动态:621,动态:22699,动态:7789,动态:3076,动态:3897,动态:4031,动态:3166,动态:4036,动态:3162,动态:3107,动态:3073,动态:3174,动态:22696,动态:3979,动态:6325,动态:20516,动态:3104,动态:20525,动态:6916,动态:3796,动态:22692,动态:21436,动态:21741,动态:21740,动态:21776,动态:21975,动态:21972,动态:22507,动态:22659,动态:21753</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>动态:21201,动态:19987,动态:20330,动态:11396,动态:11863,动态:20419,动态:22019,动态:13082,动态:11399,动态:676,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:20622,动态:17367,动态:20374,动态:11863,动态:20066,动态:20356,动态:20836,动态:15654,动态:13082,动态:14187,动态:20598,动态:21084,动态:22507,动态:17954,动态:7746,动态:11399,动态:20348,动态:21741,动态:22659,动态:4036,动态:21780,动态:22019,动态:22706,动态:22323,动态:21727,动态:20720,动态:21975,动态:22702,动态:21857,动态:22710,动态:21753,动态:22684,动态:22697,动态:21776,动态:22146,动态:22699,动态:21556,动态:21740,动态:21436,动态:22696,动态:21757,动态:17337,动态:22688,动态:21763,动态:22692,动态:21756,动态:22667,动态:22680</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>动态:6884,动态:20864,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:14601,动态:15638,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>动态:22484,动态:19882,动态:20960,动态:16269,动态:13425,动态:21990,动态:20328,动态:13306,动态:10581,动态:19614,动态:12056,动态:15499,动态:16457,动态:4184,动态:18771,动态:5115,动态:22110,动态:13316,动态:6186,动态:16893,动态:12643,动态:11158,动态:6782,动态:15299,动态:7789,动态:22684,动态:20440,动态:21756,动态:21740,动态:22698,动态:22697,动态:7746,动态:20399,动态:22680,动态:17337,动态:22659,动态:22667,动态:22685,动态:21556,动态:21745,动态:22146,动态:21436,动态:22512,动态:21727,动态:22702,动态:21757,动态:20439,动态:22706,动态:21737,动态:21753</t>
+          <t>动态:6645,动态:20479,动态:17720,动态:10984,动态:784,动态:15916,动态:20664,动态:4184,动态:7310,动态:10914,动态:15490,动态:18781,动态:22103,动态:8257,动态:17954,动态:15531,动态:20264,动态:11783,动态:20389,动态:19268,动态:14019,动态:17265,动态:18110,动态:10375,动态:21757,动态:21727,动态:22507,动态:22688,动态:21753,动态:21737,动态:21780,动态:21741,动态:21776,动态:21756,动态:20440,动态:22692,动态:22696,动态:22698,动态:21763,动态:22710,动态:21745,动态:20439,动态:22697,动态:22512,动态:22706,动态:20720,动态:22684,动态:22146,动态:22680,动态:22659</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>动态:11264,动态:11110,动态:20738,动态:8123,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:7056,动态:17742,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>动态:12046,动态:15618,动态:15299,动态:18750,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:6899,动态:17687,动态:15151,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>动态:14439,动态:8082,动态:3178,动态:13081,动态:21540,动态:20440,动态:17619,动态:9786,动态:22680,动态:8010,动态:12853,动态:20505,动态:19229,动态:17326,动态:21763,动态:15752,动态:6618,动态:19899,动态:20994,动态:20267,动态:8619,动态:13756,动态:14646,动态:13773,动态:13210,动态:11077,动态:22019,动态:22706,动态:21776,动态:22507,动态:21737,动态:22702,动态:21727,动态:20364,动态:20439,动态:21975,动态:20399,动态:21740,动态:4036,动态:17337,动态:7746,动态:21972,动态:22692,动态:21857,动态:22698,动态:21753,动态:22697,动态:22659,动态:21757,动态:22710</t>
+          <t>动态:5662,动态:17515,动态:13970,动态:6905,动态:13402,动态:12883,动态:8940,动态:10526,动态:11422,动态:6612,动态:22460,动态:19751,动态:19144,动态:6840,动态:7145,动态:19898,动态:14696,动态:7746,动态:21972,动态:22667,动态:21727,动态:20439,动态:21753,动态:20440,动态:21776,动态:22659,动态:4036,动态:22699,动态:21763,动态:20720,动态:21780,动态:22680,动态:21756,动态:22696,动态:22323,动态:21857,动态:21737,动态:22697,动态:22706,动态:21436,动态:21556,动态:21740,动态:22507,动态:20364,动态:22698,动态:22692,动态:17337,动态:20399,动态:22684,动态:21741</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>动态:17627,动态:7359,动态:18466,动态:15066,动态:11009,动态:19560,动态:13407,动态:19824,动态:7041,动态:15806,动态:13416,动态:7130,动态:9473,动态:21763,动态:13557,动态:6548,动态:16312,动态:17290,动态:12402,动态:8107,动态:13884,动态:20809,动态:12331,动态:19906,动态:22698,动态:21975,动态:21740,动态:21857,动态:20439,动态:21756,动态:21436,动态:22692,动态:22688,动态:22507,动态:22696,动态:20364,动态:22512,动态:22697,动态:21776,动态:22706,动态:20720,动态:21556,动态:22710,动态:21757,动态:21741,动态:21727,动态:22680,动态:22323,动态:22684</t>
+          <t>动态:11406,动态:13509,动态:6848,动态:12049,动态:18500,动态:14736,动态:18339,动态:22512,动态:15773,动态:6956,动态:9488,动态:10165,动态:21084,动态:12889,动态:19419,动态:8015,动态:17973,动态:21627,动态:17112,动态:11391,动态:687,动态:22680,动态:13210,动态:11589,动态:676,动态:21756,动态:22696,动态:17337,动态:21436,动态:21740,动态:21727,动态:22667,动态:21975,动态:22706,动态:22692,动态:21972,动态:22684,动态:20720,动态:20364,动态:22685,动态:21763,动态:22710,动态:22688,动态:22019,动态:22659,动态:4036,动态:20399,动态:21753,动态:22697</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>动态:20518,动态:16165,动态:14401,动态:6584,动态:13282,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:3119,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>动态:15056,动态:8124,动态:13041,动态:3122,动态:7004,动态:15146,动态:14860,动态:17487,动态:17408,动态:22609,动态:11275,动态:13609,动态:17205,动态:12283,动态:13802,动态:14892,动态:6637,动态:821,动态:15191,动态:15630,动态:8976,动态:20246,动态:22146,动态:21740,动态:21753,动态:22680,动态:22688,动态:21556,动态:21757,动态:22702,动态:20364,动态:7746,动态:20399,动态:21756,动态:21737,动态:22684,动态:22692,动态:22710,动态:22667,动态:20440,动态:21727,动态:21745,动态:21763,动态:21776,动态:21857,动态:22685,动态:4036,动态:22696,动态:22512,动态:20439</t>
+          <t>动态:13729,动态:14058,动态:10995,动态:19529,动态:18378,动态:18695,动态:20127,动态:15415,动态:3078,动态:10290,动态:20356,动态:20821,动态:17582,动态:10890,动态:6779,动态:11736,动态:16358,动态:12197,动态:3418,动态:18024,动态:20143,动态:20658,动态:21737,动态:21436,动态:20440,动态:22019,动态:22667,动态:21745,动态:21727,动态:22696,动态:21975,动态:21780,动态:21757,动态:20439,动态:22692,动态:22710,动态:22699,动态:4036,动态:20720,动态:22512,动态:22659,动态:22323,动态:7746,动态:22706,动态:21972,动态:22698,动态:21741,动态:21857,动态:22680,动态:22702</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>动态:22653,动态:9167,动态:18000,动态:8659,动态:20680,动态:10694,动态:13928,动态:15115,动态:20149,动态:12392,动态:11331,动态:13534,动态:18467,动态:3150,动态:3178,动态:3096,动态:10362,动态:4302,动态:3081,动态:3153,动态:3119,动态:144,动态:3110,动态:3795,动态:3072,动态:3099,动态:3138,动态:3168,动态:3793,动态:4027,动态:11441,动态:3522,动态:3133,动态:21757,动态:21741,动态:22019,动态:22667,动态:22702,动态:22706,动态:21857,动态:22323,动态:22692,动态:21972,动态:21776,动态:22680,动态:21975,动态:21763,动态:17337,动态:22684,动态:21740</t>
+          <t>动态:15696,动态:14486,动态:11676,动态:6636,动态:13070,动态:13136,动态:12304,动态:19041,动态:8935,动态:19306,动态:19376,动态:16958,动态:16578,动态:21092,动态:9545,动态:14994,动态:17340,动态:3119,动态:3178,动态:3099,动态:3168,动态:3138,动态:3096,动态:3153,动态:3795,动态:10581,动态:3081,动态:4302,动态:4027,动态:3150,动态:3793,动态:3133,动态:3110,动态:3072,动态:144,动态:3522,动态:21975,动态:22685,动态:21741,动态:21756,动态:22697,动态:22659,动态:17337,动态:21727,动态:22702,动态:22698,动态:22680,动态:22512,动态:20364,动态:22688</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>动态:22199,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:7054,动态:6773,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>动态:16641,动态:17174,动态:6904,动态:9170,动态:17176,动态:17177,动态:7137,动态:16645,动态:6662,动态:17170,动态:17323,动态:17228,动态:17231,动态:17172,动态:17484,动态:17337,动态:22512,动态:22323,动态:22659,动态:21776,动态:21436,动态:22684,动态:22667,动态:21757,动态:21972,动态:22685,动态:22696,动态:21763,动态:20439,动态:7746,动态:22706,动态:21780,动态:22146,动态:22688,动态:4036,动态:22699,动态:22698,动态:21857,动态:21975,动态:22680,动态:20440,动态:22702,动态:21740,动态:21737,动态:20364,动态:21753,动态:22507,动态:22697,动态:22710,动态:22692</t>
+          <t>动态:16645,动态:6662,动态:17484,动态:16641,动态:6904,动态:17174,动态:17177,动态:17228,动态:17170,动态:17172,动态:7137,动态:17176,动态:17231,动态:22019,动态:22146,动态:21740,动态:21756,动态:20439,动态:21780,动态:22696,动态:21741,动态:20720,动态:22697,动态:22659,动态:7746,动态:22692,动态:22702,动态:22684,动态:22699,动态:20364,动态:22706,动态:22710,动态:20399,动态:21737,动态:21745,动态:21436,动态:21763,动态:21776,动态:22512,动态:22507,动态:21757,动态:17337,动态:21857,动态:21972,动态:22698,动态:22688,动态:22667,动态:22685,动态:4036,动态:20440</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>动态:14929,动态:14963,动态:14921,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:6522,动态:11043,动态:1327,动态:12871,动态:6789,动态:11147,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>动态:20673,动态:15037,动态:20005,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:9153,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>动态:6652,动态:6692,动态:6694,动态:15142,动态:9239,动态:15150,动态:6784,动态:19644,动态:17566,动态:6691,动态:15151,动态:6693,动态:14389,动态:6786,动态:9156,动态:11591,动态:6764,动态:6848,动态:6762,动态:6782,动态:6460,动态:6666,动态:6902,动态:6752,动态:6770,动态:6789,动态:6755,动态:6777,动态:6779,动态:3178,动态:3096,动态:3150,动态:144,动态:3522,动态:3153,动态:3081,动态:3119,动态:3110,动态:3795,动态:3072,动态:3099,动态:3138,动态:3168,动态:3793,动态:4027,动态:21556,动态:22697,动态:21776,动态:4036,动态:20720</t>
+          <t>动态:6692,动态:6693,动态:6694,动态:14634,动态:20254,动态:15150,动态:21301,动态:6691,动态:6786,动态:6784,动态:11215,动态:15142,动态:6777,动态:6773,动态:6848,动态:6790,动态:19932,动态:6762,动态:6789,动态:6782,动态:6767,动态:6902,动态:6770,动态:6845,动态:6761,动态:6752,动态:3119,动态:3099,动态:3178,动态:621,动态:3096,动态:144,动态:3168,动态:3795,动态:3153,动态:3081,动态:4302,动态:4027,动态:3150,动态:3793,动态:3133,动态:3110,动态:3072,动态:3138,动态:3522,动态:22685,动态:20440,动态:21780,动态:20399,动态:22697</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>动态:10136,动态:14667,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:10136,动态:9087,动态:4023,动态:15638,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>动态:11744,动态:19373,动态:13862,动态:13886,动态:18767,动态:15575,动态:13684,动态:9919,动态:17755,动态:14247,动态:21936,动态:19451,动态:16613,动态:15190,动态:12052,动态:3808,动态:22654,动态:14737,动态:20356,动态:12829,动态:13147,动态:7105,动态:6621,动态:22413,动态:16711,动态:14566,动态:10254,动态:15869,动态:14689,动态:11471,动态:3806,动态:11029,动态:20736,动态:20168,动态:11805,动态:13198,动态:13917,动态:6852,动态:9428,动态:15077,动态:15314,动态:20270,动态:18230,动态:13287,动态:11284,动态:20439,动态:21745,动态:1368,动态:11585,动态:15002</t>
+          <t>动态:13099,动态:14901,动态:20124,动态:13672,动态:13286,动态:16068,动态:15285,动态:8674,动态:10998,动态:8122,动态:4890,动态:20994,动态:14683,动态:20803,动态:14630,动态:15756,动态:18781,动态:20789,动态:22103,动态:13618,动态:11500,动态:13243,动态:18941,动态:12047,动态:20769,动态:19537,动态:14120,动态:20922,动态:13291,动态:20701,动态:9734,动态:14441,动态:18082,动态:13616,动态:19940,动态:20482,动态:14966,动态:13193,动态:22497,动态:15287,动态:3249,动态:12673,动态:7133,动态:11442,动态:11991,动态:11897,动态:20399,动态:22699,动态:21740,动态:22019</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>动态:20720,动态:17170,动态:6692,动态:22184,动态:18947,动态:21737,动态:21315,动态:17172,动态:17323,动态:22702,动态:16645,动态:17177,动态:19232,动态:17174,动态:12056,动态:17228,动态:10406,动态:17504,动态:6662,动态:19852,动态:6904,动态:6855,动态:21972,动态:22146,动态:21753,动态:21776,动态:21745,动态:21763,动态:22710,动态:21757,动态:22685,动态:22692,动态:22512,动态:21436,动态:20399,动态:22697,动态:21975,动态:22019,动态:22659,动态:22698,动态:22507,动态:20439,动态:22696,动态:17337,动态:22684,动态:22688</t>
+          <t>动态:961,动态:21737,动态:13416,动态:17176,动态:11629,动态:18948,动态:15769,动态:7137,动态:17607,动态:17172,动态:18020,动态:17170,动态:17177,动态:17484,动态:16645,动态:22088,动态:21315,动态:17231,动态:17228,动态:20672,动态:6904,动态:13084,动态:16641,动态:8581,动态:6662,动态:21972,动态:21780,动态:17337,动态:22710,动态:22323,动态:22507,动态:22692,动态:22688,动态:22659,动态:21436,动态:21753,动态:20364,动态:20439,动态:22702,动态:22680,动态:22685,动态:21776,动态:20440,动态:21763,动态:20399,动态:21757,动态:21727,动态:22699,动态:22698,动态:22667</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>动态:22684,动态:13872,动态:19373,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:18356,动态:8618,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>动态:11534,动态:13066,动态:11523,动态:16351,动态:15663,动态:10106,动态:18499,动态:19822,动态:3804,动态:621,动态:3073,动态:22699,动态:3174,动态:6252,动态:22706,动态:9039,动态:6447,动态:6916,动态:3107,动态:7464,动态:3897,动态:21970,动态:3076,动态:3796,动态:6901,动态:3162,动态:3979,动态:12888,动态:5522,动态:3166,动态:7789,动态:20525,动态:7383,动态:7186,动态:4036,动态:4031,动态:6325,动态:20516,动态:16721,动态:22696,动态:21780,动态:3104,动态:21470,动态:22507,动态:21776,动态:21972,动态:22659,动态:22688,动态:21737</t>
+          <t>动态:6640,动态:8922,动态:12567,动态:18681,动态:18266,动态:19371,动态:13613,动态:14240,动态:11474,动态:16255,动态:19728,动态:22393,动态:21201,动态:3166,动态:4031,动态:3897,动态:6901,动态:7789,动态:22699,动态:3073,动态:6447,动态:19123,动态:621,动态:3174,动态:6916,动态:4036,动态:21780,动态:7383,动态:7186,动态:6252,动态:3076,动态:21970,动态:18492,动态:3162,动态:22696,动态:16721,动态:3979,动态:9047,动态:21470,动态:7464,动态:20525,动态:3104,动态:20516,动态:6325,动态:3107,动态:21556,动态:20440,动态:22019,动态:22512,动态:22698</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>动态:6252,动态:3073,动态:22699,动态:3174,动态:20066,动态:3076,动态:11730,动态:6447,动态:6916,动态:13729,动态:3107,动态:20145,动态:22288,动态:19096,动态:14084,动态:7464,动态:3897,动态:4306,动态:22118,动态:21970,动态:21470,动态:14730,动态:621,动态:10526,动态:20274,动态:3104,动态:3979,动态:3166,动态:7789,动态:20525,动态:7383,动态:7186,动态:4036,动态:21848,动态:4031,动态:6325,动态:20516,动态:9015,动态:16721,动态:11374,动态:22696,动态:14496,动态:9151,动态:21780,动态:6901,动态:21780,动态:21745,动态:22507,动态:22019,动态:22706</t>
+          <t>动态:11406,动态:20602,动态:12089,动态:16721,动态:19231,动态:11403,动态:3174,动态:5829,动态:6447,动态:3073,动态:6901,动态:4036,动态:6916,动态:3166,动态:4031,动态:3897,动态:7789,动态:22699,动态:621,动态:7383,动态:9201,动态:6325,动态:20516,动态:3104,动态:21780,动态:7186,动态:6252,动态:3076,动态:7737,动态:21970,动态:3162,动态:22696,动态:18246,动态:3796,动态:3979,动态:3107,动态:21160,动态:15015,动态:3251,动态:9860,动态:21470,动态:7464,动态:20525,动态:7047,动态:20389,动态:22706,动态:21756,动态:21757,动态:20440,动态:22698</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>动态:22512,动态:10994,动态:12845,动态:20568,动态:12977,动态:10100,动态:20021,动态:13370,动态:21477,动态:10700,动态:7736,动态:18325,动态:7145,动态:6794,动态:21452,动态:16385,动态:4432,动态:21763,动态:21857,动态:22710,动态:20720,动态:22696,动态:21756,动态:22146,动态:4036,动态:21753,动态:21556,动态:21745,动态:21727,动态:21972,动态:21757,动态:22323,动态:21780,动态:22667,动态:17337,动态:22685,动态:22507,动态:22702,动态:7746,动态:22697,动态:21436,动态:22684,动态:22706,动态:20399,动态:22659,动态:22699,动态:22019,动态:22698,动态:22688,动态:22692</t>
+          <t>动态:10296,动态:22375,动态:20714,动态:12845,动态:20994,动态:16821,动态:13306,动态:16743,动态:19200,动态:13972,动态:17327,动态:16039,动态:19184,动态:8752,动态:20337,动态:4036,动态:4031,动态:21436,动态:22697,动态:17337,动态:22698,动态:22680,动态:22684,动态:22706,动态:20364,动态:20720,动态:21972,动态:21737,动态:20399,动态:22692,动态:22507,动态:22710,动态:21756,动态:22696,动态:21857,动态:21753,动态:21763,动态:22659,动态:22019,动态:22323,动态:21757,动态:21780,动态:21556,动态:22667,动态:21741,动态:22146,动态:22685,动态:22512,动态:21745</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>动态:19893,动态:3701,动态:21753,动态:13988,动态:15044,动态:20587,动态:21651,动态:15211,动态:11125,动态:13803,动态:621,动态:3073,动态:22699,动态:3174,动态:6252,动态:6447,动态:6916,动态:7464,动态:3897,动态:21970,动态:3076,动态:3107,动态:3162,动态:3104,动态:3979,动态:3166,动态:7789,动态:20525,动态:7383,动态:7186,动态:3796,动态:4036,动态:6325,动态:20516,动态:16721,动态:22696,动态:21780,动态:6901,动态:4031,动态:21470,动态:22692,动态:21763,动态:21776,动态:7746,动态:22685,动态:22680,动态:20364,动态:21857,动态:22706,动态:21756</t>
+          <t>动态:13174,动态:13147,动态:18654,动态:12853,动态:18378,动态:6597,动态:20488,动态:18992,动态:20461,动态:20764,动态:20189,动态:21444,动态:4522,动态:11138,动态:11094,动态:3897,动态:7383,动态:621,动态:6901,动态:6916,动态:7789,动态:22699,动态:3166,动态:4031,动态:4036,动态:3073,动态:16721,动态:3174,动态:21780,动态:7186,动态:6252,动态:3076,动态:21970,动态:3162,动态:22696,动态:3979,动态:3107,动态:21470,动态:7464,动态:20525,动态:3104,动态:20516,动态:6325,动态:6447,动态:3796,动态:22706,动态:21740,动态:21975,动态:22688,动态:22702</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>动态:18694,动态:15711,动态:21583,动态:16890,动态:19306,动态:13056,动态:8742,动态:6630,动态:19230,动态:13347,动态:10604,动态:19092,动态:16658,动态:18627,动态:20451,动态:22114,动态:20603,动态:15181,动态:17501,动态:16106,动态:19833,动态:20747,动态:1914,动态:22659,动态:22688,动态:20440,动态:21857,动态:22512,动态:21756,动态:22323,动态:21757,动态:21975,动态:22710,动态:21740,动态:21741,动态:21737,动态:4036,动态:22699,动态:22706,动态:20439,动态:21780,动态:22019,动态:17337,动态:22684,动态:22507,动态:22702,动态:21776,动态:21763,动态:21727,动态:21556</t>
+          <t>动态:8769,动态:11567,动态:17391,动态:6610,动态:1742,动态:13146,动态:15154,动态:9391,动态:20615,动态:6295,动态:3525,动态:17112,动态:13838,动态:11497,动态:11487,动态:6533,动态:6580,动态:11269,动态:21740,动态:22019,动态:4036,动态:21975,动态:21763,动态:22684,动态:22692,动态:7746,动态:22685,动态:21556,动态:21737,动态:22698,动态:21741,动态:20364,动态:22667,动态:22697,动态:21857,动态:21436,动态:20440,动态:22659,动态:21757,动态:21780,动态:22323,动态:21727,动态:22680,动态:22699,动态:22696,动态:22710,动态:22688,动态:22706,动态:21756,动态:22702</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>动态:12369,动态:17484,动态:13814,动态:6479,动态:20319,动态:11396,动态:22611,动态:6693,动态:11995,动态:7145,动态:6819,动态:13095,动态:16074,动态:6896,动态:13491,动态:6683,动态:11135,动态:4421,动态:3178,动态:17337,动态:21745,动态:21757,动态:22146,动态:22699,动态:22684,动态:22667,动态:22696,动态:22692,动态:21972,动态:21436,动态:22680,动态:21756,动态:21776,动态:22685,动态:22323,动态:21737,动态:21975,动态:21741,动态:22706,动态:22659,动态:22688,动态:21753,动态:21780,动态:21763,动态:22710,动态:22512,动态:21727,动态:21857,动态:22697,动态:22698</t>
+          <t>动态:11861,动态:19821,动态:13218,动态:19810,动态:20523,动态:13962,动态:13961,动态:21975,动态:9483,动态:16154,动态:9047,动态:5896,动态:13095,动态:17501,动态:6819,动态:6683,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:21763,动态:21776,动态:22684,动态:22688,动态:21745,动态:21436,动态:21753,动态:21857,动态:22659,动态:22667,动态:22512,动态:22680,动态:21727,动态:17337,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:22706,动态:22697,动态:22692,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>动态:18733,动态:6611,动态:11058,动态:21756,动态:728,动态:19897,动态:15203,动态:13537,动态:11692,动态:6640,动态:20163,动态:6852,动态:5415,动态:22696,动态:20399,动态:21763,动态:22667,动态:22019,动态:4036,动态:22684,动态:22659,动态:21727,动态:21857,动态:22507,动态:21975,动态:21745,动态:20439,动态:22688,动态:21972,动态:22697,动态:21741,动态:22323,动态:20364,动态:21757,动态:22685,动态:22692,动态:21740,动态:22710,动态:21556,动态:21780,动态:17337,动态:21436,动态:22702,动态:22680,动态:20440,动态:22706,动态:22698,动态:21753,动态:20720,动态:21776</t>
+          <t>动态:13142,动态:18278,动态:11790,动态:972,动态:12774,动态:1797,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>动态:8821,动态:12655,动态:13146,动态:13613,动态:22276,动态:11995,动态:10209,动态:15509,动态:16802,动态:12638,动态:6626,动态:7006,动态:20496,动态:13218,动态:16450,动态:9428,动态:12690,动态:16048,动态:11331,动态:15134,动态:3144,动态:15473,动态:16058,动态:17120,动态:13491,动态:16131,动态:4302,动态:22512,动态:22698,动态:22697,动态:22323,动态:22659,动态:21727,动态:21780,动态:20440,动态:20399,动态:21776,动态:21741,动态:22680,动态:21436,动态:22684,动态:20364,动态:21763,动态:21753,动态:22146,动态:22667,动态:21757,动态:21737,动态:22706,动态:22507</t>
+          <t>动态:8625,动态:21017,动态:15179,动态:14107,动态:10914,动态:10106,动态:18829,动态:15814,动态:17255,动态:12842,动态:16608,动态:16388,动态:21636,动态:21484,动态:7694,动态:15684,动态:13317,动态:7970,动态:11268,动态:19745,动态:12055,动态:8769,动态:13674,动态:13131,动态:21753,动态:21780,动态:4036,动态:21763,动态:21757,动态:21756,动态:20440,动态:22702,动态:20439,动态:22323,动态:7746,动态:22684,动态:22507,动态:21727,动态:21972,动态:20720,动态:22692,动态:21741,动态:22512,动态:22146,动态:22699,动态:22667,动态:20364,动态:21857,动态:21436,动态:20399</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>动态:21315,动态:11009,动态:17575,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:15169,动态:6634,动态:21315,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>动态:18056,动态:13686,动态:21917,动态:9276,动态:10136,动态:22702,动态:22710,动态:21756,动态:22146,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:22688,动态:21745,动态:21436,动态:21753,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:20854,动态:10136,动态:18947,动态:20184,动态:22702,动态:22710,动态:21756,动态:22146,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:22688,动态:21745,动态:21436,动态:21753,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>动态:11458,动态:15118,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:14737,动态:19554,动态:16281,动态:13053,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>动态:16617,动态:11257,动态:6816,动态:16620,动态:19045,动态:17563,动态:12180,动态:15484,动态:21180,动态:15147,动态:13697,动态:11813,动态:18241,动态:14110,动态:10475,动态:21163,动态:21526,动态:16154,动态:22710,动态:21740,动态:21756,动态:21776,动态:21972,动态:4036,动态:21436,动态:22019,动态:22146,动态:20399,动态:22697,动态:21975,动态:21727,动态:21857,动态:7746,动态:21780,动态:21741,动态:22659,动态:21556,动态:22680,动态:21757,动态:22507,动态:22699,动态:22702,动态:21753,动态:21745,动态:20720,动态:22692,动态:22688,动态:22685,动态:22667,动态:20364</t>
+          <t>动态:11034,动态:17632,动态:17168,动态:6794,动态:4368,动态:4176,动态:20148,动态:13247,动态:14847,动态:11469,动态:6622,动态:13147,动态:14215,动态:15977,动态:18956,动态:10754,动态:18056,动态:8596,动态:14815,动态:21959,动态:16614,动态:15304,动态:22698,动态:22699,动态:22692,动态:21975,动态:21753,动态:22659,动态:22684,动态:22685,动态:7746,动态:21757,动态:21727,动态:22688,动态:21436,动态:21740,动态:20440,动态:22680,动态:21556,动态:20720,动态:22667,动态:21780,动态:22702,动态:22512,动态:20399,动态:21745,动态:21756,动态:22710,动态:4036,动态:20439</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>动态:11750,动态:22497,动态:15608,动态:10947,动态:9145,动态:11984,动态:21681,动态:7310,动态:16587,动态:4790,动态:13080,动态:18224,动态:15663,动态:11497,动态:16377,动态:19600,动态:14875,动态:17231,动态:21741,动态:22512,动态:22692,动态:21780,动态:21763,动态:20399,动态:21975,动态:21756,动态:21757,动态:21745,动态:22698,动态:22706,动态:22667,动态:22710,动态:21776,动态:7746,动态:20720,动态:21556,动态:22688,动态:22684,动态:22146,动态:21857,动态:17337,动态:22699,动态:22507,动态:22680,动态:21972,动态:20440,动态:22702,动态:21436,动态:22696,动态:21727</t>
+          <t>动态:11280,动态:18278,动态:10189,动态:22199,动态:14495,动态:13497,动态:7310,动态:7137,动态:7598,动态:22042,动态:12727,动态:17128,动态:13801,动态:8619,动态:4175,动态:22507,动态:21556,动态:21753,动态:22685,动态:22696,动态:21756,动态:22684,动态:21741,动态:7746,动态:22019,动态:22702,动态:22698,动态:20364,动态:20399,动态:20439,动态:17337,动态:20720,动态:21780,动态:22512,动态:21745,动态:22697,动态:21727,动态:21740,动态:20440,动态:21436,动态:22699,动态:21737,动态:21776,动态:22710,动态:22146,动态:22667,动态:21857,动态:22323,动态:22706,动态:21763</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>动态:14999,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:7354,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>动态:20246,动态:14515,动态:7737,动态:18309,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:11558,动态:13629,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>动态:20496,动态:12608,动态:11606,动态:21972,动态:21756,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21745,动态:21436,动态:21753,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:22346,动态:11274,动态:21756,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21745,动态:21436,动态:21753,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>动态:19755,动态:20110,动态:15858,动态:2694,动态:16514,动态:17952,动态:16819,动态:18356,动态:11129,动态:4421,动态:22710,动态:21857,动态:4036,动态:17337,动态:21556,动态:21745,动态:20364,动态:20439,动态:22698,动态:20720,动态:22697,动态:22507,动态:21780,动态:22680,动态:21763,动态:21756,动态:22019,动态:22702,动态:21757,动态:22692,动态:7746,动态:21737,动态:21741,动态:22323,动态:21740,动态:22146,动态:22512,动态:21972,动态:21436,动态:21776,动态:21975,动态:22659,动态:22706,动态:22684,动态:22696,动态:22685,动态:22699,动态:21727,动态:22667,动态:21753</t>
+          <t>动态:11805,动态:14697,动态:21757,动态:11087,动态:6679,动态:21481,动态:6464,动态:19494,动态:18158,动态:19759,动态:17374,动态:21857,动态:22512,动态:21776,动态:21556,动态:20720,动态:22685,动态:21727,动态:20399,动态:22680,动态:22702,动态:21741,动态:22706,动态:21753,动态:21972,动态:7746,动态:21763,动态:22710,动态:21436,动态:22688,动态:21740,动态:21780,动态:22507,动态:22659,动态:21737,动态:4036,动态:20364,动态:22146,动态:21975,动态:22698,动态:22699,动态:22323,动态:22684,动态:22696,动态:22692,动态:20439,动态:22019,动态:17337,动态:21756</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>动态:11096,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:15284,动态:16594,动态:11525,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>动态:12056,动态:13674,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:10581,动态:10849,动态:16617,动态:13832,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>动态:6891,动态:13990,动态:18902,动态:6643,动态:20789,动态:6825,动态:6898,动态:6733,动态:6240,动态:7400,动态:6729,动态:6789,动态:7124,动态:6786,动态:11116,动态:6187,动态:7746,动态:17977,动态:11055,动态:22697,动态:22680,动态:22688,动态:22659,动态:22702,动态:21756,动态:22323,动态:22696,动态:17337,动态:20440,动态:20399,动态:22667,动态:22692,动态:22698,动态:21556,动态:21757,动态:22507,动态:22684,动态:21727,动态:22146,动态:20439,动态:21737,动态:21763,动态:22699,动态:22019,动态:21776,动态:22512,动态:22706,动态:21436,动态:21975</t>
+          <t>动态:16878,动态:14297,动态:12878,动态:9145,动态:6852,动态:6786,动态:6733,动态:1310,动态:6615,动态:6637,动态:20440,动态:6693,动态:6186,动态:7049,动态:6680,动态:6891,动态:7145,动态:6500,动态:6683,动态:22310,动态:22659,动态:21740,动态:22685,动态:21753,动态:22667,动态:21741,动态:22696,动态:21436,动态:7746,动态:22146,动态:21756,动态:22710,动态:4036,动态:21972,动态:22512,动态:21556,动态:20364,动态:21745,动态:20439,动态:22507,动态:21776,动态:21975,动态:22684,动态:22323,动态:20720,动态:22698,动态:22697,动态:22706,动态:22692</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>动态:19852,动态:4522,动态:6252,动态:3796,动态:621,动态:3073,动态:22699,动态:3174,动态:3076,动态:11690,动态:6447,动态:6916,动态:3107,动态:17126,动态:7464,动态:3897,动态:12552,动态:21970,动态:14892,动态:3104,动态:6901,动态:21470,动态:3979,动态:3166,动态:7789,动态:20525,动态:7383,动态:7186,动态:4036,动态:3162,动态:4031,动态:20516,动态:16721,动态:6638,动态:16589,动态:22696,动态:21780,动态:15533,动态:6325,动态:14689,动态:21740,动态:20720,动态:20364,动态:22512,动态:21753,动态:21737,动态:21763,动态:22702,动态:22692,动态:21757</t>
+          <t>动态:9391,动态:6578,动态:10567,动态:13729,动态:8746,动态:16270,动态:16721,动态:3174,动态:6447,动态:3073,动态:11813,动态:15145,动态:6901,动态:4036,动态:6916,动态:3166,动态:4031,动态:3897,动态:7789,动态:22699,动态:621,动态:10089,动态:6325,动态:20516,动态:13510,动态:3104,动态:21780,动态:7186,动态:15054,动态:19000,动态:13466,动态:6252,动态:3076,动态:15037,动态:21970,动态:7383,动态:13374,动态:22696,动态:7784,动态:3979,动态:3107,动态:11599,动态:21470,动态:19487,动态:7464,动态:21741,动态:3162,动态:20364,动态:20525,动态:20440</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>动态:3113,动态:3738,动态:13501,动态:17498,动态:17343,动态:10933,动态:9234,动态:21139,动态:19456,动态:6584,动态:18305,动态:15637,动态:9483,动态:14192,动态:12626,动态:20401,动态:13868,动态:22639,动态:11505,动态:12890,动态:8293,动态:6654,动态:11432,动态:13366,动态:22653,动态:20717,动态:7847,动态:12643,动态:15044,动态:13332,动态:20465,动态:15211,动态:18612,动态:18165,动态:14609,动态:7678,动态:13489,动态:21213,动态:13745,动态:6655,动态:20419,动态:3524,动态:4528,动态:20247,动态:9097,动态:22146,动态:21436,动态:20364,动态:21727,动态:7746</t>
+          <t>动态:13174,动态:18791,动态:12313,动态:10213,动态:17341,动态:21928,动态:9554,动态:20549,动态:14342,动态:18956,动态:6679,动态:18767,动态:14352,动态:17607,动态:13080,动态:20169,动态:20401,动态:16914,动态:10071,动态:8809,动态:14547,动态:18057,动态:10212,动态:10973,动态:20419,动态:16740,动态:14624,动态:12000,动态:15078,动态:15637,动态:21364,动态:15053,动态:9163,动态:19821,动态:20461,动态:9463,动态:20519,动态:21315,动态:8378,动态:20389,动态:13501,动态:9712,动态:19810,动态:16269,动态:18087,动态:14695,动态:21740,动态:4036,动态:17337,动态:21727</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>动态:7310,动态:8704,动态:20772,动态:22129,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:7310,动态:22113,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>动态:11592,动态:19606,动态:8793,动态:18902,动态:12753,动态:18903,动态:15433,动态:11009,动态:11019,动态:3076,动态:11580,动态:22511,动态:833,动态:20022,动态:17246,动态:21406,动态:22499,动态:17769,动态:20769,动态:22697,动态:22512,动态:21745,动态:21763,动态:20440,动态:22019,动态:22699,动态:22696,动态:21756,动态:21727,动态:22688,动态:20439,动态:17337,动态:21740,动态:21975,动态:21857,动态:22146,动态:22698,动态:22680,动态:20720,动态:22710,动态:21753,动态:22702,动态:21436,动态:21780,动态:22667,动态:22684,动态:22659,动态:22685,动态:21737,动态:22507</t>
+          <t>动态:7784,动态:11040,动态:19933,动态:12315,动态:21482,动态:20205,动态:3153,动态:21975,动态:15756,动态:13315,动态:5829,动态:3814,动态:19835,动态:10870,动态:21359,动态:18996,动态:21741,动态:21556,动态:21737,动态:21740,动态:20440,动态:22702,动态:22697,动态:21857,动态:22146,动态:20439,动态:22512,动态:22685,动态:22659,动态:17337,动态:7746,动态:22706,动态:21727,动态:21776,动态:20399,动态:21745,动态:22692,动态:21436,动态:22667,动态:22019,动态:22684,动态:22696,动态:21757,动态:22323,动态:21763,动态:22507,动态:22688,动态:22710,动态:22680</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>动态:6577,动态:3153,动态:3142,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:20687,动态:9533,动态:14679,动态:20344,动态:15671,动态:3142,动态:3153,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>动态:21160,动态:7784,动态:11030,动态:6460,动态:155,动态:11156,动态:14241,动态:10922,动态:16656,动态:11134,动态:8177,动态:11782,动态:8292,动态:12064,动态:17504,动态:6855,动态:17946,动态:5153,动态:6898,动态:21357,动态:6689,动态:13797,动态:9291,动态:20184,动态:13054,动态:10604,动态:8603,动态:19602,动态:10262,动态:21239,动态:20008,动态:12587,动态:8132,动态:18466,动态:7472,动态:7745,动态:10553,动态:6456,动态:17487,动态:17408,动态:10149,动态:7825,动态:20244,动态:5960,动态:9049,动态:11374,动态:769,动态:18331,动态:21780,动态:6637</t>
+          <t>动态:10239,动态:6294,动态:10429,动态:7604,动态:20244,动态:6086,动态:16651,动态:13625,动态:9001,动态:18668,动态:10298,动态:7360,动态:18466,动态:20238,动态:12920,动态:12911,动态:17507,动态:6456,动态:15490,动态:11126,动态:11094,动态:7124,动态:6852,动态:10182,动态:16273,动态:9093,动态:5403,动态:6683,动态:17632,动态:16478,动态:20337,动态:13200,动态:6865,动态:6898,动态:10356,动态:14271,动态:6819,动态:10262,动态:6470,动态:14006,动态:14431,动态:6454,动态:8292,动态:6749,动态:4597,动态:14725,动态:13823,动态:7746,动态:12587,动态:18327</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>动态:21095,动态:6463,动态:7978,动态:10144,动态:6362,动态:6460,动态:155,动态:14446,动态:16493,动态:20328,动态:18841,动态:12592,动态:14214,动态:16475,动态:5153,动态:8742,动态:19485,动态:5216,动态:22707,动态:6630,动态:8729,动态:17091,动态:20156,动态:18158,动态:5415,动态:17231,动态:6449,动态:4432,动态:13823,动态:6534,动态:17295,动态:19602,动态:13803,动态:6240,动态:10845,动态:17237,动态:20017,动态:10077,动态:10182,动态:19932,动态:6852,动态:18903,动态:7022,动态:14152,动态:5233,动态:11137,动态:21776,动态:10406,动态:22019,动态:6776</t>
+          <t>动态:20217,动态:15612,动态:15615,动态:6294,动态:11063,动态:18651,动态:13415,动态:17106,动态:21239,动态:15137,动态:19496,动态:20071,动态:12332,动态:7400,动态:11399,动态:6841,动态:13810,动态:9039,动态:11126,动态:13329,动态:18311,动态:10262,动态:14514,动态:13807,动态:12372,动态:13040,动态:6449,动态:20368,动态:19457,动态:5778,动态:5901,动态:11144,动态:10954,动态:769,动态:21359,动态:8231,动态:16052,动态:6908,动态:17295,动态:13084,动态:20345,动态:4368,动态:5895,动态:6193,动态:17697,动态:15095,动态:21436,动态:6869,动态:6889,动态:21737</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>动态:20615,动态:15775,动态:19607,动态:15558,动态:9040,动态:22082,动态:16539,动态:10632,动态:9234,动态:18506,动态:21752,动态:10380,动态:15773,动态:22680,动态:22548,动态:18647,动态:19611,动态:7038,动态:15948,动态:13937,动态:20111,动态:18110,动态:13137,动态:20134,动态:11944,动态:16347,动态:18791,动态:14844,动态:16536,动态:6695,动态:12379,动态:13870,动态:13455,动态:11111,动态:13510,动态:9152,动态:11380,动态:19653,动态:16232,动态:22323,动态:12583,动态:10566,动态:12853,动态:14967,动态:6647,动态:21753,动态:20242,动态:21727,动态:4036,动态:17138</t>
+          <t>动态:11695,动态:11996,动态:19486,动态:19149,动态:15692,动态:17711,动态:19007,动态:6640,动态:19769,动态:8922,动态:17200,动态:17976,动态:12434,动态:19935,动态:8107,动态:19906,动态:10349,动态:13143,动态:809,动态:12163,动态:12416,动态:3814,动态:11574,动态:16238,动态:15684,动态:13158,动态:11867,动态:10525,动态:16441,动态:15060,动态:18082,动态:20998,动态:11467,动态:10913,动态:20683,动态:18757,动态:20677,动态:6831,动态:21532,动态:11863,动态:20064,动态:20487,动态:21846,动态:17337,动态:12645,动态:11565,动态:21745,动态:12059,动态:21740,动态:21753</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>动态:21741,动态:4036,动态:22684,动态:21737,动态:22698,动态:21753,动态:21857,动态:22696,动态:22323,动态:22710,动态:22699,动态:20364,动态:22688,动态:22697,动态:21757,动态:22507,动态:21763,动态:21745,动态:21740,动态:7746,动态:21727,动态:20439,动态:22706,动态:21436,动态:21556,动态:22667,动态:21780,动态:17337,动态:21776,动态:22702,动态:22680,动态:20720,动态:21756,动态:22659,动态:21975,动态:22146,动态:21972,动态:20399,动态:22692,动态:22685,动态:20440,动态:22512,动态:22019</t>
+          <t>动态:13708,动态:6872,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>动态:14721,动态:6591,动态:20440,动态:12774,动态:13053,动态:16754,动态:20923,动态:7577,动态:14750,动态:19214,动态:13374,动态:13928,动态:12370,动态:20968,动态:11017,动态:15304,动态:15157,动态:15948,动态:10849,动态:20645,动态:19511,动态:12281,动态:13998,动态:10109,动态:20312,动态:6695,动态:14377,动态:21126,动态:20114,动态:20263,动态:18983,动态:687,动态:15545,动态:12902,动态:4786,动态:21093,动态:18266,动态:17898,动态:11019,动态:21301,动态:12313,动态:13582,动态:12730,动态:11551,动态:7065,动态:22680,动态:19182,动态:22664,动态:14445,动态:11096</t>
+          <t>动态:4895,动态:12638,动态:16308,动态:11863,动态:17323,动态:13548,动态:20309,动态:20714,动态:13909,动态:18995,动态:17557,动态:20588,动态:11613,动态:13325,动态:11913,动态:17817,动态:20789,动态:16368,动态:18667,动态:20256,动态:7598,动态:13791,动态:13193,动态:21664,动态:13906,动态:9527,动态:11193,动态:15719,动态:17176,动态:21651,动态:15761,动态:15869,动态:22700,动态:16441,动态:11468,动态:11554,动态:11592,动态:8296,动态:16580,动态:17566,动态:14464,动态:19959,动态:15347,动态:9552,动态:16389,动态:22696,动态:22507,动态:9183,动态:18612,动态:22688</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>动态:21556,动态:21857,动态:22667,动态:21776,动态:21737,动态:20364,动态:22698,动态:21727,动态:22684,动态:7746,动态:21741,动态:21757,动态:22699,动态:22710,动态:22692,动态:21745,动态:20720,动态:4036,动态:21780,动态:22688,动态:22659,动态:21975,动态:21753,动态:22697,动态:22706,动态:21436,动态:22680,动态:22146,动态:22702,动态:20440,动态:21972,动态:22507,动态:21763,动态:20399,动态:22512,动态:22323,动态:22019,动态:22696,动态:21740,动态:20439,动态:17337,动态:22685</t>
+          <t>动态:18309,动态:19938,动态:22702,动态:22710,动态:21737,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>动态:13783,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:13708,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>动态:22710,动态:21757,动态:22684,动态:22699,动态:20720,动态:22146,动态:22697,动态:21740,动态:21780,动态:22659,动态:22680,动态:20439,动态:21756,动态:17337,动态:22667,动态:22706,动态:21972,动态:22685,动态:22019,动态:21753,动态:22688,动态:21776,动态:21727,动态:21741,动态:22507,动态:21763,动态:7746,动态:21975,动态:22692,动态:22323,动态:4036,动态:22698,动态:22512,动态:22702,动态:20440,动态:21737,动态:22696,动态:21745,动态:20364,动态:21857,动态:21556,动态:21436</t>
+          <t>动态:18871,动态:3707,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>动态:11611,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:22692,动态:20364,动态:21972,动态:21763,动态:21857,动态:21741,动态:22667,动态:22659,动态:22685,动态:22698,动态:22706,动态:21780,动态:22507,动态:21737,动态:20399,动态:21975,动态:17337,动态:22146,动态:20439,动态:22323,动态:20720,动态:20440,动态:22699,动态:21436,动态:22684,动态:7746,动态:21757,动态:21753,动态:22697,动态:21556,动态:22710,动态:22702,动态:21756,动态:22696,动态:22019,动态:21740,动态:21727,动态:4036,动态:22680,动态:21745,动态:22688,动态:22512,动态:21776</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>动态:18792,动态:3674,动态:20998,动态:11942,动态:13306,动态:720,动态:12871,动态:8578,动态:17196,动态:19972,动态:21139,动态:20300,动态:7735,动态:20858,动态:19312,动态:20390,动态:20067,动态:22130,动态:22242,动态:21084,动态:9780,动态:20312,动态:20517,动态:10968,动态:18318,动态:22123,动态:21166,动态:18163,动态:16960,动态:6905,动态:17130,动态:19595,动态:12018,动态:15867,动态:11644,动态:237,动态:12083,动态:11101,动态:22489,动态:11436,动态:15495,动态:16463,动态:20379,动态:789,动态:20309,动态:22667,动态:21972,动态:22680,动态:22507,动态:22685</t>
+          <t>动态:14815,动态:1360,动态:10528,动态:18362,动态:20772,动态:15183,动态:1252,动态:6624,动态:13039,动态:19271,动态:13243,动态:21166,动态:12065,动态:20401,动态:9145,动态:21854,动态:2966,动态:17081,动态:11110,动态:11541,动态:10995,动态:15987,动态:11180,动态:20358,动态:20107,动态:15926,动态:16648,动态:13056,动态:9376,动态:12842,动态:17077,动态:20389,动态:20755,动态:11714,动态:20152,动态:17542,动态:16417,动态:20086,动态:9703,动态:22088,动态:12119,动态:20621,动态:17147,动态:10932,动态:13347,动态:22659,动态:21776,动态:22685,动态:20364,动态:11501</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>动态:21824,动态:6186,动态:22489,动态:21259,动态:11524,动态:19537,动态:12077,动态:22303,动态:8142,动态:20205,动态:3126,动态:11566,动态:13783,动态:20401,动态:19853,动态:22702,动态:21745,动态:22512,动态:20720,动态:22146,动态:22688,动态:21737,动态:20364,动态:22684,动态:22507,动态:21753,动态:17337,动态:21727,动态:21756,动态:22698,动态:22685,动态:21757,动态:22697,动态:7746,动态:22019,动态:21780,动态:20399,动态:21972,动态:21857,动态:20439,动态:21556,动态:22699,动态:21436,动态:21741,动态:21740,动态:21763,动态:21776,动态:22692,动态:22706,动态:22323</t>
+          <t>动态:22301,动态:18173,动态:7833,动态:6767,动态:14514,动态:13883,动态:19379,动态:6679,动态:16264,动态:11065,动态:18755,动态:12641,动态:13281,动态:21112,动态:12581,动态:6695,动态:12064,动态:17077,动态:15059,动态:12811,动态:15113,动态:21357,动态:22659,动态:22692,动态:21737,动态:21436,动态:21780,动态:21740,动态:22019,动态:22699,动态:20440,动态:20399,动态:22667,动态:22702,动态:22710,动态:22507,动态:21756,动态:20364,动态:21753,动态:4036,动态:22698,动态:21776,动态:22684,动态:21556,动态:21757,动态:22323,动态:22696,动态:21972,动态:21857,动态:22688</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>动态:11498,动态:21857,动态:10136,动态:21737,动态:21727,动态:17126,动态:17081,动态:17958,动态:13883,动态:17337,动态:21975,动态:22042,动态:16256,动态:22604,动态:22044,动态:21972,动态:21858,动态:17128,动态:19816,动态:22692,动态:21740,动态:22680,动态:22702,动态:22696,动态:22710,动态:21753,动态:22146,动态:22659,动态:22512,动态:21756,动态:22698,动态:21776,动态:21745,动态:22706,动态:22685,动态:22699,动态:4036,动态:21741,动态:22323,动态:22019,动态:22688,动态:22667,动态:20399,动态:21757,动态:21763,动态:20439</t>
+          <t>动态:16256,动态:21797,动态:10136,动态:17337,动态:21737,动态:10980,动态:21975,动态:21857,动态:22042,动态:17081,动态:15618,动态:21972,动态:17128,动态:4205,动态:21776,动态:22699,动态:20399,动态:22512,动态:22710,动态:21740,动态:4036,动态:21727,动态:21745,动态:22685,动态:22507,动态:22684,动态:22019,动态:22697,动态:22706,动态:21741,动态:21436,动态:22680,动态:22688,动态:22696,动态:7746,动态:21763,动态:21753,动态:20364,动态:22146,动态:20439,动态:21756,动态:21780,动态:22702,动态:22659,动态:21556</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>动态:16641,动态:4419,动态:6620,动态:10947,动态:6608,动态:9512,动态:15558,动态:19371,动态:7391,动态:20864,动态:9769,动态:22700,动态:21627,动态:20274,动态:14967,动态:16800,动态:13844,动态:13548,动态:21094,动态:21288,动态:3115,动态:21785,动态:19650,动态:685,动态:11736,动态:8764,动态:14679,动态:15491,动态:19504,动态:15596,动态:10539,动态:13217,动态:16194,动态:17326,动态:18462,动态:20401,动态:4042,动态:12365,动态:13009,动态:10566,动态:3120,动态:14813,动态:14333,动态:12624,动态:13908,动态:8625,动态:13267,动态:10131,动态:8969,动态:21753</t>
+          <t>动态:12654,动态:6845,动态:13742,动态:18932,动态:11526,动态:15425,动态:14901,动态:21073,动态:22489,动态:6733,动态:10962,动态:20966,动态:13406,动态:16893,动态:19990,动态:10242,动态:15203,动态:18629,动态:13432,动态:18792,动态:22633,动态:18705,动态:8852,动态:15181,动态:20379,动态:22234,动态:18088,动态:17060,动态:13958,动态:7526,动态:6596,动态:13291,动态:12798,动态:12826,动态:18082,动态:7678,动态:22658,动态:16050,动态:11110,动态:10989,动态:12085,动态:21008,动态:10920,动态:15858,动态:19214,动态:16589,动态:21556,动态:11458,动态:12583,动态:17742</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>动态:22644,动态:20048,动态:22430,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:7408,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>动态:242,动态:8586,动态:13404,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685</t>
+          <t>动态:17205,动态:18903,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>动态:22499,动态:10532,动态:13102,动态:19774,动态:22285,动态:17956,动态:6909,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:17460,动态:15211,动态:11736,动态:22234,动态:21815,动态:10209,动态:17619,动态:16614,动态:15291,动态:10935,动态:22323,动态:7746,动态:4036,动态:22019,动态:21745,动态:20364,动态:21556,动态:21740,动态:22512,动态:21727,动态:21757,动态:22146,动态:20720,动态:22698,动态:21780,动态:22659,动态:21763,动态:21737,动态:21972,动态:22688,动态:22696,动态:22697,动态:22684,动态:22702,动态:21741,动态:22507,动态:22685,动态:17337,动态:22692,动态:21753,动态:21436,动态:22680,动态:22710,动态:22667,动态:20439,动态:21756,动态:22699,动态:20399,动态:22706,动态:21857</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>动态:9426,动态:11017,动态:18034,动态:6455,动态:17974,动态:16255,动态:13140,动态:8201,动态:15015,动态:19859,动态:11946,动态:232,动态:14077,动态:15630,动态:11909,动态:19697,动态:12914,动态:14053,动态:18592,动态:17346,动态:1332,动态:10356,动态:9093,动态:21972,动态:21858,动态:21975,动态:22684,动态:22697,动态:21757,动态:22710,动态:21763,动态:21741,动态:20439,动态:22706,动态:22699,动态:7746,动态:21556,动态:21727,动态:17337,动态:21753,动态:22512,动态:20399,动态:22696,动态:21745,动态:21436,动态:21737,动态:20364,动态:22507,动态:21780,动态:22323</t>
+          <t>动态:12308,动态:13043,动态:20810,动态:22685,动态:20789,动态:14703,动态:12408,动态:7674,动态:7458,动态:15623,动态:14542,动态:15547,动态:3838,动态:17942,动态:15631,动态:21858,动态:21972,动态:3522,动态:20440,动态:20439,动态:21756,动态:21745,动态:21757,动态:22697,动态:21975,动态:21780,动态:22699,动态:7746,动态:20399,动态:21737,动态:22702,动态:22684,动态:22659,动态:21753,动态:22667,动态:22706,动态:20364,动态:17337,动态:22696,动态:22710,动态:21857,动态:22698,动态:22512,动态:21776,动态:21763,动态:22146,动态:22692,动态:22323</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>动态:11418,动态:7838,动态:12281,动态:11351,动态:13556,动态:18868,动态:15793,动态:9728,动态:3251,动态:21856,动态:20851,动态:16754,动态:22502,动态:22512,动态:16539,动态:22626,动态:16648,动态:13374,动态:14530,动态:19822,动态:21197,动态:13886,动态:241,动态:11944,动态:14844,动态:6695,动态:11684,动态:12711,动态:15608,动态:13870,动态:7528,动态:11045,动态:13070,动态:20937,动态:22698,动态:11081,动态:14456,动态:10457,动态:21319,动态:9688,动态:18082,动态:22656,动态:20947,动态:16223,动态:7598,动态:4483,动态:11017,动态:21740,动态:14161,动态:15633</t>
+          <t>动态:12648,动态:11087,动态:12384,动态:20593,动态:4890,动态:6956,动态:15705,动态:17102,动态:16232,动态:22489,动态:12046,动态:10342,动态:12123,动态:10237,动态:15953,动态:11072,动态:19547,动态:9798,动态:17762,动态:17151,动态:15577,动态:11863,动态:19379,动态:11215,动态:11587,动态:15641,动态:15719,动态:7529,动态:12890,动态:10073,动态:6694,动态:16072,动态:15638,动态:15060,动态:8610,动态:19792,动态:22667,动态:8573,动态:15805,动态:21492,动态:11340,动态:16450,动态:16460,动态:21785,动态:15755,动态:21776,动态:22430,动态:20419,动态:22680,动态:22696</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>动态:13857,动态:9552,动态:20810,动态:12370,动态:13958,动态:15078,动态:20588,动态:9738,动态:11995,动态:19893,动态:19530,动态:21231,动态:20333,动态:14890,动态:20452,动态:14764,动态:14350,动态:12721,动态:22710,动态:15805,动态:7751,动态:17501,动态:17085,动态:18750,动态:18903,动态:21740,动态:21556,动态:20720,动态:22699,动态:22146,动态:21763,动态:22680,动态:22323,动态:21975,动态:17337,动态:22692,动态:22019,动态:22659,动态:21776,动态:21436,动态:21756,动态:21737,动态:22512,动态:20399,动态:22688,动态:22507,动态:4036,动态:7746,动态:22697,动态:22684</t>
+          <t>动态:17130,动态:22130,动态:10936,动态:18767,动态:15684,动态:13919,动态:9991,动态:10751,动态:12331,动态:14821,动态:22123,动态:19541,动态:16844,动态:14439,动态:20519,动态:10254,动态:11285,动态:18499,动态:5113,动态:5829,动态:7226,动态:17120,动态:845,动态:15323,动态:3796,动态:7746,动态:21857,动态:22699,动态:21972,动态:17337,动态:21757,动态:21740,动态:22688,动态:22698,动态:21745,动态:22702,动态:20440,动态:20439,动态:22667,动态:20399,动态:22512,动态:21737,动态:21756,动态:22706,动态:22659,动态:4036,动态:22710,动态:22684,动态:21776,动态:21741</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>动态:8109,动态:22160,动态:21253,动态:19371,动态:14186,动态:16068,动态:21467,动态:22032,动态:7655,动态:13306,动态:3804,动态:21491,动态:13201,动态:7394,动态:19384,动态:17097,动态:14052,动态:11938,动态:11120,动态:13878,动态:9525,动态:17326,动态:8788,动态:12311,动态:16571,动态:11736,动态:19606,动态:6635,动态:9167,动态:10526,动态:19120,动态:7004,动态:11193,动态:13132,动态:12356,动态:13971,动态:15199,动态:11081,动态:22642,动态:12377,动态:743,动态:20617,动态:17534,动态:11640,动态:17081,动态:17112,动态:18849,动态:22659,动态:13378,动态:17337</t>
+          <t>动态:3701,动态:19702,动态:9276,动态:6624,动态:15179,动态:19728,动态:7351,动态:16311,动态:16646,动态:12849,动态:12276,动态:8245,动态:18767,动态:19646,动态:11687,动态:6820,动态:15057,动态:3115,动态:8142,动态:15708,动态:20851,动态:11524,动态:6679,动态:15277,动态:18467,动态:14716,动态:22310,动态:14303,动态:16664,动态:11589,动态:21406,动态:16212,动态:12878,动态:7678,动态:11270,动态:19212,动态:6729,动态:14247,动态:10927,动态:19294,动态:19369,动态:21492,动态:784,动态:22639,动态:6757,动态:10136,动态:10132,动态:13836,动态:7587,动态:22692</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>动态:20677,动态:16111,动态:20390,动态:12281,动态:21197,动态:6625,动态:12874,动态:19420,动态:19491,动态:19214,动态:16713,动态:11867,动态:16222,动态:22096,动态:17973,动态:8494,动态:17963,动态:16531,动态:12843,动态:8201,动态:15709,动态:12065,动态:20067,动态:16518,动态:21126,动态:13214,动态:13870,动态:19422,动态:21101,动态:20486,动态:20168,动态:20385,动态:18011,动态:9152,动态:14901,动态:16844,动态:13259,动态:12690,动态:9311,动态:13917,动态:13143,动态:20789,动态:19306,动态:22413,动态:20985,动态:10772,动态:11602,动态:22659,动态:22702,动态:816</t>
+          <t>动态:20622,动态:11728,动态:11534,动态:693,动态:10687,动态:784,动态:15433,动态:10939,动态:6786,动态:239,动态:9025,动态:12186,动态:21197,动态:237,动态:9157,动态:12608,动态:11660,动态:9584,动态:10914,动态:17575,动态:19377,动态:13214,动态:14464,动态:13140,动态:7307,动态:13058,动态:22495,动态:20460,动态:10465,动态:20741,动态:17060,动态:19808,动态:14657,动态:11944,动态:7526,动态:20859,动态:22254,动态:11618,动态:16687,动态:21597,动态:19835,动态:9118,动态:19212,动态:7824,动态:11687,动态:16296,动态:22692,动态:4036,动态:11040,动态:7002</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>动态:21288,动态:19278,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:4341,动态:6819,动态:13782,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>动态:17548,动态:10136,动态:9170,动态:21756,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:22688,动态:21975,动态:21745,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:21780</t>
+          <t>动态:10136,动态:9898,动态:21756,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:22688,动态:21975,动态:21745,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>动态:6885,动态:7472,动态:20140,动态:19096,动态:11730,动态:12903,动态:3215,动态:9418,动态:6647,动态:10009,动态:6578,动态:13534,动态:20285,动态:18497,动态:20516,动态:14722,动态:8002,动态:16929,动态:22698,动态:21756,动态:22659,动态:22019,动态:4036,动态:22699,动态:22146,动态:21763,动态:21737,动态:22323,动态:21727,动态:21745,动态:22702,动态:21776,动态:20440,动态:21740,动态:22685,动态:22512,动态:20720,动态:22688,动态:7746,动态:20399,动态:21741,动态:21757,动态:20439,动态:21753,动态:22697,动态:22667,动态:22696,动态:22684,动态:22507,动态:21857</t>
+          <t>动态:15583,动态:10632,动态:22659,动态:18151,动态:11452,动态:16223,动态:10165,动态:8773,动态:14686,动态:13152,动态:11734,动态:11967,动态:19004,动态:21756,动态:22702,动态:22699,动态:21757,动态:21763,动态:21436,动态:20399,动态:22685,动态:20440,动态:21737,动态:21740,动态:7746,动态:22710,动态:21857,动态:22698,动态:22688,动态:22323,动态:22680,动态:21975,动态:22692,动态:21753,动态:22507,动态:22697,动态:21745,动态:22146,动态:4036,动态:21776,动态:20364,动态:22684,动态:22512,动态:21741,动态:20439,动态:21727,动态:22019,动态:21972,动态:22667,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>动态:6595,动态:21975,动态:22702,动态:14555,动态:22710,动态:21737,动态:793,动态:22146,动态:21857,动态:22680,动态:21776,动态:20720,动态:21556,动态:22699,动态:22512,动态:22706,动态:22323,动态:21780,动态:20399,动态:17337,动态:20439,动态:21763,动态:21740,动态:22692,动态:22698,动态:22507,动态:21436,动态:21753,动态:20364,动态:7746,动态:22684,动态:22667,动态:22019,动态:22696,动态:20440,动态:21757,动态:21741,动态:22688,动态:22659,动态:22697,动态:22685,动态:4036,动态:21756,动态:21727</t>
+          <t>动态:22146,动态:21975,动态:21857,动态:22710,动态:22702,动态:21737,动态:21756,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21745,动态:21436,动态:21753,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>动态:16232,动态:13535,动态:19940,动态:8515,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:5210,动态:20720,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:22684,动态:22688,动态:21975,动态:21745,动态:21436,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>动态:19829,动态:9078,动态:19729,动态:5558,动态:6625,动态:10937,动态:21054,动态:19733,动态:16071,动态:12085,动态:22291,动态:13284,动态:7577,动态:16942,动态:8674,动态:22626,动态:13079,动态:21536,动态:17848,动态:21112,动态:13569,动态:11168,动态:7530,动态:7736,动态:12890,动态:14342,动态:6640,动态:19619,动态:16536,动态:13038,动态:14167,动态:8827,动态:18168,动态:13151,动态:11340,动态:14417,动态:9156,动态:17730,动态:19897,动态:20124,动态:22074,动态:9788,动态:13908,动态:12583,动态:11167,动态:7746,动态:21975,动态:21556,动态:22507,动态:20490</t>
+          <t>动态:13764,动态:22512,动态:20115,动态:20593,动态:15328,动态:8115,动态:22498,动态:9204,动态:4210,动态:18627,动态:17341,动态:7517,动态:8173,动态:13407,动态:14821,动态:17548,动态:13281,动态:16594,动态:11017,动态:6647,动态:15577,动态:12638,动态:10708,动态:11365,动态:14816,动态:15761,动态:10122,动态:12821,动态:13537,动态:14333,动态:20764,动态:21180,动态:9734,动态:18082,动态:8741,动态:14304,动态:7354,动态:13012,动态:13411,动态:8293,动态:14754,动态:10687,动态:17205,动态:20267,动态:20200,动态:22667,动态:21727,动态:17534,动态:19825,动态:21757</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>动态:7054,动态:11861,动态:11863,动态:3793,动态:11328,动态:11447,动态:9492,动态:19384,动态:16620,动态:15916,动态:16154,动态:11045,动态:10845,动态:12587,动态:9047,动态:22692,动态:22019,动态:22685,动态:22697,动态:22699,动态:20399,动态:21857,动态:7746,动态:21727,动态:17337,动态:22507,动态:20440,动态:22702,动态:22512,动态:22146,动态:22684,动态:20364,动态:21756,动态:22667,动态:21737,动态:22323,动态:21763,动态:22688,动态:4036,动态:21745,动态:22710,动态:22659,动态:21741,动态:20439,动态:21972,动态:21753,动态:21780,动态:21757,动态:22698,动态:21436</t>
+          <t>动态:3453,动态:16620,动态:11399,动态:11328,动态:17120,动态:12587,动态:9047,动态:19371,动态:11285,动态:11281,动态:20603,动态:11396,动态:5961,动态:11264,动态:6894,动态:6794,动态:10969,动态:20086,动态:9093,动态:22696,动态:21763,动态:21745,动态:21756,动态:21741,动态:21727,动态:21556,动态:21737,动态:22685,动态:4036,动态:22702,动态:22146,动态:21436,动态:21740,动态:21753,动态:22688,动态:22710,动态:22692,动态:22507,动态:22698,动态:22019,动态:21757,动态:21972,动态:22706,动态:7746,动态:17337,动态:21857,动态:22697,动态:22684,动态:22323,动态:20720</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>动态:22044,动态:17081,动态:16838,动态:16256,动态:22042,动态:21975,动态:7386,动态:17337,动态:21857,动态:9724,动态:21727,动态:20720,动态:21737,动态:21797,动态:17128,动态:21648,动态:21972,动态:21858,动态:20439,动态:22697,动态:22680,动态:21780,动态:22699,动态:21763,动态:22685,动态:22146,动态:20440,动态:21757,动态:22507,动态:21776,动态:21741,动态:22659,动态:20399,动态:21556,动态:21753,动态:22696,动态:7746,动态:22706,动态:21745,动态:22702,动态:22688,动态:21756,动态:4036,动态:22684,动态:22512</t>
+          <t>动态:21727,动态:22044,动态:16256,动态:21797,动态:9724,动态:17337,动态:21975,动态:21857,动态:14673,动态:22042,动态:21737,动态:17081,动态:20720,动态:21972,动态:17128,动态:21858,动态:21741,动态:21776,动态:22696,动态:21436,动态:22659,动态:20440,动态:22702,动态:22685,动态:22698,动态:21740,动态:22706,动态:22146,动态:21780,动态:21556,动态:7746,动态:22507,动态:21745,动态:21753,动态:20439,动态:22512,动态:22323,动态:20364,动态:22688,动态:21763,动态:22684,动态:20399,动态:4036</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>动态:20399,动态:21745,动态:22659,动态:22706,动态:21780,动态:22692,动态:22685,动态:20439,动态:22684,动态:20440,动态:22507,动态:21972,动态:22667,动态:20364,动态:4036,动态:21776,动态:22697,动态:21757,动态:21737,动态:22699,动态:21436,动态:21727,动态:21753,动态:22688,动态:21740,动态:21756,动态:22680,动态:22512,动态:21556,动态:21741,动态:21975,动态:22696,动态:22146,动态:22698,动态:20720,动态:22019,动态:17337,动态:7746,动态:21857,动态:22323,动态:21763</t>
+          <t>动态:12891,动态:8915,动态:12736,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>动态:21129,动态:16050,动态:12031,动态:20616,动态:19769,动态:10189,动态:15909,动态:6733,动态:10954,动态:5233,动态:6683,动态:19006,动态:13321,动态:3072,动态:6789,动态:14410,动态:14244,动态:20178,动态:21737,动态:4036,动态:21857,动态:22692,动态:22688,动态:20720,动态:21975,动态:21972,动态:21753,动态:22710,动态:22146,动态:21756,动态:22696,动态:21776,动态:20364,动态:22507,动态:22699,动态:22697,动态:20440,动态:22706,动态:22698,动态:7746,动态:21436,动态:21740,动态:22685,动态:22667,动态:21763,动态:22680,动态:22702,动态:21727,动态:22659,动态:20399</t>
+          <t>动态:19560,动态:11967,动态:19835,动态:20379,动态:12639,动态:11615,动态:10476,动态:14622,动态:10523,动态:18514,动态:22085,动态:12059,动态:22091,动态:13801,动态:20139,动态:19649,动态:10918,动态:13084,动态:7738,动态:3119,动态:22692,动态:22684,动态:21756,动态:22699,动态:22146,动态:21757,动态:22667,动态:21741,动态:22702,动态:20439,动态:20720,动态:22019,动态:20440,动态:20364,动态:21975,动态:22696,动态:21737,动态:4036,动态:22706,动态:21780,动态:22688,动态:22685,动态:21745,动态:22512,动态:21727,动态:22698,动态:20399,动态:21556,动态:21763,动态:22323</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>动态:13631,动态:16713,动态:10687,动态:14330,动态:19417,动态:13672,动态:12828,动态:7007,动态:16388,动态:9311,动态:19689,动态:3160,动态:3126,动态:676,动态:3128,动态:3098,动态:16294,动态:3122,动态:14752,动态:3102,动态:3175,动态:20065,动态:11065,动态:3090,动态:231,动态:22699,动态:10219,动态:3144,动态:5900,动态:3142,动态:3156,动态:15612,动态:3078,动态:17946,动态:3172,动态:22507,动态:21756,动态:22684,动态:22698,动态:22706,动态:21757,动态:22146,动态:22692,动态:22659,动态:20399,动态:22696,动态:21780,动态:21556,动态:17337,动态:22667</t>
+          <t>动态:11087,动态:17265,动态:21467,动态:16212,动态:21854,动态:13981,动态:7307,动态:19376,动态:18087,动态:20463,动态:17177,动态:1364,动态:3098,动态:11406,动态:3160,动态:3144,动态:3172,动态:18651,动态:3126,动态:3102,动态:3078,动态:676,动态:231,动态:3128,动态:13986,动态:7054,动态:3090,动态:3156,动态:3175,动态:3142,动态:12338,动态:3122,动态:20720,动态:21972,动态:22667,动态:22688,动态:21436,动态:22323,动态:22680,动态:21975,动态:22146,动态:21757,动态:21753,动态:22684,动态:21780,动态:21756,动态:22698,动态:21556,动态:21745,动态:4036</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>动态:12974,动态:8010,动态:12690,动态:10897,动态:15539,动态:17391,动态:17176,动态:22650,动态:13943,动态:17174,动态:21737,动态:19755,动态:12364,动态:13072,动态:21000,动态:21723,动态:8294,动态:15814,动态:3178,动态:21556,动态:6764,动态:15222,动态:4302,动态:3096,动态:3522,动态:3150,动态:3153,动态:3081,动态:3119,动态:144,动态:3110,动态:3795,动态:3072,动态:3099,动态:3138,动态:20364,动态:3168,动态:3793,动态:4027,动态:13802,动态:3133,动态:22684,动态:22685,动态:22706,动态:22659,动态:22698,动态:21857,动态:21776,动态:21727,动态:21740</t>
+          <t>动态:13854,动态:22650,动态:6884,动态:14860,动态:21723,动态:21737,动态:3808,动态:12300,动态:12673,动态:17749,动态:144,动态:3138,动态:3096,动态:3119,动态:3178,动态:3168,动态:3099,动态:13200,动态:3795,动态:3153,动态:3081,动态:4302,动态:21556,动态:4027,动态:3150,动态:3793,动态:3133,动态:3110,动态:3072,动态:3522,动态:20364,动态:21727,动态:22697,动态:22512,动态:21753,动态:21972,动态:20399,动态:20439,动态:22696,动态:22699,动态:22685,动态:22146,动态:21763,动态:22706,动态:20720,动态:21741,动态:22692,动态:21745,动态:21756</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>动态:20839,动态:21084,动态:21737,动态:20836,动态:21410,动态:20328,动态:21556,动态:21357,动态:22097,动态:21103,动态:22019,动态:16512,动态:20364,动态:20840,动态:21360,动态:21361,动态:19606,动态:20178,动态:21763,动态:7746,动态:22659,动态:21741,动态:22512,动态:20720,动态:22684,动态:21753,动态:20399,动态:21857,动态:21757,动态:21780,动态:22146,动态:22323,动态:22702,动态:22710,动态:21745,动态:17337,动态:21436,动态:20439,动态:21756,动态:22685,动态:22706,动态:21975,动态:22696,动态:22680,动态:4036,动态:22697</t>
+          <t>动态:20328,动态:19606,动态:20720,动态:20759,动态:20837,动态:20178,动态:21084,动态:16609,动态:21361,动态:21737,动态:22097,动态:20839,动态:11750,动态:22019,动态:20840,动态:21556,动态:15630,动态:20364,动态:21360,动态:21410,动态:21357,动态:20439,动态:21780,动态:21745,动态:22692,动态:20399,动态:21436,动态:22667,动态:4036,动态:21975,动态:22684,动态:21727,动态:21763,动态:22685,动态:22323,动态:20440,动态:7746,动态:21741,动态:22696,动态:21753,动态:21756,动态:21857,动态:22507,动态:22512,动态:22699,动态:22698,动态:21757,动态:17337</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>动态:21756,动态:22710,动态:22696,动态:20439,动态:22692,动态:21436,动态:21757,动态:21727,动态:22684,动态:21745,动态:17337,动态:22698,动态:22688,动态:21740,动态:21780,动态:7746,动态:22323,动态:22697,动态:22507,动态:22699,动态:22667,动态:21857,动态:21763,动态:21975,动态:22685,动态:21753,动态:22512,动态:22146,动态:22680,动态:20440,动态:4036,动态:22659,动态:22706,动态:21776,动态:20399,动态:22019,动态:21972,动态:20720,动态:22702,动态:21741</t>
+          <t>动态:13700,动态:18087,动态:6956,动态:22489,动态:22702,动态:22710,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>动态:8773,动态:21704,动态:9483,动态:15757,动态:11191,动态:8809,动态:11724,动态:13872,动态:15243,动态:17337,动态:15142,动态:21881,动态:18629,动态:14971,动态:14703,动态:14686,动态:13605,动态:11432,动态:17091,动态:6794,动态:14446,动态:13380,动态:14653,动态:3107,动态:22688,动态:22710,动态:22706,动态:22019,动态:22659,动态:20440,动态:22507,动态:21757,动态:22702,动态:22692,动态:20439,动态:21780,动态:21737,动态:22323,动态:21763,动态:22696,动态:22146,动态:22684,动态:22698,动态:22699,动态:4036,动态:21975,动态:22680,动态:7746,动态:21756</t>
+          <t>动态:17554,动态:6886,动态:11698,动态:16717,动态:18791,动态:19504,动态:12711,动态:13412,动态:1310,动态:20717,动态:18995,动态:6134,动态:21360,动态:10271,动态:11129,动态:13810,动态:13328,动态:22706,动态:21756,动态:20364,动态:22323,动态:22680,动态:21763,动态:22698,动态:22659,动态:21737,动态:22688,动态:21745,动态:21727,动态:20439,动态:22692,动态:22685,动态:22702,动态:21740,动态:21975,动态:7746,动态:22699,动态:21776,动态:21556,动态:22507,动态:22696,动态:22710,动态:20440,动态:21757,动态:17337,动态:21780,动态:22667,动态:4036,动态:20720,动态:22684</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>动态:10535,动态:14634,动态:13911,动态:11452,动态:9132,动态:18072,动态:9512,动态:18000,动态:13943,动态:10114,动态:7131,动态:11416,动态:6767,动态:13040,动态:11265,动态:16401,动态:11779,动态:21756,动态:22702,动态:21745,动态:22019,动态:21975,动态:22710,动态:22659,动态:20440,动态:4036,动态:21757,动态:21436,动态:21556,动态:21857,动态:20720,动态:22696,动态:20439,动态:22688,动态:22692,动态:22507,动态:22667,动态:21740,动态:22685,动态:22512,动态:21737,动态:21763,动态:22699,动态:22697,动态:22698,动态:21741,动态:22684,动态:21727,动态:7746,动态:22323</t>
+          <t>动态:15806,动态:14217,动态:11541,动态:14887,动态:12871,动态:19645,动态:13457,动态:12027,动态:15885,动态:10980,动态:13432,动态:18011,动态:15940,动态:13836,动态:11466,动态:6913,动态:14721,动态:13047,动态:18327,动态:11289,动态:20273,动态:20384,动态:20248,动态:21745,动态:20440,动态:22146,动态:20364,动态:22697,动态:22696,动态:22019,动态:21741,动态:21756,动态:22659,动态:22688,动态:20720,动态:22710,动态:22323,动态:22680,动态:21753,动态:17337,动态:22507,动态:22702,动态:21436,动态:21556,动态:22512,动态:22699,动态:21757,动态:21780,动态:21975,动态:20439</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>动态:15827,动态:5151,动态:18211,动态:15156,动态:13359,动态:8873,动态:9039,动态:18683,动态:18696,动态:21094,动态:9151,动态:6629,动态:10969,动态:4680,动态:14529,动态:12346,动态:11021,动态:16578,动态:16597,动态:21753,动态:21556,动态:22706,动态:7746,动态:21975,动态:22684,动态:22146,动态:22680,动态:20364,动态:21741,动态:20399,动态:22688,动态:21757,动态:21776,动态:22512,动态:22667,动态:20720,动态:4036,动态:21972,动态:22659,动态:22710,动态:22692,动态:22323,动态:21756,动态:21737,动态:21740,动态:22696,动态:22697,动态:21857,动态:21763,动态:22507</t>
+          <t>动态:7740,动态:13501,动态:13269,动态:19057,动态:20989,动态:15408,动态:14679,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>动态:17634,动态:10930,动态:21959,动态:22346,动态:18506,动态:20908,动态:20810,动态:13007,动态:21392,动态:21536,动态:11191,动态:12081,动态:15078,动态:16380,动态:20590,动态:14565,动态:12395,动态:13634,动态:20463,动态:15634,动态:20840,动态:16664,动态:6764,动态:6909,动态:5403,动态:17691,动态:20720,动态:21763,动态:22702,动态:21436,动态:21757,动态:21740,动态:4036,动态:22680,动态:20439,动态:21972,动态:21741,动态:22692,动态:22710,动态:22697,动态:22667,动态:20440,动态:22507,动态:22688,动态:22659,动态:21776,动态:22323,动态:21975,动态:22699,动态:22696</t>
+          <t>动态:18165,动态:22661,动态:19715,动态:17975,动态:21392,动态:14350,动态:18996,动态:12583,动态:6905,动态:19619,动态:12885,动态:10514,动态:22130,动态:3178,动态:12019,动态:7397,动态:9097,动态:3168,动态:22692,动态:22680,动态:21556,动态:7746,动态:22323,动态:21776,动态:22684,动态:21741,动态:22698,动态:22667,动态:22697,动态:21763,动态:22019,动态:22688,动态:20440,动态:22702,动态:21972,动态:21756,动态:17337,动态:22146,动态:21753,动态:4036,动态:21436,动态:22512,动态:22659,动态:21745,动态:20364,动态:22685,动态:20439,动态:20720,动态:22696,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>动态:12276,动态:20316,动态:18663,动态:20960,动态:13043,动态:6623,动态:17170,动态:15071,动态:13270,动态:22667,动态:12275,动态:20611,动态:1347,动态:6586,动态:21966,动态:19821,动态:11062,动态:21392,动态:11033,动态:19420,动态:17343,动态:21678,动态:15998,动态:11870,动态:17172,动态:11854,动态:11167,动态:11736,动态:7517,动态:20654,动态:11809,动态:16257,动态:13523,动态:11505,动态:20105,动态:11684,动态:16823,动态:16070,动态:21583,动态:22146,动态:10930,动态:21857,动态:10632,动态:15304,动态:9790,动态:14409,动态:20399,动态:6626,动态:14646,动态:15495</t>
+          <t>动态:18855,动态:13136,动态:18618,动态:8757,动态:21857,动态:15328,动态:20994,动态:11972,动态:19774,动态:22096,动态:7815,动态:8294,动态:16646,动态:12027,动态:14248,动态:9201,动态:19554,动态:18667,动态:18140,动态:13325,动态:21054,动态:14901,动态:18627,动态:17250,动态:13043,动态:18038,动态:20590,动态:17498,动态:18509,动态:10514,动态:16109,动态:19423,动态:13191,动态:6622,动态:19096,动态:15754,动态:8920,动态:11590,动态:12394,动态:1271,动态:12729,动态:20636,动态:20741,动态:3808,动态:15479,动态:22019,动态:11552,动态:12679,动态:22692,动态:21753</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>动态:11203,动态:22495,动态:19045,动态:19232,动态:16787,动态:20527,动态:1914,动态:20356,动态:19184,动态:12379,动态:15643,动态:11120,动态:15432,动态:10976,动态:20158,动态:14494,动态:14848,动态:16910,动态:7099,动态:12920,动态:13054,动态:21740,动态:22659,动态:21436,动态:22684,动态:21556,动态:21756,动态:17337,动态:22706,动态:22667,动态:7746,动态:21776,动态:21780,动态:21757,动态:20364,动态:22702,动态:22692,动态:22146,动态:22710,动态:22512,动态:22680,动态:20440,动态:21972,动态:21763,动态:22688,动态:22699,动态:22685,动态:22697,动态:22696,动态:4036</t>
+          <t>动态:12829,动态:9800,动态:10359,动态:13917,动态:15425,动态:19614,动态:9936,动态:14110,动态:12889,动态:17975,动态:12552,动态:13381,动态:15631,动态:19448,动态:14203,动态:5023,动态:9158,动态:6026,动态:15947,动态:22659,动态:22323,动态:22699,动态:21753,动态:22692,动态:20720,动态:21756,动态:21763,动态:22684,动态:22146,动态:22688,动态:22706,动态:21776,动态:21972,动态:20440,动态:22507,动态:17337,动态:20439,动态:21780,动态:22685,动态:20364,动态:21741,动态:22698,动态:21556,动态:22702,动态:22667,动态:21975,动态:22680,动态:22019,动态:21436,动态:22512</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>动态:13710,动态:6606,动态:11455,动态:9450,动态:20502,动态:20738,动态:15805,动态:7386,动态:22110,动态:14479,动态:9426,动态:19937,动态:13098,动态:15169,动态:621,动态:17120,动态:17951,动态:4036,动态:20364,动态:22659,动态:20720,动态:22688,动态:22512,动态:22019,动态:21756,动态:22323,动态:21741,动态:22146,动态:22702,动态:7746,动态:21727,动态:21857,动态:22699,动态:21763,动态:21972,动态:22706,动态:20439,动态:22692,动态:20399,动态:22685,动态:22696,动态:22507,动态:22680,动态:21740,动态:22684,动态:21776,动态:21975,动态:21757,动态:22667,动态:21753</t>
+          <t>动态:21340,动态:2938,动态:6983,动态:13217,动态:19859,动态:15236,动态:16394,动态:20115,动态:18624,动态:15015,动态:15184,动态:13051,动态:16475,动态:9278,动态:5899,动态:13692,动态:14656,动态:17234,动态:6630,动态:13328,动态:21763,动态:22146,动态:22512,动态:20720,动态:21975,动态:21741,动态:21556,动态:22710,动态:21857,动态:20439,动态:21780,动态:20399,动态:7746,动态:21753,动态:20440,动态:21745,动态:22680,动态:22698,动态:22667,动态:21436,动态:17337,动态:21740,动态:22692,动态:22659,动态:22702,动态:22684,动态:21727,动态:22019,动态:21972,动态:22697</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>动态:19182,动态:22501,动态:1370,动态:9183,动态:4044,动态:11541,动态:10870,动态:3251,动态:17529,动态:15919,动态:22659,动态:20376,动态:22624,动态:6693,动态:21293,动态:12798,动态:15888,动态:18875,动态:20390,动态:10209,动态:17952,动态:17750,动态:6635,动态:18203,动态:9118,动态:3806,动态:4996,动态:7004,动态:16194,动态:11466,动态:12871,动态:12156,动态:9728,动态:9311,动态:13143,动态:11093,动态:17077,动态:15814,动态:11948,动态:13569,动态:11437,动态:16687,动态:21392,动态:22673,动态:8465,动态:10212,动态:21757,动态:8107,动态:22146,动态:22685</t>
+          <t>动态:12308,动态:21093,动态:15754,动态:21492,动态:22042,动态:12673,动态:20968,动态:14215,动态:19232,动态:19702,动态:20989,动态:17755,动态:8289,动态:22350,动态:13887,动态:22303,动态:18667,动态:6553,动态:11534,动态:8171,动态:11728,动态:19377,动态:10212,动态:12082,动态:21105,动态:18744,动态:22254,动态:17216,动态:9790,动态:10089,动态:15498,动态:9768,动态:8741,动态:13616,动态:22306,动态:18877,动态:13041,动态:9027,动态:17184,动态:11093,动态:14050,动态:8887,动态:6452,动态:10096,动态:12326,动态:20116,动态:13872,动态:22659,动态:22507,动态:11081</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>动态:19937,动态:21470,动态:16483,动态:22667,动态:13247,动态:13962,动态:7022,动态:11152,动态:6296,动态:16071,动态:15222,动态:18994,动态:3144,动态:8966,动态:7045,动态:14546,动态:11695,动态:12119,动态:22294,动态:22433,动态:22688,动态:22685,动态:693,动态:8586,动态:21972,动态:22512,动态:22698,动态:22146,动态:21727,动态:22710,动态:21556,动态:21763,动态:21780,动态:20364,动态:22680,动态:22699,动态:21757,动态:22696,动态:21753,动态:22706,动态:21857,动态:22692,动态:22323,动态:21737,动态:22019,动态:20720,动态:20439,动态:21745</t>
+          <t>动态:13556,动态:13158,动态:19896,动态:22604,动态:6580,动态:22667,动态:8177,动态:14209,动态:12014,动态:8270,动态:9476,动态:22688,动态:10966,动态:12081,动态:8662,动态:9996,动态:13838,动态:17853,动态:19809,动态:15667,动态:11024,动态:22685,动态:10182,动态:22697,动态:20399,动态:21753,动态:21740,动态:21741,动态:21763,动态:20364,动态:22696,动态:22702,动态:22659,动态:22698,动态:22146,动态:21972,动态:20440,动态:21975,动态:22710,动态:17337,动态:22684,动态:7746,动态:4036,动态:21436,动态:21756,动态:21857,动态:22680,动态:21780,动态:21727</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>动态:13689,动态:11015,动态:15751,动态:21704,动态:20390,动态:11487,动态:13391,动态:19385,动态:10849,动态:11938,动态:11120,动态:16719,动态:15632,动态:13276,动态:22316,动态:13836,动态:8289,动态:14405,动态:20548,动态:10355,动态:22684,动态:21972,动态:22323,动态:21756,动态:20399,动态:21857,动态:20720,动态:22697,动态:22019,动态:22710,动态:22698,动态:20439,动态:22680,动态:21763,动态:21727,动态:21740,动态:22512,动态:22507,动态:22702,动态:21776,动态:4036,动态:17337,动态:21975,动态:21757,动态:21741,动态:22146,动态:20364,动态:20440,动态:21737,动态:21556</t>
+          <t>动态:17769,动态:14999,动态:20227,动态:8764,动态:18589,动态:12273,动态:6625,动态:18339,动态:17557,动态:21653,动态:11991,动态:15539,动态:9354,动态:9158,动态:7978,动态:11043,动态:12604,动态:4039,动态:21740,动态:21757,动态:21972,动态:21556,动态:21763,动态:21737,动态:21753,动态:21741,动态:22684,动态:20720,动态:21780,动态:22702,动态:21857,动态:20439,动态:22697,动态:22323,动态:22692,动态:22696,动态:22019,动态:22680,动态:20399,动态:21745,动态:21975,动态:4036,动态:22146,动态:22507,动态:21436,动态:22659,动态:7746,动态:21776,动态:21727,动态:20440</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>动态:11133,动态:8538,动态:20170,动态:21253,动态:19733,动态:15743,动态:12821,动态:12898,动态:21017,动态:20149,动态:12919,动态:12052,动态:22673,动态:17296,动态:11558,动态:10523,动态:235,动态:13073,动态:20152,动态:12798,动态:18020,动态:20834,动态:19644,动态:3806,动态:831,动态:12562,动态:11606,动态:15905,动态:15545,动态:17953,动态:11523,动态:19232,动态:17607,动态:14111,动态:6472,动态:6596,动态:11009,动态:11015,动态:19825,动态:20374,动态:13288,动态:18305,动态:5206,动态:20823,动态:682,动态:22710,动态:11807,动态:20364,动态:22697,动态:11585</t>
+          <t>动态:14517,动态:20859,动态:8674,动态:14686,动态:9554,动态:18983,动态:19629,动态:10936,动态:22685,动态:22400,动态:9440,动态:19426,动态:6619,动态:10698,动态:8245,动态:19208,动态:16017,动态:15765,动态:19416,动态:13143,动态:6733,动态:17205,动态:20487,动态:17564,动态:21785,动态:21000,动态:10360,动态:10711,动态:18282,动态:10122,动态:12897,动态:19537,动态:3215,动态:11390,动态:10995,动态:22667,动态:12737,动态:17392,动态:19186,动态:7171,动态:11405,动态:13317,动态:20358,动态:239,动态:16536,动态:20720,动态:22487,动态:21757,动态:21753,动态:18369</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>动态:22653,动态:8835,动态:17077,动态:21206,动态:11036,动态:19296,动态:16873,动态:17392,动态:21975,动态:11569,动态:12197,动态:13639,动态:13267,动态:4968,动态:12384,动态:18203,动态:6595,动态:21501,动态:13794,动态:15633,动态:21743,动态:19838,动态:22097,动态:18367,动态:12252,动态:6674,动态:9155,动态:13054,动态:22706,动态:22507,动态:21740,动态:22697,动态:20720,动态:22659,动态:22702,动态:21436,动态:21763,动态:21776,动态:21857,动态:21756,动态:22323,动态:20399,动态:22710,动态:22698,动态:17337,动态:22696,动态:4036,动态:21737,动态:21727,动态:22512</t>
+          <t>动态:20110,动态:11500,动态:12878,动态:20293,动态:21975,动态:15926,动态:21501,动态:7517,动态:13296,动态:19453,动态:20205,动态:9785,动态:21743,动态:13613,动态:21797,动态:22653,动态:21342,动态:19487,动态:11467,动态:16476,动态:17939,动态:20071,动态:17515,动态:22684,动态:21556,动态:22512,动态:22710,动态:21972,动态:22702,动态:7746,动态:22692,动态:22680,动态:20364,动态:21756,动态:21727,动态:21753,动态:22699,动态:21757,动态:21737,动态:22696,动态:22507,动态:22688,动态:21857,动态:22698,动态:21780,动态:20440,动态:4036,动态:22659,动态:21436,动态:21740</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>动态:22653,动态:21743,动态:9204,动态:12283,动态:13790,动态:19706,动态:21975,动态:12586,动态:5899,动态:13986,动态:20516,动态:21360,动态:17739,动态:11085,动态:18301,动态:21501,动态:8773,动态:22381,动态:21737,动态:14111,动态:22699,动态:20399,动态:22507,动态:22146,动态:22659,动态:21857,动态:22706,动态:20439,动态:21436,动态:22512,动态:21753,动态:22685,动态:22680,动态:21556,动态:21740,动态:21741,动态:22696,动态:22710,动态:21757,动态:20720,动态:17337,动态:22667,动态:20364,动态:4036,动态:22323,动态:22684,动态:22698,动态:22702</t>
+          <t>动态:20285,动态:22653,动态:21501,动态:14966,动态:18932,动态:18595,动态:13746,动态:19120,动态:14948,动态:19097,动态:21975,动态:18667,动态:19531,动态:6632,动态:21743,动态:2878,动态:8221,动态:10254,动态:8291,动态:22698,动态:8127,动态:12065,动态:22684,动态:22019,动态:22688,动态:20364,动态:22710,动态:22685,动态:21780,动态:21740,动态:22507,动态:21857,动态:22512,动态:21556,动态:22696,动态:21727,动态:21972,动态:21753,动态:21745,动态:22699,动态:22697,动态:22692,动态:22146,动态:22323,动态:21436,动态:21776,动态:17337,动态:20439</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>动态:22697,动态:11338,动态:12567,动态:22099,动态:14641,动态:20622,动态:11419,动态:11031,动态:11381,动态:19969,动态:11100,动态:12842,动态:22506,动态:6819,动态:10292,动态:21780,动态:22698,动态:22323,动态:22146,动态:21975,动态:21757,动态:21763,动态:22680,动态:20720,动态:22512,动态:21740,动态:21436,动态:22684,动态:7746,动态:22696,动态:22692,动态:21745,动态:21972,动态:21776,动态:20439,动态:22702,动态:22019,动态:22706,动态:20399,动态:21753,动态:22685,动态:22710,动态:22667,动态:4036,动态:22659,动态:22507,动态:21756,动态:21727,动态:21556</t>
+          <t>动态:8598,动态:19514,动态:20747,动态:20558,动态:12237,动态:17471,动态:17072,动态:6635,动态:11086,动态:19835,动态:21484,动态:9077,动态:21763,动态:22512,动态:21556,动态:21436,动态:22019,动态:22684,动态:20720,动态:22680,动态:22696,动态:7746,动态:22692,动态:20439,动态:20399,动态:20440,动态:22685,动态:21756,动态:21727,动态:22146,动态:22698,动态:22699,动态:22507,动态:21972,动态:22697,动态:22659,动态:22710,动态:21857,动态:21740,动态:22688,动态:21780,动态:21776,动态:21745,动态:21757,动态:21741,动态:21975,动态:22706,动态:22702,动态:22323,动态:21737</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>动态:6252,动态:3796,动态:621,动态:3073,动态:22699,动态:3174,动态:3076,动态:12163,动态:6447,动态:6916,动态:3107,动态:7464,动态:3897,动态:16478,动态:21970,动态:21470,动态:3104,动态:3162,动态:8962,动态:6901,动态:3979,动态:3166,动态:4027,动态:7789,动态:20525,动态:7383,动态:7186,动态:21857,动态:4036,动态:6325,动态:20516,动态:10772,动态:16721,动态:22696,动态:19716,动态:21780,动态:4031,动态:17965,动态:22710,动态:17337,动态:21727,动态:21756,动态:21763,动态:21741,动态:22688,动态:20399,动态:21436,动态:20720,动态:20364</t>
+          <t>动态:17367,动态:16721,动态:3174,动态:6447,动态:3073,动态:13249,动态:21363,动态:6901,动态:4036,动态:6916,动态:3166,动态:4031,动态:3897,动态:7789,动态:22699,动态:621,动态:7383,动态:3796,动态:17172,动态:14305,动态:6325,动态:3104,动态:21780,动态:7186,动态:15712,动态:21917,动态:6252,动态:3076,动态:21970,动态:3162,动态:22696,动态:15888,动态:3979,动态:3107,动态:13862,动态:21470,动态:15620,动态:7464,动态:20525,动态:20516,动态:3522,动态:22702,动态:21756,动态:22512,动态:21740,动态:21741,动态:21753,动态:21763,动态:21857,动态:22659</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>动态:7976,动态:7978,动态:22685,动态:21583,动态:21436,动态:22146,动态:20720,动态:22346,动态:21737,动态:21972,动态:19644,动态:22156,动态:22310,动态:7983,动态:22710,动态:22295,动态:22285,动态:22400,动态:17337,动态:22702,动态:22234,动态:21577,动态:7985,动态:15352,动态:19002,动态:22306,动态:21756,动态:21753,动态:22680,动态:21757,动态:4036,动态:20399,动态:22692,动态:21776,动态:20440,动态:21556,动态:22323,动态:21727,动态:21763,动态:22684,动态:21741,动态:21857,动态:21975,动态:22697</t>
+          <t>动态:9232,动态:7976,动态:11138,动态:7978,动态:21972,动态:22310,动态:20720,动态:22306,动态:22285,动态:22702,动态:22710,动态:22685,动态:22400,动态:17337,动态:21577,动态:7985,动态:21737,动态:22346,动态:22295,动态:21436,动态:7983,动态:11320,动态:19644,动态:22146,动态:21583,动态:22156,动态:22234,动态:7746,动态:4036,动态:21745,动态:22699,动态:22696,动态:21756,动态:20439,动态:22684,动态:21741,动态:21763,动态:21780,动态:22507,动态:22680,动态:21727,动态:22019,动态:22688,动态:22697,动态:22659</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>动态:6252,动态:3897,动态:7464,动态:3107,动态:6916,动态:6447,动态:3076,动态:3174,动态:22699,动态:3073,动态:621,动态:3796,动态:21470,动态:3162,动态:6901,动态:3104,动态:7186,动态:20525,动态:22696,动态:16721,动态:3979,动态:3166,动态:20516,动态:21780,动态:7383,动态:7789,动态:6325,动态:4031,动态:4036,动态:12718,动态:19729,动态:22254,动态:11566,动态:7826,动态:21206,动态:14794,动态:13391,动态:15867,动态:18994,动态:12962,动态:9228,动态:12589,动态:19547,动态:11094,动态:17625,动态:21556,动态:22659,动态:22710,动态:22688,动态:20246</t>
+          <t>动态:6325,动态:6916,动态:3073,动态:6447,动态:3166,动态:3174,动态:16721,动态:4031,动态:20516,动态:3104,动态:20525,动态:7464,动态:21470,动态:6901,动态:3897,动态:3107,动态:22699,动态:3979,动态:621,动态:22696,动态:3162,动态:7383,动态:3796,动态:3076,动态:6252,动态:7186,动态:21780,动态:7789,动态:4036,动态:21000,动态:14373,动态:18165,动态:11946,动态:10452,动态:18796,动态:10971,动态:10991,动态:19278,动态:18589,动态:10139,动态:20106,动态:7694,动态:18776,动态:21745,动态:21740,动态:22706,动态:21776,动态:20720,动态:22323,动态:21857</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>动态:9136,动态:11419,动态:16787,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:13888,动态:10968,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>动态:6252,动态:3796,动态:16608,动态:150,动态:621,动态:3073,动态:22699,动态:3174,动态:12903,动态:11390,动态:3076,动态:6916,动态:3107,动态:7464,动态:3897,动态:21970,动态:9093,动态:21470,动态:21126,动态:6447,动态:3104,动态:3162,动态:6901,动态:3979,动态:3166,动态:13875,动态:7789,动态:20525,动态:7383,动态:7186,动态:13114,动态:4036,动态:4031,动态:6325,动态:20516,动态:15174,动态:16721,动态:22696,动态:21309,动态:21780,动态:19892,动态:12780,动态:3133,动态:9413,动态:22019,动态:21763,动态:22512,动态:21745,动态:22685</t>
+          <t>动态:21780,动态:11014,动态:6447,动态:3073,动态:19232,动态:6901,动态:4036,动态:6916,动态:20479,动态:3166,动态:7824,动态:4031,动态:3897,动态:7789,动态:22699,动态:621,动态:7383,动态:3796,动态:3174,动态:13315,动态:16721,动态:10070,动态:7186,动态:14389,动态:6252,动态:3076,动态:14730,动态:21970,动态:3162,动态:22696,动态:15709,动态:20114,动态:3107,动态:21470,动态:7464,动态:20525,动态:3104,动态:20516,动态:6325,动态:17172,动态:3979,动态:17392,动态:21757,动态:21857,动态:20439,动态:22659,动态:7746,动态:22697,动态:22698,动态:21776</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>动态:17561,动态:18203,动态:16061,动态:18902,动态:17318,动态:20616,动态:16002,动态:22288,动态:22310,动态:20703,动态:11062,动态:20339,动态:17151,动态:15869,动态:20112,动态:13788,动态:15708,动态:7324,动态:13072,动态:11837,动态:13689,动态:11744,动态:22059,动态:18156,动态:11094,动态:14723,动态:6363,动态:5522,动态:3174,动态:21756,动态:22684,动态:21745,动态:22699,动态:17337,动态:22667,动态:20399,动态:4036,动态:22685,动态:20439,动态:22680,动态:21780,动态:21857,动态:21741,动态:21753,动态:20440,动态:21757,动态:22706,动态:22019,动态:21727,动态:22323</t>
+          <t>动态:15977,动态:20505,动态:14510,动态:12716,动态:10217,动态:11863,动态:20966,动态:8296,动态:18337,动态:19181,动态:9418,动态:12150,动态:12669,动态:12593,动态:13086,动态:7356,动态:11112,动态:10553,动态:15957,动态:8699,动态:20440,动态:22512,动态:17337,动态:21780,动态:22684,动态:20364,动态:21753,动态:22706,动态:22507,动态:21756,动态:21757,动态:22688,动态:21745,动态:22146,动态:21857,动态:20399,动态:22692,动态:22667,动态:20720,动态:4036,动态:21727,动态:22323,动态:21741,动态:20439,动态:22680,动态:22697,动态:22699,动态:22698,动态:22019,动态:22685</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>动态:22160,动态:12044,动态:8257,动态:21093,动态:22323,动态:22346,动态:13221,动态:14106,动态:22710,动态:21126,动态:12881,动态:15188,动态:13666,动态:16380,动态:3806,动态:6612,动态:16152,动态:10969,动态:13873,动态:22032,动态:21004,动态:16106,动态:19087,动态:12592,动态:6838,动态:21436,动态:22698,动态:22699,动态:17337,动态:22706,动态:21780,动态:21745,动态:21727,动态:21741,动态:21763,动态:20364,动态:21757,动态:20720,动态:21972,动态:20439,动态:22684,动态:22696,动态:22688,动态:21857,动态:21740,动态:22667,动态:22685,动态:22512</t>
+          <t>动态:15708,动态:15302,动态:4483,动态:4023,动态:10135,动态:10457,动态:22160,动态:6632,动态:15885,动态:19825,动态:22323,动态:22346,动态:14098,动态:22032,动态:10932,动态:14876,动态:22710,动态:4815,动态:20140,动态:8786,动态:14040,动态:10581,动态:4675,动态:13308,动态:13328,动态:21741,动态:20720,动态:21975,动态:22146,动态:20440,动态:20399,动态:22667,动态:22706,动态:21763,动态:21757,动态:21737,动态:21756,动态:21436,动态:22680,动态:7746,动态:17337,动态:21972,动态:22697,动态:21753,动态:21745,动态:20364,动态:21776,动态:22692,动态:21556</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>动态:17966,动态:11437,动态:15861,动态:13193,动态:11611,动态:22495,动态:21197,动态:20611,动态:12114,动态:15773,动态:9533,动态:16603,动态:9143,动态:21229,动态:13123,动态:6462,动态:6470,动态:14583,动态:6547,动态:8270,动态:21740,动态:20439,动态:22512,动态:21745,动态:7746,动态:21780,动态:21776,动态:22692,动态:17337,动态:22684,动态:22667,动态:4036,动态:22659,动态:22685,动态:22697,动态:21727,动态:21737,动态:22706,动态:21756,动态:21857,动态:22688,动态:20720,动态:21975,动态:20440,动态:21436,动态:22019,动态:20364,动态:22698,动态:22146,动态:21741</t>
+          <t>动态:13083,动态:19544,动态:18378,动态:11978,动态:17575,动态:12828,动态:20937,动态:12324,动态:14737,动态:17569,动态:13838,动态:15565,动态:10969,动态:11283,动态:13123,动态:17237,动态:16656,动态:20440,动态:21776,动态:22507,动态:21436,动态:21763,动态:22667,动态:21756,动态:21857,动态:22699,动态:21757,动态:21780,动态:22146,动态:21745,动态:21975,动态:7746,动态:21740,动态:21556,动态:4036,动态:21753,动态:22684,动态:20364,动态:22019,动态:22688,动态:22698,动态:22697,动态:22706,动态:22692,动态:20439,动态:22685,动态:21727,动态:17337,动态:21737,动态:22680</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>动态:22650,动态:12356,动态:12114,动态:21737,动态:14504,动态:22702,动态:22710,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:20399,动态:7746,动态:20364,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:22650,动态:244,动态:13067,动态:21737,动态:22702,动态:22710,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:20399,动态:7746,动态:20364,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>动态:13631,动态:14080,动态:22285,动态:22710,动态:13479,动态:21436,动态:21756,动态:22146,动态:22323,动态:20440,动态:21763,动态:21776,动态:22684,动态:20720,动态:21753,动态:21857,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:21436,动态:21417,动态:22285,动态:22710,动态:13086,动态:21756,动态:22146,动态:22323,动态:20440,动态:21763,动态:21776,动态:22684,动态:20720,动态:21753,动态:21857,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>动态:6683,动态:19057,动态:20008,动态:20447,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:22130,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>动态:15827,动态:22092,动态:21540,动态:22160,动态:1347,动态:8607,动态:19371,动态:17963,动态:11569,动态:15861,动态:20864,动态:13613,动态:19544,动态:22700,动态:12878,动态:8378,动态:17543,动态:9533,动态:14524,动态:12645,动态:20530,动态:15916,动态:6820,动态:13128,动态:15115,动态:14377,动态:6648,动态:3806,动态:10526,动态:8827,动态:13038,动态:22126,动态:779,动态:17481,动态:18983,动态:12902,动态:19697,动态:12325,动态:9160,动态:14509,动态:8878,动态:21266,动态:13676,动态:12573,动态:12891,动态:18989,动态:22234,动态:21740,动态:22698,动态:22684</t>
+          <t>动态:6642,动态:15435,动态:11728,动态:12562,动态:10643,动态:3751,动态:19427,动态:779,动态:19036,动态:20048,动态:20790,动态:20664,动态:13391,动态:7815,动态:10165,动态:7161,动态:17102,动态:19162,动态:11033,动态:16614,动态:6602,动态:19175,动态:12759,动态:19219,动态:11478,动态:10116,动态:15291,动态:3707,动态:20619,动态:11449,动态:13073,动态:9545,动态:11854,动态:7038,动态:15791,动态:11618,动态:8625,动态:12917,动态:17318,动态:19130,动态:7513,动态:19642,动态:13072,动态:12898,动态:18140,动态:22507,动态:21757,动态:21436,动态:13269,动态:16942</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>动态:13055,动态:5522,动态:16162,动态:8631,动态:16929,动态:18170,动态:8177,动态:13036,动态:18791,动态:10859,动态:10136,动态:19417,动态:18995,动态:19504,动态:3215,动态:9482,动态:13187,动态:19177,动态:13582,动态:11736,动态:20399,动态:21556,动态:20440,动态:22507,动态:21745,动态:22706,动态:22019,动态:22692,动态:20720,动态:21737,动态:22680,动态:22685,动态:22696,动态:21776,动态:21975,动态:7746,动态:21972,动态:22688,动态:22659,动态:21763,动态:22698,动态:20364,动态:21857,动态:21740,动态:22146,动态:21741,动态:17337,动态:21780,动态:22702,动态:22323</t>
+          <t>动态:6463,动态:5900,动态:14431,动态:15857,动态:11059,动态:20864,动态:11478,动态:21004,动态:19792,动态:13616,动态:10927,动态:22702,动态:14673,动态:15577,动态:11906,动态:9482,动态:22495,动态:11029,动态:20356,动态:19824,动态:12365,动态:11036,动态:18056,动态:11980,动态:13837,动态:8176,动态:16600,动态:17063,动态:15154,动态:3522,动态:21753,动态:22710,动态:22685,动态:20439,动态:22706,动态:22019,动态:22323,动态:22146,动态:21727,动态:21763,动态:21740,动态:22698,动态:21972,动态:22507,动态:20364,动态:22512,动态:22696,动态:21741,动态:21975</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>动态:20930,动态:21054,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:16602,动态:7405,动态:10427,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>动态:17085,动态:8745,动态:14098,动态:19935,动态:18070,动态:13592,动态:10956,动态:22609,动态:13009,动态:15146,动态:18665,动态:22702,动态:21780,动态:7746,动态:22710,动态:21745,动态:22680,动态:22692,动态:21763,动态:21737,动态:22684,动态:21857,动态:22512,动态:21757,动态:20439,动态:20440,动态:22706,动态:22697,动态:21556,动态:20364,动态:21975,动态:22696,动态:22019,动态:21741,动态:21436,动态:21727,动态:22507,动态:4036,动态:22698,动态:20399,动态:21776,动态:21740,动态:22685,动态:22659,动态:17337,动态:21972,动态:20720,动态:22667,动态:21753,动态:22323</t>
+          <t>动态:12114,动态:18900,动态:20200,动态:22427,动态:3415,动态:19774,动态:15071,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>动态:18841,动态:20348,动态:6460,动态:13036,动态:18491,动态:11156,动态:12319,动态:7608,动态:20130,动态:10579,动态:11782,动态:12592,动态:17504,动态:6191,动态:5778,动态:17943,动态:19836,动态:11786,动态:7384,动态:21654,动态:17623,动态:13469,动态:14682,动态:18740,动态:17106,动态:7607,动态:15093,动态:9986,动态:15354,动态:19602,动态:14684,动态:14422,动态:11055,动态:10684,动态:19649,动态:15184,动态:7025,动态:19783,动态:17148,动态:6133,动态:19932,动态:16858,动态:9349,动态:19492,动态:21452,动态:22680,动态:20364,动态:7740,动态:11274,动态:21975</t>
+          <t>动态:9050,动态:19816,动态:19908,动态:6086,动态:16026,动态:6449,动态:6906,动态:15999,动态:6545,动态:15627,动态:9039,动态:12593,动态:17960,动态:12911,动态:6773,动态:18170,动态:10072,动态:15656,动态:17710,动态:8631,动态:15408,动态:11461,动态:6577,动态:9795,动态:14053,动态:11786,动态:6761,动态:15547,动态:5778,动态:13789,动态:6845,动态:18153,动态:2926,动态:19127,动态:18273,动态:4632,动态:13380,动态:11267,动态:14514,动态:16833,动态:13308,动态:6852,动态:11094,动态:13970,动态:5901,动态:5023,动态:7059,动态:20439,动态:8775,动态:21753</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>动态:9286,动态:14845,动态:22558,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:19233,动态:12609,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>动态:12060,动态:13408,动态:16929,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:10070,动态:3098,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>动态:22685,动态:21780,动态:7746,动态:21757,动态:17337,动态:4036,动态:20364,动态:22698,动态:22688,动态:21776,动态:21727,动态:20439,动态:22507,动态:22702,动态:20440,动态:20399,动态:21740,动态:22680,动态:21436,动态:22692,动态:22512,动态:21556,动态:21745,动态:21756,动态:21753,动态:22696,动态:21972,动态:21763,动态:22667,动态:21741,动态:22699,动态:21857,动态:22146,动态:22323,动态:22684,动态:21737,动态:22659,动态:21975,动态:22019,动态:20720,动态:22710,动态:22697,动态:22706</t>
+          <t>动态:22252,动态:7608,动态:19646,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>动态:19778,动态:12422,动态:19729,动态:20111,动态:11467,动态:12275,动态:19420,动态:22311,动态:7983,动态:9860,动态:19271,动态:19972,动态:12180,动态:13833,动态:6733,动态:16531,动态:10991,动态:12878,动态:19184,动态:6641,动态:6886,动态:17496,动态:17689,动态:16787,动态:14377,动态:3806,动态:14730,动态:16585,动态:20731,动态:18246,动态:7528,动态:18867,动态:12231,动态:17730,动态:18983,动态:13888,动态:18011,动态:14811,动态:14901,动态:21678,动态:22085,动态:11523,动态:14878,动态:17975,动态:235,动态:21740,动态:20399,动态:20107,动态:18024,动态:4036</t>
+          <t>动态:7477,动态:8270,动态:22301,动态:8464,动态:7137,动态:17952,动态:11177,动态:13835,动态:20606,动态:6472,动态:21103,动态:22688,动态:10603,动态:16257,动态:12027,动态:14622,动态:19007,动态:10528,动态:19653,动态:13146,动态:19427,动态:13009,动态:13243,动态:20379,动态:11031,动态:19037,动态:21490,动态:14657,动态:17727,动态:15877,动态:21501,动态:12369,动态:21960,动态:18082,动态:16186,动态:15387,动态:17081,动态:12364,动态:22276,动态:6831,动态:11086,动态:11162,动态:12639,动态:1271,动态:15953,动态:20747,动态:22019,动态:11442,动态:14475,动态:13857</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>动态:12359,动态:17085,动态:6893,动态:12322,动态:19273,动态:13534,动态:11993,动态:20821,动态:8142,动态:12370,动态:15183,动态:12158,动态:12070,动态:18170,动态:21757,动态:21776,动态:21857,动态:22667,动态:22692,动态:22688,动态:21753,动态:22507,动态:21972,动态:21737,动态:21727,动态:21741,动态:21975,动态:4036,动态:22323,动态:22019,动态:22698,动态:21745,动态:21756,动态:22697,动态:21763,动态:22699,动态:20439,动态:20440,动态:20364,动态:22706,动态:22684,动态:20720,动态:22685,动态:21556,动态:7746,动态:22146,动态:22702,动态:22710,动态:20399,动态:17337</t>
+          <t>动态:13586,动态:12084,动态:22211,动态:15975,动态:22488,动态:20851,动态:10070,动态:16072,动态:10271,动态:18034,动态:18314,动态:7368,动态:16280,动态:22644,动态:15935,动态:15498,动态:4522,动态:21556,动态:21745,动态:21753,动态:22323,动态:4036,动态:21757,动态:22512,动态:22688,动态:22019,动态:20720,动态:22710,动态:21972,动态:22680,动态:20439,动态:7746,动态:21740,动态:21727,动态:22667,动态:21756,动态:22697,动态:22702,动态:21436,动态:22692,动态:20364,动态:22146,动态:21780,动态:22684,动态:21737,动态:21763,动态:22659,动态:21741,动态:22507,动态:21975</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>动态:11203,动态:9554,动态:14299,动态:6692,动态:11072,动态:21227,动态:13680,动态:12045,动态:6581,动态:17619,动态:13872,动态:19617,动态:9787,动态:5603,动态:15323,动态:15650,动态:16212,动态:7153,动态:15352,动态:20261,动态:2926,动态:21321,动态:10475,动态:14389,动态:13132,动态:15608,动态:21741,动态:22146,动态:21972,动态:22323,动态:21745,动态:22692,动态:22697,动态:17337,动态:22688,动态:20720,动态:21740,动态:22698,动态:22702,动态:20440,动态:22659,动态:20439,动态:4036,动态:21780,动态:22699,动态:7746,动态:22710,动态:21753,动态:22684,动态:20399</t>
+          <t>动态:13870,动态:13796,动态:11019,动态:19372,动态:5551,动态:9981,动态:14638,动态:10272,动态:14134,动态:15099,动态:13557,动态:11679,动态:16388,动态:17138,动态:17122,动态:15712,动态:14517,动态:22112,动态:20558,动态:13906,动态:7746,动态:22323,动态:21740,动态:22710,动态:20440,动态:22684,动态:22680,动态:17337,动态:21757,动态:22702,动态:22667,动态:22688,动态:21741,动态:22698,动态:21556,动态:21745,动态:20364,动态:22692,动态:21727,动态:21436,动态:21972,动态:20399,动态:21763,动态:4036,动态:22706,动态:22685,动态:22697,动态:22699,动态:22019,动态:20720</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>动态:12154,动态:7970,动态:6819,动态:13907,动态:12372,动态:14718,动态:21417,动态:11282,动态:21727,动态:21757,动态:21741,动态:22512,动态:21763,动态:17337,动态:22323,动态:22680,动态:22697,动态:20364,动态:21756,动态:21745,动态:21780,动态:21556,动态:7746,动态:21753,动态:21776,动态:20720,动态:4036,动态:22507,动态:22696,动态:22702,动态:22706,动态:21857,动态:22710,动态:20440,动态:22684,动态:22685,动态:22659,动态:21436,动态:21737,动态:21740,动态:22667,动态:22692,动态:22146,动态:21975,动态:22699,动态:22688,动态:20439,动态:22019,动态:20399</t>
+          <t>动态:19581,动态:15671,动态:13328,动态:15336,动态:12844,动态:11184,动态:17974,动态:12849,动态:13792,动态:11613,动态:9160,动态:18995,动态:21436,动态:22146,动态:20364,动态:21763,动态:20439,动态:22685,动态:20440,动态:22323,动态:22699,动态:22706,动态:22688,动态:17337,动态:21857,动态:22659,动态:20399,动态:21727,动态:21556,动态:22507,动态:21757,动态:21737,动态:22512,动态:4036,动态:21741,动态:21975,动态:21756,动态:7746,动态:21740,动态:20720,动态:21776,动态:21753,动态:22667,动态:22019,动态:22692,动态:21972,动态:22702,动态:21745,动态:22684,动态:22710</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>动态:21094,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:12558,动态:16401,动态:22692,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>动态:11263,动态:19268,动态:13817,动态:13792,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:12930,动态:12327,动态:21854,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>动态:13710,动态:13681,动态:21253,动态:12163,动态:18755,动态:15683,动态:21928,动态:13734,动态:12831,动态:9409,动态:19935,动态:3714,动态:4528,动态:22195,动态:18281,动态:13875,动态:18168,动态:16693,动态:15314,动态:17108,动态:3160,动态:17289,动态:14076,动态:17723,动态:18592,动态:3099,动态:17307,动态:11441,动态:17091,动态:17231,动态:20364,动态:17337,动态:22146,动态:4036,动态:21727,动态:22684,动态:21757,动态:21436,动态:21737,动态:22659,动态:22702,动态:21740,动态:22710,动态:22697,动态:22696,动态:21780,动态:20439,动态:21741,动态:21763,动态:22692</t>
+          <t>动态:8586,动态:17130,动态:14003,动态:20859,动态:18075,动态:16394,动态:12328,动态:12410,动态:21141,动态:18023,动态:15787,动态:9724,动态:18838,动态:14395,动态:20127,动态:8550,动态:6903,动态:16428,动态:6826,动态:12895,动态:6762,动态:7359,动态:20130,动态:11043,动态:19854,动态:17693,动态:22512,动态:17337,动态:22699,动态:21975,动态:22659,动态:21727,动态:21556,动态:20440,动态:22680,动态:22323,动态:21780,动态:22702,动态:22684,动态:21737,动态:21436,动态:20364,动态:20439,动态:22146,动态:22710,动态:22688,动态:22667,动态:22697,动态:21753,动态:21972</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>动态:18822,动态:10526,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:21556,动态:21745,动态:20439,动态:21857,动态:21763,动态:21737,动态:22698,动态:22146,动态:21756,动态:22019,动态:21740,动态:20364,动态:22699,动态:21757,动态:22507,动态:21436,动态:22685,动态:22710,动态:22680,动态:22702,动态:22323,动态:4036,动态:21753,动态:7746,动态:22706,动态:21741,动态:21776,动态:22667,动态:20720,动态:20440,动态:22696,动态:17337,动态:21780,动态:22659,动态:21972,动态:22684,动态:22688,动态:22697,动态:21727,动态:22692,动态:22512,动态:20399,动态:21975</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>动态:8935,动态:17336,动态:10476,动态:18072,动态:22199,动态:20617,动态:12119,动态:4296,动态:8168,动态:7736,动态:9150,动态:10506,动态:18070,动态:18459,动态:14076,动态:11274,动态:18750,动态:9146,动态:14230,动态:19457,动态:12908,动态:12593,动态:21740,动态:22699,动态:21780,动态:22685,动态:22696,动态:22667,动态:21756,动态:22684,动态:21763,动态:21776,动态:22706,动态:21757,动态:17337,动态:7746,动态:21857,动态:22688,动态:22323,动态:22659,动态:20440,动态:22698,动态:21556,动态:22512,动态:21727,动态:22146,动态:21745,动态:21436,动态:20364,动态:22507</t>
+          <t>动态:11282,动态:15867,动态:16676,动态:19655,动态:11015,动态:7161,动态:12399,动态:12046,动态:9724,动态:14947,动态:14509,动态:11566,动态:16602,动态:12273,动态:14971,动态:8168,动态:14830,动态:15384,动态:4176,动态:20273,动态:21741,动态:22706,动态:22710,动态:21740,动态:22146,动态:21763,动态:22699,动态:22680,动态:21727,动态:22323,动态:17337,动态:21436,动态:22688,动态:21975,动态:22698,动态:4036,动态:21780,动态:22507,动态:20440,动态:22685,动态:22697,动态:21757,动态:21737,动态:22667,动态:7746,动态:21753,动态:21745,动态:22512,动态:22019,动态:20364</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>动态:17627,动态:11126,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:10427,动态:17081,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>动态:12276,动态:20611,动态:11086,动态:9860,动态:12581,动态:19456,动态:21467,动态:7391,动态:21966,动态:20543,动态:18514,动态:17296,动态:13146,动态:13613,动态:22506,动态:7161,动态:12369,动态:21756,动态:20823,动态:16238,动态:11790,动态:1370,动态:20145,动态:16687,动态:18203,动态:11567,动态:831,动态:15340,动态:15565,动态:18308,动态:12930,动态:11934,动态:18011,动态:11380,动态:22698,动态:14972,动态:7944,动态:19527,动态:8168,动态:18266,动态:15709,动态:11996,动态:16587,动态:17958,动态:19857,动态:22692,动态:10132,动态:21857,动态:22323,动态:21776</t>
+          <t>动态:15144,动态:11078,动态:11403,动态:16377,动态:14161,动态:10849,动态:12730,动态:16017,动态:16793,动态:22633,动态:13047,动态:22679,动态:20067,动态:19487,动态:17548,动态:13911,动态:9138,动态:12324,动态:15913,动态:15477,动态:12883,动态:11281,动态:16582,动态:22507,动态:9525,动态:12890,动态:12897,动态:7038,动态:16687,动态:3804,动态:7577,动态:16580,动态:19182,动态:1240,动态:22702,动态:21057,动态:21093,动态:13791,动态:18285,动态:11609,动态:22710,动态:11785,动态:22489,动态:18624,动态:11269,动态:7746,动态:21727,动态:21741,动态:16252,动态:19144</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>动态:4190,动态:5010,动态:9160,动态:20530,动态:13176,动态:13556,动态:11623,动态:8494,动态:11934,动态:9981,动态:21840,动态:13152,动态:15037,动态:11432,动态:19273,动态:19642,动态:6652,动态:14580,动态:13302,动态:22699,动态:20720,动态:22019,动态:22680,动态:22698,动态:22512,动态:20399,动态:22696,动态:20440,动态:21975,动态:21740,动态:20439,动态:22688,动态:7746,动态:21436,动态:4036,动态:21776,动态:21763,动态:21757,动态:21727,动态:22659,动态:22706,动态:22702,动态:17337,动态:22323,动态:21556,动态:21753,动态:21745,动态:22685,动态:22146,动态:21756</t>
+          <t>动态:11278,动态:14848,动态:9535,动态:19456,动态:19006,动态:11935,动态:4630,动态:12892,动态:1327,动态:11044,动态:20086,动态:9282,动态:13615,动态:17562,动态:11798,动态:9349,动态:16833,动态:20364,动态:21857,动态:21776,动态:21727,动态:21741,动态:22680,动态:22697,动态:21556,动态:20440,动态:17337,动态:22667,动态:22692,动态:22698,动态:21436,动态:20720,动态:22019,动态:7746,动态:21763,动态:21975,动态:22659,动态:21740,动态:21756,动态:22699,动态:22710,动态:21745,动态:21972,动态:21780,动态:22507,动态:22696,动态:20439,动态:22706,动态:22684,动态:22146</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>动态:7054,动态:13328,动态:9291,动态:13797,动态:8231,动态:6858,动态:20030,动态:8118,动态:6460,动态:15947,动态:7608,动态:21054,动态:16493,动态:5210,动态:11154,动态:21115,动态:9391,动态:14214,动态:857,动态:10605,动态:16294,动态:12598,动态:17487,动态:16385,动态:9236,动态:7387,动态:20398,动态:4432,动态:13823,动态:14640,动态:20103,动态:18900,动态:14444,动态:10262,动态:4421,动态:13815,动态:10272,动态:4675,动态:13990,动态:19287,动态:6899,动态:11257,动态:11267,动态:11259,动态:12604,动态:19638,动态:16131,动态:17337,动态:20355,动态:21756</t>
+          <t>动态:6604,动态:11444,动态:11445,动态:5389,动态:7750,动态:4039,动态:18466,动态:17960,动态:16412,动态:10406,动态:13315,动态:14230,动态:14204,动态:19638,动态:12411,动态:11823,动态:10144,动态:18314,动态:6026,动态:14736,动态:18497,动态:4630,动态:20384,动态:20362,动态:11147,动态:19457,动态:15547,动态:16853,动态:18372,动态:14053,动态:12389,动态:9286,动态:18376,动态:17340,动态:6683,动态:19886,动态:15947,动态:11293,动态:6816,动态:13740,动态:20065,动态:150,动态:15615,动态:6577,动态:19783,动态:13323,动态:22146,动态:22710,动态:13033,动态:7059</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>动态:11145,动态:18161,动态:12604,动态:11771,动态:22044,动态:14673,动态:17176,动态:16743,动态:22696,动态:22667,动态:22684,动态:22019,动态:20364,动态:21740,动态:22507,动态:22685,动态:20399,动态:17337,动态:21727,动态:21972,动态:22680,动态:22699,动态:22706,动态:22146,动态:21757,动态:20440,动态:21756,动态:22512,动态:21753,动态:21436,动态:21776,动态:21780,动态:21737,动态:21745,动态:22698,动态:22702,动态:4036,动态:20439,动态:21857,动态:7746,动态:22692,动态:21763,动态:22710,动态:20720,动态:21741,动态:21556,动态:22688,动态:22659,动态:22697,动态:22323</t>
+          <t>动态:5900,动态:22430,动态:13471,动态:13593,动态:14333,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>动态:5255,动态:18771,动态:13091,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:7710,动态:15157,动态:1299,动态:19186,动态:11285,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>动态:17564,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:14801,动态:18745,动态:7127,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>动态:17088,动态:10217,动态:13315,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:14929,动态:5113,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>动态:18733,动态:13466,动态:19729,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:9783,动态:15643,动态:21532,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>动态:13269,动态:19816,动态:15711,动态:9093,动态:18655,动态:11267,动态:20268,动态:20348,动态:9525,动态:20851,动态:20016,动态:12612,动态:20803,动态:6657,动态:21481,动态:10118,动态:18140,动态:15302,动态:19906,动态:16687,动态:22706,动态:21753,动态:21556,动态:22667,动态:21745,动态:21757,动态:20364,动态:21436,动态:22323,动态:21857,动态:22692,动态:22710,动态:22702,动态:22698,动态:21741,动态:22512,动态:22697,动态:4036,动态:22699,动态:22659,动态:20720,动态:21780,动态:22680,动态:20439,动态:21737,动态:21740,动态:21776,动态:21727,动态:22696,动态:22688</t>
+          <t>动态:6899,动态:11587,动态:9800,动态:13634,动态:8618,动态:9118,动态:7898,动态:8699,动态:15861,动态:16450,动态:20017,动态:20968,动态:19084,动态:12777,动态:6325,动态:15157,动态:21361,动态:19733,动态:21095,动态:6695,动态:19268,动态:13151,动态:20519,动态:17742,动态:11287,动态:22281,动态:13802,动态:12199,动态:15990,动态:13635,动态:21436,动态:22659,动态:22146,动态:21753,动态:21975,动态:22323,动态:21763,动态:22697,动态:22696,动态:21741,动态:22698,动态:22706,动态:21756,动态:22688,动态:7746,动态:22692,动态:21857,动态:17337,动态:21740,动态:22667</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>动态:13634,动态:22375,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:15000,动态:12643,动态:11854,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>动态:11426,动态:12306,动态:3804,动态:8002,动态:9712,动态:16821,动态:11599,动态:13102,动态:13098,动态:12275,动态:21266,动态:10929,动态:14479,动态:8746,动态:18038,动态:20465,动态:15556,动态:9157,动态:22710,动态:6782,动态:8128,动态:15471,动态:5383,动态:5385,动态:18740,动态:22512,动态:22692,动态:4036,动态:21972,动态:22323,动态:22667,动态:22706,动态:22507,动态:22146,动态:20399,动态:22688,动态:21745,动态:21727,动态:22696,动态:22698,动态:21776,动态:22702,动态:21975,动态:21737,动态:21740,动态:21857,动态:21436,动态:21741,动态:7746</t>
+          <t>动态:6913,动态:13062,动态:21139,动态:14964,动态:22656,动态:22283,动态:12661,动态:6688,动态:11544,动态:11676,动态:15684,动态:18953,动态:7123,动态:18852,动态:20337,动态:22696,动态:21753,动态:21727,动态:22680,动态:7746,动态:21740,动态:22702,动态:21741,动态:22667,动态:21757,动态:22692,动态:21436,动态:20364,动态:22710,动态:20720,动态:21763,动态:22659,动态:21756,动态:22684,动态:21737,动态:22323,动态:22019,动态:21780,动态:22699,动态:22685,动态:20399,动态:21776,动态:21975,动态:17337,动态:22146,动态:4036,动态:20440,动态:21857,动态:21745,动态:22512</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>动态:14816,动态:12072,动态:6983,动态:20611,动态:19215,动态:11360,动态:12729,动态:243,动态:22096,动态:10107,动态:14921,动态:22091,动态:15888,动态:12871,动态:11062,动态:8131,动态:15484,动态:10687,动态:9460,动态:16382,动态:7838,动态:13425,动态:19312,动态:14017,动态:17690,动态:6640,动态:11505,动态:14003,动态:8002,动态:14464,动态:19590,动态:19293,动态:20588,动态:9309,动态:21057,动态:11015,动态:20653,动态:19826,动态:15861,动态:13082,动态:13740,动态:11525,动态:10516,动态:16600,动态:13734,动态:20505,动态:19356,动态:22685,动态:15058,动态:22692</t>
+          <t>动态:9492,动态:21530,动态:19595,动态:15749,动态:13289,动态:5236,动态:9214,动态:8674,动态:16154,动态:11500,动态:2760,动态:17313,动态:12777,动态:7130,动态:10936,动态:19162,动态:22374,动态:11684,动态:10242,动态:12718,动态:21532,动态:17970,动态:13886,动态:18230,动态:21000,动态:19037,动态:10212,动态:19808,动态:22195,动态:8578,动态:11867,动态:11285,动态:15539,动态:17898,动态:232,动态:10927,动态:12364,动态:22313,动态:1240,动态:21704,动态:16837,动态:18054,动态:13146,动态:22103,动态:16609,动态:21266,动态:3525,动态:687,动态:21737,动态:21727</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>动态:18849,动态:20219,动态:12813,动态:4683,动态:8175,动态:16351,动态:7784,动态:13864,动态:11563,动态:6897,动态:10935,动态:20836,动态:5574,动态:20789,动态:12365,动态:21756,动态:21753,动态:20399,动态:22680,动态:21727,动态:22706,动态:4036,动态:22019,动态:21741,动态:21556,动态:21740,动态:22659,动态:20439,动态:21745,动态:20440,动态:22323,动态:21857,动态:21972,动态:21780,动态:21436,动态:22702,动态:22684,动态:21757,动态:21763,动态:22685,动态:22697,动态:7746,动态:22710,动态:20364,动态:21737,动态:22688,动态:22698,动态:22667,动态:21975,动态:17337</t>
+          <t>动态:12840,动态:19835,动态:14456,动态:13523,动态:5830,动态:18034,动态:5960,动态:10009,动态:15987,动态:15742,动态:11897,动态:13780,动态:20266,动态:15271,动态:13742,动态:17978,动态:21227,动态:6623,动态:10182,动态:22697,动态:22710,动态:21727,动态:22692,动态:22019,动态:21740,动态:21975,动态:21776,动态:21745,动态:21757,动态:21556,动态:20720,动态:21436,动态:22698,动态:22659,动态:21763,动态:22667,动态:20399,动态:22706,动态:22684,动态:22146,动态:22688,动态:21857,动态:21753,动态:22680,动态:22507,动态:22323,动态:21972,动态:22696,动态:21780,动态:7746</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>动态:15998,动态:18557,动态:11273,动态:18365,动态:20156,动态:8129,动态:14465,动态:11423,动态:15947,动态:7608,动态:16294,动态:14241,动态:6848,动态:9039,动态:13591,动态:17943,动态:20065,动态:7145,动态:14229,动态:22097,动态:19494,动态:10271,动态:9155,动态:845,动态:13298,动态:6604,动态:14009,动态:8137,动态:18659,动态:14640,动态:20009,动态:20103,动态:19853,动态:18533,动态:13786,动态:6906,动态:18898,动态:15957,动态:7472,动态:11066,动态:19783,动态:20177,动态:10765,动态:17289,动态:10549,动态:12060,动态:22685,动态:1721,动态:15346,动态:17707</t>
+          <t>动态:7111,动态:6671,动态:16866,动态:7150,动态:7751,动态:16261,动态:19123,动态:7039,动态:8270,动态:7360,动态:20238,动态:17960,动态:3874,动态:12595,动态:6776,动态:5216,动态:14422,动态:20398,动态:11077,动态:12391,动态:18154,动态:10083,动态:6577,动态:13469,动态:11275,动态:18372,动态:6845,动态:18874,动态:14696,动态:20143,动态:4816,动态:18771,动态:14221,动态:5603,动态:18356,动态:17295,动态:6865,动态:10191,动态:10948,动态:19765,动态:8169,动态:14431,动态:16929,动态:13970,动态:11823,动态:13033,动态:22710,动态:11389,动态:10918,动态:10009</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>动态:10069,动态:15637,动态:15654,动态:18600,动态:15698,动态:17060,动态:2764,动态:18509,动态:11270,动态:7154,动态:14622,动态:19835,动态:21526,动态:16792,动态:3174,动态:3076,动态:6447,动态:6252,动态:3107,动态:7464,动态:3897,动态:21970,动态:21470,动态:6916,动态:22699,动态:3796,动态:621,动态:3979,动态:3166,动态:7789,动态:20525,动态:7383,动态:7186,动态:4036,动态:3073,动态:4031,动态:20516,动态:16721,动态:22696,动态:21780,动态:6901,动态:3162,动态:3104,动态:6325,动态:15165,动态:22710,动态:22146,动态:22680,动态:21756,动态:22698</t>
+          <t>动态:11678,动态:13486,动态:12434,动态:12721,动态:21642,动态:13592,动态:14818,动态:15508,动态:12849,动态:15006,动态:15558,动态:7105,动态:4031,动态:7789,动态:11416,动态:22699,动态:6916,动态:621,动态:4036,动态:6901,动态:3073,动态:6447,动态:3174,动态:3897,动态:3166,动态:21780,动态:7383,动态:7186,动态:18309,动态:3793,动态:6252,动态:3076,动态:21970,动态:3162,动态:16721,动态:22696,动态:3107,动态:21470,动态:7464,动态:20525,动态:3104,动态:20516,动态:6325,动态:3979,动态:3796,动态:21745,动态:22680,动态:21756,动态:22685,动态:21740</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>动态:16052,动态:6503,动态:14667,动态:9478,动态:15448,动态:8512,动态:4042,动态:840,动态:15090,动态:8915,动态:15188,动态:13366,动态:11438,动态:14841,动态:19041,动态:22044,动态:19987,动态:11980,动态:11505,动态:20399,动态:21737,动态:20439,动态:21556,动态:21745,动态:22710,动态:22688,动态:20440,动态:7746,动态:22685,动态:22659,动态:22667,动态:21857,动态:21776,动态:22698,动态:20720,动态:21972,动态:22702,动态:22696,动态:22507,动态:21780,动态:22706,动态:22692,动态:22680,动态:21740,动态:22323,动态:21753,动态:4036,动态:20364,动态:22697,动态:22699</t>
+          <t>动态:11417,动态:10576,动态:10605,动态:14208,动态:13872,动态:13689,动态:16076,动态:8122,动态:21857,动态:19645,动态:4890,动态:20602,动态:14967,动态:20230,动态:3674,动态:20390,动态:9087,动态:13217,动态:11736,动态:20740,动态:16582,动态:19451,动态:20364,动态:22710,动态:22697,动态:21776,动态:21740,动态:20720,动态:17337,动态:22146,动态:21436,动态:22684,动态:7746,动态:22699,动态:21741,动态:21756,动态:22688,动态:22507,动态:22698,动态:22019,动态:22323,动态:22696,动态:20439,动态:20440,动态:22702,动态:22692,动态:21975,动态:22512,动态:4036</t>
         </is>
       </c>
     </row>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>动态:19219,动态:8788,动态:17816,动态:9040,动态:720,动态:20619,动态:21917,动态:11192,动态:13697,动态:821,动态:14142,动态:19595,动态:11580,动态:16858,动态:6749,动态:14410,动态:7789,动态:19460,动态:6464,动态:16669,动态:13790,动态:21975,动态:22659,动态:22680,动态:20399,动态:21745,动态:21756,动态:4036,动态:21857,动态:22512,动态:21741,动态:20440,动态:22692,动态:22685,动态:21436,动态:21776,动态:21727,动态:21753,动态:22698,动态:21757,动态:21780,动态:17337,动态:21556,动态:22667,动态:22699,动态:21763,动态:22684,动态:22323,动态:21972,动态:20720</t>
+          <t>动态:21793,动态:17974,动态:20230,动态:22123,动态:20717,动态:8524,动态:12557,动态:13546,动态:10928,动态:16564,动态:19632,动态:15050,动态:12552,动态:21114,动态:14721,动态:18830,动态:14132,动态:7528,动态:10608,动态:19496,动态:13196,动态:19231,动态:11132,动态:17691,动态:21556,动态:3102,动态:15982,动态:21757,动态:4036,动态:21975,动态:22697,动态:17337,动态:21857,动态:22699,动态:22688,动态:20364,动态:22019,动态:21972,动态:21727,动态:20720,动态:22696,动态:20440,动态:21753,动态:22702,动态:22685,动态:21741,动态:22684,动态:22667,动态:21740</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>动态:17078,动态:5151,动态:10342,动态:17228,动态:22698,动态:17542,动态:17170,动态:7743,动态:13439,动态:12319,动态:17122,动态:20853,动态:22707,动态:15715,动态:12062,动态:21776,动态:17573,动态:6756,动态:12353,动态:19753,动态:13332,动态:11793,动态:6634,动态:15970,动态:16848,动态:20439,动态:21757,动态:21857,动态:22512,动态:22702,动态:22710,动态:21737,动态:22706,动态:22146,动态:21745,动态:22323,动态:21556,动态:21727,动态:21972,动态:22692,动态:20399,动态:21753,动态:22507,动态:20720,动态:22685,动态:21780,动态:22696,动态:7746</t>
+          <t>动态:15806,动态:14304,动态:12300,动态:18852,动态:13569,动态:12567,动态:12416,动态:8742,动态:18151,动态:6295,动态:9712,动态:16754,动态:15920,动态:11134,动态:8176,动态:14721,动态:11848,动态:21357,动态:22692,动态:21763,动态:20399,动态:22699,动态:21741,动态:21727,动态:20720,动态:22702,动态:17337,动态:22019,动态:4036,动态:22146,动态:21780,动态:22710,动态:22698,动态:22667,动态:22706,动态:21753,动态:20440,动态:21740,动态:21972,动态:22512,动态:22696,动态:21737,动态:22323,动态:22684,动态:22659,动态:22688,动态:22507,动态:22685,动态:21556,动态:21756</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>动态:12359,动态:11779,动态:3122,动态:831,动态:676,动态:20790,动态:3160,动态:3128,动态:3098,动态:16308,动态:3126,动态:3175,动态:3090,动态:20254,动态:231,动态:20531,动态:15858,动态:17977,动态:3144,动态:14134,动态:17127,动态:13499,动态:17375,动态:10476,动态:3142,动态:18948,动态:3156,动态:3078,动态:3102,动态:3172,动态:22697,动态:20364,动态:21727,动态:21857,动态:22659,动态:21763,动态:21740,动态:21745,动态:22698,动态:22684,动态:20720,动态:22146,动态:22680,动态:21753,动态:21972,动态:22710,动态:22696,动态:21741,动态:7746,动态:21776</t>
+          <t>动态:19203,动态:13299,动态:11786,动态:21959,动态:15638,动态:19451,动态:3172,动态:3144,动态:3160,动态:3126,动态:3098,动态:7790,动态:3102,动态:19629,动态:3078,动态:676,动态:11948,动态:3128,动态:20839,动态:3090,动态:14890,动态:3156,动态:21301,动态:13042,动态:3175,动态:17460,动态:3142,动态:22499,动态:20941,动态:231,动态:3122,动态:7746,动态:21436,动态:22688,动态:22659,动态:21757,动态:22692,动态:21556,动态:22512,动态:21745,动态:22698,动态:22019,动态:21776,动态:21763,动态:22685,动态:21753,动态:21780,动态:20439,动态:20364,动态:22323</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>动态:18841,动态:9156,动态:11267,动态:5010,动态:14634,动态:6886,动态:20858,动态:11408,动态:21659,动态:20619,动态:10605,动态:15948,动态:12326,动态:13152,动态:7397,动态:11894,动态:16721,动态:17917,动态:6470,动态:11144,动态:18059,动态:7387,动态:22146,动态:21757,动态:22710,动态:21975,动态:21740,动态:21776,动态:21556,动态:22512,动态:22697,动态:22684,动态:21737,动态:17337,动态:22685,动态:21745,动态:22507,动态:22019,动态:20439,动态:20364,动态:21753,动态:21972,动态:21763,动态:7746,动态:22706,动态:21436,动态:22698,动态:20399,动态:21756,动态:22323</t>
+          <t>动态:19293,动态:6608,动态:11458,动态:831,动态:243,动态:18502,动态:21139,动态:15913,动态:9860,动态:16960,动态:16076,动态:22092,动态:22688,动态:21436,动态:21757,动态:22699,动态:21763,动态:4036,动态:21737,动态:21756,动态:21975,动态:21776,动态:22146,动态:22702,动态:22667,动态:21740,动态:22692,动态:21741,动态:22323,动态:22680,动态:22706,动态:21780,动态:20720,动态:22507,动态:22659,动态:7746,动态:22698,动态:22710,动态:21745,动态:20440,动态:22019,动态:20364,动态:22512,动态:20439,动态:21556,动态:22697,动态:17337,动态:21857,动态:22685,动态:22684</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>动态:21446,动态:18059,动态:20265,动态:17557,动态:15166,动态:15267,动态:12281,动态:19607,动态:12655,动态:11687,动态:13621,动态:21484,动态:18525,动态:13136,动态:18156,动态:1912,动态:16645,动态:21597,动态:6317,动态:14963,动态:6900,动态:8221,动态:21939,动态:21972,动态:22680,动态:21756,动态:21727,动态:21737,动态:21740,动态:7746,动态:22146,动态:20439,动态:22697,动态:22710,动态:21436,动态:4036,动态:20720,动态:22688,动态:20364,动态:22512,动态:17337,动态:22019,动态:22667,动态:21757,动态:22696,动态:21741,动态:21780,动态:22507,动态:22698,动态:21753</t>
+          <t>动态:4040,动态:2941,动态:13308,动态:693,动态:11734,动态:13499,动态:14434,动态:12305,动态:18947,动态:21757,动态:14841,动态:6904,动态:12404,动态:8168,动态:17853,动态:6629,动态:20419,动态:15547,动态:20364,动态:22699,动态:21975,动态:21857,动态:22019,动态:22685,动态:22702,动态:22697,动态:21780,动态:21776,动态:20720,动态:21556,动态:21756,动态:21740,动态:21972,动态:22698,动态:21745,动态:20399,动态:22680,动态:22323,动态:20439,动态:21763,动态:22512,动态:7746,动态:22706,动态:21753,动态:22688,动态:22696,动态:21737,动态:22659,动态:22146</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>动态:11804,动态:6621,动态:15575,动态:10517,动态:21139,动态:8378,动态:15750,动态:19857,动态:13455,动态:19547,动态:22664,动态:13428,动态:6624,动态:17250,动态:14389,动态:8107,动态:9440,动态:12609,动态:18953,动态:20525,动态:19816,动态:21727,动态:22698,动态:17337,动态:22697,动态:22706,动态:4036,动态:22684,动态:21763,动态:22659,动态:20364,动态:22146,动态:22688,动态:22507,动态:21972,动态:21756,动态:22710,动态:21740,动态:22699,动态:21780,动态:21753,动态:21556,动态:20720,动态:21745,动态:20399,动态:20440,动态:21757,动态:22702,动态:21741,动态:21857</t>
+          <t>动态:21917,动态:17122,动态:12736,动态:11558,动态:17771,动态:17090,动态:14683,动态:12874,动态:20401,动态:12727,动态:13986,动态:12589,动态:11094,动态:17340,动态:21776,动态:22698,动态:21857,动态:22667,动态:21780,动态:22706,动态:22688,动态:21740,动态:21745,动态:21972,动态:22710,动态:22692,动态:22512,动态:21727,动态:22659,动态:22146,动态:21757,动态:22684,动态:21763,动态:21737,动态:21741,动态:22323,动态:20439,动态:21436,动态:21975,动态:17337,动态:22507,动态:21556,动态:22702,动态:20364,动态:20399,动态:22019,动态:21756,动态:20440,动态:20720,动态:22685</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>动态:10113,动态:21231,动态:13909,动态:20459,动态:10534,动态:12357,动态:9027,动态:11558,动态:19774,动态:10762,动态:11787,动态:18158,动态:15156,动态:15448,动态:12890,动态:22512,动态:22706,动态:21975,动态:20720,动态:7746,动态:22692,动态:22667,动态:21776,动态:21436,动态:22146,动态:22688,动态:21737,动态:22696,动态:22680,动态:22507,动态:21741,动态:22710,动态:17337,动态:20364,动态:21972,动态:21756,动态:21740,动态:20440,动态:21556,动态:22685,动态:21745,动态:22697,动态:21753,动态:4036,动态:21857,动态:22019,动态:21757,动态:22323,动态:22698,动态:22684</t>
+          <t>动态:8769,动态:22477,动态:12156,动态:14278,动态:11334,动态:15463,动态:21577,动态:16277,动态:8245,动态:7110,动态:11079,动态:17057,动态:11014,动态:15916,动态:13666,动态:16003,动态:21757,动态:22323,动态:21741,动态:21740,动态:22512,动态:22702,动态:17337,动态:22146,动态:20439,动态:21727,动态:21857,动态:20399,动态:21436,动态:22685,动态:20720,动态:21763,动态:21556,动态:4036,动态:22019,动态:22697,动态:22710,动态:20364,动态:21756,动态:22684,动态:22659,动态:21780,动态:22688,动态:22696,动态:22680,动态:21975,动态:20440,动态:21776,动态:22692,动态:22507</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>动态:6885,动态:8115,动态:12834,动态:11942,动态:18459,动态:16389,动态:22436,动态:22664,动态:21481,动态:20242,动态:17843,动态:20978,动态:18376,动态:17216,动态:4190,动态:14077,动态:17817,动态:3078,动态:10213,动态:10112,动态:21741,动态:22019,动态:21740,动态:21753,动态:20399,动态:20720,动态:22696,动态:22706,动态:22684,动态:22688,动态:22667,动态:21756,动态:22323,动态:17337,动态:22659,动态:22680,动态:22710,动态:21727,动态:22699,动态:22692,动态:22702,动态:21975,动态:21763,动态:21745,动态:7746,动态:22698,动态:21972,动态:20440,动态:20364,动态:20439</t>
+          <t>动态:11331,动态:14405,动态:15200,动态:8168,动态:20616,动态:20116,动态:16719,动态:17145,动态:10112,动态:5415,动态:11814,动态:13988,动态:6447,动态:18378,动态:16823,动态:22698,动态:21436,动态:22692,动态:21740,动态:21757,动态:22659,动态:21857,动态:22507,动态:21737,动态:22699,动态:21741,动态:22696,动态:22688,动态:21763,动态:20399,动态:20440,动态:21727,动态:21745,动态:20364,动态:22710,动态:22146,动态:21556,动态:22685,动态:20439,动态:4036,动态:22019,动态:7746,动态:21975,动态:21776,动态:21972,动态:17337,动态:22323,动态:22667,动态:21780,动态:22680</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>动态:20518,动态:16412,动态:13328,动态:10070,动态:6461,动态:10209,动态:16137,动态:20170,动态:16280,动态:7357,动态:9479,动态:17512,动态:15473,动态:4027,动态:13545,动态:10557,动态:13884,动态:11427,动态:13682,动态:17337,动态:21737,动态:21727,动态:21756,动态:22659,动态:7746,动态:21780,动态:21763,动态:22692,动态:20364,动态:22667,动态:22507,动态:22706,动态:22702,动态:20399,动态:21741,动态:21436,动态:20439,动态:21757,动态:4036,动态:22680,动态:22323,动态:22146,动态:22699,动态:21857,动态:20440,动态:22697,动态:20720,动态:21975,动态:21556,动态:22696</t>
+          <t>动态:21106,动态:11411,动态:21446,动态:5115,动态:20532,动态:7601,动态:6828,动态:9482,动态:12322,动态:15975,动态:10073,动态:21556,动态:20364,动态:22659,动态:21763,动态:21745,动态:22696,动态:22146,动态:21753,动态:7746,动态:22685,动态:21740,动态:21975,动态:22698,动态:21436,动态:4036,动态:21857,动态:22323,动态:20720,动态:22512,动态:22507,动态:17337,动态:21757,动态:21776,动态:21756,动态:21780,动态:22702,动态:20439,动态:22706,动态:21737,动态:21741,动态:22667,动态:22710,动态:22684,动态:22680,动态:20399,动态:22699,动态:22697,动态:21972,动态:20440</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>动态:15531,动态:10254,动态:7607,动态:22497,动态:10182,动态:6456,动态:3415,动态:14999,动态:15280,动态:7387,动态:18491,动态:16336,动态:8292,动态:19995,动态:9769,动态:18838,动态:17112,动态:3142,动态:10929,动态:3525,动态:10429,动态:16590,动态:11676,动态:20482,动态:7746,动态:21857,动态:22659,动态:21727,动态:22323,动态:22702,动态:22667,动态:20399,动态:21556,动态:22692,动态:22699,动态:22697,动态:21756,动态:21763,动态:21776,动态:21753,动态:22685,动态:22507,动态:21757,动态:21436,动态:22512,动态:21780,动态:20364,动态:22696,动态:22019,动态:21972</t>
+          <t>动态:685,动态:20351,动态:11058,动态:3113,动态:21946,动态:1299,动态:8922,动态:12391,动态:18619,动态:22706,动态:16717,动态:17541,动态:17642,动态:13501,动态:4786,动态:15389,动态:4421,动态:8174,动态:20106,动态:6550,动态:17634,动态:14273,动态:22561,动态:13455,动态:22710,动态:21776,动态:22659,动态:4036,动态:20439,动态:22699,动态:22698,动态:20399,动态:21780,动态:22680,动态:22146,动态:22702,动态:21753,动态:7746,动态:22507,动态:20720,动态:21436,动态:22323,动态:21857,动态:21727,动态:20440,动态:22667,动态:22019,动态:22688,动态:20364</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>动态:13345,动态:10920,动态:5662,动态:15057,动态:11037,动态:11002,动态:22254,动态:18740,动态:11996,动态:13056,动态:14446,动态:19184,动态:15773,动态:13826,动态:13140,动态:15631,动态:20459,动态:17138,动态:12051,动态:9148,动态:18025,动态:17552,动态:10069,动态:232,动态:14735,动态:3248,动态:15928,动态:19035,动态:12895,动态:13982,动态:22667,动态:21857,动态:21972,动态:22146,动态:22685,动态:20364,动态:22323,动态:21780,动态:22702,动态:22710,动态:21740,动态:21756,动态:21745,动态:22698,动态:21776,动态:7746,动态:21753,动态:21763,动态:22692,动态:21556</t>
+          <t>动态:18567,动态:11592,动态:15600,动态:13326,动态:8169,动态:21492,动态:17106,动态:10346,动态:19231,动态:12051,动态:11498,动态:18659,动态:6909,动态:3524,动态:17460,动态:16972,动态:16656,动态:21490,动态:22692,动态:21776,动态:20440,动态:21763,动态:22698,动态:22667,动态:20399,动态:22146,动态:21780,动态:22697,动态:22684,动态:22323,动态:22710,动态:21857,动态:22699,动态:22019,动态:7746,动态:21740,动态:20720,动态:21745,动态:21737,动态:22696,动态:21756,动态:22512,动态:17337,动态:21975,动态:22706,动态:21436,动态:22685,动态:22688,动态:22507,动态:22659</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>动态:14816,动态:16618,动态:11468,动态:11539,动态:13990,动态:10690,动态:17165,动态:15509,动态:20530,动态:8569,动态:13200,动态:16475,动态:20947,动态:12598,动态:15533,动态:18583,动态:12920,动态:11374,动态:22679,动态:22290,动态:21664,动态:14008,动态:7117,动态:15928,动态:17942,动态:22656,动态:7746,动态:22019,动态:21727,动态:21741,动态:22685,动态:20399,动态:21975,动态:4036,动态:21972,动态:22667,动态:21737,动态:17337,动态:22699,动态:22512,动态:21745,动态:21436,动态:22680,动态:22702,动态:20439,动态:22692,动态:21556,动态:21756,动态:20364,动态:20440</t>
+          <t>动态:13309,动态:20261,动态:10509,动态:21363,动态:13457,动态:13618,动态:14035,动态:13200,动态:12163,动态:17860,动态:15477,动态:21249,动态:16564,动态:8378,动态:3133,动态:6601,动态:10870,动态:7746,动态:22667,动态:21972,动态:21776,动态:21857,动态:21757,动态:22512,动态:22697,动态:22699,动态:22698,动态:22507,动态:21780,动态:20440,动态:20720,动态:21556,动态:21753,动态:22323,动态:22680,动态:21741,动态:22659,动态:20364,动态:21975,动态:21756,动态:21745,动态:22702,动态:22685,动态:22019,动态:4036,动态:22696,动态:22710,动态:20399,动态:22146,动态:20439</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>动态:22287,动态:19232,动态:19886,动态:12315,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:22673,动态:16154,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>动态:8334,动态:11934,动态:10605,动态:20966,动态:10926,动态:14962,动态:14244,动态:6548,动态:19959,动态:9148,动态:11394,动态:3072,动态:11452,动态:9344,动态:10349,动态:20116,动态:18211,动态:21444,动态:22706,动态:21756,动态:22507,动态:22702,动态:20439,动态:22659,动态:22699,动态:22688,动态:21972,动态:22684,动态:22146,动态:21753,动态:22667,动态:22696,动态:21780,动态:22323,动态:7746,动态:20399,动态:21737,动态:21745,动态:21763,动态:22512,动态:21740,动态:17337,动态:22019,动态:22710,动态:22680,动态:21975,动态:22692,动态:22685,动态:21436,动态:4036</t>
+          <t>动态:20622,动态:19096,动态:11534,动态:20719,动态:10923,动态:12011,动态:1310,动态:17848,动态:11377,动态:7110,动态:18020,动态:18844,动态:11059,动态:10523,动态:21675,动态:20527,动态:21139,动态:16891,动态:14656,动态:11123,动态:9158,动态:17126,动态:20853,动态:13981,动态:21780,动态:22684,动态:22507,动态:21753,动态:21756,动态:20720,动态:20439,动态:21745,动态:21436,动态:22512,动态:22692,动态:21975,动态:22323,动态:22667,动态:17337,动态:21757,动态:22702,动态:20399,动态:7746,动态:21727,动态:4036,动态:22019,动态:22659,动态:21776,动态:21857,动态:22706</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>动态:6888,动态:14422,动态:10925,动态:10923,动态:6026,动态:7002,动态:19215,动态:12306,动态:12413,动态:20568,动态:20259,动态:12273,动态:18241,动态:16311,动态:12849,动态:13964,动态:10242,动态:13269,动态:15115,动态:10359,动态:22706,动态:22667,动态:22692,动态:4036,动态:21740,动态:22146,动态:21780,动态:17337,动态:20440,动态:20720,动态:22323,动态:22696,动态:22019,动态:20439,动态:21436,动态:22702,动态:22684,动态:22688,动态:21857,动态:21972,动态:22710,动态:21975,动态:22697,动态:22685,动态:7746,动态:21727,动态:21556,动态:21737,动态:22680,动态:22699</t>
+          <t>动态:15667,动态:12890,动态:21692,动态:7577,动态:17720,动态:11271,动态:11526,动态:20273,动态:14963,动态:14601,动态:12388,动态:18156,动态:12434,动态:12654,动态:6904,动态:16394,动态:18238,动态:6451,动态:11282,动态:15271,动态:19826,动态:16571,动态:11269,动态:22702,动态:22698,动态:21975,动态:22688,动态:22706,动态:21776,动态:22507,动态:22699,动态:20364,动态:22667,动态:20439,动态:21753,动态:21436,动态:20440,动态:21972,动态:21780,动态:20720,动态:22710,动态:22697,动态:22692,动态:20399,动态:22680,动态:21757,动态:22696,动态:21741,动态:21737,动态:21740</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>动态:19829,动态:4786,动态:15538,动态:14995,动态:11459,动态:12293,动态:16294,动态:11277,动态:13270,动态:17529,动态:19824,动态:14241,动态:14733,动态:10859,动态:8578,动态:3796,动态:19130,动态:21267,动态:15695,动态:12397,动态:7744,动态:11769,动态:14658,动态:17739,动态:11909,动态:10979,动态:14545,动态:21022,动态:19426,动态:21745,动态:22692,动态:4036,动态:22685,动态:22146,动态:21975,动态:22323,动态:21556,动态:20440,动态:21757,动态:21737,动态:22697,动态:22684,动态:21972,动态:22680,动态:21763,动态:20439,动态:22019,动态:22688,动态:21753,动态:22667</t>
+          <t>动态:17768,动态:15769,动态:18085,动态:11474,动态:13886,动态:13243,动态:239,动态:20124,动态:13140,动态:21197,动态:12429,动态:20107,动态:15157,动态:19623,动态:14417,动态:19715,动态:22032,动态:8674,动态:16296,动态:21756,动态:21556,动态:21745,动态:21763,动态:22696,动态:7746,动态:20720,动态:20364,动态:22323,动态:22710,动态:21740,动态:21753,动态:22146,动态:22702,动态:21780,动态:22697,动态:21776,动态:22680,动态:20440,动态:21857,动态:22685,动态:22659,动态:22698,动态:22019,动态:21737,动态:22699,动态:21741,动态:20439,动态:22692,动态:21972,动态:22667</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>动态:11946,动态:8140,动态:13321,动态:8128,动态:13560,动态:11623,动态:13694,动态:13143,动态:19816,动态:21737,动态:22667,动态:21556,动态:17337,动态:7746,动态:20720,动态:22507,动态:22512,动态:21436,动态:22684,动态:20399,动态:22323,动态:22710,动态:21857,动态:21972,动态:22019,动态:22680,动态:21756,动态:21757,动态:22698,动态:4036,动态:22697,动态:21780,动态:21975,动态:22702,动态:22146,动态:21745,动态:22706,动态:22685,动态:21763,动态:20439,动态:21727,动态:22699,动态:22659,动态:20440,动态:22696,动态:21776,动态:20364,动态:22688,动态:21741,动态:21753</t>
+          <t>动态:13196,动态:13282,动态:12612,动态:16255,动态:18606,动态:18059,动态:20168,动态:8107,动态:15577,动态:13495,动态:12562,动态:18838,动态:21780,动态:21556,动态:20399,动态:21740,动态:22019,动态:22685,动态:21776,动态:22702,动态:22688,动态:22696,动态:4036,动态:22667,动态:22692,动态:21727,动态:7746,动态:20440,动态:20720,动态:22507,动态:22680,动态:21741,动态:22323,动态:22697,动态:21975,动态:20364,动态:22146,动态:22698,动态:21972,动态:20439,动态:21757,动态:21436,动态:22710,动态:22659,动态:21745,动态:17337,动态:22706,动态:21737,动态:21756,动态:21857</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>动态:12611,动态:11444,动态:19368,动态:19514,动态:9278,动态:13907,动态:10947,动态:8177,动态:19531,动态:21498,动态:12180,动态:5778,动态:19821,动态:21659,动态:15147,动态:18525,动态:15037,动态:14963,动态:19623,动态:10124,动态:1914,动态:11023,动态:22698,动态:22706,动态:21753,动态:21763,动态:21741,动态:21776,动态:22696,动态:22323,动态:22684,动态:21780,动态:21556,动态:22710,动态:20399,动态:20440,动态:22692,动态:22667,动态:22659,动态:22688,动态:22697,动态:21436,动态:4036,动态:17337,动态:21972,动态:7746,动态:20439,动态:21757,动态:21740,动态:21756</t>
+          <t>动态:9411,动态:16664,动态:13981,动态:17775,动态:10149,动态:15314,动态:20731,动态:19812,动态:20588,动态:21200,动态:12272,动态:13560,动态:11744,动态:11966,动态:13593,动态:244,动态:13780,动态:13334,动态:11580,动态:18596,动态:20870,动态:22692,动态:21741,动态:21975,动态:22680,动态:21737,动态:20364,动态:20440,动态:21763,动态:22698,动态:22710,动态:22146,动态:21776,动态:21740,动态:22507,动态:4036,动态:21780,动态:21436,动态:22688,动态:22685,动态:22696,动态:22512,动态:22702,动态:22697,动态:21972,动态:22659,动态:21757,动态:21727,动态:22019,动态:22667</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>动态:15669,动态:9788,动态:13370,动态:21704,动态:14247,动态:11569,动态:16613,动态:2694,动态:11168,动态:15711,动态:10017,动态:17392,动态:16452,动态:8662,动态:7324,动态:11463,动态:21155,动态:7746,动态:11030,动态:21965,动态:12884,动态:21556,动态:20439,动态:21857,动态:21780,动态:21745,动态:22706,动态:4036,动态:22698,动态:20720,动态:21740,动态:22710,动态:21737,动态:22702,动态:21741,动态:21972,动态:22697,动态:22692,动态:22696,动态:20364,动态:22323,动态:22684,动态:21756,动态:22699,动态:21975,动态:22507,动态:22019,动态:22146,动态:21436</t>
+          <t>动态:13681,动态:10516,动态:14479,动态:13038,动态:15632,动态:20300,动态:15115,动态:9473,动态:18608,动态:783,动态:9936,动态:8922,动态:18324,动态:19847,动态:15719,动态:20720,动态:21756,动态:22019,动态:22698,动态:22146,动态:21740,动态:21857,动态:22697,动态:21763,动态:22699,动态:22659,动态:20364,动态:22702,动态:17337,动态:7746,动态:22684,动态:20439,动态:22706,动态:21556,动态:21780,动态:22685,动态:21741,动态:22667,动态:22323,动态:21975,动态:22688,动态:21737,动态:21972,动态:22696,动态:22680,动态:21776,动态:22512,动态:21727,动态:21753,动态:22507</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>动态:1351,动态:14003,动态:20021,动态:22126,动态:16315,动态:15498,动态:15805,动态:13412,动态:13099,动态:20151,动态:13878,动态:13909,动态:16580,动态:11569,动态:14931,动态:12609,动态:19649,动态:144,动态:10210,动态:5415,动态:22512,动态:21741,动态:20399,动态:21763,动态:22680,动态:21727,动态:20439,动态:21756,动态:20440,动态:22659,动态:22146,动态:21857,动态:22702,动态:20720,动态:21737,动态:21753,动态:22699,动态:21436,动态:22710,动态:21740,动态:22706,动态:21972,动态:22696,动态:4036,动态:21780,动态:21776,动态:20364,动态:22507,动态:22323,动态:22698</t>
+          <t>动态:17174,动态:10601,动态:17336,动态:16097,动态:11972,动态:19182,动态:18011,动态:19491,动态:10359,动态:17496,动态:13545,动态:242,动态:12045,动态:10499,动态:20152,动态:13833,动态:21717,动态:5010,动态:8742,动态:7376,动态:16131,动态:13328,动态:19783,动态:21975,动态:22659,动态:17337,动态:22512,动态:22146,动态:21745,动态:21763,动态:22019,动态:22688,动态:20439,动态:21972,动态:22685,动态:21740,动态:21857,动态:22699,动态:22706,动态:7746,动态:20364,动态:22702,动态:21776,动态:4036,动态:21780,动态:22698,动态:22697,动态:21436,动态:22684,动态:21737</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>动态:10979,动态:1368,动态:6361,动态:12842,动态:7004,动态:20359,动态:15505,动态:9097,动态:13338,动态:20947,动态:12064,动态:9769,动态:19745,动态:15000,动态:19229,动态:10534,动态:8662,动态:21645,动态:15415,动态:17768,动态:10429,动态:16909,动态:13637,动态:22702,动态:22698,动态:20364,动态:21556,动态:17337,动态:22659,动态:22692,动态:20440,动态:21753,动态:21857,动态:22699,动态:21745,动态:22680,动态:22146,动态:22512,动态:22019,动态:21776,动态:21756,动态:22696,动态:22685,动态:22706,动态:21740,动态:22684,动态:21727,动态:22688,动态:21436,动态:22710</t>
+          <t>动态:12000,动态:14167,动态:19707,动态:16595,动态:22702,动态:10984,动态:9483,动态:10925,动态:15479,动态:14841,动态:10112,动态:20069,动态:12356,动态:6775,动态:19745,动态:14636,动态:21235,动态:6897,动态:912,动态:8598,动态:20248,动态:4790,动态:20720,动态:21857,动态:21757,动态:21745,动态:22019,动态:22507,动态:22680,动态:21737,动态:21780,动态:22667,动态:21763,动态:21972,动态:22512,动态:22710,动态:22692,动态:22697,动态:17337,动态:22684,动态:22699,动态:22696,动态:22685,动态:22706,动态:20440,动态:21756,动态:20399,动态:7746,动态:21753,动态:4036</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>动态:3584,动态:16388,动态:20465,动态:17250,动态:9136,动态:7736,动态:14547,动态:15533,动态:17566,动态:20834,动态:22101,动态:2694,动态:17391,动态:13007,动态:19416,动态:12874,动态:6135,动态:16074,动态:20273,动态:16273,动态:7022,动态:22696,动态:20720,动态:20364,动态:20399,动态:17337,动态:21975,动态:4036,动态:21857,动态:21780,动态:22702,动态:22710,动态:22698,动态:21756,动态:22685,动态:21556,动态:22684,动态:21741,动态:22659,动态:21763,动态:22692,动态:22146,动态:7746,动态:21727,动态:22019,动态:20439,动态:22680,动态:21972,动态:21737,动态:22323</t>
+          <t>动态:20496,动态:13602,动态:16697,动态:17559,动态:20677,动态:21155,动态:4788,动态:18933,动态:15683,动态:19646,动态:16017,动态:16222,动态:11948,动态:11427,动态:10971,动态:11104,动态:14186,动态:20133,动态:14818,动态:14426,动态:18466,动态:8786,动态:13782,动态:19485,动态:20137,动态:5662,动态:17113,动态:12309,动态:22146,动态:21972,动态:21740,动态:21727,动态:17337,动态:21776,动态:22685,动态:21757,动态:21975,动态:22698,动态:22692,动态:7746,动态:22323,动态:22706,动态:21741,动态:22684,动态:21763,动态:21436,动态:22019,动态:22702,动态:22697,动态:22688</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>动态:20518,动态:17535,动态:14333,动态:15541,动态:11611,动态:13270,动态:11996,动态:13593,动态:19644,动态:22092,动态:9525,动态:11541,动态:14498,动态:21885,动态:20048,动态:11679,动态:20870,动态:21139,动态:11798,动态:10416,动态:15534,动态:18875,动态:19732,动态:6596,动态:20256,动态:13198,动态:6640,动态:18791,动态:13661,动态:10526,动态:14730,动态:19940,动态:6450,动态:18821,动态:11466,动态:10136,动态:20083,动态:17978,动态:12672,动态:17953,动态:13971,动态:13259,动态:8659,动态:11009,动态:14421,动态:16072,动态:22692,动态:19024,动态:16441,动态:20860</t>
+          <t>动态:13676,动态:11086,动态:12623,动态:10643,动态:15277,动态:16336,动态:11133,动态:17977,动态:18324,动态:693,动态:21073,动态:17321,动态:22242,动态:11087,动态:15499,动态:16960,动态:21928,动态:14948,动态:22184,动态:13135,动态:12392,动态:19530,动态:9145,动态:10212,动态:17060,动态:14732,动态:13930,动态:22195,动态:17176,动态:8259,动态:20720,动态:19537,动态:16687,动态:8809,动态:12381,动态:11592,动态:13012,动态:20717,动态:19294,动态:10931,动态:19893,动态:12085,动态:17172,动态:15926,动态:21881,动态:12156,动态:11848,动态:21741,动态:22710,动态:22699</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>动态:10113,动态:8015,动态:14107,动态:12391,动态:7833,动态:12327,动态:14498,动态:19560,动态:9087,动态:17177,动态:10106,动态:1721,动态:4190,动态:20059,动态:7847,动态:7137,动态:6576,动态:21776,动态:22688,动态:22698,动态:22667,动态:21745,动态:21972,动态:7746,动态:21753,动态:21975,动态:22323,动态:22146,动态:21727,动态:21780,动态:22685,动态:22684,动态:21757,动态:22699,动态:22702,动态:20720,动态:21737,动态:21741,动态:21740,动态:22696,动态:22507,动态:22680,动态:17337,动态:22019,动态:22697,动态:22512,动态:20364,动态:20439,动态:22692,动态:20399</t>
+          <t>动态:11411,动态:12759,动态:15596,动态:13796,动态:7119,动态:3102,动态:19531,动态:7678,动态:12002,动态:11134,动态:4625,动态:20149,动态:9376,动态:18301,动态:5400,动态:22460,动态:17498,动态:21756,动态:21737,动态:20439,动态:21753,动态:22710,动态:4036,动态:22019,动态:22507,动态:21763,动态:21776,动态:22685,动态:21780,动态:22692,动态:22699,动态:22698,动态:22684,动态:21745,动态:21972,动态:22702,动态:20720,动态:21556,动态:22697,动态:22323,动态:22680,动态:20364,动态:21727,动态:22659,动态:21741,动态:22688,动态:22667,动态:17337,动态:22146,动态:21740</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>动态:11793,动态:10948,动态:8177,动态:14352,动态:11179,动态:11813,动态:19087,动态:18083,动态:15015,动态:12737,动态:11180,动态:13062,动态:10869,动态:14191,动态:13796,动态:15539,动态:21101,动态:21857,动态:21753,动态:17337,动态:21776,动态:21436,动态:20439,动态:22698,动态:20399,动态:22512,动态:22710,动态:22507,动态:22680,动态:22692,动态:21727,动态:21763,动态:22702,动态:20440,动态:21740,动态:22684,动态:21556,动态:21737,动态:20720,动态:21745,动态:22323,动态:20364,动态:22688,动态:21757,动态:22699,动态:21756,动态:21741,动态:21975,动态:22685,动态:22697</t>
+          <t>动态:7065,动态:12885,动态:11177,动态:13569,动态:4184,动态:19273,动态:18313,动态:22633,动态:21367,动态:11334,动态:17860,动态:2269,动态:6542,动态:19745,动态:11697,动态:10557,动态:6252,动态:6759,动态:22499,动态:7688,动态:14120,动态:22436,动态:22512,动态:4036,动态:20440,动态:21737,动态:22019,动态:22659,动态:20439,动态:22696,动态:21556,动态:21740,动态:21776,动态:20364,动态:21727,动态:20720,动态:22146,动态:21436,动态:22706,动态:21857,动态:17337,动态:22680,动态:22688,动态:22685,动态:21763,动态:20399,动态:22698,动态:21972,动态:21753,动态:22684</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>动态:9201,动态:11132,动态:22708,动态:1332,动态:19852,动态:11413,动态:10506,动态:19994,动态:6455,动态:16800,动态:20274,动态:840,动态:12356,动态:14622,动态:22680,动态:21972,动态:21436,动态:22698,动态:21740,动态:20720,动态:21780,动态:21741,动态:21753,动态:20364,动态:21737,动态:20439,动态:4036,动态:7746,动态:21857,动态:21975,动态:20440,动态:22692,动态:21776,动态:22019,动态:22507,动态:22685,动态:22706,动态:22512,动态:22696,动态:21556,动态:22699,动态:22688,动态:22702,动态:21745,动态:17337,动态:20399,动态:22710,动态:22659,动态:21727,动态:21756</t>
+          <t>动态:17108,动态:21681,动态:16743,动态:16568,动态:8685,动态:13545,动态:11880,动态:20672,动态:10014,动态:14498,动态:20133,动态:10935,动态:22085,动态:16036,动态:22650,动态:6886,动态:14657,动态:22692,动态:21857,动态:4036,动态:22710,动态:21737,动态:21975,动态:22697,动态:21780,动态:20399,动态:17337,动态:22512,动态:22688,动态:21757,动态:21753,动态:21741,动态:7746,动态:22146,动态:22667,动态:22702,动态:21727,动态:22699,动态:21756,动态:22680,动态:21776,动态:20439,动态:20720,动态:22323,动态:21436,动态:21740,动态:20364,动态:21972,动态:21763,动态:21556</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>动态:17255,动态:20300,动态:20759,动态:7324,动态:8474,动态:8014,动态:12058,动态:12609,动态:10079,动态:7045,动态:7464,动态:21970,动态:621,动态:3073,动态:22699,动态:3174,动态:3076,动态:6447,动态:6916,动态:3107,动态:3897,动态:3796,动态:6252,动态:3162,动态:6901,动态:22696,动态:16721,动态:20516,动态:6325,动态:4031,动态:4036,动态:7186,动态:7383,动态:20525,动态:7789,动态:3166,动态:3979,动态:3104,动态:21470,动态:22512,动态:22697,动态:22685,动态:22019,动态:20364,动态:22684,动态:21745,动态:20439,动态:21740,动态:22702,动态:22688</t>
+          <t>动态:15314,动态:11644,动态:19451,动态:11938,动态:15547,动态:19854,动态:4418,动态:14019,动态:6775,动态:6522,动态:3897,动态:3073,动态:4031,动态:7789,动态:3166,动态:6916,动态:4036,动态:6901,动态:22699,动态:621,动态:7383,动态:7186,动态:16721,动态:3174,动态:6325,动态:20516,动态:3104,动态:20525,动态:7464,动态:21470,动态:3107,动态:3979,动态:22696,动态:3162,动态:21970,动态:3076,动态:6252,动态:6447,动态:3796,动态:22685,动态:22684,动态:21763,动态:22512,动态:22323,动态:21727,动态:7746,动态:22706,动态:20399,动态:21745,动态:22688</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>动态:6891,动态:12892,动态:11267,动态:19210,动态:6902,动态:6789,动态:19245,动态:4597,动态:7154,动态:13962,动态:11640,动态:20836,动态:18995,动态:16613,动态:16368,动态:11505,动态:11394,动态:20444,动态:18387,动态:11396,动态:17966,动态:9800,动态:14439,动态:22188,动态:16571,动态:21737,动态:21745,动态:21753,动态:22697,动态:22667,动态:21727,动态:22706,动态:22323,动态:21857,动态:22019,动态:21780,动态:21763,动态:22698,动态:22512,动态:22692,动态:21776,动态:20440,动态:22659,动态:22710,动态:22696,动态:22507,动态:4036,动态:22684,动态:20364,动态:22146</t>
+          <t>动态:15505,动态:7978,动态:14084,动态:18844,动态:13796,动态:8169,动态:12908,动态:22282,动态:16394,动态:12158,动态:12753,动态:16194,动态:14801,动态:20261,动态:20456,动态:12045,动态:22688,动态:22512,动态:21727,动态:22698,动态:22146,动态:22706,动态:21776,动态:21757,动态:22680,动态:22702,动态:21975,动态:21741,动态:22699,动态:21556,动态:22667,动态:17337,动态:20440,动态:22019,动态:21756,动态:20364,动态:20399,动态:21740,动态:22684,动态:22323,动态:21436,动态:22685,动态:21857,动态:22692,动态:21972,动态:7746,动态:21753,动态:20439,动态:21780,动态:22696</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>动态:20133,动态:17970,动态:21678,动态:743,动态:14999,动态:19650,动态:14565,动态:19426,动态:17392,动态:13102,动态:10970,动态:19703,动态:15638,动态:22195,动态:9147,动态:3897,动态:13051,动态:4522,动态:18984,动态:21753,动态:20720,动态:4036,动态:21727,动态:17337,动态:22698,动态:22685,动态:22710,动态:22699,动态:21975,动态:20364,动态:21737,动态:22688,动态:22659,动态:20440,动态:21745,动态:21556,动态:21776,动态:22507,动态:21740,动态:21757,动态:21780,动态:21857,动态:22146,动态:22706,动态:21436,动态:7746,动态:22512,动态:21756,动态:22692,动态:22019</t>
+          <t>动态:9738,动态:16050,动态:20419,动态:20803,动态:10911,动态:13792,动态:22685,动态:10213,动态:14110,动态:4653,动态:14035,动态:16194,动态:22295,动态:15115,动态:13868,动态:13374,动态:20461,动态:6867,动态:3979,动态:13795,动态:12598,动态:18651,动态:20055,动态:8177,动态:21745,动态:21975,动态:20440,动态:21753,动态:21857,动态:22698,动态:22680,动态:20399,动态:7746,动态:21972,动态:22688,动态:22146,动态:21776,动态:22696,动态:22706,动态:22019,动态:21737,动态:22702,动态:20364,动态:21757,动态:20720,动态:4036,动态:21741,动态:22697,动态:22710,动态:21756</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>动态:6894,动态:4675,动态:19895,动态:5551,动态:6027,动态:19836,动态:15061,动态:14957,动态:9458,动态:241,动态:6620,动态:20461,动态:8596,动态:14356,动态:12051,动态:14546,动态:18589,动态:18085,动态:10969,动态:13630,动态:11909,动态:13213,动态:20590,动态:14603,动态:22685,动态:20439,动态:21757,动态:21727,动态:22667,动态:21753,动态:7746,动态:22706,动态:22699,动态:20720,动态:21780,动态:22698,动态:21972,动态:20440,动态:20399,动态:21756,动态:22680,动态:21737,动态:22684,动态:21556,动态:21745,动态:21741,动态:22512,动态:17337,动态:21857,动态:22659</t>
+          <t>动态:19485,动态:6547,动态:4683,动态:13123,动态:12319,动态:11459,动态:13315,动态:19184,动态:21719,动态:10551,动态:20546,动态:19645,动态:3099,动态:11675,动态:18337,动态:15236,动态:244,动态:16600,动态:13056,动态:15610,动态:11996,动态:17574,动态:22680,动态:21756,动态:22659,动态:21763,动态:22698,动态:20364,动态:22019,动态:21753,动态:21740,动态:21727,动态:22688,动态:21972,动态:22710,动态:20440,动态:22699,动态:21757,动态:21745,动态:22323,动态:20439,动态:22696,动态:22667,动态:7746,动态:22692,动态:4036,动态:22706,动态:22146,动态:20399,动态:21975</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>动态:18024,动态:6786,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:6547,动态:7153,动态:20640,动态:16368,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>动态:18770,动态:11762,动态:10762,动态:9981,动态:22252,动态:19504,动态:19643,动态:22702,动态:10209,动态:13981,动态:22352,动态:8176,动态:14609,动态:15634,动态:21340,动态:21317,动态:20146,动态:4597,动态:5829,动态:16058,动态:9050,动态:22097,动态:22512,动态:22507,动态:22323,动态:22659,动态:21741,动态:21857,动态:21745,动态:22685,动态:22667,动态:22688,动态:22710,动态:21763,动态:22146,动态:20364,动态:21436,动态:21740,动态:21756,动态:21737,动态:20399,动态:22706,动态:22699,动态:22019,动态:20720,动态:21753,动态:22698,动态:22692,动态:21556,动态:22697</t>
+          <t>动态:13858,动态:21946,动态:17060,动态:15212,动态:21422,动态:12859,动态:16717,动态:13489,动态:21665,动态:15541,动态:8123,动态:20259,动态:11466,动态:10467,动态:16312,动态:22183,动态:5216,动态:12347,动态:18994,动态:17337,动态:20364,动态:4036,动态:20440,动态:21741,动态:22512,动态:22696,动态:21740,动态:21776,动态:22688,动态:21857,动态:21436,动态:22698,动态:21972,动态:21763,动态:21556,动态:21780,动态:7746,动态:20720,动态:21975,动态:22659,动态:21737,动态:22146,动态:22323,动态:22710,动态:22685,动态:22507,动态:22692,动态:21756,动态:22706,动态:21753</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>动态:13631,动态:20067,动态:9533,动态:21627,动态:17177,动态:1368,动态:20834,动态:20086,动态:4788,动态:11101,动态:18733,动态:20558,动态:15211,动态:11488,动态:13864,动态:6683,动态:10926,动态:9476,动态:6782,动态:20137,动态:22699,动态:17337,动态:4036,动态:21753,动态:21857,动态:22659,动态:22512,动态:21741,动态:21745,动态:20399,动态:20440,动态:22680,动态:22019,动态:21740,动态:22685,动态:21737,动态:22698,动态:22323,动态:21727,动态:22697,动态:21763,动态:21756,动态:21972,动态:7746,动态:22710,动态:22696,动态:20720,动态:21780,动态:22684,动态:22702</t>
+          <t>动态:13858,动态:7833,动态:16910,动态:13861,动态:8773,动态:19615,动态:19935,动态:9503,动态:14058,动态:2707,动态:3674,动态:18087,动态:3420,动态:11491,动态:15545,动态:19941,动态:11669,动态:19293,动态:10922,动态:14422,动态:22708,动态:11398,动态:17501,动态:22688,动态:20720,动态:21857,动态:22696,动态:21740,动态:22667,动态:7746,动态:22706,动态:20399,动态:21975,动态:22323,动态:22685,动态:22710,动态:21556,动态:22697,动态:21757,动态:22680,动态:21756,动态:21753,动态:22702,动态:22684,动态:21972,动态:21763,动态:17337,动态:22659,动态:21737,动态:22507</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>动态:7043,动态:18755,动态:18877,动态:9239,动态:12829,动态:11434,动态:20960,动态:17196,动态:11209,动态:16194,动态:20747,动态:8969,动态:11692,动态:22110,动态:17290,动态:20091,动态:5010,动态:16493,动态:14152,动态:12357,动态:15195,动态:9158,动态:12307,动态:13321,动态:11154,动态:17148,动态:22507,动态:22684,动态:22680,动态:22696,动态:21857,动态:4036,动态:22019,动态:22706,动态:20440,动态:21780,动态:7746,动态:22710,动态:20439,动态:22659,动态:21972,动态:21763,动态:22697,动态:21753,动态:22702,动态:21757,动态:17337,动态:22688,动态:22512,动态:22146</t>
+          <t>动态:12811,动态:21175,动态:12835,动态:18757,动态:21990,动态:12828,动态:6623,动态:10071,动态:242,动态:18849,动态:11669,动态:11580,动态:20217,动态:22499,动态:4497,动态:9896,动态:6775,动态:13091,动态:10355,动态:5153,动态:7405,动态:11043,动态:14444,动态:22659,动态:22702,动态:22696,动态:21556,动态:22688,动态:22699,动态:20364,动态:21780,动态:22706,动态:17337,动态:21975,动态:22684,动态:22697,动态:20720,动态:21972,动态:21741,动态:7746,动态:22692,动态:20399,动态:21753,动态:22680,动态:21737,动态:22507,动态:22146,动态:21763,动态:22685,动态:22710</t>
         </is>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>动态:19835,动态:22285,动态:22702,动态:21756,动态:22146,动态:21972,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:20623,动态:22702,动态:21756,动态:22146,动态:21972,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>动态:22685,动态:6648,动态:19419,动态:15637,动态:6680,动态:13613,动态:8010,动态:14967,动态:18525,动态:10984,动态:13187,动态:16432,动态:21259,动态:19436,动态:8745,动态:11861,动态:13466,动态:11972,动态:14426,动态:12053,动态:17168,动态:21776,动态:22146,动态:22706,动态:21737,动态:22688,动态:22507,动态:22667,动态:22697,动态:22684,动态:20720,动态:21436,动态:20440,动态:21763,动态:22698,动态:20364,动态:22680,动态:21756,动态:20439,动态:22659,动态:20399,动态:21857,动态:21740,动态:22512,动态:22702,动态:21972,动态:21727,动态:21556,动态:17337</t>
+          <t>动态:11418,动态:16131,动态:14697,动态:244,动态:17582,动态:8015,动态:15344,动态:10482,动态:12272,动态:20865,动态:11985,动态:20677,动态:9795,动态:9184,动态:20248,动态:9172,动态:21737,动态:22688,动态:20399,动态:22323,动态:22019,动态:22697,动态:21780,动态:21556,动态:20440,动态:20364,动态:22146,动态:22692,动态:7746,动态:22512,动态:20720,动态:21972,动态:22706,动态:21756,动态:22702,动态:21763,动态:22659,动态:21727,动态:22696,动态:21857,动态:22698,动态:22684,动态:22710,动态:22699,动态:17337,动态:21776,动态:21757,动态:22667,动态:22680,动态:4036</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>动态:13911,动态:18867,动态:22276,动态:14995,动态:20111,动态:12925,动态:19995,动态:22625,动态:15099,动态:15539,动态:11562,动态:15600,动态:18988,动态:15692,动态:12884,动态:17340,动态:8701,动态:13775,动态:4036,动态:22685,动态:22019,动态:21763,动态:22698,动态:21740,动态:21737,动态:22697,动态:21975,动态:17337,动态:20720,动态:21753,动态:21745,动态:21857,动态:21776,动态:22702,动态:21756,动态:22667,动态:22699,动态:22659,动态:7746,动态:20439,动态:22323,动态:22684,动态:20364,动态:21972,动态:22706,动态:22512,动态:21741,动态:22710,动态:22692,动态:21727</t>
+          <t>动态:7065,动态:19643,动态:14110,动态:3117,动态:20261,动态:11870,动态:18985,动态:18020,动态:7386,动态:15203,动态:11427,动态:17548,动态:8221,动态:16358,动态:22634,动态:11059,动态:13801,动态:19450,动态:17509,动态:7378,动态:6686,动态:7408,动态:22697,动态:7746,动态:21745,动态:22684,动态:21753,动态:21741,动态:21740,动态:20439,动态:22323,动态:21776,动态:20720,动态:22512,动态:22706,动态:20399,动态:21727,动态:20440,动态:22685,动态:22659,动态:22699,动态:21857,动态:21972,动态:21756,动态:21737,动态:21757,动态:20364,动态:22710,动态:21763,动态:17337</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>动态:6695,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:10544,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>动态:10962,动态:15630,动态:11895,动态:8524,动态:13269,动态:20908,动态:11837,动态:728,动态:16589,动态:20520,动态:21073,动态:16252,动态:14277,动态:6252,动态:14502,动态:1721,动态:16191,动态:7226,动态:16261,动态:21556,动态:22696,动态:21757,动态:22706,动态:20440,动态:21740,动态:20364,动态:22685,动态:21857,动态:22659,动态:22697,动态:21741,动态:21436,动态:4036,动态:20399,动态:20439,动态:21727,动态:22692,动态:22667,动态:21972,动态:22688,动态:17337,动态:21737,动态:22698,动态:21780,动态:20720,动态:21753,动态:22323,动态:22702,动态:22699,动态:22684</t>
+          <t>动态:14509,动态:12967,动态:11863,动态:11123,动态:15565,动态:13039,动态:14342,动态:15188,动态:22497,动态:10132,动态:20551,动态:11645,动态:13886,动态:12322,动态:15755,动态:8701,动态:13783,动态:19282,动态:6186,动态:11414,动态:13509,动态:14232,动态:19490,动态:4880,动态:18170,动态:21727,动态:21740,动态:21741,动态:21975,动态:20399,动态:21757,动态:22697,动态:22680,动态:21745,动态:21972,动态:22323,动态:21780,动态:4036,动态:22019,动态:17337,动态:7746,动态:22692,动态:22688,动态:21763,动态:22710,动态:22702,动态:22667,动态:22659,动态:21436,动态:21857</t>
         </is>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>动态:8766,动态:17749,动态:8752,动态:20114,动态:11466,动态:19045,动态:14995,动态:7833,动态:14733,动态:14434,动态:21681,动态:11192,动态:11580,动态:18796,动态:21060,动态:20242,动态:14486,动态:11644,动态:21180,动态:5400,动态:13093,动态:10567,动态:10955,动态:7387,动态:22710,动态:17337,动态:20364,动态:22684,动态:7746,动态:20720,动态:21776,动态:21436,动态:21757,动态:21753,动态:22512,动态:22667,动态:22659,动态:22680,动态:22706,动态:22323,动态:21763,动态:20399,动态:21727,动态:21780,动态:21857,动态:22688,动态:21556,动态:20439,动态:22692,动态:20440</t>
+          <t>动态:15770,动态:15863,动态:232,动态:19530,动态:21497,动态:11072,动态:9768,动态:11305,动态:11552,动态:6623,动态:18195,动态:20319,动态:20011,动态:9391,动态:15656,动态:9151,动态:14188,动态:10553,动态:13247,动态:22512,动态:21556,动态:22659,动态:22019,动态:20364,动态:20399,动态:21745,动态:22702,动态:21857,动态:22507,动态:4036,动态:21737,动态:21727,动态:20720,动态:22696,动态:22323,动态:21972,动态:21436,动态:21753,动态:22688,动态:21780,动态:21740,动态:20439,动态:21975,动态:21741,动态:22685,动态:22146,动态:7746,动态:22710,动态:22697,动态:17337</t>
         </is>
       </c>
     </row>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>动态:14395,动态:11996,动态:11271,动态:21885,动态:11697,动态:20339,动态:12878,动态:15750,动态:15916,动态:18988,动态:7734,动态:15663,动态:11429,动态:17700,动态:8775,动态:12607,动态:21309,动态:19765,动态:14216,动态:13095,动态:3522,动态:21858,动态:21757,动态:20720,动态:21745,动态:20399,动态:21975,动态:17337,动态:21436,动态:21780,动态:22699,动态:22019,动态:21756,动态:22146,动态:22684,动态:22667,动态:21741,动态:21972,动态:22659,动态:22323,动态:21727,动态:21737,动态:21753,动态:21857,动态:20439,动态:22512,动态:22680,动态:21556,动态:22685,动态:20364</t>
+          <t>动态:13742,动态:8610,动态:19656,动态:12306,动态:9499,动态:17531,动态:21485,动态:6595,动态:8291,动态:9411,动态:19215,动态:18317,动态:21359,动态:11077,动态:5149,动态:19084,动态:13491,动态:6799,动态:9158,动态:21858,动态:22680,动态:21556,动态:21740,动态:21741,动态:21756,动态:21975,动态:22146,动态:22699,动态:21857,动态:22688,动态:21727,动态:21753,动态:17337,动态:21780,动态:22323,动态:22684,动态:21436,动态:20720,动态:20364,动态:21737,动态:20440,动态:20399,动态:22019,动态:21745,动态:22659,动态:22512,动态:22685,动态:7746,动态:21972,动态:20439</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>动态:20615,动态:11512,动态:10991,动态:19617,动态:16717,动态:9728,动态:15858,动态:11379,动态:11613,动态:18705,动态:13158,动态:8699,动态:20146,动态:3110,动态:6637,动态:14158,动态:18852,动态:12654,动态:19278,动态:17960,动态:9146,动态:18313,动态:21741,动态:22699,动态:21740,动态:22692,动态:21975,动态:7746,动态:17337,动态:20439,动态:22706,动态:21857,动态:22710,动态:21763,动态:22019,动态:21737,动态:21556,动态:21753,动态:22702,动态:22685,动态:22697,动态:22146,动态:22323,动态:21780,动态:21727,动态:21745,动态:22512,动态:20364,动态:21757,动态:22507</t>
+          <t>动态:14098,动态:13455,动态:18688,动态:11967,动态:20351,动态:13041,动态:20452,动态:14887,动态:12365,动态:8966,动态:18369,动态:14636,动态:20379,动态:13795,动态:15490,动态:16273,动态:13789,动态:21740,动态:7746,动态:22507,动态:21737,动态:21756,动态:21763,动态:21975,动态:21556,动态:22146,动态:22684,动态:21857,动态:21727,动态:22685,动态:20440,动态:21745,动态:21436,动态:22692,动态:22702,动态:22698,动态:20399,动态:22323,动态:17337,动态:22659,动态:22667,动态:20720,动态:21780,动态:20364,动态:4036,动态:20439,动态:22019,动态:22706,动态:21972,动态:22697</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>动态:20460,动态:17777,动态:15869,动态:8002,动态:11193,动态:12384,动态:21874,动态:12774,动态:20104,动态:20459,动态:20151,动态:10389,动态:13634,动态:7694,动态:22545,动态:9411,动态:6894,动态:12069,动态:12367,动态:17228,动态:20285,动态:13316,动态:6790,动态:16297,动态:6889,动态:6361,动态:13327,动态:3142,动态:21304,动态:22697,动态:21753,动态:21857,动态:4036,动态:17337,动态:22698,动态:22699,动态:22323,动态:21763,动态:21780,动态:7746,动态:22696,动态:22710,动态:22667,动态:21737,动态:21745,动态:21972,动态:21740,动态:22692,动态:21556,动态:22685</t>
+          <t>动态:22296,动态:19703,动态:21141,动态:13098,动态:10599,动态:7815,动态:15201,动态:10979,动态:18248,动态:18996,动态:3802,动态:11938,动态:20444,动态:16754,动态:22431,动态:15757,动态:961,动态:9411,动态:11184,动态:19469,动态:7025,动态:21556,动态:22696,动态:21757,动态:20399,动态:21763,动态:22684,动态:22698,动态:22680,动态:21727,动态:21740,动态:22692,动态:22706,动态:21780,动态:20440,动态:22659,动态:22685,动态:21857,动态:20720,动态:22699,动态:22507,动态:21975,动态:21737,动态:17337,动态:22323,动态:20364,动态:20439,动态:21972,动态:21741,动态:22697</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>动态:17127,动态:21636,动态:19036,动态:12936,动态:12300,动态:20330,动态:20440,动态:6611,动态:8011,动态:6916,动态:6447,动态:3796,动态:3076,动态:7464,动态:3174,动态:3897,动态:22699,动态:3073,动态:21970,动态:621,动态:3107,动态:3104,动态:6252,动态:21470,动态:3979,动态:3166,动态:7789,动态:20525,动态:7383,动态:7186,动态:4036,动态:4031,动态:6325,动态:20516,动态:16721,动态:22696,动态:6901,动态:3162,动态:11275,动态:17957,动态:11055,动态:21737,动态:21740,动态:22692,动态:21763,动态:17337,动态:22680,动态:20720,动态:21753,动态:7746</t>
+          <t>动态:11813,动态:20460,动态:15742,动态:19181,动态:14688,动态:11179,动态:16264,动态:22092,动态:6901,动态:4036,动态:3796,动态:3073,动态:6916,动态:6447,动态:3166,动态:4031,动态:22699,动态:3174,动态:621,动态:16721,动态:20516,动态:3897,动态:3104,动态:20525,动态:7383,动态:7464,动态:21470,动态:3107,动态:3979,动态:22696,动态:3162,动态:21970,动态:3076,动态:6252,动态:7186,动态:6325,动态:7789,动态:11276,动态:13795,动态:8701,动态:21556,动态:11126,动态:11786,动态:21972,动态:21757,动态:20399,动态:22684,动态:21753,动态:7746,动态:21763</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>动态:16336,动态:13586,动态:13635,动态:15815,动态:11045,动态:22129,动态:18830,动态:22626,动态:11567,动态:20543,动态:10053,动态:20941,动态:20544,动态:9042,动态:6542,动态:6747,动态:18153,动态:8600,动态:22680,动态:21780,动态:22692,动态:20439,动态:22702,动态:4036,动态:22512,动态:22706,动态:21763,动态:21757,动态:21727,动态:21972,动态:22146,动态:20364,动态:22699,动态:22659,动态:21753,动态:22667,动态:20399,动态:17337,动态:22507,动态:21740,动态:22685,动态:22698,动态:22710,动态:21737,动态:7746,动态:22688,动态:22696,动态:21745,动态:21975,动态:20720</t>
+          <t>动态:17063,动态:21501,动态:7171,动态:19511,动态:20330,动态:7833,动态:15463,动态:19646,动态:14345,动态:17542,动态:16039,动态:14892,动态:11419,动态:3795,动态:11145,动态:3174,动态:13318,动态:7604,动态:16620,动态:13816,动态:10576,动态:4815,动态:22699,动态:17337,动态:21972,动态:21857,动态:22680,动态:22698,动态:22659,动态:22702,动态:20364,动态:21745,动态:22507,动态:22667,动态:22685,动态:21740,动态:20439,动态:22512,动态:22696,动态:22710,动态:20440,动态:22706,动态:21975,动态:21780,动态:21756,动态:20720,动态:21757,动态:22692,动态:21763,动态:7746</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>动态:15003,动态:16585,动态:13358,动态:21266,动态:18082,动态:21946,动态:19531,动态:21111,动态:7065,动态:8123,动态:10532,动态:16264,动态:16296,动态:15633,动态:11101,动态:18360,动态:6671,动态:9278,动态:4512,动态:15132,动态:10077,动态:12367,动态:19256,动态:4031,动态:20720,动态:22696,动态:21757,动态:22688,动态:20439,动态:22680,动态:22684,动态:21737,动态:22685,动态:22507,动态:21740,动态:17337,动态:22698,动态:22512,动态:21780,动态:21753,动态:21857,动态:21556,动态:21972,动态:22697,动态:22692,动态:22019,动态:21975,动态:22323,动态:22702,动态:4036</t>
+          <t>动态:10516,动态:22700,动态:11380,动态:19401,动态:12322,动态:18461,动态:6611,动态:19487,动态:2269,动态:20930,动态:21160,动态:9778,动态:19436,动态:8619,动态:19759,动态:5151,动态:20137,动态:17696,动态:13328,动态:21975,动态:22685,动态:4036,动态:20720,动态:21753,动态:21727,动态:21972,动态:22706,动态:17337,动态:20439,动态:22512,动态:21780,动态:21757,动态:22507,动态:22019,动态:7746,动态:22710,动态:22323,动态:21737,动态:21763,动态:22692,动态:20399,动态:20440,动态:21556,动态:22698,动态:22684,动态:21741,动态:21776,动态:22688,动态:21740,动态:22699</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>动态:7779,动态:22430,动态:13247,动态:3098,动态:21704,动态:10947,动态:11583,动态:1797,动态:8221,动态:19281,动态:18153,动态:20607,动态:15238,动态:15002,动态:7587,动态:17937,动态:21497,动态:13710,动态:5877,动态:18170,动态:21857,动态:22702,动态:20439,动态:22507,动态:7746,动态:22697,动态:21756,动态:22685,动态:22659,动态:22706,动态:20364,动态:21436,动态:22710,动态:22698,动态:21753,动态:22146,动态:22323,动态:21745,动态:22512,动态:17337,动态:22688,动态:22692,动态:22696,动态:21757,动态:21975,动态:22699,动态:21740,动态:20440,动态:21556,动态:22684</t>
+          <t>动态:13928,动态:16019,动态:22604,动态:12672,动态:13791,动态:7374,动态:11063,动态:6905,动态:6576,动态:11500,动态:12186,动态:19645,动态:22624,动态:20005,动态:8118,动态:13773,动态:20113,动态:9507,动态:16890,动态:12417,动态:11081,动态:19755,动态:16075,动态:15815,动态:10566,动态:13782,动态:22685,动态:22512,动态:22680,动态:21436,动态:21556,动态:22702,动态:7746,动态:22507,动态:22684,动态:21745,动态:22697,动态:22710,动态:22667,动态:21757,动态:22692,动态:22659,动态:21756,动态:22019,动态:21740,动态:21780,动态:21737,动态:22146,动态:21776,动态:21975</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>动态:20677,动态:18324,动态:6296,动态:13453,动态:15793,动态:6679,动态:10271,动态:5407,动态:9798,动态:12664,动态:21129,动态:11993,动态:20860,动态:11714,动态:12679,动态:11503,动态:12920,动态:6629,动态:7351,动态:14284,动态:14735,动态:9800,动态:3118,动态:12044,动态:22692,动态:22702,动态:21753,动态:22698,动态:22688,动态:21556,动态:21756,动态:21741,动态:22146,动态:21975,动态:22680,动态:22512,动态:21780,动态:20720,动态:21857,动态:20439,动态:22706,动态:22684,动态:21737,动态:21727,动态:20440,动态:21436,动态:22019,动态:22710,动态:21740,动态:21757</t>
+          <t>动态:11280,动态:10499,动态:20146,动态:21704,动态:22708,动态:16336,动态:20134,动态:12011,动态:12881,动态:20273,动态:20803,动态:16597,动态:21101,动态:13009,动态:20107,动态:18629,动态:22633,动态:7472,动态:14017,动态:10581,动态:20246,动态:21095,动态:17964,动态:11644,动态:7307,动态:10375,动态:17337,动态:21780,动态:21753,动态:21556,动态:21763,动态:21745,动态:22512,动态:22692,动态:20364,动态:22685,动态:7746,动态:22684,动态:20439,动态:21757,动态:22680,动态:20440,动态:21756,动态:21741,动态:20720,动态:22702,动态:21975,动态:22706,动态:22698,动态:21972</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>动态:18744,动态:19300,动态:11078,动态:18696,动态:9533,动态:11036,动态:14892,动态:19606,动态:20747,动态:14955,动态:13764,动态:8464,动态:10465,动态:11985,动态:10212,动态:7604,动态:16617,动态:7145,动态:22667,动态:22684,动态:20440,动态:22146,动态:20439,动态:22680,动态:17337,动态:22685,动态:22019,动态:22706,动态:21857,动态:21763,动态:4036,动态:21753,动态:21556,动态:22710,动态:21740,动态:22698,动态:20720,动态:21975,动态:21737,动态:21757,动态:7746,动态:22659,动态:22688,动态:22699,动态:21756,动态:22696,动态:21972,动态:22697,动态:20399,动态:21436</t>
+          <t>动态:17367,动态:11270,动态:20680,动态:12672,动态:12831,动态:20487,动态:8288,动态:21990,动态:9204,动态:21881,动态:20021,动态:22156,动态:19312,动态:15344,动态:13306,动态:13221,动态:13217,动态:14098,动态:11769,动态:17958,动态:13710,动态:10456,动态:7748,动态:4207,动态:7380,动态:4175,动态:13055,动态:19127,动态:21309,动态:22698,动态:21756,动态:17337,动态:22706,动态:21975,动态:7746,动态:21757,动态:21740,动态:22685,动态:22146,动态:20439,动态:21972,动态:22659,动态:20364,动态:22696,动态:21763,动态:22699,动态:20720,动态:21436,动态:22667,动态:22512</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>动态:13345,动态:19491,动态:13099,动态:10870,动态:9145,动态:13883,动态:14277,动态:16648,动态:21315,动态:13618,动态:14530,动态:18070,动态:972,动态:20619,动态:17543,动态:22301,动态:21845,动态:20254,动态:13073,动态:11036,动态:7815,动态:7458,动态:15775,动态:19373,动态:17777,动态:18791,动态:12711,动态:7004,动态:14475,动态:16585,动态:19126,动态:10700,动态:9152,动态:15199,动态:11437,动态:15498,动态:13282,动态:18688,动态:20527,动态:20710,动态:20734,动态:15589,动态:21719,动态:22501,动态:7517,动态:10349,动态:20602,动态:16963,动态:22710,动态:22684</t>
+          <t>动态:11466,动态:11611,动态:17313,动态:17575,动态:12377,动态:10941,动态:4210,动态:17711,动态:14161,动态:17090,动态:13873,动态:14248,动态:21084,动态:17738,动态:6784,动态:8078,动态:15347,动态:14981,动态:19646,动态:6640,动态:16582,动态:8115,动态:19812,动态:14141,动态:12311,动态:4023,动态:22604,动态:13981,动态:17775,动态:10359,动态:16697,动态:21093,动态:8920,动态:21717,动态:12871,动态:12667,动态:13548,动态:15698,动态:22512,动态:12881,动态:12306,动态:17750,动态:19208,动态:6601,动态:18337,动态:22685,动态:22512,动态:9783,动态:22688,动态:9421</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>动态:18744,动态:15340,动态:12416,动态:13210,动态:18567,动态:7532,动态:8569,动态:15490,动态:10870,动态:18059,动态:17943,动态:10993,动态:15695,动态:9146,动态:16819,动态:11180,动态:13489,动态:3525,动态:21201,动态:14892,动态:9442,动态:17337,动态:22507,动态:21756,动态:22706,动态:22698,动态:20720,动态:22702,动态:21857,动态:21763,动态:21776,动态:21737,动态:21727,动态:21741,动态:22512,动态:7746,动态:22685,动态:21745,动态:22019,动态:20440,动态:22680,动态:22710,动态:22684,动态:20399,动态:21753,动态:22697,动态:22696,动态:22692,动态:21556,动态:21436</t>
+          <t>动态:11861,动态:8821,动态:9036,动态:15016,动态:18813,动态:19423,动态:14161,动态:10849,动态:20143,动态:18947,动态:18696,动态:11566,动态:4432,动态:13682,动态:20145,动态:12617,动态:15061,动态:11823,动态:21645,动态:22667,动态:21776,动态:22688,动态:21757,动态:22507,动态:20399,动态:22699,动态:21556,动态:21763,动态:21972,动态:21727,动态:22685,动态:20439,动态:22696,动态:22146,动态:22680,动态:22684,动态:22659,动态:17337,动态:22512,动态:22706,动态:21745,动态:22692,动态:4036,动态:21436,动态:21756,动态:21857,动态:22323,动态:22697,动态:20720,动态:22019</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>动态:16873,动态:18841,动态:7127,动态:18740,动态:19492,动态:14752,动态:13245,动态:7608,动态:15490,动态:13817,动态:10983,动态:6545,动态:6825,动态:12592,动态:17504,动态:19488,动态:19485,动态:7603,动态:18356,动态:5112,动态:17437,动态:18365,动态:10083,动态:20244,动态:11444,动态:17168,动态:8603,动态:12332,动态:17295,动态:6906,动态:17960,动态:15144,动态:12587,动态:19783,动态:8618,动态:7303,动态:5877,动态:10580,动态:6842,动态:15137,动态:10182,动态:11399,动态:17408,动态:5353,动态:18313,动态:22146,动态:20248,动态:20364,动态:22323,动态:10298</t>
+          <t>动态:13981,动态:15885,动态:13783,动态:20362,动态:13415,动态:10429,动态:7604,动态:20273,动态:8619,动态:7747,动态:9039,动态:20346,动态:13134,动态:21740,动态:18170,动态:8292,动态:14230,动态:14640,动态:11268,动态:7477,动态:10087,动态:18154,动态:7122,动态:9795,动态:6454,动态:6838,动态:6845,动态:769,动态:857,动态:19707,动态:18376,动态:16273,动态:146,动态:11940,动态:8231,动态:21115,动态:21741,动态:16282,动态:10576,动态:9155,动态:19210,动态:13826,动态:19765,动态:18771,动态:10219,动态:18238,动态:11131,动态:20364,动态:22680,动态:15221</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>动态:15909,动态:19590,动态:14609,动态:22620,动态:18140,动态:20124,动态:7154,动态:15240,动态:6612,动态:12379,动态:13666,动态:15773,动态:9027,动态:21249,动态:11075,动态:18771,动态:4341,动态:14638,动态:6895,动态:13663,动态:20364,动态:21753,动态:22706,动态:21776,动态:22659,动态:22702,动态:21745,动态:20440,动态:22697,动态:21857,动态:17337,动态:22146,动态:21741,动态:22710,动态:22699,动态:20439,动态:22696,动态:21556,动态:22688,动态:20399,动态:7746,动态:22507,动态:21780,动态:20720,动态:21757,动态:22667,动态:21972,动态:22512,动态:22684,动态:22692</t>
+          <t>动态:12000,动态:21097,动态:19973,动态:13833,动态:13888,动态:22311,动态:15600,动态:9239,动态:15742,动态:10535,动态:18877,动态:15950,动态:22498,动态:20146,动态:9478,动态:17228,动态:20516,动态:12319,动态:11043,动态:3174,动态:5385,动态:22692,动态:21975,动态:20439,动态:20364,动态:22710,动态:20440,动态:22684,动态:22702,动态:7746,动态:22699,动态:21757,动态:4036,动态:22146,动态:21857,动态:22659,动态:21780,动态:22696,动态:22698,动态:22512,动态:22507,动态:22688,动态:17337,动态:21776,动态:21753,动态:21556,动态:21972,动态:22697,动态:21741,动态:21727</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>动态:8935,动态:3806,动态:19171,动态:6461,动态:10209,动态:5353,动态:18875,动态:3808,动态:21654,动态:19581,动态:11276,动态:11814,动态:21959,动态:4184,动态:9161,动态:10106,动态:18369,动态:21648,动态:12764,动态:16263,动态:18141,动态:21446,动态:17940,动态:15886,动态:16039,动态:18497,动态:12895,动态:7746,动态:20399,动态:22667,动态:22323,动态:22699,动态:22659,动态:20440,动态:22507,动态:22702,动态:22706,动态:22696,动态:20364,动态:20720,动态:22710,动态:21740,动态:21763,动态:21745,动态:20439,动态:21972,动态:21727,动态:22019,动态:4036,动态:22685</t>
+          <t>动态:14719,动态:6777,动态:17081,动态:17623,动态:22626,动态:9025,动态:7750,动态:18667,动态:21681,动态:13408,动态:8515,动态:12930,动态:10918,动态:12269,动态:19821,动态:8170,动态:15515,动态:18372,动态:22688,动态:21757,动态:21972,动态:21756,动态:22706,动态:21740,动态:22692,动态:20440,动态:22702,动态:20364,动态:22659,动态:21745,动态:21436,动态:22698,动态:22685,动态:21737,动态:17337,动态:22710,动态:22323,动态:21727,动态:22696,动态:21857,动态:22146,动态:22680,动态:21975,动态:22684,动态:21556,动态:20439,动态:4036,动态:22667,动态:22507,动态:22699</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>动态:20764,动态:17529,动态:16648,动态:21315,动态:17177,动态:21371,动态:14345,动态:11695,动态:17711,动态:13256,动态:21417,动态:19446,动态:12411,动态:20093,动态:13807,动态:14446,动态:7123,动态:21780,动态:20364,动态:22512,动态:22019,动态:22685,动态:17337,动态:7746,动态:22697,动态:22692,动态:22706,动态:20439,动态:22667,动态:21740,动态:22659,动态:20440,动态:21975,动态:21745,动态:21727,动态:21737,动态:21757,动态:20399,动态:22698,动态:22702,动态:22688,动态:22684,动态:21776,动态:21972,动态:21857,动态:21753,动态:21556,动态:4036,动态:21756,动态:22146</t>
+          <t>动态:816,动态:16618,动态:22284,动态:14994,动态:18195,动态:12362,动态:12672,动态:10923,动态:19623,动态:11629,动态:11771,动态:12231,动态:13569,动态:14700,动态:14158,动态:11940,动态:19450,动态:19251,动态:19282,动态:17237,动态:9442,动态:16721,动态:15970,动态:21727,动态:21740,动态:21972,动态:21745,动态:22697,动态:22323,动态:22019,动态:22692,动态:20440,动态:7746,动态:22706,动态:20364,动态:22699,动态:21753,动态:21757,动态:21756,动态:4036,动态:21780,动态:22512,动态:21763,动态:22146,动态:22685,动态:21975,动态:22659,动态:20439,动态:20399,动态:22696</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>动态:22381,动态:16110,动态:15127,动态:20840,动态:21317,动态:15583,动态:15866,动态:11563,动态:1347,动态:19590,动态:8793,动态:6894,动态:14040,动态:14229,动态:19496,动态:11077,动态:21763,动态:21776,动态:7746,动态:22659,动态:22680,动态:20439,动态:22507,动态:4036,动态:21740,动态:21753,动态:21972,动态:21727,动态:22512,动态:21737,动态:22667,动态:22697,动态:20440,动态:22019,动态:22688,动态:21857,动态:21780,动态:22702,动态:22698,动态:20399,动态:20364,动态:21741,动态:17337,动态:21975,动态:22692,动态:21556,动态:22684,动态:21756,动态:21757,动态:22146</t>
+          <t>动态:19892,动态:12840,动态:22234,动态:19385,动态:15189,动态:21531,动态:8160,动态:12374,动态:15147,动态:18467,动态:11993,动态:11584,动态:19544,动态:22276,动态:5385,动态:19847,动态:7022,动态:19446,动态:15631,动态:5210,动态:7122,动态:9286,动态:20720,动态:7746,动态:22512,动态:22688,动态:22685,动态:21745,动态:20364,动态:21740,动态:17337,动态:22696,动态:22699,动态:21975,动态:21737,动态:22680,动态:22659,动态:21756,动态:21972,动态:21763,动态:4036,动态:22702,动态:21741,动态:22692,动态:22698,动态:22697,动态:20440,动态:20439,动态:21757,动态:22019</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>动态:9897,动态:14675,动态:13041,动态:16602,动态:21436,动态:14818,动态:17750,动态:13740,动态:6694,动态:20312,动态:13306,动态:18667,动态:13972,动态:17174,动态:789,动态:15117,动态:18847,动态:16137,动态:15990,动态:3166,动态:7131,动态:18170,动态:21756,动态:21727,动态:4036,动态:22323,动态:21757,动态:22697,动态:7746,动态:22512,动态:22698,动态:22667,动态:22692,动态:20439,动态:22680,动态:20399,动态:21776,动态:22019,动态:21745,动态:20440,动态:22696,动态:21975,动态:22685,动态:21556,动态:20720,动态:21972,动态:21741,动态:21780,动态:22710</t>
+          <t>动态:21459,动态:13158,动态:11967,动态:22082,动态:21857,动态:11835,动态:13043,动态:12089,动态:8831,动态:16608,动态:20617,动态:12899,动态:12059,动态:11885,动态:12332,动态:16829,动态:4597,动态:12069,动态:21757,动态:21740,动态:20440,动态:22710,动态:22698,动态:22688,动态:21745,动态:22692,动态:21741,动态:22146,动态:22685,动态:17337,动态:22680,动态:20439,动态:22696,动态:20399,动态:20720,动态:21776,动态:22323,动态:22019,动态:21737,动态:22706,动态:22659,动态:22512,动态:7746,动态:21975,动态:22507,动态:21727,动态:21753,动态:21780,动态:22667,动态:22697</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>动态:11913,动态:22639,动态:6472,动态:20109,动态:17856,动态:12729,动态:8142,动态:7105,动态:21482,动态:9025,动态:21267,动态:17574,动态:13267,动态:11642,动态:22545,动态:20663,动态:9307,动态:14641,动态:7226,动态:19084,动态:6547,动态:11782,动态:15659,动态:6534,动态:22019,动态:22706,动态:21741,动态:22659,动态:22692,动态:22667,动态:22698,动态:17337,动态:21972,动态:22507,动态:21727,动态:20440,动态:22696,动态:4036,动态:22685,动态:21740,动态:22146,动态:21756,动态:21857,动态:21780,动态:21436,动态:21753,动态:22512,动态:21556,动态:20439,动态:20399</t>
+          <t>动态:9492,动态:16914,动态:22042,动态:20546,动态:14630,动态:19416,动态:9798,动态:13408,动态:11566,动态:22323,动态:18678,动态:12070,动态:20666,动态:21194,动态:3166,动态:4304,动态:16929,动态:10570,动态:22659,动态:20720,动态:21745,动态:21776,动态:22512,动态:21737,动态:21740,动态:22688,动态:21763,动态:22680,动态:21727,动态:21757,动态:22685,动态:22692,动态:22684,动态:17337,动态:4036,动态:22696,动态:21857,动态:22699,动态:21972,动态:22706,动态:7746,动态:21556,动态:20440,动态:22710,动态:22019,动态:20364,动态:22146,动态:21780,动态:22698</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>动态:20747,动态:7041,动态:18742,动态:14161,动态:17151,动态:21915,动态:21665,动态:11072,动态:12275,动态:11574,动态:14658,动态:20544,动态:17964,动态:4895,动态:13884,动态:13681,动态:11263,动态:16620,动态:20248,动态:19780,动态:7392,动态:15471,动态:20997,动态:20440,动态:22688,动态:22680,动态:22697,动态:4036,动态:21556,动态:20364,动态:22692,动态:21975,动态:22699,动态:21436,动态:21972,动态:21745,动态:21857,动态:22698,动态:21780,动态:20439,动态:22667,动态:22685,动态:22702,动态:22706,动态:21737,动态:22146,动态:21776,动态:22507,动态:22323,动态:22659</t>
+          <t>动态:21201,动态:11487,动态:8764,动态:13297,动态:20075,动态:18983,动态:13370,动态:14434,动态:19018,动态:11340,动态:7105,动态:11554,动态:6893,动态:11154,动态:13469,动态:22697,动态:21780,动态:22685,动态:17337,动态:22323,动态:22706,动态:22512,动态:21745,动态:21727,动态:21972,动态:21556,动态:22699,动态:22659,动态:20439,动态:20440,动态:22680,动态:20720,动态:22698,动态:22688,动态:21776,动态:4036,动态:7746,动态:21753,动态:21857,动态:22667,动态:21737,动态:22702,动态:20399,动态:21436,动态:22507,动态:22684,动态:21763,动态:22146,动态:22692,动态:20364</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>动态:11203,动态:20720,动态:17972,动态:7843,动态:21367,动态:19503,动态:11277,动态:22477,动态:21665,动态:16071,动态:10346,动态:8809,动态:18755,动态:20442,动态:8581,动态:14230,动态:9151,动态:11488,动态:13415,动态:15631,动态:15221,动态:22684,动态:22692,动态:21780,动态:22697,动态:21745,动态:22019,动态:20364,动态:21737,动态:22507,动态:21975,动态:21763,动态:22702,动态:22146,动态:21741,动态:21857,动态:22710,动态:21776,动态:22667,动态:21753,动态:4036,动态:22688,动态:21436,动态:22512,动态:22659,动态:20440,动态:22698,动态:21757,动态:21740</t>
+          <t>动态:17193,动态:12362,动态:7679,动态:10474,动态:22488,动态:11574,动态:13861,动态:20544,动态:21054,动态:8915,动态:12292,动态:20831,动态:8160,动态:7517,动态:20052,动态:676,动态:7746,动态:6522,动态:18322,动态:22699,动态:21756,动态:20440,动态:22680,动态:22667,动态:21776,动态:21737,动态:21727,动态:22146,动态:22698,动态:17337,动态:22710,动态:22696,动态:21975,动态:22706,动态:21780,动态:22692,动态:22684,动态:21740,动态:21757,动态:20364,动态:22323,动态:20399,动态:21745,动态:21763,动态:22019,动态:21436,动态:20439,动态:21556,动态:20720</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>动态:12892,动态:18083,动态:14084,动态:7743,动态:1245,动态:21017,动态:11036,动态:11609,动态:16048,动态:6637,动态:19177,动态:10482,动态:11615,动态:6756,动态:11946,动态:11837,动态:8295,动态:21848,动态:15702,动态:6885,动态:9232,动态:11135,动态:15066,动态:11736,动态:22512,动态:20439,动态:22698,动态:22507,动态:20720,动态:21776,动态:21972,动态:22688,动态:20440,动态:21741,动态:4036,动态:20364,动态:21745,动态:20399,动态:21556,动态:22659,动态:22146,动态:21857,动态:21753,动态:21436,动态:21975,动态:22667,动态:22699,动态:22710,动态:22697,动态:21780</t>
+          <t>动态:18165,动态:10976,动态:19182,动态:15596,动态:11474,动态:9478,动态:7150,动态:20112,动态:13907,动态:10698,动态:15684,动态:10937,动态:14802,动态:11289,动态:12304,动态:11394,动态:6853,动态:13631,动态:8176,动态:6626,动态:12293,动态:9183,动态:21785,动态:21556,动态:21975,动态:20440,动态:21737,动态:22688,动态:22680,动态:22512,动态:21763,动态:21757,动态:22019,动态:21740,动态:22685,动态:21756,动态:4036,动态:21741,动态:21745,动态:22659,动态:7746,动态:22146,动态:22699,动态:21776,动态:22507,动态:22706,动态:20720,动态:21727,动态:22702,动态:21857</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>动态:14688,动态:13535,动态:16301,动态:21492,动态:13988,动态:15877,动态:13814,动态:19749,动态:11698,动态:9473,动态:11643,动态:19347,动态:18956,动态:15583,动态:20093,动态:21239,动态:11063,动态:20071,动态:18900,动态:6133,动态:6325,动态:20399,动态:21745,动态:21975,动态:22702,动态:21737,动态:4036,动态:21757,动态:22019,动态:22688,动态:21857,动态:22659,动态:21972,动态:22685,动态:22512,动态:22507,动态:21780,动态:20440,动态:22706,动态:20439,动态:20364,动态:21556,动态:22698,动态:20720,动态:21740,动态:21763,动态:7746,动态:22146,动态:22684,动态:22697</t>
+          <t>动态:17130,动态:18600,动态:13697,动态:19271,动态:21526,动态:8746,动态:15711,动态:16613,动态:13727,动态:10566,动态:14947,动态:20755,动态:17537,动态:12891,动态:22659,动态:8831,动态:16315,动态:16417,动态:11583,动态:17122,动态:20105,动态:16493,动态:14053,动态:7746,动态:20399,动态:21763,动态:22667,动态:22696,动态:21857,动态:21740,动态:22323,动态:21436,动态:22512,动态:22507,动态:21745,动态:22710,动态:22684,动态:21972,动态:21556,动态:21737,动态:22699,动态:20720,动态:20439,动态:21780,动态:22680,动态:22146,动态:22698,动态:20440,动态:22685</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>动态:10690,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:11642,动态:6654,动态:11724,动态:16568,动态:4528,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>动态:11133,动态:9461,动态:13287,动态:7307,动态:9163,动态:13861,动态:20459,动态:6766,动态:19002,动态:20622,动态:22103,动态:12083,动态:17250,动态:18281,动态:19858,动态:11394,动态:17349,动态:19269,动态:10124,动态:6545,动态:14931,动态:12888,动态:7025,动态:16595,动态:7472,动态:20440,动态:21753,动态:21556,动态:21436,动态:22692,动态:22685,动态:22667,动态:7746,动态:4036,动态:22698,动态:20364,动态:21975,动态:22706,动态:22702,动态:22019,动态:21763,动态:21745,动态:22680,动态:20439,动态:22512,动态:21972,动态:21780,动态:20399,动态:22699,动态:17337</t>
+          <t>动态:14878,动态:19401,动态:14282,动态:11758,动态:19453,动态:19487,动态:13378,动态:15545,动态:6643,动态:20741,动态:12334,动态:18000,动态:18557,动态:13453,动态:20459,动态:20518,动态:12842,动态:9158,动态:6867,动态:20399,动态:22512,动态:7746,动态:22507,动态:22702,动态:21757,动态:22688,动态:22667,动态:21740,动态:21756,动态:22696,动态:20720,动态:21857,动态:21975,动态:22019,动态:21745,动态:21556,动态:20364,动态:21753,动态:22710,动态:21436,动态:22685,动态:21763,动态:21727,动态:21741,动态:22697,动态:22684,动态:22692,动态:21776,动态:22323,动态:22706</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>动态:14636,动态:6620,动态:22512,动态:14566,动态:21675,动态:11017,动态:22493,动态:16578,动态:11835,动态:13428,动态:20686,动态:13171,动态:11620,动态:15173,动态:11365,动态:16388,动态:13296,动态:20329,动态:9433,动态:15267,动态:6500,动态:6761,动态:10614,动态:14006,动态:6581,动态:21659,动态:21756,动态:21757,动态:22696,动态:22684,动态:21975,动态:22710,动态:21857,动态:22688,动态:21763,动态:22680,动态:22146,动态:21740,动态:7746,动态:21745,动态:22659,动态:21556,动态:20399,动态:20720,动态:22692,动态:4036,动态:22019,动态:22699,动态:21436,动态:22698</t>
+          <t>动态:17909,动态:20254,动态:16380,动态:20376,动态:11771,动态:13214,动态:11643,动态:9768,动态:19291,动态:13315,动态:15669,动态:21763,动态:22698,动态:22688,动态:21737,动态:22692,动态:20720,动态:22696,动态:7746,动态:22697,动态:21780,动态:21556,动态:21727,动态:22019,动态:20399,动态:21972,动态:22507,动态:21740,动态:22684,动态:22323,动态:17337,动态:22146,动态:21756,动态:22512,动态:21741,动态:21975,动态:21776,动态:20364,动态:22706,动态:20439,动态:20440,动态:21436,动态:22710,动态:22659,动态:22667,动态:21857,动态:22685,动态:22680,动态:21757,动态:4036</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>动态:16036,动态:9413,动态:12197,动态:14931,动态:17951,动态:20030,动态:6460,动态:15947,动态:13245,动态:13817,动态:6545,动态:13095,动态:9391,动态:20189,动态:19488,动态:18356,动态:6191,动态:19881,动态:5353,动态:22709,动态:14076,动态:16137,动态:15326,动态:14465,动态:11293,动态:4512,动态:4432,动态:7040,动态:8775,动态:6534,动态:20103,动态:18900,动态:9047,动态:15511,动态:5407,动态:10272,动态:17148,动态:8892,动态:11131,动态:11259,动态:14236,动态:10549,动态:6821,动态:20156,动态:20359,动态:22685,动态:14875,动态:148,动态:7384,动态:4036</t>
+          <t>动态:15612,动态:11444,动态:11113,动态:16026,动态:11067,动态:16819,动态:9001,动态:13402,动态:8619,动态:15671,动态:6545,动态:5829,动态:6848,动态:20997,动态:12338,动态:6546,动态:13795,动态:17697,动态:7748,动态:12357,动态:16289,动态:19970,动态:10241,动态:7045,动态:5779,动态:15970,动态:18372,动态:13328,动态:12309,动态:10223,动态:5877,动态:7408,动态:21359,动态:6134,动态:13376,动态:21741,动态:13797,动态:11417,动态:18356,动态:13200,动态:11293,动态:15982,动态:17728,动态:16325,动态:16277,动态:22512,动态:21745,动态:22684,动态:12382,动态:20364</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>动态:19473,动态:22350,动态:7532,动态:19420,动态:21936,动态:16019,动态:20338,动态:13212,动态:19018,动态:18203,动态:21597,动态:4034,动态:14686,动态:22620,动态:15002,动态:19753,动态:20133,动态:15749,动态:19703,动态:13091,动态:9425,动态:12587,动态:22680,动态:22696,动态:22688,动态:21857,动态:17337,动态:20439,动态:22706,动态:22507,动态:22692,动态:20720,动态:22710,动态:22146,动态:20364,动态:22659,动态:22019,动态:21745,动态:22699,动态:21753,动态:21556,动态:4036,动态:22512,动态:22684,动态:21776,动态:21975,动态:21757,动态:21756,动态:21741,动态:22667</t>
+          <t>动态:22287,动态:17077,动态:11167,动态:16719,动态:15868,动态:11552,动态:22503,动态:5208,动态:12369,动态:13332,动态:1360,动态:20456,动态:22625,动态:11384,动态:9118,动态:9155,动态:6826,动态:15134,动态:14410,动态:11132,动态:6454,动态:10482,动态:21741,动态:22684,动态:21776,动态:22680,动态:20720,动态:21780,动态:21740,动态:7746,动态:20439,动态:21556,动态:22659,动态:22688,动态:22667,动态:22323,动态:21756,动态:22696,动态:20399,动态:22685,动态:22706,动态:21753,动态:4036,动态:21757,动态:20364,动态:21436,动态:22512,动态:21727,动态:21975,动态:22692</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>动态:8773,动态:19425,动态:20242,动态:20389,动态:20066,动态:13680,动态:11111,动态:12269,动态:8752,动态:20658,动态:7750,动态:6363,动态:15657,动态:155,动态:6604,动态:21753,动态:22685,动态:22697,动态:22512,动态:21763,动态:21727,动态:22667,动态:21776,动态:4036,动态:21757,动态:21436,动态:22702,动态:22507,动态:20399,动态:21556,动态:22692,动态:22696,动态:22706,动态:21975,动态:22710,动态:21737,动态:21972,动态:17337,动态:21741,动态:21745,动态:21780,动态:7746,动态:20720,动态:22688,动态:20364,动态:22659,动态:22699,动态:22019,动态:21857,动态:22323</t>
+          <t>动态:22091,动态:11618,动态:17184,动态:14603,动态:22381,动态:13146,动态:11029,动态:12417,动态:7526,动态:17749,动态:20840,动态:17742,动态:19577,动态:16075,动态:18733,动态:12059,动态:14721,动态:13637,动态:19765,动态:7397,动态:16385,动态:21757,动态:21745,动态:22667,动态:20364,动态:22659,动态:21753,动态:22685,动态:22706,动态:21857,动态:21740,动态:21741,动态:20439,动态:17337,动态:21556,动态:20440,动态:21975,动态:22702,动态:22697,动态:22699,动态:21737,动态:22698,动态:22512,动态:22323,动态:21436,动态:22688,动态:7746,动态:20720,动态:22710,动态:22696</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>动态:13863,动态:17690,动态:6679,动态:16913,动态:19733,动态:19413,动态:15242,动态:19995,动态:13833,动态:21293,动态:18514,动态:17122,动态:15577,动态:783,动态:18985,动态:15188,动态:12836,动态:21532,动态:11500,动态:11088,动态:11612,动态:10966,动态:3707,动态:21342,动态:17777,动态:18168,动态:17184,动态:14887,动态:779,动态:9376,动态:13350,动态:21229,动态:13971,动态:16241,动态:19882,动态:16846,动态:20268,动态:8115,动态:10698,动态:17689,动态:10525,动态:13056,动态:13425,动态:21197,动态:7171,动态:8289,动态:22685,动态:20022,动态:20590,动态:22019</t>
+          <t>动态:13556,动态:20858,动态:15480,动态:7532,动态:12384,动态:14686,动态:22283,动态:14630,动态:15692,动态:12567,动态:12231,动态:9512,动态:12730,动态:11714,动态:13479,动态:8997,动态:12893,动态:15157,动态:22160,动态:18667,动态:10942,动态:6786,动态:11863,动态:18467,动态:20452,动态:15533,动态:12890,动态:15919,动态:15867,动态:9133,动态:18110,动态:8799,动态:18281,动态:14728,动态:11110,动态:12052,动态:9027,动态:14464,动态:241,动态:17564,动态:17856,动态:7598,动态:20926,动态:18694,动态:20376,动态:22659,动态:21972,动态:22688,动态:20710,动态:13466</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>动态:11771,动态:20654,动态:20316,动态:10213,动态:20129,动态:10549,动态:16336,动态:20093,动态:12015,动态:5407,动态:10017,动态:19200,动态:14821,动态:1357,动态:1299,动态:12558,动态:13334,动态:12936,动态:14142,动态:17941,动态:6893,动态:20717,动态:20853,动态:10950,动态:22019,动态:20399,动态:22710,动态:20364,动态:21776,动态:21737,动态:22680,动态:21780,动态:22507,动态:22146,动态:22702,动态:22697,动态:21972,动态:22685,动态:21975,动态:21740,动态:22698,动态:21753,动态:21757,动态:22684,动态:21763,动态:20720,动态:20440,动态:21727,动态:21741,动态:22659</t>
+          <t>动态:734,动态:15211,动态:19581,动态:11112,动态:18459,动态:21194,动态:15755,动态:3078,动态:18947,动态:10070,动态:11488,动态:8852,动态:14728,动态:20083,动态:21785,动态:20930,动态:21753,动态:21727,动态:21780,动态:21975,动态:21745,动态:4036,动态:22699,动态:21757,动态:22512,动态:21740,动态:21763,动态:22680,动态:22698,动态:22019,动态:22146,动态:20440,动态:22697,动态:22702,动态:17337,动态:22684,动态:21972,动态:7746,动态:21857,动态:21737,动态:22710,动态:22667,动态:21776,动态:22696,动态:22685,动态:22507,动态:22323,动态:22692,动态:22706,动态:21556</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>动态:8137,动态:15505,动态:16457,动态:21970,动态:3162,动态:17977,动态:3104,动态:3796,动态:621,动态:3073,动态:22699,动态:3174,动态:6901,动态:3076,动态:19004,动态:6447,动态:6916,动态:3107,动态:7464,动态:3897,动态:10535,动态:21780,动态:22696,动态:6252,动态:3979,动态:3166,动态:15630,动态:7789,动态:20525,动态:7383,动态:7186,动态:6872,动态:4036,动态:4031,动态:6325,动态:20516,动态:21259,动态:16721,动态:13072,动态:13605,动态:21470,动态:8752,动态:21727,动态:20364,动态:21740,动态:21757,动态:22685,动态:22697,动态:22680</t>
+          <t>动态:4625,动态:8270,动态:4969,动态:17557,动态:6447,动态:3073,动态:11002,动态:6901,动态:4036,动态:6916,动态:21780,动态:3166,动态:4031,动态:12300,动态:3897,动态:7789,动态:18281,动态:22699,动态:621,动态:3174,动态:16721,动态:20516,动态:7383,动态:7186,动态:21118,动态:12293,动态:6252,动态:3076,动态:21970,动态:3162,动态:22696,动态:3979,动态:15284,动态:16719,动态:3107,动态:8515,动态:21470,动态:7464,动态:20525,动态:3104,动态:6325,动态:3796,动态:20364,动态:22684,动态:21740,动态:21753,动态:21756,动态:22685,动态:21776</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>动态:18153,动态:14949,动态:15982,动态:22707,动态:17739,动态:18791,动态:15232,动态:13894,动态:9503,动态:20488,动态:21589,动态:728,动态:11566,动态:12834,动态:17563,动态:8764,动态:13618,动态:11687,动态:22488,动态:13861,动态:12123,动态:12899,动态:20075,动态:11542,动态:3133,动态:21753,动态:22698,动态:20720,动态:21975,动态:22684,动态:22146,动态:22697,动态:22699,动态:22507,动态:22323,动态:17337,动态:7746,动态:20440,动态:22659,动态:22019,动态:21763,动态:22688,动态:22702,动态:21780,动态:22710,动态:21757,动态:22696,动态:22512,动态:21556,动态:20364</t>
+          <t>动态:7384,动态:9278,动态:18491,动态:17228,动态:18317,动态:7305,动态:4815,动态:4632,动态:9139,动态:13143,动态:15203,动态:19271,动态:4483,动态:15558,动态:21857,动态:20364,动态:21753,动态:21763,动态:22684,动态:22692,动态:21727,动态:21756,动态:22710,动态:22698,动态:22680,动态:22659,动态:21972,动态:21737,动态:21741,动态:21436,动态:22512,动态:7746,动态:22706,动态:22667,动态:22019,动态:21975,动态:21757,动态:4036,动态:21776,动态:20399,动态:22507,动态:20720,动态:21780,动态:22702,动态:20440,动态:22688,动态:17337,动态:21556,动态:22323,动态:22685</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>动态:20677,动态:19215,动态:10870,动态:9860,动态:11698,动态:20908,动态:19153,动态:19456,动态:15479,动态:22082,动态:19004,动态:6693,动态:17296,动态:9172,动态:12065,动态:15484,动态:22680,动态:20254,动态:16252,动态:7111,动态:14964,动态:20274,动态:13453,动态:15060,动态:8752,动态:19554,动态:21084,动态:8827,动态:11287,动态:13217,动态:15053,动态:9503,动态:12902,动态:13510,动态:11385,动态:15641,动态:19560,动态:13976,动态:19825,动态:16553,动态:19171,动态:3120,动态:17952,动态:11064,动态:16166,动态:13909,动态:20158,动态:22659,动态:21737,动态:17720</t>
+          <t>动态:15624,动态:20064,动态:13548,动态:10923,动态:6610,动态:19834,动态:13289,动态:8819,动态:21857,动态:19036,动态:14675,动态:14683,动态:11996,动态:15950,动态:16571,动态:19653,动态:11452,动态:16609,动态:16389,动态:19727,动态:13814,动态:13917,动态:16110,动态:14900,动态:972,动态:9525,动态:10535,动态:15318,动态:21692,动态:16077,动态:13756,动态:17963,动态:13832,动态:21923,动态:14217,动态:12052,动态:11110,动态:16392,动态:13740,动态:19959,动态:20169,动态:17546,动态:22288,动态:15384,动态:11338,动态:11104,动态:21857,动态:20333,动态:16166,动态:21757</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>动态:11096,动态:17690,动态:5254,动态:19939,动态:21737,动态:9463,动态:15575,动态:14186,动态:12045,动态:17172,动态:7655,动态:4483,动态:18055,动态:12303,动态:19848,动态:10095,动态:15328,动态:22496,动态:11365,动态:13318,动态:19932,动态:6794,动态:12315,动态:22146,动态:21857,动态:21556,动态:21753,动态:21776,动态:22323,动态:21727,动态:21741,动态:22680,动态:22696,动态:22512,动态:20439,动态:20720,动态:20399,动态:21756,动态:22507,动态:17337,动态:22706,动态:21745,动态:22667,动态:22698,动态:21436,动态:7746,动态:4036,动态:22699,动态:21740</t>
+          <t>动态:18933,动态:14675,动态:15291,动态:18506,动态:13129,动态:8573,动态:17755,动态:20451,动态:19577,动态:9148,动态:16857,动态:14967,动态:15638,动态:12962,动态:20664,动态:20345,动态:19908,动态:7740,动态:20016,动态:6794,动态:10684,动态:6362,动态:13802,动态:16617,动态:21357,动态:22323,动态:21753,动态:7746,动态:20439,动态:21857,动态:22698,动态:17337,动态:21436,动态:22667,动态:20399,动态:20440,动态:22706,动态:22685,动态:21756,动态:22688,动态:20720,动态:22680,动态:22659,动态:21556,动态:4036,动态:22512,动态:20364,动态:22019,动态:22146,动态:21727</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>动态:12410,动态:20083,动态:12199,动态:13326,动态:11277,动态:7378,动态:16693,动态:8793,动态:19638,动态:5899,动态:17699,动态:14577,动态:21360,动态:17747,动态:8745,动态:16792,动态:18170,动态:21727,动态:22019,动态:22667,动态:20399,动态:22146,动态:21737,动态:21753,动态:21776,动态:21757,动态:22696,动态:20439,动态:20364,动态:4036,动态:22323,动态:21975,动态:22659,动态:21972,动态:20720,动态:21556,动态:22692,动态:7746,动态:22710,动态:22680,动态:17337,动态:21857,动态:21763,动态:21756,动态:22699,动态:21436,动态:22684,动态:22702,动态:20440,动态:22697</t>
+          <t>动态:685,动态:13689,动态:9795,动态:15999,动态:18331,动态:14410,动态:17625,动态:6755,动态:3714,动态:13794,动态:14356,动态:19541,动态:14111,动态:15957,动态:17265,动态:12899,动态:13775,动态:9049,动态:22696,动态:21737,动态:22685,动态:20440,动态:21727,动态:22680,动态:22697,动态:21753,动态:22684,动态:21740,动态:21780,动态:21556,动态:22702,动态:22698,动态:21436,动态:21741,动态:22659,动态:7746,动态:22512,动态:22507,动态:22323,动态:21757,动态:20399,动态:22688,动态:22146,动态:22706,动态:21857,动态:21975,动态:4036,动态:22699,动态:22692,动态:17337</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>动态:21293,动态:16303,动态:6622,动态:18527,动态:22059,动态:16075,动态:19427,动态:20598,动态:13007,动态:22295,动态:12626,动态:16743,动态:15144,动态:6186,动态:18492,动态:12154,动态:6362,动态:9442,动态:22706,动态:22698,动态:22507,动态:22688,动态:21780,动态:22685,动态:22692,动态:21857,动态:21776,动态:21727,动态:22512,动态:20720,动态:21972,动态:21763,动态:22702,动态:20440,动态:17337,动态:21556,动态:22659,动态:22019,动态:22146,动态:21756,动态:4036,动态:20399,动态:21757,动态:21740,动态:20439,动态:20364,动态:21741,动态:21737,动态:21753,动态:21975</t>
+          <t>动态:9132,动态:11031,动态:10375,动态:19401,动态:19464,动态:11437,动态:15538,动态:20063,动态:14319,动态:14878,动态:19177,动态:13338,动态:7976,动态:14800,动态:19908,动态:12382,动态:17501,动态:18359,动态:22146,动态:21763,动态:21857,动态:22512,动态:22323,动态:21972,动态:7746,动态:21780,动态:22692,动态:20720,动态:21776,动态:22696,动态:21975,动态:21756,动态:22699,动态:21727,动态:22507,动态:21436,动态:22019,动态:22697,动态:20399,动态:22680,动态:22688,动态:20440,动态:22698,动态:20364,动态:21740,动态:22710,动态:20439,动态:21737,动态:22659,动态:21745</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>动态:21532,动态:15201,动态:8610,动态:20719,动态:17250,动态:19423,动态:19373,动态:12816,动态:16077,动态:20339,动态:20376,动态:21115,动态:12892,动态:4419,动态:16062,动态:9286,动态:7059,动态:5877,动态:4036,动态:21975,动态:22688,动态:17337,动态:22697,动态:21727,动态:22019,动态:22680,动态:20720,动态:21740,动态:20440,动态:22507,动态:21745,动态:22698,动态:21757,动态:22696,动态:22512,动态:22692,动态:22706,动态:22699,动态:22684,动态:22659,动态:22702,动态:22685,动态:21737,动态:21753,动态:21763,动态:21436,动态:22710,动态:22667,动态:21741,动态:21556</t>
+          <t>动态:13878,动态:16268,动态:15238,动态:13698,动态:18057,动态:21084,动态:22498,动态:14603,动态:11584,动态:18883,动态:7049,动态:15093,动态:6848,动态:21975,动态:22692,动态:22688,动态:21972,动态:21737,动态:22512,动态:22685,动态:4036,动态:22019,动态:21727,动态:21757,动态:22698,动态:22696,动态:22684,动态:21756,动态:7746,动态:22323,动态:20720,动态:21780,动态:20439,动态:22710,动态:22702,动态:20399,动态:22699,动态:22507,动态:21556,动态:22659,动态:22697,动态:20440,动态:21436,动态:21741,动态:20364,动态:21763,动态:21740,动态:22146,动态:22667,动态:21745</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>动态:14816,动态:7736,动态:10122,动态:12293,动态:15877,动态:14750,动态:22624,动态:12829,动态:15757,动态:17582,动态:9787,动态:11854,动态:17685,动态:18129,动态:17941,动态:19897,动态:14230,动态:19245,动态:22323,动态:21763,动态:21727,动态:22702,动态:22680,动态:4036,动态:21556,动态:20440,动态:21972,动态:7746,动态:21975,动态:21780,动态:22699,动态:22659,动态:21776,动态:20720,动态:22710,动态:22019,动态:22706,动态:22697,动态:21753,动态:22667,动态:21737,动态:22512,动态:20439,动态:22684,动态:21741,动态:22146,动态:21740,动态:22507,动态:22685,动态:21757</t>
+          <t>动态:11583,动态:20479,动态:14354,动态:5574,动态:1271,动态:19230,动态:19453,动态:18509,动态:20439,动态:6595,动态:9234,动态:13218,动态:8167,动态:15681,动态:17512,动态:10604,动态:18466,动态:20184,动态:4432,动态:13319,动态:22323,动态:21727,动态:21763,动态:22680,动态:22019,动态:22697,动态:21780,动态:22659,动态:21745,动态:22685,动态:21436,动态:4036,动态:22684,动态:22696,动态:22706,动态:21975,动态:21776,动态:17337,动态:22507,动态:21556,动态:21757,动态:22698,动态:21972,动态:7746,动态:20364,动态:22667,动态:21857,动态:21737,动态:22692</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>动态:11338,动态:17077,动态:13582,动态:12967,动态:20151,动态:20701,动态:7589,动态:16270,动态:19018,动态:13780,动态:18757,动态:21129,动态:7397,动态:14422,动态:15483,动态:15140,动态:11043,动态:22702,动态:21753,动态:22146,动态:21737,动态:22684,动态:21740,动态:21857,动态:22685,动态:21727,动态:22512,动态:4036,动态:21763,动态:22323,动态:22710,动态:21972,动态:20399,动态:21741,动态:22659,动态:22696,动态:20364,动态:17337,动态:22019,动态:22706,动态:22697,动态:20439,动态:21436,动态:21556,动态:22507,动态:20720,动态:22667,动态:22698,动态:21975,动态:21780</t>
+          <t>动态:13545,动态:15637,动态:22088,动态:21364,动态:13187,动态:14890,动态:6692,动态:17970,动态:11521,动态:19624,动态:9093,动态:7125,动态:20244,动态:14040,动态:11406,动态:12057,动态:9232,动态:19494,动态:3150,动态:6773,动态:7383,动态:21753,动态:21741,动态:22667,动态:21763,动态:20364,动态:21740,动态:21975,动态:21436,动态:17337,动态:22698,动态:21857,动态:21780,动态:21972,动态:21776,动态:21737,动态:22692,动态:22688,动态:22659,动态:22702,动态:20439,动态:22710,动态:21727,动态:21757,动态:22323,动态:22699,动态:22697,动态:21756,动态:22706,动态:20399</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>动态:20677,动态:19753,动态:17582,动态:15913,动态:13998,动态:18600,动态:15146,动态:12416,动态:16166,动态:7477,动态:12060,动态:11786,动态:14800,动态:13775,动态:12315,动态:21727,动态:22697,动态:20399,动态:4036,动态:22512,动态:22667,动态:21745,动态:20440,动态:20364,动态:20439,动态:21857,动态:22684,动态:21737,动态:21741,动态:22019,动态:21740,动态:22702,动态:7746,动态:21753,动态:21763,动态:21975,动态:22680,动态:22323,动态:21757,动态:21556,动态:22710,动态:21756,动态:21436,动态:22699,动态:21780,动态:17337,动态:22696,动态:22698,动态:22659,动态:22688</t>
+          <t>动态:14707,动态:12156,动态:13844,动态:18637,动态:13416,动态:5254,动态:11427,动态:10970,动态:20127,动态:6652,动态:11285,动态:19643,动态:12075,动态:12319,动态:22699,动态:22684,动态:21727,动态:20399,动态:22698,动态:22688,动态:22659,动态:21857,动态:22019,动态:20439,动态:20364,动态:22512,动态:21740,动态:21753,动态:22323,动态:22710,动态:21745,动态:21556,动态:17337,动态:22692,动态:22507,动态:20440,动态:21756,动态:21780,动态:7746,动态:21737,动态:21436,动态:21975,动态:22702,动态:4036,动态:22667,动态:20720,动态:21763,动态:21757,动态:22697,动态:21741</t>
         </is>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>动态:22284,动态:15326,动态:13252,动态:17642,动态:3707,动态:7391,动态:19689,动态:9027,动态:14736,动态:6908,动态:9703,动态:6363,动态:7750,动态:16162,动态:13858,动态:6777,动态:8199,动态:15211,动态:19269,动态:22433,动态:16697,动态:18057,动态:10083,动态:18287,动态:21757,动态:21857,动态:21436,动态:21975,动态:20364,动态:21972,动态:4036,动态:22146,动态:22688,动态:20439,动态:22697,动态:21780,动态:22684,动态:22659,动态:21727,动态:22702,动态:7746,动态:22698,动态:22710,动态:22512,动态:21763,动态:20399,动态:22667,动态:21740,动态:22706,动态:22680</t>
+          <t>动态:17126,动态:10095,动态:12836,动态:21406,动态:18224,动态:21155,动态:10596,动态:18331,动态:17341,动态:17172,动态:15814,动态:13690,动态:18898,动态:11897,动态:6462,动态:11040,动态:22644,动态:16645,动态:21118,动态:14723,动态:10566,动态:16238,动态:4036,动态:21745,动态:22680,动态:20720,动态:22507,动态:21763,动态:22706,动态:22696,动态:22019,动态:21741,动态:21757,动态:20440,动态:22659,动态:22684,动态:22698,动态:21740,动态:20399,动态:17337,动态:21753,动态:21737,动态:22710,动态:21556,动态:22667,动态:21756,动态:21727,动态:22685,动态:22702,动态:21857</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>动态:12111,动态:8621,动态:9552,动态:9040,动态:6606,动态:13682,动态:11014,动态:16068,动态:19632,动态:11458,动态:7153,动态:13858,动态:13062,动态:16580,动态:12639,动态:15483,动态:17351,动态:3102,动态:11264,动态:22696,动态:22019,动态:21436,动态:21741,动态:20399,动态:22698,动态:21857,动态:22710,动态:22685,动态:21776,动态:22680,动态:4036,动态:21556,动态:20440,动态:22146,动态:21737,动态:22706,动态:21753,动态:21975,动态:22659,动态:21757,动态:22697,动态:21780,动态:22507,动态:22684,动态:20439,动态:22667,动态:20364,动态:17337,动态:21727,动态:20720</t>
+          <t>动态:11280,动态:10122,动态:14297,动态:15322,动态:21526,动态:11014,动态:20686,动态:10360,动态:14735,动态:10980,动态:16070,动态:20908,动态:19937,动态:15815,动态:20387,动态:18792,动态:19144,动态:18590,动态:18059,动态:6447,动态:16819,动态:16412,动态:3073,动态:14271,动态:15620,动态:676,动态:11066,动态:17721,动态:21740,动态:22667,动态:22696,动态:22699,动态:22512,动态:21741,动态:22146,动态:21745,动态:22659,动态:22507,动态:22706,动态:22323,动态:21780,动态:22019,动态:20399,动态:21737,动态:21776,动态:21436,动态:17337,动态:22692,动态:21727,动态:21753</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>动态:7122,动态:21959,动态:16929,动态:7004,动态:12156,动态:7790,动态:3120,动态:16223,动态:18506,动态:19655,动态:21966,动态:20502,动态:14203,动态:14514,动态:17340,动态:16268,动态:9411,动态:19810,动态:15955,动态:11090,动态:6593,动态:21367,动态:17739,动态:21740,动态:20115,动态:14809,动态:22431,动态:3178,动态:22692,动态:17337,动态:20440,动态:21757,动态:22697,动态:21763,动态:4036,动态:21556,动态:21756,动态:20720,动态:21753,动态:22667,动态:21857,动态:22696,动态:22698,动态:20399,动态:22507,动态:21776,动态:21780,动态:21975,动态:21737,动态:22680</t>
+          <t>动态:19028,动态:15484,动态:15479,动态:15002,动态:13067,动态:15201,动态:17504,动态:14601,动态:20227,动态:16580,动态:14120,动态:18874,动态:13064,动态:21741,动态:22659,动态:20439,动态:22710,动态:22699,动态:21737,动态:22685,动态:20399,动态:4036,动态:21727,动态:22512,动态:21763,动态:22146,动态:20440,动态:7746,动态:21756,动态:22507,动态:22680,动态:21556,动态:20364,动态:21757,动态:22697,动态:22323,动态:22706,动态:22698,动态:20720,动态:21975,动态:22696,动态:21780,动态:22667,动态:21857,动态:21972,动态:22019,动态:22684,动态:17337,动态:21436,动态:21753</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>动态:6595,动态:1351,动态:16169,动态:21200,动态:7121,动态:22287,动态:15078,动态:20858,动态:11351,动态:22413,动态:22493,动态:4341,动态:7045,动态:6456,动态:10262,动态:21727,动态:21745,动态:21776,动态:22706,动态:22699,动态:21857,动态:22680,动态:21763,动态:20720,动态:21737,动态:21757,动态:21975,动态:20439,动态:7746,动态:22685,动态:22323,动态:21753,动态:22512,动态:21972,动态:22146,动态:22688,动态:22692,动态:22702,动态:22698,动态:20399,动态:22697,动态:21740,动态:20364,动态:21436,动态:22696,动态:21741,动态:22019,动态:22684,动态:21780,动态:22710</t>
+          <t>动态:7121,动态:16564,动态:18822,动态:15920,动态:21482,动态:21928,动态:15923,动态:14811,动态:784,动态:12083,动态:13639,动态:8631,动态:18167,动态:19970,动态:150,动态:22667,动态:20720,动态:22680,动态:7746,动态:22697,动态:21763,动态:22685,动态:22323,动态:20364,动态:17337,动态:22702,动态:22659,动态:22692,动态:21745,动态:20399,动态:21857,动态:21780,动态:20439,动态:21975,动态:22696,动态:21972,动态:22688,动态:22706,动态:22699,动态:22146,动态:21727,动态:22684,动态:21436,动态:4036,动态:21741,动态:21757,动态:21737,动态:21776,动态:21740,动态:20440</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>动态:8773,动态:21229,动态:19171,动态:16582,动态:11100,动态:15684,动态:13534,动态:12374,动态:244,动态:21645,动态:14463,动态:16211,动态:14848,动态:4653,动态:5149,动态:21745,动态:19765,动态:9236,动态:4031,动态:21975,动态:22146,动态:20364,动态:22667,动态:21780,动态:22512,动态:20439,动态:22680,动态:22702,动态:21741,动态:20399,动态:21727,动态:7746,动态:21556,动态:20720,动态:22692,动态:21776,动态:22659,动态:21436,动态:17337,动态:21737,动态:20440,动态:21857,动态:22706,动态:21753,动态:22685,动态:22697,动态:22710,动态:22698,动态:22684</t>
+          <t>动态:13788,动态:11058,动态:12667,动态:6647,动态:10536,动态:9981,动态:22664,动态:20769,动态:15654,动态:14791,动态:20840,动态:11081,动态:12422,动态:15243,动态:12080,动态:16590,动态:13823,动态:13323,动态:17165,动态:16300,动态:621,动态:21556,动态:22512,动态:22684,动态:7746,动态:21756,动态:22146,动态:22698,动态:22659,动态:22692,动态:22323,动态:22680,动态:20720,动态:21753,动态:22710,动态:21727,动态:22696,动态:22699,动态:17337,动态:20439,动态:21436,动态:21972,动态:21757,动态:22706,动态:21745,动态:21737,动态:22702,动态:22507,动态:21776,动态:20399</t>
         </is>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>动态:11104,动态:7847,动态:7885,动态:20926,动态:15600,动态:16036,动态:4497,动态:9483,动态:3453,动态:8011,动态:15280,动态:743,动态:12199,动态:9082,动态:19488,动态:21858,动态:22699,动态:21741,动态:20439,动态:22702,动态:21727,动态:22706,动态:21745,动态:22507,动态:22692,动态:22019,动态:4036,动态:22146,动态:22680,动态:21780,动态:21756,动态:21857,动态:22667,动态:20399,动态:21763,动态:21556,动态:21776,动态:22659,动态:22697,动态:20364,动态:22323,动态:21436,动态:21972,动态:22688,动态:22684,动态:20440,动态:22710,动态:22512,动态:20720,动态:17337</t>
+          <t>动态:4040,动态:18246,动态:10107,动态:2707,动态:6452,动态:20686,动态:12718,动态:16097,动态:11748,动态:3120,动态:9535,动态:10452,动态:21858,动态:21648,动态:22684,动态:21740,动态:21757,动态:22692,动态:21745,动态:21972,动态:22323,动态:22146,动态:21975,动态:21776,动态:22697,动态:20439,动态:21727,动态:21556,动态:22706,动态:21857,动态:22512,动态:22696,动态:4036,动态:7746,动态:22685,动态:20440,动态:21436,动态:20720,动态:22667,动态:22688,动态:22702,动态:20364,动态:21763,动态:17337,动态:22659,动态:20399,动态:22699,动态:22698,动态:22019,动态:22507</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>动态:10073,动态:13998,动态:14794,动态:5206,动态:17097,动态:10711,动态:20747,动态:15987,动态:20686,动态:10993,动态:12828,动态:12334,动态:14963,动态:21095,动态:11750,动态:7121,动态:11783,动态:13413,动态:6865,动态:22688,动态:22659,动态:21753,动态:22680,动态:21436,动态:21975,动态:20364,动态:21737,动态:22019,动态:17337,动态:22512,动态:22706,动态:21763,动态:21741,动态:22684,动态:21757,动态:21740,动态:22685,动态:20720,动态:22702,动态:21745,动态:22698,动态:21556,动态:20399,动态:22667,动态:21727,动态:20440,动态:22699,动态:22692,动态:20439,动态:7746</t>
+          <t>动态:11024,动态:19096,动态:19401,动态:21467,动态:20858,动态:13516,动态:22427,动态:9138,动态:15291,动态:14345,动态:17972,动态:4044,动态:11620,动态:21459,动态:6186,动态:15483,动态:17696,动态:19436,动态:18341,动态:22685,动态:20440,动态:22706,动态:20399,动态:21776,动态:22684,动态:21975,动态:21857,动态:22659,动态:7746,动态:21556,动态:22699,动态:22697,动态:22667,动态:21436,动态:20720,动态:17337,动态:21745,动态:22688,动态:22710,动态:21727,动态:21741,动态:22696,动态:21757,动态:22507,动态:20439,动态:21737,动态:22146,动态:22702,动态:22512,动态:21763</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>动态:17950,动态:21824,动态:20330,动态:17345,动态:18667,动态:15058,动态:7601,动态:20772,动态:8878,动态:7586,动态:16301,动态:11130,动态:16483,动态:13786,动态:21741,动态:20439,动态:21740,动态:22659,动态:21780,动态:4036,动态:21975,动态:21757,动态:21745,动态:22507,动态:20440,动态:21436,动态:20399,动态:22685,动态:20364,动态:22697,动态:21857,动态:21776,动态:22667,动态:22680,动态:22696,动态:17337,动态:22702,动态:22323,动态:22512,动态:21753,动态:21737,动态:21972,动态:22706,动态:22688,动态:22684,动态:7746,动态:20720,动态:22710,动态:22692,动态:21727</t>
+          <t>动态:17769,动态:12844,动态:17972,动态:15948,动态:11167,动态:15190,动态:16602,动态:12080,动态:13794,动态:9785,动态:11748,动态:11469,动态:9986,动态:10570,动态:22688,动态:21745,动态:22680,动态:20364,动态:22698,动态:21975,动态:21776,动态:21740,动态:21436,动态:21972,动态:22710,动态:22323,动态:4036,动态:17337,动态:22507,动态:21763,动态:22696,动态:20439,动态:22667,动态:21727,动态:21757,动态:22685,动态:22692,动态:22697,动态:21857,动态:21780,动态:21737,动态:20720,动态:22699,动态:20440,动态:21753,动态:21741,动态:20399,动态:22512,动态:22659,动态:7746</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>动态:22653,动态:13218,动态:9554,动态:15795,动态:17965,动态:17856,动态:10987,动态:12377,动态:22301,动态:14356,动态:11383,动态:20593,动态:12186,动态:10927,动态:9492,动态:6825,动态:18491,动态:18317,动态:17957,动态:9278,动态:21753,动态:20399,动态:22512,动态:20364,动态:22699,动态:20439,动态:21727,动态:21741,动态:21776,动态:21756,动态:22684,动态:22697,动态:4036,动态:22706,动态:22710,动态:21757,动态:21740,动态:22692,动态:7746,动态:21780,动态:22685,动态:22688,动态:21436,动态:20440,动态:21857,动态:22698,动态:22019,动态:22696,动态:21972,动态:21763</t>
+          <t>动态:9413,动态:8014,动态:10966,动态:12898,动态:6553,动态:6611,动态:22076,动态:11728,动态:21589,动态:10125,动态:14957,动态:243,动态:21824,动态:11577,动态:11505,动态:16826,动态:20139,动态:15061,动态:17960,动态:22692,动态:21753,动态:22702,动态:21436,动态:22697,动态:17337,动态:21780,动态:21745,动态:22512,动态:21756,动态:7746,动态:22706,动态:21741,动态:22680,动态:22507,动态:20399,动态:21763,动态:22688,动态:20440,动态:20364,动态:21776,动态:22710,动态:21857,动态:21727,动态:21975,动态:21757,动态:21972,动态:22146,动态:22699,动态:22685,动态:21740</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>动态:22561,动态:1245,动态:17856,动态:19004,动态:18875,动态:10687,动态:13930,动态:11442,动态:15715,动态:20543,动态:19379,动态:18378,动态:20717,动态:22634,动态:15695,动态:19087,动态:5899,动态:17719,动态:11488,动态:20264,动态:10290,动态:22019,动态:20439,动态:21753,动态:20720,动态:21780,动态:21776,动态:21727,动态:22710,动态:22692,动态:22684,动态:22702,动态:22706,动态:21740,动态:20440,动态:4036,动态:21975,动态:21745,动态:22512,动态:22659,动态:21757,动态:22699,动态:17337,动态:22685,动态:22698,动态:21741,动态:20399,动态:20364,动态:21857,动态:22697</t>
+          <t>动态:11697,动态:17484,动态:9712,动态:18494,动态:14683,动态:10942,动态:13193,动态:15759,动态:10106,动态:16893,动态:14209,动态:4345,动态:22699,动态:6134,动态:11781,动态:17337,动态:21727,动态:22706,动态:21757,动态:20439,动态:22019,动态:22512,动态:21436,动态:20364,动态:22684,动态:4036,动态:21737,动态:22692,动态:21857,动态:22659,动态:21740,动态:22685,动态:20440,动态:22696,动态:22702,动态:22698,动态:21975,动态:22667,动态:22507,动态:22697,动态:21972,动态:21776,动态:7746,动态:22710,动态:21780,动态:21741,动态:20720,动态:21745,动态:22323</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>动态:11804,动态:14408,动态:22085,动态:22242,动态:17972,动态:12417,动态:13516,动态:6693,动态:15304,动态:21928,动态:17690,动态:11551,动态:12287,动态:20741,动态:22042,动态:17314,动态:21757,动态:10165,动态:15963,动态:7976,动态:19446,动态:10429,动态:7186,动态:14244,动态:16929,动态:20720,动态:17337,动态:22512,动态:21745,动态:20364,动态:21741,动态:22323,动态:21727,动态:4036,动态:21740,动态:22659,动态:20440,动态:22699,动态:22680,动态:22697,动态:22684,动态:21776,动态:21857,动态:21780,动态:22146,动态:22688,动态:21436,动态:20399,动态:7746</t>
+          <t>动态:12967,动态:22436,动态:15090,动态:19899,动态:10643,动态:12902,动态:6786,动态:239,动态:13268,动态:11437,动态:22123,动态:21235,动态:1914,动态:15200,动态:16388,动态:17903,动态:17522,动态:3104,动态:20143,动态:3897,动态:13380,动态:17957,动态:19457,动态:17337,动态:22710,动态:21776,动态:20399,动态:22697,动态:22696,动态:22699,动态:22146,动态:22019,动态:21737,动态:21727,动态:21740,动态:22685,动态:22706,动态:21556,动态:21780,动态:21972,动态:22680,动态:4036,动态:7746,动态:22692,动态:20440,动态:22702,动态:20364,动态:21745,动态:22512,动态:22667</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>动态:12240,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:12382,动态:15059,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>动态:20376,动态:16017,动态:11684,动态:20768,动态:6610,动态:11938,动态:16664,动态:17543,动态:17963,动态:14860,动态:19619,动态:17972,动态:21093,动态:3102,动态:19253,动态:12145,动态:11406,动态:18156,动态:7305,动态:13328,动态:20130,动态:17337,动态:22692,动态:22706,动态:22667,动态:21727,动态:4036,动态:21776,动态:7746,动态:21745,动态:21753,动态:22696,动态:22684,动态:22697,动态:22699,动态:21737,动态:21436,动态:22685,动态:20720,动态:21757,动态:21556,动态:22680,动态:21740,动态:20364,动态:21741,动态:22688,动态:21780,动态:21857,动态:20440,动态:22019</t>
+          <t>动态:16912,动态:16580,动态:10599,动态:6610,动态:11811,动态:13746,动态:14570,动态:6615,动态:9461,动态:9552,动态:21723,动态:11602,动态:20442,动态:22657,动态:12017,动态:19189,动态:21484,动态:4180,动态:13816,动态:4027,动态:6897,动态:20005,动态:21737,动态:20399,动态:21727,动态:21556,动态:22685,动态:21741,动态:21972,动态:22507,动态:21745,动态:22696,动态:7746,动态:17337,动态:21776,动态:22698,动态:21436,动态:22688,动态:21753,动态:22512,动态:21740,动态:22684,动态:22667,动态:21857,动态:20440,动态:22019,动态:22699,动态:22697,动态:21757,动态:21780</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>动态:10506,动态:13959,动态:13416,动态:16605,动态:20447,动态:16821,动态:13481,动态:13297,动态:13407,动态:22080,动态:8259,动态:13877,动态:11193,动态:16463,动态:20603,动态:21152,动态:19592,动态:6983,动态:20090,动态:3162,动态:5900,动态:10356,动态:15346,动态:8619,动态:4625,动态:17623,动态:22667,动态:4036,动态:21780,动态:22019,动态:22699,动态:22680,动态:17337,动态:21753,动态:22323,动态:20364,动态:21776,动态:20439,动态:22698,动态:22688,动态:20720,动态:21740,动态:22702,动态:22710,动态:22659,动态:22507,动态:22697,动态:21763,动态:7746,动态:21741</t>
+          <t>动态:14809,动态:11802,动态:13213,动态:15565,动态:21645,动态:17216,动态:11512,动态:18822,动态:16873,动态:6692,动态:13751,动态:8002,动态:13053,动态:17750,动态:20351,动态:20048,动态:19253,动态:15134,动态:6325,动态:10424,动态:1721,动态:5662,动态:16199,动态:19127,动态:21741,动态:22667,动态:20364,动态:22688,动态:22699,动态:22323,动态:22507,动态:21972,动态:22659,动态:22697,动态:22146,动态:21763,动态:22706,动态:22019,动态:20440,动态:21740,动态:21857,动态:21780,动态:22710,动态:22512,动态:4036,动态:22680,动态:22698,动态:20439,动态:21436,动态:21975</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>动态:12673,动态:10107,动态:11623,动态:17081,动态:16912,动态:14679,动态:11281,动态:22346,动态:21073,动态:10135,动态:12816,动态:12308,动态:7734,动态:15238,动态:10475,动态:10242,动态:14441,动态:13537,动态:14642,动态:6025,动态:9442,动态:17625,动态:6449,动态:22697,动态:21756,动态:22667,动态:21753,动态:21763,动态:22680,动态:21975,动态:22692,动态:22685,动态:20720,动态:21757,动态:20440,动态:21436,动态:21780,动态:21776,动态:22512,动态:22698,动态:4036,动态:21556,动态:22659,动态:20364,动态:21740,动态:21972,动态:20439,动态:21745,动态:21741,动态:22684</t>
+          <t>动态:2938,动态:16222,动态:19619,动态:21363,动态:6640,动态:20789,动态:21101,动态:12123,动态:15154,动态:19625,动态:11440,动态:20448,动态:18647,动态:14515,动态:22484,动态:20387,动态:20319,动态:10724,动态:7303,动态:14410,动态:845,动态:4304,动态:11488,动态:20344,动态:13309,动态:16858,动态:12592,动态:22667,动态:22680,动态:21972,动态:21741,动态:22146,动态:22507,动态:21757,动态:21727,动态:22697,动态:4036,动态:22710,动态:21756,动态:21776,动态:22019,动态:22706,动态:21780,动态:21556,动态:21740,动态:22698,动态:20399,动态:17337,动态:22512,动态:22685</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>动态:20821,动态:3449,动态:21321,动态:9015,动态:11568,动态:21854,动态:16212,动态:18673,动态:21938,动态:12881,动态:20258,动态:7530,动态:22113,动态:16929,动态:15659,动态:7374,动态:4180,动态:17507,动态:20017,动态:10604,动态:21763,动态:4036,动态:21757,动态:22702,动态:21727,动态:20720,动态:21780,动态:22507,动态:22146,动态:22659,动态:22697,动态:22019,动态:20439,动态:21745,动态:22684,动态:22692,动态:21975,动态:20399,动态:22667,动态:22699,动态:22696,动态:21556,动态:22688,动态:22706,动态:22680,动态:17337,动态:21857,动态:21737,动态:21972,动态:20364</t>
+          <t>动态:18168,动态:21854,动态:20734,动态:9214,动态:17755,动态:20268,动态:15711,动态:8002,动态:21022,动态:10754,动态:22311,动态:15151,动态:15935,动态:19751,动态:10490,动态:7025,动态:6894,动态:14502,动态:5149,动态:13790,动态:17501,动态:6500,动态:18376,动态:22699,动态:21776,动态:20440,动态:21763,动态:22706,动态:21857,动态:21727,动态:22507,动态:22697,动态:22692,动态:22688,动态:22323,动态:22685,动态:22512,动态:20439,动态:21757,动态:21556,动态:22146,动态:21780,动态:21975,动态:22702,动态:21740,动态:17337,动态:20364,动态:22696,动态:21741,动态:21753</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>动态:20677,动态:13637,动态:22085,动态:6596,动态:17898,动态:14813,动态:20332,动态:17122,动态:9479,动态:15499,动态:7121,动态:12828,动态:17720,动态:22604,动态:14191,动态:20549,动态:19028,动态:6757,动态:21881,动态:16199,动态:3119,动态:20368,动态:19436,动态:13298,动态:20399,动态:20364,动态:22146,动态:22692,动态:22323,动态:21763,动态:22702,动态:22698,动态:22507,动态:21776,动态:20440,动态:21972,动态:21780,动态:21436,动态:21741,动态:22667,动态:7746,动态:22680,动态:21757,动态:17337,动态:22706,动态:21737,动态:21745,动态:21975,动态:22699,动态:21740</t>
+          <t>动态:19809,动态:19883,动态:20669,动态:18527,动态:9788,动态:17537,动态:22381,动态:12011,动态:21049,动态:11093,动态:16571,动态:19486,动态:10475,动态:17694,动态:13134,动态:14426,动态:11885,动态:4419,动态:10567,动态:16261,动态:20439,动态:21776,动态:21556,动态:22667,动态:20720,动态:21753,动态:22706,动态:20440,动态:22684,动态:17337,动态:22692,动态:21757,动态:22146,动态:22680,动态:21740,动态:21857,动态:4036,动态:22688,动态:7746,动态:22699,动态:21975,动态:21972,动态:20399,动态:22507,动态:22710,动态:22698,动态:22659,动态:21763,动态:21780,动态:21741</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>动态:10534,动态:11569,动态:19491,动态:15940,动态:16166,动态:22702,动态:22710,动态:21737,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:14241,动态:22702,动态:22710,动态:21737,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>动态:12089,动态:18308,动态:19847,动态:10553,动态:14019,动态:17689,动态:18158,动态:20271,动态:16002,动态:6858,动态:9919,动态:22646,动态:19733,动态:11471,动态:12065,动态:20502,动态:13872,动态:11192,动态:19446,动态:14829,动态:7045,动态:11503,动态:13838,动态:5830,动态:21648,动态:19623,动态:13332,动态:15095,动态:781,动态:4036,动态:22019,动态:20720,动态:22697,动态:21745,动态:21756,动态:21776,动态:7746,动态:17337,动态:20440,动态:21972,动态:21975,动态:22684,动态:20439,动态:21763,动态:22692,动态:22507,动态:21556,动态:20399,动态:22685,动态:21436</t>
+          <t>动态:17747,动态:10535,动态:14050,动态:12427,动态:6317,动态:13317,动态:10601,动态:11574,动态:12845,动态:13745,动态:22688,动态:12338,动态:21928,动态:12690,动态:13884,动态:19230,动态:9307,动态:8082,动态:20016,动态:8752,动态:13869,动态:1912,动态:19723,动态:14003,动态:3142,动态:11320,动态:14809,动态:16766,动态:13082,动态:21645,动态:22702,动态:21556,动态:21857,动态:21741,动态:21756,动态:22685,动态:21745,动态:21763,动态:4036,动态:21776,动态:21753,动态:22680,动态:20439,动态:21757,动态:22697,动态:22684,动态:22698,动态:21975,动态:22659,动态:21727</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>动态:8920,动态:17321,动态:15545,动态:19593,动态:15381,动态:12369,动态:13381,动态:11380,动态:13412,动态:18308,动态:9936,动态:15916,动态:9286,动态:14214,动态:13200,动态:18651,动态:10017,动态:9158,动态:16829,动态:10935,动态:6821,动态:21780,动态:21972,动态:21740,动态:21727,动态:22512,动态:22699,动态:22685,动态:22706,动态:22697,动态:7746,动态:20720,动态:22702,动态:22667,动态:22680,动态:21857,动态:21753,动态:22698,动态:22146,动态:22688,动态:21436,动态:20439,动态:17337,动态:20440,动态:22684,动态:4036,动态:21556,动态:22659,动态:20364,动态:21745</t>
+          <t>动态:16912,动态:21004,动态:22042,动态:11490,动态:20227,动态:19769,动态:8662,动态:11307,动态:20168,动态:14147,动态:10557,动态:16907,动态:15895,动态:8474,动态:12326,动态:13692,动态:18331,动态:3142,动态:18322,动态:19833,动态:20090,动态:22680,动态:4036,动态:22512,动态:17337,动态:21745,动态:22667,动态:20440,动态:22697,动态:22323,动态:22706,动态:21741,动态:21780,动态:22146,动态:7746,动态:22698,动态:21740,动态:22688,动态:20399,动态:22019,动态:22659,动态:21436,动态:21857,动态:22702,动态:22692,动态:20439,动态:22507,动态:21753,动态:21556,动态:20720</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>动态:13339,动态:20329,动态:9184,动态:12643,动态:16388,动态:17323,动态:11396,动态:14724,动态:15932,动态:16308,动态:22702,动态:20618,动态:19371,动态:6606,动态:155,动态:12895,动态:21858,动态:3705,动态:10087,动态:16874,动态:14422,动态:21857,动态:21776,动态:21763,动态:22697,动态:21745,动态:7746,动态:20439,动态:21741,动态:22706,动态:22019,动态:22710,动态:20364,动态:21740,动态:22323,动态:21753,动态:20440,动态:21436,动态:21757,动态:22688,动态:21972,动态:22692,动态:4036,动态:22684,动态:17337,动态:22507,动态:22667,动态:20399,动态:21975</t>
+          <t>动态:15773,动态:11053,动态:15157,动态:16389,动态:18654,动态:7513,动态:19614,动态:6593,动态:19792,动态:13919,动态:13147,动态:11633,动态:13791,动态:5010,动态:12332,动态:7123,动态:21858,动态:20345,动态:22667,动态:17337,动态:22702,动态:22697,动态:22680,动态:22323,动态:22684,动态:22699,动态:20440,动态:22019,动态:21757,动态:21741,动态:22685,动态:21763,动态:21857,动态:4036,动态:22659,动态:21436,动态:22706,动态:21556,动态:21972,动态:21727,动态:21740,动态:22688,动态:20439,动态:22692,动态:21745,动态:21753,动态:20399,动态:20720,动态:21780,动态:22146</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>动态:20740,动态:244,动态:13049,动态:22242,动态:16568,动态:8586,动态:21364,动态:11690,动态:11692,动态:11563,动态:9786,动态:20502,动态:12813,动态:16211,动态:16874,动态:19759,动态:11154,动态:20273,动态:6853,动态:19494,动态:8231,动态:20364,动态:21753,动态:22702,动态:21756,动态:22699,动态:22710,动态:21763,动态:21780,动态:21857,动态:17337,动态:20440,动态:22688,动态:22685,动态:4036,动态:21972,动态:21741,动态:20720,动态:22696,动态:21727,动态:22698,动态:21740,动态:20399,动态:21757,动态:22507,动态:7746,动态:21776,动态:21436,动态:22019,动态:22323</t>
+          <t>动态:21474,动态:10095,动态:16687,动态:14050,动态:11388,动态:21707,动态:16697,动态:18085,动态:21317,动态:19376,动态:16302,动态:13884,动态:21785,动态:19547,动态:17941,动态:15711,动态:18647,动态:11064,动态:12365,动态:16693,动态:12410,动态:9463,动态:9791,动态:14003,动态:20189,动态:5403,动态:8892,动态:8603,动态:6086,动态:9158,动态:12372,动态:22702,动态:21756,动态:21857,动态:17337,动态:21757,动态:20364,动态:22688,动态:21737,动态:22507,动态:20720,动态:20440,动态:22659,动态:21780,动态:22680,动态:21436,动态:4036,动态:21972,动态:21776,动态:20439</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>动态:10476,动态:20328,动态:9001,动态:14273,动态:5153,动态:19448,动态:21357,动态:5896,动态:20065,动态:7145,动态:14076,动态:19494,动态:1797,动态:13820,动态:14736,动态:15471,动态:15999,动态:6819,动态:6662,动态:150,动态:11154,动态:14158,动态:13816,动态:15326,动态:13054,动态:11444,动态:14640,动态:13329,动态:8681,动态:10262,动态:10684,动态:19932,动态:10074,动态:19350,动态:6456,动态:10549,动态:17408,动态:9349,动态:18740,动态:6463,动态:14465,动态:17700,动态:7368,动态:11156,动态:12307,动态:21436,动态:21753,动态:16064,动态:14583,动态:21556</t>
+          <t>动态:21965,动态:16878,动态:11063,动态:19908,动态:19496,动态:7388,动态:11113,动态:19649,动态:15134,动态:6906,动态:13402,动态:14752,动态:10955,动态:15627,动态:13134,动态:10567,动态:11265,动态:13089,动态:20997,动态:19659,动态:13415,动态:22707,动态:19255,动态:7124,动态:17231,动态:15473,动态:9476,动态:4512,动态:11156,动态:769,动态:5899,动态:9093,动态:21359,动态:4815,动态:13591,动态:4632,动态:6825,动态:18359,动态:5603,动态:9155,动态:6578,动态:4345,动态:14006,动态:9478,动态:12411,动态:21763,动态:22097,动态:21309,动态:10009,动态:21756</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>动态:15056,动态:13868,动态:22130,动态:12324,动态:3251,动态:19749,动态:21125,动态:22113,动态:11558,动态:22657,动态:10928,动态:19170,动态:19941,动态:11870,动态:19219,动态:17977,动态:769,动态:18491,动态:7148,动态:19006,动态:22696,动态:22699,动态:21753,动态:22702,动态:20440,动态:21727,动态:21780,动态:21740,动态:22507,动态:4036,动态:7746,动态:21757,动态:21975,动态:20720,动态:22512,动态:21756,动态:22710,动态:22688,动态:22706,动态:21556,动态:22323,动态:21763,动态:22698,动态:21741,动态:22680,动态:17337,动态:20439,动态:22019,动态:22697,动态:22667</t>
+          <t>动态:21106,动态:19037,动态:17970,动态:3117,动态:21003,动态:11258,动态:20734,动态:13136,动态:6553,动态:16893,动态:21166,动态:10971,动态:12904,动态:15127,动态:21095,动态:4042,动态:20616,动态:19755,动态:22679,动态:20525,动态:15669,动态:18984,动态:17642,动态:6869,动态:11459,动态:21857,动态:22512,动态:21753,动态:21763,动态:21741,动态:22706,动态:22702,动态:4036,动态:21727,动态:7746,动态:22667,动态:20439,动态:22659,动态:22684,动态:17337,动态:22019,动态:20399,动态:22692,动态:21776,动态:21556,动态:20364,动态:21975,动态:21972,动态:21757,动态:21756</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>动态:6683,动态:9488,动态:3120,动态:22501,动态:5778,动态:7226,动态:21659,动态:21103,动态:22400,动态:5385,动态:11599,动态:20152,动态:14764,动态:19599,动态:20840,动态:10165,动态:11280,动态:21753,动态:20264,动态:12059,动态:20839,动态:14284,动态:12379,动态:20720,动态:21763,动态:22667,动态:4036,动态:17337,动态:22697,动态:22680,动态:22685,动态:20364,动态:22710,动态:7746,动态:22696,动态:22507,动态:22512,动态:22146,动态:21756,动态:20440,动态:22659,动态:20439,动态:21741,动态:21857,动态:22699,动态:20399,动态:22698,动态:21757,动态:22688</t>
+          <t>动态:9411,动态:16853,动态:8002,动态:11967,动态:18771,动态:17963,动态:16050,动态:18085,动态:7751,动态:15627,动态:9354,动态:13214,动态:21928,动态:11452,动态:9337,动态:18608,动态:15955,动态:8167,动态:17168,动态:22661,动态:6761,动态:4522,动态:21756,动态:22512,动态:22699,动态:22146,动态:4036,动态:17337,动态:21556,动态:20440,动态:21741,动态:21757,动态:21753,动态:21776,动态:21436,动态:22680,动态:22507,动态:20439,动态:21857,动态:22688,动态:20364,动态:21975,动态:22684,动态:22698,动态:22697,动态:22019,动态:22692,动态:22685,动态:21737,动态:20720</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>动态:6891,动态:17693,动态:11147,动态:21451,动态:10922,动态:18331,动态:4432,动态:13131,动态:19485,动态:9376,动态:6643,动态:10774,动态:11467,动态:15805,动态:15793,动态:20259,动态:20012,动态:16817,动态:15953,动态:17345,动态:20473,动态:4027,动态:11610,动态:11192,动态:11660,动态:21740,动态:21737,动态:21556,动态:22706,动态:22710,动态:22699,动态:22680,动态:22667,动态:20399,动态:22512,动态:22702,动态:20439,动态:21757,动态:21727,动态:4036,动态:21975,动态:22698,动态:21741,动态:21780,动态:22146,动态:21857,动态:22697,动态:22323,动态:22685,动态:22019</t>
+          <t>动态:15636,动态:7131,动态:16263,动态:20337,动态:20152,动态:19829,动态:15940,动态:13982,动态:21885,动态:20803,动态:12614,动态:19643,动态:21200,动态:10116,动态:3178,动态:21776,动态:21857,动态:22696,动态:22698,动态:22685,动态:21436,动态:21972,动态:20439,动态:22688,动态:22697,动态:20364,动态:20720,动态:21780,动态:21757,动态:21740,动态:22512,动态:22659,动态:22702,动态:4036,动态:22684,动态:21975,动态:21753,动态:22507,动态:22323,动态:22667,动态:22146,动态:22710,动态:21763,动态:22706,动态:22680,动态:7746,动态:21737,动态:21741,动态:22692,动态:21727</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>动态:7349,动态:21101,动态:779,动态:22118,动态:14084,动态:16068,动态:12368,动态:12844,动态:19446,动态:11094,动态:15336,动态:7739,动态:10603,动态:20273,动态:6777,动态:12186,动态:1368,动态:21459,动态:21737,动态:21763,动态:22698,动态:21753,动态:21857,动态:21975,动态:4036,动态:21436,动态:22667,动态:22512,动态:22680,动态:22692,动态:21780,动态:22697,动态:17337,动态:22146,动态:22659,动态:20439,动态:21741,动态:21745,动态:22685,动态:20720,动态:21556,动态:20364,动态:22696,动态:22688,动态:21740,动态:22702,动态:22710,动态:22684,动态:22323,动态:21756</t>
+          <t>动态:19128,动态:6894,动态:13698,动态:9409,动态:13501,动态:21249,动态:17127,动态:20200,动态:17522,动态:16617,动态:10926,动态:16819,动态:6679,动态:19959,动态:21180,动态:12058,动态:21857,动态:21745,动态:22323,动态:21757,动态:22684,动态:21975,动态:20440,动态:22688,动态:22019,动态:20399,动态:21776,动态:22692,动态:22659,动态:21556,动态:22698,动态:20439,动态:4036,动态:21763,动态:22699,动态:21753,动态:21780,动态:7746,动态:17337,动态:21740,动态:22507,动态:22685,动态:21727,动态:21741,动态:21756,动态:20720,动态:22702,动态:22680,动态:21972,动态:22667</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>动态:13884,动态:9527,动态:8515,动态:8769,动态:15545,动态:22503,动态:22698,动态:20520,动态:19511,动态:17562,动态:22659,动态:17723,动态:9738,动态:22059,动态:18273,动态:11023,动态:17592,动态:18056,动态:16097,动态:13689,动态:16697,动态:10557,动态:14132,动态:11079,动态:21753,动态:21972,动态:22692,动态:22323,动态:22697,动态:22684,动态:20440,动态:22507,动态:22512,动态:20399,动态:22688,动态:21727,动态:22685,动态:21436,动态:21975,动态:17337,动态:7746,动态:21780,动态:21741,动态:22146,动态:21737,动态:21763,动态:20364,动态:20720,动态:22702</t>
+          <t>动态:22301,动态:8621,动态:18276,动态:22468,动态:3138,动态:15692,动态:22624,动态:18619,动态:10754,动态:19170,动态:16106,动态:17205,动态:19751,动态:20531,动态:682,动态:17966,动态:15521,动态:9411,动态:12075,动态:6135,动态:12353,动态:18898,动态:15267,动态:7746,动态:22323,动态:22698,动态:4036,动态:21776,动态:22667,动态:22685,动态:20439,动态:22659,动态:22512,动态:21857,动态:21737,动态:22680,动态:21745,动态:21556,动态:22706,动态:22146,动态:22699,动态:21972,动态:20399,动态:22507,动态:22692,动态:21763,动态:21756,动态:21975,动态:22710,动态:21753</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>动态:13213,动态:14697,动态:12925,动态:13455,动态:22488,动态:10846,动态:6754,动态:11777,动态:15862,动态:13602,动态:15681,动态:21577,动态:19656,动态:14547,动态:20994,动态:20106,动态:19126,动态:9800,动态:14805,动态:14972,动态:13782,动态:10981,动态:12019,动态:16300,动态:20364,动态:21780,动态:21757,动态:22507,动态:22685,动态:22146,动态:4036,动态:22696,动态:22684,动态:21756,动态:22667,动态:17337,动态:21975,动态:22019,动态:22698,动态:22699,动态:22706,动态:21727,动态:21740,动态:22659,动态:22710,动态:22688,动态:22512,动态:21753,动态:22680,动态:21972</t>
+          <t>动态:15795,动态:789,动态:22604,动态:14695,动态:17147,动态:9890,动态:15113,动态:11942,动态:14215,动态:16838,动态:16719,动态:16358,动态:12917,动态:11331,动态:13132,动态:12936,动态:3738,动态:19024,动态:20064,动态:6898,动态:9766,动态:16294,动态:12587,动态:6361,动态:19838,动态:16191,动态:11059,动态:18376,动态:22146,动态:21741,动态:17337,动态:21763,动态:22680,动态:20440,动态:20439,动态:22685,动态:22710,动态:21975,动态:22692,动态:22507,动态:22706,动态:21757,动态:20364,动态:22699,动态:22684,动态:20720,动态:22667,动态:21756,动态:21727,动态:22659</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>动态:3814,动态:11177,动态:12012,动态:11645,动态:15698,动态:22096,动态:14051,动态:4306,动态:8257,动态:22375,动态:6549,动态:6902,动态:10482,动态:18844,动态:11128,动态:17337,动态:20439,动态:21757,动态:22702,动态:22659,动态:22512,动态:22667,动态:21745,动态:22696,动态:21756,动态:22019,动态:20440,动态:20720,动态:21975,动态:7746,动态:21857,动态:21741,动态:22685,动态:22680,动态:21740,动态:22692,动态:22323,动态:4036,动态:22684,动态:22697,动态:21753,动态:21780,动态:21556,动态:22706,动态:22507,动态:22710,动态:22146,动态:22698,动态:20364,动态:20399</t>
+          <t>动态:19516,动态:12583,动态:11116,动态:19792,动态:17392,动态:12667,动态:15698,动态:14570,动态:8940,动态:11469,动态:11184,动态:11750,动态:20905,动态:15037,动态:12293,动态:10932,动态:12645,动态:5829,动态:7040,动态:19838,动态:21780,动态:7383,动态:21753,动态:7746,动态:22697,动态:21436,动态:21741,动态:21740,动态:21763,动态:21737,动态:21727,动态:21556,动态:22680,动态:20399,动态:17337,动态:22659,动态:22146,动态:21757,动态:4036,动态:22699,动态:21857,动态:22692,动态:22512,动态:21975,动态:20439,动态:21745,动态:22019,动态:22684,动态:20720,动态:22696</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>动态:231,动态:3126,动态:3175,动态:3098,动态:3090,动态:3102,动态:3128,动态:18852,动态:17581,动态:3172,动态:11131,动态:676,动态:6906,动态:3122,动态:7124,动态:15140,动态:3142,动态:3156,动态:3078,动态:3144,动态:18158,动态:14636,动态:13289,动态:19467,动态:20230,动态:3111,动态:12780,动态:3072,动态:9183,动态:10698,动态:21756,动态:21975,动态:20439,动态:7746,动态:22684,动态:21737,动态:22512,动态:21556,动态:22710,动态:4036,动态:22659,动态:21727,动态:22692,动态:21745,动态:22019,动态:17337,动态:22667,动态:21780,动态:22706,动态:22699</t>
+          <t>动态:15659,动态:5778,动态:3172,动态:19847,动态:3144,动态:3126,动态:3098,动态:3102,动态:3122,动态:676,动态:231,动态:3128,动态:3078,动态:3090,动态:3142,动态:3175,动态:3156,动态:12317,动态:17265,动态:10976,动态:12045,动态:10071,动态:20636,动态:6831,动态:18462,动态:15702,动态:9150,动态:17575,动态:20772,动态:16648,动态:6606,动态:22634,动态:10724,动态:13734,动态:22702,动态:21857,动态:22684,动态:20399,动态:21780,动态:22688,动态:21763,动态:21756,动态:4036,动态:22699,动态:21745,动态:17337,动态:21972,动态:22146,动态:21975,动态:20720</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>动态:18804,动态:17952,动态:12313,动态:18506,动态:16740,动态:11331,动态:16802,动态:17060,动态:11078,动态:15006,动态:15868,动态:6479,动态:13284,动态:12774,动态:10968,动态:9163,动态:20640,动态:9499,动态:11062,动态:9479,动态:6820,动态:22506,动态:8168,动态:11523,动态:9239,动态:7171,动态:19554,动态:20105,动态:11538,动态:15565,动态:11193,动态:13455,动态:18246,动态:9376,动态:17481,动态:21436,动态:17304,动态:15712,动态:13971,动态:16050,动态:20937,动态:12394,动态:20316,动态:3415,动态:20066,动态:10942,动态:21975,动态:734,动态:13584,动态:19608</t>
+          <t>动态:15637,动态:11807,动态:21526,动态:17321,动态:18956,动态:16003,动态:9214,动态:11014,动态:21422,动态:17313,动态:1742,动态:17575,动态:20520,动态:14248,动态:17400,动态:11678,动态:10698,动态:13875,动态:20511,动态:20242,动态:13249,动态:7133,动态:22316,动态:13243,动态:21536,动态:8629,动态:20645,动态:14058,动态:11390,动态:21960,动态:16186,动态:13198,动态:8573,动态:16222,动态:12364,动态:8293,动态:20680,动态:241,动态:21057,动态:8621,动态:13201,动态:14603,动态:13081,动态:20978,动态:15709,动态:21727,动态:22696,动态:22702,动态:7587,动态:12325</t>
         </is>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>动态:20200,动态:5010,动态:17757,动态:13374,动态:15742,动态:17343,动态:16717,动态:9482,动态:13501,动态:14732,动态:12737,动态:19990,动态:17949,动态:12317,动态:17443,动态:15620,动态:19045,动态:22113,动态:20440,动态:22685,动态:22323,动态:22680,动态:21740,动态:21436,动态:20364,动态:20439,动态:22706,动态:21776,动态:20720,动态:21745,动态:17337,动态:21737,动态:21756,动态:22692,动态:22684,动态:21975,动态:22697,动态:22710,动态:21556,动态:21857,动态:7746,动态:22702,动态:22659,动态:22507,动态:22688,动态:22667,动态:22699,动态:22019,动态:20399,动态:21727</t>
+          <t>动态:13676,动态:13623,动态:21719,动态:693,动态:21717,动态:20672,动态:20994,动态:19629,动态:21975,动态:16793,动态:4993,动态:10980,动态:12985,动态:20660,动态:4786,动态:13816,动态:17726,动态:7784,动态:4044,动态:16191,动态:19826,动态:18308,动态:15304,动态:21745,动态:22659,动态:21972,动态:20439,动态:22685,动态:22710,动态:22667,动态:22019,动态:22696,动态:22692,动态:22146,动态:21756,动态:21776,动态:21556,动态:21436,动态:21753,动态:17337,动态:20399,动态:21740,动态:20440,动态:22699,动态:21737,动态:22680,动态:21763,动态:7746,动态:22698</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>动态:13631,动态:14524,动态:6455,动态:16255,动态:19293,动态:1299,动态:16048,动态:13053,动态:9783,动态:13082,动态:8115,动态:7043,动态:9461,动态:11158,动态:18163,动态:7734,动态:19615,动态:8177,动态:18161,动态:11374,动态:14583,动态:19895,动态:7356,动态:4304,动态:10553,动态:21740,动态:21972,动态:22692,动态:22688,动态:22667,动态:17337,动态:20720,动态:22702,动态:22507,动态:4036,动态:21757,动态:20364,动态:20399,动态:21741,动态:7746,动态:21857,动态:21763,动态:21975,动态:22696,动态:22699,动态:22697,动态:22146,动态:21727,动态:21776,动态:22706</t>
+          <t>动态:12111,动态:11340,动态:21197,动态:22625,动态:22184,动态:16368,动态:19208,动态:19624,动态:13523,动态:15531,动态:19991,动态:21235,动态:17917,动态:20109,动态:14583,动态:8962,动态:13692,动态:8292,动态:21239,动态:6517,动态:6026,动态:11293,动态:21740,动态:22710,动态:20440,动态:22323,动态:21741,动态:4036,动态:21975,动态:22699,动态:21436,动态:21556,动态:20399,动态:20720,动态:21763,动态:21756,动态:22684,动态:21972,动态:22706,动态:21727,动态:21745,动态:21776,动态:22688,动态:17337,动态:7746,动态:22146,动态:22507,动态:21737,动态:21757,动态:22702</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>动态:7608,动态:15656,动态:4625,动态:18497,动态:9477,动态:19282,动态:18694,动态:6636,动态:13007,动态:22488,动态:7386,动态:19939,动态:13212,动态:6618,动态:15679,动态:22199,动态:19356,动态:19728,动态:15869,动态:22684,动态:20399,动态:21763,动态:21756,动态:21776,动态:21757,动态:21972,动态:7746,动态:22692,动态:22710,动态:21436,动态:22688,动态:21727,动态:22702,动态:22706,动态:21857,动态:22507,动态:22685,动态:21780,动态:22323,动态:22512,动态:22696,动态:22659,动态:22146,动态:21753,动态:22698,动态:17337,动态:20364,动态:21975,动态:22680,动态:21737</t>
+          <t>动态:12315,动态:9291,动态:10389,动态:21094,动态:16891,动态:19170,动态:16553,动态:16264,动态:8935,动态:9204,动态:15923,动态:21532,动态:15858,动态:18224,动态:4993,动态:14900,动态:22507,动态:21741,动态:21753,动态:21763,动态:21780,动态:22019,动态:21556,动态:21436,动态:21757,动态:22667,动态:22702,动态:21972,动态:20399,动态:22680,动态:21975,动态:20439,动态:22692,动态:22323,动态:21756,动态:4036,动态:22688,动态:17337,动态:22659,动态:21737,动态:21776,动态:21727,动态:22706,动态:21857,动态:22146,动态:22710,动态:7746,动态:22697,动态:22698,动态:20364</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>动态:14517,动态:14813,动态:4023,动态:2694,动态:7458,动态:8596,动态:15150,动态:17566,动态:20358,动态:12017,动态:17685,动态:20926,动态:14686,动态:6638,动态:12849,动态:11814,动态:8128,动态:19722,动态:11138,动态:13051,动态:6889,动态:13907,动态:12346,动态:7826,动态:21780,动态:22699,动态:20364,动态:22702,动态:21975,动态:21741,动态:4036,动态:22706,动态:21756,动态:21763,动态:17337,动态:22146,动态:21757,动态:22512,动态:22667,动态:20399,动态:22680,动态:21776,动态:22507,动态:22019,动态:20720,动态:22710,动态:22659,动态:21753,动态:20440,动态:7746</t>
+          <t>动态:6608,动态:13218,动态:17847,动态:19593,动态:20521,动态:12303,动态:13886,动态:10687,动态:10073,动态:22114,动态:10914,动态:14675,动态:12567,动态:19127,动态:621,动态:15222,动态:6755,动态:20130,动态:4303,动态:7405,动态:16853,动态:22688,动态:22710,动态:21756,动态:22323,动态:20399,动态:21745,动态:21972,动态:4036,动态:21740,动态:21776,动态:22659,动态:21753,动态:20364,动态:22699,动态:21857,动态:20720,动态:21741,动态:22146,动态:22692,动态:21556,动态:20439,动态:20440,动态:22680,动态:22019,动态:7746,动态:22684,动态:22696,动态:22512,动态:22698</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>动态:21965,动态:15493,动态:10974,动态:11474,动态:8746,动态:14658,动态:20906,动态:20622,动态:9428,动态:19808,动态:13697,动态:18855,动态:15735,动态:7838,动态:11265,动态:19745,动态:18273,动态:7400,动态:6842,动态:22684,动态:22146,动态:22507,动态:21975,动态:21753,动态:22699,动态:7746,动态:20364,动态:22659,动态:17337,动态:21740,动态:21757,动态:22702,动态:22697,动态:22685,动态:21776,动态:22680,动态:22019,动态:20720,动态:21857,动态:22696,动态:20439,动态:20440,动态:21756,动态:21780,动态:22692,动态:21763,动态:21556,动态:22667,动态:22512,动态:22698</t>
+          <t>动态:6884,动态:9416,动态:15240,动态:6786,动态:10122,动态:15956,动态:19503,动态:20021,动态:15304,动态:15888,动态:13844,动态:20266,动态:14290,动态:18129,动态:18168,动态:11897,动态:14547,动态:3874,动态:4181,动态:17231,动态:22684,动态:21857,动态:20720,动态:21745,动态:21756,动态:22699,动态:20364,动态:21776,动态:22680,动态:22507,动态:22685,动态:21972,动态:20439,动态:21757,动态:4036,动态:22659,动态:22702,动态:20440,动态:22667,动态:22692,动态:22146,动态:21556,动态:21763,动态:22512,动态:21727,动态:22696,动态:21753,动态:22697,动态:21436,动态:7746</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>动态:14545,动态:20793,动态:15534,动态:18506,动态:15868,动态:22252,动态:19401,动态:19606,动态:8245,动态:11585,动态:18612,动态:21642,动态:6957,动态:8174,动态:18994,动态:19203,动态:14076,动态:10614,动态:8873,动态:6542,动态:13816,动态:19287,动态:21857,动态:22696,动态:21763,动态:22710,动态:22698,动态:21741,动态:20439,动态:7746,动态:22512,动态:21972,动态:21740,动态:21756,动态:21436,动态:22688,动态:22706,动态:22146,动态:21737,动态:22692,动态:21776,动态:22684,动态:21975,动态:17337,动态:21757,动态:21753,动态:21780,动态:22667,动态:21556,动态:22323</t>
+          <t>动态:685,动态:22667,动态:18368,动态:15089,动态:743,动态:18285,动态:15752,动态:10349,动态:8625,动态:12883,动态:15314,动态:11782,动态:5233,动态:8701,动态:10406,动态:18491,动态:7380,动态:6840,动态:20238,动态:5407,动态:22698,动态:20364,动态:21763,动态:21972,动态:21857,动态:21756,动态:21740,动态:21745,动态:22688,动态:21556,动态:21737,动态:22685,动态:22019,动态:20399,动态:7746,动态:20720,动态:22680,动态:22696,动态:17337,动态:21753,动态:22706,动态:22146,动态:21776,动态:21975,动态:21780,动态:21436,动态:4036,动态:22692,动态:22507,动态:21741</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>动态:12849,动态:12364,动态:17972,动态:21727,动态:20789,动态:8569,动态:17856,动态:3584,动态:11564,动态:13602,动态:12639,动态:9133,动态:10106,动态:789,动态:18279,动态:12273,动态:6086,动态:13033,动态:17573,动态:8685,动态:21857,动态:21741,动态:20399,动态:22507,动态:21975,动态:20364,动态:21756,动态:7746,动态:17337,动态:22667,动态:21436,动态:21745,动态:22696,动态:4036,动态:21780,动态:22323,动态:22680,动态:20720,动态:22697,动态:21753,动态:22019,动态:22699,动态:21763,动态:22512,动态:21737,动态:22659,动态:22698,动态:22710,动态:21556</t>
+          <t>动态:14809,动态:17574,动态:6655,动态:3249,动态:13499,动态:22489,动态:20115,动态:13152,动态:12429,动态:10416,动态:4968,动态:11360,动态:9798,动态:21288,动态:20496,动态:8878,动态:8010,动态:22281,动态:17122,动态:16890,动态:12009,动态:20568,动态:14921,动态:14290,动态:4181,动态:18994,动态:12067,动态:18844,动态:3172,动态:15617,动态:21740,动态:21737,动态:22146,动态:22667,动态:21756,动态:22698,动态:21741,动态:21556,动态:20440,动态:22684,动态:17337,动态:4036,动态:21753,动态:21727,动态:22019,动态:21857,动态:22697,动态:20439,动态:22699,动态:21745</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>动态:6905,动态:17730,动态:21675,动态:22650,动态:6626,动态:10135,动态:12017,动态:6601,动态:19859,动态:22301,动态:17122,动态:6688,动态:6679,动态:6680,动态:3150,动态:6294,动态:20525,动态:17956,动态:11781,动态:21776,动态:4036,动态:22507,动态:21753,动态:21857,动态:21975,动态:17337,动态:21972,动态:22680,动态:21740,动态:21757,动态:22684,动态:22698,动态:22146,动态:20364,动态:21745,动态:22688,动态:22512,动态:20720,动态:21436,动态:21556,动态:21737,动态:22710,动态:20399,动态:22019,动态:22696,动态:7746,动态:22323,动态:22685,动态:21727,动态:22667</t>
+          <t>动态:4895,动态:19096,动态:12672,动态:11468,动态:20714,动态:9160,动态:7354,动态:10914,动态:13227,动态:18590,动态:15963,动态:16913,动态:11436,动态:10937,动态:21005,动态:19852,动态:11463,动态:7388,动态:14847,动态:9082,动态:7746,动态:21556,动态:22019,动态:22696,动态:21776,动态:21972,动态:22692,动态:22706,动态:20720,动态:21436,动态:22323,动态:22667,动态:22702,动态:21753,动态:22699,动态:22146,动态:22680,动态:22684,动态:22698,动态:21741,动态:21737,动态:21780,动态:22512,动态:20439,动态:21757,动态:4036,动态:20440,动态:22710,动态:22685,动态:21745</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>动态:16646,动态:11906,动态:19208,动态:961,动态:15868,动态:16648,动态:22208,动态:6601,动态:621,动态:3073,动态:22699,动态:3174,动态:6252,动态:3076,动态:6447,动态:6916,动态:3107,动态:7464,动态:3897,动态:21970,动态:21470,动态:12908,动态:3796,动态:3162,动态:12895,动态:3979,动态:3166,动态:7789,动态:20525,动态:7383,动态:7186,动态:4036,动态:3104,动态:4031,动态:20516,动态:16721,动态:22696,动态:11416,动态:21780,动态:11447,动态:6901,动态:6325,动态:10570,动态:22710,动态:21776,动态:22323,动态:22680,动态:21741,动态:21753,动态:22698</t>
+          <t>动态:19614,动态:15913,动态:20461,动态:21501,动态:17529,动态:8259,动态:621,动态:6447,动态:3073,动态:6901,动态:4036,动态:12145,动态:6916,动态:3166,动态:13826,动态:3174,动态:3897,动态:7789,动态:22699,动态:7383,动态:3796,动态:4031,动态:21780,动态:16721,动态:7186,动态:6252,动态:3076,动态:12154,动态:21970,动态:3162,动态:22696,动态:3979,动态:3107,动态:11075,动态:21470,动态:18160,动态:7464,动态:20525,动态:3104,动态:20516,动态:6325,动态:7045,动态:19888,动态:21753,动态:20720,动态:20439,动态:22692,动态:21763</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>动态:5522,动态:16819,动态:15617,动态:6642,动态:19057,动态:6884,动态:11302,动态:7161,动态:16302,动态:19592,动态:19186,动态:11337,动态:22076,动态:20720,动态:18287,动态:20853,动态:21556,动态:20439,动态:22698,动态:22659,动态:22512,动态:21780,动态:22685,动态:22323,动态:21727,动态:21763,动态:22692,动态:22684,动态:21857,动态:21972,动态:21756,动态:21436,动态:21737,动态:20364,动态:22688,动态:7746,动态:22667,动态:22706,动态:22019,动态:22696,动态:22680,动态:21975,动态:22146,动态:21753,动态:20440,动态:17337,动态:20399,动态:22710,动态:22697,动态:4036</t>
+          <t>动态:15354,动态:19253,动态:18331,动态:11458,动态:22479,动态:16693,动态:8015,动态:12303,动态:17814,动态:782,动态:16609,动态:9552,动态:8969,动态:20309,动态:9036,动态:17060,动态:21780,动态:21556,动态:22146,动态:22710,动态:22685,动态:20399,动态:22507,动态:22323,动态:21756,动态:4036,动态:22698,动态:20439,动态:22692,动态:22684,动态:22667,动态:22699,动态:21776,动态:21975,动态:22680,动态:21436,动态:22019,动态:20364,动态:22659,动态:7746,动态:21737,动态:17337,动态:21763,动态:22702,动态:22512,动态:21753,动态:21727,动态:22688,动态:22696,动态:20440</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>动态:15696,动态:16392,动态:18665,动态:20488,动态:13143,动态:18008,动态:6821,动态:14192,动态:22032,动态:3215,动态:7824,动态:12974,动态:144,动态:22499,动态:18948,动态:18360,动态:13041,动态:20312,动态:21776,动态:22697,动态:4036,动态:22702,动态:22688,动态:21756,动态:21745,动态:21763,动态:22019,动态:7746,动态:21436,动态:20439,动态:22692,动态:20364,动态:21740,动态:21780,动态:22684,动态:21727,动态:17337,动态:21741,动态:22659,动态:22696,动态:21737,动态:22698,动态:22706,动态:21857,动态:21972,动态:21975,动态:22680,动态:22685,动态:20720,动态:22699</t>
+          <t>动态:9492,动态:13780,动态:16432,动态:17965,动态:20989,动态:13136,动态:5830,动态:11011,动态:22658,动态:19940,动态:19895,动态:19037,动态:4036,动态:22699,动态:22680,动态:21745,动态:22323,动态:22692,动态:21756,动态:20364,动态:22685,动态:21727,动态:22696,动态:20720,动态:17337,动态:21780,动态:22512,动态:22659,动态:21436,动态:21757,动态:21556,动态:21972,动态:22019,动态:22507,动态:22688,动态:22697,动态:22146,动态:7746,动态:22698,动态:21741,动态:21857,动态:22710,动态:22702,动态:20440,动态:21763,动态:20399,动态:21737,动态:22706,动态:20439,动态:21753</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>动态:20966,动态:10499,动态:18841,动态:9535,动态:6770,动态:7978,动态:7826,动态:6897,动态:12319,动态:13092,动态:13674,动态:17504,动态:6755,动态:14188,动态:19836,动态:12911,动态:6025,动态:13299,动态:4597,动态:14701,动态:14514,动态:8704,动态:13328,动态:7022,动态:10490,动态:12075,动态:15093,动态:18151,动态:13823,动态:13410,动态:9093,动态:6240,动态:20008,动态:13815,动态:10567,动态:14271,动态:11129,动态:6899,动态:15132,动态:7374,动态:6752,动态:13298,动态:10247,动态:14019,动态:12609,动态:21745,动态:21741,动态:5829,动态:11079,动态:769</t>
+          <t>动态:12962,动态:15888,动态:13780,动态:7351,动态:16281,动态:10427,动态:19210,动态:4345,动态:12329,动态:13308,动态:16620,动态:15857,动态:20140,动态:20017,动态:18651,动态:20672,动态:15137,动态:19123,动态:8619,动态:12892,动态:12357,动态:12067,动态:21740,动态:11063,动态:6577,动态:8177,动态:10356,动态:14236,动态:15473,动态:20368,动态:6838,动态:17693,动态:13789,动态:15928,动态:18153,动态:19707,动态:17632,动态:11459,动态:16595,动态:19886,动态:11417,动态:17374,动态:13200,动态:19847,动态:9155,动态:17627,动态:22685,动态:22512,动态:14504,动态:21857</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>动态:11804,动态:10947,动态:13727,动态:20092,动态:5254,动态:16166,动态:15300,动态:22042,动态:9410,动态:12272,动态:22099,动态:13938,动态:15179,动态:18776,动态:10113,动态:11610,动态:4306,动态:20527,动态:4368,动态:18750,动态:7047,动态:3107,动态:20398,动态:17337,动态:21763,动态:21741,动态:7746,动态:21436,动态:22697,动态:20439,动态:22710,动态:21753,动态:20364,动态:22146,动态:21740,动态:22698,动态:20440,动态:22696,动态:21737,动态:22512,动态:22699,动态:22692,动态:20399,动态:21745,动态:22667,动态:21776,动态:22507,动态:20720,动态:22019,动态:4036</t>
+          <t>动态:21364,动态:16857,动态:10601,动态:20978,动态:11684,动态:19097,动态:833,动态:13961,动态:16441,动态:11915,动态:21678,动态:12317,动态:9234,动态:20258,动态:16483,动态:19658,动态:17168,动态:18313,动态:13491,动态:21740,动态:7746,动态:22702,动态:4036,动态:21556,动态:22692,动态:22706,动态:22659,动态:22688,动态:22699,动态:22680,动态:22512,动态:22696,动态:21745,动态:21741,动态:21436,动态:17337,动态:21753,动态:22146,动态:22710,动态:22698,动态:21780,动态:21727,动态:21757,动态:20399,动态:22667,动态:21763,动态:20364,动态:22507,动态:22697,动态:21776</t>
         </is>
       </c>
     </row>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>动态:9738,动态:20768,动态:7351,动态:17112,动态:15113,动态:11587,动态:13276,动态:13844,动态:18654,动态:21206,动态:19697,动态:15006,动态:7944,动态:17542,动态:12057,动态:4207,动态:20362,动态:22699,动态:20399,动态:21740,动态:22146,动态:21776,动态:22019,动态:21556,动态:20364,动态:21780,动态:22706,动态:22698,动态:20720,动态:21436,动态:22507,动态:20439,动态:22684,动态:17337,动态:22710,动态:22680,动态:22692,动态:21972,动态:7746,动态:22685,动态:20440,动态:21757,动态:21753,动态:21763,动态:21741,动态:22688,动态:21756,动态:21975,动态:22696,动态:21737</t>
+          <t>动态:11320,动态:12047,动态:22234,动态:11589,动态:17392,动态:21008,动态:20401,动态:20978,动态:14724,动态:20947,动态:9204,动态:7710,动态:9201,动态:18308,动态:10069,动态:20356,动态:21753,动态:6754,动态:18902,动态:18034,动态:19287,动态:20525,动态:6901,动态:6775,动态:15511,动态:6894,动态:17168,动态:5407,动态:22019,动态:20364,动态:21763,动态:22697,动态:22685,动态:7746,动态:22706,动态:21727,动态:21436,动态:21740,动态:21780,动态:4036,动态:20439,动态:20399,动态:22702,动态:21756,动态:21757,动态:22710,动态:20720,动态:22692,动态:22698,动态:21776</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>动态:22195,动态:18085,动态:1340,动态:11585,动态:9083,动态:12811,动态:3707,动态:17952,动态:14634,动态:11787,动态:12156,动态:15146,动态:17307,动态:20368,动态:10079,动态:22684,动态:17337,动态:21436,动态:22696,动态:22667,动态:21741,动态:22680,动态:22659,动态:21972,动态:21757,动态:20720,动态:21776,动态:21753,动态:22507,动态:21780,动态:21740,动态:22019,动态:4036,动态:22685,动态:21763,动态:22697,动态:22699,动态:21857,动态:22146,动态:21556,动态:20399,动态:22710,动态:20440,动态:21727,动态:7746,动态:20364,动态:20439,动态:22692,动态:21975,动态:21756</t>
+          <t>动态:16792,动态:13339,动态:19858,动态:8827,动态:21526,动态:20858,动态:22507,动态:12305,动态:7409,动态:20607,动态:17738,动态:15199,动态:15077,动态:3251,动态:18360,动态:16692,动态:13212,动态:18025,动态:19215,动态:6776,动态:11894,动态:5115,动态:17374,动态:3796,动态:21780,动态:21740,动态:22710,动态:22706,动态:22692,动态:21436,动态:22698,动态:22699,动态:21757,动态:20720,动态:21975,动态:22146,动态:21745,动态:21741,动态:17337,动态:22685,动态:20440,动态:21753,动态:22697,动态:22659,动态:22696,动态:22688,动态:21972,动态:22684,动态:22512,动态:21857</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>动态:6905,动态:8793,动态:19882,动态:11063,动态:16692,动态:13139,动态:13886,动态:13286,动态:19215,动态:12655,动态:13196,动态:16019,动态:13751,动态:150,动态:11684,动态:11413,动态:19347,动态:16907,动态:15990,动态:6451,动态:22638,动态:20532,动态:11395,动态:3162,动态:21556,动态:21763,动态:22684,动态:21780,动态:22323,动态:22685,动态:22702,动态:22512,动态:22659,动态:21776,动态:22697,动态:21727,动态:21741,动态:20440,动态:4036,动态:22667,动态:22692,动态:22146,动态:20399,动态:20439,动态:22699,动态:21757,动态:21975,动态:21753,动态:22698,动态:21745</t>
+          <t>动态:7065,动态:6643,动态:20502,动态:11048,动态:19511,动态:4184,动态:18494,动态:19426,动态:11417,动态:20602,动态:10979,动态:20386,动态:6581,动态:6186,动态:11374,动态:16074,动态:20219,动态:15347,动态:12826,动态:21436,动态:21745,动态:22685,动态:21556,动态:20364,动态:22507,动态:22702,动态:22710,动态:20399,动态:22684,动态:21972,动态:22706,动态:22692,动态:21740,动态:7746,动态:21727,动态:21757,动态:22680,动态:17337,动态:22696,动态:22698,动态:22019,动态:21780,动态:21741,动态:22699,动态:22323,动态:20440,动态:22512,动态:21857,动态:4036,动态:21763</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>动态:11429,动态:743,动态:21422,动态:22311,动态:18211,动态:11798,动态:11081,动态:22680,动态:15166,动态:16585,动态:13961,动态:6691,动态:17552,动态:6451,动态:18165,动态:12305,动态:11284,动态:11272,动态:22642,动态:16858,动态:14800,动态:7604,动态:6086,动态:7376,动态:9050,动态:10922,动态:3102,动态:21741,动态:22692,动态:20364,动态:22698,动态:22702,动态:22710,动态:21763,动态:22323,动态:22699,动态:21740,动态:20439,动态:22685,动态:21556,动态:21975,动态:4036,动态:21436,动态:21753,动态:22688,动态:17337,动态:21972,动态:21756,动态:20440</t>
+          <t>动态:16912,动态:15866,动态:20169,动态:6601,动态:19503,动态:15905,动态:21049,动态:11906,动态:3714,动态:15190,动态:21310,动态:10632,动态:20259,动态:19537,动态:15243,动态:16109,动态:13635,动态:22706,动态:144,动态:12654,动态:18502,动态:20399,动态:6848,动态:14026,动态:22019,动态:22702,动态:21780,动态:7746,动态:22685,动态:21857,动态:22667,动态:21763,动态:21737,动态:22699,动态:22684,动态:22697,动态:22146,动态:21756,动态:21975,动态:21757,动态:21436,动态:22698,动态:22692,动态:22323,动态:20364,动态:20440,动态:22696,动态:21740</t>
         </is>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>动态:12611,动态:15641,动态:21847,动态:21253,动态:10271,动态:6733,动态:21928,动态:2878,动态:15000,动态:17564,动态:12899,动态:12557,动态:20419,动态:14735,动态:15886,动态:13445,动态:11284,动态:21776,动态:22696,动态:22507,动态:22692,动态:22685,动态:21753,动态:22706,动态:22698,动态:21556,动态:22323,动态:21975,动态:22688,动态:20439,动态:22710,动态:22699,动态:22702,动态:22146,动态:21756,动态:22512,动态:22667,动态:21740,动态:21763,动态:21727,动态:22680,动态:20440,动态:20364,动态:21757,动态:20399,动态:4036,动态:21780,动态:21737,动态:22659,动态:21745</t>
+          <t>动态:21097,动态:13625,动态:19464,动态:9204,动态:21718,动态:4210,动态:17341,动态:22548,动态:22103,动态:14409,动态:11283,动态:10925,动态:11498,动态:19266,动态:9996,动态:16369,动态:14972,动态:14892,动态:687,动态:4421,动态:9688,动态:21359,动态:21436,动态:20720,动态:21740,动态:22146,动态:22667,动态:22710,动态:21763,动态:22697,动态:21975,动态:22507,动态:22019,动态:21556,动态:21972,动态:20439,动态:21741,动态:21857,动态:21753,动态:22659,动态:21776,动态:4036,动态:22684,动态:22699,动态:22702,动态:22706,动态:22692,动态:22323,动态:20440,动态:21756</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>动态:13047,动态:5255,动态:11568,动态:14110,动态:19899,动态:15347,动态:11675,动态:3674,动态:11377,动态:14330,动态:851,动态:11552,动态:11611,动态:12325,动态:4303,动态:6294,动态:11286,动态:12338,动态:10355,动态:3102,动态:21753,动态:22323,动态:21436,动态:22019,动态:22685,动态:17337,动态:22507,动态:21857,动态:22667,动态:20364,动态:22680,动态:20439,动态:7746,动态:21972,动态:22512,动态:22696,动态:20399,动态:22699,动态:21756,动态:21740,动态:22710,动态:21737,动态:22698,动态:21556,动态:21776,动态:21780,动态:20440,动态:21975,动态:22702,动态:22706</t>
+          <t>动态:9083,动态:16536,动态:11640,动态:14577,动态:18608,动态:14463,动态:15531,动态:12730,动态:10603,动态:13930,动态:14816,动态:17381,动态:12721,动态:18085,动态:21704,动态:20771,动态:20189,动态:7388,动态:15483,动态:10356,动态:5779,动态:22706,动态:22659,动态:22680,动态:22667,动态:7746,动态:21975,动态:21776,动态:22696,动态:20399,动态:4036,动态:21757,动态:21745,动态:20364,动态:21753,动态:22507,动态:17337,动态:21972,动态:20440,动态:22702,动态:22685,动态:21756,动态:21737,动态:21857,动态:21741,动态:22019,动态:21763,动态:22697,动态:20720,动态:22512</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>动态:6885,动态:18688,动态:9118,动态:22609,动态:18941,动态:19384,动态:13143,动态:7137,动态:14441,动态:11284,动态:21000,动态:20673,动态:9143,动态:11644,动态:13380,动态:8581,动态:19494,动态:10606,动态:13907,动态:22512,动态:22659,动态:20440,动态:22507,动态:4036,动态:22698,动态:21740,动态:22667,动态:22696,动态:22019,动态:22680,动态:21763,动态:22692,动态:22706,动态:21780,动态:21757,动态:21741,动态:21972,动态:7746,动态:22697,动态:21857,动态:21975,动态:21556,动态:22684,动态:22699,动态:21745,动态:21727,动态:20720,动态:21756,动态:20399,动态:22688</t>
+          <t>动态:17843,动态:22646,动态:15191,动态:16303,动态:11517,动态:8150,动态:16942,动态:10879,动态:21103,动态:8287,动态:14929,动态:14405,动态:14542,动态:18129,动态:15257,动态:11467,动态:8704,动态:3153,动态:20184,动态:19745,动态:7044,动态:6749,动态:21745,动态:22698,动态:22680,动态:21753,动态:21737,动态:22688,动态:21757,动态:22697,动态:22507,动态:22684,动态:7746,动态:4036,动态:22706,动态:22710,动态:21727,动态:17337,动态:21756,动态:22323,动态:21975,动态:20439,动态:21763,动态:21556,动态:21740,动态:21776,动态:21972,动态:21780,动态:22685,动态:22692</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>动态:21717,动态:13056,动态:20543,动态:19624,动态:16831,动态:13495,动态:19120,动态:9440,动态:13729,动态:7159,动态:14147,动态:15634,动态:22195,动态:8745,动态:14475,动态:14948,动态:15770,动态:11521,动态:21740,动态:3119,动态:6893,动态:7477,动态:12586,动态:11051,动态:22710,动态:22507,动态:22019,动态:22685,动态:22696,动态:21756,动态:21763,动态:22146,动态:22706,动态:21757,动态:22667,动态:22697,动态:21436,动态:22698,动态:20439,动态:21741,动态:21556,动态:22512,动态:21727,动态:22659,动态:4036,动态:21780,动态:22688,动态:21975,动态:22699</t>
+          <t>动态:20518,动态:20558,动态:11967,动态:20312,动态:10551,动态:8122,动态:17870,动态:22208,动态:10608,动态:7655,动态:13067,动态:7736,动态:11170,动态:8082,动态:22503,动态:11897,动态:9282,动态:19751,动态:13218,动态:15061,动态:6838,动态:10406,动态:22019,动态:21757,动态:20364,动态:22507,动态:22323,动态:21737,动态:22697,动态:22680,动态:21436,动态:21776,动态:21972,动态:21780,动态:22696,动态:22659,动态:22706,动态:7746,动态:22692,动态:21763,动态:20399,动态:22685,动态:17337,动态:21727,动态:22699,动态:20440,动态:4036,动态:22710,动态:20439,动态:21756</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>动态:14874,动态:12292,动态:13449,动态:6636,动态:15919,动态:16754,动态:15322,动态:19208,动态:17392,动态:20868,动态:13639,动态:12614,动态:12636,动态:21166,动态:17295,动态:19092,动态:12920,动态:18167,动态:13413,动态:18327,动态:16478,动态:12066,动态:21776,动态:22019,动态:22699,动态:20439,动态:21753,动态:22667,动态:17337,动态:22696,动态:22680,动态:21763,动态:22688,动态:22692,动态:22698,动态:20364,动态:21972,动态:7746,动态:4036,动态:22697,动态:22706,动态:21727,动态:21857,动态:21780,动态:22710,动态:22702,动态:21737,动态:20399,动态:21436,动态:21740</t>
+          <t>动态:18983,动态:20677,动态:12673,动态:11551,动态:11497,动态:15608,动态:17196,动态:19426,动态:21141,动态:19812,动态:6593,动态:20989,动态:21780,动态:15448,动态:5210,动态:6903,动态:13054,动态:21776,动态:4036,动态:22019,动态:20364,动态:22323,动态:20439,动态:22512,动态:22706,动态:22680,动态:21741,动态:22667,动态:21756,动态:21556,动态:22659,动态:21757,动态:22702,动态:22685,动态:21763,动态:21737,动态:22692,动态:22696,动态:21975,动态:22507,动态:17337,动态:21753,动态:20399,动态:22698,动态:20440,动态:22697,动态:22699,动态:21857,动态:22688</t>
         </is>
       </c>
     </row>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>动态:18694,动态:15869,动态:14730,动态:11854,动态:17730,动态:19037,动态:15935,动态:21856,动态:11542,动态:8524,动态:14186,动态:19774,动态:19906,动态:22032,动态:12977,动态:12811,动态:13212,动态:21259,动态:11396,动态:18989,动态:17697,动态:21451,动态:4175,动态:6842,动态:20139,动态:4627,动态:19836,动态:11055,动态:21975,动态:22706,动态:21753,动态:22696,动态:21972,动态:21776,动态:22697,动态:22688,动态:22146,动态:20399,动态:21740,动态:22699,动态:21780,动态:4036,动态:7746,动态:22684,动态:22698,动态:21741,动态:21556,动态:22507,动态:21763,动态:22692</t>
+          <t>动态:11191,动态:4788,动态:15188,动态:4190,动态:789,动态:15415,动态:12889,动态:20922,动态:11338,动态:22646,动态:15787,动态:1327,动态:2764,动态:11938,动态:14153,动态:781,动态:11385,动态:11344,动态:11123,动态:6595,动态:3117,动态:10948,动态:19291,动态:10149,动态:16656,动态:21972,动态:21975,动态:7746,动态:22659,动态:21741,动态:21436,动态:21740,动态:22699,动态:22684,动态:22685,动态:22323,动态:22706,动态:21763,动态:22680,动态:22688,动态:22146,动态:21756,动态:20399,动态:22667,动态:4036,动态:22698,动态:22692,动态:21737,动态:21556,动态:20720</t>
         </is>
       </c>
     </row>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>动态:13345,动态:19530,动态:12834,动态:13556,动态:11542,动态:22311,动态:17755,动态:13854,动态:15090,动态:22291,动态:20376,动态:22295,动态:22626,动态:12180,动态:9234,动态:14530,动态:13306,动态:20151,动态:11281,动态:14132,动态:10525,动态:9087,动态:20710,动态:15814,动态:11811,动态:22375,动态:9413,动态:21194,动态:15667,动态:11991,动态:15093,动态:14217,动态:10931,动态:11660,动态:15203,动态:15315,动态:11045,动态:12902,动态:13210,动态:12394,动态:19368,动态:19232,动态:20616,动态:10122,动态:16232,动态:13911,动态:21756,动态:14971,动态:21753,动态:12374</t>
+          <t>动态:14809,动态:11785,动态:21497,动态:10942,动态:18339,动态:18695,动态:20092,动态:15749,动态:12784,动态:14901,动态:18451,动态:14342,动态:13102,动态:10998,动态:13391,动态:21538,动态:11996,动态:11870,动态:20803,动态:16800,动态:1364,动态:11526,动态:13814,动态:21501,动态:5206,动态:3215,动态:20771,动态:16821,动态:8569,动态:14247,动态:18877,动态:18085,动态:15156,动态:18527,动态:14311,动态:22702,动态:10920,动态:4528,动态:10700,动态:15975,动态:7598,动态:15433,动态:21084,动态:11033,动态:13497,动态:21780,动态:22680,动态:20399,动态:22697,动态:9015</t>
         </is>
       </c>
     </row>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>动态:9768,动态:14305,动态:18567,动态:8127,动态:12300,动态:9411,动态:8852,动态:11944,动态:19703,动态:19424,动态:14724,动态:22644,动态:18165,动态:14113,动态:6642,动态:16960,动态:12003,动态:17512,动态:15144,动态:8769,动态:22702,动态:21763,动态:22685,动态:22692,动态:21727,动态:22696,动态:22146,动态:22684,动态:22706,动态:21975,动态:20364,动态:21972,动态:22512,动态:20399,动态:22667,动态:22323,动态:17337,动态:7746,动态:21436,动态:21737,动态:22688,动态:21741,动态:21740,动态:21857,动态:21753,动态:21776,动态:22699,动态:20720,动态:4036,动态:21756</t>
+          <t>动态:11695,动态:20663,动态:15044,动态:15201,动态:15886,动态:15157,动态:14955,动态:10914,动态:10457,动态:18471,动态:20205,动态:21392,动态:12384,动态:9156,动态:16075,动态:15862,动态:13370,动态:10087,动态:7745,动态:16483,动态:10211,动态:15490,动态:19529,动态:22696,动态:22146,动态:21727,动态:22692,动态:21753,动态:22667,动态:21776,动态:21556,动态:21745,动态:21763,动态:20440,动态:22706,动态:21975,动态:22702,动态:22688,动态:4036,动态:22507,动态:21740,动态:22698,动态:17337,动态:20364,动态:21780,动态:22684,动态:21757,动态:21436,动态:22710,动态:20399</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>动态:11804,动态:16389,动态:13294,动态:14802,动态:19200,动态:16742,动态:21678,动态:20451,动态:11281,动态:12009,动态:7678,动态:10947,动态:14577,动态:8746,动态:14077,动态:14809,动态:21044,动态:18988,动态:11168,动态:11134,动态:19122,动态:9151,动态:5779,动态:16261,动态:16858,动态:21737,动态:17337,动态:22697,动态:20439,动态:21763,动态:21757,动态:22507,动态:21436,动态:22512,动态:22688,动态:21741,动态:22696,动态:21972,动态:22323,动态:22019,动态:22667,动态:22685,动态:21556,动态:21776,动态:22702,动态:22698,动态:22706,动态:22684,动态:21753,动态:20399</t>
+          <t>动态:18083,动态:19537,动态:10774,动态:8610,动态:19279,动态:11168,动态:16076,动态:20170,动态:18362,动态:9133,动态:20511,动态:21675,动态:22287,动态:18000,动态:17265,动态:13445,动态:21757,动态:6904,动态:18331,动态:4176,动态:17443,动态:20337,动态:22692,动态:17337,动态:22698,动态:21556,动态:20364,动态:7746,动态:22688,动态:21741,动态:22512,动态:21436,动态:20439,动态:4036,动态:22710,动态:21756,动态:21737,动态:20440,动态:22706,动态:22685,动态:22323,动态:21857,动态:21763,动态:22146,动态:21727,动态:22667,动态:21972,动态:21975,动态:21745</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>动态:20518,动态:20263,动态:20658,动态:13326,动态:8337,动态:11558,动态:17769,动态:13676,动态:18059,动态:21417,动态:11587,动态:15059,动态:20683,动态:16110,动态:14929,动态:20994,动态:17738,动态:22286,动态:16530,动态:13864,动态:6252,动态:18236,动态:15222,动态:17707,动态:150,动态:16988,动态:13093,动态:11134,动态:6576,动态:22696,动态:21745,动态:21763,动态:21436,动态:22698,动态:21975,动态:21756,动态:21757,动态:20439,动态:21857,动态:22507,动态:21556,动态:21737,动态:22706,动态:21753,动态:7746,动态:22684,动态:22685,动态:22692,动态:22019,动态:20720</t>
+          <t>动态:2938,动态:12003,动态:12878,动态:8596,动态:6608,动态:7154,动态:21763,动态:16821,动态:14977,动态:10073,动态:18241,动态:11807,动态:12903,动态:13406,动态:15302,动态:13990,动态:10290,动态:15174,动态:12587,动态:19494,动态:14640,动态:5353,动态:22696,动态:17337,动态:22692,动态:22698,动态:21737,动态:21740,动态:22684,动态:22512,动态:21975,动态:21745,动态:22697,动态:22680,动态:21556,动态:4036,动态:21756,动态:22019,动态:21857,动态:21741,动态:22710,动态:20720,动态:20364,动态:22688,动态:20399,动态:21776,动态:21780,动态:21753,动态:22667</t>
         </is>
       </c>
     </row>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>动态:17561,动态:21101,动态:20460,动态:16844,动态:7737,动态:20247,动态:16907,动态:19990,动态:22208,动态:18087,动态:16296,动态:7386,动态:20218,动态:11406,动态:13134,动态:769,动态:6677,动态:12060,动态:15928,动态:16641,动态:14410,动态:10984,动态:21737,动态:21741,动态:21756,动态:21780,动态:22697,动态:22659,动态:22323,动态:22019,动态:22680,动态:20399,动态:22698,动态:22146,动态:21727,动态:22699,动态:22667,动态:22696,动态:21763,动态:22706,动态:22507,动态:21753,动态:22688,动态:20720,动态:22702,动态:7746,动态:21556,动态:21975,动态:22512,动态:21857</t>
+          <t>动态:13073,动态:11526,动态:21532,动态:10474,动态:18688,动态:20487,动态:13634,动态:12046,动态:15145,动态:21719,动态:11379,动态:21200,动态:12356,动态:12974,动态:13297,动态:9461,动态:8221,动态:10122,动态:10553,动态:16651,动态:6842,动态:14502,动态:14230,动态:11488,动态:19006,动态:14701,动态:4345,动态:18356,动态:21741,动态:21776,动态:22323,动态:21737,动态:22680,动态:17337,动态:22659,动态:22710,动态:22696,动态:22019,动态:22699,动态:21740,动态:4036,动态:21753,动态:22507,动态:21757,动态:21745,动态:22667,动态:20720,动态:22512,动态:21756,动态:20399</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>动态:19629,动态:16377,动态:18055,动态:14841,动态:13838,动态:12557,动态:15558,动态:12079,动态:11009,动态:16553,动态:13055,动态:21360,动态:16199,动态:11408,动态:10362,动态:14931,动态:21857,动态:22146,动态:21556,动态:21740,动态:22697,动态:21436,动态:22688,动态:21741,动态:4036,动态:21780,动态:21757,动态:22659,动态:20439,动态:22699,动态:21753,动态:21745,动态:22323,动态:20399,动态:22710,动态:22702,动态:21776,动态:22698,动态:20364,动态:17337,动态:22019,动态:22706,动态:22692,动态:22680,动态:21727,动态:22512,动态:22507,动态:21972,动态:20720,动态:22685</t>
+          <t>动态:13937,动态:14456,动态:14373,动态:19417,动态:16076,动态:20810,动态:17755,动态:20460,动态:16377,动态:13043,动态:21022,动态:19095,动态:8524,动态:13680,动态:10517,动态:12901,动态:16048,动态:20444,动态:17694,动态:13377,动态:6252,动态:11278,动态:17960,动态:22697,动态:4036,动态:22512,动态:20440,动态:21756,动态:22702,动态:22680,动态:22685,动态:7746,动态:17337,动态:22710,动态:22706,动态:22146,动态:22659,动态:21975,动态:21436,动态:22688,动态:22667,动态:22698,动态:21753,动态:21727,动态:22696,动态:20720,动态:20439,动态:22019,动态:22692,动态:21737</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>动态:14994,动态:8231,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:9492,动态:15463,动态:15201,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>动态:19162,动态:15814,动态:8199,动态:12303,动态:18499,动态:11426,动态:21317,动态:15935,动态:13696,动态:10950,动态:20968,动态:19371,动态:13516,动态:13425,动态:15166,动态:7408,动态:17234,动态:6845,动态:6689,动态:9047,动态:21857,动态:20720,动态:22699,动态:22667,动态:22706,动态:22512,动态:22697,动态:7746,动态:17337,动态:21972,动态:21745,动态:21737,动态:22507,动态:21741,动态:22685,动态:4036,动态:21763,动态:21753,动态:22680,动态:22710,动态:21776,动态:20399,动态:20439,动态:20440,动态:22692,动态:22684,动态:21436,动态:21780,动态:21975,动态:22323</t>
+          <t>动态:21959,动态:11620,动态:831,动态:11491,动态:20527,动态:13661,动态:11110,动态:7356,动态:22706,动态:11274,动态:18844,动态:6187,动态:20065,动态:21753,动态:20720,动态:22698,动态:21757,动态:22696,动态:21763,动态:22680,动态:22512,动态:21972,动态:22667,动态:21556,动态:21436,动态:20439,动态:21776,动态:21727,动态:22692,动态:22659,动态:20399,动态:22507,动态:22019,动态:4036,动态:22323,动态:21756,动态:22710,动态:21975,动态:21780,动态:22684,动态:22697,动态:22699,动态:17337,动态:21740,动态:20364,动态:21737,动态:21741,动态:21745,动态:7746</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>动态:8935,动态:13243,动态:19149,动态:3738,动态:12573,动态:3215,动态:11589,动态:10724,动态:17623,动态:12313,动态:13270,动态:6615,动态:9409,动态:20734,动态:13151,动态:20011,动态:22323,动态:21757,动态:21776,动态:22659,动态:20720,动态:22692,动态:22697,动态:22512,动态:4036,动态:21727,动态:22710,动态:21556,动态:22019,动态:22688,动态:20439,动态:17337,动态:21753,动态:21763,动态:21745,动态:7746,动态:21740,动态:21436,动态:22684,动态:22706,动态:22698,动态:22146,动态:22685,动态:20440,动态:21857,动态:21972,动态:22696,动态:21756,动态:22507,动态:22702</t>
+          <t>动态:4675,动态:16097,动态:19120,动态:14502,动态:20947,动态:12399,动态:15490,动态:15711,动态:3714,动态:14153,动态:19448,动态:13637,动态:15280,动态:16463,动态:18129,动态:12353,动态:7397,动态:3096,动态:20672,动态:10071,动态:22146,动态:22696,动态:21436,动态:21972,动态:22702,动态:21780,动态:22685,动态:20439,动态:22507,动态:22667,动态:7746,动态:22706,动态:22659,动态:22710,动态:21727,动态:20399,动态:17337,动态:22019,动态:21753,动态:22512,动态:21756,动态:21740,动态:21857,动态:22697,动态:20720,动态:20364,动态:22323,动态:21737,动态:21741,动态:22684</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>动态:12798,动态:816,动态:18038,动态:19753,动态:11087,动态:9421,动态:19620,动态:7111,动态:12298,动态:7161,动态:14342,动态:11523,动态:13255,动态:15387,动态:11552,动态:4993,动态:16878,动态:6086,动态:11147,动态:5353,动态:17710,动态:22699,动态:7746,动态:21741,动态:22710,动态:22323,动态:21727,动态:22512,动态:21745,动态:4036,动态:21780,动态:21763,动态:20399,动态:21975,动态:22507,动态:22684,动态:21756,动态:22692,动态:22697,动态:21757,动态:21972,动态:22146,动态:21753,动态:22698,动态:17337,动态:22019,动态:22667,动态:22702,动态:22696,动态:21776</t>
+          <t>动态:7065,动态:9890,动态:15089,动态:13523,动态:22290,动态:11678,动态:17164,动态:16460,动态:9152,动态:19541,动态:16587,动态:10938,动态:14319,动态:9769,动态:8831,动态:12156,动态:11036,动态:14684,动态:6775,动态:14040,动态:19446,动态:10149,动态:6840,动态:21661,动态:6759,动态:19127,动态:21975,动态:22702,动态:7746,动态:17337,动态:22685,动态:21740,动态:21776,动态:22659,动态:22698,动态:20439,动态:21763,动态:22680,动态:21436,动态:20364,动态:21727,动态:22697,动态:22323,动态:22512,动态:4036,动态:22692,动态:22146,动态:22684,动态:20440,动态:20399</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>动态:15671,动态:16669,动态:8600,动态:12309,动态:10985,动态:20348,动态:6897,动态:11398,动态:13907,动态:7127,动态:7059,动态:11275,动态:16853,动态:19881,动态:10944,动态:7145,动态:15970,动态:7604,动态:21654,动态:7603,动态:11291,动态:18158,动态:10149,动态:7049,动态:6604,动态:20130,动态:9236,动态:12067,动态:5415,动态:13054,动态:20362,动态:8681,动态:20009,动态:21239,动态:19649,动态:11066,动态:11128,动态:17148,动态:10765,动态:13247,动态:20129,动态:6456,动态:15334,动态:6764,动态:6819,动态:15389,动态:20720,动态:22697,动态:21741,动态:9281</t>
+          <t>动态:6671,动态:19255,动态:19256,动态:13415,动态:18852,动态:18750,动态:20273,动态:11399,动态:16261,动态:19275,动态:14752,动态:8129,动态:5829,动态:11126,动态:11265,动态:17289,动态:15669,动态:9986,动态:15490,动态:10596,动态:19488,动态:13308,动态:11152,动态:6449,动态:13824,动态:15970,动态:10182,动态:20248,动态:10954,动态:16829,动态:10985,动态:13629,动态:13131,动态:5403,动态:13410,动态:11417,动态:20030,动态:8729,动态:13775,动态:16297,动态:13820,动态:6578,动态:11268,动态:18844,动态:19287,动态:19836,动态:18367,动态:21756,动态:7303,动态:11043</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>动态:18461,动态:15277,动态:11978,动态:20022,动态:20868,动态:17481,动态:12730,动态:20461,动态:12552,动态:13389,动态:13729,动态:21675,动态:13787,动态:14509,动态:22709,动态:18273,动态:14451,动态:8550,动态:3133,动态:22696,动态:22323,动态:22512,动态:21740,动态:22697,动态:20364,动态:21753,动态:22019,动态:21757,动态:21972,动态:22680,动态:17337,动态:21737,动态:22507,动态:21745,动态:21756,动态:20720,动态:22706,动态:22692,动态:22146,动态:7746,动态:20399,动态:21780,动态:21556,动态:21741,动态:22698,动态:21436,动态:22710,动态:22699,动态:20439,动态:21727</t>
+          <t>动态:20738,动态:10967,动态:12012,动态:11503,动态:19200,动态:14565,动态:12002,动态:12150,动态:16223,动态:9936,动态:22096,动态:15389,动态:14465,动态:13410,动态:15095,动态:22512,动态:21556,动态:21776,动态:21780,动态:21763,动态:22146,动态:21740,动态:22019,动态:22699,动态:17337,动态:20364,动态:21857,动态:22692,动态:21756,动态:22710,动态:22659,动态:21436,动态:22680,动态:21737,动态:22507,动态:20399,动态:22685,动态:22696,动态:22706,动态:22698,动态:21972,动态:21745,动态:20440,动态:4036,动态:22702,动态:7746,动态:21741,动态:20720,动态:21757,动态:22323</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>动态:12027,动态:15184,动态:9152,动态:4786,动态:13976,动态:7357,动态:15463,动态:9778,动态:11043,动态:17327,动态:11118,动态:8175,动态:11769,动态:10995,动态:20465,动态:8799,动态:13938,动态:10536,动态:12362,动态:21857,动态:22696,动态:22659,动态:22019,动态:21780,动态:20439,动态:22323,动态:22692,动态:21745,动态:21757,动态:22685,动态:21556,动态:22667,动态:21975,动态:4036,动态:21741,动态:22507,动态:21776,动态:22684,动态:17337,动态:21740,动态:20399,动态:22706,动态:22702,动态:22710,动态:20720,动态:20440,动态:7746,动态:22146,动态:22698,动态:21763</t>
+          <t>动态:20634,动态:14892,动态:7006,动态:14426,动态:14802,动态:6026,动态:18211,动态:13497,动态:18653,动态:12046,动态:11126,动态:21654,动态:19401,动态:150,动态:15076,动态:9172,动态:22698,动态:21776,动态:20364,动态:21745,动态:22710,动态:21780,动态:21975,动态:21757,动态:21741,动态:22702,动态:22685,动态:22659,动态:20440,动态:22680,动态:7746,动态:21740,动态:22146,动态:22696,动态:22688,动态:22692,动态:22667,动态:21737,动态:21753,动态:21436,动态:21727,动态:22699,动态:22684,动态:22019,动态:22512,动态:22323,动态:22697,动态:20720,动态:20399,动态:21763</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>动态:10991,动态:17527,动态:19715,动态:19271,动态:14311,动态:20487,动态:14689,动态:17769,动态:20616,动态:16913,动态:9787,动态:20593,动态:9282,动态:9410,动态:7688,动态:12736,动态:1240,动态:12567,动态:22088,动态:14624,动态:7817,动态:6891,动态:21556,动态:7226,动态:14514,动态:14216,动态:17504,动态:7741,动态:21753,动态:21757,动态:7746,动态:21727,动态:22667,动态:22146,动态:22512,动态:20439,动态:21737,动态:17337,动态:22706,动态:22685,动态:22323,动态:21756,动态:21972,动态:22697,动态:22680,动态:21776,动态:22019,动态:22692,动态:22698,动态:22659</t>
+          <t>动态:22282,动态:15533,动态:12897,动态:15387,动态:15926,动态:11643,动态:18755,动态:15708,动态:17205,动态:10478,动态:11418,动态:17657,动态:9795,动态:16641,动态:20137,动态:13824,动态:13040,动态:21727,动态:22692,动态:20720,动态:21753,动态:21436,动态:22146,动态:22323,动态:22710,动态:21972,动态:20399,动态:22512,动态:21556,动态:22667,动态:21780,动态:22698,动态:21745,动态:22659,动态:21975,动态:21757,动态:22507,动态:21741,动态:22699,动态:21756,动态:17337,动态:22706,动态:7746,动态:21857,动态:22697,动态:21737,动态:21740,动态:20364,动态:4036,动态:21763</t>
         </is>
       </c>
     </row>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>动态:15759,动态:17870,动态:12885,动态:19732,动态:19144,动态:13067,动态:21054,动态:13682,动态:11679,动态:6884,动态:15495,动态:16660,动态:18956,动态:12305,动态:2931,动态:16131,动态:8769,动态:22685,动态:20399,动态:21972,动态:7746,动态:22684,动态:21857,动态:20720,动态:21757,动态:21436,动态:22702,动态:22507,动态:22512,动态:22699,动态:21756,动态:22019,动态:22710,动态:22667,动态:22706,动态:21740,动态:22698,动态:21737,动态:21741,动态:22659,动态:22680,动态:4036,动态:22692,动态:20439,动态:21745,动态:21975,动态:21556,动态:21776,动态:20440,动态:22323</t>
+          <t>动态:15775,动态:16049,动态:18266,动态:7735,动态:11284,动态:11363,动态:14069,动态:14658,动态:11750,动态:12874,动态:13857,动态:12914,动态:11452,动态:12898,动态:11389,动态:6914,动态:10519,动态:6363,动态:17949,动态:15093,动态:4815,动态:22698,动态:22512,动态:22702,动态:20364,动态:22699,动态:21757,动态:22692,动态:4036,动态:22706,动态:22688,动态:21436,动态:21857,动态:20439,动态:21745,动态:21727,动态:21556,动态:7746,动态:22684,动态:21975,动态:21756,动态:22323,动态:21780,动态:17337,动态:21776,动态:22697,动态:21753,动态:22019,动态:22680,动态:20720</t>
         </is>
       </c>
     </row>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>动态:13042,动态:8337,动态:18822,动态:17566,动态:13176,动态:11467,动态:19645,动态:19420,动态:21785,动态:16336,动态:18868,动态:7357,动态:11697,动态:9214,动态:21498,动态:4979,动态:21364,动态:13129,动态:11337,动态:16648,动态:14805,动态:18755,动态:19306,动态:13282,动态:20654,动态:20989,动态:11070,动态:8002,动态:2707,动态:22113,动态:13894,动态:9156,动态:12720,动态:12416,动态:16848,动态:21436,动态:10930,动态:20385,动态:16257,动态:12690,动态:9428,动态:19368,动态:13143,动态:17607,动态:11062,动态:22702,动态:10467,动态:6831,动态:21753,动态:20274</t>
+          <t>动态:13256,动态:20092,动态:6479,动态:20153,动态:12305,动态:15302,动态:11660,动态:14570,动态:10165,动态:14811,动态:7161,动态:16232,动态:16760,动态:13425,动态:9440,动态:11906,动态:20623,动态:9936,动态:11452,动态:20268,动态:17336,动态:13672,动态:15698,动态:14141,动态:11004,动态:13678,动态:9525,动态:15090,动态:15638,动态:6592,动态:14441,动态:15117,动态:12573,动态:19130,动态:17574,动态:6317,动态:11162,动态:14679,动态:12380,动态:8122,动态:21317,动态:3806,动态:7133,动态:16802,动态:16740,动态:21740,动态:20607,动态:21763,动态:22323,动态:22502</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>动态:8122,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:20960,动态:11449,动态:6826,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>动态:21501,动态:11024,动态:3420,动态:12189,动态:22493,动态:14111,动态:12417,动态:8586,动态:14733,动态:9738,动态:15173,动态:20063,动态:13466,动态:21966,动态:7047,动态:17501,动态:20005,动态:4036,动态:21757,动态:21737,动态:17337,动态:22698,动态:22323,动态:22696,动态:22019,动态:22659,动态:21975,动态:22146,动态:7746,动态:22685,动态:21741,动态:20439,动态:21740,动态:22710,动态:22507,动态:21756,动态:21972,动态:21556,动态:22680,动态:21763,动态:22667,动态:20364,动态:22512,动态:20440,动态:21857,动态:22688,动态:22692,动态:22697,动态:20399,动态:21745</t>
+          <t>动态:19473,动态:20837,动态:16450,动态:12638,动态:12655,动态:18956,动态:12874,动态:20379,动态:18082,动态:12904,动态:9087,动态:7038,动态:13958,动态:13287,动态:10389,动态:16052,动态:13084,动态:10298,动态:8292,动态:4813,动态:17627,动态:17939,动态:13820,动态:10482,动态:22702,动态:22512,动态:22699,动态:22680,动态:21776,动态:20440,动态:22659,动态:22697,动态:21727,动态:22685,动态:21753,动态:20720,动态:22710,动态:21757,动态:21763,动态:7746,动态:21780,动态:22698,动态:20364,动态:21857,动态:22688,动态:4036,动态:21740,动态:17337,动态:20399,动态:22706</t>
         </is>
       </c>
     </row>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>动态:10979,动态:12881,动态:16787,动态:17755,动态:11377,动态:22160,动态:21536,动态:15773,动态:20747,动态:19504,动态:10897,动态:20089,动态:11613,动态:14703,动态:22489,动态:12780,动态:12669,动态:15016,动态:12307,动态:19852,动态:3168,动态:14653,动态:15490,动态:20440,动态:22019,动态:22688,动态:22146,动态:22512,动态:21436,动态:22680,动态:21727,动态:21857,动态:22323,动态:22659,动态:4036,动态:22706,动态:21776,动态:21745,动态:21740,动态:20399,动态:22696,动态:17337,动态:21780,动态:22507,动态:22692,动态:21972,动态:21753,动态:20364,动态:21763,动态:22698</t>
+          <t>动态:21206,动态:14080,动态:20310,动态:15166,动态:18871,动态:18988,动态:12930,动态:21752,动态:20870,动态:19608,动态:6888,动态:13389,动态:5255,动态:11590,动态:6863,动态:14638,动态:7477,动态:17307,动态:6293,动态:16273,动态:22702,动态:22667,动态:21757,动态:21972,动态:21741,动态:22680,动态:21857,动态:22696,动态:21780,动态:22507,动态:21753,动态:22710,动态:20399,动态:22685,动态:22512,动态:21776,动态:21975,动态:22688,动态:20440,动态:7746,动态:21756,动态:21745,动态:21763,动态:22697,动态:22323,动态:21737,动态:21740,动态:20720,动态:22698,动态:21436</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>动态:18871,动态:20329,动态:11633,动态:15485,动态:20636,动态:14724,动态:20664,动态:22282,动态:10914,动态:21092,动态:15425,动态:19451,动态:19822,动态:13338,动态:12834,动态:13040,动态:21763,动态:21737,动态:22692,动态:20439,动态:21756,动态:21727,动态:22659,动态:22019,动态:22685,动态:22688,动态:22697,动态:22507,动态:20440,动态:21556,动态:20364,动态:22680,动态:21753,动态:21972,动态:22667,动态:22684,动态:22696,动态:7746,动态:22698,动态:21757,动态:22702,动态:21780,动态:21975,动态:20720,动态:21776,动态:21741,动态:22512,动态:22323,动态:21745,动态:21436</t>
+          <t>动态:15815,动态:12558,动态:6529,动态:6680,动态:14515,动态:21103,动态:15696,动态:22096,动态:11590,动态:17721,动态:19853,动态:2926,动态:22680,动态:22710,动态:21556,动态:21740,动态:21436,动态:21741,动态:22019,动态:21763,动态:22702,动态:22696,动态:20720,动态:7746,动态:21753,动态:22659,动态:20364,动态:22688,动态:21745,动态:17337,动态:22667,动态:21975,动态:21780,动态:21756,动态:22706,动态:21857,动态:22697,动态:21776,动态:4036,动态:22685,动态:21737,动态:20440,动态:21727,动态:21757,动态:22699,动态:22684,动态:22507,动态:20439,动态:21972,动态:22512</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>动态:14545,动态:11064,动态:20332,动态:9860,动态:12085,动态:14750,动态:16648,动态:13833,动态:13609,动态:11062,动态:21536,动态:14737,动态:9172,动态:12878,动态:10380,动态:14994,动态:13381,动态:15147,动态:10849,动态:9087,动态:20073,动态:14845,动态:13270,动态:20720,动态:17484,动态:10254,动态:14106,动态:16260,动态:15869,动态:20300,动态:19002,动态:8827,动态:12842,动态:13389,动态:687,动态:12356,动态:13259,动态:14860,动态:13009,动态:17607,动态:20268,动态:19045,动态:19732,动态:15267,动态:16597,动态:21741,动态:21745,动态:10022,动态:15425,动态:21776</t>
+          <t>动态:6638,动态:12871,动态:18995,动态:5255,动态:20978,动态:15485,动态:12126,动态:16614,动态:20734,动态:8827,动态:11813,动态:11048,动态:13661,动态:22113,动态:15188,动态:20127,动态:19486,动态:17529,动态:789,动态:20714,动态:14373,动态:8171,动态:11596,动态:16048,动态:21003,动态:10465,动态:19279,动态:11564,动态:13930,动态:22436,动态:18282,动态:8896,动态:15885,动态:11967,动态:20922,动态:10870,动态:16109,动态:15071,动态:6688,动态:7171,动态:14546,动态:10931,动态:15183,动态:7110,动态:3841,动态:22685,动态:20440,动态:6621,动态:22659,动态:15931</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>动态:11055,动态:16191,动态:19492,动态:14847,动态:13907,动态:14446,动态:16280,动态:11618,动态:3096,动态:17657,动态:20048,动态:15913,动态:19266,动态:10360,动态:22491,动态:18195,动态:20926,动态:21854,动态:11633,动态:12643,动态:10867,动态:13038,动态:22323,动态:21780,动态:22702,动态:21763,动态:21857,动态:20439,动态:22680,动态:20399,动态:22696,动态:22146,动态:22685,动态:4036,动态:22698,动态:21745,动态:21737,动态:22706,动态:22507,动态:21436,动态:22512,动态:22667,动态:20440,动态:22699,动态:21556,动态:21975,动态:22692,动态:20364,动态:21756,动态:21757</t>
+          <t>动态:6776,动态:8014,动态:15864,动态:15861,动态:21368,动态:17391,动态:15425,动态:12311,动态:16514,动态:13366,动态:17535,动态:10069,动态:14008,动态:13682,动态:10113,动态:16563,动态:13734,动态:21753,动态:22698,动态:7746,动态:22685,动态:22696,动态:21763,动态:21857,动态:22680,动态:21756,动态:21972,动态:22688,动态:22507,动态:22684,动态:21737,动态:22667,动态:21436,动态:22699,动态:20440,动态:21780,动态:21757,动态:20720,动态:21745,动态:20364,动态:22146,动态:21776,动态:22323,动态:21975,动态:22702,动态:4036,动态:22659,动态:21741,动态:22512,动态:20439</t>
         </is>
       </c>
     </row>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>动态:21044,动态:9025,动态:13137,动态:21727,动态:6584,动态:10947,动态:16518,动态:16613,动态:15477,动态:6622,动态:17917,动态:18165,动态:21658,动态:13864,动态:11134,动态:11416,动态:6449,动态:21436,动态:21556,动态:21972,动态:22688,动态:22706,动态:21737,动态:20439,动态:22146,动态:21756,动态:22684,动态:22710,动态:21776,动态:22699,动态:4036,动态:20720,动态:22512,动态:22667,动态:22323,动态:21745,动态:21857,动态:22659,动态:20440,动态:20364,动态:21753,动态:22019,动态:20399,动态:22698,动态:21741,动态:21763,动态:21740,动态:22702,动态:22507,动态:7746</t>
+          <t>动态:12180,动态:18557,动态:18368,动态:13696,动态:6808,动态:13637,动态:20066,动态:20923,动态:19426,动态:7324,动态:12831,动态:13327,动态:6191,动态:9442,动态:8129,动态:21975,动态:21857,动态:22323,动态:21753,动态:22696,动态:22710,动态:22688,动态:20440,动态:21727,动态:22698,动态:22699,动态:21780,动态:22680,动态:22659,动态:22512,动态:22697,动态:22667,动态:22684,动态:21741,动态:21763,动态:21556,动态:21745,动态:22146,动态:17337,动态:21972,动态:22702,动态:7746,动态:22692,动态:22019,动态:20364,动态:21756,动态:20439,动态:21776,动态:21757,动态:4036</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>动态:21960,动态:21885,动态:11558,动态:20217,动态:7386,动态:19620,动态:11787,动态:15047,动态:14841,动态:15573,动态:14486,动态:14649,动态:10069,动态:8464,动态:19642,动态:13315,动态:6454,动态:6294,动态:21972,动态:22688,动态:21727,动态:4036,动态:21740,动态:22706,动态:22685,动态:21745,动态:22019,动态:22512,动态:21756,动态:21763,动态:20439,动态:7746,动态:22697,动态:21757,动态:22507,动态:21780,动态:21741,动态:22323,动态:21857,动态:21776,动态:20399,动态:22696,动态:22659,动态:22699,动态:21737,动态:22684,动态:21753,动态:17337,动态:21556,动态:20364</t>
+          <t>动态:20496,动态:22254,动态:17566,动态:20261,动态:6983,动态:20640,动态:6452,动态:11015,动态:20926,动态:21876,动态:9143,动态:19153,动态:8221,动态:18849,动态:20316,动态:19883,动态:17296,动态:10072,动态:11459,动态:7978,动态:10549,动态:22507,动态:21727,动态:22710,动态:22667,动态:22696,动态:21741,动态:22692,动态:22512,动态:21857,动态:21740,动态:22702,动态:21756,动态:20439,动态:20399,动态:20440,动态:21757,动态:7746,动态:21975,动态:22699,动态:22146,动态:22019,动态:21745,动态:20720,动态:21753,动态:21776,动态:22685,动态:21780,动态:21737,动态:22323</t>
         </is>
       </c>
     </row>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>动态:9897,动态:13455,动态:15511,动态:20291,动态:13510,动态:16478,动态:8659,动态:20669,动态:21160,动态:18985,动态:7458,动态:21881,动态:11392,动态:12303,动态:12080,动态:19041,动态:14948,动态:17193,动态:13243,动态:10089,动态:13523,动态:13637,动态:21740,动态:21745,动态:20440,动态:21727,动态:22684,动态:21972,动态:22512,动态:22507,动态:20364,动态:22710,动态:20399,动态:21780,动态:22692,动态:21763,动态:22659,动态:22323,动态:21757,动态:22699,动态:22019,动态:22680,动态:21436,动态:22702,动态:22685,动态:21975,动态:21776,动态:7746,动态:21857,动态:17337</t>
+          <t>动态:9480,动态:12878,动态:6688,动态:13623,动态:20677,动态:9083,动态:13051,动态:12984,动态:15756,动态:8799,动态:14043,动态:19092,动态:13366,动态:11263,动态:19593,动态:20736,动态:8659,动态:9428,动态:13990,动态:19653,动态:12372,动态:20720,动态:21972,动态:4036,动态:21556,动态:21857,动态:7746,动态:21975,动态:21780,动态:22684,动态:21753,动态:20364,动态:22697,动态:22702,动态:21741,动态:22699,动态:22688,动态:22685,动态:21727,动态:22323,动态:22698,动态:22146,动态:21756,动态:22692,动态:20439,动态:22696,动态:21776,动态:21763,动态:22680,动态:21436</t>
         </is>
       </c>
     </row>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>动态:17265,动态:14288,动态:18279,动态:12011,动态:16643,动态:13471,动态:12664,动态:12408,动态:13079,动态:11569,动态:19456,动态:22211,动态:20447,动态:12014,动态:11118,动态:15132,动态:21753,动态:22697,动态:21763,动态:22699,动态:21737,动态:22706,动态:22696,动态:4036,动态:20439,动态:22702,动态:22710,动态:20399,动态:21745,动态:22323,动态:21556,动态:21776,动态:22692,动态:21857,动态:20364,动态:22507,动态:7746,动态:20720,动态:22512,动态:22688,动态:21780,动态:21727,动态:22698,动态:22667,动态:21972,动态:21741,动态:21756,动态:21436,动态:22019,动态:21740</t>
+          <t>动态:20985,动态:6956,动态:16817,动态:22281,动态:22032,动态:14570,动态:13176,动态:18020,动态:6548,动态:18087,动态:7004,动态:17174,动态:16613,动态:3096,动态:6902,动态:9050,动态:17719,动态:5830,动态:22667,动态:22507,动态:22680,动态:22019,动态:22702,动态:21745,动态:20720,动态:21753,动态:21757,动态:21741,动态:21727,动态:22323,动态:21556,动态:22684,动态:20399,动态:20364,动态:20439,动态:22692,动态:21737,动态:21776,动态:22688,动态:17337,动态:21780,动态:22698,动态:7746,动态:22697,动态:22512,动态:21857,动态:22685,动态:22699,动态:21436,动态:21972</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>动态:7121,动态:11443,动态:12018,动态:22638,动态:8976,动态:14724,动态:14217,动态:14547,动态:13742,动态:19208,动态:11991,动态:19200,动态:15920,动态:6632,动态:13053,动态:10599,动态:16178,动态:15982,动态:21741,动态:12049,动态:17694,动态:20348,动态:21857,动态:22507,动态:22692,动态:20364,动态:22685,动态:22706,动态:22688,动态:17337,动态:21757,动态:21436,动态:22019,动态:22146,动态:21780,动态:21972,动态:21737,动态:22323,动态:20720,动态:22697,动态:22680,动态:20440,动态:21753,动态:21975,动态:21776,动态:4036,动态:21727,动态:21740,动态:22684</t>
+          <t>动态:9078,动态:10189,动态:14999,动态:16165,动态:21704,动态:15596,动态:17184,动态:6688,动态:7678,动态:19940,动态:6779,动态:12916,动态:19231,动态:20997,动态:8177,动态:22507,动态:21745,动态:7746,动态:21857,动态:21737,动态:22680,动态:22688,动态:21763,动态:22667,动态:21756,动态:22685,动态:21436,动态:17337,动态:22706,动态:21972,动态:20720,动态:21975,动态:21753,动态:21776,动态:22684,动态:21780,动态:22512,动态:21740,动态:22697,动态:22698,动态:22692,动态:22702,动态:21757,动态:21556,动态:21741,动态:20440,动态:22323,动态:4036,动态:20364,动态:20399</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>动态:11771,动态:16571,动态:15061,动态:12292,动态:18322,动态:19413,动态:11984,动态:13289,动态:15157,动态:16175,动态:9798,动态:16800,动态:19751,动态:13309,动态:17337,动态:18853,动态:22234,动态:4205,动态:16452,动态:12679,动态:10116,动态:10429,动态:12382,动态:6611,动态:20115,动态:16460,动态:15963,动态:21753,动态:22697,动态:22685,动态:20364,动态:22702,动态:22019,动态:20720,动态:7746,动态:21436,动态:22146,动态:22698,动态:22680,动态:21776,动态:4036,动态:22507,动态:21763,动态:20439,动态:22512,动态:21780,动态:21741,动态:22696,动态:21737</t>
+          <t>动态:17487,动态:19896,动态:21707,动态:14464,动态:19123,动态:19828,动态:1299,动态:10941,动态:21718,动态:13621,动态:16585,动态:12930,动态:22484,动态:14949,动态:12844,动态:14003,动态:21413,动态:20248,动态:21737,动态:21740,动态:21780,动态:21741,动态:22697,动态:22684,动态:22146,动态:22702,动态:22692,动态:20440,动态:22685,动态:21745,动态:21857,动态:22659,动态:22680,动态:20399,动态:21975,动态:21727,动态:21972,动态:22507,动态:22019,动态:22698,动态:22696,动态:22667,动态:4036,动态:21753,动态:22323,动态:21763,动态:22688,动态:22699,动态:22710,动态:17337</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>动态:13366,动态:22684,动态:3802,动态:15002,动态:20261,动态:15050,动态:21152,动态:15953,动态:12284,动态:10532,动态:18996,动态:18525,动态:14319,动态:243,动态:11072,动态:14728,动态:7746,动态:9477,动态:17337,动态:21436,动态:21727,动态:22680,动态:22507,动态:22688,动态:21753,动态:21737,动态:22019,动态:21756,动态:21556,动态:22698,动态:21857,动态:21763,动态:22685,动态:22696,动态:22702,动态:20720,动态:20364,动态:22667,动态:22697,动态:4036,动态:20439,动态:21757,动态:22710,动态:22659,动态:21740,动态:22706,动态:21975,动态:21972,动态:22699</t>
+          <t>动态:6453,动态:3249,动态:13255,动态:20502,动态:15696,动态:3814,动态:20153,动态:14630,动态:19356,动态:17974,动态:11787,动态:12365,动态:12406,动态:16580,动态:7978,动态:6794,动态:5400,动态:6683,动态:21757,动态:22688,动态:21857,动态:21727,动态:22699,动态:22698,动态:21763,动态:22710,动态:22019,动态:22697,动态:21972,动态:20440,动态:7746,动态:21975,动态:21556,动态:22684,动态:22702,动态:21737,动态:21753,动态:20720,动态:21780,动态:20399,动态:22696,动态:22146,动态:22706,动态:21436,动态:21740,动态:20364,动态:22512,动态:21776,动态:21756,动态:22323</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>动态:10210,动态:12367,动态:16607,动态:12331,动态:14456,动态:5574,动态:22288,动态:7838,动态:13449,动态:3707,动态:11406,动态:13674,动态:5896,动态:10933,动态:11014,动态:10751,动态:19969,动态:6671,动态:4304,动态:14187,动态:2926,动态:18224,动态:15238,动态:12777,动态:15211,动态:9991,动态:22558,动态:20355,动态:21972,动态:21763,动态:22659,动态:21757,动态:22696,动态:21436,动态:22698,动态:17337,动态:22699,动态:20439,动态:21740,动态:22706,动态:21756,动态:22680,动态:21780,动态:4036,动态:7746,动态:22019,动态:21745,动态:20440,动态:22688,动态:20720</t>
+          <t>动态:13990,动态:8231,动态:7105,动态:3144,动态:13883,动态:11011,动态:20048,动态:6679,动态:11177,动态:15556,动态:11126,动态:6848,动态:8940,动态:9860,动态:10754,动态:10519,动态:21482,动态:13269,动态:21044,动态:18059,动态:8378,动态:12334,动态:10516,动态:6464,动态:11408,动态:10135,动态:22696,动态:22688,动态:21740,动态:22685,动态:22507,动态:21776,动态:20439,动态:20364,动态:21753,动态:21741,动态:21975,动态:21972,动态:22667,动态:20720,动态:22019,动态:22710,动态:22512,动态:21745,动态:21763,动态:20399,动态:22698,动态:21737,动态:21780,动态:21727</t>
         </is>
       </c>
     </row>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>动态:22458,动态:14003,动态:15608,动态:22639,动态:10136,动态:20124,动态:17228,动态:20789,动态:20719,动态:10708,动态:8775,动态:17972,动态:6749,动态:4876,动态:20679,动态:18830,动态:8174,动态:11814,动态:15650,动态:20532,动态:9077,动态:13347,动态:17870,动态:22710,动态:21975,动态:21741,动态:22692,动态:20720,动态:20439,动态:22702,动态:21556,动态:22698,动态:17337,动态:21763,动态:22667,动态:20440,动态:22685,动态:22680,动态:22697,动态:21753,动态:21780,动态:22019,动态:21972,动态:22323,动态:21737,动态:4036,动态:22659,动态:7746,动态:22699,动态:22512</t>
+          <t>动态:12000,动态:5385,动态:621,动态:17515,动态:16052,动态:10241,动态:19369,动态:11340,动态:8124,动态:14676,动态:15044,动态:22114,动态:16257,动态:18844,动态:15755,动态:14977,动态:21675,动态:10890,动态:1797,动态:8915,动态:15589,动态:11123,动态:8629,动态:10116,动态:22146,动态:21776,动态:20440,动态:22692,动态:21741,动态:21757,动态:21436,动态:21753,动态:22697,动态:22680,动态:21727,动态:21972,动态:21975,动态:22710,动态:17337,动态:7746,动态:22706,动态:20399,动态:21556,动态:4036,动态:20439,动态:21737,动态:22512,动态:21756,动态:22507,动态:22323</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>动态:14740,动态:14278,动态:20960,动态:20772,动态:15267,动态:17060,动态:12925,动态:5896,动态:12593,动态:19494,动态:15448,动态:15484,动态:7161,动态:6887,动态:10375,动态:18023,动态:21002,动态:5236,动态:12764,动态:22381,动态:14721,动态:11966,动态:17870,动态:21753,动态:21740,动态:21857,动态:21780,动态:22688,动态:21745,动态:22684,动态:22680,动态:4036,动态:22667,动态:21737,动态:21763,动态:21776,动态:21757,动态:22019,动态:22702,动态:20364,动态:21436,动态:22659,动态:22146,动态:21741,动态:22698,动态:21972,动态:20399,动态:20720,动态:21727,动态:22692</t>
+          <t>动态:10553,动态:9184,动态:13140,动态:15946,动态:14215,动态:6610,动态:20994,动态:20398,动态:11328,动态:11077,动态:17085,动态:2694,动态:12821,动态:22288,动态:14504,动态:10964,动态:19991,动态:12325,动态:13584,动态:19650,动态:4302,动态:4419,动态:11154,动态:20634,动态:10557,动态:5896,动态:11564,动态:21757,动态:20720,动态:22698,动态:21972,动态:22696,动态:22323,动态:21727,动态:22688,动态:22692,动态:17337,动态:22507,动态:21741,动态:21857,动态:22685,动态:22706,动态:21745,动态:21763,动态:22699,动态:21776,动态:20440,动态:21740,动态:22680,动态:22659</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>动态:18871,动态:14744,动态:18494,动态:15181,动态:20496,动态:19632,动态:20836,动态:10380,动态:12416,动态:2694,动态:16942,动态:10478,动态:6692,动态:17408,动态:18740,动态:20346,动态:18500,动态:17340,动态:17085,动态:11130,动态:6773,动态:15144,动态:22685,动态:22659,动态:22688,动态:22680,动态:22706,动态:20720,动态:22692,动态:4036,动态:22698,动态:20439,动态:21727,动态:21556,动态:17337,动态:21757,动态:21776,动态:22323,动态:22507,动态:22696,动态:21857,动态:21740,动态:20399,动态:22667,动态:21756,动态:21780,动态:21436,动态:22697,动态:21745,动态:21972</t>
+          <t>动态:14003,动态:22252,动态:21095,动态:21793,动态:11566,动态:11814,动态:15157,动态:19606,动态:3806,动态:18941,动态:14247,动态:10248,动态:15221,动态:18659,动态:22706,动态:19659,动态:20364,动态:22697,动态:21857,动态:22019,动态:21972,动态:22680,动态:22702,动态:20440,动态:22507,动态:21727,动态:21763,动态:21753,动态:22512,动态:21757,动态:20399,动态:22667,动态:21975,动态:21556,动态:22699,动态:22323,动态:22685,动态:22698,动态:22684,动态:21745,动态:21737,动态:22659,动态:22688,动态:22696,动态:21776,动态:4036,动态:7746,动态:21741,动态:21436</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>动态:9674,动态:6752,动态:16692,动态:21797,动态:21737,动态:16669,动态:22609,动态:9234,动态:15515,动态:14657,动态:11392,动态:7898,动态:20386,动态:7678,动态:18528,动态:16914,动态:16838,动态:13964,动态:14208,动态:17078,动态:14408,动态:13823,动态:21776,动态:22688,动态:22702,动态:21857,动态:22692,动态:22507,动态:4036,动态:22685,动态:21741,动态:20439,动态:22697,动态:20720,动态:7746,动态:21436,动态:22698,动态:21745,动态:17337,动态:22659,动态:21757,动态:22710,动态:22706,动态:20440,动态:21780,动态:21972,动态:21556,动态:20364,动态:21975</t>
+          <t>动态:13870,动态:12672,动态:16450,动态:19645,动态:17102,动态:9936,动态:6647,动态:15347,动态:11158,动态:13413,动态:20475,动态:7978,动态:10921,动态:17951,动态:15326,动态:8465,动态:19940,动态:16086,动态:21757,动态:22706,动态:21763,动态:21780,动态:20439,动态:21737,动态:21857,动态:21972,动态:20364,动态:21753,动态:4036,动态:20720,动态:22019,动态:22699,动态:22146,动态:20440,动态:22710,动态:22323,动态:20399,动态:21741,动态:21436,动态:21740,动态:22507,动态:17337,动态:22685,动态:22667,动态:21756,动态:22512,动态:21556,动态:21727,动态:7746,动态:22696</t>
         </is>
       </c>
     </row>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>动态:17634,动态:4786,动态:15575,动态:13286,动态:14132,动态:20908,动态:7577,动态:11162,动态:11942,动态:11282,动态:14113,动态:3814,动态:10551,动态:11469,动态:13471,动态:18376,动态:3126,动态:11135,动态:16493,动态:21975,动态:21763,动态:20439,动态:21741,动态:21756,动态:21857,动态:21436,动态:21740,动态:20399,动态:22684,动态:22697,动态:21556,动态:21757,动态:22507,动态:21776,动态:21780,动态:20720,动态:21972,动态:22659,动态:22699,动态:21737,动态:21745,动态:22688,动态:22702,动态:22698,动态:22019,动态:20440,动态:22692,动态:21727,动态:22685,动态:7746</t>
+          <t>动态:14035,动态:11690,动态:10375,动态:6618,动态:12381,动态:6623,动态:2707,动态:15787,动态:18506,动态:19037,动态:18791,动态:14948,动态:17848,动态:12902,动态:19368,动态:14141,动态:13327,动态:8133,动态:20132,动态:11386,动态:21975,动态:20439,动态:22697,动态:21741,动态:22667,动态:22507,动态:22710,动态:20364,动态:22685,动态:21737,动态:20440,动态:21556,动态:21753,动态:17337,动态:20399,动态:21763,动态:21740,动态:22702,动态:20720,动态:21776,动态:21972,动态:22696,动态:4036,动态:22692,动态:21757,动态:22688,动态:7746,动态:22698,动态:21756,动态:22699</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>动态:11526,动态:9461,动态:22431,动态:11305,动态:16002,动态:6625,动态:12370,动态:18409,动态:8167,动态:11179,动态:10603,动态:6629,动态:13562,动态:21000,动态:21848,动态:18281,动态:21776,动态:11145,动态:13469,动态:13509,动态:7743,动态:22699,动态:22019,动态:4036,动态:21757,动态:22688,动态:21780,动态:17337,动态:20439,动态:21556,动态:21975,动态:21756,动态:21727,动态:22706,动态:21737,动态:20720,动态:22146,动态:20399,动态:20440,动态:21972,动态:22697,动态:22692,动态:7746,动态:21741,动态:22702,动态:22659,动态:21436,动态:22685,动态:21740,动态:21763</t>
+          <t>动态:13838,动态:22620,动态:9769,动态:18459,动态:1372,动态:14964,动态:19097,动态:18492,动态:19278,动态:6630,动态:6848,动态:15789,动态:6294,动态:16620,动态:22697,动态:22699,动态:22685,动态:21975,动态:22692,动态:22667,动态:22680,动态:21780,动态:21753,动态:22146,动态:21737,动态:20364,动态:22688,动态:21436,动态:21857,动态:22507,动态:4036,动态:21556,动态:22684,动态:21756,动态:22019,动态:7746,动态:21763,动态:22659,动态:21740,动态:20399,动态:20439,动态:20720,动态:22710,动态:21757,动态:21776,动态:22696,动态:21972,动态:21745,动态:21741,动态:22706</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>动态:7694,动态:11193,动态:21436,动态:20265,动态:13789,动态:13917,动态:11015,动态:10938,动态:13625,动态:15868,动态:13591,动态:17963,动态:16539,动态:15190,动态:7824,动态:3215,动态:7384,动态:15750,动态:17697,动态:21359,动态:10993,动态:8293,动态:13703,动态:11419,动态:14768,动态:20444,动态:9161,动态:6691,动态:4305,动态:20059,动态:8775,动态:16961,动态:7746,动态:17337,动态:22697,动态:22507,动态:22698,动态:20364,动态:21737,动态:21745,动态:21727,动态:21780,动态:20399,动态:21756,动态:22706,动态:21975,动态:22323,动态:22146,动态:22692</t>
+          <t>动态:10993,动态:11074,动态:20351,动态:12300,动态:22242,动态:21740,动态:14161,动态:20525,动态:9527,动态:19253,动态:10971,动态:12017,动态:17196,动态:11070,动态:13684,动态:19723,动态:16358,动态:21304,动态:11269,动态:21972,动态:22696,动态:21780,动态:21857,动态:22698,动态:20720,动态:22680,动态:22685,动态:21727,动态:21436,动态:21975,动态:22699,动态:20399,动态:21556,动态:22702,动态:20439,动态:7746,动态:21753,动态:21757,动态:22146,动态:22659,动态:22706,动态:22323,动态:21745,动态:21756,动态:22692,动态:20440,动态:22684,动态:22697,动态:22667</t>
         </is>
       </c>
     </row>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>动态:15827,动态:17847,动态:17063,动态:11615,动态:20339,动态:14206,动态:13007,动态:22184,动态:9783,动态:6192,动态:17481,动态:14977,动态:18659,动态:10359,动态:13412,动态:20482,动态:21757,动态:22019,动态:21741,动态:22146,动态:21763,动态:22699,动态:21756,动态:4036,动态:21857,动态:22702,动态:22706,动态:22323,动态:22507,动态:21753,动态:20364,动态:21737,动态:21727,动态:22667,动态:22512,动态:17337,动态:22696,动态:21745,动态:21556,动态:22710,动态:21975,动态:22684,动态:22659,动态:7746,动态:22688,动态:20720,动态:22698,动态:22697,动态:22685,动态:20439</t>
+          <t>动态:17649,动态:12311,动态:10073,动态:6134,动态:17963,动态:12917,动态:19642,动态:6898,动态:10989,动态:12614,动态:14683,动态:16603,动态:19491,动态:14841,动态:4813,动态:16131,动态:8133,动态:8140,动态:3796,动态:11478,动态:22323,动态:21737,动态:21753,动态:7746,动态:22697,动态:22699,动态:22680,动态:22146,动态:20399,动态:22684,动态:22667,动态:21741,动态:4036,动态:22659,动态:22696,动态:21745,动态:17337,动态:21727,动态:21756,动态:21757,动态:21740,动态:20720,动态:22685,动态:21857,动态:20440,动态:21975,动态:21763,动态:22702,动态:20439,动态:21556</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>动态:10264,动态:10974,动态:7843,动态:12237,动态:13489,动态:15932,动态:11698,动态:11577,动态:16336,动态:783,动态:14161,动态:12283,动态:15547,动态:10118,动态:17501,动态:11276,动态:10922,动态:22019,动态:22323,动态:22702,动态:20364,动态:22692,动态:22512,动态:21556,动态:22696,动态:22710,动态:22699,动态:20720,动态:21436,动态:22685,动态:21972,动态:21763,动态:22698,动态:22684,动态:22659,动态:21776,动态:22688,动态:7746,动态:22697,动态:21757,动态:21737,动态:17337,动态:20399,动态:21780,动态:22146,动态:20439,动态:4036,动态:22706,动态:21741,动态:22680</t>
+          <t>动态:15806,动态:13140,动态:8629,动态:20479,动态:20683,动态:12673,动态:15793,动态:15933,动态:16232,动态:16605,动态:15344,动态:9786,动态:21917,动态:16645,动态:10100,动态:11337,动态:13086,动态:9146,动态:6903,动态:17337,动态:22684,动态:21763,动态:22698,动态:22323,动态:22146,动态:21737,动态:21741,动态:21972,动态:21857,动态:22685,动态:21753,动态:21757,动态:22702,动态:22667,动态:21745,动态:22706,动态:22710,动态:20720,动态:22688,动态:21780,动态:22019,动态:20399,动态:21556,动态:20440,动态:21756,动态:21436,动态:22512,动态:22696,动态:21727,动态:21776</t>
         </is>
       </c>
     </row>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>动态:12276,动态:13247,动态:18088,动态:3120,动态:11064,动态:21785,动态:7041,动态:13817,动态:6688,动态:17943,动态:18653,动态:20293,动态:21452,动态:15389,动态:19994,动态:833,动态:6503,动态:21213,动态:3814,动态:7395,动态:13682,动态:15998,动态:22698,动态:22710,动态:21756,动态:20364,动态:20720,动态:22512,动态:20440,动态:21745,动态:21436,动态:22019,动态:22688,动态:22697,动态:21972,动态:22699,动态:21753,动态:21757,动态:22507,动态:22323,动态:7746,动态:21737,动态:22680,动态:22702,动态:22667,动态:21776,动态:22706,动态:21727,动态:21780,动态:17337</t>
+          <t>动态:15806,动态:10526,动态:20922,动态:17408,动态:20083,动态:10913,动态:15861,动态:19417,动态:7815,动态:12718,动态:15715,动态:16603,动态:11158,动态:10017,动态:10478,动态:18141,动态:14524,动态:14111,动态:11620,动态:22146,动态:3133,动态:776,动态:9450,动态:16972,动态:12281,动态:3119,动态:22706,动态:21745,动态:22697,动态:21740,动态:22659,动态:21763,动态:22685,动态:22507,动态:22698,动态:22684,动态:20364,动态:22699,动态:21737,动态:22512,动态:21556,动态:21776,动态:22667,动态:20399,动态:22323,动态:22019,动态:20439,动态:21972,动态:21757,动态:22680</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>动态:8334,动态:10079,动态:15498,动态:8704,动态:11558,动态:20461,动态:11848,动态:14303,动态:6908,动态:14331,动态:6637,动态:6529,动态:13142,动态:14801,动态:15480,动态:18393,动态:22126,动态:17777,动态:22710,动态:21780,动态:21745,动态:7746,动态:22697,动态:20399,动态:21763,动态:22667,动态:21757,动态:22512,动态:22688,动态:21556,动态:21727,动态:21857,动态:21756,动态:22146,动态:17337,动态:22699,动态:21972,动态:21975,动态:20439,动态:22507,动态:21776,动态:22706,动态:21741,动态:20440,动态:20364,动态:22684,动态:20720,动态:21740,动态:21436,动态:22680</t>
+          <t>动态:11580,动态:9133,动态:17333,动态:19245,动态:22290,动态:21293,动态:16597,动态:12730,动态:13919,动态:21054,动态:15173,动态:11491,动态:14134,动态:19723,动态:9777,动态:16061,动态:15061,动态:19487,动态:11015,动态:22146,动态:21972,动态:22507,动态:22680,动态:21756,动态:21763,动态:22019,动态:21740,动态:20440,动态:20364,动态:22323,动态:21857,动态:22702,动态:21556,动态:22698,动态:22512,动态:21757,动态:22688,动态:21753,动态:21737,动态:22699,动态:7746,动态:21436,动态:21745,动态:22684,动态:20399,动态:21780,动态:20720,动态:22710,动态:22667,动态:20439</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>动态:13042,动态:15511,动态:19306,动态:17437,动态:9409,动态:7532,动态:16071,动态:11127,动态:8131,动态:20021,动态:20701,动态:4816,动态:4526,动态:10509,动态:11365,动态:8610,动态:7748,动态:21740,动态:22284,动态:3522,动态:14679,动态:22680,动态:22698,动态:20399,动态:21857,动态:4036,动态:7746,动态:17337,动态:22512,动态:21780,动态:21745,动态:20440,动态:22323,动态:22685,动态:21436,动态:21741,动态:21753,动态:20364,动态:21737,动态:22706,动态:20720,动态:22710,动态:21556,动态:22667,动态:22659,动态:21972,动态:22692,动态:21727,动态:22696</t>
+          <t>动态:16913,动态:18356,动态:19642,动态:17501,动态:12719,动态:14962,动态:5216,动态:10122,动态:6748,动态:12304,动态:16643,动态:12356,动态:6886,动态:13864,动态:16137,动态:17228,动态:18173,动态:22659,动态:22696,动态:21972,动态:20720,动态:17337,动态:22697,动态:22685,动态:21436,动态:22323,动态:22019,动态:22680,动态:21741,动态:7746,动态:21975,动态:21737,动态:21857,动态:21753,动态:22702,动态:22667,动态:20439,动态:22699,动态:4036,动态:21780,动态:22684,动态:21727,动态:20364,动态:21763,动态:21756,动态:22706,动态:20399,动态:22692,动态:21776,动态:22698</t>
         </is>
       </c>
     </row>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>动态:11100,动态:12084,动态:10107,动态:21990,动态:12893,动态:11805,动态:21129,动态:7532,动态:16935,动态:22283,动态:17172,动态:14113,动态:16580,动态:16050,动态:11021,动态:10106,动态:9463,动态:6135,动态:3168,动态:11488,动态:10144,动态:10553,动态:7746,动态:20364,动态:21436,动态:22323,动态:21975,动态:22512,动态:21753,动态:21972,动态:17337,动态:22507,动态:22688,动态:22146,动态:21763,动态:22019,动态:21741,动态:22698,动态:20440,动态:22696,动态:21757,动态:21756,动态:21857,动态:22684,动态:22680,动态:22697,动态:21727,动态:20399,动态:20720,动态:22706</t>
+          <t>动态:15078,动态:13056,动态:19385,动态:19835,动态:22658,动态:18025,动态:14999,动态:15632,动态:13976,动态:15077,动态:10474,动态:6622,动态:19007,动态:16900,动态:15058,动态:12881,动态:3795,动态:18365,动态:6360,动态:7148,动态:13316,动态:7603,动态:21757,动态:22323,动态:22146,动态:21436,动态:21763,动态:21727,动态:22680,动态:22684,动态:22685,动态:20364,动态:20399,动态:22696,动态:21756,动态:22019,动态:22688,动态:21745,动态:22667,动态:22710,动态:20440,动态:22512,动态:21740,动态:21776,动态:22692,动态:21780,动态:4036,动态:21556,动态:21972,动态:21753</t>
         </is>
       </c>
     </row>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>动态:816,动态:4432,动态:11915,动态:14001,动态:13407,动态:18154,动态:21946,动态:8231,动态:22427,动态:20016,动态:18852,动态:11022,动态:13981,动态:19486,动态:12055,动态:4969,动态:15946,动态:4683,动态:12305,动态:8741,动态:12018,动态:12883,动态:22493,动态:15318,动态:22697,动态:20440,动态:22146,动态:21737,动态:22710,动态:22019,动态:22706,动态:4036,动态:21740,动态:22512,动态:21972,动态:20720,动态:20439,动态:20364,动态:21756,动态:21857,动态:21975,动态:22659,动态:22684,动态:21741,动态:20399,动态:21556,动态:21753,动态:21776,动态:21757,动态:22323</t>
+          <t>动态:9463,动态:769,动态:10931,动态:20048,动态:21664,动态:6831,动态:13081,动态:17970,动态:6658,动态:13070,动态:11678,动态:9936,动态:16260,动态:22103,动态:21485,动态:10087,动态:8142,动态:18843,动态:6755,动态:10519,动态:8015,动态:22697,动态:21444,动态:19755,动态:11697,动态:22032,动态:11517,动态:11015,动态:17337,动态:22323,动态:21756,动态:22685,动态:21776,动态:21740,动态:20364,动态:21857,动态:22680,动态:21745,动态:21436,动态:21972,动态:22684,动态:22512,动态:20439,动态:21727,动态:7746,动态:22667,动态:22698,动态:22696,动态:22710,动态:22692</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>动态:8775,动态:14214,动态:5403,动态:20238,动态:10984,动态:15056,动态:15905,动态:21093,动态:5574,动态:13082,动态:14830,动态:14319,动态:7737,动态:2931,动态:238,动态:3111,动态:15885,动态:21106,动态:10959,动态:22499,动态:10969,动态:9307,动态:14721,动态:19294,动态:13151,动态:21756,动态:21436,动态:21727,动态:21740,动态:20439,动态:22323,动态:22019,动态:22702,动态:21763,动态:22667,动态:22507,动态:21741,动态:20440,动态:22680,动态:21556,动态:22692,动态:22512,动态:22146,动态:21745,动态:22698,动态:22685,动态:21737,动态:4036,动态:22710,动态:22696</t>
+          <t>动态:13802,动态:21648,动态:6779,动态:14084,动态:9766,动态:13256,动态:19656,动态:18695,动态:15950,动态:21160,动态:9712,动态:19697,动态:7111,动态:14818,动态:11551,动态:20205,动态:15228,动态:20399,动态:21757,动态:22702,动态:22146,动态:21556,动态:17337,动态:22507,动态:21753,动态:21780,动态:22019,动态:20439,动态:22692,动态:22697,动态:22710,动态:21737,动态:22512,动态:22685,动态:21436,动态:22696,动态:4036,动态:20364,动态:20720,动态:7746,动态:21756,动态:22688,动态:22659,动态:21727,动态:21857,动态:22680,动态:21776,动态:22323,动态:21972,动态:21975</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>动态:14421,动态:8940,动态:12325,动态:15977,动态:18600,动态:22285,动态:6086,动态:13445,动态:13294,动态:14555,动态:15212,动态:20837,动态:14022,动态:17501,动态:13795,动态:13378,动态:12027,动态:16595,动态:22698,动态:12753,动态:22699,动态:22692,动态:21741,动态:22507,动态:20440,动态:22697,动态:21857,动态:22146,动态:22684,动态:22680,动态:21727,动态:22323,动态:22659,动态:20399,动态:22710,动态:21756,动态:4036,动态:21975,动态:21757,动态:22667,动态:21436,动态:21745,动态:21776,动态:22696,动态:21763,动态:21780,动态:20720,动态:22019,动态:21556,动态:21740</t>
+          <t>动态:19448,动态:12897,动态:16052,动态:20337,动态:19377,动态:16076,动态:8122,动态:11408,动态:11034,动态:22657,动态:7099,动态:10210,动态:19541,动态:13016,动态:7601,动态:20271,动态:7529,动态:22692,动态:22697,动态:7746,动态:20399,动态:21756,动态:21727,动态:21745,动态:17337,动态:20364,动态:21753,动态:21972,动态:22680,动态:22512,动态:22146,动态:21763,动态:4036,动态:22667,动态:22710,动态:22685,动态:22507,动态:20439,动态:21741,动态:22323,动态:21757,动态:21740,动态:21857,动态:22698,动态:20720,动态:20440,动态:21776,动态:21780,动态:22659,动态:22684</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>动态:11320,动态:15565,动态:15189,动态:18083,动态:8287,动态:13582,动态:22310,动态:19401,动态:20066,动态:8378,动态:20011,动态:5206,动态:3249,动态:19990,动态:21642,动态:10941,动态:11365,动态:11096,动态:19127,动态:13402,动态:11126,动态:17623,动态:10981,动态:16401,动态:3128,动态:22019,动态:21753,动态:21972,动态:20439,动态:21780,动态:22688,动态:22512,动态:21727,动态:21741,动态:22680,动态:21556,动态:22685,动态:22146,动态:22706,动态:21757,动态:22697,动态:17337,动态:21776,动态:21857,动态:22698,动态:22323,动态:21756,动态:20440,动态:21975,动态:4036</t>
+          <t>动态:13729,动态:18683,动态:9036,动态:21658,动态:14352,动态:20731,动态:18868,动态:11403,动态:14305,动态:22624,动态:11698,动态:19215,动态:19991,动态:7153,动态:19933,动态:13212,动态:19514,动态:18733,动态:17958,动态:19899,动态:14456,动态:19127,动态:8295,动态:11137,动态:6294,动态:12389,动态:4036,动态:21757,动态:21780,动态:21776,动态:21745,动态:20440,动态:22019,动态:22688,动态:20439,动态:22696,动态:22512,动态:21756,动态:21753,动态:22697,动态:22667,动态:22659,动态:21857,动态:21737,动态:22680,动态:20720,动态:22698,动态:21436,动态:17337,动态:22323</t>
         </is>
       </c>
     </row>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>动态:8935,动态:22129,动态:14311,动态:10708,动态:13407,动态:18600,动态:21719,动态:15735,动态:11064,动态:16743,动态:11271,动态:9512,动态:15919,动态:15367,动态:14277,动态:20864,动态:21392,动态:6808,动态:7655,动态:10762,动态:21797,动态:9488,动态:20680,动态:19625,动态:6640,动态:20623,动态:6635,动态:21004,动态:10859,动态:15057,动态:8855,动态:15189,动态:20731,动态:20881,动态:22146,动态:13888,动态:10930,动态:14570,动态:9788,动态:19882,动态:11081,动态:10457,动态:8131,动态:9450,动态:12903,动态:22611,动态:22697,动态:21741,动态:22019,动态:10979</t>
+          <t>动态:12664,动态:9025,动态:11574,动态:16068,动态:13909,动态:20256,动态:7532,动态:13630,动态:9584,动态:6900,动态:7130,动态:16377,动态:10911,动态:17711,动态:11913,动态:18494,动态:11676,动态:13592,动态:15347,动态:18654,动态:15268,动态:14981,动态:11785,动态:19379,动态:21737,动态:22310,动态:14657,动态:7833,动态:12834,动态:10106,动态:15318,动态:12890,动态:10073,动态:13787,动态:21484,动态:21282,动态:12961,动态:12052,动态:22306,动态:18525,动态:17564,动态:784,动态:18995,动态:21141,动态:16802,动态:22684,动态:9724,动态:20364,动态:20399,动态:22431</t>
         </is>
       </c>
     </row>

--- a/20220426_algo_v2_10/algo_results/rec_result/generalized_cf_recommendation_map.xlsx
+++ b/20220426_algo_v2_10/algo_results/rec_result/generalized_cf_recommendation_map.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>动态:13911,动态:16942,动态:20389,动态:9769,动态:19018,动态:17867,动态:13495,动态:20333,动态:20486,动态:20319,动态:15977,动态:20312,动态:21166,动态:3119,动态:20362,动态:6821,动态:3178,动态:13782,动态:3099,动态:16617,动态:3138,动态:3096,动态:18740,动态:3795,动态:3168,动态:3153,动态:3081,动态:4302,动态:4027,动态:16074,动态:3150,动态:3793,动态:3133,动态:3110,动态:3072,动态:144,动态:3522,动态:21757,动态:22019,动态:22684,动态:21556,动态:22680,动态:22323,动态:21737,动态:21975,动态:22710,动态:20440,动态:22699,动态:20720,动态:21745</t>
+          <t>动态:14192,动态:19097,动态:19372,动态:20145,动态:14153,动态:20330,动态:20520,动态:8741,动态:17077,动态:16643,动态:20401,动态:17367,动态:11609,动态:14624,动态:16152,动态:20066,动态:3522,动态:3150,动态:3072,动态:3110,动态:3138,动态:3178,动态:13071,动态:3133,动态:3119,动态:16074,动态:4027,动态:3793,动态:19854,动态:3081,动态:144,动态:4302,动态:3153,动态:3099,动态:3795,动态:3168,动态:3096,动态:22698,动态:4036,动态:22667,动态:22688,动态:22323,动态:21753,动态:21436,动态:21975,动态:21780,动态:22685,动态:20364,动态:21727,动态:22684</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>动态:21267,动态:12313,动态:13621,动态:12322,动态:14794,动态:20663,动态:20803,动态:11870,动态:22291,动态:15044,动态:20419,动态:2760,动态:12902,动态:13548,动态:18683,动态:18054,动态:19625,动态:12047,动态:19899,动态:6729,动态:11269,动态:4890,动态:18629,动态:13875,动态:22074,动态:22296,动态:11695,动态:13116,动态:20319,动态:9479,动态:6549,动态:18655,动态:19821,动态:17966,动态:22634,动态:22346,动态:13187,动态:22502,动态:17471,动态:10478,动态:21743,动态:7349,动态:9860,动态:20440,动态:14463,动态:13128,动态:22710,动态:22697,动态:22696,动态:22699</t>
+          <t>动态:20456,动态:20312,动态:22284,动态:18075,动态:8167,动态:21756,动态:15090,动态:6786,动态:6455,动态:21249,动态:10774,动态:6625,动态:14844,动态:13998,动态:19041,动态:18678,动态:17172,动态:6606,动态:22477,动态:6766,动态:10694,动态:7790,动态:12018,动态:6693,动态:10217,动态:20868,动态:13943,动态:20461,动态:13708,动态:20401,动态:11116,动态:13148,动态:18409,动态:9087,动态:15763,动态:16086,动态:6831,动态:19643,动态:13116,动态:11490,动态:20810,动态:13684,动态:11501,动态:12180,动态:11290,动态:7145,动态:22710,动态:21556,动态:17501,动态:20399</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>动态:13833,动态:15814,动态:21752,动态:9307,动态:12362,动态:13814,动态:11135,动态:16191,动态:7145,动态:17228,动态:8892,动态:17165,动态:22667,动态:22684,动态:22702,动态:22680,动态:22685,动态:21737,动态:21556,动态:21753,动态:4036,动态:22512,动态:22019,动态:20440,动态:21740,动态:21436,动态:21975,动态:22659,动态:21756,动态:17337,动态:21763,动态:22706,动态:22507,动态:22688,动态:7746,动态:20720,动态:21776,动态:22692,动态:21972,动态:22146,动态:22696,动态:22698,动态:22699,动态:22697,动态:20364,动态:21727,动态:21780,动态:21857,动态:21745,动态:20439</t>
+          <t>动态:7171,动态:13887,动态:20588,动态:12826,动态:13051,动态:6845,动态:17951,动态:17507,动态:4176,动态:16199,动态:13907,动态:18841,动态:11441,动态:17346,动态:21556,动态:21756,动态:21727,动态:22680,动态:22512,动态:20364,动态:22685,动态:22019,动态:22699,动态:21740,动态:21972,动态:22684,动态:21975,动态:21745,动态:20440,动态:7746,动态:20439,动态:22667,动态:22702,动态:21776,动态:4036,动态:22659,动态:22696,动态:22507,动态:21857,动态:21763,动态:21753,动态:20720,动态:21757,动态:22698,动态:17337,动态:22146,动态:22710,动态:21737,动态:21741,动态:21436</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>动态:18615,动态:13961,动态:16721,动态:3174,动态:10926,动态:6906,动态:6447,动态:3073,动态:6901,动态:22099,动态:6916,动态:3166,动态:4031,动态:3897,动态:11110,动态:6865,动态:7789,动态:6858,动态:22699,动态:621,动态:7007,动态:7383,动态:12411,动态:3796,动态:11077,动态:20516,动态:21780,动态:7186,动态:15659,动态:6252,动态:3076,动态:21970,动态:3162,动态:22696,动态:3524,动态:16692,动态:6909,动态:3979,动态:3107,动态:18906,动态:18647,动态:21470,动态:5653,动态:7464,动态:7405,动态:20720,动态:21745,动态:22659,动态:22685,动态:22702</t>
+          <t>动态:6775,动态:3104,动态:3979,动态:21780,动态:3107,动态:6252,动态:7789,动态:22699,动态:13327,动态:15147,动态:13796,动态:3162,动态:21410,动态:7356,动态:7186,动态:6901,动态:21975,动态:16721,动态:6865,动态:3174,动态:21470,动态:14656,动态:13114,动态:7383,动态:6909,动态:14634,动态:6858,动态:6906,动态:3796,动态:3166,动态:3076,动态:7464,动态:3073,动态:3897,动态:4031,动态:19933,动态:8827,动态:17314,动态:20516,动态:6325,动态:21970,动态:621,动态:6447,动态:6916,动态:22696,动态:21727,动态:21740,动态:21745,动态:20439,动态:22706</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>动态:19836,动态:17145,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:14215,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>动态:9480,动态:5270,动态:20517,动态:11497,动态:13637,动态:20444,动态:12085,动态:19230,动态:17976,动态:7589,动态:15885,动态:13425,动态:22381,动态:17720,动态:21858,动态:14043,动态:16492,动态:18841,动态:8704,动态:7751,动态:8169,动态:22710,动态:21975,动态:22323,动态:21740,动态:7746,动态:21753,动态:21780,动态:22146,动态:22684,动态:20439,动态:21763,动态:22699,动态:22697,动态:22507,动态:22667,动态:21776,动态:22688,动态:22680,动态:17337,动态:21857,动态:20399,动态:22019,动态:22706,动态:22692,动态:21972,动态:21737,动态:22696,动态:21741,动态:21436</t>
+          <t>动态:14479,动态:3808,动态:685,动态:15919,动态:16848,动态:9421,动态:12840,动态:11340,动态:18141,动态:13191,动态:18362,动态:11022,动态:6547,动态:22507,动态:20439,动态:22684,动态:22323,动态:21756,动态:22667,动态:21780,动态:22706,动态:20440,动态:22698,动态:22019,动态:20364,动态:22710,动态:22692,动态:22699,动态:21737,动态:21741,动态:21975,动态:21763,动态:22680,动态:22146,动态:21556,动态:22688,动态:20720,动态:21436,动态:21972,动态:21740,动态:22685,动态:21857,动态:22696,动态:21745,动态:7746,动态:17337,动态:21757,动态:22659,动态:20399,动态:22702</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>动态:6620,动态:20310,动态:21417,动态:20389,动态:15623,动态:20200,动态:18871,动态:20401,动态:22710,动态:11607,动态:15498,动态:7203,动态:17341,动态:12592,动态:7150,动态:17443,动态:6637,动态:9097,动态:19251,动态:15354,动态:7226,动态:6816,动态:21763,动态:22146,动态:21776,动态:22702,动态:22697,动态:22692,动态:21741,动态:22684,动态:21857,动态:22659,动态:21727,动态:21745,动态:20439,动态:21556,动态:22698,动态:21972,动态:22323,动态:20364,动态:22507,动态:21740,动态:22019,动态:22699,动态:22512,动态:22680,动态:4036,动态:22706,动态:20440,动态:21756</t>
+          <t>动态:6622,动态:12672,动态:7121,动态:15388,动态:17582,动态:20645,动态:6694,动态:11100,动态:20310,动态:6888,动态:6786,动态:12711,动态:15354,动态:6789,动态:9097,动态:20399,动态:13674,动态:6782,动态:3979,动态:3175,动态:21740,动态:17337,动态:20364,动态:21436,动态:4036,动态:22688,动态:21776,动态:20720,动态:22667,动态:22699,动态:20439,动态:21741,动态:22706,动态:22507,动态:20440,动态:22698,动态:22710,动态:22692,动态:21556,动态:21763,动态:21780,动态:21756,动态:21727,动态:21975,动态:21737,动态:22697,动态:22019,动态:22512,动态:22680</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>动态:21105,动态:12084,动态:3120,动态:8176,动态:15280,动态:6548,动态:14791,动态:20966,动态:3096,动态:3178,动态:3119,动态:4031,动态:3099,动态:3138,动态:144,动态:3795,动态:3153,动态:3168,动态:3081,动态:19658,动态:17107,动态:4302,动态:4027,动态:3150,动态:18236,动态:3793,动态:3133,动态:3110,动态:3072,动态:5653,动态:3522,动态:21753,动态:20440,动态:20720,动态:22702,动态:21556,动态:22659,动态:21727,动态:22323,动态:21740,动态:22507,动态:22019,动态:22685,动态:22698,动态:20439,动态:20399,动态:21857,动态:20364,动态:21757,动态:22706</t>
+          <t>动态:14555,动态:10465,动态:8494,动态:21923,动态:18034,动态:20124,动态:11100,动态:2878,动态:11690,动态:11574,动态:3138,动态:3178,动态:12346,动态:3522,动态:3072,动态:14949,动态:3133,动态:3110,动态:3150,动态:15323,动态:10958,动态:4027,动态:3793,动态:16263,动态:6671,动态:3081,动态:144,动态:4302,动态:3153,动态:3099,动态:3795,动态:3119,动态:3168,动态:3096,动态:21727,动态:17337,动态:22685,动态:21975,动态:21741,动态:22507,动态:21745,动态:22688,动态:21753,动态:22684,动态:22692,动态:4036,动态:21857,动态:21756,动态:22146,动态:21737</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>动态:7735,动态:19821,动态:22545,动态:19723,动态:20389,动态:13690,动态:16257,动态:9488,动态:3249,动态:8137,动态:10592,动态:10298,动态:6789,动态:16620,动态:6819,动态:4036,动态:22512,动态:20364,动态:21727,动态:21740,动态:22659,动态:22146,动态:22692,动态:21780,动态:21757,动态:22688,动态:20439,动态:21753,动态:22507,动态:22684,动态:22685,动态:21745,动态:22699,动态:21776,动态:22698,动态:22680,动态:22702,动态:21857,动态:21972,动态:22019,动态:22696,动态:21737,动态:20399,动态:20720,动态:21763,动态:22667,动态:22323,动态:21556,动态:21975</t>
+          <t>动态:20419,动态:16914,动态:19723,动态:13317,动态:6615,动态:16648,动态:16607,动态:6652,动态:11281,动态:16858,动态:6898,动态:8619,动态:7226,动态:16277,动态:6462,动态:6902,动态:20399,动态:15789,动态:22323,动态:21436,动态:20364,动态:21776,动态:21740,动态:22699,动态:20720,动态:20440,动态:21857,动态:22706,动态:22697,动态:22146,动态:21975,动态:21780,动态:7746,动态:22688,动态:21741,动态:22710,动态:22702,动态:21737,动态:22512,动态:21556,动态:22698,动态:4036,动态:21727,动态:17337,动态:21972,动态:22696,动态:22667,动态:22684,动态:22659</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>动态:16232,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:781,动态:11096,动态:4632,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>动态:20399,动态:6462,动态:7099,动态:6637,动态:17954,动态:7604,动态:20337,动态:6680,动态:20356,动态:19230,动态:22507,动态:19417,动态:17304,动态:20351,动态:22310,动态:21727,动态:21757,动态:22680,动态:22667,动态:21780,动态:22323,动态:22702,动态:21776,动态:21745,动态:21763,动态:21857,动态:22019,动态:22685,动态:22688,动态:20440,动态:22659,动态:22684,动态:22697,动态:22692,动态:22146,动态:21975,动态:20720,动态:20439,动态:7746,动态:21737,动态:21972,动态:4036,动态:22706,动态:21740,动态:21741,动态:22696,动态:17337,动态:22699</t>
+          <t>动态:6187,动态:6637,动态:6825,动态:20346,动态:15165,动态:7133,动态:19128,动态:20227,动态:19821,动态:10849,动态:21139,动态:21201,动态:20821,动态:6694,动态:3174,动态:22667,动态:21780,动态:7746,动态:21975,动态:4036,动态:20399,动态:22699,动态:21740,动态:21972,动态:22696,动态:22146,动态:22706,动态:22697,动态:22659,动态:21556,动态:22684,动态:22688,动态:21763,动态:22019,动态:20439,动态:22680,动态:21757,动态:21745,动态:20364,动态:20440,动态:21741,动态:22685,动态:21753,动态:22512,动态:21776,动态:22710,动态:21857,动态:21756,动态:21737,动态:22702</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>动态:11782,动态:7310,动态:15415,动态:14829,动态:19646,动态:14735,动态:20113,动态:14649,动态:20523,动态:13276,动态:14214,动态:3156,动态:4296,动态:7586,动态:15855,动态:17072,动态:14768,动态:22512,动态:22710,动态:21763,动态:22696,动态:21741,动态:22692,动态:22697,动态:21727,动态:20440,动态:22698,动态:20364,动态:17337,动态:22323,动态:22685,动态:20439,动态:21776,动态:21780,动态:21753,动态:7746,动态:21745,动态:22699,动态:22019,动态:21757,动态:21737,动态:22706,动态:22688,动态:21975,动态:20399,动态:22680,动态:21556,动态:20720,动态:22667,动态:22507</t>
+          <t>动态:7154,动态:8259,动态:7310,动态:3072,动态:10580,动态:13479,动态:10074,动态:12925,动态:9890,动态:14876,动态:11542,动态:10298,动态:19624,动态:3076,动态:6840,动态:20009,动态:20114,动态:17956,动态:10135,动态:12811,动态:21651,动态:22698,动态:22697,动态:7746,动态:22685,动态:21737,动态:22146,动态:21763,动态:17337,动态:20720,动态:22688,动态:22710,动态:21757,动态:21972,动态:20440,动态:21975,动态:20364,动态:22507,动态:21556,动态:20399,动态:22702,动态:21753,动态:22019,动态:21756,动态:21740,动态:22706,动态:22323,动态:21776,动态:22692,动态:22659</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>动态:16792,动态:21301,动态:22503,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:13469,动态:148,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>动态:21845,动态:17966,动态:17974,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:22019,动态:22699,动态:22684,动态:22146,动态:22697,动态:7746,动态:20440,动态:20720,动态:21745,动态:21975,动态:20399,动态:21763,动态:22659,动态:22710,动态:21776,动态:21737,动态:21741,动态:22702,动态:20439,动态:22692,动态:21756,动态:21780,动态:22706,动态:22698,动态:21857,动态:22680,动态:4036,动态:21972,动态:21436,动态:22667,动态:22323,动态:21753,动态:20364,动态:21556,动态:22688,动态:22507,动态:17337,动态:22696,动态:21757,动态:21740,动态:21727,动态:22512,动态:22685</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>动态:17543,动态:13888,动态:11432,动态:9981,动态:6784,动态:6686,动态:6782,动态:6689,动态:21776,动态:22512,动态:20439,动态:21756,动态:22667,动态:20720,动态:22323,动态:22684,动态:22696,动态:22685,动态:22507,动态:22692,动态:21857,动态:22698,动态:22146,动态:22680,动态:21753,动态:21556,动态:22699,动态:22702,动态:21741,动态:7746,动态:21975,动态:4036,动态:21727,动态:22710,动态:20399,动态:21436,动态:21757,动态:22659,动态:17337,动态:20364,动态:21737,动态:21745,动态:21780,动态:21740,动态:22697,动态:22688,动态:22019,动态:21763,动态:22706,动态:20440</t>
+          <t>动态:6784,动态:15913,动态:6689,动态:6686,动态:6782,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>动态:7022,动态:14875,动态:13210,动态:22624,动态:20809,动态:12845,动态:8259,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:6456,动态:12916,动态:7359,动态:7746,动态:11488,动态:15165,动态:12053,动态:22099,动态:21492,动态:14630,动态:12853,动态:15953,动态:10131,动态:10989,动态:17867,动态:20440,动态:21753,动态:22659,动态:22680,动态:22696,动态:22698,动态:22507,动态:21740,动态:21436,动态:22146,动态:21756,动态:20720,动态:22667,动态:17337,动态:20439,动态:21556,动态:21757,动态:20399,动态:22019,动态:20364,动态:22692,动态:21857,动态:21776,动态:22684,动态:21741,动态:21975,动态:22512,动态:22688,动态:21763,动态:22699,动态:22702,动态:21745,动态:4036,动态:22697</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>动态:21267,动态:20759,动态:15861,动态:13481,动态:11584,动态:19702,动态:12903,动态:19481,动态:9584,动态:21990,动态:10070,动态:13534,动态:10069,动态:10772,动态:11497,动态:6808,动态:19380,动态:11861,动态:15000,动态:20738,动态:18830,动态:13727,动态:18376,动态:11075,动态:13818,动态:18164,动态:16052,动态:19350,动态:16457,动态:21975,动态:20440,动态:20720,动态:21776,动态:21737,动态:22684,动态:21753,动态:22697,动态:22696,动态:22146,动态:21757,动态:21756,动态:22702,动态:21780,动态:22692,动态:21741,动态:22680,动态:21972,动态:21436,动态:21727,动态:21740</t>
+          <t>动态:10933,动态:18647,动态:15787,动态:13615,动态:10929,动态:17345,动态:11966,动态:7006,动态:9784,动态:8293,动态:12070,动态:12614,动态:8107,动态:16571,动态:4190,动态:13592,动态:13710,动态:10859,动态:11885,动态:6903,动态:13063,动态:4184,动态:6193,动态:15490,动态:17940,动态:21745,动态:21857,动态:22684,动态:22706,动态:22710,动态:21776,动态:22702,动态:22512,动态:21780,动态:20440,动态:21727,动态:21436,动态:22696,动态:21975,动态:20439,动态:22667,动态:20720,动态:21556,动态:22692,动态:22680,动态:22685,动态:22019,动态:22698,动态:20364,动态:21741</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>动态:11897,动态:19281,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:4526,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>动态:20067,动态:9160,动态:12845,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:12845,动态:20645,动态:11391,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>动态:14830,动态:19494,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:13971,动态:21526,动态:18665,动态:12901,动态:4675,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>动态:20459,动态:13837,动态:10539,动态:21737,动态:22702,动态:22710,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:17762,动态:13629,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>动态:12829,动态:7678,动态:6622,动态:11985,动态:12322,动态:12690,动态:12893,动态:20376,动态:20356,动态:10107,动态:18989,动态:20374,动态:13067,动态:20152,动态:6808,动态:9163,动态:6789,动态:16395,动态:6637,动态:3979,动态:3073,动态:6901,动态:4036,动态:6916,动态:4031,动态:3166,动态:3897,动态:7789,动态:21780,动态:22699,动态:621,动态:7186,动态:6447,动态:16721,动态:6252,动态:3076,动态:6325,动态:20516,动态:3104,动态:7383,动态:20525,动态:7464,动态:21470,动态:3175,动态:21970,动态:20720,动态:22697,动态:22684,动态:22146,动态:22692</t>
+          <t>动态:20419,动态:20598,动态:19401,动态:21417,动态:13080,动态:20622,动态:20720,动态:6872,动态:15322,动态:18034,动态:20623,动态:19208,动态:20490,动态:14273,动态:20346,动态:20355,动态:7062,动态:7789,动态:22699,动态:3166,动态:7186,动态:6252,动态:3796,动态:4036,动态:6901,动态:16721,动态:3174,动态:3162,动态:3107,动态:4031,动态:3073,动态:22696,动态:20516,动态:6325,动态:21970,动态:7464,动态:621,动态:3076,动态:6447,动态:7383,动态:21470,动态:3104,动态:3897,动态:3979,动态:21780,动态:22512,动态:4036,动态:22692,动态:21740,动态:7746</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>动态:11096,动态:1299,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:13339,动态:14972,动态:15547,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>动态:18855,动态:10601,动态:15145,动态:779,动态:11863,动态:15916,动态:11806,动态:13661,动态:7119,动态:16110,动态:17529,动态:20947,动态:16646,动态:12777,动态:6553,动态:18409,动态:8940,动态:9552,动态:16609,动态:12078,动态:20611,动态:11002,动态:692,动态:19004,动态:21785,动态:18088,动态:11478,动态:16111,动态:10416,动态:13416,动态:17498,动态:21481,动态:13756,动态:19835,动态:9118,动态:14217,动态:14247,动态:15600,动态:3113,动态:14609,动态:240,动态:13193,动态:16740,动态:18173,动态:21723,动态:22710,动态:20440,动态:22698,动态:12293,动态:19200</t>
+          <t>动态:16960,动态:15791,动态:13289,动态:14475,动态:18804,动态:18059,动态:13384,动态:7394,动态:21936,动态:14373,动态:22664,动态:21301,动态:12891,动态:22393,动态:20293,动态:14445,动态:11391,动态:19753,动态:6872,动态:9163,动态:16563,动态:11499,动态:11004,动态:21200,动态:12962,动态:6584,动态:21467,动态:19893,动态:16290,动态:6655,动态:6754,动态:9015,动态:17126,动态:21846,动态:11991,动态:13869,动态:18619,动态:17711,动态:9331,动态:14167,动态:9143,动态:22548,动态:8002,动态:19856,动态:18813,动态:20865,动态:22507,动态:11967,动态:18266,动态:21436</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>动态:9132,动态:16211,动态:4968,动态:13249,动态:18932,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:20153,动态:9986,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>动态:19208,动态:11434,动态:16602,动态:20069,动态:20356,动态:20332,动态:6691,动态:19935,动态:18467,动态:12711,动态:22667,动态:6622,动态:16385,动态:20399,动态:12595,动态:22707,动态:20398,动态:16395,动态:12593,动态:20364,动态:22684,动态:22323,动态:22696,动态:22688,动态:22692,动态:21756,动态:21972,动态:22680,动态:21740,动态:21780,动态:22697,动态:22507,动态:22706,动态:21436,动态:22019,动态:22698,动态:21745,动态:7746,动态:22710,动态:22659,动态:22512,动态:22702,动态:21737,动态:21776,动态:21556,动态:17337,动态:21757</t>
+          <t>动态:20274,动态:20069,动态:12727,动态:20521,动态:19995,动态:20256,动态:20837,动态:20310,动态:20330,动态:21417,动态:12595,动态:16401,动态:20399,动态:16395,动态:20364,动态:22507,动态:21857,动态:22706,动态:22323,动态:20720,动态:22667,动态:21975,动态:22702,动态:21740,动态:22512,动态:22659,动态:21556,动态:22684,动态:21972,动态:21780,动态:22710,动态:21436,动态:22692,动态:22680,动态:7746,动态:17337,动态:21757,动态:21745,动态:21756,动态:22698,动态:22696,动态:21776,动态:21737,动态:22685,动态:21753,动态:22688,动态:21763,动态:22019</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>动态:13327,动态:14421,动态:3142,动态:3153,动态:21854,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:11257,动态:3153,动态:20590,动态:3142,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>动态:21267,动态:6905,动态:20851,动态:20810,动态:21497,动态:13249,动态:20881,动态:20714,动态:12881,动态:15277,动态:13135,动态:20481,动态:21538,动态:6766,动态:11302,动态:12399,动态:20268,动态:20022,动态:12027,动态:9276,动态:12623,动态:15181,动态:22042,动态:18088,动态:17060,动态:5574,动态:9461,动态:17216,动态:12284,动态:18742,动态:10870,动态:9768,动态:20771,动态:17963,动态:8296,动态:7354,动态:16222,动态:15946,动态:3117,动态:13255,动态:13201,动态:11734,动态:15340,动态:22673,动态:22103,动态:21776,动态:22685,动态:22688,动态:22019,动态:22684</t>
+          <t>动态:17853,动态:22254,动态:11497,动态:10476,动态:11180,动态:13384,动态:11192,动态:8831,动态:18038,动态:7678,动态:17941,动态:11045,动态:10708,动态:11730,动态:22184,动态:20379,动态:19035,动态:13176,动态:16019,动态:21530,动态:17290,动态:16891,动态:17321,动态:21531,动态:12636,动态:20985,动态:11985,动态:11537,动态:16605,动态:14395,动态:18677,动态:6655,动态:19423,动态:16222,动态:8793,动态:11320,动态:18624,动态:17566,动态:8168,动态:19504,动态:17750,动态:20447,动态:9307,动态:3115,动态:15203,动态:8915,动态:21857,动态:22684,动态:20840,动态:17742</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>动态:9163,动态:17481,动态:19810,动态:17304,动态:20398,动态:3153,动态:4036,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:22685,动态:21780</t>
+          <t>动态:20419,动态:17304,动态:17341,动态:19810,动态:11104,动态:14277,动态:17481,动态:9093,动态:20399,动态:20398,动态:5233,动态:21737,动态:21975,动态:21972,动态:22680,动态:21763,动态:21753,动态:22667,动态:22698,动态:20720,动态:22706,动态:20439,动态:22697,动态:22146,动态:22507,动态:21727,动态:22710,动态:22702,动态:7746,动态:17337,动态:22692,动态:22323,动态:21757,动态:22699,动态:21756,动态:21745,动态:21776,动态:22659,动态:22019,动态:22684,动态:20440,动态:22688,动态:21780,动态:22512,动态:22685,动态:22696,动态:4036,动态:21857,动态:21741</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>动态:11635,动态:11521,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:19171,动态:10465,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>动态:11972,动态:16039,动态:21194,动态:17949,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:21757,动态:22667,动态:22680,动态:20439,动态:7746,动态:21740,动态:22697,动态:22692,动态:21756,动态:22146,动态:20720,动态:22706,动态:21753,动态:22696,动态:22323,动态:21780,动态:4036,动态:22512,动态:22659,动态:21436,动态:21972,动态:21556,动态:22684,动态:22699,动态:21737,动态:20364,动态:22702,动态:22688,动态:20399,动态:21727,动态:21741,动态:21745,动态:22685,动态:21776,动态:22710,动态:21857,动态:21975,动态:22507,动态:22019,动态:22698,动态:17337,动态:21763</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>动态:9097,动态:13793,动态:16273,动态:11374,动态:9093,动态:13818,动态:17237,动态:2926,动态:8129,动态:10535,动态:20764,动态:10071,动态:12917,动态:12919,动态:8940,动态:17619,动态:18906,动态:15963,动态:20854,动态:15935,动态:7310,动态:10106,动态:22697,动态:22323,动态:21436,动态:21740,动态:21763,动态:4036,动态:20439,动态:21776,动态:21737,动态:21756,动态:21753,动态:22696,动态:20399,动态:22699,动态:22706,动态:17337,动态:22688,动态:22146,动态:22702,动态:22684,动态:22512,动态:22692,动态:20440,动态:21857,动态:22685,动态:22659,动态:22698,动态:21556</t>
+          <t>动态:19087,动态:11135,动态:22709,动态:13055,动态:7740,动态:13663,动态:16826,动态:20615,动态:15058,动态:16792,动态:821,动态:2966,动态:7310,动态:10112,动态:9790,动态:20853,动态:15963,动态:10990,动态:9201,动态:22680,动态:22697,动态:22706,动态:22667,动态:22710,动态:22696,动态:21737,动态:4036,动态:21975,动态:21436,动态:20720,动态:21741,动态:20399,动态:22684,动态:21757,动态:21972,动态:22692,动态:21780,动态:22507,动态:22019,动态:21556,动态:22512,动态:22146,动态:21727,动态:21857,动态:7746,动态:21753,动态:22685,动态:22699,动态:20440,动态:21763</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>动态:18309,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:12865,动态:21301,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>动态:15078,动态:9503,动态:14409,动态:11328,动态:19620,动态:11993,动态:9499,动态:12384,动态:11014,动态:6479,动态:12636,动态:7002,动态:12380,动态:15145,动态:13814,动态:20759,动态:7824,动态:11168,动态:19792,动态:11285,动态:12836,动态:11015,动态:19219,动态:11863,动态:10375,动态:12015,动态:21675,动态:19422,动态:11466,动态:19706,动态:4296,动态:10959,动态:11697,动态:16618,动态:8465,动态:12891,动态:840,动态:14008,动态:8752,动态:20390,动态:22654,动态:13971,动态:15352,动态:11281,动态:10971,动态:21756,动态:22680,动态:20399,动态:22323,动态:7746</t>
+          <t>动态:15935,动态:20597,动态:1360,动态:11281,动态:7117,动态:16255,动态:9996,动态:18301,动态:16766,动态:13256,动态:17484,动态:13746,动态:19420,动态:22413,动态:16512,动态:13198,动态:19000,动态:8512,动态:13837,动态:17749,动态:10708,动态:16605,动态:15057,动态:13593,动态:11116,动态:11285,动态:3420,动态:783,动态:17542,动态:10069,动态:19312,动态:17460,动态:15932,动态:18083,动态:20151,动态:19867,动态:11861,动态:16432,动态:13886,动态:22433,动态:11380,动态:20022,动态:13325,动态:9047,动态:6894,动态:20439,动态:21737,动态:22667,动态:21753,动态:22706</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>动态:14875,动态:10429,动态:6887,动态:11063,动态:11444,动态:20008,动态:12053,动态:13086,动态:18490,动态:18167,动态:9039,动态:7360,动态:20997,动态:12595,动态:6546,动态:6456,动态:11268,动态:8631,动态:4880,动态:13095,动态:15984,动态:16300,动态:16263,动态:4512,动态:10954,动态:9286,动态:2926,动态:19127,动态:13803,动态:11408,动态:15332,动态:16162,动态:20337,动态:19847,动态:13775,动态:15947,动态:16833,动态:4345,动态:5151,动态:14431,动态:12329,动态:8618,动态:14208,动态:20052,动态:12654,动态:18372,动态:10944,动态:20439,动态:21737,动态:5415</t>
+          <t>动态:9916,动态:15612,动态:17246,动态:7356,动态:19457,动态:6360,动态:11782,动态:7395,动态:10956,动态:7740,动态:13469,动态:18844,动态:13818,动态:11265,动态:769,动态:10290,动态:10935,动态:11781,动态:12586,动态:13071,动态:19469,动态:8231,动态:4683,动态:19436,动态:10592,动态:6865,动态:12067,动态:20148,动态:18653,动态:7305,动态:19258,动态:5042,动态:16281,动态:5901,动态:20177,动态:6683,动态:12019,动态:5603,动态:10114,动态:20184,动态:20146,动态:7039,动态:9039,动态:20399,动态:6826,动态:21436,动态:7388,动态:1797,动态:13033,动态:21737</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>动态:20440,动态:22688,动态:22512,动态:21556,动态:21780,动态:21776,动态:22702,动态:21753,动态:22659,动态:22507,动态:22706,动态:22146,动态:20399,动态:20439,动态:21857,动态:22696,动态:22698,动态:22667,动态:22680,动态:22697,动态:22710,动态:20364,动态:22685,动态:22019,动态:21740,动态:22699,动态:22684,动态:21756,动态:7746,动态:21737,动态:22692,动态:17337,动态:21727,动态:21972,动态:21975,动态:21741,动态:21757,动态:4036,动态:21436,动态:21745,动态:21763,动态:22323,动态:20720</t>
+          <t>动态:13773,动态:16857,动态:16891,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>动态:18313,动态:12126,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:18490,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>动态:12967,动态:15318,动态:20720,动态:6888,动态:20358,动态:21737,动态:14187,动态:10070,动态:13067,动态:20390,动态:20598,动态:21201,动态:20333,动态:20355,动态:16617,动态:20071,动态:21470,动态:7383,动态:21780,动态:621,动态:22699,动态:7789,动态:3076,动态:3897,动态:4031,动态:3166,动态:4036,动态:3162,动态:3107,动态:3073,动态:3174,动态:22696,动态:3979,动态:6325,动态:20516,动态:3104,动态:20525,动态:6916,动态:3796,动态:22692,动态:21436,动态:21741,动态:21740,动态:21776,动态:21975,动态:21972,动态:22507,动态:22659,动态:21753</t>
+          <t>动态:11396,动态:18655,动态:22710,动态:17081,动态:7688,动态:22650,动态:20374,动态:16389,动态:19987,动态:16256,动态:17072,动态:14134,动态:20359,动态:12587,动态:21780,动态:3174,动态:3897,动态:3162,动态:22699,动态:7789,动态:3107,动态:4036,动态:7383,动态:3104,动态:21470,动态:6916,动态:621,动态:6325,动态:20516,动态:22696,动态:4031,动态:3073,动态:3076,动态:3166,动态:3796,动态:3979,动态:20525,动态:22512,动态:22698,动态:17337,动态:21857,动态:21756,动态:21757,动态:22019,动态:21753,动态:22323,动态:22706,动态:22702</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>动态:20622,动态:17367,动态:20374,动态:11863,动态:20066,动态:20356,动态:20836,动态:15654,动态:13082,动态:14187,动态:20598,动态:21084,动态:22507,动态:17954,动态:7746,动态:11399,动态:20348,动态:21741,动态:22659,动态:4036,动态:21780,动态:22019,动态:22706,动态:22323,动态:21727,动态:20720,动态:21975,动态:22702,动态:21857,动态:22710,动态:21753,动态:22684,动态:22697,动态:21776,动态:22146,动态:22699,动态:21556,动态:21740,动态:21436,动态:22696,动态:21757,动态:17337,动态:22688,动态:21763,动态:22692,动态:21756,动态:22667,动态:22680</t>
+          <t>动态:20066,动态:19018,动态:21467,动态:20358,动态:11863,动态:22430,动态:22310,动态:16110,动态:20598,动态:20386,动态:19231,动态:12587,动态:21776,动态:21857,动态:4036,动态:22323,动态:22512,动态:21740,动态:21741,动态:21780,动态:22685,动态:21757,动态:21745,动态:22507,动态:22699,动态:21727,动态:22667,动态:20720,动态:22680,动态:22659,动态:7746,动态:21756,动态:21556,动态:21436,动态:20364,动态:22702,动态:22688,动态:22146,动态:22706,动态:22697,动态:22698,动态:22684,动态:22692,动态:21753,动态:21972,动态:21737,动态:22696,动态:17337,动态:22019,动态:22710</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>动态:14601,动态:15638,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:18471,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>动态:6645,动态:20479,动态:17720,动态:10984,动态:784,动态:15916,动态:20664,动态:4184,动态:7310,动态:10914,动态:15490,动态:18781,动态:22103,动态:8257,动态:17954,动态:15531,动态:20264,动态:11783,动态:20389,动态:19268,动态:14019,动态:17265,动态:18110,动态:10375,动态:21757,动态:21727,动态:22507,动态:22688,动态:21753,动态:21737,动态:21780,动态:21741,动态:21776,动态:21756,动态:20440,动态:22692,动态:22696,动态:22698,动态:21763,动态:22710,动态:21745,动态:20439,动态:22697,动态:22512,动态:22706,动态:20720,动态:22684,动态:22146,动态:22680,动态:22659</t>
+          <t>动态:16267,动态:20107,动态:10242,动态:12397,动态:14740,动态:19373,动态:12269,动态:12592,动态:12092,动态:12150,动态:7047,动态:13212,动态:15608,动态:19380,动态:12326,动态:14058,动态:16829,动态:15199,动态:8775,动态:8920,动态:13838,动态:833,动态:4184,动态:17168,动态:11033,动态:12611,动态:13252,动态:13751,动态:22684,动态:22659,动态:4036,动态:20364,动态:21556,动态:21857,动态:7746,动态:21436,动态:22706,动态:21776,动态:22702,动态:20399,动态:20439,动态:20720,动态:22323,动态:22698,动态:22696,动态:22507,动态:20440,动态:22710,动态:21745,动态:22146</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>动态:7056,动态:17742,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:14722,动态:16910,动态:15271,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>动态:6899,动态:17687,动态:15151,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:7898,动态:13887,动态:12111,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>动态:5662,动态:17515,动态:13970,动态:6905,动态:13402,动态:12883,动态:8940,动态:10526,动态:11422,动态:6612,动态:22460,动态:19751,动态:19144,动态:6840,动态:7145,动态:19898,动态:14696,动态:7746,动态:21972,动态:22667,动态:21727,动态:20439,动态:21753,动态:20440,动态:21776,动态:22659,动态:4036,动态:22699,动态:21763,动态:20720,动态:21780,动态:22680,动态:21756,动态:22696,动态:22323,动态:21857,动态:21737,动态:22697,动态:22706,动态:21436,动态:21556,动态:21740,动态:22507,动态:20364,动态:22698,动态:22692,动态:17337,动态:20399,动态:22684,动态:21741</t>
+          <t>动态:20019,动态:779,动态:20926,动态:5653,动态:6821,动态:15761,动态:22680,动态:6749,动态:19656,动态:18771,动态:22042,动态:20256,动态:21229,动态:9426,动态:14929,动态:16531,动态:22019,动态:17768,动态:19816,动态:22638,动态:11541,动态:16048,动态:14964,动态:21741,动态:21436,动态:21756,动态:22698,动态:20440,动态:22659,动态:21972,动态:21556,动态:22512,动态:22685,动态:22688,动态:22323,动态:22699,动态:21753,动态:22667,动态:21737,动态:22684,动态:22702,动态:20364,动态:21763,动态:21857,动态:4036,动态:21757,动态:21780,动态:17337</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>动态:11406,动态:13509,动态:6848,动态:12049,动态:18500,动态:14736,动态:18339,动态:22512,动态:15773,动态:6956,动态:9488,动态:10165,动态:21084,动态:12889,动态:19419,动态:8015,动态:17973,动态:21627,动态:17112,动态:11391,动态:687,动态:22680,动态:13210,动态:11589,动态:676,动态:21756,动态:22696,动态:17337,动态:21436,动态:21740,动态:21727,动态:22667,动态:21975,动态:22706,动态:22692,动态:21972,动态:22684,动态:20720,动态:20364,动态:22685,动态:21763,动态:22710,动态:22688,动态:22019,动态:22659,动态:4036,动态:20399,动态:21753,动态:22697</t>
+          <t>动态:15615,动态:18313,动态:20793,动态:237,动态:17755,动态:14530,动态:6654,动态:22381,动态:8573,动态:21111,动态:22283,动态:14816,动态:10968,动态:20772,动态:21960,动态:11014,动态:20200,动态:7586,动态:3126,动态:3072,动态:22699,动态:17337,动态:21975,动态:22697,动态:21780,动态:21556,动态:22659,动态:20720,动态:22698,动态:20439,动态:21740,动态:21436,动态:21741,动态:21756,动态:22692,动态:22696,动态:22680,动态:22706,动态:21763,动态:20399,动态:22507,动态:22019,动态:21737,动态:21745,动态:21972,动态:22323,动态:22146,动态:22688,动态:22667,动态:21776</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>动态:3119,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:7121,动态:17634,动态:19456,动态:9015,动态:19650,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>动态:13729,动态:14058,动态:10995,动态:19529,动态:18378,动态:18695,动态:20127,动态:15415,动态:3078,动态:10290,动态:20356,动态:20821,动态:17582,动态:10890,动态:6779,动态:11736,动态:16358,动态:12197,动态:3418,动态:18024,动态:20143,动态:20658,动态:21737,动态:21436,动态:20440,动态:22019,动态:22667,动态:21745,动态:21727,动态:22696,动态:21975,动态:21780,动态:21757,动态:20439,动态:22692,动态:22710,动态:22699,动态:4036,动态:20720,动态:22512,动态:22659,动态:22323,动态:7746,动态:22706,动态:21972,动态:22698,动态:21741,动态:21857,动态:22680,动态:22702</t>
+          <t>动态:16942,动态:4675,动态:15974,动态:16717,动态:19127,动态:9499,动态:14583,动态:13391,动态:16026,动态:10544,动态:7122,动态:21501,动态:22242,动态:19828,动态:7357,动态:18987,动态:9428,动态:6619,动态:17582,动态:22644,动态:22667,动态:22688,动态:22680,动态:22702,动态:21737,动态:22710,动态:21972,动态:22684,动态:21753,动态:22507,动态:21741,动态:22146,动态:22697,动态:21857,动态:21756,动态:21975,动态:21436,动态:17337,动态:20720,动态:20440,动态:21780,动态:21745,动态:22659,动态:21727,动态:22706,动态:22699,动态:22685,动态:20399,动态:20439,动态:7746</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>动态:15696,动态:14486,动态:11676,动态:6636,动态:13070,动态:13136,动态:12304,动态:19041,动态:8935,动态:19306,动态:19376,动态:16958,动态:16578,动态:21092,动态:9545,动态:14994,动态:17340,动态:3119,动态:3178,动态:3099,动态:3168,动态:3138,动态:3096,动态:3153,动态:3795,动态:10581,动态:3081,动态:4302,动态:4027,动态:3150,动态:3793,动态:3133,动态:3110,动态:3072,动态:144,动态:3522,动态:21975,动态:22685,动态:21741,动态:21756,动态:22697,动态:22659,动态:17337,动态:21727,动态:22702,动态:22698,动态:22680,动态:22512,动态:20364,动态:22688</t>
+          <t>动态:16935,动态:13623,动态:6548,动态:12552,动态:14718,动态:13135,动态:19835,动态:18025,动态:12759,动态:21363,动态:3110,动态:3522,动态:3138,动态:3072,动态:3178,动态:3133,动态:3160,动态:3150,动态:3168,动态:3793,动态:10124,动态:11113,动态:3081,动态:144,动态:4302,动态:3153,动态:20071,动态:3099,动态:3795,动态:7472,动态:10955,动态:3119,动态:4027,动态:3096,动态:22706,动态:22692,动态:22019,动态:21763,动态:22680,动态:20440,动态:22698,动态:20399,动态:21780,动态:20439,动态:21857,动态:21741,动态:22699,动态:22659,动态:22710,动态:22667</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>动态:7054,动态:6773,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:12327,动态:21044,动态:11184,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>动态:16645,动态:6662,动态:17484,动态:16641,动态:6904,动态:17174,动态:17177,动态:17228,动态:17170,动态:17172,动态:7137,动态:17176,动态:17231,动态:22019,动态:22146,动态:21740,动态:21756,动态:20439,动态:21780,动态:22696,动态:21741,动态:20720,动态:22697,动态:22659,动态:7746,动态:22692,动态:22702,动态:22684,动态:22699,动态:20364,动态:22706,动态:22710,动态:20399,动态:21737,动态:21745,动态:21436,动态:21763,动态:21776,动态:22512,动态:22507,动态:21757,动态:17337,动态:21857,动态:21972,动态:22698,动态:22688,动态:22667,动态:22685,动态:4036,动态:20440</t>
+          <t>动态:6662,动态:7137,动态:17177,动态:17170,动态:16641,动态:17228,动态:17231,动态:16645,动态:17484,动态:17351,动态:17176,动态:17172,动态:17323,动态:17174,动态:6904,动态:20399,动态:21727,动态:22684,动态:21745,动态:21972,动态:22697,动态:22710,动态:22512,动态:22702,动态:21737,动态:22698,动态:21556,动态:21756,动态:22692,动态:17337,动态:21975,动态:22680,动态:21776,动态:22659,动态:22688,动态:22019,动态:22146,动态:20439,动态:21780,动态:21753,动态:21740,动态:21763,动态:7746,动态:20720,动态:22323,动态:22696,动态:20440,动态:22667,动态:20364,动态:22699</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>动态:6522,动态:11043,动态:1327,动态:12871,动态:6789,动态:11147,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:14244,动态:10342,动态:8132,动态:15765,动态:14679,动态:20329,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>动态:9153,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:4305,动态:19650,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>动态:6692,动态:6693,动态:6694,动态:14634,动态:20254,动态:15150,动态:21301,动态:6691,动态:6786,动态:6784,动态:11215,动态:15142,动态:6777,动态:6773,动态:6848,动态:6790,动态:19932,动态:6762,动态:6789,动态:6782,动态:6767,动态:6902,动态:6770,动态:6845,动态:6761,动态:6752,动态:3119,动态:3099,动态:3178,动态:621,动态:3096,动态:144,动态:3168,动态:3795,动态:3153,动态:3081,动态:4302,动态:4027,动态:3150,动态:3793,动态:3133,动态:3110,动态:3072,动态:3138,动态:3522,动态:22685,动态:20440,动态:21780,动态:20399,动态:22697</t>
+          <t>动态:18110,动态:11577,动态:6786,动态:15142,动态:5354,动态:15147,动态:15151,动态:6693,动态:6652,动态:6691,动态:6764,动态:6848,动态:6789,动态:6773,动态:6666,动态:20059,动态:6782,动态:6762,动态:6894,动态:6755,动态:6902,动态:6761,动态:6752,动态:6779,动态:6845,动态:6809,动态:6777,动态:6767,动态:3138,动态:3110,动态:3150,动态:3178,动态:3119,动态:3133,动态:3072,动态:3168,动态:4027,动态:621,动态:3793,动态:3081,动态:144,动态:4302,动态:3153,动态:3099,动态:3795,动态:21556,动态:21753,动态:21776,动态:21763,动态:21741</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>动态:10136,动态:9087,动态:4023,动态:15638,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:16846,动态:10136,动态:21917,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>动态:13099,动态:14901,动态:20124,动态:13672,动态:13286,动态:16068,动态:15285,动态:8674,动态:10998,动态:8122,动态:4890,动态:20994,动态:14683,动态:20803,动态:14630,动态:15756,动态:18781,动态:20789,动态:22103,动态:13618,动态:11500,动态:13243,动态:18941,动态:12047,动态:20769,动态:19537,动态:14120,动态:20922,动态:13291,动态:20701,动态:9734,动态:14441,动态:18082,动态:13616,动态:19940,动态:20482,动态:14966,动态:13193,动态:22497,动态:15287,动态:3249,动态:12673,动态:7133,动态:11442,动态:11991,动态:11897,动态:20399,动态:22699,动态:21740,动态:22019</t>
+          <t>动态:14408,动态:18057,动态:18996,动态:11583,动态:11585,动态:11787,动态:14603,动态:10182,动态:20217,动态:6658,动态:8773,动态:19296,动态:20219,动态:5558,动态:20831,动态:22283,动态:21422,动态:13358,动态:13593,动态:19940,动态:20666,动态:1245,动态:4653,动态:14373,动态:20870,动态:10694,动态:15940,动态:15310,动态:13296,动态:21723,动态:17978,动态:9416,动态:15861,动态:11458,动态:14878,动态:15756,动态:16441,动态:15425,动态:7598,动态:19646,动态:13481,动态:21675,动态:9507,动态:22290,动态:12413,动态:21740,动态:22685,动态:15243,动态:21737,动态:10950</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>动态:961,动态:21737,动态:13416,动态:17176,动态:11629,动态:18948,动态:15769,动态:7137,动态:17607,动态:17172,动态:18020,动态:17170,动态:17177,动态:17484,动态:16645,动态:22088,动态:21315,动态:17231,动态:17228,动态:20672,动态:6904,动态:13084,动态:16641,动态:8581,动态:6662,动态:21972,动态:21780,动态:17337,动态:22710,动态:22323,动态:22507,动态:22692,动态:22688,动态:22659,动态:21436,动态:21753,动态:20364,动态:20439,动态:22702,动态:22680,动态:22685,动态:21776,动态:20440,动态:21763,动态:20399,动态:21757,动态:21727,动态:22699,动态:22698,动态:22667</t>
+          <t>动态:20720,动态:16645,动态:10772,动态:22702,动态:17323,动态:11019,动态:17176,动态:22710,动态:17170,动态:21315,动态:11642,动态:17172,动态:17174,动态:7137,动态:21737,动态:17177,动态:17484,动态:6662,动态:17228,动态:16641,动态:5353,动态:17231,动态:21972,动态:21763,动态:21756,动态:22706,动态:22696,动态:21745,动态:21727,动态:22697,动态:21857,动态:20439,动态:20364,动态:21757,动态:21436,动态:21741,动态:22698,动态:22667,动态:22019,动态:22512,动态:22688,动态:22323,动态:21556,动态:22685,动态:22146,动态:22680</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>动态:18356,动态:8618,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:16838,动态:12641,动态:7223,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>动态:6640,动态:8922,动态:12567,动态:18681,动态:18266,动态:19371,动态:13613,动态:14240,动态:11474,动态:16255,动态:19728,动态:22393,动态:21201,动态:3166,动态:4031,动态:3897,动态:6901,动态:7789,动态:22699,动态:3073,动态:6447,动态:19123,动态:621,动态:3174,动态:6916,动态:4036,动态:21780,动态:7383,动态:7186,动态:6252,动态:3076,动态:21970,动态:18492,动态:3162,动态:22696,动态:16721,动态:3979,动态:9047,动态:21470,动态:7464,动态:20525,动态:3104,动态:20516,动态:6325,动态:3107,动态:21556,动态:20440,动态:22019,动态:22512,动态:22698</t>
+          <t>动态:11566,动态:14191,动态:10242,动态:11133,动态:17147,动态:20926,动态:21180,动态:11379,动态:11590,动态:17542,动态:7885,动态:16721,动态:3174,动态:6901,动态:3107,动态:4036,动态:3897,动态:7186,动态:3162,动态:22699,动态:7789,动态:6252,动态:21780,动态:21470,动态:3104,动态:3796,动态:3166,动态:3076,动态:7464,动态:3073,动态:4031,动态:22696,动态:20516,动态:6325,动态:21970,动态:621,动态:6447,动态:6916,动态:7383,动态:20525,动态:3979,动态:4630,动态:22323,动态:21556,动态:22706,动态:21972,动态:21776,动态:21763,动态:21745</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>动态:11406,动态:20602,动态:12089,动态:16721,动态:19231,动态:11403,动态:3174,动态:5829,动态:6447,动态:3073,动态:6901,动态:4036,动态:6916,动态:3166,动态:4031,动态:3897,动态:7789,动态:22699,动态:621,动态:7383,动态:9201,动态:6325,动态:20516,动态:3104,动态:21780,动态:7186,动态:6252,动态:3076,动态:7737,动态:21970,动态:3162,动态:22696,动态:18246,动态:3796,动态:3979,动态:3107,动态:21160,动态:15015,动态:3251,动态:9860,动态:21470,动态:7464,动态:20525,动态:7047,动态:20389,动态:22706,动态:21756,动态:21757,动态:20440,动态:22698</t>
+          <t>动态:12835,动态:21780,动态:3107,动态:17941,动态:6252,动态:8287,动态:7789,动态:13457,动态:22699,动态:3162,动态:7186,动态:22688,动态:16613,动态:4036,动态:6901,动态:16721,动态:6655,动态:3174,动态:3979,动态:3897,动态:14305,动态:21470,动态:3796,动态:3166,动态:3076,动态:7464,动态:3073,动态:19544,动态:15390,动态:4031,动态:22696,动态:20516,动态:6325,动态:21970,动态:621,动态:6447,动态:6916,动态:7383,动态:155,动态:3104,动态:20525,动态:20439,动态:22706,动态:22507,动态:22019,动态:22684,动态:21741,动态:20364</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>动态:10296,动态:22375,动态:20714,动态:12845,动态:20994,动态:16821,动态:13306,动态:16743,动态:19200,动态:13972,动态:17327,动态:16039,动态:19184,动态:8752,动态:20337,动态:4036,动态:4031,动态:21436,动态:22697,动态:17337,动态:22698,动态:22680,动态:22684,动态:22706,动态:20364,动态:20720,动态:21972,动态:21737,动态:20399,动态:22692,动态:22507,动态:22710,动态:21756,动态:22696,动态:21857,动态:21753,动态:21763,动态:22659,动态:22019,动态:22323,动态:21757,动态:21780,动态:21556,动态:22667,动态:21741,动态:22146,动态:22685,动态:22512,动态:21745</t>
+          <t>动态:6645,动态:22126,动态:14495,动态:13334,动态:11040,动态:11096,动态:12614,动态:12237,动态:16582,动态:17391,动态:19828,动态:15705,动态:19592,动态:12845,动态:12250,动态:17627,动态:19485,动态:17120,动态:22659,动态:4036,动态:22696,动态:21857,动态:20720,动态:21741,动态:21436,动态:22699,动态:22688,动态:22146,动态:22512,动态:22019,动态:21745,动态:21727,动态:22684,动态:21756,动态:22702,动态:17337,动态:22680,动态:22507,动态:21740,动态:21972,动态:21975,动态:22692,动态:22697,动态:7746,动态:21556,动态:21737,动态:22698,动态:22706,动态:22323,动态:22685</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>动态:13174,动态:13147,动态:18654,动态:12853,动态:18378,动态:6597,动态:20488,动态:18992,动态:20461,动态:20764,动态:20189,动态:21444,动态:4522,动态:11138,动态:11094,动态:3897,动态:7383,动态:621,动态:6901,动态:6916,动态:7789,动态:22699,动态:3166,动态:4031,动态:4036,动态:3073,动态:16721,动态:3174,动态:21780,动态:7186,动态:6252,动态:3076,动态:21970,动态:3162,动态:22696,动态:3979,动态:3107,动态:21470,动态:7464,动态:20525,动态:3104,动态:20516,动态:6325,动态:6447,动态:3796,动态:22706,动态:21740,动态:21975,动态:22688,动态:22702</t>
+          <t>动态:16960,动态:8287,动态:12774,动态:19645,动态:22503,动态:4023,动态:22286,动态:13334,动态:9991,动态:22303,动态:15855,动态:12275,动态:21360,动态:15174,动态:7477,动态:7746,动态:5400,动态:7400,动态:4432,动态:3107,动态:6252,动态:7789,动态:6901,动态:3162,动态:7186,动态:3174,动态:16721,动态:4036,动态:22699,动态:21780,动态:6916,动态:3104,动态:3796,动态:3166,动态:3076,动态:7464,动态:3073,动态:4031,动态:22696,动态:20516,动态:6325,动态:21970,动态:621,动态:6447,动态:3897,动态:21763,动态:22698,动态:21975,动态:21757,动态:22684</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>动态:8769,动态:11567,动态:17391,动态:6610,动态:1742,动态:13146,动态:15154,动态:9391,动态:20615,动态:6295,动态:3525,动态:17112,动态:13838,动态:11497,动态:11487,动态:6533,动态:6580,动态:11269,动态:21740,动态:22019,动态:4036,动态:21975,动态:21763,动态:22684,动态:22692,动态:7746,动态:22685,动态:21556,动态:21737,动态:22698,动态:21741,动态:20364,动态:22667,动态:22697,动态:21857,动态:21436,动态:20440,动态:22659,动态:21757,动态:21780,动态:22323,动态:21727,动态:22680,动态:22699,动态:22696,动态:22710,动态:22688,动态:22706,动态:21756,动态:22702</t>
+          <t>动态:18287,动态:15541,动态:12558,动态:8468,动态:13696,动态:14547,动态:21022,动态:7477,动态:4497,动态:22497,动态:21492,动态:15814,动态:14845,动态:10271,动态:12904,动态:4996,动态:13510,动态:6755,动态:10237,动态:21757,动态:17337,动态:4036,动态:22698,动态:22667,动态:22692,动态:21780,动态:22688,动态:21436,动态:22680,动态:21776,动态:21975,动态:21740,动态:21556,动态:22702,动态:22512,动态:20399,动态:22696,动态:22019,动态:22699,动态:22706,动态:21857,动态:22146,动态:22323,动态:21741,动态:22684,动态:20440,动态:22507,动态:20439,动态:7746,动态:20364</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>动态:11861,动态:19821,动态:13218,动态:19810,动态:20523,动态:13962,动态:13961,动态:21975,动态:9483,动态:16154,动态:9047,动态:5896,动态:13095,动态:17501,动态:6819,动态:6683,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:21763,动态:21776,动态:22684,动态:22688,动态:21745,动态:21436,动态:21753,动态:21857,动态:22659,动态:22667,动态:22512,动态:22680,动态:21727,动态:17337,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:22706,动态:22697,动态:22692,动态:22685,动态:21780</t>
+          <t>动态:22146,动态:20339,动态:10859,动态:13814,动态:6872,动态:11787,动态:12429,动态:15232,动态:22710,动态:17498,动态:16263,动态:9478,动态:4302,动态:22702,动态:21737,动态:21756,动态:21972,动态:22323,动态:21763,动态:21776,动态:22684,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22659,动态:22667,动态:22512,动态:22680,动态:21727,动态:17337,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:22706,动态:22697,动态:22692,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>动态:13142,动态:18278,动态:11790,动态:972,动态:12774,动态:1797,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:7121,动态:6548,动态:20549,动态:15267,动态:8740,动态:18165,动态:12798,动态:10566,动态:6692,动态:9552,动态:14401,动态:20399,动态:21741,动态:22710,动态:17337,动态:21556,动态:22697,动态:21776,动态:21436,动态:20720,动态:21857,动态:21757,动态:22019,动态:22659,动态:20440,动态:22692,动态:22699,动态:4036,动态:22684,动态:22706,动态:21972,动态:22512,动态:22685,动态:22702,动态:22667,动态:21753,动态:22688,动态:21975,动态:21737,动态:20439,动态:21740,动态:22507,动态:22146,动态:22323,动态:21763,动态:21780,动态:21745,动态:21756,动态:20364,动态:22698</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>动态:8625,动态:21017,动态:15179,动态:14107,动态:10914,动态:10106,动态:18829,动态:15814,动态:17255,动态:12842,动态:16608,动态:16388,动态:21636,动态:21484,动态:7694,动态:15684,动态:13317,动态:7970,动态:11268,动态:19745,动态:12055,动态:8769,动态:13674,动态:13131,动态:21753,动态:21780,动态:4036,动态:21763,动态:21757,动态:21756,动态:20440,动态:22702,动态:20439,动态:22323,动态:7746,动态:22684,动态:22507,动态:21727,动态:21972,动态:20720,动态:22692,动态:21741,动态:22512,动态:22146,动态:22699,动态:22667,动态:20364,动态:21857,动态:21436,动态:20399</t>
+          <t>动态:11906,动态:16912,动态:19606,动态:21793,动态:12388,动态:18855,动态:19856,动态:17972,动态:18088,动态:14297,动态:13928,动态:20764,动态:9083,动态:18668,动态:8962,动态:20005,动态:18841,动态:17642,动态:14949,动态:16297,动态:21780,动态:21745,动态:22697,动态:22698,动态:22710,动态:22659,动态:22692,动态:22702,动态:22699,动态:22146,动态:22688,动态:4036,动态:17337,动态:22685,动态:21857,动态:22696,动态:7746,动态:22512,动态:22323,动态:21756,动态:21741,动态:21975,动态:21737,动态:20720,动态:22667,动态:21757,动态:21763,动态:20399,动态:21727,动态:21972</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>动态:15169,动态:6634,动态:21315,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:20271,动态:21315,动态:15147,动态:17172,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>动态:20854,动态:10136,动态:18947,动态:20184,动态:22702,动态:22710,动态:21756,动态:22146,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:22688,动态:21745,动态:21436,动态:21753,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:18656,动态:10136,动态:22702,动态:22710,动态:21756,动态:22146,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:22688,动态:21745,动态:21436,动态:21753,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>动态:14737,动态:19554,动态:16281,动态:13053,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:17522,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>动态:11034,动态:17632,动态:17168,动态:6794,动态:4368,动态:4176,动态:20148,动态:13247,动态:14847,动态:11469,动态:6622,动态:13147,动态:14215,动态:15977,动态:18956,动态:10754,动态:18056,动态:8596,动态:14815,动态:21959,动态:16614,动态:15304,动态:22698,动态:22699,动态:22692,动态:21975,动态:21753,动态:22659,动态:22684,动态:22685,动态:7746,动态:21757,动态:21727,动态:22688,动态:21436,动态:21740,动态:20440,动态:22680,动态:21556,动态:20720,动态:22667,动态:21780,动态:22702,动态:22512,动态:20399,动态:21745,动态:21756,动态:22710,动态:4036,动态:20439</t>
+          <t>动态:8292,动态:13131,动态:13321,动态:17108,动态:10427,动态:15935,动态:21990,动态:14319,动态:18996,动态:8819,动态:18407,动态:16154,动态:19882,动态:10991,动态:19380,动态:11403,动态:10928,动态:11618,动态:10690,动态:14716,动态:10346,动态:21727,动态:21763,动态:22688,动态:21972,动态:20364,动态:22659,动态:22684,动态:20399,动态:22699,动态:22710,动态:20440,动态:4036,动态:22323,动态:22692,动态:22696,动态:22706,动态:22702,动态:22019,动态:17337,动态:20720,动态:21857,动态:21436,动态:21745,动态:21556,动态:21780,动态:21757,动态:21975,动态:7746,动态:22698</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>动态:11280,动态:18278,动态:10189,动态:22199,动态:14495,动态:13497,动态:7310,动态:7137,动态:7598,动态:22042,动态:12727,动态:17128,动态:13801,动态:8619,动态:4175,动态:22507,动态:21556,动态:21753,动态:22685,动态:22696,动态:21756,动态:22684,动态:21741,动态:7746,动态:22019,动态:22702,动态:22698,动态:20364,动态:20399,动态:20439,动态:17337,动态:20720,动态:21780,动态:22512,动态:21745,动态:22697,动态:21727,动态:21740,动态:20440,动态:21436,动态:22699,动态:21737,动态:21776,动态:22710,动态:22146,动态:22667,动态:21857,动态:22323,动态:22706,动态:21763</t>
+          <t>动态:17684,动态:12903,动态:21129,动态:8674,动态:11583,动态:7310,动态:12893,动态:15056,动态:14724,动态:17816,动态:16061,动态:11351,动态:16303,动态:14630,动态:15700,动态:9278,动态:15132,动态:9093,动态:3156,动态:22698,动态:22699,动态:22710,动态:21753,动态:21745,动态:21436,动态:22685,动态:21741,动态:22667,动态:22706,动态:22688,动态:7746,动态:20439,动态:21740,动态:22702,动态:22696,动态:4036,动态:22019,动态:21975,动态:22146,动态:22507,动态:21776,动态:21756,动态:20399,动态:20720,动态:17337,动态:22692,动态:21727,动态:21857,动态:22512,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>动态:7354,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:10580,动态:9554,动态:17296,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>动态:11558,动态:13629,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:13453,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>动态:22346,动态:11274,动态:21756,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21745,动态:21436,动态:21753,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:21776,动态:22323,动态:21780,动态:20364,动态:21740,动态:4036,动态:20720,动态:21745,动态:22659,动态:22685,动态:22512,动态:22699,动态:22692,动态:21556,动态:17337,动态:22684,动态:21753,动态:22688,动态:21741,动态:20440,动态:21727,动态:21763,动态:21756,动态:22696,动态:21757,动态:22680,动态:22706,动态:7746,动态:22667,动态:21436,动态:22019,动态:21972,动态:20439,动态:22698,动态:20399,动态:22507,动态:22697</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>动态:11805,动态:14697,动态:21757,动态:11087,动态:6679,动态:21481,动态:6464,动态:19494,动态:18158,动态:19759,动态:17374,动态:21857,动态:22512,动态:21776,动态:21556,动态:20720,动态:22685,动态:21727,动态:20399,动态:22680,动态:22702,动态:21741,动态:22706,动态:21753,动态:21972,动态:7746,动态:21763,动态:22710,动态:21436,动态:22688,动态:21740,动态:21780,动态:22507,动态:22659,动态:21737,动态:4036,动态:20364,动态:22146,动态:21975,动态:22698,动态:22699,动态:22323,动态:22684,动态:22696,动态:22692,动态:20439,动态:22019,动态:17337,动态:21756</t>
+          <t>动态:9138,动态:20701,动态:7110,动态:12552,动态:20523,动态:13810,动态:20285,动态:4625,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>动态:15284,动态:16594,动态:11525,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:13339,动态:22667,动态:15058,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>动态:10581,动态:10849,动态:16617,动态:13832,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:22692,动态:21763,动态:21857,动态:20399,动态:21556,动态:21975,动态:22699,动态:17337,动态:22706,动态:22696,动态:21972,动态:21737,动态:22659,动态:21756,动态:21741,动态:22685,动态:22667,动态:22323,动态:22702,动态:22710,动态:21745,动态:20364,动态:21753,动态:22688,动态:22146,动态:7746,动态:22019,动态:21740,动态:22680,动态:21727,动态:22697,动态:22698,动态:21776,动态:21436,动态:20440,动态:20720,动态:4036,动态:22684,动态:20439,动态:21780,动态:21757,动态:22507,动态:22512</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>动态:16878,动态:14297,动态:12878,动态:9145,动态:6852,动态:6786,动态:6733,动态:1310,动态:6615,动态:6637,动态:20440,动态:6693,动态:6186,动态:7049,动态:6680,动态:6891,动态:7145,动态:6500,动态:6683,动态:22310,动态:22659,动态:21740,动态:22685,动态:21753,动态:22667,动态:21741,动态:22696,动态:21436,动态:7746,动态:22146,动态:21756,动态:22710,动态:4036,动态:21972,动态:22512,动态:21556,动态:20364,动态:21745,动态:20439,动态:22507,动态:21776,动态:21975,动态:22684,动态:22323,动态:20720,动态:22698,动态:22697,动态:22706,动态:22692</t>
+          <t>动态:6643,动态:6766,动态:6240,动态:20440,动态:7124,动态:22310,动态:7129,动态:6852,动态:6789,动态:15326,动态:7604,动态:12062,动态:19815,动态:6625,动态:22118,动态:6759,动态:7145,动态:5896,动态:6615,动态:6825,动态:11116,动态:6472,动态:6694,动态:21753,动态:4036,动态:22698,动态:20399,动态:21745,动态:22659,动态:22699,动态:20439,动态:21756,动态:22323,动态:21556,动态:17337,动态:22685,动态:20720,动态:7746,动态:21737,动态:22696,动态:22706,动态:22684,动态:22507,动态:21740,动态:22019,动态:21727,动态:21776,动态:21975,动态:21757</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>动态:9391,动态:6578,动态:10567,动态:13729,动态:8746,动态:16270,动态:16721,动态:3174,动态:6447,动态:3073,动态:11813,动态:15145,动态:6901,动态:4036,动态:6916,动态:3166,动态:4031,动态:3897,动态:7789,动态:22699,动态:621,动态:10089,动态:6325,动态:20516,动态:13510,动态:3104,动态:21780,动态:7186,动态:15054,动态:19000,动态:13466,动态:6252,动态:3076,动态:15037,动态:21970,动态:7383,动态:13374,动态:22696,动态:7784,动态:3979,动态:3107,动态:11599,动态:21470,动态:19487,动态:7464,动态:21741,动态:3162,动态:20364,动态:20525,动态:20440</t>
+          <t>动态:16475,动态:11463,动态:20090,动态:17165,动态:16802,动态:12831,动态:3979,动态:21780,动态:3107,动态:6252,动态:7789,动态:22699,动态:11813,动态:3162,动态:7186,动态:4036,动态:6901,动态:6754,动态:16721,动态:3174,动态:3897,动态:12623,动态:3104,动态:7383,动态:6916,动态:22276,动态:3796,动态:3166,动态:3076,动态:7464,动态:3073,动态:10974,动态:15240,动态:4031,动态:22696,动态:10095,动态:20516,动态:13499,动态:6325,动态:21970,动态:621,动态:6447,动态:21470,动态:20525,动态:20720,动态:21745,动态:21975,动态:21753,动态:21776,动态:22702</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>动态:13174,动态:18791,动态:12313,动态:10213,动态:17341,动态:21928,动态:9554,动态:20549,动态:14342,动态:18956,动态:6679,动态:18767,动态:14352,动态:17607,动态:13080,动态:20169,动态:20401,动态:16914,动态:10071,动态:8809,动态:14547,动态:18057,动态:10212,动态:10973,动态:20419,动态:16740,动态:14624,动态:12000,动态:15078,动态:15637,动态:21364,动态:15053,动态:9163,动态:19821,动态:20461,动态:9463,动态:20519,动态:21315,动态:8378,动态:20389,动态:13501,动态:9712,动态:19810,动态:16269,动态:18087,动态:14695,动态:21740,动态:4036,动态:17337,动态:21727</t>
+          <t>动态:15228,动态:15099,动态:19751,动态:9163,动态:21310,动态:11813,动态:18804,动态:14641,动态:10109,动态:14191,动态:7678,动态:3115,动态:14921,动态:12836,动态:14319,动态:20546,动态:22458,动态:9204,动态:11790,动态:17977,动态:10516,动态:8293,动态:22673,动态:17471,动态:19973,动态:6647,动态:17304,动态:8015,动态:9147,动态:17367,动态:7847,动态:6729,动态:16914,动态:16536,动态:7121,动态:11429,动态:21022,动态:4788,动态:11269,动态:19829,动态:16910,动态:12648,动态:19821,动态:16175,动态:19097,动态:22706,动态:22692,动态:6637,动态:22512,动态:21741</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>动态:7310,动态:22113,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:22491,动态:20130,动态:7310,动态:19210,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>动态:7784,动态:11040,动态:19933,动态:12315,动态:21482,动态:20205,动态:3153,动态:21975,动态:15756,动态:13315,动态:5829,动态:3814,动态:19835,动态:10870,动态:21359,动态:18996,动态:21741,动态:21556,动态:21737,动态:21740,动态:20440,动态:22702,动态:22697,动态:21857,动态:22146,动态:20439,动态:22512,动态:22685,动态:22659,动态:17337,动态:7746,动态:22706,动态:21727,动态:21776,动态:20399,动态:21745,动态:22692,动态:21436,动态:22667,动态:22019,动态:22684,动态:22696,动态:21757,动态:22323,动态:21763,动态:22507,动态:22688,动态:22710,动态:22680</t>
+          <t>动态:11278,动态:21054,动态:9411,动态:13247,动态:15974,动态:14040,动态:15863,动态:10774,动态:21665,动态:14475,动态:9728,动态:20238,动态:20092,动态:21342,动态:11867,动态:14288,动态:12583,动态:3099,动态:3111,动态:17749,动态:21756,动态:22706,动态:21757,动态:21972,动态:20720,动态:22692,动态:22685,动态:22323,动态:22699,动态:4036,动态:21975,动态:22512,动态:22702,动态:21741,动态:22684,动态:21737,动态:20439,动态:22659,动态:22507,动态:21763,动态:22688,动态:21727,动态:22697,动态:22667,动态:21740,动态:22696,动态:21776,动态:20364,动态:21745,动态:22710</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>动态:20687,动态:9533,动态:14679,动态:20344,动态:15671,动态:3142,动态:3153,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:10966,动态:16077,动态:11293,动态:3153,动态:3142,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>动态:10239,动态:6294,动态:10429,动态:7604,动态:20244,动态:6086,动态:16651,动态:13625,动态:9001,动态:18668,动态:10298,动态:7360,动态:18466,动态:20238,动态:12920,动态:12911,动态:17507,动态:6456,动态:15490,动态:11126,动态:11094,动态:7124,动态:6852,动态:10182,动态:16273,动态:9093,动态:5403,动态:6683,动态:17632,动态:16478,动态:20337,动态:13200,动态:6865,动态:6898,动态:10356,动态:14271,动态:6819,动态:10262,动态:6470,动态:14006,动态:14431,动态:6454,动态:8292,动态:6749,动态:4597,动态:14725,动态:13823,动态:7746,动态:12587,动态:18327</t>
+          <t>动态:21206,动态:11305,动态:10964,动态:10296,动态:15483,动态:17307,动态:11463,动态:18372,动态:12092,动态:5830,动态:11488,动态:14084,动态:6764,动态:15970,动态:11034,动态:6895,动态:11399,动态:10362,动态:10580,动态:22707,动态:5400,动态:13329,动态:20399,动态:15636,动态:5389,动态:13377,动态:20178,动态:17113,动态:18146,动态:17165,动态:12368,动态:7378,动态:17504,动态:6773,动态:20148,动态:4675,动态:11389,动态:20065,动态:6363,动态:13313,动态:18750,动态:14700,动态:5149,动态:13040,动态:14209,动态:22688,动态:21975,动态:6914,动态:155,动态:14026</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>动态:20217,动态:15612,动态:15615,动态:6294,动态:11063,动态:18651,动态:13415,动态:17106,动态:21239,动态:15137,动态:19496,动态:20071,动态:12332,动态:7400,动态:11399,动态:6841,动态:13810,动态:9039,动态:11126,动态:13329,动态:18311,动态:10262,动态:14514,动态:13807,动态:12372,动态:13040,动态:6449,动态:20368,动态:19457,动态:5778,动态:5901,动态:11144,动态:10954,动态:769,动态:21359,动态:8231,动态:16052,动态:6908,动态:17295,动态:13084,动态:20345,动态:4368,动态:5895,动态:6193,动态:17697,动态:15095,动态:21436,动态:6869,动态:6889,动态:21737</t>
+          <t>动态:9183,动态:15334,动态:11291,动态:18313,动态:7408,动态:13796,动态:15221,动态:18844,动态:19658,动态:11265,动态:19759,动态:8619,动态:13793,动态:18771,动态:10490,动态:19886,动态:6779,动态:8568,动态:6686,动态:16052,动态:7303,动态:17954,动态:7740,动态:16819,动态:4368,动态:13795,动态:19291,动态:15184,动态:9039,动态:14725,动态:17697,动态:10292,动态:15657,动态:4522,动态:13789,动态:18500,动态:18750,动态:13692,动态:11128,动态:9986,动态:7039,动态:12389,动态:20146,动态:10118,动态:13298,动态:22323,动态:22507,动态:20008,动态:12587,动态:12076</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>动态:11695,动态:11996,动态:19486,动态:19149,动态:15692,动态:17711,动态:19007,动态:6640,动态:19769,动态:8922,动态:17200,动态:17976,动态:12434,动态:19935,动态:8107,动态:19906,动态:10349,动态:13143,动态:809,动态:12163,动态:12416,动态:3814,动态:11574,动态:16238,动态:15684,动态:13158,动态:11867,动态:10525,动态:16441,动态:15060,动态:18082,动态:20998,动态:11467,动态:10913,动态:20683,动态:18757,动态:20677,动态:6831,动态:21532,动态:11863,动态:20064,动态:20487,动态:21846,动态:17337,动态:12645,动态:11565,动态:21745,动态:12059,动态:21740,动态:21753</t>
+          <t>动态:18821,动态:14995,动态:17205,动态:21249,动态:9783,动态:20771,动态:693,动态:21938,动态:19607,动态:22296,动态:15540,动态:21293,动态:15268,动态:20217,动态:4528,动态:11698,动态:11730,动态:14345,动态:9461,动态:14603,动态:19697,动态:12759,动态:17575,动态:10237,动态:13780,动态:9482,动态:19130,动态:19987,动态:20598,动态:18677,动态:11170,动态:19973,动态:18624,动态:9134,动态:20259,动态:13426,动态:15151,动态:15974,动态:687,动态:17138,动态:17711,动态:11393,动态:16311,动态:20452,动态:14132,动态:17542,动态:13884,动态:20683,动态:15499,动态:15858</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>动态:13708,动态:6872,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:20686,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>动态:4895,动态:12638,动态:16308,动态:11863,动态:17323,动态:13548,动态:20309,动态:20714,动态:13909,动态:18995,动态:17557,动态:20588,动态:11613,动态:13325,动态:11913,动态:17817,动态:20789,动态:16368,动态:18667,动态:20256,动态:7598,动态:13791,动态:13193,动态:21664,动态:13906,动态:9527,动态:11193,动态:15719,动态:17176,动态:21651,动态:15761,动态:15869,动态:22700,动态:16441,动态:11468,动态:11554,动态:11592,动态:8296,动态:16580,动态:17566,动态:14464,动态:19959,动态:15347,动态:9552,动态:16389,动态:22696,动态:22507,动态:9183,动态:18612,动态:22688</t>
+          <t>动态:12275,动态:21106,动态:17498,动态:14530,动态:8160,动态:15863,动态:6612,动态:7779,动态:22688,动态:10772,动态:16260,动态:19373,动态:15711,动态:13878,动态:10932,动态:10073,动态:14679,动态:18059,动态:11015,动态:14104,动态:12305,动态:10687,动态:15787,动态:18619,动态:14649,动态:13428,动态:19268,动态:20985,动态:15188,动态:13780,动态:15302,动态:10551,动态:9787,动态:11392,动态:15775,动态:13837,动态:21044,动态:15151,动态:12930,动态:12903,动态:10116,动态:17216,动态:17978,动态:734,动态:13906,动态:11611,动态:12638,动态:21727,动态:21491,动态:17634</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>动态:18309,动态:19938,动态:22702,动态:22710,动态:21737,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:14451,动态:18618,动态:8896,动态:18590,动态:5206,动态:22702,动态:22710,动态:21737,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>动态:13708,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:14502,动态:21304,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>动态:18871,动态:3707,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:19727,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>动态:22692,动态:20364,动态:21972,动态:21763,动态:21857,动态:21741,动态:22667,动态:22659,动态:22685,动态:22698,动态:22706,动态:21780,动态:22507,动态:21737,动态:20399,动态:21975,动态:17337,动态:22146,动态:20439,动态:22323,动态:20720,动态:20440,动态:22699,动态:21436,动态:22684,动态:7746,动态:21757,动态:21753,动态:22697,动态:21556,动态:22710,动态:22702,动态:21756,动态:22696,动态:22019,动态:21740,动态:21727,动态:4036,动态:22680,动态:21745,动态:22688,动态:22512,动态:21776</t>
+          <t>动态:18902,动态:16819,动态:6621,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>动态:14815,动态:1360,动态:10528,动态:18362,动态:20772,动态:15183,动态:1252,动态:6624,动态:13039,动态:19271,动态:13243,动态:21166,动态:12065,动态:20401,动态:9145,动态:21854,动态:2966,动态:17081,动态:11110,动态:11541,动态:10995,动态:15987,动态:11180,动态:20358,动态:20107,动态:15926,动态:16648,动态:13056,动态:9376,动态:12842,动态:17077,动态:20389,动态:20755,动态:11714,动态:20152,动态:17542,动态:16417,动态:20086,动态:9703,动态:22088,动态:12119,动态:20621,动态:17147,动态:10932,动态:13347,动态:22659,动态:21776,动态:22685,动态:20364,动态:11501</t>
+          <t>动态:15600,动态:20755,动态:20021,动态:13218,动态:20266,动态:13734,动态:18996,动态:20218,动态:16257,动态:17484,动态:14876,动态:19769,动态:14305,动态:17755,动态:14791,动态:11687,动态:19347,动态:21583,动态:15556,动态:20332,动态:14417,动态:20523,动态:2269,动态:11643,动态:20598,动态:16110,动态:16417,动态:17529,动态:16048,动态:6808,动态:11541,动态:17367,动态:17196,动态:21166,动态:13070,动态:22634,动态:22019,动态:14737,动态:20124,动态:15749,动态:20490,动态:19530,动态:10950,动态:19097,动态:18054,动态:22699,动态:20103,动态:21737,动态:20440,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>动态:22301,动态:18173,动态:7833,动态:6767,动态:14514,动态:13883,动态:19379,动态:6679,动态:16264,动态:11065,动态:18755,动态:12641,动态:13281,动态:21112,动态:12581,动态:6695,动态:12064,动态:17077,动态:15059,动态:12811,动态:15113,动态:21357,动态:22659,动态:22692,动态:21737,动态:21436,动态:21780,动态:21740,动态:22019,动态:22699,动态:20440,动态:20399,动态:22667,动态:22702,动态:22710,动态:22507,动态:21756,动态:20364,动态:21753,动态:4036,动态:22698,动态:21776,动态:22684,动态:21556,动态:21757,动态:22323,动态:22696,动态:21972,动态:21857,动态:22688</t>
+          <t>动态:8997,动态:11271,动态:10700,动态:13742,动态:12047,动态:22697,动态:961,动态:19881,动态:19422,动态:7530,动态:12322,动态:10643,动态:15156,动态:20177,动态:21536,动态:22684,动态:22680,动态:22698,动态:21753,动态:21436,动态:21745,动态:20364,动态:21857,动态:22710,动态:22019,动态:21737,动态:21756,动态:21757,动态:22702,动态:22696,动态:21741,动态:22507,动态:21763,动态:22659,动态:22512,动态:22685,动态:7746,动态:17337,动态:22667,动态:20720,动态:21740,动态:22706,动态:22699,动态:20439,动态:22692,动态:21975,动态:21776,动态:4036,动态:22323,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>动态:16256,动态:21797,动态:10136,动态:17337,动态:21737,动态:10980,动态:21975,动态:21857,动态:22042,动态:17081,动态:15618,动态:21972,动态:17128,动态:4205,动态:21776,动态:22699,动态:20399,动态:22512,动态:22710,动态:21740,动态:4036,动态:21727,动态:21745,动态:22685,动态:22507,动态:22684,动态:22019,动态:22697,动态:22706,动态:21741,动态:21436,动态:22680,动态:22688,动态:22696,动态:7746,动态:21763,动态:21753,动态:20364,动态:22146,动态:20439,动态:21756,动态:21780,动态:22702,动态:22659,动态:21556</t>
+          <t>动态:21797,动态:21737,动态:15637,动态:16256,动态:15654,动态:21857,动态:9724,动态:15310,动态:21975,动态:17126,动态:22042,动态:1332,动态:17128,动态:22692,动态:22512,动态:21763,动态:21556,动态:21972,动态:21740,动态:22710,动态:22019,动态:21757,动态:22699,动态:21727,动态:21745,动态:7746,动态:22684,动态:22706,动态:22702,动态:22667,动态:22685,动态:17337,动态:22680,动态:22688,动态:20439,动态:21776,动态:22323,动态:21436,动态:21756,动态:22697,动态:22696,动态:21753,动态:20399,动态:4036,动态:21741,动态:22659,动态:22146</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>动态:12654,动态:6845,动态:13742,动态:18932,动态:11526,动态:15425,动态:14901,动态:21073,动态:22489,动态:6733,动态:10962,动态:20966,动态:13406,动态:16893,动态:19990,动态:10242,动态:15203,动态:18629,动态:13432,动态:18792,动态:22633,动态:18705,动态:8852,动态:15181,动态:20379,动态:22234,动态:18088,动态:17060,动态:13958,动态:7526,动态:6596,动态:13291,动态:12798,动态:12826,动态:18082,动态:7678,动态:22658,动态:16050,动态:11110,动态:10989,动态:12085,动态:21008,动态:10920,动态:15858,动态:19214,动态:16589,动态:21556,动态:11458,动态:12583,动态:17742</t>
+          <t>动态:6782,动态:6362,动态:19464,动态:22085,动态:11948,动态:11471,动态:13559,动态:15975,动态:15433,动态:16793,动态:11562,动态:19611,动态:18038,动态:17327,动态:22288,动态:13680,动态:17963,动态:16347,动态:21206,动态:15056,动态:9936,动态:19706,动态:13878,动态:22301,动态:16431,动态:11395,动态:7110,动态:18688,动态:9787,动态:10969,动态:241,动态:12283,动态:12384,动态:8293,动态:6657,动态:19941,动态:22076,动态:13221,动态:20115,动态:17290,动态:18989,动态:15387,动态:9688,动态:15757,动态:21103,动态:22702,动态:15953,动态:21436,动态:13556,动态:22710</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>动态:7408,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:21044,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>动态:17205,动态:18903,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685</t>
+          <t>动态:13557,动态:13878,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>动态:17460,动态:15211,动态:11736,动态:22234,动态:21815,动态:10209,动态:17619,动态:16614,动态:15291,动态:10935,动态:22323,动态:7746,动态:4036,动态:22019,动态:21745,动态:20364,动态:21556,动态:21740,动态:22512,动态:21727,动态:21757,动态:22146,动态:20720,动态:22698,动态:21780,动态:22659,动态:21763,动态:21737,动态:21972,动态:22688,动态:22696,动态:22697,动态:22684,动态:22702,动态:21741,动态:22507,动态:22685,动态:17337,动态:22692,动态:21753,动态:21436,动态:22680,动态:22710,动态:22667,动态:20439,动态:21756,动态:22699,动态:20399,动态:22706,动态:21857</t>
+          <t>动态:15935,动态:16766,动态:10241,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>动态:12308,动态:13043,动态:20810,动态:22685,动态:20789,动态:14703,动态:12408,动态:7674,动态:7458,动态:15623,动态:14542,动态:15547,动态:3838,动态:17942,动态:15631,动态:21858,动态:21972,动态:3522,动态:20440,动态:20439,动态:21756,动态:21745,动态:21757,动态:22697,动态:21975,动态:21780,动态:22699,动态:7746,动态:20399,动态:21737,动态:22702,动态:22684,动态:22659,动态:21753,动态:22667,动态:22706,动态:20364,动态:17337,动态:22696,动态:22710,动态:21857,动态:22698,动态:22512,动态:21776,动态:21763,动态:22146,动态:22692,动态:22323</t>
+          <t>动态:15499,动态:8221,动态:17537,动态:13582,动态:22688,动态:19036,动态:19607,动态:12388,动态:14688,动态:18075,动态:15533,动态:10869,动态:17739,动态:779,动态:22709,动态:15627,动态:16475,动态:20189,动态:19350,动态:21972,动态:21858,动态:21740,动态:21763,动态:22692,动态:21780,动态:22702,动态:21756,动态:22659,动态:22507,动态:22685,动态:22710,动态:22699,动态:22684,动态:22667,动态:20364,动态:22698,动态:22697,动态:22680,动态:21975,动态:21727,动态:20399,动态:20440,动态:21753,动态:21436,动态:21745,动态:17337,动态:21556,动态:21857,动态:22696</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>动态:12648,动态:11087,动态:12384,动态:20593,动态:4890,动态:6956,动态:15705,动态:17102,动态:16232,动态:22489,动态:12046,动态:10342,动态:12123,动态:10237,动态:15953,动态:11072,动态:19547,动态:9798,动态:17762,动态:17151,动态:15577,动态:11863,动态:19379,动态:11215,动态:11587,动态:15641,动态:15719,动态:7529,动态:12890,动态:10073,动态:6694,动态:16072,动态:15638,动态:15060,动态:8610,动态:19792,动态:22667,动态:8573,动态:15805,动态:21492,动态:11340,动态:16450,动态:16460,动态:21785,动态:15755,动态:21776,动态:22430,动态:20419,动态:22680,动态:22696</t>
+          <t>动态:11438,动态:18868,动态:14191,动态:18057,动态:17976,动态:18059,动态:11633,动态:12388,动态:21923,动态:11966,动态:19028,动态:20622,动态:3120,动态:19810,动态:15154,动态:7119,动态:12890,动态:11500,动态:14058,动态:14580,动态:14683,动态:11497,动态:11995,动态:19987,动态:15173,动态:11623,动态:20332,动态:5354,动态:19733,动态:20864,动态:11022,动态:10516,动态:16070,动态:19614,动态:14565,动态:13489,动态:13615,动态:14829,动态:13792,动态:16687,动态:8014,动态:11090,动态:16450,动态:15977,动态:12899,动态:11679,动态:22685,动态:18055,动态:10248,动态:17619</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>动态:17130,动态:22130,动态:10936,动态:18767,动态:15684,动态:13919,动态:9991,动态:10751,动态:12331,动态:14821,动态:22123,动态:19541,动态:16844,动态:14439,动态:20519,动态:10254,动态:11285,动态:18499,动态:5113,动态:5829,动态:7226,动态:17120,动态:845,动态:15323,动态:3796,动态:7746,动态:21857,动态:22699,动态:21972,动态:17337,动态:21757,动态:21740,动态:22688,动态:22698,动态:21745,动态:22702,动态:20440,动态:20439,动态:22667,动态:20399,动态:22512,动态:21737,动态:21756,动态:22706,动态:22659,动态:4036,动态:22710,动态:22684,动态:21776,动态:21741</t>
+          <t>动态:13213,动态:11580,动态:19356,动态:21538,动态:11835,动态:13499,动态:9787,动态:19300,动态:13883,动态:12404,动态:1340,动态:10499,动态:13151,动态:11271,动态:9440,动态:7133,动态:22114,动态:9584,动态:10077,动态:6794,动态:14152,动态:10083,动态:20439,动态:22685,动态:22019,动态:21436,动态:21741,动态:22323,动态:21753,动态:22684,动态:22692,动态:22697,动态:4036,动态:21737,动态:22680,动态:22507,动态:20720,动态:22688,动态:22667,动态:21857,动态:22702,动态:21763,动态:22698,动态:21756,动态:20399,动态:21757,动态:21776,动态:22699,动态:21972,动态:22659</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>动态:3701,动态:19702,动态:9276,动态:6624,动态:15179,动态:19728,动态:7351,动态:16311,动态:16646,动态:12849,动态:12276,动态:8245,动态:18767,动态:19646,动态:11687,动态:6820,动态:15057,动态:3115,动态:8142,动态:15708,动态:20851,动态:11524,动态:6679,动态:15277,动态:18467,动态:14716,动态:22310,动态:14303,动态:16664,动态:11589,动态:21406,动态:16212,动态:12878,动态:7678,动态:11270,动态:19212,动态:6729,动态:14247,动态:10927,动态:19294,动态:19369,动态:21492,动态:784,动态:22639,动态:6757,动态:10136,动态:10132,动态:13836,动态:7587,动态:22692</t>
+          <t>动态:5236,动态:13414,动态:11087,动态:851,动态:14248,动态:11583,动态:21717,动态:18462,动态:6593,动态:16831,动态:10687,动态:19611,动态:11909,动态:21530,动态:13557,动态:12123,动态:15057,动态:11391,动态:14435,动态:13593,动态:8014,动态:21497,动态:19373,动态:3738,动态:13268,动态:12639,动态:14153,动态:19987,动态:21589,动态:17582,动态:15477,动态:21975,动态:11320,动态:8515,动态:11379,动态:13863,动态:10116,动态:7586,动态:8001,动态:20803,动态:11811,动态:11589,动态:12759,动态:21049,动态:14860,动态:3804,动态:22688,动态:11380,动态:21740,动态:22323</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>动态:20622,动态:11728,动态:11534,动态:693,动态:10687,动态:784,动态:15433,动态:10939,动态:6786,动态:239,动态:9025,动态:12186,动态:21197,动态:237,动态:9157,动态:12608,动态:11660,动态:9584,动态:10914,动态:17575,动态:19377,动态:13214,动态:14464,动态:13140,动态:7307,动态:13058,动态:22495,动态:20460,动态:10465,动态:20741,动态:17060,动态:19808,动态:14657,动态:11944,动态:7526,动态:20859,动态:22254,动态:11618,动态:16687,动态:21597,动态:19835,动态:9118,动态:19212,动态:7824,动态:11687,动态:16296,动态:22692,动态:4036,动态:11040,动态:7002</t>
+          <t>动态:11360,动态:11004,动态:11913,动态:21368,动态:21653,动态:20666,动态:19625,动态:18318,动态:10534,动态:8757,动态:15147,动态:20768,动态:15641,动态:19859,动态:16154,动态:13038,动态:7530,动态:20622,动态:12123,动态:3525,动态:12729,动态:22350,动态:21776,动态:20083,动态:11395,动态:13366,动态:19620,动态:19751,动态:15750,动态:10969,动态:7386,动态:21235,动态:14217,动态:6606,动态:11070,动态:13863,动态:5206,动态:21126,动态:20998,动态:793,动态:12197,动态:18290,动态:2764,动态:17847,动态:3115,动态:21776,动态:8607,动态:4036,动态:22659,动态:20839</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>动态:4341,动态:6819,动态:13782,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:16003,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>动态:10136,动态:9898,动态:21756,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:22688,动态:21975,动态:21745,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:21780</t>
+          <t>动态:6479,动态:10136,动态:16052,动态:21756,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:22688,动态:21975,动态:21745,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>动态:15583,动态:10632,动态:22659,动态:18151,动态:11452,动态:16223,动态:10165,动态:8773,动态:14686,动态:13152,动态:11734,动态:11967,动态:19004,动态:21756,动态:22702,动态:22699,动态:21757,动态:21763,动态:21436,动态:20399,动态:22685,动态:20440,动态:21737,动态:21740,动态:7746,动态:22710,动态:21857,动态:22698,动态:22688,动态:22323,动态:22680,动态:21975,动态:22692,动态:21753,动态:22507,动态:22697,动态:21745,动态:22146,动态:4036,动态:21776,动态:20364,动态:22684,动态:22512,动态:21741,动态:20439,动态:21727,动态:22019,动态:21972,动态:22667,动态:21780</t>
+          <t>动态:14408,动态:15756,动态:7161,动态:15987,动态:18279,动态:19122,动态:17817,动态:20710,动态:14653,动态:17957,动态:3073,动态:6842,动态:20274,动态:20189,动态:22276,动态:20270,动态:18874,动态:18723,动态:22710,动态:22684,动态:22698,动态:22512,动态:22688,动态:20399,动态:22146,动态:22702,动态:22019,动态:22692,动态:21975,动态:21436,动态:20364,动态:22699,动态:7746,动态:21741,动态:21556,动态:4036,动态:21753,动态:20439,动态:21727,动态:20440,动态:21763,动态:20720,动态:22507,动态:21757,动态:22685,动态:21857,动态:22697,动态:22667,动态:21780,动态:21740</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>动态:22146,动态:21975,动态:21857,动态:22710,动态:22702,动态:21737,动态:21756,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21745,动态:21436,动态:21753,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:21737,动态:12273,动态:21857,动态:22710,动态:22702,动态:19120,动态:21975,动态:22146,动态:22685,动态:21972,动态:20440,动态:22699,动态:22698,动态:21556,动态:4036,动态:21763,动态:17337,动态:20439,动态:22512,动态:21780,动态:21776,动态:22697,动态:21727,动态:22659,动态:21436,动态:22667,动态:22684,动态:22507,动态:22680,动态:22019,动态:20399,动态:20364,动态:21745,动态:20720,动态:22706,动态:22323,动态:22692,动态:21756,动态:21753,动态:7746,动态:21757,动态:21741,动态:21740,动态:22688</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>动态:5210,动态:20720,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:22684,动态:22688,动态:21975,动态:21745,动态:21436,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:22146,动态:22697,动态:22323,动态:22680,动态:22696,动态:21780,动态:21436,动态:20720,动态:7746,动态:22692,动态:21756,动态:20440,动态:20399,动态:22702,动态:21857,动态:22706,动态:22685,动态:22667,动态:21972,动态:22019,动态:21737,动态:20439,动态:21745,动态:21975,动态:21757,动态:4036,动态:21727,动态:22507,动态:22710,动态:17337,动态:22699,动态:21763,动态:21776,动态:22684,动态:22659,动态:22688,动态:21740,动态:22698,动态:22512,动态:21741</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>动态:13764,动态:22512,动态:20115,动态:20593,动态:15328,动态:8115,动态:22498,动态:9204,动态:4210,动态:18627,动态:17341,动态:7517,动态:8173,动态:13407,动态:14821,动态:17548,动态:13281,动态:16594,动态:11017,动态:6647,动态:15577,动态:12638,动态:10708,动态:11365,动态:14816,动态:15761,动态:10122,动态:12821,动态:13537,动态:14333,动态:20764,动态:21180,动态:9734,动态:18082,动态:8741,动态:14304,动态:7354,动态:13012,动态:13411,动态:8293,动态:14754,动态:10687,动态:17205,动态:20267,动态:20200,动态:22667,动态:21727,动态:17534,动态:19825,动态:21757</t>
+          <t>动态:15877,动态:18285,动态:13560,动态:14641,动态:10578,动态:7739,动态:8878,动态:10070,动态:17255,动态:20469,动态:11078,动态:14494,动态:16076,动态:16071,动态:8115,动态:720,动态:1355,动态:12377,动态:11019,动态:22284,动态:11583,动态:22545,动态:14622,动态:12018,动态:10969,动态:6638,动态:14689,动态:6657,动态:21876,动态:13291,动态:9234,动态:15493,动态:17498,动态:19420,动态:15336,动态:7161,动态:3738,动态:13489,动态:16687,动态:15886,动态:13792,动态:16212,动态:12897,动态:11111,动态:19057,动态:19002,动态:11574,动态:20440,动态:21727,动态:21820</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>动态:3453,动态:16620,动态:11399,动态:11328,动态:17120,动态:12587,动态:9047,动态:19371,动态:11285,动态:11281,动态:20603,动态:11396,动态:5961,动态:11264,动态:6894,动态:6794,动态:10969,动态:20086,动态:9093,动态:22696,动态:21763,动态:21745,动态:21756,动态:21741,动态:21727,动态:21556,动态:21737,动态:22685,动态:4036,动态:22702,动态:22146,动态:21436,动态:21740,动态:21753,动态:22688,动态:22710,动态:22692,动态:22507,动态:22698,动态:22019,动态:21757,动态:21972,动态:22706,动态:7746,动态:17337,动态:21857,动态:22697,动态:22684,动态:22323,动态:20720</t>
+          <t>动态:11551,动态:11447,动态:11413,动态:15573,动态:6479,动态:13309,动态:12587,动态:20022,动态:11399,动态:11264,动态:22080,动态:15002,动态:9047,动态:16620,动态:22667,动态:17337,动态:21756,动态:21556,动态:21745,动态:22507,动态:22512,动态:21436,动态:22710,动态:22019,动态:7746,动态:22696,动态:21740,动态:22684,动态:21727,动态:22692,动态:21857,动态:4036,动态:22702,动态:21972,动态:22688,动态:22323,动态:21741,动态:22699,动态:22146,动态:20364,动态:21737,动态:22659,动态:20720,动态:20399,动态:22685,动态:21975,动态:22698,动态:22706,动态:21763,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>动态:21727,动态:22044,动态:16256,动态:21797,动态:9724,动态:17337,动态:21975,动态:21857,动态:14673,动态:22042,动态:21737,动态:17081,动态:20720,动态:21972,动态:17128,动态:21858,动态:21741,动态:21776,动态:22696,动态:21436,动态:22659,动态:20440,动态:22702,动态:22685,动态:22698,动态:21740,动态:22706,动态:22146,动态:21780,动态:21556,动态:7746,动态:22507,动态:21745,动态:21753,动态:20439,动态:22512,动态:22323,动态:20364,动态:22688,动态:21763,动态:22684,动态:20399,动态:4036</t>
+          <t>动态:21797,动态:22042,动态:19938,动态:21727,动态:21975,动态:9724,动态:21857,动态:17337,动态:20720,动态:17081,动态:16256,动态:22044,动态:21737,动态:18615,动态:6578,动态:21972,动态:21858,动态:17128,动态:22684,动态:22692,动态:22699,动态:21741,动态:22710,动态:22698,动态:21763,动态:21780,动态:22659,动态:20440,动态:7746,动态:22507,动态:4036,动态:21756,动态:22323,动态:21745,动态:22685,动态:22706,动态:22680,动态:22019,动态:21556,动态:22146,动态:22696,动态:21436,动态:20439,动态:22512</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>动态:12891,动态:8915,动态:12736,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:4034,动态:11758,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>动态:19560,动态:11967,动态:19835,动态:20379,动态:12639,动态:11615,动态:10476,动态:14622,动态:10523,动态:18514,动态:22085,动态:12059,动态:22091,动态:13801,动态:20139,动态:19649,动态:10918,动态:13084,动态:7738,动态:3119,动态:22692,动态:22684,动态:21756,动态:22699,动态:22146,动态:21757,动态:22667,动态:21741,动态:22702,动态:20439,动态:20720,动态:22019,动态:20440,动态:20364,动态:21975,动态:22696,动态:21737,动态:4036,动态:22706,动态:21780,动态:22688,动态:22685,动态:21745,动态:22512,动态:21727,动态:22698,动态:20399,动态:21556,动态:21763,动态:22323</t>
+          <t>动态:22484,动态:22604,动态:20598,动态:20479,动态:17750,动态:13875,动态:15791,动态:11180,动态:11040,动态:16963,动态:20645,动态:22315,动态:3418,动态:10530,动态:19937,动态:22684,动态:11771,动态:11611,动态:8603,动态:12407,动态:17504,动态:6865,动态:17337,动态:7746,动态:22710,动态:22688,动态:21737,动态:22697,动态:22698,动态:21727,动态:20439,动态:20720,动态:21741,动态:21857,动态:21556,动态:21757,动态:21753,动态:21776,动态:22659,动态:22512,动态:20440,动态:21972,动态:21756,动态:20364,动态:22706,动态:22699,动态:22680,动态:22702,动态:22019</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>动态:11087,动态:17265,动态:21467,动态:16212,动态:21854,动态:13981,动态:7307,动态:19376,动态:18087,动态:20463,动态:17177,动态:1364,动态:3098,动态:11406,动态:3160,动态:3144,动态:3172,动态:18651,动态:3126,动态:3102,动态:3078,动态:676,动态:231,动态:3128,动态:13986,动态:7054,动态:3090,动态:3156,动态:3175,动态:3142,动态:12338,动态:3122,动态:20720,动态:21972,动态:22667,动态:22688,动态:21436,动态:22323,动态:22680,动态:21975,动态:22146,动态:21757,动态:21753,动态:22684,动态:21780,动态:21756,动态:22698,动态:21556,动态:21745,动态:4036</t>
+          <t>动态:16907,动态:12325,动态:18902,动态:19004,动态:13835,动态:15749,动态:13067,动态:18637,动态:7710,动态:18308,动态:676,动态:4683,动态:3160,动态:231,动态:19269,动态:3078,动态:3175,动态:3156,动态:3144,动态:6325,动态:3172,动态:13313,动态:14214,动态:11144,动态:3142,动态:3128,动态:3126,动态:3122,动态:3102,动态:3098,动态:15970,动态:3090,动态:4036,动态:22507,动态:21857,动态:22667,动态:21763,动态:21756,动态:22710,动态:20720,动态:20399,动态:22698,动态:17337,动态:22696,动态:21727,动态:22512,动态:22146,动态:21745,动态:22697,动态:22019</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>动态:13854,动态:22650,动态:6884,动态:14860,动态:21723,动态:21737,动态:3808,动态:12300,动态:12673,动态:17749,动态:144,动态:3138,动态:3096,动态:3119,动态:3178,动态:3168,动态:3099,动态:13200,动态:3795,动态:3153,动态:3081,动态:4302,动态:21556,动态:4027,动态:3150,动态:3793,动态:3133,动态:3110,动态:3072,动态:3522,动态:20364,动态:21727,动态:22697,动态:22512,动态:21753,动态:21972,动态:20399,动态:20439,动态:22696,动态:22699,动态:22685,动态:22146,动态:21763,动态:22706,动态:20720,动态:21741,动态:22692,动态:21745,动态:21756</t>
+          <t>动态:11813,动态:21737,动态:11613,动态:21723,动态:15634,动态:8659,动态:22650,动态:16002,动态:18461,动态:11100,动态:9897,动态:10879,动态:10139,动态:3150,动态:3119,动态:20364,动态:3138,动态:3178,动态:21556,动态:3522,动态:3110,动态:4027,动态:3133,动态:3168,动态:4816,动态:3793,动态:3081,动态:144,动态:4302,动态:3153,动态:3099,动态:3795,动态:3072,动态:3096,动态:21436,动态:22667,动态:21727,动态:21975,动态:22146,动态:22688,动态:22323,动态:21753,动态:22512,动态:22507,动态:21972,动态:22710,动态:22702,动态:22706,动态:17337,动态:7746</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>动态:20328,动态:19606,动态:20720,动态:20759,动态:20837,动态:20178,动态:21084,动态:16609,动态:21361,动态:21737,动态:22097,动态:20839,动态:11750,动态:22019,动态:20840,动态:21556,动态:15630,动态:20364,动态:21360,动态:21410,动态:21357,动态:20439,动态:21780,动态:21745,动态:22692,动态:20399,动态:21436,动态:22667,动态:4036,动态:21975,动态:22684,动态:21727,动态:21763,动态:22685,动态:22323,动态:20440,动态:7746,动态:21741,动态:22696,动态:21753,动态:21756,动态:21857,动态:22507,动态:22512,动态:22699,动态:22698,动态:21757,动态:17337</t>
+          <t>动态:21737,动态:19606,动态:21357,动态:20364,动态:20178,动态:21410,动态:20836,动态:20837,动态:21103,动态:16478,动态:4031,动态:20328,动态:20759,动态:22019,动态:20840,动态:21360,动态:22097,动态:5112,动态:22146,动态:17337,动态:22659,动态:22706,动态:21857,动态:22507,动态:22699,动态:22697,动态:22685,动态:22667,动态:21776,动态:22680,动态:21556,动态:21975,动态:22698,动态:21741,动态:20720,动态:21436,动态:21763,动态:22688,动态:22512,动态:21757,动态:22692,动态:22323,动态:21780,动态:21727,动态:4036,动态:21740,动态:21753,动态:22710,动态:20439</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>动态:13700,动态:18087,动态:6956,动态:22489,动态:22702,动态:22710,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:16909,动态:9160,动态:10478,动态:22702,动态:22710,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>动态:17554,动态:6886,动态:11698,动态:16717,动态:18791,动态:19504,动态:12711,动态:13412,动态:1310,动态:20717,动态:18995,动态:6134,动态:21360,动态:10271,动态:11129,动态:13810,动态:13328,动态:22706,动态:21756,动态:20364,动态:22323,动态:22680,动态:21763,动态:22698,动态:22659,动态:21737,动态:22688,动态:21745,动态:21727,动态:20439,动态:22692,动态:22685,动态:22702,动态:21740,动态:21975,动态:7746,动态:22699,动态:21776,动态:21556,动态:22507,动态:22696,动态:22710,动态:20440,动态:21757,动态:17337,动态:21780,动态:22667,动态:4036,动态:20720,动态:22684</t>
+          <t>动态:21084,动态:20134,动态:22276,动态:20106,动态:20511,动态:13887,动态:18368,动态:17563,动态:18627,动态:13537,动态:15300,动态:11762,动态:13560,动态:11036,动态:687,动态:15630,动态:18615,动态:20264,动态:8568,动态:13629,动态:22706,动态:22512,动态:22692,动态:20440,动态:22667,动态:20439,动态:22680,动态:22702,动态:22699,动态:20399,动态:21756,动态:4036,动态:17337,动态:22710,动态:21556,动态:22323,动态:21857,动态:21757,动态:21975,动态:7746,动态:22146,动态:22685,动态:22684,动态:22698,动态:22688,动态:21727,动态:22659,动态:21763,动态:21776,动态:21740</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>动态:15806,动态:14217,动态:11541,动态:14887,动态:12871,动态:19645,动态:13457,动态:12027,动态:15885,动态:10980,动态:13432,动态:18011,动态:15940,动态:13836,动态:11466,动态:6913,动态:14721,动态:13047,动态:18327,动态:11289,动态:20273,动态:20384,动态:20248,动态:21745,动态:20440,动态:22146,动态:20364,动态:22697,动态:22696,动态:22019,动态:21741,动态:21756,动态:22659,动态:22688,动态:20720,动态:22710,动态:22323,动态:22680,动态:21753,动态:17337,动态:22507,动态:22702,动态:21436,动态:21556,动态:22512,动态:22699,动态:21757,动态:21780,动态:21975,动态:20439</t>
+          <t>动态:18830,动态:13878,动态:21966,动态:12298,动态:8745,动态:10478,动态:9276,动态:10994,动态:18054,动态:22242,动态:10525,动态:22685,动态:15491,动态:21661,动态:17940,动态:21858,动态:6085,动态:18154,动态:8701,动态:7746,动态:21740,动态:22699,动态:4036,动态:22702,动态:21972,动态:22688,动态:20439,动态:22684,动态:21727,动态:22680,动态:21436,动态:21556,动态:21857,动态:22512,动态:21737,动态:21757,动态:20399,动态:22698,动态:22019,动态:21975,动态:22697,动态:21741,动态:20720,动态:22323,动态:22667,动态:21753,动态:21763,动态:20440,动态:22507</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>动态:7740,动态:13501,动态:13269,动态:19057,动态:20989,动态:15408,动态:14679,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:2941,动态:9410,动态:17336,动态:15630,动态:12158,动态:8465,动态:15612,动态:15505,动态:821,动态:20238,动态:19783,动态:13545,动态:19149,动态:16152,动态:6472,动态:14299,动态:20063,动态:4023,动态:13131,动态:12076,动态:6548,动态:11123,动态:15310,动态:6773,动态:21757,动态:22706,动态:22710,动态:20399,动态:22146,动态:21776,动态:22659,动态:20439,动态:22688,动态:21556,动态:22697,动态:20720,动态:22685,动态:20440,动态:21436,动态:22696,动态:21727,动态:7746,动态:21745,动态:4036,动态:21857,动态:22684,动态:22667,动态:21741,动态:21753,动态:22699</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>动态:18165,动态:22661,动态:19715,动态:17975,动态:21392,动态:14350,动态:18996,动态:12583,动态:6905,动态:19619,动态:12885,动态:10514,动态:22130,动态:3178,动态:12019,动态:7397,动态:9097,动态:3168,动态:22692,动态:22680,动态:21556,动态:7746,动态:22323,动态:21776,动态:22684,动态:21741,动态:22698,动态:22667,动态:22697,动态:21763,动态:22019,动态:22688,动态:20440,动态:22702,动态:21972,动态:21756,动态:17337,动态:22146,动态:21753,动态:4036,动态:21436,动态:22512,动态:22659,动态:21745,动态:20364,动态:22685,动态:20439,动态:20720,动态:22696,动态:21780</t>
+          <t>动态:16838,动态:12643,动态:22644,动态:13562,动态:16368,动态:19306,动态:18781,动态:12567,动态:11888,动态:11096,动态:14134,动态:21392,动态:6820,动态:22468,动态:13269,动态:12329,动态:17274,动态:10301,动态:676,动态:22696,动态:22512,动态:21753,动态:22698,动态:21763,动态:21740,动态:20440,动态:21780,动态:21972,动态:22019,动态:21756,动态:21745,动态:22680,动态:21436,动态:7746,动态:22323,动态:20720,动态:21741,动态:20439,动态:21757,动态:22507,动态:20364,动态:22684,动态:17337,动态:22702,动态:22659,动态:21975,动态:22706,动态:22692,动态:22146,动态:21776</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>动态:18855,动态:13136,动态:18618,动态:8757,动态:21857,动态:15328,动态:20994,动态:11972,动态:19774,动态:22096,动态:7815,动态:8294,动态:16646,动态:12027,动态:14248,动态:9201,动态:19554,动态:18667,动态:18140,动态:13325,动态:21054,动态:14901,动态:18627,动态:17250,动态:13043,动态:18038,动态:20590,动态:17498,动态:18509,动态:10514,动态:16109,动态:19423,动态:13191,动态:6622,动态:19096,动态:15754,动态:8920,动态:11590,动态:12394,动态:1271,动态:12729,动态:20636,动态:20741,动态:3808,动态:15479,动态:22019,动态:11552,动态:12679,动态:22692,动态:21753</t>
+          <t>动态:16838,动态:19356,动态:17471,动态:22301,动态:16563,动态:21857,动态:693,动态:21340,动态:15433,动态:19120,动态:15594,动态:18770,动态:17730,动态:15479,动态:14570,动态:22092,动态:16618,动态:12410,动态:21112,动态:20505,动态:13038,动态:21885,动态:17321,动态:16711,动态:19268,动态:16068,动态:22146,动态:13661,动态:12283,动态:15923,动态:17848,动态:22658,动态:20518,动态:20205,动态:12617,动态:13198,动态:20440,动态:11938,动态:18459,动态:19541,动态:11811,动态:13042,动态:21530,动态:10213,动态:15099,动态:17337,动态:8142,动态:20439,动态:8289,动态:19643</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>动态:12829,动态:9800,动态:10359,动态:13917,动态:15425,动态:19614,动态:9936,动态:14110,动态:12889,动态:17975,动态:12552,动态:13381,动态:15631,动态:19448,动态:14203,动态:5023,动态:9158,动态:6026,动态:15947,动态:22659,动态:22323,动态:22699,动态:21753,动态:22692,动态:20720,动态:21756,动态:21763,动态:22684,动态:22146,动态:22688,动态:22706,动态:21776,动态:21972,动态:20440,动态:22507,动态:17337,动态:20439,动态:21780,动态:22685,动态:20364,动态:21741,动态:22698,动态:21556,动态:22702,动态:22667,动态:21975,动态:22680,动态:22019,动态:21436,动态:22512</t>
+          <t>动态:16609,动态:12636,动态:20113,动态:19606,动态:19689,动态:9036,动态:16793,动态:18567,动态:12844,动态:11307,动态:12365,动态:13634,动态:8976,动态:12052,动态:3806,动态:16460,动态:11106,动态:14732,动态:3128,动态:21648,动态:7374,动态:20720,动态:22019,动态:22512,动态:20439,动态:22507,动态:22688,动态:22706,动态:21756,动态:21556,动态:21741,动态:20399,动态:21780,动态:17337,动态:22692,动态:21763,动态:22697,动态:22684,动态:21745,动态:20364,动态:20440,动态:21740,动态:21753,动态:22667,动态:22698,动态:21972,动态:21776,动态:21757,动态:22685,动态:22702</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>动态:21340,动态:2938,动态:6983,动态:13217,动态:19859,动态:15236,动态:16394,动态:20115,动态:18624,动态:15015,动态:15184,动态:13051,动态:16475,动态:9278,动态:5899,动态:13692,动态:14656,动态:17234,动态:6630,动态:13328,动态:21763,动态:22146,动态:22512,动态:20720,动态:21975,动态:21741,动态:21556,动态:22710,动态:21857,动态:20439,动态:21780,动态:20399,动态:7746,动态:21753,动态:20440,动态:21745,动态:22680,动态:22698,动态:22667,动态:21436,动态:17337,动态:21740,动态:22692,动态:22659,动态:22702,动态:22684,动态:21727,动态:22019,动态:21972,动态:22697</t>
+          <t>动态:14001,动态:12639,动态:19959,动态:19547,动态:20256,动态:10478,动态:3113,动态:18163,动态:10779,动态:19306,动态:11394,动态:9688,动态:9535,动态:5901,动态:12598,动态:12064,动态:6500,动态:6193,动态:6686,动态:9082,动态:21757,动态:20439,动态:21556,动态:20440,动态:21776,动态:21972,动态:22667,动态:20720,动态:21436,动态:22706,动态:21975,动态:22698,动态:21753,动态:22146,动态:22696,动态:21857,动态:22019,动态:21741,动态:22507,动态:22697,动态:22323,动态:22680,动态:22688,动态:21727,动态:21780,动态:17337,动态:22685,动态:21740,动态:22702,动态:22692</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>动态:12308,动态:21093,动态:15754,动态:21492,动态:22042,动态:12673,动态:20968,动态:14215,动态:19232,动态:19702,动态:20989,动态:17755,动态:8289,动态:22350,动态:13887,动态:22303,动态:18667,动态:6553,动态:11534,动态:8171,动态:11728,动态:19377,动态:10212,动态:12082,动态:21105,动态:18744,动态:22254,动态:17216,动态:9790,动态:10089,动态:15498,动态:9768,动态:8741,动态:13616,动态:22306,动态:18877,动态:13041,动态:9027,动态:17184,动态:11093,动态:14050,动态:8887,动态:6452,动态:10096,动态:12326,动态:20116,动态:13872,动态:22659,动态:22507,动态:11081</t>
+          <t>动态:20390,动态:13878,动态:12859,动态:6455,动态:10476,动态:9703,动态:16793,动态:15157,动态:18224,动态:13174,动态:9078,动态:19653,动态:8288,动态:11307,动态:18983,动态:11500,动态:19530,动态:14058,动态:22101,动态:22183,动态:12836,动态:6533,动态:16290,动态:19212,动态:12300,动态:20486,动态:17323,动态:11088,动态:19715,动态:9410,动态:8474,动态:12328,动态:21060,动态:17498,动态:18678,动态:13439,动态:22294,动态:2707,动态:14319,动态:9331,动态:11110,动态:16351,动态:20588,动态:22654,动态:7944,动态:20740,动态:22697,动态:22685,动态:15150,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>动态:13556,动态:13158,动态:19896,动态:22604,动态:6580,动态:22667,动态:8177,动态:14209,动态:12014,动态:8270,动态:9476,动态:22688,动态:10966,动态:12081,动态:8662,动态:9996,动态:13838,动态:17853,动态:19809,动态:15667,动态:11024,动态:22685,动态:10182,动态:22697,动态:20399,动态:21753,动态:21740,动态:21741,动态:21763,动态:20364,动态:22696,动态:22702,动态:22659,动态:22698,动态:22146,动态:21972,动态:20440,动态:21975,动态:22710,动态:17337,动态:22684,动态:7746,动态:4036,动态:21436,动态:21756,动态:21857,动态:22680,动态:21780,动态:21727</t>
+          <t>动态:6775,动态:13247,动态:18341,动态:21917,动态:13296,动态:231,动态:8940,动态:14892,动态:13998,动态:22688,动态:22667,动态:14667,动态:6584,动态:15200,动态:7117,动态:17130,动态:17289,动态:19162,动态:17085,动态:13908,动态:8805,动态:22436,动态:15073,动态:20017,动态:22685,动态:19368,动态:9415,动态:22698,动态:22710,动态:21780,动态:22696,动态:4036,动态:22706,动态:22697,动态:22323,动态:21741,动态:21776,动态:20364,动态:21737,动态:21436,动态:22699,动态:20720,动态:22680,动态:21763,动态:22019,动态:22702,动态:20399,动态:22659,动态:22512</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>动态:17769,动态:14999,动态:20227,动态:8764,动态:18589,动态:12273,动态:6625,动态:18339,动态:17557,动态:21653,动态:11991,动态:15539,动态:9354,动态:9158,动态:7978,动态:11043,动态:12604,动态:4039,动态:21740,动态:21757,动态:21972,动态:21556,动态:21763,动态:21737,动态:21753,动态:21741,动态:22684,动态:20720,动态:21780,动态:22702,动态:21857,动态:20439,动态:22697,动态:22323,动态:22692,动态:22696,动态:22019,动态:22680,动态:20399,动态:21745,动态:21975,动态:4036,动态:22146,动态:22507,动态:21436,动态:22659,动态:7746,动态:21776,动态:21727,动态:20440</t>
+          <t>动态:22484,动态:12624,动态:18246,动态:6820,动态:21692,动态:11355,动态:9183,动态:13943,动态:20598,动态:10687,动态:12272,动态:912,动态:7526,动态:20346,动态:5961,动态:14800,动态:14152,动态:21753,动态:22699,动态:22702,动态:20399,动态:22323,动态:21741,动态:22692,动态:22706,动态:21737,动态:21740,动态:20440,动态:21780,动态:22019,动态:22696,动态:22659,动态:22512,动态:21436,动态:22507,动态:20720,动态:21745,动态:4036,动态:22146,动态:7746,动态:21756,动态:20439,动态:22684,动态:21757,动态:21727,动态:22680,动态:21972,动态:21776,动态:21556,动态:21975</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>动态:14517,动态:20859,动态:8674,动态:14686,动态:9554,动态:18983,动态:19629,动态:10936,动态:22685,动态:22400,动态:9440,动态:19426,动态:6619,动态:10698,动态:8245,动态:19208,动态:16017,动态:15765,动态:19416,动态:13143,动态:6733,动态:17205,动态:20487,动态:17564,动态:21785,动态:21000,动态:10360,动态:10711,动态:18282,动态:10122,动态:12897,动态:19537,动态:3215,动态:11390,动态:10995,动态:22667,动态:12737,动态:17392,动态:19186,动态:7171,动态:11405,动态:13317,动态:20358,动态:239,动态:16536,动态:20720,动态:22487,动态:21757,动态:21753,动态:18369</t>
+          <t>动态:9214,动态:14683,动态:16238,动态:21664,动态:19427,动态:13457,动态:12322,动态:7394,动态:19827,动态:12581,动态:18667,动态:12840,动态:1370,动态:8745,动态:12890,动态:13176,动态:19560,动态:19486,动态:13449,动态:9344,动态:13414,动态:18902,动态:14167,动态:22644,动态:19130,动态:15238,动态:9860,动态:13844,动态:14417,动态:15775,动态:11088,动态:11777,动态:4296,动态:11568,动态:17562,动态:22609,动态:15493,动态:11393,动态:20300,动态:13152,动态:21885,动态:13334,动态:22032,动态:19856,动态:8741,动态:20399,动态:20669,动态:21436,动态:22684,动态:22702</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>动态:20110,动态:11500,动态:12878,动态:20293,动态:21975,动态:15926,动态:21501,动态:7517,动态:13296,动态:19453,动态:20205,动态:9785,动态:21743,动态:13613,动态:21797,动态:22653,动态:21342,动态:19487,动态:11467,动态:16476,动态:17939,动态:20071,动态:17515,动态:22684,动态:21556,动态:22512,动态:22710,动态:21972,动态:22702,动态:7746,动态:22692,动态:22680,动态:20364,动态:21756,动态:21727,动态:21753,动态:22699,动态:21757,动态:21737,动态:22696,动态:22507,动态:22688,动态:21857,动态:22698,动态:21780,动态:20440,动态:4036,动态:22659,动态:21436,动态:21740</t>
+          <t>动态:15285,动态:12384,动态:21743,动态:21975,动态:20149,动态:14113,动态:14848,动态:17250,动态:22653,动态:22242,动态:21501,动态:13455,动态:16913,动态:11285,动态:19727,动态:10132,动态:7161,动态:12075,动态:11293,动态:20291,动态:15222,动态:6764,动态:8962,动态:22696,动态:22684,动态:21745,动态:22702,动态:21436,动态:21757,动态:22667,动态:21756,动态:22680,动态:21740,动态:21556,动态:22688,动态:22706,动态:22698,动态:22699,动态:22685,动态:21780,动态:21737,动态:7746,动态:4036,动态:20440,动态:21763,动态:22512,动态:22697,动态:22019,动态:20439</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>动态:20285,动态:22653,动态:21501,动态:14966,动态:18932,动态:18595,动态:13746,动态:19120,动态:14948,动态:19097,动态:21975,动态:18667,动态:19531,动态:6632,动态:21743,动态:2878,动态:8221,动态:10254,动态:8291,动态:22698,动态:8127,动态:12065,动态:22684,动态:22019,动态:22688,动态:20364,动态:22710,动态:22685,动态:21780,动态:21740,动态:22507,动态:21857,动态:22512,动态:21556,动态:22696,动态:21727,动态:21972,动态:21753,动态:21745,动态:22699,动态:22697,动态:22692,动态:22146,动态:22323,动态:21436,动态:21776,动态:17337,动态:20439</t>
+          <t>动态:12275,动态:12362,动态:21417,动态:19256,动态:14603,动态:21743,动态:17289,动态:20821,动态:15060,动态:22653,动态:13788,动态:21501,动态:17381,动态:19271,动态:8538,动态:16211,动态:21975,动态:21780,动态:21727,动态:22692,动态:21756,动态:20720,动态:22512,动态:22697,动态:22680,动态:21753,动态:20399,动态:21436,动态:22702,动态:22710,动态:22323,动态:21763,动态:22146,动态:4036,动态:21737,动态:21556,动态:22685,动态:20439,动态:22698,动态:22684,动态:21741,动态:7746,动态:21757,动态:21972,动态:22699,动态:20440,动态:21740,动态:22659,动态:20364,动态:22696</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>动态:8598,动态:19514,动态:20747,动态:20558,动态:12237,动态:17471,动态:17072,动态:6635,动态:11086,动态:19835,动态:21484,动态:9077,动态:21763,动态:22512,动态:21556,动态:21436,动态:22019,动态:22684,动态:20720,动态:22680,动态:22696,动态:7746,动态:22692,动态:20439,动态:20399,动态:20440,动态:22685,动态:21756,动态:21727,动态:22146,动态:22698,动态:22699,动态:22507,动态:21972,动态:22697,动态:22659,动态:22710,动态:21857,动态:21740,动态:22688,动态:21780,动态:21776,动态:21745,动态:21757,动态:21741,动态:21975,动态:22706,动态:22702,动态:22323,动态:21737</t>
+          <t>动态:21530,动态:9421,动态:12085,动态:19655,动态:21152,动态:21017,动态:20482,动态:16049,动态:22679,动态:11613,动态:692,动态:22702,动态:9291,动态:14158,动态:6361,动态:6578,动态:3156,动态:22323,动态:22696,动态:22684,动态:20439,动态:22698,动态:22667,动态:17337,动态:21556,动态:21727,动态:21776,动态:22019,动态:21857,动态:20720,动态:22685,动态:22699,动态:21763,动态:21436,动态:22692,动态:22659,动态:22710,动态:21745,动态:21757,动态:22688,动态:21756,动态:22706,动态:20440,动态:20399,动态:20364,动态:22512,动态:21975,动态:21740,动态:22697</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>动态:17367,动态:16721,动态:3174,动态:6447,动态:3073,动态:13249,动态:21363,动态:6901,动态:4036,动态:6916,动态:3166,动态:4031,动态:3897,动态:7789,动态:22699,动态:621,动态:7383,动态:3796,动态:17172,动态:14305,动态:6325,动态:3104,动态:21780,动态:7186,动态:15712,动态:21917,动态:6252,动态:3076,动态:21970,动态:3162,动态:22696,动态:15888,动态:3979,动态:3107,动态:13862,动态:21470,动态:15620,动态:7464,动态:20525,动态:20516,动态:3522,动态:22702,动态:21756,动态:22512,动态:21740,动态:21741,动态:21753,动态:21763,动态:21857,动态:22659</t>
+          <t>动态:15669,动态:21780,动态:3107,动态:13038,动态:240,动态:13132,动态:6252,动态:15479,动态:7789,动态:3979,动态:22699,动态:7186,动态:4036,动态:20479,动态:6901,动态:16721,动态:21467,动态:3174,动态:3897,动态:3162,动态:10592,动态:3104,动态:7383,动态:21492,动态:3796,动态:3166,动态:3076,动态:19481,动态:7464,动态:3073,动态:14848,动态:21470,动态:12404,动态:22696,动态:20516,动态:11133,动态:6325,动态:21970,动态:621,动态:6447,动态:6916,动态:4031,动态:20525,动态:22688,动态:22684,动态:20364,动态:7746,动态:20439,动态:21740,动态:21776</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>动态:9232,动态:7976,动态:11138,动态:7978,动态:21972,动态:22310,动态:20720,动态:22306,动态:22285,动态:22702,动态:22710,动态:22685,动态:22400,动态:17337,动态:21577,动态:7985,动态:21737,动态:22346,动态:22295,动态:21436,动态:7983,动态:11320,动态:19644,动态:22146,动态:21583,动态:22156,动态:22234,动态:7746,动态:4036,动态:21745,动态:22699,动态:22696,动态:21756,动态:20439,动态:22684,动态:21741,动态:21763,动态:21780,动态:22507,动态:22680,动态:21727,动态:22019,动态:22688,动态:22697,动态:22659</t>
+          <t>动态:7978,动态:7976,动态:22156,动态:22146,动态:21583,动态:21436,动态:22310,动态:22285,动态:22702,动态:21577,动态:22710,动态:22400,动态:22295,动态:20720,动态:22234,动态:7983,动态:19644,动态:21972,动态:21737,动态:22685,动态:22346,动态:22306,动态:7985,动态:17529,动态:17337,动态:20440,动态:22512,动态:21740,动态:21556,动态:22692,动态:21780,动态:22699,动态:22684,动态:22659,动态:21776,动态:22019,动态:22698,动态:22667,动态:21975,动态:22696,动态:21745,动态:22507,动态:22680,动态:22697</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>动态:6325,动态:6916,动态:3073,动态:6447,动态:3166,动态:3174,动态:16721,动态:4031,动态:20516,动态:3104,动态:20525,动态:7464,动态:21470,动态:6901,动态:3897,动态:3107,动态:22699,动态:3979,动态:621,动态:22696,动态:3162,动态:7383,动态:3796,动态:3076,动态:6252,动态:7186,动态:21780,动态:7789,动态:4036,动态:21000,动态:14373,动态:18165,动态:11946,动态:10452,动态:18796,动态:10971,动态:10991,动态:19278,动态:18589,动态:10139,动态:20106,动态:7694,动态:18776,动态:21745,动态:21740,动态:22706,动态:21776,动态:20720,动态:22323,动态:21857</t>
+          <t>动态:20516,动态:22699,动态:7789,动态:6252,动态:3107,动态:21780,动态:3979,动态:3104,动态:21470,动态:20525,动态:7383,动态:6916,动态:6447,动态:621,动态:6325,动态:3162,动态:7186,动态:22696,动态:3897,动态:3174,动态:16721,动态:4036,动态:3166,动态:3796,动态:7464,动态:3073,动态:6901,动态:4031,动态:3076,动态:13129,动态:16252,动态:15493,动态:14152,动态:16337,动态:16478,动态:11067,动态:18308,动态:12317,动态:17777,动态:22499,动态:15671,动态:22685,动态:18830,动态:13063,动态:15188,动态:22680,动态:21436,动态:21857,动态:22684,动态:7746</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>动态:13888,动态:10968,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:11023,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>动态:21780,动态:11014,动态:6447,动态:3073,动态:19232,动态:6901,动态:4036,动态:6916,动态:20479,动态:3166,动态:7824,动态:4031,动态:3897,动态:7789,动态:22699,动态:621,动态:7383,动态:3796,动态:3174,动态:13315,动态:16721,动态:10070,动态:7186,动态:14389,动态:6252,动态:3076,动态:14730,动态:21970,动态:3162,动态:22696,动态:15709,动态:20114,动态:3107,动态:21470,动态:7464,动态:20525,动态:3104,动态:20516,动态:6325,动态:17172,动态:3979,动态:17392,动态:21757,动态:21857,动态:20439,动态:22659,动态:7746,动态:22697,动态:22698,动态:21776</t>
+          <t>动态:19727,动态:21470,动态:3104,动态:14299,动态:3979,动态:21780,动态:3107,动态:6252,动态:13132,动态:7789,动态:22699,动态:21340,动态:3162,动态:15793,动态:7186,动态:4036,动态:6454,动态:6901,动态:12384,动态:16721,动态:18141,动态:3174,动态:7383,动态:3897,动态:6916,动态:621,动态:12861,动态:7150,动态:6633,动态:13081,动态:6577,动态:13455,动态:13408,动态:3796,动态:3166,动态:3076,动态:20124,动态:7464,动态:3073,动态:14284,动态:4031,动态:22696,动态:20516,动态:9133,动态:11325,动态:22684,动态:21436,动态:21745,动态:22019,动态:22667</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>动态:15977,动态:20505,动态:14510,动态:12716,动态:10217,动态:11863,动态:20966,动态:8296,动态:18337,动态:19181,动态:9418,动态:12150,动态:12669,动态:12593,动态:13086,动态:7356,动态:11112,动态:10553,动态:15957,动态:8699,动态:20440,动态:22512,动态:17337,动态:21780,动态:22684,动态:20364,动态:21753,动态:22706,动态:22507,动态:21756,动态:21757,动态:22688,动态:21745,动态:22146,动态:21857,动态:20399,动态:22692,动态:22667,动态:20720,动态:4036,动态:21727,动态:22323,动态:21741,动态:20439,动态:22680,动态:22697,动态:22699,动态:22698,动态:22019,动态:22685</t>
+          <t>动态:8997,动态:19697,动态:235,动态:21532,动态:14311,动态:19149,动态:8173,动态:18688,动态:17563,动态:13686,动态:13684,动态:13147,动态:18378,动态:11785,动态:16829,动态:3168,动态:8169,动态:16178,动态:6534,动态:19833,动态:20184,动态:10984,动态:19269,动态:20328,动态:19847,动态:20720,动态:22323,动态:22512,动态:22507,动态:22680,动态:20439,动态:21727,动态:22696,动态:22698,动态:21857,动态:22685,动态:22146,动态:21780,动态:21753,动态:21737,动态:20364,动态:17337,动态:21741,动态:7746,动态:22659,动态:22697,动态:22692,动态:22699,动态:22688,动态:21757</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>动态:15708,动态:15302,动态:4483,动态:4023,动态:10135,动态:10457,动态:22160,动态:6632,动态:15885,动态:19825,动态:22323,动态:22346,动态:14098,动态:22032,动态:10932,动态:14876,动态:22710,动态:4815,动态:20140,动态:8786,动态:14040,动态:10581,动态:4675,动态:13308,动态:13328,动态:21741,动态:20720,动态:21975,动态:22146,动态:20440,动态:20399,动态:22667,动态:22706,动态:21763,动态:21757,动态:21737,动态:21756,动态:21436,动态:22680,动态:7746,动态:17337,动态:21972,动态:22697,动态:21753,动态:21745,动态:20364,动态:21776,动态:22692,动态:21556</t>
+          <t>动态:22160,动态:15998,动态:22346,动态:22710,动态:7517,动态:21756,动态:7394,动态:22323,动态:10071,动态:19126,动态:22032,动态:13012,动态:15984,动态:9155,动态:18322,动态:16929,动态:13321,动态:12888,动态:21857,动态:21776,动态:21436,动态:21727,动态:21556,动态:4036,动态:22699,动态:21741,动态:22680,动态:22696,动态:22698,动态:21745,动态:22019,动态:21975,动态:21757,动态:20364,动态:20399,动态:22146,动态:22667,动态:21753,动态:20440,动态:21972,动态:21740,动态:22692,动态:22706,动态:22659,动态:21780,动态:22688,动态:20439</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>动态:13083,动态:19544,动态:18378,动态:11978,动态:17575,动态:12828,动态:20937,动态:12324,动态:14737,动态:17569,动态:13838,动态:15565,动态:10969,动态:11283,动态:13123,动态:17237,动态:16656,动态:20440,动态:21776,动态:22507,动态:21436,动态:21763,动态:22667,动态:21756,动态:21857,动态:22699,动态:21757,动态:21780,动态:22146,动态:21745,动态:21975,动态:7746,动态:21740,动态:21556,动态:4036,动态:21753,动态:22684,动态:20364,动态:22019,动态:22688,动态:22698,动态:22697,动态:22706,动态:22692,动态:20439,动态:22685,动态:21727,动态:17337,动态:21737,动态:22680</t>
+          <t>动态:16614,动态:15708,动态:12611,动态:13888,动态:19857,动态:22487,动态:19959,动态:22091,动态:20458,动态:11458,动态:7223,动态:19815,动态:13432,动态:11698,动态:15057,动态:6604,动态:13316,动态:15995,动态:19932,动态:21753,动态:22512,动态:17337,动态:21745,动态:21975,动态:21737,动态:22696,动态:21763,动态:20440,动态:20720,动态:4036,动态:21556,动态:22684,动态:21436,动态:20439,动态:20364,动态:21741,动态:21727,动态:22698,动态:20399,动态:22146,动态:22692,动态:22019,动态:22507,动态:22680,动态:21776,动态:21857,动态:22697,动态:7746,动态:21972,动态:21757</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>动态:22650,动态:244,动态:13067,动态:21737,动态:22702,动态:22710,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:20399,动态:7746,动态:20364,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:21737,动态:22650,动态:20310,动态:13491,动态:6852,动态:22702,动态:22710,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:20399,动态:7746,动态:20364,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>动态:21436,动态:21417,动态:22285,动态:22710,动态:13086,动态:21756,动态:22146,动态:22323,动态:20440,动态:21763,动态:21776,动态:22684,动态:20720,动态:21753,动态:21857,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:22710,动态:22285,动态:21436,动态:21756,动态:22146,动态:22323,动态:20440,动态:21763,动态:21776,动态:22684,动态:20720,动态:21753,动态:21857,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>动态:22130,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:8745,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>动态:6642,动态:15435,动态:11728,动态:12562,动态:10643,动态:3751,动态:19427,动态:779,动态:19036,动态:20048,动态:20790,动态:20664,动态:13391,动态:7815,动态:10165,动态:7161,动态:17102,动态:19162,动态:11033,动态:16614,动态:6602,动态:19175,动态:12759,动态:19219,动态:11478,动态:10116,动态:15291,动态:3707,动态:20619,动态:11449,动态:13073,动态:9545,动态:11854,动态:7038,动态:15791,动态:11618,动态:8625,动态:12917,动态:17318,动态:19130,动态:7513,动态:19642,动态:13072,动态:12898,动态:18140,动态:22507,动态:21757,动态:21436,动态:13269,动态:16942</t>
+          <t>动态:12275,动态:19356,动态:12836,动态:21665,动态:9309,动态:12276,动态:9136,动态:14215,动态:9728,动态:8465,动态:11585,动态:11491,动态:11363,动态:11863,动态:19149,动态:19590,动态:20064,动态:14580,动态:14688,动态:21664,动态:14686,动态:14657,动态:13582,动态:14764,动态:9533,动态:20551,动态:13751,动态:20463,动态:15173,动态:8109,动态:18733,动态:21054,动态:18008,动态:15634,动态:13919,动态:11110,动态:20258,动态:21105,动态:21651,动态:15630,动态:8082,动态:14892,动态:18075,动态:7784,动态:13012,动态:21763,动态:21556,动态:13070,动态:7746,动态:14744</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>动态:6463,动态:5900,动态:14431,动态:15857,动态:11059,动态:20864,动态:11478,动态:21004,动态:19792,动态:13616,动态:10927,动态:22702,动态:14673,动态:15577,动态:11906,动态:9482,动态:22495,动态:11029,动态:20356,动态:19824,动态:12365,动态:11036,动态:18056,动态:11980,动态:13837,动态:8176,动态:16600,动态:17063,动态:15154,动态:3522,动态:21753,动态:22710,动态:22685,动态:20439,动态:22706,动态:22019,动态:22323,动态:22146,动态:21727,动态:21763,动态:21740,动态:22698,动态:21972,动态:22507,动态:20364,动态:22512,动态:22696,动态:21741,动态:21975</t>
+          <t>动态:9278,动态:10210,动态:20465,动态:15189,动态:13917,动态:13408,动态:20669,动态:19969,动态:17950,动态:19867,动态:19144,动态:8659,动态:16369,动态:20968,动态:14844,动态:22146,动态:22710,动态:22699,动态:20399,动态:21737,动态:21857,动态:22685,动态:22697,动态:22698,动态:21757,动态:20440,动态:22692,动态:22019,动态:22688,动态:22323,动态:21753,动态:22680,动态:20364,动态:21556,动态:22706,动态:21763,动态:22684,动态:22512,动态:21972,动态:21975,动态:21741,动态:21776,动态:21740,动态:21436,动态:7746,动态:21780,动态:22667,动态:21745,动态:20720,动态:21756</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>动态:16602,动态:7405,动态:10427,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:13820,动态:11554,动态:11334,动态:8512,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>动态:12114,动态:18900,动态:20200,动态:22427,动态:3415,动态:19774,动态:15071,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:13569,动态:16913,动态:21960,动态:19600,动态:20075,动态:16857,动态:19492,动态:15987,动态:16675,动态:20440,动态:22698,动态:22680,动态:21727,动态:22688,动态:21757,动态:21756,动态:22512,动态:22702,动态:22696,动态:22697,动态:21776,动态:22706,动态:21780,动态:21972,动态:20439,动态:22019,动态:22692,动态:22667,动态:21753,动态:21975,动态:21741,动态:22685,动态:21740,动态:4036,动态:20720,动态:21556,动态:22659,动态:22699,动态:21436,动态:22507,动态:17337,动态:21737,动态:20364,动态:22323,动态:7746,动态:21745,动态:20399,动态:22684,动态:22146,动态:21857</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>动态:9050,动态:19816,动态:19908,动态:6086,动态:16026,动态:6449,动态:6906,动态:15999,动态:6545,动态:15627,动态:9039,动态:12593,动态:17960,动态:12911,动态:6773,动态:18170,动态:10072,动态:15656,动态:17710,动态:8631,动态:15408,动态:11461,动态:6577,动态:9795,动态:14053,动态:11786,动态:6761,动态:15547,动态:5778,动态:13789,动态:6845,动态:18153,动态:2926,动态:19127,动态:18273,动态:4632,动态:13380,动态:11267,动态:14514,动态:16833,动态:13308,动态:6852,动态:11094,动态:13970,动态:5901,动态:5023,动态:7059,动态:20439,动态:8775,动态:21753</t>
+          <t>动态:15354,动态:14216,动态:10211,动态:11034,动态:18740,动态:11265,动态:9478,动态:17487,动态:769,动态:16199,动态:7976,动态:18883,动态:17721,动态:14273,动态:12586,动态:14502,动态:12066,动态:15170,动态:15995,动态:17954,动态:11291,动态:18668,动态:18376,动态:9130,动态:17113,动态:18156,动态:10292,动态:13797,动态:19123,动态:16297,动态:6869,动态:18653,动态:18341,动态:11441,动态:17937,动态:19258,动态:14949,动态:4175,动态:18151,动态:9422,动态:15982,动态:14444,动态:15947,动态:20061,动态:18492,动态:11077,动态:11278,动态:22507,动态:21556,动态:22667</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>动态:19233,动态:12609,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:19644,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>动态:10070,动态:3098,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:21482,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>动态:22252,动态:7608,动态:19646,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:22146,动态:21857,动态:20399,动态:22659,动态:21556,动态:21740,动态:21975,动态:22019,动态:22684,动态:21757,动态:21436,动态:22685,动态:22697,动态:20720,动态:21763,动态:22323,动态:22512,动态:17337,动态:7746,动态:21741,动态:22667,动态:21756,动态:20364,动态:21780,动态:22680,动态:21745,动态:22710,动态:22688,动态:20439,动态:21737,动态:22696,动态:22706,动态:21972,动态:22698,动态:4036,动态:22692,动态:21727,动态:21753,动态:22702,动态:20440,动态:22507,动态:21776,动态:22699</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>动态:7477,动态:8270,动态:22301,动态:8464,动态:7137,动态:17952,动态:11177,动态:13835,动态:20606,动态:6472,动态:21103,动态:22688,动态:10603,动态:16257,动态:12027,动态:14622,动态:19007,动态:10528,动态:19653,动态:13146,动态:19427,动态:13009,动态:13243,动态:20379,动态:11031,动态:19037,动态:21490,动态:14657,动态:17727,动态:15877,动态:21501,动态:12369,动态:21960,动态:18082,动态:16186,动态:15387,动态:17081,动态:12364,动态:22276,动态:6831,动态:11086,动态:11162,动态:12639,动态:1271,动态:15953,动态:20747,动态:22019,动态:11442,动态:14475,动态:13857</t>
+          <t>动态:14084,动态:13213,动态:20473,动态:3738,动态:13009,动态:21753,动态:13136,动态:15770,动态:17471,动态:12736,动态:20968,动态:11394,动态:12150,动态:13098,动态:9460,动态:14641,动态:18606,动态:15608,动态:18407,动态:18301,动态:14809,动态:12322,动态:20111,动态:8855,动态:13682,动态:9036,动态:15929,动态:11985,动态:10938,动态:10551,动态:17313,动态:9791,动态:18867,动态:20067,动态:9015,动态:22661,动态:6884,动态:11337,动态:20205,动态:17296,动态:10242,动态:20616,动态:14331,动态:19702,动态:13906,动态:17337,动态:21972,动态:16315,动态:20720,动态:21753</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>动态:13586,动态:12084,动态:22211,动态:15975,动态:22488,动态:20851,动态:10070,动态:16072,动态:10271,动态:18034,动态:18314,动态:7368,动态:16280,动态:22644,动态:15935,动态:15498,动态:4522,动态:21556,动态:21745,动态:21753,动态:22323,动态:4036,动态:21757,动态:22512,动态:22688,动态:22019,动态:20720,动态:22710,动态:21972,动态:22680,动态:20439,动态:7746,动态:21740,动态:21727,动态:22667,动态:21756,动态:22697,动态:22702,动态:21436,动态:22692,动态:20364,动态:22146,动态:21780,动态:22684,动态:21737,动态:21763,动态:22659,动态:21741,动态:22507,动态:21975</t>
+          <t>动态:22156,动态:11406,动态:22680,动态:21310,动态:1370,动态:19184,动态:10959,动态:7378,动态:7741,动态:10970,动态:11276,动态:3418,动态:10599,动态:20030,动态:9152,动态:21481,动态:20551,动态:22697,动态:21972,动态:22019,动态:21753,动态:17337,动态:22685,动态:21727,动态:21741,动态:22512,动态:21857,动态:22507,动态:21740,动态:20364,动态:22699,动态:21436,动态:20440,动态:21737,动态:22146,动态:21556,动态:20439,动态:22323,动态:20720,动态:21776,动态:22706,动态:4036,动态:22667,动态:22702,动态:21763,动态:22684,动态:21780,动态:21975,动态:21745</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>动态:13870,动态:13796,动态:11019,动态:19372,动态:5551,动态:9981,动态:14638,动态:10272,动态:14134,动态:15099,动态:13557,动态:11679,动态:16388,动态:17138,动态:17122,动态:15712,动态:14517,动态:22112,动态:20558,动态:13906,动态:7746,动态:22323,动态:21740,动态:22710,动态:20440,动态:22684,动态:22680,动态:17337,动态:21757,动态:22702,动态:22667,动态:22688,动态:21741,动态:22698,动态:21556,动态:21745,动态:20364,动态:22692,动态:21727,动态:21436,动态:21972,动态:20399,动态:21763,动态:4036,动态:22706,动态:22685,动态:22697,动态:22699,动态:22019,动态:20720</t>
+          <t>动态:22352,动态:22075,动态:13562,动态:6773,动态:20394,动态:16512,动态:20803,动态:15886,动态:11544,动态:4031,动态:10859,动态:1742,动态:20923,动态:22487,动态:6897,动态:6534,动态:6909,动态:20019,动态:3111,动态:21163,动态:22684,动态:22512,动态:21763,动态:21753,动态:20364,动态:22685,动态:22696,动态:22680,动态:22507,动态:21727,动态:21436,动态:22697,动态:21745,动态:21556,动态:22688,动态:21975,动态:21737,动态:20399,动态:7746,动态:21776,动态:22667,动态:22699,动态:21972,动态:22659,动态:21857,动态:22019,动态:20439,动态:17337,动态:22323,动态:22692</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>动态:19581,动态:15671,动态:13328,动态:15336,动态:12844,动态:11184,动态:17974,动态:12849,动态:13792,动态:11613,动态:9160,动态:18995,动态:21436,动态:22146,动态:20364,动态:21763,动态:20439,动态:22685,动态:20440,动态:22323,动态:22699,动态:22706,动态:22688,动态:17337,动态:21857,动态:22659,动态:20399,动态:21727,动态:21556,动态:22507,动态:21757,动态:21737,动态:22512,动态:4036,动态:21741,动态:21975,动态:21756,动态:7746,动态:21740,动态:20720,动态:21776,动态:21753,动态:22667,动态:22019,动态:22692,动态:21972,动态:22702,动态:21745,动态:22684,动态:22710</t>
+          <t>动态:13131,动态:6192,动态:17954,动态:18451,动态:15946,动态:7349,动态:15118,动态:7789,动态:20768,动态:15015,动态:15775,动态:8809,动态:21763,动态:21436,动态:22659,动态:7746,动态:22710,动态:21740,动态:22698,动态:22692,动态:21857,动态:20720,动态:21975,动态:21556,动态:21972,动态:21757,动态:21776,动态:21741,动态:22512,动态:20364,动态:20399,动态:17337,动态:22696,动态:20440,动态:21780,动态:22146,动态:21753,动态:22702,动态:4036,动态:21727,动态:20439,动态:21756,动态:22685,动态:21745,动态:21737,动态:22667,动态:22706,动态:22323,动态:22699,动态:22507</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>动态:12558,动态:16401,动态:22692,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:15498,动态:14435,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>动态:12930,动态:12327,动态:21854,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:21737,动态:21201,动态:11552,动态:22702,动态:22710,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>动态:8586,动态:17130,动态:14003,动态:20859,动态:18075,动态:16394,动态:12328,动态:12410,动态:21141,动态:18023,动态:15787,动态:9724,动态:18838,动态:14395,动态:20127,动态:8550,动态:6903,动态:16428,动态:6826,动态:12895,动态:6762,动态:7359,动态:20130,动态:11043,动态:19854,动态:17693,动态:22512,动态:17337,动态:22699,动态:21975,动态:22659,动态:21727,动态:21556,动态:20440,动态:22680,动态:22323,动态:21780,动态:22702,动态:22684,动态:21737,动态:21436,动态:20364,动态:20439,动态:22146,动态:22710,动态:22688,动态:22667,动态:22697,动态:21753,动态:21972</t>
+          <t>动态:14570,动态:16713,动态:20836,动态:17333,动态:13268,动态:16891,动态:21917,动态:22688,动态:14417,动态:13326,动态:9512,动态:13147,动态:10950,动态:12655,动态:7898,动态:10969,动态:15863,动态:16669,动态:13329,动态:1912,动态:20298,动态:10290,动态:14204,动态:22019,动态:22512,动态:7746,动态:21737,动态:21740,动态:20439,动态:22659,动态:21776,动态:21741,动态:21763,动态:22146,动态:21780,动态:21972,动态:22710,动态:17337,动态:21756,动态:21757,动态:4036,动态:22507,动态:22698,动态:22692,动态:20440,动态:21975,动态:22667,动态:22323,动态:20364</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>动态:21556,动态:21745,动态:20439,动态:21857,动态:21763,动态:21737,动态:22698,动态:22146,动态:21756,动态:22019,动态:21740,动态:20364,动态:22699,动态:21757,动态:22507,动态:21436,动态:22685,动态:22710,动态:22680,动态:22702,动态:22323,动态:4036,动态:21753,动态:7746,动态:22706,动态:21741,动态:21776,动态:22667,动态:20720,动态:20440,动态:22696,动态:17337,动态:21780,动态:22659,动态:21972,动态:22684,动态:22688,动态:22697,动态:21727,动态:22692,动态:22512,动态:20399,动态:21975</t>
+          <t>动态:22688,动态:21975,动态:21753,动态:21741,动态:21727,动态:21556,动态:22680,动态:21757,动态:22512,动态:22710,动态:4036,动态:20440,动态:22659,动态:20439,动态:22667,动态:22696,动态:22146,动态:22507,动态:22323,动态:21780,动态:20399,动态:22019,动态:22692,动态:22684,动态:21737,动态:22706,动态:21436,动态:21745,动态:22685,动态:20364,动态:7746,动态:21763,动态:21740,动态:17337,动态:21756,动态:20720,动态:22698,动态:21972,动态:21776,动态:21857,动态:22702,动态:22697,动态:22699</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>动态:11282,动态:15867,动态:16676,动态:19655,动态:11015,动态:7161,动态:12399,动态:12046,动态:9724,动态:14947,动态:14509,动态:11566,动态:16602,动态:12273,动态:14971,动态:8168,动态:14830,动态:15384,动态:4176,动态:20273,动态:21741,动态:22706,动态:22710,动态:21740,动态:22146,动态:21763,动态:22699,动态:22680,动态:21727,动态:22323,动态:17337,动态:21436,动态:22688,动态:21975,动态:22698,动态:4036,动态:21780,动态:22507,动态:20440,动态:22685,动态:22697,动态:21757,动态:21737,动态:22667,动态:7746,动态:21753,动态:21745,动态:22512,动态:22019,动态:20364</t>
+          <t>动态:15679,动态:12967,动态:17690,动态:13041,动态:7409,动态:19182,动态:13964,动态:9311,动态:9132,动态:22673,动态:5407,动态:15334,动态:14851,动态:15620,动态:7388,动态:18953,动态:12154,动态:12593,动态:4036,动态:20364,动态:20720,动态:20440,动态:22706,动态:21763,动态:7746,动态:22710,动态:22323,动态:21737,动态:22698,动态:21776,动态:22692,动态:21756,动态:21780,动态:21727,动态:22702,动态:22146,动态:22680,动态:22699,动态:22696,动态:21745,动态:21857,动态:20439,动态:22019,动态:21753,动态:20399,动态:22684,动态:22685,动态:21975,动态:21556,动态:21757</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>动态:10427,动态:17081,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:10981,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>动态:15144,动态:11078,动态:11403,动态:16377,动态:14161,动态:10849,动态:12730,动态:16017,动态:16793,动态:22633,动态:13047,动态:22679,动态:20067,动态:19487,动态:17548,动态:13911,动态:9138,动态:12324,动态:15913,动态:15477,动态:12883,动态:11281,动态:16582,动态:22507,动态:9525,动态:12890,动态:12897,动态:7038,动态:16687,动态:3804,动态:7577,动态:16580,动态:19182,动态:1240,动态:22702,动态:21057,动态:21093,动态:13791,动态:18285,动态:11609,动态:22710,动态:11785,动态:22489,动态:18624,动态:11269,动态:7746,动态:21727,动态:21741,动态:16252,动态:19144</t>
+          <t>动态:18287,动态:19857,动态:20714,动态:13559,动态:20469,动态:21938,动态:11021,动态:20621,动态:21664,动态:14921,动态:6658,动态:18224,动态:7117,动态:15913,动态:17898,动态:15795,动态:21627,动态:20837,动态:15681,动态:13457,动态:17345,动态:12836,动态:19356,动态:20680,动态:21200,动态:15302,动态:21371,动态:18677,动态:20486,动态:11392,动态:21054,动态:20242,动态:21235,动态:9337,动态:19347,动态:19595,动态:11592,动态:14721,动态:13546,动态:11302,动态:20168,动态:11602,动态:840,动态:15752,动态:8852,动态:22688,动态:22684,动态:21763,动态:22303,动态:22146</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>动态:11278,动态:14848,动态:9535,动态:19456,动态:19006,动态:11935,动态:4630,动态:12892,动态:1327,动态:11044,动态:20086,动态:9282,动态:13615,动态:17562,动态:11798,动态:9349,动态:16833,动态:20364,动态:21857,动态:21776,动态:21727,动态:21741,动态:22680,动态:22697,动态:21556,动态:20440,动态:17337,动态:22667,动态:22692,动态:22698,动态:21436,动态:20720,动态:22019,动态:7746,动态:21763,动态:21975,动态:22659,动态:21740,动态:21756,动态:22699,动态:22710,动态:21745,动态:21972,动态:21780,动态:22507,动态:22696,动态:20439,动态:22706,动态:22684,动态:22146</t>
+          <t>动态:13971,动态:14999,动态:21965,动态:14035,动态:6766,动态:11991,动态:12903,动态:21436,动态:19646,动态:12729,动态:21532,动态:11782,动态:20768,动态:13509,动态:4176,动态:11375,动态:20997,动态:17769,动态:17952,动态:16914,动态:20178,动态:6816,动态:22659,动态:21972,动态:22697,动态:20439,动态:22684,动态:22507,动态:20364,动态:21857,动态:17337,动态:22680,动态:21756,动态:4036,动态:20720,动态:22706,动态:21737,动态:21740,动态:21741,动态:21556,动态:20399,动态:21727,动态:22696,动态:22512,动态:21975,动态:22710,动态:22688,动态:22146,动态:21745,动态:22019</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>动态:6604,动态:11444,动态:11445,动态:5389,动态:7750,动态:4039,动态:18466,动态:17960,动态:16412,动态:10406,动态:13315,动态:14230,动态:14204,动态:19638,动态:12411,动态:11823,动态:10144,动态:18314,动态:6026,动态:14736,动态:18497,动态:4630,动态:20384,动态:20362,动态:11147,动态:19457,动态:15547,动态:16853,动态:18372,动态:14053,动态:12389,动态:9286,动态:18376,动态:17340,动态:6683,动态:19886,动态:15947,动态:11293,动态:6816,动态:13740,动态:20065,动态:150,动态:15615,动态:6577,动态:19783,动态:13323,动态:22146,动态:22710,动态:13033,动态:7059</t>
+          <t>动态:17699,动态:10845,动态:15505,动态:20163,动态:11499,动态:17707,动态:7303,动态:17723,动态:15957,动态:11488,动态:7408,动态:13796,动态:8681,动态:17949,动态:6816,动态:10182,动态:17627,动态:18771,动态:20082,动态:5400,动态:16476,动态:7384,动态:12312,动态:4207,动态:21648,动态:17128,动态:11267,动态:14204,动态:9391,动态:17504,动态:6773,动态:15140,动态:4675,动态:15144,动态:16281,动态:7124,动态:12389,动态:8701,动态:13064,动态:16874,动态:14800,动态:5042,动态:10118,动态:20384,动态:8568,动态:14653,动态:8600,动态:11125,动态:21753,动态:21741</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>动态:5900,动态:22430,动态:13471,动态:13593,动态:14333,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:7360,动态:8292,动态:3128,动态:10342,动态:22313,动态:13791,动态:13016,动态:9724,动态:19608,动态:21436,动态:22697,动态:21753,动态:21741,动态:22659,动态:20399,动态:21763,动态:4036,动态:22702,动态:20440,动态:21737,动态:22323,动态:22146,动态:21975,动态:21857,动态:22696,动态:22688,动态:22685,动态:22019,动态:20364,动态:22667,动态:22692,动态:21780,动态:17337,动态:21757,动态:22684,动态:20720,动态:22680,动态:7746,动态:21740,动态:21972,动态:22507,动态:20439,动态:22512,动态:22706,动态:22698,动态:22699,动态:21756,动态:21745,动态:21727,动态:22710</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>动态:7710,动态:15157,动态:1299,动态:19186,动态:11285,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:13339,动态:7744,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>动态:14801,动态:18745,动态:7127,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:13982,动态:10490,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>动态:14929,动态:5113,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:20067,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>动态:9783,动态:15643,动态:21532,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:22244,动态:14642,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>动态:6899,动态:11587,动态:9800,动态:13634,动态:8618,动态:9118,动态:7898,动态:8699,动态:15861,动态:16450,动态:20017,动态:20968,动态:19084,动态:12777,动态:6325,动态:15157,动态:21361,动态:19733,动态:21095,动态:6695,动态:19268,动态:13151,动态:20519,动态:17742,动态:11287,动态:22281,动态:13802,动态:12199,动态:15990,动态:13635,动态:21436,动态:22659,动态:22146,动态:21753,动态:21975,动态:22323,动态:21763,动态:22697,动态:22696,动态:21741,动态:22698,动态:22706,动态:21756,动态:22688,动态:7746,动态:22692,动态:21857,动态:17337,动态:21740,动态:22667</t>
+          <t>动态:14479,动态:16607,动态:15556,动态:13546,动态:15336,动态:17246,动态:15957,动态:8878,动态:11758,动态:14728,动态:17337,动态:13297,动态:155,动态:9503,动态:12076,动态:11398,动态:16571,动态:16988,动态:18309,动态:20153,动态:21084,动态:12661,动态:11377,动态:21556,动态:21972,动态:21740,动态:22146,动态:20439,动态:21753,动态:21745,动态:20399,动态:22702,动态:22696,动态:21727,动态:22659,动态:22698,动态:21436,动态:20720,动态:21763,动态:22697,动态:22512,动态:20364,动态:22667,动态:22692,动态:21741,动态:21975,动态:21776,动态:22688,动态:22019,动态:22323</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>动态:15000,动态:12643,动态:11854,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:20115,动态:11377,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>动态:6913,动态:13062,动态:21139,动态:14964,动态:22656,动态:22283,动态:12661,动态:6688,动态:11544,动态:11676,动态:15684,动态:18953,动态:7123,动态:18852,动态:20337,动态:22696,动态:21753,动态:21727,动态:22680,动态:7746,动态:21740,动态:22702,动态:21741,动态:22667,动态:21757,动态:22692,动态:21436,动态:20364,动态:22710,动态:20720,动态:21763,动态:22659,动态:21756,动态:22684,动态:21737,动态:22323,动态:22019,动态:21780,动态:22699,动态:22685,动态:20399,动态:21776,动态:21975,动态:17337,动态:22146,动态:4036,动态:20440,动态:21857,动态:21745,动态:22512</t>
+          <t>动态:18020,动态:776,动态:14017,动态:13909,动态:17847,动态:14008,动态:13338,动态:22433,动态:15531,动态:16571,动态:20069,动态:13928,动态:18987,动态:12753,动态:22633,动态:19825,动态:11589,动态:14043,动态:19275,动态:14232,动态:3168,动态:22323,动态:7746,动态:21857,动态:21741,动态:21740,动态:22699,动态:22710,动态:22702,动态:20364,动态:22706,动态:22685,动态:21780,动态:21737,动态:21556,动态:22680,动态:22688,动态:22019,动态:21972,动态:21757,动态:21753,动态:22698,动态:22684,动态:21727,动态:21763,动态:17337,动态:21975,动态:21776,动态:22692,动态:4036</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>动态:9492,动态:21530,动态:19595,动态:15749,动态:13289,动态:5236,动态:9214,动态:8674,动态:16154,动态:11500,动态:2760,动态:17313,动态:12777,动态:7130,动态:10936,动态:19162,动态:22374,动态:11684,动态:10242,动态:12718,动态:21532,动态:17970,动态:13886,动态:18230,动态:21000,动态:19037,动态:10212,动态:19808,动态:22195,动态:8578,动态:11867,动态:11285,动态:15539,动态:17898,动态:232,动态:10927,动态:12364,动态:22313,动态:1240,动态:21704,动态:16837,动态:18054,动态:13146,动态:22103,动态:16609,动态:21266,动态:3525,动态:687,动态:21737,动态:21727</t>
+          <t>动态:20465,动态:21340,动态:10542,动态:13745,动态:6888,动态:17529,动态:18072,动态:15610,动态:15268,动态:7458,动态:16154,动态:8761,动态:11436,动态:16823,动态:13836,动态:8002,动态:12089,动态:16450,动态:13689,动态:11427,动态:13098,动态:15679,动态:17193,动态:15002,动态:18667,动态:8334,动态:16287,动态:14768,动态:13844,动态:10929,动态:13869,动态:21876,动态:14565,动态:11381,动态:16539,动态:13445,动态:13764,动态:19120,动态:10474,动态:13964,动态:9780,动态:15044,动态:16194,动态:16743,动态:10467,动态:16693,动态:22146,动态:14352,动态:22697,动态:22684</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>动态:12840,动态:19835,动态:14456,动态:13523,动态:5830,动态:18034,动态:5960,动态:10009,动态:15987,动态:15742,动态:11897,动态:13780,动态:20266,动态:15271,动态:13742,动态:17978,动态:21227,动态:6623,动态:10182,动态:22697,动态:22710,动态:21727,动态:22692,动态:22019,动态:21740,动态:21975,动态:21776,动态:21745,动态:21757,动态:21556,动态:20720,动态:21436,动态:22698,动态:22659,动态:21763,动态:22667,动态:20399,动态:22706,动态:22684,动态:22146,动态:22688,动态:21857,动态:21753,动态:22680,动态:22507,动态:22323,动态:21972,动态:22696,动态:21780,动态:7746</t>
+          <t>动态:11771,动态:10087,动态:19175,动态:6597,动态:20048,动态:10867,动态:11344,动态:16048,动态:10708,动态:19122,动态:1360,动态:6895,动态:16260,动态:3160,动态:10549,动态:17148,动态:21741,动态:22146,动态:21975,动态:22685,动态:21756,动态:21745,动态:22699,动态:22684,动态:21857,动态:21556,动态:22659,动态:22706,动态:22696,动态:21776,动态:21780,动态:22019,动态:20364,动态:21727,动态:4036,动态:17337,动态:7746,动态:22698,动态:20439,动态:21763,动态:21737,动态:22702,动态:20440,动态:21757,动态:22680,动态:22688,动态:22710,动态:20720,动态:22697,动态:21972</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>动态:7111,动态:6671,动态:16866,动态:7150,动态:7751,动态:16261,动态:19123,动态:7039,动态:8270,动态:7360,动态:20238,动态:17960,动态:3874,动态:12595,动态:6776,动态:5216,动态:14422,动态:20398,动态:11077,动态:12391,动态:18154,动态:10083,动态:6577,动态:13469,动态:11275,动态:18372,动态:6845,动态:18874,动态:14696,动态:20143,动态:4816,动态:18771,动态:14221,动态:5603,动态:18356,动态:17295,动态:6865,动态:10191,动态:10948,动态:19765,动态:8169,动态:14431,动态:16929,动态:13970,动态:11823,动态:13033,动态:22710,动态:11389,动态:10918,动态:10009</t>
+          <t>动态:13370,动态:15095,动态:3838,动态:9349,动态:17723,动态:21452,动态:14667,动态:10956,动态:6749,动态:10684,动态:18841,动态:14158,动态:11275,动态:6819,动态:14752,动态:19658,动态:7747,动态:8603,动态:18167,动态:17710,动态:11126,动态:16457,动态:14736,动态:17960,动态:9476,动态:21115,动态:15857,动态:19123,动态:10355,动态:17346,动态:17515,动态:14006,动态:19258,动态:20177,动态:6683,动态:8769,动态:12389,动态:13402,动态:11294,动态:16874,动态:14444,动态:19833,动态:7045,动态:6848,动态:4815,动态:21358,动态:21753,动态:21776,动态:22507,动态:15170</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>动态:11678,动态:13486,动态:12434,动态:12721,动态:21642,动态:13592,动态:14818,动态:15508,动态:12849,动态:15006,动态:15558,动态:7105,动态:4031,动态:7789,动态:11416,动态:22699,动态:6916,动态:621,动态:4036,动态:6901,动态:3073,动态:6447,动态:3174,动态:3897,动态:3166,动态:21780,动态:7383,动态:7186,动态:18309,动态:3793,动态:6252,动态:3076,动态:21970,动态:3162,动态:16721,动态:22696,动态:3107,动态:21470,动态:7464,动态:20525,动态:3104,动态:20516,动态:6325,动态:3979,动态:3796,动态:21745,动态:22680,动态:21756,动态:22685,动态:21740</t>
+          <t>动态:11432,动态:21959,动态:16388,动态:14120,动态:21857,动态:20619,动态:22625,动态:16002,动态:13140,动态:16539,动态:5376,动态:21785,动态:22620,动态:21780,动态:3107,动态:6252,动态:7789,动态:22699,动态:3174,动态:3162,动态:16721,动态:6901,动态:3979,动态:4036,动态:6819,动态:7186,动态:7383,动态:21470,动态:7059,动态:12407,动态:3796,动态:3166,动态:3076,动态:7464,动态:3073,动态:4031,动态:22696,动态:20516,动态:6325,动态:21970,动态:621,动态:6447,动态:6916,动态:3897,动态:10072,动态:22706,动态:22146,动态:22507,动态:4036,动态:20364</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>动态:11417,动态:10576,动态:10605,动态:14208,动态:13872,动态:13689,动态:16076,动态:8122,动态:21857,动态:19645,动态:4890,动态:20602,动态:14967,动态:20230,动态:3674,动态:20390,动态:9087,动态:13217,动态:11736,动态:20740,动态:16582,动态:19451,动态:20364,动态:22710,动态:22697,动态:21776,动态:21740,动态:20720,动态:17337,动态:22146,动态:21436,动态:22684,动态:7746,动态:22699,动态:21741,动态:21756,动态:22688,动态:22507,动态:22698,动态:22019,动态:22323,动态:22696,动态:20439,动态:20440,动态:22702,动态:22692,动态:21975,动态:22512,动态:4036</t>
+          <t>动态:13040,动态:11438,动态:15146,动态:7161,动态:21642,动态:10989,动态:3072,动态:14435,动态:7383,动态:11806,动态:14957,动态:8746,动态:20003,动态:13142,动态:13787,动态:10089,动态:18987,动态:11093,动态:21797,动态:3707,动态:21815,动态:22698,动态:22659,动态:22706,动态:22680,动态:22699,动态:21975,动态:22702,动态:21737,动态:21741,动态:20364,动态:20440,动态:22696,动态:22507,动态:22710,动态:22688,动态:22512,动态:22146,动态:21776,动态:21857,动态:22685,动态:21436,动态:21756,动态:20439,动态:22667,动态:21556,动态:17337,动态:21745,动态:4036,动态:22692</t>
         </is>
       </c>
     </row>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>动态:21793,动态:17974,动态:20230,动态:22123,动态:20717,动态:8524,动态:12557,动态:13546,动态:10928,动态:16564,动态:19632,动态:15050,动态:12552,动态:21114,动态:14721,动态:18830,动态:14132,动态:7528,动态:10608,动态:19496,动态:13196,动态:19231,动态:11132,动态:17691,动态:21556,动态:3102,动态:15982,动态:21757,动态:4036,动态:21975,动态:22697,动态:17337,动态:21857,动态:22699,动态:22688,动态:20364,动态:22019,动态:21972,动态:21727,动态:20720,动态:22696,动态:20440,动态:21753,动态:22702,动态:22685,动态:21741,动态:22684,动态:22667,动态:21740</t>
+          <t>动态:8010,动态:8296,动态:12883,动态:13281,动态:14104,动态:12645,动态:18629,动态:13686,动态:17337,动态:17963,动态:18677,动态:14299,动态:22495,动态:21658,动态:13135,动态:7006,动态:14929,动态:3701,动态:4190,动态:12052,动态:21105,动态:22633,动态:16074,动态:7978,动态:19269,动态:4630,动态:22696,动态:22685,动态:22019,动态:22702,动态:22684,动态:21780,动态:21727,动态:20720,动态:21763,动态:21753,动态:21756,动态:21975,动态:22680,动态:21757,动态:4036,动态:22659,动态:21436,动态:22698,动态:21737,动态:7746,动态:22688,动态:22323,动态:22699</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>动态:15806,动态:14304,动态:12300,动态:18852,动态:13569,动态:12567,动态:12416,动态:8742,动态:18151,动态:6295,动态:9712,动态:16754,动态:15920,动态:11134,动态:8176,动态:14721,动态:11848,动态:21357,动态:22692,动态:21763,动态:20399,动态:22699,动态:21741,动态:21727,动态:20720,动态:22702,动态:17337,动态:22019,动态:4036,动态:22146,动态:21780,动态:22710,动态:22698,动态:22667,动态:22706,动态:21753,动态:20440,动态:21740,动态:21972,动态:22512,动态:22696,动态:21737,动态:22323,动态:22684,动态:22659,动态:22688,动态:22507,动态:22685,动态:21556,动态:21756</t>
+          <t>动态:20344,动态:12368,动态:22477,动态:17060,动态:19745,动态:6449,动态:19273,动态:3453,动态:17958,动态:12027,动态:19792,动态:9798,动态:11154,动态:20660,动态:22110,动态:13928,动态:13051,动态:21636,动态:19436,动态:1240,动态:21757,动态:22680,动态:22323,动态:21740,动态:22685,动态:22684,动态:22697,动态:4036,动态:22659,动态:20364,动态:22702,动态:21756,动态:22512,动态:21745,动态:22019,动态:22698,动态:21857,动态:22688,动态:7746,动态:22710,动态:20720,动态:22692,动态:21763,动态:20439,动态:21727,动态:21975,动态:22667,动态:21776,动态:21737,动态:21556</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>动态:19203,动态:13299,动态:11786,动态:21959,动态:15638,动态:19451,动态:3172,动态:3144,动态:3160,动态:3126,动态:3098,动态:7790,动态:3102,动态:19629,动态:3078,动态:676,动态:11948,动态:3128,动态:20839,动态:3090,动态:14890,动态:3156,动态:21301,动态:13042,动态:3175,动态:17460,动态:3142,动态:22499,动态:20941,动态:231,动态:3122,动态:7746,动态:21436,动态:22688,动态:22659,动态:21757,动态:22692,动态:21556,动态:22512,动态:21745,动态:22698,动态:22019,动态:21776,动态:21763,动态:22685,动态:21753,动态:21780,动态:20439,动态:20364,动态:22323</t>
+          <t>动态:10247,动态:20345,动态:17965,动态:3175,动态:3078,动态:231,动态:3156,动态:3160,动态:676,动态:18947,动态:3144,动态:3172,动态:14187,动态:14963,动态:4027,动态:3142,动态:6606,动态:3128,动态:3126,动态:19266,动态:22303,动态:13787,动态:16846,动态:3122,动态:14890,动态:3102,动态:20011,动态:3098,动态:18656,动态:3090,动态:20364,动态:21757,动态:21740,动态:21972,动态:21756,动态:21556,动态:20440,动态:22685,动态:22692,动态:22710,动态:22697,动态:22684,动态:22507,动态:21737,动态:21745,动态:21763,动态:22699,动态:21857,动态:21436,动态:22659</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>动态:19293,动态:6608,动态:11458,动态:831,动态:243,动态:18502,动态:21139,动态:15913,动态:9860,动态:16960,动态:16076,动态:22092,动态:22688,动态:21436,动态:21757,动态:22699,动态:21763,动态:4036,动态:21737,动态:21756,动态:21975,动态:21776,动态:22146,动态:22702,动态:22667,动态:21740,动态:22692,动态:21741,动态:22323,动态:22680,动态:22706,动态:21780,动态:20720,动态:22507,动态:22659,动态:7746,动态:22698,动态:22710,动态:21745,动态:20440,动态:22019,动态:20364,动态:22512,动态:20439,动态:21556,动态:22697,动态:17337,动态:21857,动态:22685,动态:22684</t>
+          <t>动态:3804,动态:21583,动态:17481,动态:10122,动态:20139,动态:20271,动态:10914,动态:13243,动态:19300,动态:15491,动态:16002,动态:20549,动态:13873,动态:20106,动态:19778,动态:12908,动态:11389,动态:20598,动态:21763,动态:22684,动态:21745,动态:20440,动态:21857,动态:22680,动态:22507,动态:7746,动态:21780,动态:20399,动态:22706,动态:22019,动态:22699,动态:22146,动态:22659,动态:4036,动态:22702,动态:21776,动态:21436,动态:21727,动态:20720,动态:22696,动态:21741,动态:22698,动态:21740,动态:21753,动态:20439,动态:20364,动态:22667,动态:22512,动态:21737,动态:22697</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>动态:4040,动态:2941,动态:13308,动态:693,动态:11734,动态:13499,动态:14434,动态:12305,动态:18947,动态:21757,动态:14841,动态:6904,动态:12404,动态:8168,动态:17853,动态:6629,动态:20419,动态:15547,动态:20364,动态:22699,动态:21975,动态:21857,动态:22019,动态:22685,动态:22702,动态:22697,动态:21780,动态:21776,动态:20720,动态:21556,动态:21756,动态:21740,动态:21972,动态:22698,动态:21745,动态:20399,动态:22680,动态:22323,动态:20439,动态:21763,动态:22512,动态:7746,动态:22706,动态:21753,动态:22688,动态:22696,动态:21737,动态:22659,动态:22146</t>
+          <t>动态:16597,动态:11130,动态:21155,动态:7688,动态:3838,动态:11394,动态:19306,动态:10779,动态:12884,动态:11495,动态:11325,动态:10072,动态:16061,动态:17573,动态:18110,动态:7006,动态:21358,动态:8827,动态:13618,动态:6695,动态:16590,动态:20090,动态:13428,动态:11331,动态:21972,动态:21556,动态:22680,动态:21727,动态:21737,动态:22684,动态:21436,动态:22710,动态:22667,动态:20440,动态:20399,动态:21857,动态:21753,动态:21776,动态:22146,动态:21757,动态:4036,动态:21740,动态:21756,动态:21741,动态:22696,动态:7746,动态:21763,动态:22323,动态:22692,动态:22698</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>动态:21917,动态:17122,动态:12736,动态:11558,动态:17771,动态:17090,动态:14683,动态:12874,动态:20401,动态:12727,动态:13986,动态:12589,动态:11094,动态:17340,动态:21776,动态:22698,动态:21857,动态:22667,动态:21780,动态:22706,动态:22688,动态:21740,动态:21745,动态:21972,动态:22710,动态:22692,动态:22512,动态:21727,动态:22659,动态:22146,动态:21757,动态:22684,动态:21763,动态:21737,动态:21741,动态:22323,动态:20439,动态:21436,动态:21975,动态:17337,动态:22507,动态:21556,动态:22702,动态:20364,动态:20399,动态:22019,动态:21756,动态:20440,动态:20720,动态:22685</t>
+          <t>动态:19937,动态:13919,动态:14791,动态:20473,动态:15540,动态:8831,动态:11544,动态:21206,动态:17531,动态:20063,动态:18141,动态:15866,动态:17147,动态:21367,动态:11539,动态:7944,动态:10608,动态:10189,动态:12885,动态:20134,动态:12292,动态:8133,动态:20348,动态:12353,动态:10210,动态:7746,动态:21727,动态:4036,动态:20720,动态:22146,动态:21857,动态:22507,动态:21436,动态:20440,动态:21756,动态:22323,动态:21745,动态:22685,动态:17337,动态:20399,动态:22710,动态:22688,动态:22680,动态:22706,动态:20439,动态:21972,动态:21740,动态:22512,动态:22696,动态:22699</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>动态:8769,动态:22477,动态:12156,动态:14278,动态:11334,动态:15463,动态:21577,动态:16277,动态:8245,动态:7110,动态:11079,动态:17057,动态:11014,动态:15916,动态:13666,动态:16003,动态:21757,动态:22323,动态:21741,动态:21740,动态:22512,动态:22702,动态:17337,动态:22146,动态:20439,动态:21727,动态:21857,动态:20399,动态:21436,动态:22685,动态:20720,动态:21763,动态:21556,动态:4036,动态:22019,动态:22697,动态:22710,动态:20364,动态:21756,动态:22684,动态:22659,动态:21780,动态:22688,动态:22696,动态:22680,动态:21975,动态:20440,动态:21776,动态:22692,动态:22507</t>
+          <t>动态:12327,动态:14971,动态:19702,动态:15495,动态:676,动态:16212,动态:11048,动态:15346,动态:10987,动态:9499,动态:13814,动态:12003,动态:10950,动态:4419,动态:7059,动态:13276,动态:21846,动态:15173,动态:17337,动态:22507,动态:22019,动态:20720,动态:21737,动态:21763,动态:21753,动态:22323,动态:21556,动态:22680,动态:20364,动态:21727,动态:22702,动态:22667,动态:22706,动态:22710,动态:21975,动态:22688,动态:21972,动态:21745,动态:22699,动态:22685,动态:21857,动态:22692,动态:21436,动态:22684,动态:21756,动态:21741,动态:22698,动态:21757,动态:22659,动态:22697</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>动态:11331,动态:14405,动态:15200,动态:8168,动态:20616,动态:20116,动态:16719,动态:17145,动态:10112,动态:5415,动态:11814,动态:13988,动态:6447,动态:18378,动态:16823,动态:22698,动态:21436,动态:22692,动态:21740,动态:21757,动态:22659,动态:21857,动态:22507,动态:21737,动态:22699,动态:21741,动态:22696,动态:22688,动态:21763,动态:20399,动态:20440,动态:21727,动态:21745,动态:20364,动态:22710,动态:22146,动态:21556,动态:22685,动态:20439,动态:4036,动态:22019,动态:7746,动态:21975,动态:21776,动态:21972,动态:17337,动态:22323,动态:22667,动态:21780,动态:22680</t>
+          <t>动态:10248,动态:13198,动态:13794,动态:7041,动态:12821,动态:7743,动态:8878,动态:15596,动态:21017,动态:15661,动态:10356,动态:16077,动态:13317,动态:6894,动态:14545,动态:7517,动态:19514,动态:10406,动态:17077,动态:11618,动态:16261,动态:17504,动态:21975,动态:21436,动态:21741,动态:22706,动态:21556,动态:22692,动态:21740,动态:22146,动态:21727,动态:22699,动态:22702,动态:22710,动态:22680,动态:21972,动态:4036,动态:20364,动态:22659,动态:21745,动态:22684,动态:21756,动态:20399,动态:22698,动态:22688,动态:21757,动态:21763,动态:22667,动态:22696,动态:21737</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>动态:21106,动态:11411,动态:21446,动态:5115,动态:20532,动态:7601,动态:6828,动态:9482,动态:12322,动态:15975,动态:10073,动态:21556,动态:20364,动态:22659,动态:21763,动态:21745,动态:22696,动态:22146,动态:21753,动态:7746,动态:22685,动态:21740,动态:21975,动态:22698,动态:21436,动态:4036,动态:21857,动态:22323,动态:20720,动态:22512,动态:22507,动态:17337,动态:21757,动态:21776,动态:21756,动态:21780,动态:22702,动态:20439,动态:22706,动态:21737,动态:21741,动态:22667,动态:22710,动态:22684,动态:22680,动态:20399,动态:22699,动态:22697,动态:21972,动态:20440</t>
+          <t>动态:12186,动态:5376,动态:7532,动态:19373,动态:9525,动态:15541,动态:11782,动态:20271,动态:16289,动态:18407,动态:22315,动态:4419,动态:8118,动态:19416,动态:10567,动态:19780,动态:12784,动态:15318,动态:13143,动态:22659,动态:21740,动态:21745,动态:21975,动态:21753,动态:22698,动态:22146,动态:21727,动态:21972,动态:4036,动态:21857,动态:22697,动态:22512,动态:21763,动态:22710,动态:22702,动态:22692,动态:21741,动态:21756,动态:22706,动态:20720,动态:22667,动态:20399,动态:17337,动态:22685,动态:7746,动态:21757,动态:22688,动态:20440,动态:22684,动态:22696</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>动态:685,动态:20351,动态:11058,动态:3113,动态:21946,动态:1299,动态:8922,动态:12391,动态:18619,动态:22706,动态:16717,动态:17541,动态:17642,动态:13501,动态:4786,动态:15389,动态:4421,动态:8174,动态:20106,动态:6550,动态:17634,动态:14273,动态:22561,动态:13455,动态:22710,动态:21776,动态:22659,动态:4036,动态:20439,动态:22699,动态:22698,动态:20399,动态:21780,动态:22680,动态:22146,动态:22702,动态:21753,动态:7746,动态:22507,动态:20720,动态:21436,动态:22323,动态:21857,动态:21727,动态:20440,动态:22667,动态:22019,动态:22688,动态:20364</t>
+          <t>动态:19467,动态:12145,动态:17531,动态:10074,动态:8603,动态:8259,动态:10109,动态:18902,动态:15336,动态:15558,动态:22310,动态:14703,动态:20851,动态:22702,动态:22507,动态:22323,动态:21740,动态:20364,动态:22696,动态:22699,动态:22019,动态:22680,动态:7746,动态:22146,动态:21857,动态:22710,动态:21745,动态:22685,动态:21763,动态:22684,动态:17337,动态:4036,动态:21436,动态:21753,动态:20720,动态:21556,动态:21737,动态:21972,动态:21741,动态:20439,动态:21975,动态:22698,动态:21780,动态:22512,动态:21757,动态:20440,动态:22667,动态:22659,动态:22688,动态:21756</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>动态:18567,动态:11592,动态:15600,动态:13326,动态:8169,动态:21492,动态:17106,动态:10346,动态:19231,动态:12051,动态:11498,动态:18659,动态:6909,动态:3524,动态:17460,动态:16972,动态:16656,动态:21490,动态:22692,动态:21776,动态:20440,动态:21763,动态:22698,动态:22667,动态:20399,动态:22146,动态:21780,动态:22697,动态:22684,动态:22323,动态:22710,动态:21857,动态:22699,动态:22019,动态:7746,动态:21740,动态:20720,动态:21745,动态:21737,动态:22696,动态:21756,动态:22512,动态:17337,动态:21975,动态:22706,动态:21436,动态:22685,动态:22688,动态:22507,动态:22659</t>
+          <t>动态:11591,动态:17122,动态:21536,动态:17937,动态:6657,动态:19824,动态:6764,动态:16833,动态:19253,动态:17941,动态:17721,动态:8596,动态:6913,动态:18492,动态:14981,动态:11133,动态:17496,动态:16580,动态:4368,动态:21780,动态:22667,动态:22699,动态:21745,动态:22146,动态:22659,动态:21757,动态:22697,动态:20364,动态:22019,动态:21727,动态:21756,动态:7746,动态:21753,动态:22323,动态:22688,动态:21776,动态:22710,动态:22698,动态:21737,动态:22507,动态:21741,动态:21857,动态:22685,动态:17337,动态:20720,动态:22512,动态:22692,动态:21972,动态:22696,动态:20399</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>动态:13309,动态:20261,动态:10509,动态:21363,动态:13457,动态:13618,动态:14035,动态:13200,动态:12163,动态:17860,动态:15477,动态:21249,动态:16564,动态:8378,动态:3133,动态:6601,动态:10870,动态:7746,动态:22667,动态:21972,动态:21776,动态:21857,动态:21757,动态:22512,动态:22697,动态:22699,动态:22698,动态:22507,动态:21780,动态:20440,动态:20720,动态:21556,动态:21753,动态:22323,动态:22680,动态:21741,动态:22659,动态:20364,动态:21975,动态:21756,动态:21745,动态:22702,动态:22685,动态:22019,动态:4036,动态:22696,动态:22710,动态:20399,动态:22146,动态:20439</t>
+          <t>动态:21797,动态:19646,动态:18989,动态:16963,动态:21112,动态:14510,动态:10987,动态:22074,动态:13862,动态:20132,动态:9532,动态:9170,动态:14236,动态:19491,动态:19511,动态:15742,动态:20960,动态:19424,动态:4497,动态:22702,动态:21757,动态:21727,动态:22696,动态:22697,动态:21741,动态:22512,动态:21972,动态:22692,动态:22685,动态:4036,动态:22667,动态:22659,动态:22146,动态:21436,动态:22684,动态:22698,动态:20720,动态:20439,动态:21780,动态:21756,动态:21737,动态:17337,动态:22680,动态:21975,动态:22507,动态:21740,动态:7746,动态:21776,动态:22688,动态:21556</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>动态:22673,动态:16154,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:10096,动态:18331,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>动态:20622,动态:19096,动态:11534,动态:20719,动态:10923,动态:12011,动态:1310,动态:17848,动态:11377,动态:7110,动态:18020,动态:18844,动态:11059,动态:10523,动态:21675,动态:20527,动态:21139,动态:16891,动态:14656,动态:11123,动态:9158,动态:17126,动态:20853,动态:13981,动态:21780,动态:22684,动态:22507,动态:21753,动态:21756,动态:20720,动态:20439,动态:21745,动态:21436,动态:22512,动态:22692,动态:21975,动态:22323,动态:22667,动态:17337,动态:21757,动态:22702,动态:20399,动态:7746,动态:21727,动态:4036,动态:22019,动态:22659,动态:21776,动态:21857,动态:22706</t>
+          <t>动态:16614,动态:14878,动态:16476,动态:19629,动态:11167,动态:20836,动态:5113,动态:6546,动态:11498,动态:12826,动态:13193,动态:6759,动态:18898,动态:20809,动态:12163,动态:16536,动态:10012,动态:20461,动态:14232,动态:3249,动态:12885,动态:21745,动态:21757,动态:22323,动态:20720,动态:21975,动态:21556,动态:20440,动态:22706,动态:22688,动态:22019,动态:20364,动态:21741,动态:22697,动态:21753,动态:21740,动态:4036,动态:22699,动态:21780,动态:22667,动态:21756,动态:22696,动态:21776,动态:22680,动态:22507,动态:21857,动态:21763,动态:17337,动态:22710,动态:22659</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>动态:15667,动态:12890,动态:21692,动态:7577,动态:17720,动态:11271,动态:11526,动态:20273,动态:14963,动态:14601,动态:12388,动态:18156,动态:12434,动态:12654,动态:6904,动态:16394,动态:18238,动态:6451,动态:11282,动态:15271,动态:19826,动态:16571,动态:11269,动态:22702,动态:22698,动态:21975,动态:22688,动态:22706,动态:21776,动态:22507,动态:22699,动态:20364,动态:22667,动态:20439,动态:21753,动态:21436,动态:20440,动态:21972,动态:21780,动态:20720,动态:22710,动态:22697,动态:22692,动态:20399,动态:22680,动态:21757,动态:22696,动态:21741,动态:21737,动态:21740</t>
+          <t>动态:17690,动态:11112,动态:8512,动态:15905,动态:6549,动态:21642,动态:20092,动态:19656,动态:17975,动态:5400,动态:13509,动态:21206,动态:13270,动态:21002,动态:784,动态:20710,动态:14723,动态:8142,动态:16264,动态:8291,动态:3874,动态:11156,动态:21737,动态:21972,动态:21741,动态:22507,动态:22710,动态:22692,动态:4036,动态:22702,动态:21780,动态:21727,动态:20439,动态:22512,动态:21757,动态:22019,动态:22685,动态:21975,动态:22667,动态:7746,动态:22688,动态:20364,动态:21756,动态:21436,动态:22146,动态:22706,动态:21556,动态:21857,动态:17337,动态:21763</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>动态:17768,动态:15769,动态:18085,动态:11474,动态:13886,动态:13243,动态:239,动态:20124,动态:13140,动态:21197,动态:12429,动态:20107,动态:15157,动态:19623,动态:14417,动态:19715,动态:22032,动态:8674,动态:16296,动态:21756,动态:21556,动态:21745,动态:21763,动态:22696,动态:7746,动态:20720,动态:20364,动态:22323,动态:22710,动态:21740,动态:21753,动态:22146,动态:22702,动态:21780,动态:22697,动态:21776,动态:22680,动态:20440,动态:21857,动态:22685,动态:22659,动态:22698,动态:22019,动态:21737,动态:22699,动态:21741,动态:20439,动态:22692,动态:21972,动态:22667</t>
+          <t>动态:12060,动态:5206,动态:11408,动态:17562,动态:12370,动态:15928,动态:20145,动态:3449,动态:10213,动态:18368,动态:13176,动态:11786,动态:10342,动态:10971,动态:16106,动态:7826,动态:15388,动态:19895,动态:18273,动态:6550,动态:13862,动态:21756,动态:20399,动态:22706,动态:21972,动态:21857,动态:22507,动态:22680,动态:21740,动态:21975,动态:22659,动态:21753,动态:7746,动态:21776,动态:22698,动态:21436,动态:22146,动态:22512,动态:21757,动态:20440,动态:22685,动态:20364,动态:22702,动态:21741,动态:22697,动态:21737,动态:21727,动态:21556,动态:20720,动态:4036</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>动态:13196,动态:13282,动态:12612,动态:16255,动态:18606,动态:18059,动态:20168,动态:8107,动态:15577,动态:13495,动态:12562,动态:18838,动态:21780,动态:21556,动态:20399,动态:21740,动态:22019,动态:22685,动态:21776,动态:22702,动态:22688,动态:22696,动态:4036,动态:22667,动态:22692,动态:21727,动态:7746,动态:20440,动态:20720,动态:22507,动态:22680,动态:21741,动态:22323,动态:22697,动态:21975,动态:20364,动态:22146,动态:22698,动态:21972,动态:20439,动态:21757,动态:21436,动态:22710,动态:22659,动态:21745,动态:17337,动态:22706,动态:21737,动态:21756,动态:21857</t>
+          <t>动态:19485,动态:21492,动态:14900,动态:15145,动态:21964,动态:21103,动态:15493,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>动态:9411,动态:16664,动态:13981,动态:17775,动态:10149,动态:15314,动态:20731,动态:19812,动态:20588,动态:21200,动态:12272,动态:13560,动态:11744,动态:11966,动态:13593,动态:244,动态:13780,动态:13334,动态:11580,动态:18596,动态:20870,动态:22692,动态:21741,动态:21975,动态:22680,动态:21737,动态:20364,动态:20440,动态:21763,动态:22698,动态:22710,动态:22146,动态:21776,动态:21740,动态:22507,动态:4036,动态:21780,动态:21436,动态:22688,动态:22685,动态:22696,动态:22512,动态:22702,动态:22697,动态:21972,动态:22659,动态:21757,动态:21727,动态:22019,动态:22667</t>
+          <t>动态:12813,动态:12826,动态:5901,动态:734,动态:14949,动态:12312,动态:16687,动态:20968,动态:12326,动态:3453,动态:12145,动态:6604,动态:11096,动态:14410,动态:20264,动态:11444,动态:13210,动态:11447,动态:16676,动态:14217,动态:22512,动态:17337,动态:20440,动态:22697,动态:21763,动态:22146,动态:21727,动态:22680,动态:21780,动态:21737,动态:21740,动态:21776,动态:22667,动态:22698,动态:22710,动态:20399,动态:21972,动态:22702,动态:22019,动态:21753,动态:22688,动态:20439,动态:20720,动态:22507,动态:22692,动态:22706,动态:21757,动态:22696,动态:22685,动态:21436</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>动态:13681,动态:10516,动态:14479,动态:13038,动态:15632,动态:20300,动态:15115,动态:9473,动态:18608,动态:783,动态:9936,动态:8922,动态:18324,动态:19847,动态:15719,动态:20720,动态:21756,动态:22019,动态:22698,动态:22146,动态:21740,动态:21857,动态:22697,动态:21763,动态:22699,动态:22659,动态:20364,动态:22702,动态:17337,动态:7746,动态:22684,动态:20439,动态:22706,动态:21556,动态:21780,动态:22685,动态:21741,动态:22667,动态:22323,动态:21975,动态:22688,动态:21737,动态:21972,动态:22696,动态:22680,动态:21776,动态:22512,动态:21727,动态:21753,动态:22507</t>
+          <t>动态:19084,动态:16297,动态:17559,动态:22123,动态:13615,动态:22296,动态:13795,动态:10983,动态:7047,动态:19376,动态:14248,动态:20082,动态:18637,动态:13557,动态:14221,动态:16377,动态:17512,动态:10536,动态:18956,动态:3126,动态:8821,动态:8609,动态:19620,动态:10210,动态:20364,动态:21727,动态:22323,动态:22512,动态:21972,动态:21745,动态:21436,动态:22702,动态:22710,动态:21757,动态:20720,动态:22698,动态:22659,动态:22706,动态:21737,动态:21857,动态:20440,动态:21776,动态:21763,动态:21753,动态:22680,动态:22684,动态:21740,动态:21741,动态:22507,动态:17337</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>动态:17174,动态:10601,动态:17336,动态:16097,动态:11972,动态:19182,动态:18011,动态:19491,动态:10359,动态:17496,动态:13545,动态:242,动态:12045,动态:10499,动态:20152,动态:13833,动态:21717,动态:5010,动态:8742,动态:7376,动态:16131,动态:13328,动态:19783,动态:21975,动态:22659,动态:17337,动态:22512,动态:22146,动态:21745,动态:21763,动态:22019,动态:22688,动态:20439,动态:21972,动态:22685,动态:21740,动态:21857,动态:22699,动态:22706,动态:7746,动态:20364,动态:22702,动态:21776,动态:4036,动态:21780,动态:22698,动态:22697,动态:21436,动态:22684,动态:21737</t>
+          <t>动态:14408,动态:19702,动态:10467,动态:9078,动态:6652,动态:18023,动态:13877,动态:22074,动态:19153,动态:9118,动态:21200,动态:20645,动态:3524,动态:14848,动态:15491,动态:13981,动态:16264,动态:8609,动态:12186,动态:4996,动态:10879,动态:5383,动态:6896,动态:21857,动态:21763,动态:21740,动态:21727,动态:20439,动态:22706,动态:22507,动态:22688,动态:21975,动态:22710,动态:21972,动态:22323,动态:22146,动态:22684,动态:20399,动态:21556,动态:22692,动态:22659,动态:20720,动态:21753,动态:4036,动态:21776,动态:22667,动态:21757,动态:22680,动态:22696,动态:21756</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>动态:12000,动态:14167,动态:19707,动态:16595,动态:22702,动态:10984,动态:9483,动态:10925,动态:15479,动态:14841,动态:10112,动态:20069,动态:12356,动态:6775,动态:19745,动态:14636,动态:21235,动态:6897,动态:912,动态:8598,动态:20248,动态:4790,动态:20720,动态:21857,动态:21757,动态:21745,动态:22019,动态:22507,动态:22680,动态:21737,动态:21780,动态:22667,动态:21763,动态:21972,动态:22512,动态:22710,动态:22692,动态:22697,动态:17337,动态:22684,动态:22699,动态:22696,动态:22685,动态:22706,动态:20440,动态:21756,动态:20399,动态:7746,动态:21753,动态:4036</t>
+          <t>动态:17554,动态:15923,动态:8515,动态:13291,动态:11790,动态:16166,动态:22085,动态:16347,动态:21848,动态:15867,动态:14288,动态:12853,动态:12936,动态:11980,动态:7517,动态:13609,动态:6956,动态:15575,动态:16912,动态:22699,动态:22680,动态:22697,动态:22019,动态:22688,动态:21745,动态:21757,动态:22684,动态:17337,动态:22710,动态:20440,动态:20439,动态:22507,动态:22702,动态:22659,动态:22706,动态:21741,动态:22692,动态:7746,动态:21737,动态:21780,动态:20720,动态:4036,动态:22512,动态:22696,动态:22685,动态:21972,动态:21556,动态:22323,动态:21727,动态:21753</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>动态:20496,动态:13602,动态:16697,动态:17559,动态:20677,动态:21155,动态:4788,动态:18933,动态:15683,动态:19646,动态:16017,动态:16222,动态:11948,动态:11427,动态:10971,动态:11104,动态:14186,动态:20133,动态:14818,动态:14426,动态:18466,动态:8786,动态:13782,动态:19485,动态:20137,动态:5662,动态:17113,动态:12309,动态:22146,动态:21972,动态:21740,动态:21727,动态:17337,动态:21776,动态:22685,动态:21757,动态:21975,动态:22698,动态:22692,动态:7746,动态:22323,动态:22706,动态:21741,动态:22684,动态:21763,动态:21436,动态:22019,动态:22702,动态:22697,动态:22688</t>
+          <t>动态:8621,动态:13294,动态:7161,动态:20319,动态:8757,动态:6648,动态:13058,动态:16071,动态:16787,动态:6592,动态:12614,动态:22501,动态:10979,动态:8291,动态:5400,动态:13824,动态:7825,动态:17937,动态:18668,动态:10592,动态:22697,动态:20720,动态:22698,动态:22699,动态:21753,动态:20439,动态:21740,动态:21436,动态:22684,动态:22692,动态:22019,动态:22507,动态:21737,动态:22680,动态:21857,动态:22702,动态:20440,动态:22688,动态:22146,动态:21972,动态:21757,动态:22512,动态:21763,动态:17337,动态:21741,动态:4036,动态:21727,动态:22323,动态:21556,动态:22706</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>动态:13676,动态:11086,动态:12623,动态:10643,动态:15277,动态:16336,动态:11133,动态:17977,动态:18324,动态:693,动态:21073,动态:17321,动态:22242,动态:11087,动态:15499,动态:16960,动态:21928,动态:14948,动态:22184,动态:13135,动态:12392,动态:19530,动态:9145,动态:10212,动态:17060,动态:14732,动态:13930,动态:22195,动态:17176,动态:8259,动态:20720,动态:19537,动态:16687,动态:8809,动态:12381,动态:11592,动态:13012,动态:20717,动态:19294,动态:10931,动态:19893,动态:12085,动态:17172,动态:15926,动态:21881,动态:12156,动态:11848,动态:21741,动态:22710,动态:22699</t>
+          <t>动态:20615,动态:14876,动态:8757,动态:4485,动态:20762,动态:9309,动态:20922,动态:13099,动态:6786,动态:22123,动态:19755,动态:11813,动态:13457,动态:8878,动态:14716,动态:20459,动态:3120,动态:12893,动态:20640,动态:13560,动态:22688,动态:22096,动态:12370,动态:9027,动态:22082,动态:21531,动态:1289,动态:11072,动态:13187,动态:10551,动态:20374,动态:17543,动态:22698,动态:13426,动态:12617,动态:21008,动态:12009,动态:20738,动态:10106,动态:17755,动态:19219,动态:14331,动态:7349,动态:10762,动态:12089,动态:21491,动态:12031,动态:19749,动态:22684,动态:18000</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>动态:11411,动态:12759,动态:15596,动态:13796,动态:7119,动态:3102,动态:19531,动态:7678,动态:12002,动态:11134,动态:4625,动态:20149,动态:9376,动态:18301,动态:5400,动态:22460,动态:17498,动态:21756,动态:21737,动态:20439,动态:21753,动态:22710,动态:4036,动态:22019,动态:22507,动态:21763,动态:21776,动态:22685,动态:21780,动态:22692,动态:22699,动态:22698,动态:22684,动态:21745,动态:21972,动态:22702,动态:20720,动态:21556,动态:22697,动态:22323,动态:22680,动态:20364,动态:21727,动态:22659,动态:21741,动态:22688,动态:22667,动态:17337,动态:22146,动态:21740</t>
+          <t>动态:13137,动态:20523,动态:15769,动态:14805,动态:21645,动态:22092,动态:22506,动态:17727,动态:18023,动态:17313,动态:12003,动态:11423,动态:13810,动态:7885,动态:20124,动态:13887,动态:5254,动态:19208,动态:11386,动态:4304,动态:9422,动态:20720,动态:22684,动态:21741,动态:22659,动态:21727,动态:22698,动态:22710,动态:21753,动态:22019,动态:4036,动态:22680,动态:21757,动态:22667,动态:22696,动态:20439,动态:22706,动态:21740,动态:20440,动态:21972,动态:20364,动态:22512,动态:21737,动态:22692,动态:22697,动态:22146,动态:22685,动态:21436,动态:22688,动态:20399</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>动态:7065,动态:12885,动态:11177,动态:13569,动态:4184,动态:19273,动态:18313,动态:22633,动态:21367,动态:11334,动态:17860,动态:2269,动态:6542,动态:19745,动态:11697,动态:10557,动态:6252,动态:6759,动态:22499,动态:7688,动态:14120,动态:22436,动态:22512,动态:4036,动态:20440,动态:21737,动态:22019,动态:22659,动态:20439,动态:22696,动态:21556,动态:21740,动态:21776,动态:20364,动态:21727,动态:20720,动态:22146,动态:21436,动态:22706,动态:21857,动态:17337,动态:22680,动态:22688,动态:22685,动态:21763,动态:20399,动态:22698,动态:21972,动态:21753,动态:22684</t>
+          <t>动态:10527,动态:10694,动态:17126,动态:8662,动态:8174,动态:14736,动态:12711,动态:18466,动态:19859,动态:21139,动态:14345,动态:15154,动态:12308,动态:11168,动态:12114,动态:15715,动态:12070,动态:6695,动态:16211,动态:11079,动态:12641,动态:12000,动态:20374,动态:13041,动态:22685,动态:22659,动态:22688,动态:20399,动态:21780,动态:22698,动态:21753,动态:21763,动态:22680,动态:20440,动态:7746,动态:21756,动态:20720,动态:21745,动态:22684,动态:21727,动态:21556,动态:22710,动态:4036,动态:21857,动态:21741,动态:21757,动态:22146,动态:20439,动态:22699,动态:21740</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>动态:17108,动态:21681,动态:16743,动态:16568,动态:8685,动态:13545,动态:11880,动态:20672,动态:10014,动态:14498,动态:20133,动态:10935,动态:22085,动态:16036,动态:22650,动态:6886,动态:14657,动态:22692,动态:21857,动态:4036,动态:22710,动态:21737,动态:21975,动态:22697,动态:21780,动态:20399,动态:17337,动态:22512,动态:22688,动态:21757,动态:21753,动态:21741,动态:7746,动态:22146,动态:22667,动态:22702,动态:21727,动态:22699,动态:21756,动态:22680,动态:21776,动态:20439,动态:20720,动态:22323,动态:21436,动态:21740,动态:20364,动态:21972,动态:21763,动态:21556</t>
+          <t>动态:16337,动态:22646,动态:13086,动态:14530,动态:18906,动态:10765,动态:6888,动态:3120,动态:16152,动态:6652,动态:18557,动态:15037,动态:12716,动态:3142,动态:16590,动态:13210,动态:17200,动态:4655,动态:17165,动态:9545,动态:21740,动态:21753,动态:22697,动态:4036,动态:21737,动态:17337,动态:21436,动态:22706,动态:22702,动态:22684,动态:22019,动态:21756,动态:21727,动态:7746,动态:20399,动态:22146,动态:22688,动态:21556,动态:21857,动态:21745,动态:20364,动态:22507,动态:22680,动态:21757,动态:22710,动态:22696,动态:21763,动态:22699,动态:21776,动态:22685</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>动态:15314,动态:11644,动态:19451,动态:11938,动态:15547,动态:19854,动态:4418,动态:14019,动态:6775,动态:6522,动态:3897,动态:3073,动态:4031,动态:7789,动态:3166,动态:6916,动态:4036,动态:6901,动态:22699,动态:621,动态:7383,动态:7186,动态:16721,动态:3174,动态:6325,动态:20516,动态:3104,动态:20525,动态:7464,动态:21470,动态:3107,动态:3979,动态:22696,动态:3162,动态:21970,动态:3076,动态:6252,动态:6447,动态:3796,动态:22685,动态:22684,动态:21763,动态:22512,动态:22323,动态:21727,动态:7746,动态:22706,动态:20399,动态:21745,动态:22688</t>
+          <t>动态:21636,动态:22146,动态:19385,动态:12079,动态:18695,动态:11036,动态:6453,动态:20736,动态:13135,动态:5662,动态:17374,动态:14188,动态:12407,动态:6252,动态:4036,动态:7186,动态:16721,动态:3174,动态:3162,动态:3897,动态:22699,动态:7789,动态:6901,动态:3107,动态:7383,动态:3104,动态:3796,动态:3166,动态:3076,动态:7464,动态:3073,动态:4031,动态:3979,动态:22696,动态:6325,动态:21970,动态:621,动态:6447,动态:6916,动态:21470,动态:20516,动态:20525,动态:21757,动态:20440,动态:20720,动态:22512,动态:22323</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>动态:15505,动态:7978,动态:14084,动态:18844,动态:13796,动态:8169,动态:12908,动态:22282,动态:16394,动态:12158,动态:12753,动态:16194,动态:14801,动态:20261,动态:20456,动态:12045,动态:22688,动态:22512,动态:21727,动态:22698,动态:22146,动态:22706,动态:21776,动态:21757,动态:22680,动态:22702,动态:21975,动态:21741,动态:22699,动态:21556,动态:22667,动态:17337,动态:20440,动态:22019,动态:21756,动态:20364,动态:20399,动态:21740,动态:22684,动态:22323,动态:21436,动态:22685,动态:21857,动态:22692,动态:21972,动态:7746,动态:21753,动态:20439,动态:21780,动态:22696</t>
+          <t>动态:14696,动态:4421,动态:2926,动态:14667,动态:5895,动态:7384,动态:12362,动态:17750,动态:20385,动态:3115,动态:12325,动态:11611,动态:22700,动态:21540,动态:20267,动态:17147,动态:13908,动态:14441,动态:12119,动态:11053,动态:19937,动态:21498,动态:9791,动态:22706,动态:22692,动态:21741,动态:21756,动态:20439,动态:22685,动态:21436,动态:20440,动态:21857,动态:21776,动态:22702,动态:22697,动态:22699,动态:21745,动态:21972,动态:21727,动态:22323,动态:21757,动态:22659,动态:22696,动态:20364,动态:22507,动态:21737,动态:22146,动态:4036,动态:22698,动态:21975</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>动态:9738,动态:16050,动态:20419,动态:20803,动态:10911,动态:13792,动态:22685,动态:10213,动态:14110,动态:4653,动态:14035,动态:16194,动态:22295,动态:15115,动态:13868,动态:13374,动态:20461,动态:6867,动态:3979,动态:13795,动态:12598,动态:18651,动态:20055,动态:8177,动态:21745,动态:21975,动态:20440,动态:21753,动态:21857,动态:22698,动态:22680,动态:20399,动态:7746,动态:21972,动态:22688,动态:22146,动态:21776,动态:22696,动态:22706,动态:22019,动态:21737,动态:22702,动态:20364,动态:21757,动态:20720,动态:4036,动态:21741,动态:22697,动态:22710,动态:21756</t>
+          <t>动态:8538,动态:14901,动态:14395,动态:6623,动态:21392,动态:19170,动态:14929,动态:11767,动态:15425,动态:18260,动态:16260,动态:18877,动态:13745,动态:9286,动态:18167,动态:15547,动态:5895,动态:3150,动态:21780,动态:22710,动态:22699,动态:22688,动态:21757,动态:22507,动态:21753,动态:20439,动态:22697,动态:21740,动态:20364,动态:22698,动态:22323,动态:21776,动态:21737,动态:22146,动态:22680,动态:4036,动态:22706,动态:21857,动态:20440,动态:17337,动态:7746,动态:21975,动态:22696,动态:20720,动态:22684,动态:22702,动态:22692,动态:21972,动态:22512,动态:22685</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>动态:19485,动态:6547,动态:4683,动态:13123,动态:12319,动态:11459,动态:13315,动态:19184,动态:21719,动态:10551,动态:20546,动态:19645,动态:3099,动态:11675,动态:18337,动态:15236,动态:244,动态:16600,动态:13056,动态:15610,动态:11996,动态:17574,动态:22680,动态:21756,动态:22659,动态:21763,动态:22698,动态:20364,动态:22019,动态:21753,动态:21740,动态:21727,动态:22688,动态:21972,动态:22710,动态:20440,动态:22699,动态:21757,动态:21745,动态:22323,动态:20439,动态:22696,动态:22667,动态:7746,动态:22692,动态:4036,动态:22706,动态:22146,动态:20399,动态:21975</t>
+          <t>动态:6909,动态:6773,动态:9039,动态:10580,动态:19602,动态:11488,动态:11422,动态:6855,动态:12317,动态:19987,动态:21939,动态:17543,动态:17559,动态:13198,动态:12009,动态:13794,动态:21776,动态:19356,动态:15059,动态:6452,动态:21743,动态:10879,动态:12874,动态:21490,动态:16848,动态:16303,动态:21129,动态:21763,动态:21741,动态:21740,动态:21972,动态:22692,动态:22659,动态:22146,动态:21975,动态:22698,动态:21757,动态:17337,动态:20720,动态:22710,动态:21436,动态:22684,动态:21727,动态:22685,动态:20440,动态:20364,动态:22688,动态:21737,动态:21745</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>动态:6547,动态:7153,动态:20640,动态:16368,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:20683,动态:13306,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>动态:13858,动态:21946,动态:17060,动态:15212,动态:21422,动态:12859,动态:16717,动态:13489,动态:21665,动态:15541,动态:8123,动态:20259,动态:11466,动态:10467,动态:16312,动态:22183,动态:5216,动态:12347,动态:18994,动态:17337,动态:20364,动态:4036,动态:20440,动态:21741,动态:22512,动态:22696,动态:21740,动态:21776,动态:22688,动态:21857,动态:21436,动态:22698,动态:21972,动态:21763,动态:21556,动态:21780,动态:7746,动态:20720,动态:21975,动态:22659,动态:21737,动态:22146,动态:22323,动态:22710,动态:22685,动态:22507,动态:22692,动态:21756,动态:22706,动态:21753</t>
+          <t>动态:11772,动态:19486,动态:12089,动态:851,动态:8337,动态:13537,动态:13886,动态:6831,动态:16645,动态:15479,动态:20640,动态:22303,动态:11790,动态:20444,动态:7734,动态:18368,动态:16337,动态:12327,动态:19416,动态:6240,动态:15095,动态:6747,动态:12319,动态:14026,动态:15389,动态:1797,动态:13990,动态:12586,动态:19253,动态:22667,动态:21436,动态:20720,动态:21776,动态:20440,动态:22692,动态:22699,动态:20364,动态:21741,动态:21745,动态:21737,动态:21727,动态:22512,动态:21756,动态:22680,动态:21763,动态:21780,动态:22685,动态:22698,动态:20399,动态:22706</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>动态:13858,动态:7833,动态:16910,动态:13861,动态:8773,动态:19615,动态:19935,动态:9503,动态:14058,动态:2707,动态:3674,动态:18087,动态:3420,动态:11491,动态:15545,动态:19941,动态:11669,动态:19293,动态:10922,动态:14422,动态:22708,动态:11398,动态:17501,动态:22688,动态:20720,动态:21857,动态:22696,动态:21740,动态:22667,动态:7746,动态:22706,动态:20399,动态:21975,动态:22323,动态:22685,动态:22710,动态:21556,动态:22697,动态:21757,动态:22680,动态:21756,动态:21753,动态:22702,动态:22684,动态:21972,动态:21763,动态:17337,动态:22659,动态:21737,动态:22507</t>
+          <t>动态:7154,动态:15435,动态:1310,动态:7409,动态:12311,动态:4483,动态:15868,动态:12326,动态:11758,动态:16380,动态:9483,动态:19769,动态:13780,动态:13338,动态:14221,动态:11030,动态:22699,动态:22685,动态:20439,动态:4036,动态:22697,动态:22019,动态:22512,动态:22706,动态:21756,动态:22659,动态:21727,动态:21741,动态:22146,动态:22507,动态:22710,动态:22667,动态:21436,动态:22688,动态:21753,动态:21972,动态:20364,动态:21857,动态:21763,动态:22696,动态:22680,动态:21780,动态:22702,动态:21757,动态:21975,动态:22684,动态:17337,动态:20720,动态:21740,动态:20440</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>动态:12811,动态:21175,动态:12835,动态:18757,动态:21990,动态:12828,动态:6623,动态:10071,动态:242,动态:18849,动态:11669,动态:11580,动态:20217,动态:22499,动态:4497,动态:9896,动态:6775,动态:13091,动态:10355,动态:5153,动态:7405,动态:11043,动态:14444,动态:22659,动态:22702,动态:22696,动态:21556,动态:22688,动态:22699,动态:20364,动态:21780,动态:22706,动态:17337,动态:21975,动态:22684,动态:22697,动态:20720,动态:21972,动态:21741,动态:7746,动态:22692,动态:20399,动态:21753,动态:22680,动态:21737,动态:22507,动态:22146,动态:21763,动态:22685,动态:22710</t>
+          <t>动态:11418,动态:13917,动态:22281,动态:10499,动态:8291,动态:11521,动态:833,动态:8107,动态:19615,动态:11070,动态:831,动态:14350,动态:20440,动态:13289,动态:11273,动态:6470,动态:13796,动态:6773,动态:20672,动态:4368,动态:22692,动态:21756,动态:20720,动态:22146,动态:22699,动态:22688,动态:22323,动态:21763,动态:22710,动态:22696,动态:21556,动态:22019,动态:20364,动态:4036,动态:22680,动态:21857,动态:22507,动态:20439,动态:22706,动态:21740,动态:21737,动态:22702,动态:7746,动态:22697,动态:20399,动态:21780,动态:21436,动态:21753,动态:21727</t>
         </is>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>动态:20623,动态:22702,动态:21756,动态:22146,动态:21972,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:4036,动态:21756,动态:21727,动态:22696,动态:20399,动态:21776,动态:22146,动态:22685,动态:20720,动态:22702,动态:22507,动态:21436,动态:21763,动态:21741,动态:21753,动态:21857,动态:21556,动态:22659,动态:22019,动态:22667,动态:21780,动态:20439,动态:22699,动态:22684,动态:21740,动态:22688,动态:22680,动态:22692,动态:22512,动态:17337,动态:21757,动态:22697,动态:20440,动态:20364,动态:21745,动态:21975,动态:22706,动态:22698,动态:21972,动态:7746</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>动态:11418,动态:16131,动态:14697,动态:244,动态:17582,动态:8015,动态:15344,动态:10482,动态:12272,动态:20865,动态:11985,动态:20677,动态:9795,动态:9184,动态:20248,动态:9172,动态:21737,动态:22688,动态:20399,动态:22323,动态:22019,动态:22697,动态:21780,动态:21556,动态:20440,动态:20364,动态:22146,动态:22692,动态:7746,动态:22512,动态:20720,动态:21972,动态:22706,动态:21756,动态:22702,动态:21763,动态:22659,动态:21727,动态:22696,动态:21857,动态:22698,动态:22684,动态:22710,动态:22699,动态:17337,动态:21776,动态:21757,动态:22667,动态:22680,动态:4036</t>
+          <t>动态:20390,动态:11392,动态:21498,动态:8757,动态:13682,动态:11002,动态:21301,动态:19653,动态:8752,动态:6666,动态:12567,动态:18822,动态:5899,动态:15463,动态:8920,动态:10604,动态:17091,动态:14026,动态:12369,动态:682,动态:13062,动态:13081,动态:10087,动态:13276,动态:20112,动态:9440,动态:14232,动态:20359,动态:13775,动态:21727,动态:22019,动态:22696,动态:21436,动态:22684,动态:17337,动态:20720,动态:21757,动态:21556,动态:22323,动态:21737,动态:20439,动态:22512,动态:22710,动态:22146,动态:22507,动态:21857,动态:21756,动态:20440,动态:22699,动态:20399</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>动态:7065,动态:19643,动态:14110,动态:3117,动态:20261,动态:11870,动态:18985,动态:18020,动态:7386,动态:15203,动态:11427,动态:17548,动态:8221,动态:16358,动态:22634,动态:11059,动态:13801,动态:19450,动态:17509,动态:7378,动态:6686,动态:7408,动态:22697,动态:7746,动态:21745,动态:22684,动态:21753,动态:21741,动态:21740,动态:20439,动态:22323,动态:21776,动态:20720,动态:22512,动态:22706,动态:20399,动态:21727,动态:20440,动态:22685,动态:22659,动态:22699,动态:21857,动态:21972,动态:21756,动态:21737,动态:21757,动态:20364,动态:22710,动态:21763,动态:17337</t>
+          <t>动态:11024,动态:13489,动态:18985,动态:7041,动态:7065,动态:19024,动态:20104,动态:20677,动态:20640,动态:20379,动态:15636,动态:17295,动态:18852,动态:7025,动态:14444,动态:4305,动态:17507,动态:9766,动态:14696,动态:18745,动态:6777,动态:22685,动态:22696,动态:21780,动态:21776,动态:20364,动态:21727,动态:21740,动态:22512,动态:21975,动态:22706,动态:17337,动态:22697,动态:22659,动态:7746,动态:21753,动态:20440,动态:21857,动态:22692,动态:21741,动态:22702,动态:22667,动态:21757,动态:21745,动态:22684,动态:22699,动态:20720,动态:20399,动态:21972,动态:21763</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>动态:10544,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:15600,动态:9483,动态:6025,动态:13625,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>动态:14509,动态:12967,动态:11863,动态:11123,动态:15565,动态:13039,动态:14342,动态:15188,动态:22497,动态:10132,动态:20551,动态:11645,动态:13886,动态:12322,动态:15755,动态:8701,动态:13783,动态:19282,动态:6186,动态:11414,动态:13509,动态:14232,动态:19490,动态:4880,动态:18170,动态:21727,动态:21740,动态:21741,动态:21975,动态:20399,动态:21757,动态:22697,动态:22680,动态:21745,动态:21972,动态:22323,动态:21780,动态:4036,动态:22019,动态:17337,动态:7746,动态:22692,动态:22688,动态:21763,动态:22710,动态:22702,动态:22667,动态:22659,动态:21436,动态:21857</t>
+          <t>动态:15909,动态:14716,动态:11209,动态:21301,动态:13374,动态:8745,动态:16255,动态:15679,动态:22495,动态:9426,动态:17742,动态:10950,动态:16086,动态:11203,动态:144,动态:1912,动态:20248,动态:3133,动态:13986,动态:21753,动态:22706,动态:21745,动态:22702,动态:21737,动态:22684,动态:22699,动态:20440,动态:7746,动态:22710,动态:22019,动态:21740,动态:22680,动态:21857,动态:21727,动态:17337,动态:21972,动态:22146,动态:21776,动态:21757,动态:20399,动态:22659,动态:22685,动态:21780,动态:22507,动态:22692,动态:21741,动态:22696,动态:20720,动态:22698,动态:21436</t>
         </is>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>动态:15770,动态:15863,动态:232,动态:19530,动态:21497,动态:11072,动态:9768,动态:11305,动态:11552,动态:6623,动态:18195,动态:20319,动态:20011,动态:9391,动态:15656,动态:9151,动态:14188,动态:10553,动态:13247,动态:22512,动态:21556,动态:22659,动态:22019,动态:20364,动态:20399,动态:21745,动态:22702,动态:21857,动态:22507,动态:4036,动态:21737,动态:21727,动态:20720,动态:22696,动态:22323,动态:21972,动态:21436,动态:21753,动态:22688,动态:21780,动态:21740,动态:20439,动态:21975,动态:21741,动态:22685,动态:22146,动态:7746,动态:22710,动态:22697,动态:17337</t>
+          <t>动态:6619,动态:20960,动态:19898,动态:15888,动态:22042,动态:11388,动态:20669,动态:21200,动态:12082,动态:22710,动态:12346,动态:6755,动态:19492,动态:10567,动态:11386,动态:21659,动态:11034,动态:3110,动态:20364,动态:22684,动态:21727,动态:21975,动态:20440,动态:21737,动态:22667,动态:20399,动态:22699,动态:22696,动态:22146,动态:4036,动态:7746,动态:22685,动态:21972,动态:21741,动态:22512,动态:22702,动态:21740,动态:22659,动态:22680,动态:22507,动态:21757,动态:21556,动态:22019,动态:21857,动态:21780,动态:21763,动态:22706,动态:21776,动态:17337</t>
         </is>
       </c>
     </row>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>动态:13742,动态:8610,动态:19656,动态:12306,动态:9499,动态:17531,动态:21485,动态:6595,动态:8291,动态:9411,动态:19215,动态:18317,动态:21359,动态:11077,动态:5149,动态:19084,动态:13491,动态:6799,动态:9158,动态:21858,动态:22680,动态:21556,动态:21740,动态:21741,动态:21756,动态:21975,动态:22146,动态:22699,动态:21857,动态:22688,动态:21727,动态:21753,动态:17337,动态:21780,动态:22323,动态:22684,动态:21436,动态:20720,动态:20364,动态:21737,动态:20440,动态:20399,动态:22019,动态:21745,动态:22659,动态:22512,动态:22685,动态:7746,动态:21972,动态:20439</t>
+          <t>动态:12834,动态:7137,动态:20598,动态:11031,动态:8749,动态:22436,动态:19959,动态:14389,动态:19379,动态:18308,动态:15750,动态:11592,动态:7589,动态:10774,动态:13615,动态:15511,动态:10954,动态:12598,动态:12669,动态:6819,动态:21858,动态:20364,动态:22699,动态:20720,动态:21741,动态:21975,动态:21756,动态:21780,动态:21556,动态:22659,动态:22667,动态:21857,动态:22323,动态:20439,动态:22146,动态:22685,动态:17337,动态:21727,动态:20440,动态:21436,动态:22684,动态:21753,动态:21740,动态:21757,动态:21745,动态:21737,动态:4036,动态:21972,动态:7746,动态:22019</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>动态:14098,动态:13455,动态:18688,动态:11967,动态:20351,动态:13041,动态:20452,动态:14887,动态:12365,动态:8966,动态:18369,动态:14636,动态:20379,动态:13795,动态:15490,动态:16273,动态:13789,动态:21740,动态:7746,动态:22507,动态:21737,动态:21756,动态:21763,动态:21975,动态:21556,动态:22146,动态:22684,动态:21857,动态:21727,动态:22685,动态:20440,动态:21745,动态:21436,动态:22692,动态:22702,动态:22698,动态:20399,动态:22323,动态:17337,动态:22659,动态:22667,动态:20720,动态:21780,动态:20364,动态:4036,动态:20439,动态:22019,动态:22706,动态:21972,动态:22697</t>
+          <t>动态:12835,动态:12930,动态:19041,动态:14401,动态:17860,动态:15002,动态:9136,动态:14278,动态:18770,动态:12003,动态:12379,动态:15491,动态:15190,动态:21358,动态:18236,动态:5877,动态:11445,动态:14076,动态:8701,动态:20399,动态:22698,动态:21745,动态:22706,动态:20364,动态:22692,动态:22146,动态:21556,动态:21756,动态:22699,动态:21857,动态:21776,动态:22684,动态:20439,动态:4036,动态:22019,动态:17337,动态:21763,动态:22667,动态:20440,动态:22659,动态:22702,动态:7746,动态:22685,动态:21757,动态:21975,动态:22697,动态:21972,动态:20720,动态:22323,动态:21436</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>动态:22296,动态:19703,动态:21141,动态:13098,动态:10599,动态:7815,动态:15201,动态:10979,动态:18248,动态:18996,动态:3802,动态:11938,动态:20444,动态:16754,动态:22431,动态:15757,动态:961,动态:9411,动态:11184,动态:19469,动态:7025,动态:21556,动态:22696,动态:21757,动态:20399,动态:21763,动态:22684,动态:22698,动态:22680,动态:21727,动态:21740,动态:22692,动态:22706,动态:21780,动态:20440,动态:22659,动态:22685,动态:21857,动态:20720,动态:22699,动态:22507,动态:21975,动态:21737,动态:17337,动态:22323,动态:20364,动态:20439,动态:21972,动态:21741,动态:22697</t>
+          <t>动态:18248,动态:11583,动态:14104,动态:16963,动态:15931,动态:14305,动态:3115,动态:15387,动态:12889,动态:14434,动态:15643,动态:19266,动态:4040,动态:21477,动态:13406,动态:10859,动态:17548,动态:9478,动态:3795,动态:7472,动态:16929,动态:18376,动态:10262,动态:22684,动态:22323,动态:21741,动态:20440,动态:22659,动态:4036,动态:21757,动态:22680,动态:20439,动态:21780,动态:22512,动态:21857,动态:7746,动态:21740,动态:22696,动态:21975,动态:20364,动态:22692,动态:22019,动态:22697,动态:22688,动态:21753,动态:22698,动态:22710,动态:21556,动态:21737,动态:22507</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>动态:11813,动态:20460,动态:15742,动态:19181,动态:14688,动态:11179,动态:16264,动态:22092,动态:6901,动态:4036,动态:3796,动态:3073,动态:6916,动态:6447,动态:3166,动态:4031,动态:22699,动态:3174,动态:621,动态:16721,动态:20516,动态:3897,动态:3104,动态:20525,动态:7383,动态:7464,动态:21470,动态:3107,动态:3979,动态:22696,动态:3162,动态:21970,动态:3076,动态:6252,动态:7186,动态:6325,动态:7789,动态:11276,动态:13795,动态:8701,动态:21556,动态:11126,动态:11786,动态:21972,动态:21757,动态:20399,动态:22684,动态:21753,动态:7746,动态:21763</t>
+          <t>动态:19822,动态:8878,动态:15565,动态:16394,动态:6592,动态:809,动态:13497,动态:17952,动态:20386,动态:22684,动态:20116,动态:16068,动态:6901,动态:3107,动态:6252,动态:7789,动态:22699,动态:3897,动态:3174,动态:3162,动态:3979,动态:7186,动态:4036,动态:16721,动态:3104,动态:7383,动态:4031,动态:3076,动态:7464,动态:3073,动态:21470,动态:22696,动态:3166,动态:20516,动态:21970,动态:621,动态:6447,动态:6916,动态:20525,动态:6325,动态:3796,动态:14271,动态:21972,动态:8581,动态:17274,动态:21737,动态:22507,动态:22706,动态:20720,动态:22512</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>动态:17063,动态:21501,动态:7171,动态:19511,动态:20330,动态:7833,动态:15463,动态:19646,动态:14345,动态:17542,动态:16039,动态:14892,动态:11419,动态:3795,动态:11145,动态:3174,动态:13318,动态:7604,动态:16620,动态:13816,动态:10576,动态:4815,动态:22699,动态:17337,动态:21972,动态:21857,动态:22680,动态:22698,动态:22659,动态:22702,动态:20364,动态:21745,动态:22507,动态:22667,动态:22685,动态:21740,动态:20439,动态:22512,动态:22696,动态:22710,动态:20440,动态:22706,动态:21975,动态:21780,动态:21756,动态:20720,动态:21757,动态:22692,动态:21763,动态:7746</t>
+          <t>动态:9413,动态:20551,动态:12015,动态:18792,动态:6549,动态:10523,动态:12150,动态:11471,动态:6591,动态:16609,动态:20092,动态:11940,动态:13092,动态:7127,动态:20148,动态:14204,动态:20525,动态:4680,动态:21756,动态:22688,动态:21763,动态:22702,动态:22699,动态:21737,动态:20439,动态:22019,动态:21780,动态:4036,动态:22710,动态:21745,动态:22680,动态:22692,动态:21975,动态:22146,动态:21740,动态:21776,动态:21753,动态:20720,动态:22696,动态:22512,动态:7746,动态:22706,动态:21857,动态:22698,动态:21741,动态:22659,动态:21972,动态:21757,动态:20440,动态:22685</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>动态:10516,动态:22700,动态:11380,动态:19401,动态:12322,动态:18461,动态:6611,动态:19487,动态:2269,动态:20930,动态:21160,动态:9778,动态:19436,动态:8619,动态:19759,动态:5151,动态:20137,动态:17696,动态:13328,动态:21975,动态:22685,动态:4036,动态:20720,动态:21753,动态:21727,动态:21972,动态:22706,动态:17337,动态:20439,动态:22512,动态:21780,动态:21757,动态:22507,动态:22019,动态:7746,动态:22710,动态:22323,动态:21737,动态:21763,动态:22692,动态:20399,动态:20440,动态:21556,动态:22698,动态:22684,动态:21741,动态:21776,动态:22688,动态:21740,动态:22699</t>
+          <t>动态:18393,动态:13143,动态:15336,动态:10474,动态:15654,动态:6640,动态:13869,动态:13835,动态:10974,动态:19018,动态:12049,动态:16137,动态:7040,动态:5895,动态:6842,动态:8169,动态:18160,动态:6578,动态:4036,动态:20720,动态:22512,动态:22699,动态:22706,动态:7746,动态:21763,动态:21436,动态:21737,动态:22323,动态:22680,动态:20364,动态:22697,动态:20399,动态:20439,动态:21740,动态:17337,动态:22507,动态:22698,动态:21757,动态:21975,动态:22688,动态:22710,动态:22019,动态:22702,动态:21780,动态:21741,动态:20440,动态:22696,动态:21857,动态:21727,动态:21972</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>动态:13928,动态:16019,动态:22604,动态:12672,动态:13791,动态:7374,动态:11063,动态:6905,动态:6576,动态:11500,动态:12186,动态:19645,动态:22624,动态:20005,动态:8118,动态:13773,动态:20113,动态:9507,动态:16890,动态:12417,动态:11081,动态:19755,动态:16075,动态:15815,动态:10566,动态:13782,动态:22685,动态:22512,动态:22680,动态:21436,动态:21556,动态:22702,动态:7746,动态:22507,动态:22684,动态:21745,动态:22697,动态:22710,动态:22667,动态:21757,动态:22692,动态:22659,动态:21756,动态:22019,动态:21740,动态:21780,动态:21737,动态:22146,动态:21776,动态:21975</t>
+          <t>动态:15984,动态:20738,动态:4175,动态:11100,动态:16395,动态:13200,动态:13080,动态:6658,动态:21752,动态:13296,动态:621,动态:15212,动态:20660,动态:20669,动态:12664,动态:14236,动态:12648,动态:15669,动态:16935,动态:11168,动态:11283,动态:17337,动态:22019,动态:21757,动态:20439,动态:21556,动态:22696,动态:22323,动态:21727,动态:20399,动态:21745,动态:21741,动态:22699,动态:21776,动态:22697,动态:21756,动态:22688,动态:22692,动态:21753,动态:21975,动态:22706,动态:22685,动态:20720,动态:22680,动态:22684,动态:22659,动态:22702,动态:21780,动态:20364,动态:22667</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>动态:11280,动态:10499,动态:20146,动态:21704,动态:22708,动态:16336,动态:20134,动态:12011,动态:12881,动态:20273,动态:20803,动态:16597,动态:21101,动态:13009,动态:20107,动态:18629,动态:22633,动态:7472,动态:14017,动态:10581,动态:20246,动态:21095,动态:17964,动态:11644,动态:7307,动态:10375,动态:17337,动态:21780,动态:21753,动态:21556,动态:21763,动态:21745,动态:22512,动态:22692,动态:20364,动态:22685,动态:7746,动态:22684,动态:20439,动态:21757,动态:22680,动态:20440,动态:21756,动态:21741,动态:20720,动态:22702,动态:21975,动态:22706,动态:22698,动态:21972</t>
+          <t>动态:20419,动态:7004,动态:21060,动态:20329,动态:9418,动态:11363,动态:11469,动态:7674,动态:17848,动态:20140,动态:22503,动态:14658,动态:21928,动态:14147,动态:22488,动态:13729,动态:10012,动态:17738,动态:8109,动态:7746,动态:22692,动态:21745,动态:22323,动态:22667,动态:22696,动态:22706,动态:20440,动态:22507,动态:21436,动态:21857,动态:17337,动态:21776,动态:22146,动态:4036,动态:22710,动态:22659,动态:22512,动态:21741,动态:22680,动态:22684,动态:21737,动态:22697,动态:22699,动态:22688,动态:21753,动态:21780,动态:22702,动态:20399,动态:21763,动态:20720</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>动态:17367,动态:11270,动态:20680,动态:12672,动态:12831,动态:20487,动态:8288,动态:21990,动态:9204,动态:21881,动态:20021,动态:22156,动态:19312,动态:15344,动态:13306,动态:13221,动态:13217,动态:14098,动态:11769,动态:17958,动态:13710,动态:10456,动态:7748,动态:4207,动态:7380,动态:4175,动态:13055,动态:19127,动态:21309,动态:22698,动态:21756,动态:17337,动态:22706,动态:21975,动态:7746,动态:21757,动态:21740,动态:22685,动态:22146,动态:20439,动态:21972,动态:22659,动态:20364,动态:22696,动态:21763,动态:22699,动态:20720,动态:21436,动态:22667,动态:22512</t>
+          <t>动态:8245,动态:18499,动态:16564,动态:15974,动态:19456,动态:17130,动态:16754,动态:19653,动态:16719,动态:19753,动态:3584,动态:22211,动态:22503,动态:16002,动态:13868,动态:13070,动态:11284,动态:10012,动态:11644,动态:19935,动态:9791,动态:7040,动态:7826,动态:14682,动态:22019,动态:22512,动态:22698,动态:22699,动态:7746,动态:21780,动态:21756,动态:21737,动态:21757,动态:21727,动态:22685,动态:21776,动态:20439,动态:22696,动态:22684,动态:4036,动态:21972,动态:21975,动态:21763,动态:22706,动态:20364,动态:22146,动态:20440,动态:22688,动态:22680,动态:21857</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>动态:11466,动态:11611,动态:17313,动态:17575,动态:12377,动态:10941,动态:4210,动态:17711,动态:14161,动态:17090,动态:13873,动态:14248,动态:21084,动态:17738,动态:6784,动态:8078,动态:15347,动态:14981,动态:19646,动态:6640,动态:16582,动态:8115,动态:19812,动态:14141,动态:12311,动态:4023,动态:22604,动态:13981,动态:17775,动态:10359,动态:16697,动态:21093,动态:8920,动态:21717,动态:12871,动态:12667,动态:13548,动态:15698,动态:22512,动态:12881,动态:12306,动态:17750,动态:19208,动态:6601,动态:18337,动态:22685,动态:22512,动态:9783,动态:22688,动态:9421</t>
+          <t>动态:5236,动态:18301,动态:15610,动态:22244,动态:20064,动态:17327,动态:11544,动态:16754,动态:12890,动态:13449,动态:19530,动态:9307,动态:18557,动态:14008,动态:7325,动态:21658,动态:9118,动态:20686,动态:17769,动态:4786,动态:20092,动态:20978,动态:15090,动态:9136,动态:22646,动态:6655,动态:18168,动态:12777,动态:19214,动态:15974,动态:12044,动态:19650,动态:9463,动态:21885,动态:19420,动态:13249,动态:11302,动态:20714,动态:20520,动态:12719,动态:19835,动态:12859,动态:11497,动态:693,动态:8109,动态:15117,动态:22684,动态:20399,动态:21740,动态:783</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>动态:11861,动态:8821,动态:9036,动态:15016,动态:18813,动态:19423,动态:14161,动态:10849,动态:20143,动态:18947,动态:18696,动态:11566,动态:4432,动态:13682,动态:20145,动态:12617,动态:15061,动态:11823,动态:21645,动态:22667,动态:21776,动态:22688,动态:21757,动态:22507,动态:20399,动态:22699,动态:21556,动态:21763,动态:21972,动态:21727,动态:22685,动态:20439,动态:22696,动态:22146,动态:22680,动态:22684,动态:22659,动态:17337,动态:22512,动态:22706,动态:21745,动态:22692,动态:4036,动态:21436,动态:21756,动态:21857,动态:22323,动态:22697,动态:20720,动态:22019</t>
+          <t>动态:19485,动态:21583,动态:17940,动态:15340,动态:15957,动态:10973,动态:19810,动态:22393,动态:12062,动态:18624,动态:12661,动态:9093,动态:19446,动态:17843,动态:9798,动态:18054,动态:3808,动态:19045,动态:21084,动态:17847,动态:8127,动态:22146,动态:22702,动态:21740,动态:22685,动态:17337,动态:22699,动态:7746,动态:22323,动态:22710,动态:21727,动态:21737,动态:20364,动态:22698,动态:22659,动态:22684,动态:22512,动态:21556,动态:21780,动态:22697,动态:22667,动态:21436,动态:21745,动态:22507,动态:20399,动态:21756,动态:22019,动态:20720,动态:21975,动态:21776</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>动态:13981,动态:15885,动态:13783,动态:20362,动态:13415,动态:10429,动态:7604,动态:20273,动态:8619,动态:7747,动态:9039,动态:20346,动态:13134,动态:21740,动态:18170,动态:8292,动态:14230,动态:14640,动态:11268,动态:7477,动态:10087,动态:18154,动态:7122,动态:9795,动态:6454,动态:6838,动态:6845,动态:769,动态:857,动态:19707,动态:18376,动态:16273,动态:146,动态:11940,动态:8231,动态:21115,动态:21741,动态:16282,动态:10576,动态:9155,动态:19210,动态:13826,动态:19765,动态:18771,动态:10219,动态:18238,动态:11131,动态:20364,动态:22680,动态:15221</t>
+          <t>动态:9712,动态:15095,动态:11034,动态:4432,动态:11265,动态:12886,动态:15448,动态:20129,动态:10935,动态:19908,动态:7384,动态:14502,动态:8581,动态:12066,动态:12062,动态:6085,动态:18615,动态:13864,动态:13820,动态:18367,动态:13818,动态:13308,动态:5113,动态:8681,动态:15657,动态:4675,动态:7744,动态:8685,动态:19496,动态:19258,动态:12389,动态:15982,动态:18236,动态:18490,动态:15612,动态:18900,动态:17940,动态:10144,动态:16651,动态:11782,动态:3838,动态:11291,动态:14216,动态:8133,动态:18492,动态:16452,动态:22146,动态:20008,动态:4036,动态:11327</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>动态:12000,动态:21097,动态:19973,动态:13833,动态:13888,动态:22311,动态:15600,动态:9239,动态:15742,动态:10535,动态:18877,动态:15950,动态:22498,动态:20146,动态:9478,动态:17228,动态:20516,动态:12319,动态:11043,动态:3174,动态:5385,动态:22692,动态:21975,动态:20439,动态:20364,动态:22710,动态:20440,动态:22684,动态:22702,动态:7746,动态:22699,动态:21757,动态:4036,动态:22146,动态:21857,动态:22659,动态:21780,动态:22696,动态:22698,动态:22512,动态:22507,动态:22688,动态:17337,动态:21776,动态:21753,动态:21556,动态:21972,动态:22697,动态:21741,动态:21727</t>
+          <t>动态:7159,动态:22700,动态:19608,动态:17738,动态:16417,动态:12384,动态:11861,动态:18681,动态:11591,动态:22234,动态:10416,动态:11405,动态:14845,动态:14724,动态:18821,动态:12626,动态:8852,动态:20516,动态:11138,动态:11131,动态:8108,动态:14583,动态:9097,动态:22692,动态:22699,动态:20364,动态:22680,动态:21556,动态:7746,动态:22698,动态:21745,动态:20720,动态:21975,动态:22507,动态:21727,动态:21740,动态:22710,动态:22667,动态:22697,动态:21776,动态:21753,动态:22702,动态:21972,动态:21756,动态:21741,动态:4036,动态:17337,动态:22706,动态:21857,动态:22512</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>动态:14719,动态:6777,动态:17081,动态:17623,动态:22626,动态:9025,动态:7750,动态:18667,动态:21681,动态:13408,动态:8515,动态:12930,动态:10918,动态:12269,动态:19821,动态:8170,动态:15515,动态:18372,动态:22688,动态:21757,动态:21972,动态:21756,动态:22706,动态:21740,动态:22692,动态:20440,动态:22702,动态:20364,动态:22659,动态:21745,动态:21436,动态:22698,动态:22685,动态:21737,动态:17337,动态:22710,动态:22323,动态:21727,动态:22696,动态:21857,动态:22146,动态:22680,动态:21975,动态:22684,动态:21556,动态:20439,动态:4036,动态:22667,动态:22507,动态:22699</t>
+          <t>动态:22484,动态:12362,动态:9780,动态:14241,动态:13289,动态:10923,动态:17721,动态:17972,动态:15977,动态:13245,动态:22495,动态:3707,动态:13455,动态:19425,动态:17367,动态:18248,动态:21448,动态:12885,动态:21745,动态:21857,动态:22323,动态:22512,动态:21757,动态:22696,动态:22146,动态:21436,动态:21776,动态:22685,动态:21556,动态:21727,动态:21756,动态:22692,动态:20439,动态:20364,动态:20720,动态:21763,动态:22706,动态:17337,动态:22710,动态:20440,动态:22507,动态:22697,动态:21975,动态:22659,动态:22688,动态:20399,动态:22680,动态:22698,动态:21740,动态:21737</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>动态:816,动态:16618,动态:22284,动态:14994,动态:18195,动态:12362,动态:12672,动态:10923,动态:19623,动态:11629,动态:11771,动态:12231,动态:13569,动态:14700,动态:14158,动态:11940,动态:19450,动态:19251,动态:19282,动态:17237,动态:9442,动态:16721,动态:15970,动态:21727,动态:21740,动态:21972,动态:21745,动态:22697,动态:22323,动态:22019,动态:22692,动态:20440,动态:7746,动态:22706,动态:20364,动态:22699,动态:21753,动态:21757,动态:21756,动态:4036,动态:21780,动态:22512,动态:21763,动态:22146,动态:22685,动态:21975,动态:22659,动态:20439,动态:20399,动态:22696</t>
+          <t>动态:1742,动态:10213,动态:16697,动态:9499,动态:14730,动态:4042,动态:22489,动态:16077,动态:17952,动态:12317,动态:11355,动态:11492,动态:10072,动态:12607,动态:18310,动态:21741,动态:10298,动态:7148,动态:20364,动态:7746,动态:21776,动态:22702,动态:21857,动态:17337,动态:22019,动态:22699,动态:22507,动态:21737,动态:22697,动态:4036,动态:22706,动态:22146,动态:21972,动态:21740,动态:21745,动态:22659,动态:22685,动态:22667,动态:21975,动态:21780,动态:22710,动态:22684,动态:21763,动态:22688,动态:20440,动态:22323,动态:21727,动态:20399,动态:21757</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>动态:19892,动态:12840,动态:22234,动态:19385,动态:15189,动态:21531,动态:8160,动态:12374,动态:15147,动态:18467,动态:11993,动态:11584,动态:19544,动态:22276,动态:5385,动态:19847,动态:7022,动态:19446,动态:15631,动态:5210,动态:7122,动态:9286,动态:20720,动态:7746,动态:22512,动态:22688,动态:22685,动态:21745,动态:20364,动态:21740,动态:17337,动态:22696,动态:22699,动态:21975,动态:21737,动态:22680,动态:22659,动态:21756,动态:21972,动态:21763,动态:4036,动态:22702,动态:21741,动态:22692,动态:22698,动态:22697,动态:20440,动态:20439,动态:21757,动态:22019</t>
+          <t>动态:7985,动态:14217,动态:19646,动态:15271,动态:12798,动态:13556,动态:14818,动态:11610,动态:16514,动态:20442,动态:9152,动态:15575,动态:7125,动态:11066,动态:1332,动态:11374,动态:16617,动态:21740,动态:20440,动态:22706,动态:22688,动态:20399,动态:21763,动态:21780,动态:22667,动态:20720,动态:22699,动态:22146,动态:21757,动态:22680,动态:20364,动态:21753,动态:22512,动态:22684,动态:22507,动态:21741,动态:21776,动态:22692,动态:20439,动态:22696,动态:21737,动态:21857,动态:4036,动态:21972,动态:17337,动态:21745,动态:22659,动态:21975,动态:22702,动态:21727</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>动态:21459,动态:13158,动态:11967,动态:22082,动态:21857,动态:11835,动态:13043,动态:12089,动态:8831,动态:16608,动态:20617,动态:12899,动态:12059,动态:11885,动态:12332,动态:16829,动态:4597,动态:12069,动态:21757,动态:21740,动态:20440,动态:22710,动态:22698,动态:22688,动态:21745,动态:22692,动态:21741,动态:22146,动态:22685,动态:17337,动态:22680,动态:20439,动态:22696,动态:20399,动态:20720,动态:21776,动态:22323,动态:22019,动态:21737,动态:22706,动态:22659,动态:22512,动态:7746,动态:21975,动态:22507,动态:21727,动态:21753,动态:21780,动态:22667,动态:22697</t>
+          <t>动态:18506,动态:15630,动态:12287,动态:16194,动态:7038,动态:13212,动态:14253,动态:9096,动态:21678,动态:8199,动态:8788,动态:19181,动态:18985,动态:8629,动态:15547,动态:10553,动态:17940,动态:7062,动态:3150,动态:10614,动态:20017,动态:18750,动态:21727,动态:22512,动态:21756,动态:21780,动态:7746,动态:22684,动态:21753,动态:22706,动态:21737,动态:4036,动态:21857,动态:22667,动态:20399,动态:20440,动态:21975,动态:21757,动态:17337,动态:22019,动态:21745,动态:22146,动态:22323,动态:21741,动态:20364,动态:22507,动态:22710,动态:20720,动态:22699,动态:21972</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>动态:9492,动态:16914,动态:22042,动态:20546,动态:14630,动态:19416,动态:9798,动态:13408,动态:11566,动态:22323,动态:18678,动态:12070,动态:20666,动态:21194,动态:3166,动态:4304,动态:16929,动态:10570,动态:22659,动态:20720,动态:21745,动态:21776,动态:22512,动态:21737,动态:21740,动态:22688,动态:21763,动态:22680,动态:21727,动态:21757,动态:22685,动态:22692,动态:22684,动态:17337,动态:4036,动态:22696,动态:21857,动态:22699,动态:21972,动态:22706,动态:7746,动态:21556,动态:20440,动态:22710,动态:22019,动态:20364,动态:22146,动态:21780,动态:22698</t>
+          <t>动态:12364,动态:12901,动态:20520,动态:12558,动态:22495,动态:21854,动态:16582,动态:19095,动态:18378,动态:11512,动态:4483,动态:7122,动态:10567,动态:21654,动态:3172,动态:14203,动态:17504,动态:22710,动态:22696,动态:21756,动态:22706,动态:21757,动态:21857,动态:22702,动态:21745,动态:22667,动态:21727,动态:20364,动态:21740,动态:21753,动态:21763,动态:21780,动态:21972,动态:22680,动态:17337,动态:22699,动态:20399,动态:22512,动态:21556,动态:22697,动态:20720,动态:22659,动态:20439,动态:22684,动态:21737,动态:22698,动态:22692,动态:22323,动态:20440,动态:7746</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>动态:21201,动态:11487,动态:8764,动态:13297,动态:20075,动态:18983,动态:13370,动态:14434,动态:19018,动态:11340,动态:7105,动态:11554,动态:6893,动态:11154,动态:13469,动态:22697,动态:21780,动态:22685,动态:17337,动态:22323,动态:22706,动态:22512,动态:21745,动态:21727,动态:21972,动态:21556,动态:22699,动态:22659,动态:20439,动态:20440,动态:22680,动态:20720,动态:22698,动态:22688,动态:21776,动态:4036,动态:7746,动态:21753,动态:21857,动态:22667,动态:21737,动态:22702,动态:20399,动态:21436,动态:22507,动态:22684,动态:21763,动态:22146,动态:22692,动态:20364</t>
+          <t>动态:20169,动态:15759,动态:17078,动态:8629,动态:16315,动态:19611,动态:11104,动态:21589,动态:15974,动态:11125,动态:17289,动态:16064,动态:16277,动态:10845,动态:22702,动态:21737,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:22699,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>动态:17193,动态:12362,动态:7679,动态:10474,动态:22488,动态:11574,动态:13861,动态:20544,动态:21054,动态:8915,动态:12292,动态:20831,动态:8160,动态:7517,动态:20052,动态:676,动态:7746,动态:6522,动态:18322,动态:22699,动态:21756,动态:20440,动态:22680,动态:22667,动态:21776,动态:21737,动态:21727,动态:22146,动态:22698,动态:17337,动态:22710,动态:22696,动态:21975,动态:22706,动态:21780,动态:22692,动态:22684,动态:21740,动态:21757,动态:20364,动态:22323,动态:20399,动态:21745,动态:21763,动态:22019,动态:21436,动态:20439,动态:21556,动态:20720</t>
+          <t>动态:7159,动态:9552,动态:13971,动态:15285,动态:18619,动态:6820,动态:20460,动态:13317,动态:11678,动态:16607,动态:15795,动态:2269,动态:10927,动态:11758,动态:21249,动态:11293,动态:15984,动态:9766,动态:3107,动态:20720,动态:20364,动态:22323,动态:21757,动态:21436,动态:20440,动态:22684,动态:21741,动态:21857,动态:21756,动态:20439,动态:22699,动态:22696,动态:22688,动态:22698,动态:21556,动态:22019,动态:21740,动态:21780,动态:4036,动态:22667,动态:22685,动态:22710,动态:22146,动态:22512,动态:22697,动态:20399,动态:21776,动态:22659,动态:21753,动态:21727</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>动态:18165,动态:10976,动态:19182,动态:15596,动态:11474,动态:9478,动态:7150,动态:20112,动态:13907,动态:10698,动态:15684,动态:10937,动态:14802,动态:11289,动态:12304,动态:11394,动态:6853,动态:13631,动态:8176,动态:6626,动态:12293,动态:9183,动态:21785,动态:21556,动态:21975,动态:20440,动态:21737,动态:22688,动态:22680,动态:22512,动态:21763,动态:21757,动态:22019,动态:21740,动态:22685,动态:21756,动态:4036,动态:21741,动态:21745,动态:22659,动态:7746,动态:22146,动态:22699,动态:21776,动态:22507,动态:22706,动态:20720,动态:21727,动态:22702,动态:21857</t>
+          <t>动态:7529,动态:18677,动态:13801,动态:11070,动态:14006,动态:14791,动态:22702,动态:6889,动态:17228,动态:5558,动态:13832,动态:16199,动态:10959,动态:20663,动态:15916,动态:16077,动态:14653,动态:17957,动态:21231,动态:19481,动态:15698,动态:6581,动态:12896,动态:22659,动态:22684,动态:21972,动态:22696,动态:21436,动态:21780,动态:22146,动态:21857,动态:22512,动态:21556,动态:21740,动态:21745,动态:22667,动态:22706,动态:22698,动态:22710,动态:22699,动态:21756,动态:22692,动态:21727,动态:20720,动态:22688,动态:22323,动态:22507,动态:20440,动态:20439</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>动态:17130,动态:18600,动态:13697,动态:19271,动态:21526,动态:8746,动态:15711,动态:16613,动态:13727,动态:10566,动态:14947,动态:20755,动态:17537,动态:12891,动态:22659,动态:8831,动态:16315,动态:16417,动态:11583,动态:17122,动态:20105,动态:16493,动态:14053,动态:7746,动态:20399,动态:21763,动态:22667,动态:22696,动态:21857,动态:21740,动态:22323,动态:21436,动态:22512,动态:22507,动态:21745,动态:22710,动态:22684,动态:21972,动态:21556,动态:21737,动态:22699,动态:20720,动态:20439,动态:21780,动态:22680,动态:22146,动态:22698,动态:20440,动态:22685</t>
+          <t>动态:3814,动态:1340,动态:19384,动态:3120,动态:11363,动态:19809,动态:20771,动态:8174,动态:20546,动态:20300,动态:14689,动态:20530,动态:241,动态:17728,动态:7976,动态:15789,动态:22697,动态:21857,动态:21753,动态:22696,动态:20440,动态:21763,动态:22512,动态:22702,动态:22706,动态:17337,动态:21757,动态:22688,动态:22323,动态:22667,动态:21737,动态:21436,动态:21727,动态:21975,动态:7746,动态:22659,动态:20364,动态:21556,动态:21972,动态:22685,动态:22507,动态:21780,动态:22680,动态:20720,动态:4036,动态:21745,动态:20439,动态:22710,动态:22019,动态:22146</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>动态:11642,动态:6654,动态:11724,动态:16568,动态:4528,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:19727,动态:14805,动态:11558,动态:19212,动态:21741,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>动态:14878,动态:19401,动态:14282,动态:11758,动态:19453,动态:19487,动态:13378,动态:15545,动态:6643,动态:20741,动态:12334,动态:18000,动态:18557,动态:13453,动态:20459,动态:20518,动态:12842,动态:9158,动态:6867,动态:20399,动态:22512,动态:7746,动态:22507,动态:22702,动态:21757,动态:22688,动态:22667,动态:21740,动态:21756,动态:22696,动态:20720,动态:21857,动态:21975,动态:22019,动态:21745,动态:21556,动态:20364,动态:21753,动态:22710,动态:21436,动态:22685,动态:21763,动态:21727,动态:21741,动态:22697,动态:22684,动态:22692,动态:21776,动态:22323,动态:22706</t>
+          <t>动态:12080,动态:19826,动态:7815,动态:8969,动态:19266,动态:20267,动态:11948,动态:6595,动态:17634,动态:11811,动态:720,动态:13791,动态:21112,动态:13218,动态:12332,动态:18668,动态:18953,动态:10182,动态:12920,动态:22507,动态:22706,动态:22323,动态:20439,动态:22699,动态:22697,动态:21776,动态:7746,动态:21757,动态:20720,动态:21975,动态:21745,动态:22710,动态:21741,动态:21727,动态:22667,动态:22680,动态:21972,动态:20440,动态:22698,动态:20364,动态:21740,动态:22696,动态:4036,动态:22019,动态:17337,动态:22692,动态:22684,动态:21737,动态:22512,动态:22688</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>动态:17909,动态:20254,动态:16380,动态:20376,动态:11771,动态:13214,动态:11643,动态:9768,动态:19291,动态:13315,动态:15669,动态:21763,动态:22698,动态:22688,动态:21737,动态:22692,动态:20720,动态:22696,动态:7746,动态:22697,动态:21780,动态:21556,动态:21727,动态:22019,动态:20399,动态:21972,动态:22507,动态:21740,动态:22684,动态:22323,动态:17337,动态:22146,动态:21756,动态:22512,动态:21741,动态:21975,动态:21776,动态:20364,动态:22706,动态:20439,动态:20440,动态:21436,动态:22710,动态:22659,动态:22667,动态:21857,动态:22685,动态:22680,动态:21757,动态:4036</t>
+          <t>动态:11679,动态:19702,动态:13317,动态:12082,动态:17843,动态:720,动态:6913,动态:13878,动态:6472,动态:22126,动态:11045,动态:21406,动态:11192,动态:21249,动态:6786,动态:17954,动态:17108,动态:6752,动态:20139,动态:9986,动态:22659,动态:22323,动态:20720,动态:22512,动态:21436,动态:7746,动态:20439,动态:21972,动态:21763,动态:21745,动态:21727,动态:20440,动态:22667,动态:22685,动态:22706,动态:20364,动态:22684,动态:21780,动态:20399,动态:22692,动态:22710,动态:21741,动态:22699,动态:22680,动态:21556,动态:22698,动态:22697,动态:21737,动态:21757,动态:21756</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>动态:15612,动态:11444,动态:11113,动态:16026,动态:11067,动态:16819,动态:9001,动态:13402,动态:8619,动态:15671,动态:6545,动态:5829,动态:6848,动态:20997,动态:12338,动态:6546,动态:13795,动态:17697,动态:7748,动态:12357,动态:16289,动态:19970,动态:10241,动态:7045,动态:5779,动态:15970,动态:18372,动态:13328,动态:12309,动态:10223,动态:5877,动态:7408,动态:21359,动态:6134,动态:13376,动态:21741,动态:13797,动态:11417,动态:18356,动态:13200,动态:11293,动态:15982,动态:17728,动态:16325,动态:16277,动态:22512,动态:21745,动态:22684,动态:12382,动态:20364</t>
+          <t>动态:19473,动态:17318,动态:10118,动态:4205,动态:7062,动态:6848,动态:17246,动态:19457,动态:13409,动态:12888,动态:19233,动态:18314,动态:11782,动态:14667,动态:13323,动态:15957,动态:4180,动态:7129,动态:20093,动态:17120,动态:18490,动态:18317,动态:15095,动态:20398,动态:17113,动态:13970,动态:5112,动态:4632,动态:6579,动态:3874,动态:10083,动态:4341,动态:17691,动态:11265,动态:20065,动态:9986,动态:5901,动态:18874,动态:11411,动态:11137,动态:7387,动态:19256,动态:20364,动态:5603,动态:13789,动态:21757,动态:7970,动态:19816,动态:22680,动态:17337</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>动态:22287,动态:17077,动态:11167,动态:16719,动态:15868,动态:11552,动态:22503,动态:5208,动态:12369,动态:13332,动态:1360,动态:20456,动态:22625,动态:11384,动态:9118,动态:9155,动态:6826,动态:15134,动态:14410,动态:11132,动态:6454,动态:10482,动态:21741,动态:22684,动态:21776,动态:22680,动态:20720,动态:21780,动态:21740,动态:7746,动态:20439,动态:21556,动态:22659,动态:22688,动态:22667,动态:22323,动态:21756,动态:22696,动态:20399,动态:22685,动态:22706,动态:21753,动态:4036,动态:21757,动态:20364,动态:21436,动态:22512,动态:21727,动态:21975,动态:22692</t>
+          <t>动态:14132,动态:7678,动态:19623,动态:16463,动态:21854,动态:19417,动态:22074,动态:17174,动态:6625,动态:12614,动态:8788,动态:16568,动态:17903,动态:11270,动态:13296,动态:14601,动态:17953,动态:20019,动态:16412,动态:7607,动态:16972,动态:6192,动态:14229,动态:21753,动态:22697,动态:21757,动态:20439,动态:21436,动态:21741,动态:22512,动态:22688,动态:4036,动态:21857,动态:22699,动态:22698,动态:22692,动态:22659,动态:20440,动态:21975,动态:22706,动态:21745,动态:21556,动态:21727,动态:22680,动态:7746,动态:20399,动态:20364,动态:22507,动态:22667,动态:22019</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>动态:22091,动态:11618,动态:17184,动态:14603,动态:22381,动态:13146,动态:11029,动态:12417,动态:7526,动态:17749,动态:20840,动态:17742,动态:19577,动态:16075,动态:18733,动态:12059,动态:14721,动态:13637,动态:19765,动态:7397,动态:16385,动态:21757,动态:21745,动态:22667,动态:20364,动态:22659,动态:21753,动态:22685,动态:22706,动态:21857,动态:21740,动态:21741,动态:20439,动态:17337,动态:21556,动态:20440,动态:21975,动态:22702,动态:22697,动态:22699,动态:21737,动态:22698,动态:22512,动态:22323,动态:21436,动态:22688,动态:7746,动态:20720,动态:22710,动态:22696</t>
+          <t>动态:13510,动态:14689,动态:687,动态:11162,动态:16717,动态:13559,动态:10566,动态:17122,动态:17326,动态:16269,动态:20710,动态:13788,动态:21946,动态:10690,动态:12904,动态:11835,动态:15627,动态:14229,动态:148,动态:9415,动态:21776,动态:21556,动态:21975,动态:22710,动态:22685,动态:22667,动态:17337,动态:22019,动态:22659,动态:21740,动态:22507,动态:20364,动态:20720,动态:20440,动态:22692,动态:21857,动态:20399,动态:22688,动态:21727,动态:20439,动态:4036,动态:22696,动态:21780,动态:21757,动态:21745,动态:21972,动态:22323,动态:7746,动态:21436,动态:22706</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>动态:13556,动态:20858,动态:15480,动态:7532,动态:12384,动态:14686,动态:22283,动态:14630,动态:15692,动态:12567,动态:12231,动态:9512,动态:12730,动态:11714,动态:13479,动态:8997,动态:12893,动态:15157,动态:22160,动态:18667,动态:10942,动态:6786,动态:11863,动态:18467,动态:20452,动态:15533,动态:12890,动态:15919,动态:15867,动态:9133,动态:18110,动态:8799,动态:18281,动态:14728,动态:11110,动态:12052,动态:9027,动态:14464,动态:241,动态:17564,动态:17856,动态:7598,动态:20926,动态:18694,动态:20376,动态:22659,动态:21972,动态:22688,动态:20710,动态:13466</t>
+          <t>动态:11596,动态:21106,动态:11305,动态:13146,动态:14319,动态:13411,动态:17471,动态:12736,动态:12984,动态:17750,动态:8014,动态:12766,动态:11390,动态:16238,动态:10973,动态:22244,动态:9027,动态:19611,动态:10927,动态:6455,动态:11790,动态:20107,动态:22126,动态:16368,动态:9482,动态:13862,动态:22075,动态:19893,动态:18168,动态:18733,动态:15242,动态:6766,动态:16603,动态:21939,动态:8515,动态:20864,动态:13919,动态:14703,动态:21583,动态:19655,动态:9584,动态:12362,动态:19487,动态:12667,动态:13201,动态:11728,动态:9492,动态:21556,动态:21857,动态:6820</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>动态:734,动态:15211,动态:19581,动态:11112,动态:18459,动态:21194,动态:15755,动态:3078,动态:18947,动态:10070,动态:11488,动态:8852,动态:14728,动态:20083,动态:21785,动态:20930,动态:21753,动态:21727,动态:21780,动态:21975,动态:21745,动态:4036,动态:22699,动态:21757,动态:22512,动态:21740,动态:21763,动态:22680,动态:22698,动态:22019,动态:22146,动态:20440,动态:22697,动态:22702,动态:17337,动态:22684,动态:21972,动态:7746,动态:21857,动态:21737,动态:22710,动态:22667,动态:21776,动态:22696,动态:22685,动态:22507,动态:22323,动态:22692,动态:22706,动态:21556</t>
+          <t>动态:22436,动态:19644,动态:6545,动态:21095,动态:17573,动态:16766,动态:12836,动态:12391,动态:22123,动态:237,动态:15181,动态:18341,动态:16676,动态:17691,动态:22692,动态:22698,动态:22685,动态:21741,动态:22512,动态:21975,动态:21972,动态:20364,动态:22706,动态:20439,动态:22696,动态:22699,动态:21556,动态:20440,动态:21780,动态:22323,动态:22667,动态:22702,动态:22710,动态:22697,动态:17337,动态:21745,动态:21740,动态:21436,动态:21737,动态:22146,动态:22688,动态:22019,动态:22507,动态:21727,动态:20399,动态:21857,动态:7746,动态:22684,动态:21776,动态:4036</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>动态:4625,动态:8270,动态:4969,动态:17557,动态:6447,动态:3073,动态:11002,动态:6901,动态:4036,动态:6916,动态:21780,动态:3166,动态:4031,动态:12300,动态:3897,动态:7789,动态:18281,动态:22699,动态:621,动态:3174,动态:16721,动态:20516,动态:7383,动态:7186,动态:21118,动态:12293,动态:6252,动态:3076,动态:21970,动态:3162,动态:22696,动态:3979,动态:15284,动态:16719,动态:3107,动态:8515,动态:21470,动态:7464,动态:20525,动态:3104,动态:6325,动态:3796,动态:20364,动态:22684,动态:21740,动态:21753,动态:21756,动态:22685,动态:21776</t>
+          <t>动态:4345,动态:19092,动态:769,动态:13818,动态:4421,动态:12252,动态:6252,动态:7789,动态:22699,动态:3162,动态:9418,动态:18070,动态:3107,动态:4036,动态:6901,动态:16721,动态:13058,动态:3174,动态:3897,动态:7186,动态:21780,动态:3979,动态:6913,动态:15589,动态:3796,动态:3166,动态:3076,动态:7464,动态:3073,动态:4031,动态:22696,动态:20525,动态:20516,动态:6325,动态:21970,动态:621,动态:6447,动态:6916,动态:7383,动态:21470,动态:3104,动态:16269,动态:11331,动态:20399,动态:22688,动态:22702,动态:22507,动态:21436,动态:22680</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>动态:7384,动态:9278,动态:18491,动态:17228,动态:18317,动态:7305,动态:4815,动态:4632,动态:9139,动态:13143,动态:15203,动态:19271,动态:4483,动态:15558,动态:21857,动态:20364,动态:21753,动态:21763,动态:22684,动态:22692,动态:21727,动态:21756,动态:22710,动态:22698,动态:22680,动态:22659,动态:21972,动态:21737,动态:21741,动态:21436,动态:22512,动态:7746,动态:22706,动态:22667,动态:22019,动态:21975,动态:21757,动态:4036,动态:21776,动态:20399,动态:22507,动态:20720,动态:21780,动态:22702,动态:20440,动态:22688,动态:17337,动态:21556,动态:22323,动态:22685</t>
+          <t>动态:13040,动态:13302,动态:6581,动态:15222,动态:13864,动态:18238,动态:20617,动态:12798,动态:20064,动态:9078,动态:21103,动态:21497,动态:11351,动态:11678,动态:13317,动态:8935,动态:21501,动态:17200,动态:16336,动态:14456,动态:13708,动态:15862,动态:18796,动态:7526,动态:22680,动态:22688,动态:4036,动态:17337,动态:21757,动态:21436,动态:22696,动态:20440,动态:22146,动态:22667,动态:20399,动态:21975,动态:21857,动态:21972,动态:21763,动态:20439,动态:7746,动态:20364,动态:22512,动态:22706,动态:22698,动态:22702,动态:21780,动态:22710,动态:22699,动态:21756</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>动态:15624,动态:20064,动态:13548,动态:10923,动态:6610,动态:19834,动态:13289,动态:8819,动态:21857,动态:19036,动态:14675,动态:14683,动态:11996,动态:15950,动态:16571,动态:19653,动态:11452,动态:16609,动态:16389,动态:19727,动态:13814,动态:13917,动态:16110,动态:14900,动态:972,动态:9525,动态:10535,动态:15318,动态:21692,动态:16077,动态:13756,动态:17963,动态:13832,动态:21923,动态:14217,动态:12052,动态:11110,动态:16392,动态:13740,动态:19959,动态:20169,动态:17546,动态:22288,动态:15384,动态:11338,动态:11104,动态:21857,动态:20333,动态:16166,动态:21757</t>
+          <t>动态:19935,动态:12711,动态:11167,动态:13637,动态:22545,动态:21340,动态:19607,动态:16793,动态:21293,动态:9311,动态:16380,动态:18567,动态:12123,动态:9344,动态:18034,动态:17531,动态:15291,动态:19815,动态:12567,动态:15318,动态:11562,动态:7038,动态:9688,动态:10998,动态:15188,动态:9482,动态:20519,动态:15432,动态:13133,动态:6655,动态:12392,动态:14417,动态:6606,动态:20316,动态:13621,动态:21317,动态:13863,动态:10516,动态:13286,动态:14331,动态:14695,动态:19420,动态:8474,动态:4042,动态:20854,动态:18088,动态:11609,动态:15236,动态:22667,动态:21737</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>动态:18933,动态:14675,动态:15291,动态:18506,动态:13129,动态:8573,动态:17755,动态:20451,动态:19577,动态:9148,动态:16857,动态:14967,动态:15638,动态:12962,动态:20664,动态:20345,动态:19908,动态:7740,动态:20016,动态:6794,动态:10684,动态:6362,动态:13802,动态:16617,动态:21357,动态:22323,动态:21753,动态:7746,动态:20439,动态:21857,动态:22698,动态:17337,动态:21436,动态:22667,动态:20399,动态:20440,动态:22706,动态:22685,动态:21756,动态:22688,动态:20720,动态:22680,动态:22659,动态:21556,动态:4036,动态:22512,动态:20364,动态:22019,动态:22146,动态:21727</t>
+          <t>动态:7391,动态:16676,动态:22658,动态:8569,动态:19646,动态:9409,动态:20505,动态:13129,动态:15142,动态:17727,动态:20527,动态:12059,动态:16077,动态:22110,动态:15540,动态:14221,动态:18750,动态:11779,动态:21753,动态:22706,动态:21756,动态:20720,动态:21737,动态:21727,动态:22323,动态:22507,动态:22019,动态:22702,动态:20399,动态:20364,动态:21740,动态:22659,动态:20440,动态:22698,动态:22699,动态:22692,动态:22688,动态:17337,动态:22512,动态:22680,动态:21776,动态:21436,动态:22146,动态:21745,动态:22667,动态:21556,动态:21857,动态:7746,动态:22696,动态:20439</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>动态:685,动态:13689,动态:9795,动态:15999,动态:18331,动态:14410,动态:17625,动态:6755,动态:3714,动态:13794,动态:14356,动态:19541,动态:14111,动态:15957,动态:17265,动态:12899,动态:13775,动态:9049,动态:22696,动态:21737,动态:22685,动态:20440,动态:21727,动态:22680,动态:22697,动态:21753,动态:22684,动态:21740,动态:21780,动态:21556,动态:22702,动态:22698,动态:21436,动态:21741,动态:22659,动态:7746,动态:22512,动态:22507,动态:22323,动态:21757,动态:20399,动态:22688,动态:22146,动态:22706,动态:21857,动态:21975,动态:4036,动态:22699,动态:22692,动态:17337</t>
+          <t>动态:20200,动态:20319,动态:17246,动态:6889,动态:11534,动态:19607,动态:14273,动态:19653,动态:11170,动态:11011,动态:6908,动态:9554,动态:11259,动态:11492,动态:20005,动态:20853,动态:11269,动态:13039,动态:19893,动态:21975,动态:21857,动态:20720,动态:22684,动态:21741,动态:20399,动态:21780,动态:22692,动态:21763,动态:22507,动态:21745,动态:22323,动态:22696,动态:21776,动态:22702,动态:21556,动态:22710,动态:22680,动态:22698,动态:4036,动态:21740,动态:20440,动态:22706,动态:21727,动态:21436,动态:22659,动态:21737,动态:22667,动态:22697,动态:20439,动态:21753</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>动态:9132,动态:11031,动态:10375,动态:19401,动态:19464,动态:11437,动态:15538,动态:20063,动态:14319,动态:14878,动态:19177,动态:13338,动态:7976,动态:14800,动态:19908,动态:12382,动态:17501,动态:18359,动态:22146,动态:21763,动态:21857,动态:22512,动态:22323,动态:21972,动态:7746,动态:21780,动态:22692,动态:20720,动态:21776,动态:22696,动态:21975,动态:21756,动态:22699,动态:21727,动态:22507,动态:21436,动态:22019,动态:22697,动态:20399,动态:22680,动态:22688,动态:20440,动态:22698,动态:20364,动态:21740,动态:22710,动态:20439,动态:21737,动态:22659,动态:21745</t>
+          <t>动态:10360,动态:11184,动态:1364,动态:20374,动态:15743,动态:22633,动态:19186,动态:11215,动态:15059,动态:12276,动态:10073,动态:19144,动态:22625,动态:14017,动态:15749,动态:11384,动态:20114,动态:783,动态:7110,动态:11113,动态:22684,动态:21436,动态:22146,动态:22706,动态:22698,动态:21556,动态:22659,动态:22697,动态:20440,动态:22685,动态:21753,动态:21780,动态:22323,动态:20399,动态:21756,动态:22692,动态:7746,动态:22710,动态:21857,动态:22702,动态:21745,动态:22507,动态:21776,动态:22688,动态:4036,动态:20439,动态:21741,动态:22512,动态:22680,动态:21757</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>动态:13878,动态:16268,动态:15238,动态:13698,动态:18057,动态:21084,动态:22498,动态:14603,动态:11584,动态:18883,动态:7049,动态:15093,动态:6848,动态:21975,动态:22692,动态:22688,动态:21972,动态:21737,动态:22512,动态:22685,动态:4036,动态:22019,动态:21727,动态:21757,动态:22698,动态:22696,动态:22684,动态:21756,动态:7746,动态:22323,动态:20720,动态:21780,动态:20439,动态:22710,动态:22702,动态:20399,动态:22699,动态:22507,动态:21556,动态:22659,动态:22697,动态:20440,动态:21436,动态:21741,动态:20364,动态:21763,动态:21740,动态:22146,动态:22667,动态:21745</t>
+          <t>动态:11596,动态:15280,动态:13062,动态:22374,动态:16600,动态:16315,动态:16075,动态:15752,动态:20837,动态:11390,动态:18744,动态:12353,动态:21005,动态:12066,动态:4522,动态:21741,动态:22696,动态:22697,动态:22667,动态:22507,动态:21776,动态:21972,动态:17337,动态:22702,动态:22685,动态:22710,动态:21556,动态:22512,动态:20439,动态:22699,动态:20440,动态:22692,动态:22684,动态:21756,动态:22688,动态:21740,动态:21727,动态:21780,动态:22698,动态:20399,动态:7746,动态:4036,动态:22323,动态:21753,动态:21763,动态:22659,动态:20364,动态:21975,动态:22019,动态:20720</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>动态:11583,动态:20479,动态:14354,动态:5574,动态:1271,动态:19230,动态:19453,动态:18509,动态:20439,动态:6595,动态:9234,动态:13218,动态:8167,动态:15681,动态:17512,动态:10604,动态:18466,动态:20184,动态:4432,动态:13319,动态:22323,动态:21727,动态:21763,动态:22680,动态:22019,动态:22697,动态:21780,动态:22659,动态:21745,动态:22685,动态:21436,动态:4036,动态:22684,动态:22696,动态:22706,动态:21975,动态:21776,动态:17337,动态:22507,动态:21556,动态:21757,动态:22698,动态:21972,动态:7746,动态:20364,动态:22667,动态:21857,动态:21737,动态:22692</t>
+          <t>动态:13937,动态:19769,动态:12429,动态:17541,动态:10213,动态:11985,动态:21847,动态:19554,动态:11179,动态:11331,动态:17557,动态:10929,动态:21939,动态:12871,动态:17777,动态:12422,动态:9025,动态:17546,动态:5901,动态:11055,动态:10272,动态:18158,动态:3076,动态:3796,动态:4031,动态:21740,动态:21757,动态:22710,动态:22146,动态:20440,动态:21857,动态:21741,动态:22512,动态:22685,动态:22667,动态:21780,动态:22697,动态:21737,动态:21972,动态:21776,动态:22019,动态:21556,动态:22702,动态:22659,动态:22688,动态:7746,动态:22323,动态:21745,动态:20399,动态:20439</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>动态:13545,动态:15637,动态:22088,动态:21364,动态:13187,动态:14890,动态:6692,动态:17970,动态:11521,动态:19624,动态:9093,动态:7125,动态:20244,动态:14040,动态:11406,动态:12057,动态:9232,动态:19494,动态:3150,动态:6773,动态:7383,动态:21753,动态:21741,动态:22667,动态:21763,动态:20364,动态:21740,动态:21975,动态:21436,动态:17337,动态:22698,动态:21857,动态:21780,动态:21972,动态:21776,动态:21737,动态:22692,动态:22688,动态:22659,动态:22702,动态:20439,动态:22710,动态:21727,动态:21757,动态:22323,动态:22699,动态:22697,动态:21756,动态:22706,动态:20399</t>
+          <t>动态:18055,动态:11081,动态:16613,动态:22413,动态:11179,动态:10526,动态:11101,动态:19427,动态:14750,动态:20459,动态:11325,动态:15565,动态:9898,动态:20458,动态:16910,动态:16312,动态:18776,动态:19815,动态:11034,动态:6470,动态:19743,动态:22688,动态:22512,动态:21857,动态:22323,动态:21763,动态:21753,动态:21741,动态:21727,动态:4036,动态:22710,动态:20364,动态:21756,动态:21975,动态:21436,动态:22699,动态:22659,动态:22507,动态:21745,动态:22146,动态:21556,动态:22684,动态:22019,动态:21776,动态:20720,动态:20440,动态:21740,动态:22680,动态:22697,动态:22698</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>动态:14707,动态:12156,动态:13844,动态:18637,动态:13416,动态:5254,动态:11427,动态:10970,动态:20127,动态:6652,动态:11285,动态:19643,动态:12075,动态:12319,动态:22699,动态:22684,动态:21727,动态:20399,动态:22698,动态:22688,动态:22659,动态:21857,动态:22019,动态:20439,动态:20364,动态:22512,动态:21740,动态:21753,动态:22323,动态:22710,动态:21745,动态:21556,动态:17337,动态:22692,动态:22507,动态:20440,动态:21756,动态:21780,动态:7746,动态:21737,动态:21436,动态:21975,动态:22702,动态:4036,动态:22667,动态:20720,动态:21763,动态:21757,动态:22697,动态:21741</t>
+          <t>动态:14305,动态:21126,动态:6606,动态:18744,动态:11192,动态:21180,动态:17950,动态:19941,动态:12070,动态:13872,动态:11320,动态:12380,动态:9428,动态:16609,动态:18849,动态:11290,动态:7586,动态:13123,动态:5023,动态:5830,动态:6773,动态:20364,动态:22697,动态:22710,动态:22688,动态:21756,动态:20720,动态:22507,动态:22512,动态:21975,动态:22680,动态:21741,动态:22667,动态:20439,动态:21436,动态:22659,动态:21740,动态:21753,动态:20440,动态:22684,动态:21727,动态:22685,动态:22323,动态:22696,动态:21780,动态:21757,动态:22699,动态:20399,动态:7746,动态:22702</t>
         </is>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>动态:17126,动态:10095,动态:12836,动态:21406,动态:18224,动态:21155,动态:10596,动态:18331,动态:17341,动态:17172,动态:15814,动态:13690,动态:18898,动态:11897,动态:6462,动态:11040,动态:22644,动态:16645,动态:21118,动态:14723,动态:10566,动态:16238,动态:4036,动态:21745,动态:22680,动态:20720,动态:22507,动态:21763,动态:22706,动态:22696,动态:22019,动态:21741,动态:21757,动态:20440,动态:22659,动态:22684,动态:22698,动态:21740,动态:20399,动态:17337,动态:21753,动态:21737,动态:22710,动态:21556,动态:22667,动态:21756,动态:21727,动态:22685,动态:22702,动态:21857</t>
+          <t>动态:11771,动态:16308,动态:15006,动态:5385,动态:10566,动态:14947,动态:19457,动态:18362,动态:19496,动态:14204,动态:12017,动态:22685,动态:21763,动态:21556,动态:22706,动态:22512,动态:21727,动态:22507,动态:21737,动态:22684,动态:22702,动态:22323,动态:22659,动态:22696,动态:22710,动态:21741,动态:22146,动态:22688,动态:21972,动态:20440,动态:21740,动态:21745,动态:4036,动态:17337,动态:7746,动态:21756,动态:21753,动态:21975,动态:22699,动态:22697,动态:20399,动态:22667,动态:21780,动态:21436,动态:22698,动态:22019,动态:21857,动态:20364,动态:22680,动态:20439</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>动态:11280,动态:10122,动态:14297,动态:15322,动态:21526,动态:11014,动态:20686,动态:10360,动态:14735,动态:10980,动态:16070,动态:20908,动态:19937,动态:15815,动态:20387,动态:18792,动态:19144,动态:18590,动态:18059,动态:6447,动态:16819,动态:16412,动态:3073,动态:14271,动态:15620,动态:676,动态:11066,动态:17721,动态:21740,动态:22667,动态:22696,动态:22699,动态:22512,动态:21741,动态:22146,动态:21745,动态:22659,动态:22507,动态:22706,动态:22323,动态:21780,动态:22019,动态:20399,动态:21737,动态:21776,动态:21436,动态:17337,动态:22692,动态:21727,动态:21753</t>
+          <t>动态:11116,动态:14630,动态:15953,动态:15099,动态:6642,动态:10779,动态:13863,动态:10969,动态:13093,动态:5400,动态:19203,动态:4180,动态:16866,动态:12252,动态:19743,动态:20440,动态:22507,动态:21737,动态:22667,动态:20364,动态:17337,动态:21745,动态:21727,动态:22697,动态:22019,动态:22698,动态:21556,动态:21741,动态:21740,动态:4036,动态:21776,动态:22512,动态:20720,动态:22692,动态:20439,动态:22684,动态:21780,动态:22699,动态:22685,动态:21753,动态:22659,动态:7746,动态:22146,动态:22323,动态:22710,动态:21436,动态:22696,动态:20399,动态:21857,动态:21972</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>动态:19028,动态:15484,动态:15479,动态:15002,动态:13067,动态:15201,动态:17504,动态:14601,动态:20227,动态:16580,动态:14120,动态:18874,动态:13064,动态:21741,动态:22659,动态:20439,动态:22710,动态:22699,动态:21737,动态:22685,动态:20399,动态:4036,动态:21727,动态:22512,动态:21763,动态:22146,动态:20440,动态:7746,动态:21756,动态:22507,动态:22680,动态:21556,动态:20364,动态:21757,动态:22697,动态:22323,动态:22706,动态:22698,动态:20720,动态:21975,动态:22696,动态:21780,动态:22667,动态:21857,动态:21972,动态:22019,动态:22684,动态:17337,动态:21436,动态:21753</t>
+          <t>动态:19825,动态:20008,动态:8512,动态:8140,动态:10567,动态:21444,动态:15719,动态:19384,动态:8494,动态:13943,动态:13158,动态:12840,动态:16109,动态:22667,动态:21049,动态:21972,动态:21857,动态:7746,动态:21975,动态:21727,动态:22696,动态:20439,动态:22146,动态:21763,动态:22692,动态:21753,动态:21740,动态:21556,动态:20364,动态:21741,动态:21756,动态:22659,动态:22507,动态:22706,动态:21776,动态:22697,动态:22698,动态:22710,动态:21757,动态:22019,动态:20440,动态:17337,动态:21780,动态:4036,动态:22680,动态:20720,动态:21436,动态:22323</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>动态:7121,动态:16564,动态:18822,动态:15920,动态:21482,动态:21928,动态:15923,动态:14811,动态:784,动态:12083,动态:13639,动态:8631,动态:18167,动态:19970,动态:150,动态:22667,动态:20720,动态:22680,动态:7746,动态:22697,动态:21763,动态:22685,动态:22323,动态:20364,动态:17337,动态:22702,动态:22659,动态:22692,动态:21745,动态:20399,动态:21857,动态:21780,动态:20439,动态:21975,动态:22696,动态:21972,动态:22688,动态:22706,动态:22699,动态:22146,动态:21727,动态:22684,动态:21436,动态:4036,动态:21741,动态:21757,动态:21737,动态:21776,动态:21740,动态:20440</t>
+          <t>动态:18369,动态:14707,动态:16296,动态:16019,动态:13661,动态:12961,动态:8167,动态:19897,动态:9132,动态:21371,动态:9143,动态:13439,动态:20145,动态:11162,动态:20309,动态:9476,动态:6542,动态:10605,动态:20298,动态:12346,动态:9391,动态:21776,动态:21745,动态:20364,动态:22692,动态:21741,动态:22684,动态:22702,动态:21740,动态:21972,动态:7746,动态:22688,动态:20440,动态:22512,动态:22685,动态:22696,动态:20399,动态:21727,动态:21780,动态:22697,动态:4036,动态:22323,动态:21857,动态:22710,动态:21975,动态:22698,动态:21763,动态:22706,动态:21757,动态:20439</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>动态:13788,动态:11058,动态:12667,动态:6647,动态:10536,动态:9981,动态:22664,动态:20769,动态:15654,动态:14791,动态:20840,动态:11081,动态:12422,动态:15243,动态:12080,动态:16590,动态:13823,动态:13323,动态:17165,动态:16300,动态:621,动态:21556,动态:22512,动态:22684,动态:7746,动态:21756,动态:22146,动态:22698,动态:22659,动态:22692,动态:22323,动态:22680,动态:20720,动态:21753,动态:22710,动态:21727,动态:22696,动态:22699,动态:17337,动态:20439,动态:21436,动态:21972,动态:21757,动态:22706,动态:21745,动态:21737,动态:22702,动态:22507,动态:21776,动态:20399</t>
+          <t>动态:11524,动态:15663,动态:16086,动态:13142,动态:682,动态:17607,动态:13698,动态:17164,动态:17296,动态:15624,动态:20978,动态:14248,动态:14014,动态:7356,动态:5900,动态:13321,动态:14736,动态:18750,动态:22710,动态:22688,动态:20720,动态:21857,动态:22702,动态:22680,动态:22323,动态:22692,动态:21745,动态:22684,动态:22019,动态:22696,动态:22659,动态:21780,动态:22699,动态:20399,动态:22146,动态:22685,动态:20364,动态:4036,动态:21737,动态:21741,动态:17337,动态:21556,动态:22667,动态:7746,动态:21776,动态:22507,动态:22698,动态:22697,动态:21753,动态:21436</t>
         </is>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>动态:4040,动态:18246,动态:10107,动态:2707,动态:6452,动态:20686,动态:12718,动态:16097,动态:11748,动态:3120,动态:9535,动态:10452,动态:21858,动态:21648,动态:22684,动态:21740,动态:21757,动态:22692,动态:21745,动态:21972,动态:22323,动态:22146,动态:21975,动态:21776,动态:22697,动态:20439,动态:21727,动态:21556,动态:22706,动态:21857,动态:22512,动态:22696,动态:4036,动态:7746,动态:22685,动态:20440,动态:21436,动态:20720,动态:22667,动态:22688,动态:22702,动态:20364,动态:21763,动态:17337,动态:22659,动态:20399,动态:22699,动态:22698,动态:22019,动态:22507</t>
+          <t>动态:22346,动态:9025,动态:22685,动态:22254,动态:19425,动态:15650,动态:20274,动态:14330,动态:18339,动态:19878,动态:11948,动态:13958,动态:11167,动态:14801,动态:15984,动态:5877,动态:21858,动态:10581,动态:18273,动态:20399,动态:9130,动态:21727,动态:22696,动态:22146,动态:22507,动态:22702,动态:21975,动态:22323,动态:21763,动态:21857,动态:21436,动态:22692,动态:20440,动态:22688,动态:22684,动态:21776,动态:22019,动态:17337,动态:4036,动态:22512,动态:21780,动态:22699,动态:21737,动态:21745,动态:20364,动态:21556,动态:22698,动态:22710</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>动态:11024,动态:19096,动态:19401,动态:21467,动态:20858,动态:13516,动态:22427,动态:9138,动态:15291,动态:14345,动态:17972,动态:4044,动态:11620,动态:21459,动态:6186,动态:15483,动态:17696,动态:19436,动态:18341,动态:22685,动态:20440,动态:22706,动态:20399,动态:21776,动态:22684,动态:21975,动态:21857,动态:22659,动态:7746,动态:21556,动态:22699,动态:22697,动态:22667,动态:21436,动态:20720,动态:17337,动态:21745,动态:22688,动态:22710,动态:21727,动态:21741,动态:22696,动态:21757,动态:22507,动态:20439,动态:21737,动态:22146,动态:22702,动态:22512,动态:21763</t>
+          <t>动态:15113,动态:22160,动态:15090,动态:15541,动态:15624,动态:3099,动态:17951,动态:4813,动态:7400,动态:9286,动态:16967,动态:6916,动态:16819,动态:22507,动态:21780,动态:4036,动态:22698,动态:20364,动态:20720,动态:7746,动态:21975,动态:22699,动态:22692,动态:21757,动态:22702,动态:22697,动态:22685,动态:21763,动态:17337,动态:22019,动态:22684,动态:22667,动态:22512,动态:22696,动态:20439,动态:21436,动态:22688,动态:21741,动态:22659,动态:20440,动态:21776,动态:21753,动态:21740,动态:21737,动态:22710,动态:22706,动态:21857,动态:22680,动态:20399,动态:22146</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>动态:17769,动态:12844,动态:17972,动态:15948,动态:11167,动态:15190,动态:16602,动态:12080,动态:13794,动态:9785,动态:11748,动态:11469,动态:9986,动态:10570,动态:22688,动态:21745,动态:22680,动态:20364,动态:22698,动态:21975,动态:21776,动态:21740,动态:21436,动态:21972,动态:22710,动态:22323,动态:4036,动态:17337,动态:22507,动态:21763,动态:22696,动态:20439,动态:22667,动态:21727,动态:21757,动态:22685,动态:22692,动态:22697,动态:21857,动态:21780,动态:21737,动态:20720,动态:22699,动态:20440,动态:21753,动态:21741,动态:20399,动态:22512,动态:22659,动态:7746</t>
+          <t>动态:11014,动态:13911,动态:21106,动态:14463,动态:15827,动态:12842,动态:12009,动态:22295,动态:8920,动态:20531,动态:20503,动态:7710,动态:11684,动态:6192,动态:19231,动态:4175,动态:5151,动态:22699,动态:22507,动态:21975,动态:21757,动态:22702,动态:22659,动态:22710,动态:21727,动态:4036,动态:22697,动态:22684,动态:21753,动态:22680,动态:20439,动态:22698,动态:22323,动态:22688,动态:20720,动态:21763,动态:22512,动态:7746,动态:21436,动态:21740,动态:20364,动态:21857,动态:17337,动态:22706,动态:22692,动态:22685,动态:22696,动态:21737,动态:21741,动态:21972</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>动态:9413,动态:8014,动态:10966,动态:12898,动态:6553,动态:6611,动态:22076,动态:11728,动态:21589,动态:10125,动态:14957,动态:243,动态:21824,动态:11577,动态:11505,动态:16826,动态:20139,动态:15061,动态:17960,动态:22692,动态:21753,动态:22702,动态:21436,动态:22697,动态:17337,动态:21780,动态:21745,动态:22512,动态:21756,动态:7746,动态:22706,动态:21741,动态:22680,动态:22507,动态:20399,动态:21763,动态:22688,动态:20440,动态:20364,动态:21776,动态:22710,动态:21857,动态:21727,动态:21975,动态:21757,动态:21972,动态:22146,动态:22699,动态:22685,动态:21740</t>
+          <t>动态:13694,动态:13294,动态:8608,动态:3113,动态:13746,动态:21049,动态:19373,动态:17126,动态:13282,动态:17687,动态:14641,动态:17255,动态:10947,动态:14217,动态:21422,动态:19371,动态:21719,动态:11418,动态:6595,动态:18992,动态:13959,动态:15299,动态:12327,动态:15174,动态:18331,动态:9916,动态:6841,动态:13864,动态:17940,动态:22659,动态:22507,动态:21972,动态:22146,动态:21741,动态:20440,动态:4036,动态:21756,动态:21745,动态:21727,动态:22685,动态:22706,动态:21776,动态:21757,动态:22696,动态:22688,动态:17337,动态:20399,动态:22710,动态:22019,动态:21780</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>动态:11697,动态:17484,动态:9712,动态:18494,动态:14683,动态:10942,动态:13193,动态:15759,动态:10106,动态:16893,动态:14209,动态:4345,动态:22699,动态:6134,动态:11781,动态:17337,动态:21727,动态:22706,动态:21757,动态:20439,动态:22019,动态:22512,动态:21436,动态:20364,动态:22684,动态:4036,动态:21737,动态:22692,动态:21857,动态:22659,动态:21740,动态:22685,动态:20440,动态:22696,动态:22702,动态:22698,动态:21975,动态:22667,动态:22507,动态:22697,动态:21972,动态:21776,动态:7746,动态:22710,动态:21780,动态:21741,动态:20720,动态:21745,动态:22323</t>
+          <t>动态:14624,动态:8168,动态:6618,动态:20937,动态:15608,动态:20067,动态:19792,动态:15154,动态:17381,动态:20274,动态:11577,动态:7710,动态:16191,动态:13810,动态:15137,动态:8118,动态:3522,动态:21357,动态:18341,动态:3874,动态:17337,动态:21972,动态:4036,动态:21436,动态:21857,动态:22696,动态:22702,动态:22697,动态:21776,动态:22710,动态:22146,动态:7746,动态:20399,动态:20364,动态:22512,动态:20720,动态:22698,动态:21740,动态:21753,动态:22680,动态:22684,动态:22688,动态:21741,动态:22323,动态:22706,动态:22699,动态:21737,动态:22692,动态:20439,动态:22019</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>动态:12967,动态:22436,动态:15090,动态:19899,动态:10643,动态:12902,动态:6786,动态:239,动态:13268,动态:11437,动态:22123,动态:21235,动态:1914,动态:15200,动态:16388,动态:17903,动态:17522,动态:3104,动态:20143,动态:3897,动态:13380,动态:17957,动态:19457,动态:17337,动态:22710,动态:21776,动态:20399,动态:22697,动态:22696,动态:22699,动态:22146,动态:22019,动态:21737,动态:21727,动态:21740,动态:22685,动态:22706,动态:21556,动态:21780,动态:21972,动态:22680,动态:4036,动态:7746,动态:22692,动态:20440,动态:22702,动态:20364,动态:21745,动态:22512,动态:22667</t>
+          <t>动态:16594,动态:17848,动态:16111,动态:18868,动态:15200,动态:14206,动态:12614,动态:1245,动态:6586,动态:21315,动态:6679,动态:16614,动态:22498,动态:5385,动态:18844,动态:7472,动态:18874,动态:14006,动态:22507,动态:21972,动态:22659,动态:21740,动态:22710,动态:4036,动态:22323,动态:21776,动态:21727,动态:20440,动态:22667,动态:21975,动态:22698,动态:22706,动态:20439,动态:22702,动态:20399,动态:21436,动态:22699,动态:22512,动态:21757,动态:22688,动态:21741,动态:21780,动态:22696,动态:22684,动态:21857,动态:22697,动态:20720,动态:7746,动态:21556,动态:22146</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>动态:12382,动态:15059,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:8741,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>动态:16912,动态:16580,动态:10599,动态:6610,动态:11811,动态:13746,动态:14570,动态:6615,动态:9461,动态:9552,动态:21723,动态:11602,动态:20442,动态:22657,动态:12017,动态:19189,动态:21484,动态:4180,动态:13816,动态:4027,动态:6897,动态:20005,动态:21737,动态:20399,动态:21727,动态:21556,动态:22685,动态:21741,动态:21972,动态:22507,动态:21745,动态:22696,动态:7746,动态:17337,动态:21776,动态:22698,动态:21436,动态:22688,动态:21753,动态:22512,动态:21740,动态:22684,动态:22667,动态:21857,动态:20440,动态:22019,动态:22699,动态:22697,动态:21757,动态:21780</t>
+          <t>动态:11690,动态:17077,动态:10751,动态:21946,动态:11728,动态:10928,动态:13453,动态:12573,动态:21413,动态:17541,动态:241,动态:15521,动态:22664,动态:15596,动态:16478,动态:16277,动态:12062,动态:6838,动态:144,动态:7368,动态:7384,动态:16826,动态:21972,动态:21745,动态:22680,动态:22692,动态:22699,动态:21737,动态:22698,动态:21857,动态:22696,动态:21556,动态:22684,动态:21436,动态:20720,动态:22688,动态:21741,动态:20364,动态:21753,动态:21727,动态:4036,动态:7746,动态:22697,动态:21776,动态:22685,动态:20399,动态:22019,动态:22706,动态:22507,动态:20440</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>动态:14809,动态:11802,动态:13213,动态:15565,动态:21645,动态:17216,动态:11512,动态:18822,动态:16873,动态:6692,动态:13751,动态:8002,动态:13053,动态:17750,动态:20351,动态:20048,动态:19253,动态:15134,动态:6325,动态:10424,动态:1721,动态:5662,动态:16199,动态:19127,动态:21741,动态:22667,动态:20364,动态:22688,动态:22699,动态:22323,动态:22507,动态:21972,动态:22659,动态:22697,动态:22146,动态:21763,动态:22706,动态:22019,动态:20440,动态:21740,动态:21857,动态:21780,动态:22710,动态:22512,动态:4036,动态:22680,动态:22698,动态:20439,动态:21436,动态:21975</t>
+          <t>动态:17974,动态:17559,动态:15117,动态:10608,动态:12077,动态:18514,动态:12402,动态:15498,动态:4044,动态:22458,动态:14768,动态:9479,动态:14373,动态:20261,动态:13095,动态:14667,动态:3072,动态:7145,动态:7392,动态:12346,动态:10009,动态:22507,动态:22710,动态:21753,动态:22696,动态:20440,动态:20439,动态:22706,动态:22323,动态:21737,动态:22699,动态:20364,动态:22146,动态:21857,动态:21780,动态:21741,动态:22512,动态:22667,动态:21740,动态:21745,动态:7746,动态:21776,动态:17337,动态:21757,动态:22688,动态:22702,动态:20720,动态:21972,动态:22692,动态:21727</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>动态:2938,动态:16222,动态:19619,动态:21363,动态:6640,动态:20789,动态:21101,动态:12123,动态:15154,动态:19625,动态:11440,动态:20448,动态:18647,动态:14515,动态:22484,动态:20387,动态:20319,动态:10724,动态:7303,动态:14410,动态:845,动态:4304,动态:11488,动态:20344,动态:13309,动态:16858,动态:12592,动态:22667,动态:22680,动态:21972,动态:21741,动态:22146,动态:22507,动态:21757,动态:21727,动态:22697,动态:4036,动态:22710,动态:21756,动态:21776,动态:22019,动态:22706,动态:21780,动态:21556,动态:21740,动态:22698,动态:20399,动态:17337,动态:22512,动态:22685</t>
+          <t>动态:19825,动态:20168,动态:20836,动态:11633,动态:10264,动态:21002,动态:15773,动态:12377,动态:20947,动态:18677,动态:22697,动态:11191,动态:11443,动态:17574,动态:11285,动态:19937,动态:15384,动态:11895,动态:3153,动态:7150,动态:16428,动态:17337,动态:22512,动态:22698,动态:22659,动态:21972,动态:22684,动态:20720,动态:21436,动态:21975,动态:21745,动态:21857,动态:22680,动态:22146,动态:22696,动态:21757,动态:22019,动态:21727,动态:21753,动态:21556,动态:21763,动态:22710,动态:21756,动态:21741,动态:22692,动态:20439,动态:20399,动态:4036,动态:21776</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>动态:18168,动态:21854,动态:20734,动态:9214,动态:17755,动态:20268,动态:15711,动态:8002,动态:21022,动态:10754,动态:22311,动态:15151,动态:15935,动态:19751,动态:10490,动态:7025,动态:6894,动态:14502,动态:5149,动态:13790,动态:17501,动态:6500,动态:18376,动态:22699,动态:21776,动态:20440,动态:21763,动态:22706,动态:21857,动态:21727,动态:22507,动态:22697,动态:22692,动态:22688,动态:22323,动态:22685,动态:22512,动态:20439,动态:21757,动态:21556,动态:22146,动态:21780,动态:21975,动态:22702,动态:21740,动态:17337,动态:20364,动态:22696,动态:21741,动态:21753</t>
+          <t>动态:21824,动态:10217,动态:11467,动态:22702,动态:19878,动态:18369,动态:9311,动态:13559,动态:21537,动态:18567,动态:16530,动态:8852,动态:6831,动态:12974,动态:7105,动态:22638,动态:14510,动态:7978,动态:6865,动态:7049,动态:11113,动态:11030,动态:10241,动态:5149,动态:6580,动态:21727,动态:22146,动态:22659,动态:21741,动态:21972,动态:20399,动态:21776,动态:7746,动态:22692,动态:22507,动态:21975,动态:22696,动态:20364,动态:22323,动态:22685,动态:22706,动态:22512,动态:22667,动态:21740,动态:22698,动态:22019,动态:21780,动态:22710,动态:21763,动态:21753</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>动态:19809,动态:19883,动态:20669,动态:18527,动态:9788,动态:17537,动态:22381,动态:12011,动态:21049,动态:11093,动态:16571,动态:19486,动态:10475,动态:17694,动态:13134,动态:14426,动态:11885,动态:4419,动态:10567,动态:16261,动态:20439,动态:21776,动态:21556,动态:22667,动态:20720,动态:21753,动态:22706,动态:20440,动态:22684,动态:17337,动态:22692,动态:21757,动态:22146,动态:22680,动态:21740,动态:21857,动态:4036,动态:22688,动态:7746,动态:22699,动态:21975,动态:21972,动态:20399,动态:22507,动态:22710,动态:22698,动态:22659,动态:21763,动态:21780,动态:21741</t>
+          <t>动态:10995,动态:14844,动态:8831,动态:11944,动态:12018,动态:15173,动态:10962,动态:7354,动态:20654,动态:10724,动态:8969,动态:16660,动态:21881,动态:18985,动态:5255,动态:14768,动态:12269,动态:6186,动态:10570,动态:11264,动态:20328,动态:3081,动态:13413,动态:10958,动态:22507,动态:22699,动态:21741,动态:22702,动态:20440,动态:22696,动态:22667,动态:22692,动态:17337,动态:22710,动态:20364,动态:21975,动态:21972,动态:22685,动态:22684,动态:21757,动态:21727,动态:7746,动态:22659,动态:21780,动态:4036,动态:21753,动态:22697,动态:22698,动态:21776,动态:21556</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>动态:14241,动态:22702,动态:22710,动态:21737,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:10528,动态:10132,动态:6845,动态:11399,动态:22702,动态:22710,动态:21737,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>动态:17747,动态:10535,动态:14050,动态:12427,动态:6317,动态:13317,动态:10601,动态:11574,动态:12845,动态:13745,动态:22688,动态:12338,动态:21928,动态:12690,动态:13884,动态:19230,动态:9307,动态:8082,动态:20016,动态:8752,动态:13869,动态:1912,动态:19723,动态:14003,动态:3142,动态:11320,动态:14809,动态:16766,动态:13082,动态:21645,动态:22702,动态:21556,动态:21857,动态:21741,动态:21756,动态:22685,动态:21745,动态:21763,动态:4036,动态:21776,动态:21753,动态:22680,动态:20439,动态:21757,动态:22697,动态:22684,动态:22698,动态:21975,动态:22659,动态:21727</t>
+          <t>动态:20465,动态:10241,动态:11036,动态:14667,动态:12849,动态:19296,动态:10987,动态:3115,动态:14601,动态:16039,动态:789,动态:18487,动态:18278,动态:19643,动态:19024,动态:6983,动态:20487,动态:12609,动态:6790,动态:17943,动态:6601,动态:13868,动态:6680,动态:21756,动态:21972,动态:22706,动态:22710,动态:21727,动态:4036,动态:21556,动态:22697,动态:21436,动态:20364,动态:20399,动态:22688,动态:22667,动态:21740,动态:22685,动态:22659,动态:22512,动态:22019,动态:21757,动态:21975,动态:22692,动态:22323,动态:22507,动态:22684,动态:21741,动态:22146,动态:21776</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>动态:16912,动态:21004,动态:22042,动态:11490,动态:20227,动态:19769,动态:8662,动态:11307,动态:20168,动态:14147,动态:10557,动态:16907,动态:15895,动态:8474,动态:12326,动态:13692,动态:18331,动态:3142,动态:18322,动态:19833,动态:20090,动态:22680,动态:4036,动态:22512,动态:17337,动态:21745,动态:22667,动态:20440,动态:22697,动态:22323,动态:22706,动态:21741,动态:21780,动态:22146,动态:7746,动态:22698,动态:21740,动态:22688,动态:20399,动态:22019,动态:22659,动态:21436,动态:21857,动态:22702,动态:22692,动态:20439,动态:22507,动态:21753,动态:21556,动态:20720</t>
+          <t>动态:12186,动态:14284,动态:9890,动态:19035,动态:12298,动态:17193,动态:15425,动态:12237,动态:18742,动态:10551,动态:20355,动态:6779,动态:13509,动态:7129,动态:16595,动态:22680,动态:22698,动态:21741,动态:20720,动态:22702,动态:22667,动态:22659,动态:22685,动态:20399,动态:20439,动态:22507,动态:22692,动态:21727,动态:21780,动态:7746,动态:21556,动态:21756,动态:20364,动态:4036,动态:21857,动态:20440,动态:22706,动态:21972,动态:22146,动态:22684,动态:22019,动态:22697,动态:22512,动态:21753,动态:22699,动态:21740,动态:17337,动态:21745,动态:21436,动态:22323</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>动态:15773,动态:11053,动态:15157,动态:16389,动态:18654,动态:7513,动态:19614,动态:6593,动态:19792,动态:13919,动态:13147,动态:11633,动态:13791,动态:5010,动态:12332,动态:7123,动态:21858,动态:20345,动态:22667,动态:17337,动态:22702,动态:22697,动态:22680,动态:22323,动态:22684,动态:22699,动态:20440,动态:22019,动态:21757,动态:21741,动态:22685,动态:21763,动态:21857,动态:4036,动态:22659,动态:21436,动态:22706,动态:21556,动态:21972,动态:21727,动态:21740,动态:22688,动态:20439,动态:22692,动态:21745,动态:21753,动态:20399,动态:20720,动态:21780,动态:22146</t>
+          <t>动态:9167,动态:16222,动态:9450,动态:15950,动态:13678,动态:4034,动态:17498,动态:16077,动态:19848,动态:6626,动态:16823,动态:13289,动态:10927,动态:13858,动态:21858,动态:12347,动态:12607,动态:15334,动态:20399,动态:12411,动态:21436,动态:22680,动态:22702,动态:20440,动态:22146,动态:22706,动态:21741,动态:20720,动态:22659,动态:22684,动态:22692,动态:22507,动态:22019,动态:22323,动态:22696,动态:22698,动态:21975,动态:21757,动态:21972,动态:21763,动态:22667,动态:17337,动态:21857,动态:20439,动态:4036,动态:22688,动态:21780,动态:22685,动态:21556,动态:21753</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>动态:21474,动态:10095,动态:16687,动态:14050,动态:11388,动态:21707,动态:16697,动态:18085,动态:21317,动态:19376,动态:16302,动态:13884,动态:21785,动态:19547,动态:17941,动态:15711,动态:18647,动态:11064,动态:12365,动态:16693,动态:12410,动态:9463,动态:9791,动态:14003,动态:20189,动态:5403,动态:8892,动态:8603,动态:6086,动态:9158,动态:12372,动态:22702,动态:21756,动态:21857,动态:17337,动态:21757,动态:20364,动态:22688,动态:21737,动态:22507,动态:20720,动态:20440,动态:22659,动态:21780,动态:22680,动态:21436,动态:4036,动态:21972,动态:21776,动态:20439</t>
+          <t>动态:15384,动态:11440,动态:8674,动态:16664,动态:15975,动态:21642,动态:13428,动态:13135,动态:13618,动态:19645,动态:11029,动态:7111,动态:8150,动态:17313,动态:11327,动态:18160,动态:18847,动态:20139,动态:20399,动态:22323,动态:21757,动态:22698,动态:22699,动态:21763,动态:20440,动态:21727,动态:20364,动态:22019,动态:7746,动态:22680,动态:21776,动态:21737,动态:21972,动态:22710,动态:22702,动态:17337,动态:20439,动态:20720,动态:22685,动态:22659,动态:22696,动态:21753,动态:21857,动态:22146,动态:21975,动态:22507,动态:21436,动态:22697,动态:21780,动态:21756</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>动态:21965,动态:16878,动态:11063,动态:19908,动态:19496,动态:7388,动态:11113,动态:19649,动态:15134,动态:6906,动态:13402,动态:14752,动态:10955,动态:15627,动态:13134,动态:10567,动态:11265,动态:13089,动态:20997,动态:19659,动态:13415,动态:22707,动态:19255,动态:7124,动态:17231,动态:15473,动态:9476,动态:4512,动态:11156,动态:769,动态:5899,动态:9093,动态:21359,动态:4815,动态:13591,动态:4632,动态:6825,动态:18359,动态:5603,动态:9155,动态:6578,动态:4345,动态:14006,动态:9478,动态:12411,动态:21763,动态:22097,动态:21309,动态:10009,动态:21756</t>
+          <t>动态:20518,动态:17307,动态:12888,动态:13200,动态:9778,动态:16058,动态:13323,动态:15970,动态:18740,动态:17627,动态:15095,动态:11399,动态:13793,动态:10954,动态:10490,动态:9774,动态:5400,动态:13329,动态:10427,动态:19469,动态:14009,动态:18317,动态:16819,动态:19745,动态:16595,动态:13970,动态:19638,动态:9476,动态:14725,动态:6865,动态:6579,动态:13797,动态:14682,动态:14700,动态:19488,动态:11441,动态:14006,动态:19258,动态:13091,动态:20016,动态:10191,动态:4175,动态:8701,动态:6799,动态:10452,动态:6770,动态:21757,动态:8742,动态:14583,动态:22698</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>动态:21106,动态:19037,动态:17970,动态:3117,动态:21003,动态:11258,动态:20734,动态:13136,动态:6553,动态:16893,动态:21166,动态:10971,动态:12904,动态:15127,动态:21095,动态:4042,动态:20616,动态:19755,动态:22679,动态:20525,动态:15669,动态:18984,动态:17642,动态:6869,动态:11459,动态:21857,动态:22512,动态:21753,动态:21763,动态:21741,动态:22706,动态:22702,动态:4036,动态:21727,动态:7746,动态:22667,动态:20439,动态:22659,动态:22684,动态:17337,动态:22019,动态:20399,动态:22692,动态:21776,动态:21556,动态:20364,动态:21975,动态:21972,动态:21757,动态:21756</t>
+          <t>动态:22306,动态:20351,动态:15750,动态:21854,动态:4497,动态:15047,动态:14547,动态:13080,动态:14967,动态:8291,动态:17077,动态:20227,动态:15323,动态:10983,动态:16866,动态:10191,动态:17691,动态:21115,动态:7392,动态:10124,动态:20525,动态:21763,动态:21745,动态:22696,动态:20720,动态:21780,动态:22688,动态:22323,动态:21727,动态:21776,动态:21757,动态:22680,动态:22692,动态:7746,动态:20364,动态:20440,动态:22667,动态:22697,动态:21972,动态:22699,动态:21756,动态:20399,动态:21753,动态:22019,动态:21740,动态:20439,动态:4036,动态:21436,动态:22702,动态:21857</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>动态:9411,动态:16853,动态:8002,动态:11967,动态:18771,动态:17963,动态:16050,动态:18085,动态:7751,动态:15627,动态:9354,动态:13214,动态:21928,动态:11452,动态:9337,动态:18608,动态:15955,动态:8167,动态:17168,动态:22661,动态:6761,动态:4522,动态:21756,动态:22512,动态:22699,动态:22146,动态:4036,动态:17337,动态:21556,动态:20440,动态:21741,动态:21757,动态:21753,动态:21776,动态:21436,动态:22680,动态:22507,动态:20439,动态:21857,动态:22688,动态:20364,动态:21975,动态:22684,动态:22698,动态:22697,动态:22019,动态:22692,动态:22685,动态:21737,动态:20720</t>
+          <t>动态:14026,动态:10217,动态:16721,动态:20107,动态:15933,动态:20520,动态:18072,动态:12896,动态:8603,动态:20755,动态:10375,动态:13325,动态:11272,动态:10509,动态:19972,动态:22130,动态:12721,动态:21975,动态:22512,动态:22688,动态:21436,动态:20364,动态:21753,动态:22684,动态:22019,动态:21727,动态:21745,动态:21741,动态:21776,动态:21780,动态:20440,动态:21763,动态:21756,动态:22667,动态:20439,动态:22696,动态:21757,动态:22697,动态:22685,动态:22146,动态:22702,动态:22692,动态:21737,动态:17337,动态:7746,动态:21556,动态:22323,动态:4036,动态:21857,动态:21740</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>动态:15636,动态:7131,动态:16263,动态:20337,动态:20152,动态:19829,动态:15940,动态:13982,动态:21885,动态:20803,动态:12614,动态:19643,动态:21200,动态:10116,动态:3178,动态:21776,动态:21857,动态:22696,动态:22698,动态:22685,动态:21436,动态:21972,动态:20439,动态:22688,动态:22697,动态:20364,动态:20720,动态:21780,动态:21757,动态:21740,动态:22512,动态:22659,动态:22702,动态:4036,动态:22684,动态:21975,动态:21753,动态:22507,动态:22323,动态:22667,动态:22146,动态:22710,动态:21763,动态:22706,动态:22680,动态:7746,动态:21737,动态:21741,动态:22692,动态:21727</t>
+          <t>动态:5522,动态:10845,动态:20143,动态:19853,动态:12604,动态:10581,动态:12404,动态:13886,动态:9784,动态:17164,动态:18024,动态:11019,动态:18165,动态:11180,动态:13791,动态:12581,动态:9087,动态:13359,动态:22698,动态:21857,动态:20440,动态:7746,动态:21727,动态:22696,动态:21757,动态:22710,动态:21737,动态:22019,动态:20439,动态:22507,动态:20364,动态:22685,动态:21740,动态:22684,动态:21975,动态:22692,动态:22688,动态:4036,动态:22323,动态:20720,动态:22680,动态:21753,动态:21741,动态:21780,动态:22667,动态:21972,动态:22699,动态:21756,动态:20399,动态:22706</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>动态:19128,动态:6894,动态:13698,动态:9409,动态:13501,动态:21249,动态:17127,动态:20200,动态:17522,动态:16617,动态:10926,动态:16819,动态:6679,动态:19959,动态:21180,动态:12058,动态:21857,动态:21745,动态:22323,动态:21757,动态:22684,动态:21975,动态:20440,动态:22688,动态:22019,动态:20399,动态:21776,动态:22692,动态:22659,动态:21556,动态:22698,动态:20439,动态:4036,动态:21763,动态:22699,动态:21753,动态:21780,动态:7746,动态:17337,动态:21740,动态:22507,动态:22685,动态:21727,动态:21741,动态:21756,动态:20720,动态:22702,动态:22680,动态:21972,动态:22667</t>
+          <t>动态:10296,动态:11938,动态:22285,动态:18070,动态:19356,动态:15387,动态:16713,动态:10956,动态:17627,动态:14646,动态:14732,动态:13425,动态:6671,动态:19177,动态:15763,动态:3804,动态:14247,动态:9787,动态:22684,动态:21741,动态:7746,动态:22667,动态:22146,动态:22685,动态:21857,动态:22699,动态:22680,动态:22688,动态:21780,动态:22710,动态:22698,动态:21757,动态:22512,动态:21763,动态:20720,动态:21436,动态:21556,动态:21756,动态:21975,动态:22659,动态:22507,动态:22323,动态:22019,动态:21776,动态:21972,动态:20439,动态:21753,动态:21737,动态:22697,动态:21740</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>动态:22301,动态:8621,动态:18276,动态:22468,动态:3138,动态:15692,动态:22624,动态:18619,动态:10754,动态:19170,动态:16106,动态:17205,动态:19751,动态:20531,动态:682,动态:17966,动态:15521,动态:9411,动态:12075,动态:6135,动态:12353,动态:18898,动态:15267,动态:7746,动态:22323,动态:22698,动态:4036,动态:21776,动态:22667,动态:22685,动态:20439,动态:22659,动态:22512,动态:21857,动态:21737,动态:22680,动态:21745,动态:21556,动态:22706,动态:22146,动态:22699,动态:21972,动态:20399,动态:22507,动态:22692,动态:21763,动态:21756,动态:21975,动态:22710,动态:21753</t>
+          <t>动态:14043,动态:17313,动态:19932,动态:11294,动态:5603,动态:21213,动态:18314,动态:8259,动态:21000,动态:22558,动态:4497,动态:15715,动态:19792,动态:2760,动态:20109,动态:3128,动态:13592,动态:12865,动态:10125,动态:11906,动态:8015,动态:6831,动态:7735,动态:22507,动态:22146,动态:21740,动态:22702,动态:7746,动态:22659,动态:21857,动态:21757,动态:22323,动态:22019,动态:21753,动态:22684,动态:22698,动态:20399,动态:22688,动态:20364,动态:22696,动态:17337,动态:21556,动态:20439,动态:21727,动态:22699,动态:22706,动态:22685,动态:21745,动态:4036,动态:22692</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>动态:15795,动态:789,动态:22604,动态:14695,动态:17147,动态:9890,动态:15113,动态:11942,动态:14215,动态:16838,动态:16719,动态:16358,动态:12917,动态:11331,动态:13132,动态:12936,动态:3738,动态:19024,动态:20064,动态:6898,动态:9766,动态:16294,动态:12587,动态:6361,动态:19838,动态:16191,动态:11059,动态:18376,动态:22146,动态:21741,动态:17337,动态:21763,动态:22680,动态:20440,动态:20439,动态:22685,动态:22710,动态:21975,动态:22692,动态:22507,动态:22706,动态:21757,动态:20364,动态:22699,动态:22684,动态:20720,动态:22667,动态:21756,动态:21727,动态:22659</t>
+          <t>动态:10711,动态:9331,动态:10566,动态:7394,动态:13631,动态:9344,动态:10601,动态:7824,动态:18085,动态:11011,动态:14247,动态:11452,动态:20686,动态:13943,动态:12379,动态:12082,动态:16256,动态:3115,动态:14971,动态:11447,动态:4303,动态:12329,动态:6295,动态:22692,动态:22659,动态:22146,动态:21780,动态:21556,动态:21740,动态:20364,动态:22507,动态:22684,动态:21857,动态:21975,动态:21436,动态:21737,动态:21756,动态:21753,动态:22697,动态:20439,动态:22698,动态:22699,动态:7746,动态:22710,动态:21741,动态:21972,动态:21727,动态:20399,动态:22680,动态:22696</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>动态:19516,动态:12583,动态:11116,动态:19792,动态:17392,动态:12667,动态:15698,动态:14570,动态:8940,动态:11469,动态:11184,动态:11750,动态:20905,动态:15037,动态:12293,动态:10932,动态:12645,动态:5829,动态:7040,动态:19838,动态:21780,动态:7383,动态:21753,动态:7746,动态:22697,动态:21436,动态:21741,动态:21740,动态:21763,动态:21737,动态:21727,动态:21556,动态:22680,动态:20399,动态:17337,动态:22659,动态:22146,动态:21757,动态:4036,动态:22699,动态:21857,动态:22692,动态:22512,动态:21975,动态:20439,动态:21745,动态:22019,动态:22684,动态:20720,动态:22696</t>
+          <t>动态:15315,动态:21368,动态:9460,动态:13930,动态:14718,动态:19423,动态:11589,动态:15905,动态:13499,动态:21057,动态:20717,动态:10980,动态:9134,动态:21820,动态:10921,动态:7694,动态:19697,动态:12252,动态:14656,动态:6674,动态:20140,动态:6752,动态:9349,动态:17148,动态:22706,动态:21763,动态:21737,动态:22684,动态:21741,动态:21857,动态:21436,动态:22019,动态:22702,动态:22507,动态:21745,动态:22323,动态:7746,动态:22710,动态:22659,动态:21753,动态:21556,动态:22698,动态:4036,动态:20440,动态:21757,动态:20720,动态:22512,动态:20399,动态:22667,动态:22685</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>动态:15659,动态:5778,动态:3172,动态:19847,动态:3144,动态:3126,动态:3098,动态:3102,动态:3122,动态:676,动态:231,动态:3128,动态:3078,动态:3090,动态:3142,动态:3175,动态:3156,动态:12317,动态:17265,动态:10976,动态:12045,动态:10071,动态:20636,动态:6831,动态:18462,动态:15702,动态:9150,动态:17575,动态:20772,动态:16648,动态:6606,动态:22634,动态:10724,动态:13734,动态:22702,动态:21857,动态:22684,动态:20399,动态:21780,动态:22688,动态:21763,动态:21756,动态:4036,动态:22699,动态:21745,动态:17337,动态:21972,动态:22146,动态:21975,动态:20720</t>
+          <t>动态:10553,动态:3172,动态:676,动态:11294,动态:15170,动态:11065,动态:3156,动态:11125,动态:231,动态:3144,动态:3142,动态:3128,动态:3175,动态:3126,动态:3122,动态:3090,动态:3102,动态:3098,动态:3078,动态:11467,动态:17953,动态:17582,动态:20968,动态:19906,动态:11948,动态:10070,动态:13041,动态:10964,动态:21342,动态:7710,动态:10974,动态:15814,动态:16913,动态:19503,动态:16553,动态:22290,动态:20386,动态:22685,动态:22706,动态:22323,动态:21857,动态:21745,动态:20439,动态:22698,动态:17337,动态:21975,动态:22697,动态:21737,动态:20720,动态:22019</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>动态:15637,动态:11807,动态:21526,动态:17321,动态:18956,动态:16003,动态:9214,动态:11014,动态:21422,动态:17313,动态:1742,动态:17575,动态:20520,动态:14248,动态:17400,动态:11678,动态:10698,动态:13875,动态:20511,动态:20242,动态:13249,动态:7133,动态:22316,动态:13243,动态:21536,动态:8629,动态:20645,动态:14058,动态:11390,动态:21960,动态:16186,动态:13198,动态:8573,动态:16222,动态:12364,动态:8293,动态:20680,动态:241,动态:21057,动态:8621,动态:13201,动态:14603,动态:13081,动态:20978,动态:15709,动态:21727,动态:22696,动态:22702,动态:7587,动态:12325</t>
+          <t>动态:7159,动态:19878,动态:14141,动态:10779,动态:11390,动态:12821,动态:22381,动态:12798,动态:15277,动态:13009,动态:14187,动态:6640,动态:3118,动态:8170,动态:1360,动态:7119,动态:9461,动态:11307,动态:19486,动态:789,动态:13764,动态:14809,动态:13445,动态:12896,动态:19293,动态:6694,动态:10237,动态:20603,动态:19751,动态:10694,动态:20332,动态:20736,动态:15923,动态:17559,动态:18087,动态:18796,动态:20687,动态:21008,动态:16613,动态:21876,动态:18683,动态:21436,动态:13696,动态:16076,动态:784,动态:22692,动态:15946,动态:22019,动态:22680,动态:21745</t>
         </is>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>动态:13676,动态:13623,动态:21719,动态:693,动态:21717,动态:20672,动态:20994,动态:19629,动态:21975,动态:16793,动态:4993,动态:10980,动态:12985,动态:20660,动态:4786,动态:13816,动态:17726,动态:7784,动态:4044,动态:16191,动态:19826,动态:18308,动态:15304,动态:21745,动态:22659,动态:21972,动态:20439,动态:22685,动态:22710,动态:22667,动态:22019,动态:22696,动态:22692,动态:22146,动态:21756,动态:21776,动态:21556,动态:21436,动态:21753,动态:17337,动态:20399,动态:21740,动态:20440,动态:22699,动态:21737,动态:22680,动态:21763,动态:7746,动态:22698</t>
+          <t>动态:11396,动态:15650,动态:18378,动态:15815,动态:18528,动态:17177,动态:13884,动态:17460,动态:19547,动态:19812,动态:13140,动态:13998,动态:15582,动态:18583,动态:11552,动态:13661,动态:22659,动态:21757,动态:22702,动态:22699,动态:21776,动态:21556,动态:22684,动态:22685,动态:21436,动态:22688,动态:20720,动态:21737,动态:22710,动态:21740,动态:21727,动态:7746,动态:20364,动态:22323,动态:22697,动态:21972,动态:22146,动态:21763,动态:20440,动态:22680,动态:21753,动态:21741,动态:17337,动态:20399,动态:22706,动态:22019,动态:22667,动态:22507,动态:22692,动态:21780</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>动态:12111,动态:11340,动态:21197,动态:22625,动态:22184,动态:16368,动态:19208,动态:19624,动态:13523,动态:15531,动态:19991,动态:21235,动态:17917,动态:20109,动态:14583,动态:8962,动态:13692,动态:8292,动态:21239,动态:6517,动态:6026,动态:11293,动态:21740,动态:22710,动态:20440,动态:22323,动态:21741,动态:4036,动态:21975,动态:22699,动态:21436,动态:21556,动态:20399,动态:20720,动态:21763,动态:21756,动态:22684,动态:21972,动态:22706,动态:21727,动态:21745,动态:21776,动态:22688,动态:17337,动态:7746,动态:22146,动态:22507,动态:21737,动态:21757,动态:22702</t>
+          <t>动态:18830,动态:15384,动态:19899,动态:20106,动态:18855,动态:18203,动态:17145,动态:21681,动态:16890,动态:20451,动态:12729,动态:10927,动态:19745,动态:13820,动态:14684,动态:13864,动态:12064,动态:14875,动态:9151,动态:8577,动态:21740,动态:22507,动态:21756,动态:20440,动态:22688,动态:22667,动态:21857,动态:21975,动态:22019,动态:21556,动态:21763,动态:22685,动态:21757,动态:22710,动态:22512,动态:21776,动态:21780,动态:4036,动态:22696,动态:20364,动态:21727,动态:21745,动态:22323,动态:22697,动态:17337,动态:22146,动态:21741,动态:20439,动态:21436,动态:21972</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>动态:12315,动态:9291,动态:10389,动态:21094,动态:16891,动态:19170,动态:16553,动态:16264,动态:8935,动态:9204,动态:15923,动态:21532,动态:15858,动态:18224,动态:4993,动态:14900,动态:22507,动态:21741,动态:21753,动态:21763,动态:21780,动态:22019,动态:21556,动态:21436,动态:21757,动态:22667,动态:22702,动态:21972,动态:20399,动态:22680,动态:21975,动态:20439,动态:22692,动态:22323,动态:21756,动态:4036,动态:22688,动态:17337,动态:22659,动态:21737,动态:21776,动态:21727,动态:22706,动态:21857,动态:22146,动态:22710,动态:7746,动态:22697,动态:22698,动态:20364</t>
+          <t>动态:6893,动态:6748,动态:5899,动态:13818,动态:17728,动态:7043,动态:21228,动态:20261,动态:18695,动态:11505,动态:18034,动态:11714,动态:14377,动态:22497,动态:20339,动态:18038,动态:10116,动态:17337,动态:22697,动态:22512,动态:22698,动态:22146,动态:22659,动态:20439,动态:21857,动态:21737,动态:22699,动态:21757,动态:21972,动态:22702,动态:21727,动态:21756,动态:21436,动态:22692,动态:20364,动态:21556,动态:21763,动态:22019,动态:22710,动态:20720,动态:22323,动态:22688,动态:21741,动态:21975,动态:20440,动态:22696,动态:21753,动态:22684,动态:22680,动态:20399</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>动态:6608,动态:13218,动态:17847,动态:19593,动态:20521,动态:12303,动态:13886,动态:10687,动态:10073,动态:22114,动态:10914,动态:14675,动态:12567,动态:19127,动态:621,动态:15222,动态:6755,动态:20130,动态:4303,动态:7405,动态:16853,动态:22688,动态:22710,动态:21756,动态:22323,动态:20399,动态:21745,动态:21972,动态:4036,动态:21740,动态:21776,动态:22659,动态:21753,动态:20364,动态:22699,动态:21857,动态:20720,动态:21741,动态:22146,动态:22692,动态:21556,动态:20439,动态:20440,动态:22680,动态:22019,动态:7746,动态:22684,动态:22696,动态:22512,动态:22698</t>
+          <t>动态:19230,动态:8109,动态:21845,动态:19655,动态:11580,动态:13191,动态:15541,动态:22545,动态:19619,动态:15142,动态:22626,动态:15864,动态:13176,动态:19706,动态:11835,动态:13158,动态:22113,动态:14697,动态:13943,动态:12374,动态:22323,动态:16531,动态:12381,动态:20790,动态:12359,动态:7039,动态:19457,动态:17408,动态:18994,动态:21970,动态:9478,动态:16052,动态:3897,动态:21780,动态:22019,动态:22706,动态:21727,动态:21776,动态:21753,动态:22699,动态:22512,动态:21745,动态:22696,动态:20720,动态:22659,动态:22692,动态:22680,动态:22688,动态:21737,动态:22710</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>动态:6884,动态:9416,动态:15240,动态:6786,动态:10122,动态:15956,动态:19503,动态:20021,动态:15304,动态:15888,动态:13844,动态:20266,动态:14290,动态:18129,动态:18168,动态:11897,动态:14547,动态:3874,动态:4181,动态:17231,动态:22684,动态:21857,动态:20720,动态:21745,动态:21756,动态:22699,动态:20364,动态:21776,动态:22680,动态:22507,动态:22685,动态:21972,动态:20439,动态:21757,动态:4036,动态:22659,动态:22702,动态:20440,动态:22667,动态:22692,动态:22146,动态:21556,动态:21763,动态:22512,动态:21727,动态:22696,动态:21753,动态:22697,动态:21436,动态:7746</t>
+          <t>动态:11191,动态:13501,动态:18608,动态:14104,动态:11495,动态:19595,动态:16607,动态:12643,动态:20130,动态:12332,动态:11055,动态:17949,动态:19253,动态:16826,动态:8962,动态:7746,动态:22702,动态:22692,动态:21740,动态:22685,动态:21745,动态:22688,动态:22698,动态:22696,动态:21975,动态:22146,动态:21556,动态:21753,动态:4036,动态:17337,动态:21756,动态:22667,动态:20399,动态:20720,动态:22680,动态:21776,动态:21763,动态:21727,动态:21857,动态:22507,动态:22512,动态:22684,动态:21757,动态:22019,动态:21972,动态:21436,动态:20439,动态:22699,动态:20440,动态:20364</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>动态:685,动态:22667,动态:18368,动态:15089,动态:743,动态:18285,动态:15752,动态:10349,动态:8625,动态:12883,动态:15314,动态:11782,动态:5233,动态:8701,动态:10406,动态:18491,动态:7380,动态:6840,动态:20238,动态:5407,动态:22698,动态:20364,动态:21763,动态:21972,动态:21857,动态:21756,动态:21740,动态:21745,动态:22688,动态:21556,动态:21737,动态:22685,动态:22019,动态:20399,动态:7746,动态:20720,动态:22680,动态:22696,动态:17337,动态:21753,动态:22706,动态:22146,动态:21776,动态:21975,动态:21780,动态:21436,动态:4036,动态:22692,动态:22507,动态:21741</t>
+          <t>动态:10248,动态:7737,动态:22283,动态:13696,动态:11500,动态:10516,动态:7351,动态:18467,动态:14878,动态:16039,动态:17755,动态:11405,动态:20268,动态:4788,动态:12427,动态:12813,动态:19656,动态:21532,动态:17954,动态:14583,动态:22696,动态:3128,动态:7747,动态:9415,动态:21740,动态:22019,动态:22688,动态:20364,动态:21972,动态:21745,动态:21780,动态:21737,动态:22146,动态:22692,动态:22685,动态:22706,动态:22680,动态:21776,动态:20440,动态:21727,动态:22698,动态:22710,动态:22323,动态:21756,动态:4036,动态:22512,动态:22699,动态:21556,动态:20399</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>动态:14809,动态:17574,动态:6655,动态:3249,动态:13499,动态:22489,动态:20115,动态:13152,动态:12429,动态:10416,动态:4968,动态:11360,动态:9798,动态:21288,动态:20496,动态:8878,动态:8010,动态:22281,动态:17122,动态:16890,动态:12009,动态:20568,动态:14921,动态:14290,动态:4181,动态:18994,动态:12067,动态:18844,动态:3172,动态:15617,动态:21740,动态:21737,动态:22146,动态:22667,动态:21756,动态:22698,动态:21741,动态:21556,动态:20440,动态:22684,动态:17337,动态:4036,动态:21753,动态:21727,动态:22019,动态:21857,动态:22697,动态:20439,动态:22699,动态:21745</t>
+          <t>动态:8740,动态:11087,动态:7739,动态:16154,动态:19938,动态:20597,动态:18282,动态:14153,动态:14142,动态:12917,动态:15775,动态:22497,动态:833,动态:19987,动态:18821,动态:15287,动态:13281,动态:19450,动态:18153,动态:15174,动态:7970,动态:13095,动态:4181,动态:20720,动态:4036,动态:22323,动态:21745,动态:21780,动态:22699,动态:21556,动态:22697,动态:22706,动态:22019,动态:7746,动态:21857,动态:22507,动态:22680,动态:21737,动态:22692,动态:21740,动态:20399,动态:22696,动态:20439,动态:21975,动态:22698,动态:22512,动态:22667,动态:22685,动态:21776,动态:21756</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>动态:4895,动态:19096,动态:12672,动态:11468,动态:20714,动态:9160,动态:7354,动态:10914,动态:13227,动态:18590,动态:15963,动态:16913,动态:11436,动态:10937,动态:21005,动态:19852,动态:11463,动态:7388,动态:14847,动态:9082,动态:7746,动态:21556,动态:22019,动态:22696,动态:21776,动态:21972,动态:22692,动态:22706,动态:20720,动态:21436,动态:22323,动态:22667,动态:22702,动态:21753,动态:22699,动态:22146,动态:22680,动态:22684,动态:22698,动态:21741,动态:21737,动态:21780,动态:22512,动态:20439,动态:21757,动态:4036,动态:20440,动态:22710,动态:22685,动态:21745</t>
+          <t>动态:16232,动态:15076,动态:16817,动态:17313,动态:8757,动态:13964,动态:22129,动态:17634,动态:10991,动态:21448,动态:9376,动态:10698,动态:17164,动态:12721,动态:7734,动态:10132,动态:11478,动态:9507,动态:15334,动态:14214,动态:12145,动态:16641,动态:7748,动态:5829,动态:6464,动态:7047,动态:19496,动态:22659,动态:22685,动态:20399,动态:22710,动态:22706,动态:22684,动态:21436,动态:4036,动态:21745,动态:21753,动态:21975,动态:22688,动态:7746,动态:22698,动态:21757,动态:22323,动态:21727,动态:20720,动态:21556,动态:21740,动态:17337,动态:20439,动态:20440</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>动态:19614,动态:15913,动态:20461,动态:21501,动态:17529,动态:8259,动态:621,动态:6447,动态:3073,动态:6901,动态:4036,动态:12145,动态:6916,动态:3166,动态:13826,动态:3174,动态:3897,动态:7789,动态:22699,动态:7383,动态:3796,动态:4031,动态:21780,动态:16721,动态:7186,动态:6252,动态:3076,动态:12154,动态:21970,动态:3162,动态:22696,动态:3979,动态:3107,动态:11075,动态:21470,动态:18160,动态:7464,动态:20525,动态:3104,动态:20516,动态:6325,动态:7045,动态:19888,动态:21753,动态:20720,动态:20439,动态:22692,动态:21763</t>
+          <t>动态:12002,动态:3249,动态:9036,动态:13281,动态:8752,动态:12009,动态:22286,动态:9307,动态:12826,动态:20511,动态:6901,动态:7186,动态:16721,动态:3174,动态:3897,动态:22699,动态:7789,动态:6252,动态:3107,动态:21780,动态:3979,动态:4036,动态:3162,动态:21470,动态:9476,动态:13319,动态:14875,动态:3796,动态:3166,动态:3076,动态:7464,动态:3073,动态:19602,动态:4031,动态:22696,动态:20516,动态:6325,动态:21970,动态:621,动态:6447,动态:6916,动态:7383,动态:3104,动态:20525,动态:21756,动态:22698,动态:22688,动态:22019,动态:22685,动态:22507</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>动态:15354,动态:19253,动态:18331,动态:11458,动态:22479,动态:16693,动态:8015,动态:12303,动态:17814,动态:782,动态:16609,动态:9552,动态:8969,动态:20309,动态:9036,动态:17060,动态:21780,动态:21556,动态:22146,动态:22710,动态:22685,动态:20399,动态:22507,动态:22323,动态:21756,动态:4036,动态:22698,动态:20439,动态:22692,动态:22684,动态:22667,动态:22699,动态:21776,动态:21975,动态:22680,动态:21436,动态:22019,动态:20364,动态:22659,动态:7746,动态:21737,动态:17337,动态:21763,动态:22702,动态:22512,动态:21753,动态:21727,动态:22688,动态:22696,动态:20440</t>
+          <t>动态:4181,动态:20065,动态:18653,动态:11283,动态:6240,动态:18502,动态:18156,动态:14273,动态:12338,动态:13309,动态:6602,动态:16900,动态:12558,动态:13746,动态:15861,动态:13296,动态:21000,动态:21537,动态:12737,动态:18629,动态:12890,动态:18509,动态:20590,动态:22487,动态:10069,动态:16382,动态:16597,动态:15050,动态:10359,动态:22692,动态:11002,动态:20516,动态:21737,动态:21436,动态:21972,动态:21727,动态:21763,动态:22512,动态:20399,动态:21975,动态:22667,动态:22688,动态:20439,动态:22146,动态:20720,动态:22323,动态:21857,动态:21756,动态:22699,动态:22684</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>动态:9492,动态:13780,动态:16432,动态:17965,动态:20989,动态:13136,动态:5830,动态:11011,动态:22658,动态:19940,动态:19895,动态:19037,动态:4036,动态:22699,动态:22680,动态:21745,动态:22323,动态:22692,动态:21756,动态:20364,动态:22685,动态:21727,动态:22696,动态:20720,动态:17337,动态:21780,动态:22512,动态:22659,动态:21436,动态:21757,动态:21556,动态:21972,动态:22019,动态:22507,动态:22688,动态:22697,动态:22146,动态:7746,动态:22698,动态:21741,动态:21857,动态:22710,动态:22702,动态:20440,动态:21763,动态:20399,动态:21737,动态:22706,动态:20439,动态:21753</t>
+          <t>动态:14043,动态:22673,动态:11127,动态:14640,动态:4485,动态:17867,动态:18694,动态:19036,动态:22199,动态:12388,动态:17487,动态:16493,动态:13680,动态:11307,动态:20362,动态:21002,动态:7741,动态:13684,动态:10698,动态:7122,动态:16568,动态:15053,动态:15310,动态:14409,动态:22512,动态:21556,动态:21740,动态:21776,动态:22684,动态:21727,动态:21737,动态:21745,动态:22698,动态:21756,动态:22685,动态:17337,动态:4036,动态:20399,动态:22710,动态:21741,动态:21757,动态:22667,动态:21857,动态:20720,动态:22702,动态:22323,动态:21763,动态:22699,动态:20439,动态:21972</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>动态:12962,动态:15888,动态:13780,动态:7351,动态:16281,动态:10427,动态:19210,动态:4345,动态:12329,动态:13308,动态:16620,动态:15857,动态:20140,动态:20017,动态:18651,动态:20672,动态:15137,动态:19123,动态:8619,动态:12892,动态:12357,动态:12067,动态:21740,动态:11063,动态:6577,动态:8177,动态:10356,动态:14236,动态:15473,动态:20368,动态:6838,动态:17693,动态:13789,动态:15928,动态:18153,动态:19707,动态:17632,动态:11459,动态:16595,动态:19886,动态:11417,动态:17374,动态:13200,动态:19847,动态:9155,动态:17627,动态:22685,动态:22512,动态:14504,动态:21857</t>
+          <t>动态:13938,动态:8887,动态:9425,动态:13200,动态:16651,动态:10239,动态:14158,动态:10605,动态:21451,动态:6819,动态:17120,动态:6677,动态:19759,动态:9236,动态:7380,动态:7743,动态:10954,动态:20082,动态:5400,动态:17721,动态:11293,动态:15612,动态:20129,动态:10118,动态:13040,动态:13970,动态:15184,动态:18146,动态:6579,动态:13797,动态:4522,动态:11389,动态:6869,动态:16656,动态:16261,动态:18500,动态:17515,动态:9082,动态:19269,动态:7124,动态:4597,动态:6578,动态:18158,动态:18874,动态:17307,动态:20059,动态:21745,动态:6362,动态:20364,动态:150</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>动态:21364,动态:16857,动态:10601,动态:20978,动态:11684,动态:19097,动态:833,动态:13961,动态:16441,动态:11915,动态:21678,动态:12317,动态:9234,动态:20258,动态:16483,动态:19658,动态:17168,动态:18313,动态:13491,动态:21740,动态:7746,动态:22702,动态:4036,动态:21556,动态:22692,动态:22706,动态:22659,动态:22688,动态:22699,动态:22680,动态:22512,动态:22696,动态:21745,动态:21741,动态:21436,动态:17337,动态:21753,动态:22146,动态:22710,动态:22698,动态:21780,动态:21727,动态:21757,动态:20399,动态:22667,动态:21763,动态:20364,动态:22507,动态:22697,动态:21776</t>
+          <t>动态:11993,动态:19689,动态:19373,动态:11988,动态:15596,动态:16347,动态:14345,动态:17972,动态:18608,动态:20356,动态:18110,动态:11434,动态:20810,动态:20790,动态:12690,动态:20124,动态:20611,动态:11191,动态:7587,动态:7824,动态:22126,动态:15669,动态:22019,动态:21436,动态:22710,动态:21737,动态:22684,动态:21727,动态:22688,动态:22699,动态:22685,动态:22702,动态:20399,动态:21757,动态:21740,动态:21753,动态:20439,动态:21763,动态:22697,动态:22667,动态:22323,动态:21857,动态:22507,动态:21776,动态:22706,动态:22696,动态:21741,动态:17337,动态:22698,动态:21780</t>
         </is>
       </c>
     </row>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>动态:11320,动态:12047,动态:22234,动态:11589,动态:17392,动态:21008,动态:20401,动态:20978,动态:14724,动态:20947,动态:9204,动态:7710,动态:9201,动态:18308,动态:10069,动态:20356,动态:21753,动态:6754,动态:18902,动态:18034,动态:19287,动态:20525,动态:6901,动态:6775,动态:15511,动态:6894,动态:17168,动态:5407,动态:22019,动态:20364,动态:21763,动态:22697,动态:22685,动态:7746,动态:22706,动态:21727,动态:21436,动态:21740,动态:21780,动态:4036,动态:20439,动态:20399,动态:22702,动态:21756,动态:21757,动态:22710,动态:20720,动态:22692,动态:22698,动态:21776</t>
+          <t>动态:10890,动态:19959,动态:11290,动态:13534,动态:1245,动态:8819,动态:16893,动态:11913,动态:21675,动态:6027,动态:16052,动态:11265,动态:4180,动态:10355,动态:22685,动态:22684,动态:21757,动态:4036,动态:22696,动态:22698,动态:21556,动态:22019,动态:21727,动态:22710,动态:22706,动态:21745,动态:22692,动态:7746,动态:20720,动态:20399,动态:21763,动态:22507,动态:22699,动态:22680,动态:20440,动态:21737,动态:21756,动态:21776,动态:21972,动态:20364,动态:21780,动态:22702,动态:21436,动态:21975,动态:22512,动态:22688,动态:22146,动态:21740,动态:21741,动态:20439</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>动态:16792,动态:13339,动态:19858,动态:8827,动态:21526,动态:20858,动态:22507,动态:12305,动态:7409,动态:20607,动态:17738,动态:15199,动态:15077,动态:3251,动态:18360,动态:16692,动态:13212,动态:18025,动态:19215,动态:6776,动态:11894,动态:5115,动态:17374,动态:3796,动态:21780,动态:21740,动态:22710,动态:22706,动态:22692,动态:21436,动态:22698,动态:22699,动态:21757,动态:20720,动态:21975,动态:22146,动态:21745,动态:21741,动态:17337,动态:22685,动态:20440,动态:21753,动态:22697,动态:22659,动态:22696,动态:22688,动态:21972,动态:22684,动态:22512,动态:21857</t>
+          <t>动态:8598,动态:2764,动态:3120,动态:18694,动态:17548,动态:20546,动态:11467,动态:13562,动态:6825,动态:13327,动态:13986,动态:20399,动态:22684,动态:21857,动态:22706,动态:21756,动态:22685,动态:21780,动态:22507,动态:21745,动态:4036,动态:22146,动态:17337,动态:7746,动态:22698,动态:22699,动态:21727,动态:22697,动态:21776,动态:20364,动态:22659,动态:20440,动态:22692,动态:22710,动态:21556,动态:21740,动态:21757,动态:22512,动态:21763,动态:20720,动态:22688,动态:22019,动态:22702,动态:21741,动态:20439,动态:21753,动态:22696,动态:22680,动态:22667,动态:21975</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>动态:7065,动态:6643,动态:20502,动态:11048,动态:19511,动态:4184,动态:18494,动态:19426,动态:11417,动态:20602,动态:10979,动态:20386,动态:6581,动态:6186,动态:11374,动态:16074,动态:20219,动态:15347,动态:12826,动态:21436,动态:21745,动态:22685,动态:21556,动态:20364,动态:22507,动态:22702,动态:22710,动态:20399,动态:22684,动态:21972,动态:22706,动态:22692,动态:21740,动态:7746,动态:21727,动态:21757,动态:22680,动态:17337,动态:22696,动态:22698,动态:22019,动态:21780,动态:21741,动态:22699,动态:22323,动态:20440,动态:22512,动态:21857,动态:4036,动态:21763</t>
+          <t>动态:18000,动态:21357,动态:22350,动态:14657,动态:13964,动态:4207,动态:22301,动态:11363,动态:12411,动态:22707,动态:21846,动态:17975,动态:17963,动态:11293,动态:16697,动态:21002,动态:21194,动态:21231,动态:9170,动态:15963,动态:11437,动态:13509,动态:3107,动态:21436,动态:22699,动态:22659,动态:22323,动态:20440,动态:22692,动态:20720,动态:21757,动态:21763,动态:21556,动态:22680,动态:21727,动态:22688,动态:21776,动态:21972,动态:21780,动态:7746,动态:22685,动态:22697,动态:22706,动态:22019,动态:22702,动态:22146,动态:21741,动态:22507,动态:22512,动态:22684</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>动态:16912,动态:15866,动态:20169,动态:6601,动态:19503,动态:15905,动态:21049,动态:11906,动态:3714,动态:15190,动态:21310,动态:10632,动态:20259,动态:19537,动态:15243,动态:16109,动态:13635,动态:22706,动态:144,动态:12654,动态:18502,动态:20399,动态:6848,动态:14026,动态:22019,动态:22702,动态:21780,动态:7746,动态:22685,动态:21857,动态:22667,动态:21763,动态:21737,动态:22699,动态:22684,动态:22697,动态:22146,动态:21756,动态:21975,动态:21757,动态:21436,动态:22698,动态:22692,动态:22323,动态:20364,动态:20440,动态:22696,动态:21740</t>
+          <t>动态:21797,动态:19417,动态:12402,动态:15425,动态:11101,动态:14685,动态:12679,动态:18451,动态:15367,动态:8793,动态:17690,动态:10389,动态:22684,动态:18767,动态:3168,动态:11152,动态:17234,动态:6777,动态:22697,动态:17337,动态:20364,动态:21857,动态:22698,动态:21753,动态:22699,动态:21737,动态:22702,动态:22685,动态:21740,动态:21745,动态:21780,动态:22019,动态:22680,动态:22667,动态:22323,动态:20439,动态:22512,动态:22688,动态:22146,动态:21741,动态:22692,动态:21436,动态:21756,动态:22710,动态:21763,动态:20440,动态:21727,动态:20720,动态:21757</t>
         </is>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>动态:21097,动态:13625,动态:19464,动态:9204,动态:21718,动态:4210,动态:17341,动态:22548,动态:22103,动态:14409,动态:11283,动态:10925,动态:11498,动态:19266,动态:9996,动态:16369,动态:14972,动态:14892,动态:687,动态:4421,动态:9688,动态:21359,动态:21436,动态:20720,动态:21740,动态:22146,动态:22667,动态:22710,动态:21763,动态:22697,动态:21975,动态:22507,动态:22019,动态:21556,动态:21972,动态:20439,动态:21741,动态:21857,动态:21753,动态:22659,动态:21776,动态:4036,动态:22684,动态:22699,动态:22702,动态:22706,动态:22692,动态:22323,动态:20440,动态:21756</t>
+          <t>动态:16169,动态:9545,动态:19646,动态:17307,动态:16194,动态:19706,动态:7117,动态:3168,动态:6908,动态:17535,动态:20966,动态:3793,动态:19969,动态:20109,动态:16853,动态:12648,动态:14566,动态:17700,动态:17172,动态:14080,动态:22696,动态:22697,动态:21757,动态:22684,动态:21972,动态:21737,动态:21753,动态:22698,动态:22699,动态:22702,动态:21741,动态:21740,动态:22667,动态:22019,动态:21776,动态:21436,动态:22710,动态:22659,动态:20440,动态:21756,动态:22685,动态:22507,动态:4036,动态:21556,动态:22680,动态:22692,动态:21975,动态:22706,动态:21780,动态:20439</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>动态:9083,动态:16536,动态:11640,动态:14577,动态:18608,动态:14463,动态:15531,动态:12730,动态:10603,动态:13930,动态:14816,动态:17381,动态:12721,动态:18085,动态:21704,动态:20771,动态:20189,动态:7388,动态:15483,动态:10356,动态:5779,动态:22706,动态:22659,动态:22680,动态:22667,动态:7746,动态:21975,动态:21776,动态:22696,动态:20399,动态:4036,动态:21757,动态:21745,动态:20364,动态:21753,动态:22507,动态:17337,动态:21972,动态:20440,动态:22702,动态:22685,动态:21756,动态:21737,动态:21857,动态:21741,动态:22019,动态:21763,动态:22697,动态:20720,动态:22512</t>
+          <t>动态:16942,动态:9134,动态:15495,动态:21249,动态:20218,动态:11583,动态:21340,动态:10478,动态:15242,动态:9307,动态:22074,动态:19189,动态:17128,动态:6186,动态:11786,动态:12049,动态:6842,动态:9535,动态:4184,动态:4176,动态:4027,动态:22507,动态:20364,动态:21727,动态:20399,动态:21737,动态:4036,动态:21857,动态:21972,动态:21436,动态:21776,动态:22702,动态:21741,动态:21740,动态:22685,动态:21753,动态:21745,动态:22019,动态:22680,动态:22706,动态:22698,动态:22697,动态:22512,动态:22659,动态:21763,动态:21756,动态:21975,动态:22710,动态:20439,动态:22667</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>动态:17843,动态:22646,动态:15191,动态:16303,动态:11517,动态:8150,动态:16942,动态:10879,动态:21103,动态:8287,动态:14929,动态:14405,动态:14542,动态:18129,动态:15257,动态:11467,动态:8704,动态:3153,动态:20184,动态:19745,动态:7044,动态:6749,动态:21745,动态:22698,动态:22680,动态:21753,动态:21737,动态:22688,动态:21757,动态:22697,动态:22507,动态:22684,动态:7746,动态:4036,动态:22706,动态:22710,动态:21727,动态:17337,动态:21756,动态:22323,动态:21975,动态:20439,动态:21763,动态:21556,动态:21740,动态:21776,动态:21972,动态:21780,动态:22685,动态:22692</t>
+          <t>动态:19425,动态:16222,动态:237,动态:12836,动态:22085,动态:10937,动态:16645,动态:17762,动态:14191,动态:19590,动态:21054,动态:10113,动态:9788,动态:17255,动态:14284,动态:11854,动态:18203,动态:14441,动态:20860,动态:13389,动态:16256,动态:16086,动态:17814,动态:14230,动态:12053,动态:13091,动态:11414,动态:11135,动态:22702,动态:20439,动态:17337,动态:22699,动态:20440,动态:22323,动态:22680,动态:21740,动态:21727,动态:21436,动态:22667,动态:21745,动态:22512,动态:21776,动态:22685,动态:22688,动态:21756,动态:21556,动态:22684,动态:21857,动态:21737,动态:22697</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>动态:20518,动态:20558,动态:11967,动态:20312,动态:10551,动态:8122,动态:17870,动态:22208,动态:10608,动态:7655,动态:13067,动态:7736,动态:11170,动态:8082,动态:22503,动态:11897,动态:9282,动态:19751,动态:13218,动态:15061,动态:6838,动态:10406,动态:22019,动态:21757,动态:20364,动态:22507,动态:22323,动态:21737,动态:22697,动态:22680,动态:21436,动态:21776,动态:21972,动态:21780,动态:22696,动态:22659,动态:22706,动态:7746,动态:22692,动态:21763,动态:20399,动态:22685,动态:17337,动态:21727,动态:22699,动态:20440,动态:4036,动态:22710,动态:20439,动态:21756</t>
+          <t>动态:15742,动态:13411,动态:21532,动态:11394,动态:11813,动态:11281,动态:9160,动态:10939,动态:15145,动态:12306,动态:10950,动态:21321,动态:14890,动态:3420,动态:12281,动态:15384,动态:10698,动态:8701,动态:11023,动态:6898,动态:7150,动态:19932,动态:22684,动态:21753,动态:22699,动态:7746,动态:22507,动态:21763,动态:22512,动态:21727,动态:22697,动态:22706,动态:22698,动态:21737,动态:21556,动态:22688,动态:21741,动态:20364,动态:21756,动态:22710,动态:20720,动态:21975,动态:22692,动态:21745,动态:22146,动态:22696,动态:22019,动态:22680,动态:20439,动态:20440</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>动态:18983,动态:20677,动态:12673,动态:11551,动态:11497,动态:15608,动态:17196,动态:19426,动态:21141,动态:19812,动态:6593,动态:20989,动态:21780,动态:15448,动态:5210,动态:6903,动态:13054,动态:21776,动态:4036,动态:22019,动态:20364,动态:22323,动态:20439,动态:22512,动态:22706,动态:22680,动态:21741,动态:22667,动态:21756,动态:21556,动态:22659,动态:21757,动态:22702,动态:22685,动态:21763,动态:21737,动态:22692,动态:22696,动态:21975,动态:22507,动态:17337,动态:21753,动态:20399,动态:22698,动态:20440,动态:22697,动态:22699,动态:21857,动态:22688</t>
+          <t>动态:11468,动态:19733,动态:11302,动态:20218,动态:13098,动态:17313,动态:21139,动态:20385,动态:15099,动态:21658,动态:20332,动态:9150,动态:12011,动态:14794,动态:14288,动态:10475,动态:20759,动态:11053,动态:15763,动态:11259,动态:18238,动态:16457,动态:10356,动态:4181,动态:21776,动态:21745,动态:20399,动态:20440,动态:22680,动态:22696,动态:22688,动态:21756,动态:22692,动态:21556,动态:22659,动态:21740,动态:21727,动态:21737,动态:21753,动态:21975,动态:4036,动态:20364,动态:22684,动态:22667,动态:21436,动态:22323,动态:22710,动态:22698,动态:22697,动态:22019</t>
         </is>
       </c>
     </row>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>动态:11191,动态:4788,动态:15188,动态:4190,动态:789,动态:15415,动态:12889,动态:20922,动态:11338,动态:22646,动态:15787,动态:1327,动态:2764,动态:11938,动态:14153,动态:781,动态:11385,动态:11344,动态:11123,动态:6595,动态:3117,动态:10948,动态:19291,动态:10149,动态:16656,动态:21972,动态:21975,动态:7746,动态:22659,动态:21741,动态:21436,动态:21740,动态:22699,动态:22684,动态:22685,动态:22323,动态:22706,动态:21763,动态:22680,动态:22688,动态:22146,动态:21756,动态:20399,动态:22667,动态:4036,动态:22698,动态:22692,动态:21737,动态:21556,动态:20720</t>
+          <t>动态:17856,动态:21642,动态:9096,动态:17323,动态:17537,动态:22074,动态:19153,动态:16844,动态:14841,动态:22323,动态:11029,动态:18339,动态:10869,动态:15000,动态:14546,动态:7110,动态:9049,动态:11406,动态:15334,动态:8468,动态:6674,动态:19264,动态:5216,动态:18317,动态:20065,动态:20439,动态:7746,动态:22706,动态:21741,动态:4036,动态:21740,动态:22507,动态:21753,动态:20720,动态:21780,动态:21972,动态:22699,动态:22698,动态:21756,动态:21975,动态:22659,动态:21776,动态:20364,动态:20399,动态:22685,动态:22684,动态:22688,动态:21757,动态:21857</t>
         </is>
       </c>
     </row>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>动态:14809,动态:11785,动态:21497,动态:10942,动态:18339,动态:18695,动态:20092,动态:15749,动态:12784,动态:14901,动态:18451,动态:14342,动态:13102,动态:10998,动态:13391,动态:21538,动态:11996,动态:11870,动态:20803,动态:16800,动态:1364,动态:11526,动态:13814,动态:21501,动态:5206,动态:3215,动态:20771,动态:16821,动态:8569,动态:14247,动态:18877,动态:18085,动态:15156,动态:18527,动态:14311,动态:22702,动态:10920,动态:4528,动态:10700,动态:15975,动态:7598,动态:15433,动态:21084,动态:11033,动态:13497,动态:21780,动态:22680,动态:20399,动态:22697,动态:9015</t>
+          <t>动态:11438,动态:18804,动态:19427,动态:15540,动态:13384,动态:19149,动态:15268,动态:18770,动态:21923,动态:6642,动态:16463,动态:10927,动态:13676,动态:9936,动态:13140,动态:11944,动态:8002,动态:11380,动态:18656,动态:13270,动态:19897,动态:15203,动态:19036,动态:15791,动态:19751,动态:18677,动态:22646,动态:10601,动态:13267,动态:21448,动态:16587,动态:15895,动态:15181,动态:22658,动态:16792,动态:13764,动态:20168,动态:15863,动态:18362,动态:7688,动态:18755,动态:13043,动态:4979,动态:19625,动态:3111,动态:22710,动态:18956,动态:16935,动态:13613,动态:11019</t>
         </is>
       </c>
     </row>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>动态:11695,动态:20663,动态:15044,动态:15201,动态:15886,动态:15157,动态:14955,动态:10914,动态:10457,动态:18471,动态:20205,动态:21392,动态:12384,动态:9156,动态:16075,动态:15862,动态:13370,动态:10087,动态:7745,动态:16483,动态:10211,动态:15490,动态:19529,动态:22696,动态:22146,动态:21727,动态:22692,动态:21753,动态:22667,动态:21776,动态:21556,动态:21745,动态:21763,动态:20440,动态:22706,动态:21975,动态:22702,动态:22688,动态:4036,动态:22507,动态:21740,动态:22698,动态:17337,动态:20364,动态:21780,动态:22684,动态:21757,动态:21436,动态:22710,动态:20399</t>
+          <t>动态:15708,动态:15300,动态:20736,动态:15558,动态:18070,动态:2694,动态:16394,动态:14679,动态:7784,动态:16890,动态:20075,动态:17535,动态:10974,动态:12583,动态:242,动态:18230,动态:10921,动态:8133,动态:11265,动态:7402,动态:14722,动态:12592,动态:17168,动态:15671,动态:9050,动态:7378,动态:21741,动态:22667,动态:22697,动态:21975,动态:21780,动态:22507,动态:20440,动态:21756,动态:21745,动态:22688,动态:22706,动态:21776,动态:22146,动态:22698,动态:21753,动态:7746,动态:21972,动态:22692,动态:20720,动态:22699,动态:21436,动态:22685,动态:21727,动态:22684</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>动态:18083,动态:19537,动态:10774,动态:8610,动态:19279,动态:11168,动态:16076,动态:20170,动态:18362,动态:9133,动态:20511,动态:21675,动态:22287,动态:18000,动态:17265,动态:13445,动态:21757,动态:6904,动态:18331,动态:4176,动态:17443,动态:20337,动态:22692,动态:17337,动态:22698,动态:21556,动态:20364,动态:7746,动态:22688,动态:21741,动态:22512,动态:21436,动态:20439,动态:4036,动态:22710,动态:21756,动态:21737,动态:20440,动态:22706,动态:22685,动态:22323,动态:21857,动态:21763,动态:22146,动态:21727,动态:22667,动态:21972,动态:21975,动态:21745</t>
+          <t>动态:7130,动态:14017,动态:13466,动态:22042,动态:20908,动态:17391,动态:12240,动态:7736,动态:21589,动态:10578,动态:9798,动态:8607,动态:12831,动态:20248,动态:15389,动态:7025,动态:11034,动态:21757,动态:22699,动态:20440,动态:22507,动态:22688,动态:21753,动态:21776,动态:21436,动态:20364,动态:22667,动态:22684,动态:21756,动态:21972,动态:20439,动态:22697,动态:22659,动态:21857,动态:21556,动态:22698,动态:21745,动态:17337,动态:21737,动态:21727,动态:21741,动态:22685,动态:22512,动态:22706,动态:21763,动态:21780,动态:22692,动态:22702,动态:22710,动态:7746</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>动态:2938,动态:12003,动态:12878,动态:8596,动态:6608,动态:7154,动态:21763,动态:16821,动态:14977,动态:10073,动态:18241,动态:11807,动态:12903,动态:13406,动态:15302,动态:13990,动态:10290,动态:15174,动态:12587,动态:19494,动态:14640,动态:5353,动态:22696,动态:17337,动态:22692,动态:22698,动态:21737,动态:21740,动态:22684,动态:22512,动态:21975,动态:21745,动态:22697,动态:22680,动态:21556,动态:4036,动态:21756,动态:22019,动态:21857,动态:21741,动态:22710,动态:20720,动态:20364,动态:22688,动态:20399,动态:21776,动态:21780,动态:21753,动态:22667</t>
+          <t>动态:16614,动态:17977,动态:15770,动态:9783,动态:693,动态:14356,动态:13870,动态:16152,动态:9532,动态:16692,动态:12012,动态:15637,动态:11854,动态:11398,动态:13063,动态:11291,动态:9232,动态:12058,动态:18325,动态:6779,动态:22696,动态:22507,动态:22019,动态:22684,动态:21740,动态:7746,动态:21780,动态:21975,动态:21972,动态:20720,动态:21556,动态:21745,动态:21763,动态:21756,动态:21436,动态:20440,动态:21741,动态:22667,动态:22692,动态:21737,动态:22688,动态:4036,动态:22706,动态:22697,动态:21757,动态:20439,动态:21857,动态:20399,动态:17337,动态:21776</t>
         </is>
       </c>
     </row>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>动态:13073,动态:11526,动态:21532,动态:10474,动态:18688,动态:20487,动态:13634,动态:12046,动态:15145,动态:21719,动态:11379,动态:21200,动态:12356,动态:12974,动态:13297,动态:9461,动态:8221,动态:10122,动态:10553,动态:16651,动态:6842,动态:14502,动态:14230,动态:11488,动态:19006,动态:14701,动态:4345,动态:18356,动态:21741,动态:21776,动态:22323,动态:21737,动态:22680,动态:17337,动态:22659,动态:22710,动态:22696,动态:22019,动态:22699,动态:21740,动态:4036,动态:21753,动态:22507,动态:21757,动态:21745,动态:22667,动态:20720,动态:22512,动态:21756,动态:20399</t>
+          <t>动态:11106,动态:14566,动态:12435,动态:6597,动态:2760,动态:12306,动态:17535,动态:20115,动态:15477,动态:15095,动态:6897,动态:6577,动态:7125,动态:9146,动态:17642,动态:6580,动态:22692,动态:22323,动态:22146,动态:22019,动态:21741,动态:22667,动态:20720,动态:20364,动态:21757,动态:21857,动态:21740,动态:7746,动态:21763,动态:21776,动态:22699,动态:21756,动态:22688,动态:22697,动态:22512,动态:20440,动态:4036,动态:22696,动态:22698,动态:22680,动态:21753,动态:22685,动态:17337,动态:21737,动态:21436,动态:22684,动态:20439,动态:22702,动态:22706,动态:21727</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>动态:13937,动态:14456,动态:14373,动态:19417,动态:16076,动态:20810,动态:17755,动态:20460,动态:16377,动态:13043,动态:21022,动态:19095,动态:8524,动态:13680,动态:10517,动态:12901,动态:16048,动态:20444,动态:17694,动态:13377,动态:6252,动态:11278,动态:17960,动态:22697,动态:4036,动态:22512,动态:20440,动态:21756,动态:22702,动态:22680,动态:22685,动态:7746,动态:17337,动态:22710,动态:22706,动态:22146,动态:22659,动态:21975,动态:21436,动态:22688,动态:22667,动态:22698,动态:21753,动态:21727,动态:22696,动态:20720,动态:20439,动态:22019,动态:22692,动态:21737</t>
+          <t>动态:11432,动态:15044,动态:19655,动态:15702,动态:20666,动态:8259,动态:21017,动态:17127,动态:8171,动态:16571,动态:12718,动态:20460,动态:15705,动态:12861,动态:10135,动态:14676,动态:18281,动态:10928,动态:13036,动态:6897,动态:21780,动态:13409,动态:13134,动态:19847,动态:21648,动态:21745,动态:22710,动态:21741,动态:22146,动态:22685,动态:22684,动态:20364,动态:21975,动态:20720,动态:21776,动态:22699,动态:21756,动态:21972,动态:22702,动态:22667,动态:21757,动态:22512,动态:22706,动态:20440,动态:21857,动态:22019,动态:20399,动态:22507,动态:21753</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>动态:9492,动态:15463,动态:15201,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:840,动态:19834,动态:22702,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:22323,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22512,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:22698,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>动态:21959,动态:11620,动态:831,动态:11491,动态:20527,动态:13661,动态:11110,动态:7356,动态:22706,动态:11274,动态:18844,动态:6187,动态:20065,动态:21753,动态:20720,动态:22698,动态:21757,动态:22696,动态:21763,动态:22680,动态:22512,动态:21972,动态:22667,动态:21556,动态:21436,动态:20439,动态:21776,动态:21727,动态:22692,动态:22659,动态:20399,动态:22507,动态:22019,动态:4036,动态:22323,动态:21756,动态:22710,动态:21975,动态:21780,动态:22684,动态:22697,动态:22699,动态:17337,动态:21740,动态:20364,动态:21737,动态:21741,动态:21745,动态:7746</t>
+          <t>动态:19825,动态:16267,动态:7526,动态:12843,动态:22620,动态:12811,动态:13406,动态:22413,动态:9411,动态:10774,动态:6821,动态:6447,动态:7397,动态:14653,动态:10984,动态:10429,动态:6547,动态:10355,动态:22698,动态:20720,动态:20399,动态:22696,动态:22692,动态:22680,动态:21727,动态:21763,动态:21741,动态:22507,动态:22659,动态:20440,动态:21972,动态:21556,动态:22697,动态:21740,动态:21756,动态:21780,动态:22512,动态:4036,动态:22684,动态:21857,动态:21975,动态:20439,动态:22685,动态:22019,动态:21776,动态:21745,动态:22323,动态:21757,动态:21753,动态:22699</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>动态:4675,动态:16097,动态:19120,动态:14502,动态:20947,动态:12399,动态:15490,动态:15711,动态:3714,动态:14153,动态:19448,动态:13637,动态:15280,动态:16463,动态:18129,动态:12353,动态:7397,动态:3096,动态:20672,动态:10071,动态:22146,动态:22696,动态:21436,动态:21972,动态:22702,动态:21780,动态:22685,动态:20439,动态:22507,动态:22667,动态:7746,动态:22706,动态:22659,动态:22710,动态:21727,动态:20399,动态:17337,动态:22019,动态:21753,动态:22512,动态:21756,动态:21740,动态:21857,动态:22697,动态:20720,动态:20364,动态:22323,动态:21737,动态:21741,动态:22684</t>
+          <t>动态:22496,动态:11777,动态:6891,动态:18151,动态:20329,动态:15863,动态:20115,动态:6828,动态:11714,动态:20634,动态:8512,动态:14192,动态:22323,动态:1271,动态:12853,动态:13062,动态:12012,动态:18491,动态:10359,动态:3102,动态:22306,动态:20618,动态:14860,动态:22507,动态:21757,动态:22710,动态:21436,动态:21556,动态:22667,动态:22684,动态:22706,动态:22512,动态:22688,动态:21972,动态:22019,动态:4036,动态:7746,动态:21753,动态:21776,动态:21780,动态:22685,动态:21745,动态:22680,动态:20364,动态:22697,动态:21756,动态:22699,动态:21857,动态:20439</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>动态:7065,动态:9890,动态:15089,动态:13523,动态:22290,动态:11678,动态:17164,动态:16460,动态:9152,动态:19541,动态:16587,动态:10938,动态:14319,动态:9769,动态:8831,动态:12156,动态:11036,动态:14684,动态:6775,动态:14040,动态:19446,动态:10149,动态:6840,动态:21661,动态:6759,动态:19127,动态:21975,动态:22702,动态:7746,动态:17337,动态:22685,动态:21740,动态:21776,动态:22659,动态:22698,动态:20439,动态:21763,动态:22680,动态:21436,动态:20364,动态:21727,动态:22697,动态:22323,动态:22512,动态:4036,动态:22692,动态:22146,动态:22684,动态:20440,动态:20399</t>
+          <t>动态:20960,动态:20332,动态:6606,动态:13764,动态:7838,动态:13857,动态:20219,动态:11391,动态:18308,动态:21160,动态:14111,动态:11867,动态:12974,动态:14874,动态:8896,动态:19177,动态:7111,动态:15314,动态:6295,动态:15995,动态:10954,动态:15999,动态:22696,动态:4036,动态:22680,动态:22688,动态:21741,动态:22685,动态:21740,动态:22698,动态:22710,动态:21763,动态:22507,动态:21857,动态:20440,动态:22323,动态:22667,动态:21756,动态:22512,动态:21753,动态:21556,动态:17337,动态:21975,动态:22146,动态:22702,动态:21745,动态:7746,动态:21780,动态:20439</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>动态:6671,动态:19255,动态:19256,动态:13415,动态:18852,动态:18750,动态:20273,动态:11399,动态:16261,动态:19275,动态:14752,动态:8129,动态:5829,动态:11126,动态:11265,动态:17289,动态:15669,动态:9986,动态:15490,动态:10596,动态:19488,动态:13308,动态:11152,动态:6449,动态:13824,动态:15970,动态:10182,动态:20248,动态:10954,动态:16829,动态:10985,动态:13629,动态:13131,动态:5403,动态:13410,动态:11417,动态:20030,动态:8729,动态:13775,动态:16297,动态:13820,动态:6578,动态:11268,动态:18844,动态:19287,动态:19836,动态:18367,动态:21756,动态:7303,动态:11043</t>
+          <t>动态:19450,动态:16833,动态:19203,动态:17949,动态:18844,动态:8295,动态:19492,动态:7751,动态:16300,动态:10427,动态:8568,动态:20298,动态:11293,动态:17437,动态:17939,动态:16052,动态:14221,动态:845,动态:17954,动态:5778,动态:10605,动态:13084,动态:13054,动态:7047,动态:4680,动态:9476,动态:19847,动态:12057,动态:14682,动态:18341,动态:22706,动态:19269,动态:11408,动态:5403,动态:10765,动态:14009,动态:4627,动态:12894,动态:17696,动态:19707,动态:18531,动态:17723,动态:10956,动态:7408,动态:20143,动态:21741,动态:22696,动态:17337,动态:21727,动态:22688</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>动态:20738,动态:10967,动态:12012,动态:11503,动态:19200,动态:14565,动态:12002,动态:12150,动态:16223,动态:9936,动态:22096,动态:15389,动态:14465,动态:13410,动态:15095,动态:22512,动态:21556,动态:21776,动态:21780,动态:21763,动态:22146,动态:21740,动态:22019,动态:22699,动态:17337,动态:20364,动态:21857,动态:22692,动态:21756,动态:22710,动态:22659,动态:21436,动态:22680,动态:21737,动态:22507,动态:20399,动态:22685,动态:22696,动态:22706,动态:22698,动态:21972,动态:21745,动态:20440,动态:4036,动态:22702,动态:7746,动态:21741,动态:20720,动态:21757,动态:22323</t>
+          <t>动态:16942,动态:12293,动态:9786,动态:11442,动态:18673,动态:10966,动态:13062,动态:16312,动态:19938,动态:14962,动态:12821,动态:14475,动态:14311,动态:6135,动态:4419,动态:21780,动态:13036,动态:9425,动态:8769,动态:20364,动态:7746,动态:21727,动态:21741,动态:22706,动态:21556,动态:22512,动态:20439,动态:22698,动态:21857,动态:21737,动态:22323,动态:22692,动态:22507,动态:21763,动态:22697,动态:22702,动态:4036,动态:21972,动态:20399,动态:22019,动态:22699,动态:21757,动态:20440,动态:22696,动态:21740,动态:22710,动态:22146,动态:20720,动态:22659</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>动态:20634,动态:14892,动态:7006,动态:14426,动态:14802,动态:6026,动态:18211,动态:13497,动态:18653,动态:12046,动态:11126,动态:21654,动态:19401,动态:150,动态:15076,动态:9172,动态:22698,动态:21776,动态:20364,动态:21745,动态:22710,动态:21780,动态:21975,动态:21757,动态:21741,动态:22702,动态:22685,动态:22659,动态:20440,动态:22680,动态:7746,动态:21740,动态:22146,动态:22696,动态:22688,动态:22692,动态:22667,动态:21737,动态:21753,动态:21436,动态:21727,动态:22699,动态:22684,动态:22019,动态:22512,动态:22323,动态:22697,动态:20720,动态:20399,动态:21763</t>
+          <t>动态:6841,动态:19847,动态:19496,动态:12777,动态:14333,动态:20530,动态:21105,动态:8082,动态:8334,动态:8231,动态:18310,动态:9160,动态:21342,动态:9276,动态:18491,动态:6956,动态:9428,动态:19833,动态:10523,动态:21776,动态:22706,动态:20399,动态:21975,动态:21753,动态:21436,动态:21757,动态:21737,动态:21740,动态:21727,动态:22702,动态:21857,动态:22697,动态:20439,动态:22323,动态:21972,动态:21763,动态:4036,动态:22692,动态:22684,动态:22680,动态:22698,动态:20440,动态:22667,动态:21756,动态:20720,动态:22696,动态:22146,动态:17337,动态:22512,动态:22685</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>动态:22282,动态:15533,动态:12897,动态:15387,动态:15926,动态:11643,动态:18755,动态:15708,动态:17205,动态:10478,动态:11418,动态:17657,动态:9795,动态:16641,动态:20137,动态:13824,动态:13040,动态:21727,动态:22692,动态:20720,动态:21753,动态:21436,动态:22146,动态:22323,动态:22710,动态:21972,动态:20399,动态:22512,动态:21556,动态:22667,动态:21780,动态:22698,动态:21745,动态:22659,动态:21975,动态:21757,动态:22507,动态:21741,动态:22699,动态:21756,动态:17337,动态:22706,动态:7746,动态:21857,动态:22697,动态:21737,动态:21740,动态:20364,动态:4036,动态:21763</t>
+          <t>动态:6643,动态:18618,动态:15000,动态:10632,动态:19424,动态:20048,动态:7710,动态:16873,动态:19368,动态:16518,动态:14805,动态:9507,动态:19987,动态:14931,动态:12593,动态:15144,动态:21975,动态:22692,动态:20439,动态:21753,动态:21727,动态:20720,动态:22323,动态:22507,动态:21857,动态:21436,动态:21972,动态:17337,动态:22696,动态:21740,动态:20440,动态:22706,动态:21737,动态:20399,动态:22680,动态:22710,动态:22688,动态:21763,动态:21741,动态:21756,动态:7746,动态:22146,动态:22699,动态:22685,动态:22698,动态:22697,动态:21757,动态:22019,动态:21745,动态:20364</t>
         </is>
       </c>
     </row>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>动态:15775,动态:16049,动态:18266,动态:7735,动态:11284,动态:11363,动态:14069,动态:14658,动态:11750,动态:12874,动态:13857,动态:12914,动态:11452,动态:12898,动态:11389,动态:6914,动态:10519,动态:6363,动态:17949,动态:15093,动态:4815,动态:22698,动态:22512,动态:22702,动态:20364,动态:22699,动态:21757,动态:22692,动态:4036,动态:22706,动态:22688,动态:21436,动态:21857,动态:20439,动态:21745,动态:21727,动态:21556,动态:7746,动态:22684,动态:21975,动态:21756,动态:22323,动态:21780,动态:17337,动态:21776,动态:22697,动态:21753,动态:22019,动态:22680,动态:20720</t>
+          <t>动态:8997,动态:16580,动态:17847,动态:19706,动态:8809,动态:3115,动态:21118,动态:10939,动态:14802,动态:9798,动态:6597,动态:21498,动态:15855,动态:17768,动态:11209,动态:17941,动态:11450,动态:6773,动态:21005,动态:7746,动态:6863,动态:11059,动态:12598,动态:20362,动态:9039,动态:22696,动态:21436,动态:22702,动态:22019,动态:20399,动态:20720,动态:21745,动态:17337,动态:22680,动态:21753,动态:21741,动态:22697,动态:21757,动态:22659,动态:22512,动态:22667,动态:22685,动态:20439,动态:22698,动态:22507,动态:21857,动态:20440,动态:21756,动态:21727</t>
         </is>
       </c>
     </row>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>动态:13256,动态:20092,动态:6479,动态:20153,动态:12305,动态:15302,动态:11660,动态:14570,动态:10165,动态:14811,动态:7161,动态:16232,动态:16760,动态:13425,动态:9440,动态:11906,动态:20623,动态:9936,动态:11452,动态:20268,动态:17336,动态:13672,动态:15698,动态:14141,动态:11004,动态:13678,动态:9525,动态:15090,动态:15638,动态:6592,动态:14441,动态:15117,动态:12573,动态:19130,动态:17574,动态:6317,动态:11162,动态:14679,动态:12380,动态:8122,动态:21317,动态:3806,动态:7133,动态:16802,动态:16740,动态:21740,动态:20607,动态:21763,动态:22323,动态:22502</t>
+          <t>动态:18248,动态:21577,动态:11162,动态:20310,动态:19373,动态:9780,动态:17471,动态:22290,动态:13605,动态:3738,动态:18695,动态:22430,动态:21112,动态:14688,动态:21678,动态:20482,动态:14345,动态:11064,动态:11730,动态:10779,动态:12901,动态:17097,动态:11158,动态:20451,动态:8573,动态:15173,动态:14253,动态:17122,动态:21413,动态:19973,动态:9134,动态:17559,动态:11613,动态:11991,动态:22673,动态:14703,动态:10242,动态:15861,动态:9463,动态:9204,动态:13875,动态:11215,动态:21266,动态:21526,动态:9307,动态:10930,动态:21436,动态:16514,动态:4895,动态:16296</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>动态:20960,动态:11449,动态:6826,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
+          <t>动态:11736,动态:12974,动态:11393,动态:22710,动态:21737,动态:21756,动态:22146,动态:21972,动态:20440,动态:21763,动态:21776,动态:21556,动态:22684,动态:20720,动态:22688,动态:21975,动态:21745,动态:21436,动态:21753,动态:21857,动态:22019,动态:22659,动态:22667,动态:22507,动态:22680,动态:21727,动态:17337,动态:20439,动态:21757,动态:21740,动态:21741,动态:22699,动态:22696,动态:20399,动态:7746,动态:22706,动态:20364,动态:22697,动态:22692,动态:4036,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>动态:19473,动态:20837,动态:16450,动态:12638,动态:12655,动态:18956,动态:12874,动态:20379,动态:18082,动态:12904,动态:9087,动态:7038,动态:13958,动态:13287,动态:10389,动态:16052,动态:13084,动态:10298,动态:8292,动态:4813,动态:17627,动态:17939,动态:13820,动态:10482,动态:22702,动态:22512,动态:22699,动态:22680,动态:21776,动态:20440,动态:22659,动态:22697,动态:21727,动态:22685,动态:21753,动态:20720,动态:22710,动态:21757,动态:21763,动态:7746,动态:21780,动态:22698,动态:20364,动态:21857,动态:22688,动态:4036,动态:21740,动态:17337,动态:20399,动态:22706</t>
+          <t>动态:8078,动态:18409,动态:19994,动态:13081,动态:781,动态:18509,动态:9118,动态:13894,动态:15933,动态:21965,动态:15505,动态:6869,动态:6777,动态:21436,动态:22698,动态:20440,动态:21753,动态:20720,动态:22699,动态:22659,动态:22680,动态:22702,动态:22692,动态:22688,动态:21972,动态:22697,动态:21556,动态:21727,动态:20364,动态:7746,动态:4036,动态:21745,动态:22667,动态:21776,动态:22507,动态:22706,动态:20399,动态:22019,动态:20439,动态:21780,动态:21763,动态:22696,动态:21756,动态:21737,动态:21975,动态:21741,动态:22512,动态:22685,动态:21757,动态:21857</t>
         </is>
       </c>
     </row>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>动态:21206,动态:14080,动态:20310,动态:15166,动态:18871,动态:18988,动态:12930,动态:21752,动态:20870,动态:19608,动态:6888,动态:13389,动态:5255,动态:11590,动态:6863,动态:14638,动态:7477,动态:17307,动态:6293,动态:16273,动态:22702,动态:22667,动态:21757,动态:21972,动态:21741,动态:22680,动态:21857,动态:22696,动态:21780,动态:22507,动态:21753,动态:22710,动态:20399,动态:22685,动态:22512,动态:21776,动态:21975,动态:22688,动态:20440,动态:7746,动态:21756,动态:21745,动态:21763,动态:22697,动态:22323,动态:21737,动态:21740,动态:20720,动态:22698,动态:21436</t>
+          <t>动态:13569,动态:14679,动态:18813,动态:7833,动态:9150,动态:3249,动态:20823,动态:12614,动态:14284,动态:20520,动态:13868,动态:11069,动态:14890,动态:12364,动态:11599,动态:11059,动态:10298,动态:6867,动态:14722,动态:10077,动态:150,动态:17107,动态:11278,动态:14214,动态:21727,动态:21436,动态:7746,动态:21740,动态:22692,动态:20720,动态:22698,动态:20439,动态:22146,动态:22699,动态:22659,动态:21745,动态:22706,动态:21741,动态:21753,动态:17337,动态:21556,动态:4036,动态:22702,动态:22685,动态:21737,动态:21975,动态:20364,动态:22019,动态:21776,动态:20440</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>动态:15815,动态:12558,动态:6529,动态:6680,动态:14515,动态:21103,动态:15696,动态:22096,动态:11590,动态:17721,动态:19853,动态:2926,动态:22680,动态:22710,动态:21556,动态:21740,动态:21436,动态:21741,动态:22019,动态:21763,动态:22702,动态:22696,动态:20720,动态:7746,动态:21753,动态:22659,动态:20364,动态:22688,动态:21745,动态:17337,动态:22667,动态:21975,动态:21780,动态:21756,动态:22706,动态:21857,动态:22697,动态:21776,动态:4036,动态:22685,动态:21737,动态:20440,动态:21727,动态:21757,动态:22699,动态:22684,动态:22507,动态:20439,动态:21972,动态:22512</t>
+          <t>动态:19028,动态:17574,动态:13142,动态:16603,动态:18308,动态:10096,动态:19530,动态:16743,动态:18462,动态:10914,动态:19149,动态:8259,动态:10956,动态:6819,动态:17943,动态:6581,动态:15137,动态:7376,动态:2926,动态:22097,动态:17697,动态:22659,动态:22692,动态:21756,动态:21436,动态:22507,动态:21727,动态:22512,动态:22680,动态:22685,动态:21763,动态:20440,动态:22702,动态:7746,动态:21780,动态:22697,动态:17337,动态:22688,动态:21975,动态:22696,动态:21757,动态:21737,动态:21753,动态:20364,动态:4036,动态:21972,动态:22323,动态:21556,动态:22706,动态:22710</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>动态:6638,动态:12871,动态:18995,动态:5255,动态:20978,动态:15485,动态:12126,动态:16614,动态:20734,动态:8827,动态:11813,动态:11048,动态:13661,动态:22113,动态:15188,动态:20127,动态:19486,动态:17529,动态:789,动态:20714,动态:14373,动态:8171,动态:11596,动态:16048,动态:21003,动态:10465,动态:19279,动态:11564,动态:13930,动态:22436,动态:18282,动态:8896,动态:15885,动态:11967,动态:20922,动态:10870,动态:16109,动态:15071,动态:6688,动态:7171,动态:14546,动态:10931,动态:15183,动态:7110,动态:3841,动态:22685,动态:20440,动态:6621,动态:22659,动态:15931</t>
+          <t>动态:3841,动态:15886,动态:20762,动态:11497,动态:12766,动态:6648,动态:17976,动态:13930,动态:19368,动态:13631,动态:20831,动态:11469,动态:1360,动态:12890,动态:10478,动态:19812,动态:20022,动态:784,动态:1355,动态:7223,动态:12736,动态:11542,动态:20937,动态:19689,动态:15929,动态:22460,动态:15463,动态:15173,动态:8766,动态:18168,动态:15940,动态:14417,动态:12829,动态:12679,动态:13548,动态:11081,动态:7586,动态:11592,动态:11458,动态:21436,动态:13690,动态:16539,动态:15495,动态:19356,动态:22375,动态:21727,动态:19175,动态:12835,动态:21757,动态:3707</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>动态:6776,动态:8014,动态:15864,动态:15861,动态:21368,动态:17391,动态:15425,动态:12311,动态:16514,动态:13366,动态:17535,动态:10069,动态:14008,动态:13682,动态:10113,动态:16563,动态:13734,动态:21753,动态:22698,动态:7746,动态:22685,动态:22696,动态:21763,动态:21857,动态:22680,动态:21756,动态:21972,动态:22688,动态:22507,动态:22684,动态:21737,动态:22667,动态:21436,动态:22699,动态:20440,动态:21780,动态:21757,动态:20720,动态:21745,动态:20364,动态:22146,动态:21776,动态:22323,动态:21975,动态:22702,动态:4036,动态:22659,动态:21741,动态:22512,动态:20439</t>
+          <t>动态:4205,动态:10301,动态:10581,动态:15505,动态:13786,动态:16281,动态:11280,动态:16539,动态:13136,动态:13605,动态:14248,动态:18072,动态:16580,动态:21139,动态:11045,动态:14345,动态:8745,动态:16315,动态:11984,动态:12374,动态:11599,动态:20606,动态:13592,动态:14545,动态:15577,动态:7119,动态:6632,动态:22692,动态:22706,动态:22697,动态:21972,动态:21741,动态:21737,动态:22146,动态:21780,动态:21763,动态:17337,动态:22684,动态:21857,动态:20364,动态:22699,动态:22667,动态:7746,动态:22696,动态:22323,动态:22702,动态:20439,动态:22507,动态:21776,动态:22512</t>
         </is>
       </c>
     </row>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>动态:12180,动态:18557,动态:18368,动态:13696,动态:6808,动态:13637,动态:20066,动态:20923,动态:19426,动态:7324,动态:12831,动态:13327,动态:6191,动态:9442,动态:8129,动态:21975,动态:21857,动态:22323,动态:21753,动态:22696,动态:22710,动态:22688,动态:20440,动态:21727,动态:22698,动态:22699,动态:21780,动态:22680,动态:22659,动态:22512,动态:22697,动态:22667,动态:22684,动态:21741,动态:21763,动态:21556,动态:21745,动态:22146,动态:17337,动态:21972,动态:22702,动态:7746,动态:22692,动态:22019,动态:20364,动态:21756,动态:20439,动态:21776,动态:21757,动态:4036</t>
+          <t>动态:17757,动态:12843,动态:17542,动态:14147,动态:19606,动态:22501,动态:16844,动态:20978,动态:16873,动态:8515,动态:10937,动态:5149,动态:11463,动态:7131,动态:5400,动态:18953,动态:8600,动态:10581,动态:18327,动态:14719,动态:8729,动态:22697,动态:22696,动态:21740,动态:22667,动态:7746,动态:21737,动态:22659,动态:17337,动态:22512,动态:20439,动态:22323,动态:21436,动态:22710,动态:22706,动态:22019,动态:22692,动态:20440,动态:21780,动态:21556,动态:20364,动态:22698,动态:21745,动态:21757,动态:21975,动态:21756,动态:20720,动态:22680,动态:22702,动态:22688</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>动态:20496,动态:22254,动态:17566,动态:20261,动态:6983,动态:20640,动态:6452,动态:11015,动态:20926,动态:21876,动态:9143,动态:19153,动态:8221,动态:18849,动态:20316,动态:19883,动态:17296,动态:10072,动态:11459,动态:7978,动态:10549,动态:22507,动态:21727,动态:22710,动态:22667,动态:22696,动态:21741,动态:22692,动态:22512,动态:21857,动态:21740,动态:22702,动态:21756,动态:20439,动态:20399,动态:20440,动态:21757,动态:7746,动态:21975,动态:22699,动态:22146,动态:22019,动态:21745,动态:20720,动态:21753,动态:21776,动态:22685,动态:21780,动态:21737,动态:22323</t>
+          <t>动态:13495,动态:11433,动态:16086,动态:16648,动态:16049,动态:22400,动态:13582,动态:7513,动态:16853,动态:15323,动态:4880,动态:14655,动态:13064,动态:21741,动态:22507,动态:22146,动态:22692,动态:21727,动态:22697,动态:22685,动态:22688,动态:22696,动态:21975,动态:21780,动态:21737,动态:21757,动态:22702,动态:22512,动态:22019,动态:21763,动态:20364,动态:22699,动态:21740,动态:7746,动态:20399,动态:21436,动态:22667,动态:22710,动态:20440,动态:21972,动态:20720,动态:21753,动态:22323,动态:21756,动态:21745,动态:4036,动态:21857,动态:21556,动态:22684,动态:22706</t>
         </is>
       </c>
     </row>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>动态:9480,动态:12878,动态:6688,动态:13623,动态:20677,动态:9083,动态:13051,动态:12984,动态:15756,动态:8799,动态:14043,动态:19092,动态:13366,动态:11263,动态:19593,动态:20736,动态:8659,动态:9428,动态:13990,动态:19653,动态:12372,动态:20720,动态:21972,动态:4036,动态:21556,动态:21857,动态:7746,动态:21975,动态:21780,动态:22684,动态:21753,动态:20364,动态:22697,动态:22702,动态:21741,动态:22699,动态:22688,动态:22685,动态:21727,动态:22323,动态:22698,动态:22146,动态:21756,动态:22692,动态:20439,动态:22696,动态:21776,动态:21763,动态:22680,动态:21436</t>
+          <t>动态:9040,动态:16417,动态:13970,动态:13661,动态:20479,动态:22101,动态:19878,动态:15641,动态:9788,动态:7526,动态:18075,动态:8494,动态:13391,动态:18164,动态:4304,动态:6500,动态:6845,动态:11447,动态:15344,动态:10380,动态:19282,动态:22702,动态:22685,动态:22698,动态:22696,动态:22699,动态:22323,动态:21972,动态:21763,动态:21741,动态:22659,动态:20399,动态:21780,动态:20440,动态:21757,动态:20439,动态:21737,动态:22684,动态:21756,动态:21436,动态:21556,动态:22688,动态:22706,动态:22680,动态:22507,动态:22512,动态:20364,动态:21740,动态:22692,动态:21745</t>
         </is>
       </c>
     </row>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>动态:20985,动态:6956,动态:16817,动态:22281,动态:22032,动态:14570,动态:13176,动态:18020,动态:6548,动态:18087,动态:7004,动态:17174,动态:16613,动态:3096,动态:6902,动态:9050,动态:17719,动态:5830,动态:22667,动态:22507,动态:22680,动态:22019,动态:22702,动态:21745,动态:20720,动态:21753,动态:21757,动态:21741,动态:21727,动态:22323,动态:21556,动态:22684,动态:20399,动态:20364,动态:20439,动态:22692,动态:21737,动态:21776,动态:22688,动态:17337,动态:21780,动态:22698,动态:7746,动态:22697,动态:22512,动态:21857,动态:22685,动态:22699,动态:21436,动态:21972</t>
+          <t>动态:12015,动态:11813,动态:21530,动态:11209,动态:11790,动态:8170,动态:14080,动态:11307,动态:18527,动态:19473,动态:12011,动态:21535,动态:16036,动态:15926,动态:14107,动态:19401,动态:17375,动态:14008,动态:4036,动态:7826,动态:14502,动态:845,动态:18492,动态:16475,动态:15483,动态:8962,动态:22667,动态:21757,动态:21780,动态:21776,动态:20720,动态:22692,动态:22702,动态:20399,动态:22680,动态:21857,动态:22698,动态:21753,动态:21763,动态:22688,动态:21745,动态:21975,动态:22512,动态:22699,动态:21436,动态:21556,动态:22696,动态:21737,动态:22146,动态:22697</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>动态:9078,动态:10189,动态:14999,动态:16165,动态:21704,动态:15596,动态:17184,动态:6688,动态:7678,动态:19940,动态:6779,动态:12916,动态:19231,动态:20997,动态:8177,动态:22507,动态:21745,动态:7746,动态:21857,动态:21737,动态:22680,动态:22688,动态:21763,动态:22667,动态:21756,动态:22685,动态:21436,动态:17337,动态:22706,动态:21972,动态:20720,动态:21975,动态:21753,动态:21776,动态:22684,动态:21780,动态:22512,动态:21740,动态:22697,动态:22698,动态:22692,动态:22702,动态:21757,动态:21556,动态:21741,动态:20440,动态:22323,动态:4036,动态:20364,动态:20399</t>
+          <t>动态:11771,动态:15869,动态:13042,动态:11365,动态:18197,动态:16766,动态:13682,动态:14688,动态:19214,动态:21206,动态:12334,动态:12977,动态:11724,动态:15950,动态:12031,动态:11011,动态:16277,动态:13810,动态:19006,动态:11112,动态:21556,动态:21753,动态:22685,动态:21740,动态:22697,动态:4036,动态:22667,动态:17337,动态:22692,动态:22706,动态:22507,动态:21745,动态:22680,动态:22698,动态:22659,动态:20720,动态:22699,动态:21763,动态:22702,动态:21857,动态:21975,动态:22323,动态:21776,动态:21972,动态:22684,动态:22688,动态:7746,动态:20364,动态:21780,动态:21436</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>动态:17487,动态:19896,动态:21707,动态:14464,动态:19123,动态:19828,动态:1299,动态:10941,动态:21718,动态:13621,动态:16585,动态:12930,动态:22484,动态:14949,动态:12844,动态:14003,动态:21413,动态:20248,动态:21737,动态:21740,动态:21780,动态:21741,动态:22697,动态:22684,动态:22146,动态:22702,动态:22692,动态:20440,动态:22685,动态:21745,动态:21857,动态:22659,动态:22680,动态:20399,动态:21975,动态:21727,动态:21972,动态:22507,动态:22019,动态:22698,动态:22696,动态:22667,动态:4036,动态:21753,动态:22323,动态:21763,动态:22688,动态:22699,动态:22710,动态:17337</t>
+          <t>动态:3841,动态:19629,动态:9132,动态:3107,动态:16697,动态:9307,动态:8892,动态:14997,动态:15754,动态:12045,动态:6906,动态:11967,动态:15073,动态:13066,动态:19592,动态:6622,动态:16368,动态:20864,动态:20399,动态:21741,动态:22659,动态:21556,动态:20440,动态:21727,动态:22507,动态:21776,动态:22512,动态:21745,动态:21763,动态:22323,动态:20364,动态:22685,动态:21436,动态:21975,动态:20720,动态:22146,动态:22697,动态:21753,动态:4036,动态:21737,动态:22698,动态:21757,动态:22699,动态:22702,动态:21756,动态:21740,动态:22696,动态:21780,动态:22706,动态:22019</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>动态:6453,动态:3249,动态:13255,动态:20502,动态:15696,动态:3814,动态:20153,动态:14630,动态:19356,动态:17974,动态:11787,动态:12365,动态:12406,动态:16580,动态:7978,动态:6794,动态:5400,动态:6683,动态:21757,动态:22688,动态:21857,动态:21727,动态:22699,动态:22698,动态:21763,动态:22710,动态:22019,动态:22697,动态:21972,动态:20440,动态:7746,动态:21975,动态:21556,动态:22684,动态:22702,动态:21737,动态:21753,动态:20720,动态:21780,动态:20399,动态:22696,动态:22146,动态:22706,动态:21436,动态:21740,动态:20364,动态:22512,动态:21776,动态:21756,动态:22323</t>
+          <t>动态:11383,动态:4979,动态:18165,动态:16697,动态:14649,动态:11611,动态:19527,动态:22501,动态:22650,动态:6983,动态:12049,动态:11940,动态:14026,动态:7303,动态:6449,动态:12064,动态:6869,动态:22659,动态:22146,动态:21763,动态:21756,动态:21857,动态:22667,动态:22512,动态:21741,动态:21745,动态:22685,动态:17337,动态:22019,动态:4036,动态:20440,动态:22698,动态:21757,动态:22680,动态:22323,动态:22699,动态:22706,动态:22697,动态:22710,动态:20720,动态:22692,动态:21780,动态:22702,动态:20364,动态:20399,动态:21776,动态:22684,动态:22688,动态:22507,动态:21972</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>动态:13990,动态:8231,动态:7105,动态:3144,动态:13883,动态:11011,动态:20048,动态:6679,动态:11177,动态:15556,动态:11126,动态:6848,动态:8940,动态:9860,动态:10754,动态:10519,动态:21482,动态:13269,动态:21044,动态:18059,动态:8378,动态:12334,动态:10516,动态:6464,动态:11408,动态:10135,动态:22696,动态:22688,动态:21740,动态:22685,动态:22507,动态:21776,动态:20439,动态:20364,动态:21753,动态:21741,动态:21975,动态:21972,动态:22667,动态:20720,动态:22019,动态:22710,动态:22512,动态:21745,动态:21763,动态:20399,动态:22698,动态:21737,动态:21780,动态:21727</t>
+          <t>动态:9152,动态:11365,动态:13377,动态:14463,动态:6888,动态:17487,动态:10870,动态:9307,动态:13864,动态:17573,动态:18750,动态:15620,动态:9554,动态:14673,动态:7376,动态:12077,动态:7368,动态:22276,动态:16460,动态:17554,动态:21881,动态:6831,动态:18500,动态:22323,动态:20720,动态:22512,动态:22146,动态:7746,动态:22697,动态:21975,动态:4036,动态:21436,动态:22667,动态:21780,动态:21753,动态:17337,动态:22692,动态:22699,动态:22710,动态:21740,动态:21857,动态:20439,动态:21756,动态:21972,动态:20364,动态:21737,动态:21727,动态:21556,动态:22706,动态:21757</t>
         </is>
       </c>
     </row>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>动态:12000,动态:5385,动态:621,动态:17515,动态:16052,动态:10241,动态:19369,动态:11340,动态:8124,动态:14676,动态:15044,动态:22114,动态:16257,动态:18844,动态:15755,动态:14977,动态:21675,动态:10890,动态:1797,动态:8915,动态:15589,动态:11123,动态:8629,动态:10116,动态:22146,动态:21776,动态:20440,动态:22692,动态:21741,动态:21757,动态:21436,动态:21753,动态:22697,动态:22680,动态:21727,动态:21972,动态:21975,动态:22710,动态:17337,动态:7746,动态:22706,动态:20399,动态:21556,动态:4036,动态:20439,动态:21737,动态:22512,动态:21756,动态:22507,动态:22323</t>
+          <t>动态:6086,动态:14676,动态:20348,动态:16646,动态:21319,动态:12589,动态:21103,动态:11034,动态:18606,动态:18462,动态:18372,动态:18986,动态:17060,动态:20870,动态:15054,动态:21763,动态:21972,动态:22692,动态:21776,动态:20439,动态:21727,动态:21857,动态:22323,动态:20399,动态:22512,动态:17337,动态:22146,动态:4036,动态:21756,动态:22696,动态:21757,动态:21753,动态:22684,动态:21741,动态:22710,动态:22688,动态:21556,动态:22019,动态:21436,动态:21737,动态:21740,动态:22507,动态:22685,动态:20440,动态:22702,动态:22698,动态:20720,动态:22680,动态:22659,动态:22697</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>动态:10553,动态:9184,动态:13140,动态:15946,动态:14215,动态:6610,动态:20994,动态:20398,动态:11328,动态:11077,动态:17085,动态:2694,动态:12821,动态:22288,动态:14504,动态:10964,动态:19991,动态:12325,动态:13584,动态:19650,动态:4302,动态:4419,动态:11154,动态:20634,动态:10557,动态:5896,动态:11564,动态:21757,动态:20720,动态:22698,动态:21972,动态:22696,动态:22323,动态:21727,动态:22688,动态:22692,动态:17337,动态:22507,动态:21741,动态:21857,动态:22685,动态:22706,动态:21745,动态:21763,动态:22699,动态:21776,动态:20440,动态:21740,动态:22680,动态:22659</t>
+          <t>动态:21084,动态:6026,动态:14333,动态:15757,动态:13469,动态:18527,动态:19908,动态:17548,动态:8741,动态:781,动态:11455,动态:12936,动态:11466,动态:19723,动态:11385,动态:18557,动态:21197,动态:21741,动态:21972,动态:4036,动态:21975,动态:22146,动态:22696,动态:21556,动态:22706,动态:22512,动态:21737,动态:22680,动态:21745,动态:17337,动态:22019,动态:22667,动态:22699,动态:21436,动态:22507,动态:20440,动态:20439,动态:21776,动态:22710,动态:22688,动态:20364,动态:22684,动态:22697,动态:22698,动态:21753,动态:21757,动态:22685,动态:21727,动态:21756,动态:21763</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>动态:14003,动态:22252,动态:21095,动态:21793,动态:11566,动态:11814,动态:15157,动态:19606,动态:3806,动态:18941,动态:14247,动态:10248,动态:15221,动态:18659,动态:22706,动态:19659,动态:20364,动态:22697,动态:21857,动态:22019,动态:21972,动态:22680,动态:22702,动态:20440,动态:22507,动态:21727,动态:21763,动态:21753,动态:22512,动态:21757,动态:20399,动态:22667,动态:21975,动态:21556,动态:22699,动态:22323,动态:22685,动态:22698,动态:22684,动态:21745,动态:21737,动态:22659,动态:22688,动态:22696,动态:21776,动态:4036,动态:7746,动态:21741,动态:21436</t>
+          <t>动态:11946,动态:12883,动态:12281,动态:8835,动态:17607,动态:19531,动态:14733,动态:6831,动态:12231,动态:9433,动态:3584,动态:21717,动态:3107,动态:11416,动态:6666,动态:8108,动态:5385,动态:19256,动态:22323,动态:21740,动态:20440,动态:21756,动态:21737,动态:20399,动态:17337,动态:21436,动态:20364,动态:22680,动态:22702,动态:22146,动态:21727,动态:22696,动态:22706,动态:22512,动态:4036,动态:21753,动态:21776,动态:22698,动态:21741,动态:22685,动态:22692,动态:22667,动态:21780,动态:21975,动态:22684,动态:7746,动态:21745,动态:20720,动态:22019,动态:21857</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>动态:13870,动态:12672,动态:16450,动态:19645,动态:17102,动态:9936,动态:6647,动态:15347,动态:11158,动态:13413,动态:20475,动态:7978,动态:10921,动态:17951,动态:15326,动态:8465,动态:19940,动态:16086,动态:21757,动态:22706,动态:21763,动态:21780,动态:20439,动态:21737,动态:21857,动态:21972,动态:20364,动态:21753,动态:4036,动态:20720,动态:22019,动态:22699,动态:22146,动态:20440,动态:22710,动态:22323,动态:20399,动态:21741,动态:21436,动态:21740,动态:22507,动态:17337,动态:22685,动态:22667,动态:21756,动态:22512,动态:21556,动态:21727,动态:7746,动态:22696</t>
+          <t>动态:14232,动态:21704,动态:17174,动态:16290,动态:15477,动态:13296,动态:11440,动态:5115,动态:9996,动态:11152,动态:13132,动态:11684,动态:11293,动态:14997,动态:12898,动态:12304,动态:19749,动态:17957,动态:3705,动态:20875,动态:10135,动态:12427,动态:14431,动态:13376,动态:8729,动态:17697,动态:22710,动态:20399,动态:20440,动态:21857,动态:21753,动态:22323,动态:21727,动态:20439,动态:21556,动态:21737,动态:4036,动态:22512,动态:22507,动态:22697,动态:22685,动态:22667,动态:22706,动态:21741,动态:21776,动态:21745,动态:21780,动态:21972,动态:20720,动态:17337</t>
         </is>
       </c>
     </row>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>动态:14035,动态:11690,动态:10375,动态:6618,动态:12381,动态:6623,动态:2707,动态:15787,动态:18506,动态:19037,动态:18791,动态:14948,动态:17848,动态:12902,动态:19368,动态:14141,动态:13327,动态:8133,动态:20132,动态:11386,动态:21975,动态:20439,动态:22697,动态:21741,动态:22667,动态:22507,动态:22710,动态:20364,动态:22685,动态:21737,动态:20440,动态:21556,动态:21753,动态:17337,动态:20399,动态:21763,动态:21740,动态:22702,动态:20720,动态:21776,动态:21972,动态:22696,动态:4036,动态:22692,动态:21757,动态:22688,动态:7746,动态:22698,动态:21756,动态:22699</t>
+          <t>动态:9214,动态:21371,动态:14962,动态:19170,动态:19606,动态:17145,动态:22479,动态:11022,动态:13686,动态:14716,动态:16068,动态:15861,动态:14498,动态:13056,动态:15425,动态:17234,动态:11152,动态:11067,动态:18238,动态:19287,动态:7131,动态:18167,动态:6895,动态:22696,动态:22512,动态:21780,动态:20440,动态:22019,动态:21857,动态:21972,动态:21740,动态:21737,动态:22659,动态:21741,动态:21763,动态:22685,动态:21757,动态:20364,动态:22697,动态:21753,动态:22146,动态:22688,动态:20720,动态:21776,动态:21556,动态:21745,动态:21727,动态:21436,动态:22702,动态:4036</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>动态:13838,动态:22620,动态:9769,动态:18459,动态:1372,动态:14964,动态:19097,动态:18492,动态:19278,动态:6630,动态:6848,动态:15789,动态:6294,动态:16620,动态:22697,动态:22699,动态:22685,动态:21975,动态:22692,动态:22667,动态:22680,动态:21780,动态:21753,动态:22146,动态:21737,动态:20364,动态:22688,动态:21436,动态:21857,动态:22507,动态:4036,动态:21556,动态:22684,动态:21756,动态:22019,动态:7746,动态:21763,动态:22659,动态:21740,动态:20399,动态:20439,动态:20720,动态:22710,动态:21757,动态:21776,动态:22696,动态:21972,动态:21745,动态:21741,动态:22706</t>
+          <t>动态:7817,动态:21531,动态:17860,动态:11523,动态:8174,动态:11948,动态:4993,动态:1289,动态:16109,动态:8773,动态:17917,动态:13358,动态:17318,动态:6886,动态:11433,动态:1721,动态:3838,动态:12053,动态:19264,动态:6581,动态:6580,动态:22323,动态:22688,动态:17337,动态:7746,动态:21436,动态:20399,动态:21740,动态:21556,动态:21763,动态:22696,动态:21737,动态:22702,动态:20439,动态:21727,动态:22659,动态:20720,动态:22019,动态:22692,动态:22706,动态:20440,动态:21741,动态:22710,动态:22699,动态:4036,动态:21780,动态:22507,动态:22684,动态:21857,动态:22697</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>动态:10993,动态:11074,动态:20351,动态:12300,动态:22242,动态:21740,动态:14161,动态:20525,动态:9527,动态:19253,动态:10971,动态:12017,动态:17196,动态:11070,动态:13684,动态:19723,动态:16358,动态:21304,动态:11269,动态:21972,动态:22696,动态:21780,动态:21857,动态:22698,动态:20720,动态:22680,动态:22685,动态:21727,动态:21436,动态:21975,动态:22699,动态:20399,动态:21556,动态:22702,动态:20439,动态:7746,动态:21753,动态:21757,动态:22146,动态:22659,动态:22706,动态:22323,动态:21745,动态:21756,动态:22692,动态:20440,动态:22684,动态:22697,动态:22667</t>
+          <t>动态:17970,动态:13746,动态:15015,动态:16717,动态:16713,动态:22295,动态:18883,动态:16215,动态:14816,动态:12331,动态:17562,动态:17738,动态:14707,动态:5896,动态:8292,动态:17091,动态:20517,动态:10869,动态:10955,动态:16900,动态:783,动态:12304,动态:19834,动态:22692,动态:21780,动态:21763,动态:22680,动态:22019,动态:22667,动态:21753,动态:21737,动态:21972,动态:22512,动态:4036,动态:22659,动态:20720,动态:7746,动态:21857,动态:21745,动态:21757,动态:20439,动态:22698,动态:21727,动态:21741,动态:22699,动态:21975,动态:20399,动态:21556,动态:22710,动态:21436</t>
         </is>
       </c>
     </row>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>动态:17649,动态:12311,动态:10073,动态:6134,动态:17963,动态:12917,动态:19642,动态:6898,动态:10989,动态:12614,动态:14683,动态:16603,动态:19491,动态:14841,动态:4813,动态:16131,动态:8133,动态:8140,动态:3796,动态:11478,动态:22323,动态:21737,动态:21753,动态:7746,动态:22697,动态:22699,动态:22680,动态:22146,动态:20399,动态:22684,动态:22667,动态:21741,动态:4036,动态:22659,动态:22696,动态:21745,动态:17337,动态:21727,动态:21756,动态:21757,动态:21740,动态:20720,动态:22685,动态:21857,动态:20440,动态:21975,动态:21763,动态:22702,动态:20439,动态:21556</t>
+          <t>动态:20019,动态:11320,动态:18583,动态:16578,动态:13136,动态:13174,动态:14688,动态:18615,动态:14356,动态:19275,动态:19645,动态:11501,动态:18011,动态:7405,动态:16571,动态:3122,动态:13584,动态:18745,动态:11331,动态:7746,动态:22710,动态:21756,动态:21436,动态:22680,动态:21737,动态:22706,动态:20364,动态:22699,动态:21776,动态:22688,动态:22667,动态:20720,动态:22698,动态:20440,动态:22685,动态:22702,动态:22659,动态:22019,动态:22684,动态:20439,动态:21727,动态:22146,动态:21763,动态:22507,动态:22696,动态:21857,动态:22512,动态:21753,动态:21780,动态:22692</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>动态:15806,动态:13140,动态:8629,动态:20479,动态:20683,动态:12673,动态:15793,动态:15933,动态:16232,动态:16605,动态:15344,动态:9786,动态:21917,动态:16645,动态:10100,动态:11337,动态:13086,动态:9146,动态:6903,动态:17337,动态:22684,动态:21763,动态:22698,动态:22323,动态:22146,动态:21737,动态:21741,动态:21972,动态:21857,动态:22685,动态:21753,动态:21757,动态:22702,动态:22667,动态:21745,动态:22706,动态:22710,动态:20720,动态:22688,动态:21780,动态:22019,动态:20399,动态:21556,动态:20440,动态:21756,动态:21436,动态:22512,动态:22696,动态:21727,动态:21776</t>
+          <t>动态:20456,动态:18855,动态:18008,动态:11158,动态:13281,动态:10762,动态:12567,动态:16394,动态:15953,动态:21367,动态:11769,动态:12753,动态:15919,动态:6893,动态:20525,动态:19203,动态:13323,动态:7825,动态:5115,动态:10955,动态:18156,动态:22698,动态:21975,动态:20440,动态:22146,动态:21763,动态:21756,动态:20364,动态:22696,动态:4036,动态:22685,动态:7746,动态:17337,动态:22688,动态:21776,动态:22323,动态:21753,动态:21972,动态:21556,动态:22684,动态:21737,动态:22699,动态:21740,动态:21857,动态:22697,动态:22702,动态:21780,动态:22706,动态:22019,动态:21745</t>
         </is>
       </c>
     </row>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>动态:15806,动态:10526,动态:20922,动态:17408,动态:20083,动态:10913,动态:15861,动态:19417,动态:7815,动态:12718,动态:15715,动态:16603,动态:11158,动态:10017,动态:10478,动态:18141,动态:14524,动态:14111,动态:11620,动态:22146,动态:3133,动态:776,动态:9450,动态:16972,动态:12281,动态:3119,动态:22706,动态:21745,动态:22697,动态:21740,动态:22659,动态:21763,动态:22685,动态:22507,动态:22698,动态:22684,动态:20364,动态:22699,动态:21737,动态:22512,动态:21556,动态:21776,动态:22667,动态:20399,动态:22323,动态:22019,动态:20439,动态:21972,动态:21757,动态:22680</t>
+          <t>动态:20389,动态:13047,动态:13786,动态:19970,动态:3162,动态:21112,动态:9083,动态:16048,动态:18492,动态:20059,动态:10095,动态:11517,动态:18852,动态:16026,动态:14994,动态:18211,动态:19834,动态:15463,动态:20439,动态:22699,动态:21741,动态:22685,动态:22146,动态:4036,动态:20720,动态:7746,动态:22512,动态:22680,动态:21756,动态:22688,动态:22692,动态:22323,动态:22706,动态:20399,动态:21780,动态:21975,动态:22697,动态:21740,动态:22710,动态:21776,动态:22702,动态:21745,动态:21556,动态:22667,动态:21737,动态:22696,动态:17337,动态:21757,动态:22019,动态:20440</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>动态:11580,动态:9133,动态:17333,动态:19245,动态:22290,动态:21293,动态:16597,动态:12730,动态:13919,动态:21054,动态:15173,动态:11491,动态:14134,动态:19723,动态:9777,动态:16061,动态:15061,动态:19487,动态:11015,动态:22146,动态:21972,动态:22507,动态:22680,动态:21756,动态:21763,动态:22019,动态:21740,动态:20440,动态:20364,动态:22323,动态:21857,动态:22702,动态:21556,动态:22698,动态:22512,动态:21757,动态:22688,动态:21753,动态:21737,动态:22699,动态:7746,动态:21436,动态:21745,动态:22684,动态:20399,动态:21780,动态:20720,动态:22710,动态:22667,动态:20439</t>
+          <t>动态:15742,动态:18906,动态:7186,动态:21484,动态:20666,动态:16238,动态:13734,动态:16617,动态:2878,动态:13672,动态:8132,动态:19413,动态:13886,动态:11501,动态:13810,动态:20853,动态:14697,动态:14110,动态:21092,动态:7694,动态:13055,动态:7305,动态:22702,动态:22659,动态:21857,动态:21763,动态:21776,动态:22698,动态:22019,动态:21757,动态:22667,动态:22696,动态:22699,动态:21780,动态:21745,动态:21737,动态:22685,动态:21436,动态:4036,动态:22512,动态:21756,动态:20720,动态:22146,动态:22684,动态:22680,动态:21741,动态:21556,动态:22706,动态:20439,动态:20364</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>动态:16913,动态:18356,动态:19642,动态:17501,动态:12719,动态:14962,动态:5216,动态:10122,动态:6748,动态:12304,动态:16643,动态:12356,动态:6886,动态:13864,动态:16137,动态:17228,动态:18173,动态:22659,动态:22696,动态:21972,动态:20720,动态:17337,动态:22697,动态:22685,动态:21436,动态:22323,动态:22019,动态:22680,动态:21741,动态:7746,动态:21975,动态:21737,动态:21857,动态:21753,动态:22702,动态:22667,动态:20439,动态:22699,动态:4036,动态:21780,动态:22684,动态:21727,动态:20364,动态:21763,动态:21756,动态:22706,动态:20399,动态:22692,动态:21776,动态:22698</t>
+          <t>动态:6900,动态:12078,动态:6641,动态:20762,动态:789,动态:840,动态:19530,动态:11498,动态:12114,动态:22129,动态:19620,动态:17314,动态:9239,动态:10212,动态:15127,动态:15174,动态:16303,动态:22286,动态:12916,动态:19208,动态:9916,动态:9473,动态:14764,动态:22323,动态:22146,动态:20439,动态:21857,动态:22706,动态:22685,动态:21745,动态:22699,动态:22667,动态:21757,动态:22688,动态:20720,动态:4036,动态:21741,动态:22692,动态:20440,动态:22698,动态:21756,动态:22512,动态:22696,动态:21740,动态:22019,动态:21556,动态:21972,动态:22659,动态:21737,动态:21975</t>
         </is>
       </c>
     </row>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>动态:15078,动态:13056,动态:19385,动态:19835,动态:22658,动态:18025,动态:14999,动态:15632,动态:13976,动态:15077,动态:10474,动态:6622,动态:19007,动态:16900,动态:15058,动态:12881,动态:3795,动态:18365,动态:6360,动态:7148,动态:13316,动态:7603,动态:21757,动态:22323,动态:22146,动态:21436,动态:21763,动态:21727,动态:22680,动态:22684,动态:22685,动态:20364,动态:20399,动态:22696,动态:21756,动态:22019,动态:22688,动态:21745,动态:22667,动态:22710,动态:20440,动态:22512,动态:21740,动态:21776,动态:22692,动态:21780,动态:4036,动态:21556,动态:21972,动态:21753</t>
+          <t>动态:15344,动态:10012,动态:15211,动态:18875,动态:15267,动态:15661,动态:6913,动态:9307,动态:10643,动态:12711,动态:14811,动态:15627,动态:7122,动态:17512,动态:17949,动态:17696,动态:22667,动态:22659,动态:22697,动态:4036,动态:21972,动态:22699,动态:21737,动态:20439,动态:21556,动态:21727,动态:21753,动态:20364,动态:21756,动态:22710,动态:21763,动态:22146,动态:7746,动态:22696,动态:22323,动态:22698,动态:22680,动态:21745,动态:20440,动态:21975,动态:20720,动态:22019,动态:21741,动态:22684,动态:21740,动态:21776,动态:20399,动态:21436,动态:21757,动态:21780</t>
         </is>
       </c>
     </row>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>动态:9463,动态:769,动态:10931,动态:20048,动态:21664,动态:6831,动态:13081,动态:17970,动态:6658,动态:13070,动态:11678,动态:9936,动态:16260,动态:22103,动态:21485,动态:10087,动态:8142,动态:18843,动态:6755,动态:10519,动态:8015,动态:22697,动态:21444,动态:19755,动态:11697,动态:22032,动态:11517,动态:11015,动态:17337,动态:22323,动态:21756,动态:22685,动态:21776,动态:21740,动态:20364,动态:21857,动态:22680,动态:21745,动态:21436,动态:21972,动态:22684,动态:22512,动态:20439,动态:21727,动态:7746,动态:22667,动态:22698,动态:22696,动态:22710,动态:22692</t>
+          <t>动态:11274,动态:6580,动态:20926,动态:21357,动态:15987,动态:11585,动态:21537,动态:7751,动态:15765,动态:10342,动态:14120,动态:14764,动态:17657,动态:10209,动态:20230,动态:11079,动态:15963,动态:15435,动态:12865,动态:15858,动态:12367,动态:15950,动态:11577,动态:14496,动态:17337,动态:22706,动态:21757,动态:22697,动态:22019,动态:20399,动态:22692,动态:20364,动态:21756,动态:22688,动态:20439,动态:22512,动态:21780,动态:21727,动态:22667,动态:21975,动态:20440,动态:21763,动态:22684,动态:21737,动态:22507,动态:22696,动态:20720,动态:22323,动态:21972,动态:22680</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>动态:13802,动态:21648,动态:6779,动态:14084,动态:9766,动态:13256,动态:19656,动态:18695,动态:15950,动态:21160,动态:9712,动态:19697,动态:7111,动态:14818,动态:11551,动态:20205,动态:15228,动态:20399,动态:21757,动态:22702,动态:22146,动态:21556,动态:17337,动态:22507,动态:21753,动态:21780,动态:22019,动态:20439,动态:22692,动态:22697,动态:22710,动态:21737,动态:22512,动态:22685,动态:21436,动态:22696,动态:4036,动态:20364,动态:20720,动态:7746,动态:21756,动态:22688,动态:22659,动态:21727,动态:21857,动态:22680,动态:21776,动态:22323,动态:21972,动态:21975</t>
+          <t>动态:6578,动态:11134,动态:18327,动态:15928,动态:17237,动态:6747,动态:13663,动态:20016,动态:6789,动态:20960,动态:18467,动态:19939,动态:17097,动态:22548,动态:12051,动态:13297,动态:14345,动态:18813,动态:3115,动态:9160,动态:9800,动态:17964,动态:12240,动态:11442,动态:12281,动态:17975,动态:10106,动态:20720,动态:22667,动态:21776,动态:22659,动态:22710,动态:20399,动态:17337,动态:22698,动态:22702,动态:21857,动态:22692,动态:20440,动态:22512,动态:21972,动态:22146,动态:4036,动态:7746,动态:22507,动态:21763,动态:21757,动态:21745,动态:21753,动态:21727</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>动态:19448,动态:12897,动态:16052,动态:20337,动态:19377,动态:16076,动态:8122,动态:11408,动态:11034,动态:22657,动态:7099,动态:10210,动态:19541,动态:13016,动态:7601,动态:20271,动态:7529,动态:22692,动态:22697,动态:7746,动态:20399,动态:21756,动态:21727,动态:21745,动态:17337,动态:20364,动态:21753,动态:21972,动态:22680,动态:22512,动态:22146,动态:21763,动态:4036,动态:22667,动态:22710,动态:22685,动态:22507,动态:20439,动态:21741,动态:22323,动态:21757,动态:21740,动态:21857,动态:22698,动态:20720,动态:20440,动态:21776,动态:21780,动态:22659,动态:22684</t>
+          <t>动态:19450,动态:20310,动态:20261,动态:18994,动态:22502,动态:12893,动态:12145,动态:17541,动态:21229,动态:12070,动态:13639,动态:22019,动态:19829,动态:13790,动态:19503,动态:19200,动态:3090,动态:22688,动态:22146,动态:21975,动态:21756,动态:21780,动态:7746,动态:22323,动态:22507,动态:22697,动态:21436,动态:21556,动态:17337,动态:21745,动态:21727,动态:22710,动态:20720,动态:21737,动态:22685,动态:21972,动态:22680,动态:21763,动态:20440,动态:21757,动态:22698,动态:21740,动态:22706,动态:20399,动态:20439,动态:22696,动态:22692,动态:21857,动态:22667</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>动态:13729,动态:18683,动态:9036,动态:21658,动态:14352,动态:20731,动态:18868,动态:11403,动态:14305,动态:22624,动态:11698,动态:19215,动态:19991,动态:7153,动态:19933,动态:13212,动态:19514,动态:18733,动态:17958,动态:19899,动态:14456,动态:19127,动态:8295,动态:11137,动态:6294,动态:12389,动态:4036,动态:21757,动态:21780,动态:21776,动态:21745,动态:20440,动态:22019,动态:22688,动态:20439,动态:22696,动态:22512,动态:21756,动态:21753,动态:22697,动态:22667,动态:22659,动态:21857,动态:21737,动态:22680,动态:20720,动态:22698,动态:21436,动态:17337,动态:22323</t>
+          <t>动态:19128,动态:16068,动态:15940,动态:18368,动态:14206,动态:21060,动态:12557,动态:14311,动态:20481,动态:12842,动态:8764,动态:15913,动态:20256,动态:15166,动态:12334,动态:19170,动态:19097,动态:10534,动态:21361,动态:12076,动态:19253,动态:20178,动态:21436,动态:21740,动态:20364,动态:21780,动态:21741,动态:21745,动态:22706,动态:22512,动态:22146,动态:20439,动态:4036,动态:22696,动态:21756,动态:21763,动态:22659,动态:21857,动态:21556,动态:21753,动态:22688,动态:21972,动态:22697,动态:22680,动态:22685,动态:22323,动态:21727,动态:20399,动态:17337,动态:22667</t>
         </is>
       </c>
     </row>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>动态:12664,动态:9025,动态:11574,动态:16068,动态:13909,动态:20256,动态:7532,动态:13630,动态:9584,动态:6900,动态:7130,动态:16377,动态:10911,动态:17711,动态:11913,动态:18494,动态:11676,动态:13592,动态:15347,动态:18654,动态:15268,动态:14981,动态:11785,动态:19379,动态:21737,动态:22310,动态:14657,动态:7833,动态:12834,动态:10106,动态:15318,动态:12890,动态:10073,动态:13787,动态:21484,动态:21282,动态:12961,动态:12052,动态:22306,动态:18525,动态:17564,动态:784,动态:18995,动态:21141,动态:16802,动态:22684,动态:9724,动态:20364,动态:20399,动态:22431</t>
+          <t>动态:244,动态:22316,动态:11394,动态:15791,动态:16743,动态:14683,动态:14191,动态:18057,动态:18462,动态:15594,动态:7679,动态:15539,动态:11629,动态:3120,动态:15118,动态:10506,动态:3251,动态:9461,动态:14728,动态:21017,动态:16645,动态:14801,动态:11562,动态:17953,动态:12636,动态:10751,动态:14278,动态:15711,动态:18163,动态:21727,动态:15775,动态:19715,动态:11467,动态:14247,动态:19608,动态:20205,动态:14703,动态:16578,动态:21651,动态:17977,动态:21097,动态:5376,动态:9463,动态:16194,动态:9890,动态:12936,动态:21753,动态:22688,动态:15855,动态:21847</t>
         </is>
       </c>
     </row>
